--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,569 +478,569 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EFFWA</t>
+          <t>SILLYMONKS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207.95</v>
+        <v>19.76</v>
       </c>
       <c r="C2" t="n">
-        <v>244.95</v>
+        <v>23.71</v>
       </c>
       <c r="D2" t="n">
-        <v>17.79</v>
+        <v>19.99</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>232.15</v>
+        <v>23.71</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-5.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LANCORHOL</t>
+          <t>RNPL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.26</v>
+        <v>118.8</v>
       </c>
       <c r="C3" t="n">
-        <v>31.24</v>
+        <v>130.65</v>
       </c>
       <c r="D3" t="n">
-        <v>14.6</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>31.54</v>
+        <v>130.65</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BLBLIMITED</t>
+          <t>MONOLITH</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.12</v>
+        <v>509.1</v>
       </c>
       <c r="C4" t="n">
-        <v>17.99</v>
+        <v>555</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6</v>
+        <v>9.02</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>18.5</v>
+        <v>540</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>2.83</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DOLPHIN</t>
+          <t>GVPTECH</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>371.75</v>
+        <v>9.52</v>
       </c>
       <c r="C5" t="n">
-        <v>409.95</v>
+        <v>10.3</v>
       </c>
       <c r="D5" t="n">
-        <v>10.28</v>
+        <v>8.19</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>446.1</v>
+        <v>9.77</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>8.82</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BULKCORP</t>
+          <t>3MINDIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>75</v>
+        <v>30700</v>
       </c>
       <c r="C6" t="n">
-        <v>82.5</v>
+        <v>33060</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>7.69</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>78</v>
+        <v>34230</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-5.45</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RNPL</t>
+          <t>POWERINDIA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108</v>
+        <v>17919</v>
       </c>
       <c r="C7" t="n">
-        <v>118.8</v>
+        <v>19210</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>7.2</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>118.8</v>
+        <v>19292</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IFBAGRO</t>
+          <t>GLOBALE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1324.2</v>
+        <v>12.59</v>
       </c>
       <c r="C8" t="n">
-        <v>1449.5</v>
+        <v>13.48</v>
       </c>
       <c r="D8" t="n">
-        <v>9.460000000000001</v>
+        <v>7.07</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1484.5</v>
+        <v>13.04</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>2.41</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LGBBROSLTD</t>
+          <t>CUB</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1417.9</v>
+        <v>236.04</v>
       </c>
       <c r="C9" t="n">
-        <v>1550.9</v>
+        <v>251</v>
       </c>
       <c r="D9" t="n">
-        <v>9.380000000000001</v>
+        <v>6.34</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1608.1</v>
+        <v>251.31</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>3.69</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>REGENCERAM</t>
+          <t>SALONA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.6</v>
+        <v>273.6</v>
       </c>
       <c r="C10" t="n">
-        <v>50.35</v>
+        <v>288.85</v>
       </c>
       <c r="D10" t="n">
-        <v>8.050000000000001</v>
+        <v>5.57</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>47.01</v>
+        <v>271.1</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-6.63</v>
+        <v>-6.15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SILLYMONKS</t>
+          <t>MARINE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>18.59</v>
+        <v>240.85</v>
       </c>
       <c r="C11" t="n">
-        <v>19.97</v>
+        <v>254</v>
       </c>
       <c r="D11" t="n">
-        <v>7.42</v>
+        <v>5.46</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>19.8</v>
+        <v>249.4</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-0.85</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ASIANHOTNR</t>
+          <t>QUADFUTURE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>331.9</v>
+        <v>309.55</v>
       </c>
       <c r="C12" t="n">
-        <v>354.85</v>
+        <v>326</v>
       </c>
       <c r="D12" t="n">
-        <v>6.91</v>
+        <v>5.31</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>337.55</v>
+        <v>342</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>-4.88</v>
+        <v>4.91</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UTSSAV</t>
+          <t>ONELIFECAP</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>258.7</v>
+        <v>15.34</v>
       </c>
       <c r="C13" t="n">
-        <v>275</v>
+        <v>16.15</v>
       </c>
       <c r="D13" t="n">
-        <v>6.3</v>
+        <v>5.28</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>270</v>
+        <v>16.87</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-1.82</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>KAPSTON</t>
+          <t>RAJTV</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>288.1</v>
+        <v>40.6</v>
       </c>
       <c r="C14" t="n">
-        <v>306</v>
+        <v>42.74</v>
       </c>
       <c r="D14" t="n">
-        <v>6.21</v>
+        <v>5.27</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>293.8</v>
+        <v>41</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-3.99</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ISHAN</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.85</v>
+        <v>2.94</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9</v>
+        <v>3.09</v>
       </c>
       <c r="D15" t="n">
-        <v>5.88</v>
+        <v>5.1</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9</v>
+        <v>2.84</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-8.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KREBSBIO</t>
+          <t>TECHD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69.04000000000001</v>
+        <v>803.45</v>
       </c>
       <c r="C16" t="n">
-        <v>73</v>
+        <v>843.6</v>
       </c>
       <c r="D16" t="n">
-        <v>5.74</v>
+        <v>5</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>70.58</v>
+        <v>843.6</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-3.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LAKSHYA</t>
+          <t>CYBERTECH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>129.6</v>
+        <v>175.65</v>
       </c>
       <c r="C17" t="n">
-        <v>137</v>
+        <v>184.43</v>
       </c>
       <c r="D17" t="n">
-        <v>5.71</v>
+        <v>5</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>149.8</v>
+        <v>176</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>9.34</v>
+        <v>-4.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INCREDIBLE</t>
+          <t>SOMATEX</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>45.4</v>
+        <v>146.27</v>
       </c>
       <c r="C18" t="n">
-        <v>47.95</v>
+        <v>153.58</v>
       </c>
       <c r="D18" t="n">
-        <v>5.62</v>
+        <v>5</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>45.4</v>
+        <v>153.58</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>-5.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SRIVASAVI</t>
+          <t>TREJHARA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>58.25</v>
+        <v>227.27</v>
       </c>
       <c r="C19" t="n">
-        <v>61.5</v>
+        <v>238.63</v>
       </c>
       <c r="D19" t="n">
-        <v>5.58</v>
+        <v>5</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>60</v>
+        <v>236</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>-2.44</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DREDGECORP</t>
+          <t>VISASTEEL</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>741.15</v>
+        <v>67</v>
       </c>
       <c r="C20" t="n">
-        <v>780</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>5.24</v>
+        <v>5</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>831.15</v>
+        <v>70.34999999999999</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>6.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GNA</t>
+          <t>ISHANCH</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>313.75</v>
+        <v>72.79000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>330</v>
+        <v>76.42</v>
       </c>
       <c r="D21" t="n">
-        <v>5.18</v>
+        <v>4.99</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>326</v>
+        <v>76</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-1.21</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOMATEX</t>
+          <t>REFRACTORY</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>139.31</v>
+        <v>52.2</v>
       </c>
       <c r="C22" t="n">
-        <v>146.27</v>
+        <v>54.8</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>4.98</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>146.27</v>
+        <v>54.75</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SMLISUZU</t>
+          <t>SEYAIND</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3035.6</v>
+        <v>21.77</v>
       </c>
       <c r="C23" t="n">
-        <v>3187.3</v>
+        <v>22.85</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>4.96</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>3187.3</v>
+        <v>22.85</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
@@ -1050,49 +1050,49 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ZENTEC</t>
+          <t>DREDGECORP</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1357.2</v>
+        <v>889.35</v>
       </c>
       <c r="C24" t="n">
-        <v>1425</v>
+        <v>932.9</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>1404.6</v>
+        <v>921.5</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-1.43</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CYBERTECH</t>
+          <t>GAYAHWS</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>167.29</v>
+        <v>3.69</v>
       </c>
       <c r="C25" t="n">
-        <v>175.65</v>
+        <v>3.87</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>4.88</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>175.65</v>
+        <v>3.87</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
@@ -1102,23 +1102,23 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SWANDEF</t>
+          <t>SYNOPTICS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>736.45</v>
+        <v>79.5</v>
       </c>
       <c r="C26" t="n">
-        <v>773.25</v>
+        <v>83.2</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>773.25</v>
+        <v>83.2</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
@@ -1128,4547 +1128,4543 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TREJHARA</t>
+          <t>SWANDEF</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>216.45</v>
+        <v>773.25</v>
       </c>
       <c r="C27" t="n">
-        <v>227.27</v>
+        <v>808</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4.49</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>227.27</v>
+        <v>811.9</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>TECHD</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>765.2</v>
+        <v>1632.2</v>
       </c>
       <c r="C28" t="n">
-        <v>803.45</v>
+        <v>1705</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>4.46</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>803.45</v>
+        <v>1725</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ANONDITA</t>
+          <t>DHARAN</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>595.7</v>
+        <v>0.46</v>
       </c>
       <c r="C29" t="n">
-        <v>625.45</v>
+        <v>0.48</v>
       </c>
       <c r="D29" t="n">
-        <v>4.99</v>
+        <v>4.35</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>617.9</v>
+        <v>0.48</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>EUROTEXIND</t>
+          <t>TBOTEK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>22.46</v>
+        <v>1496.6</v>
       </c>
       <c r="C30" t="n">
-        <v>23.58</v>
+        <v>1560</v>
       </c>
       <c r="D30" t="n">
-        <v>4.99</v>
+        <v>4.24</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>23.58</v>
+        <v>1589.2</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SICALLOG</t>
+          <t>CHEMFAB</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>87.55</v>
+        <v>590.25</v>
       </c>
       <c r="C31" t="n">
-        <v>91.92</v>
+        <v>615</v>
       </c>
       <c r="D31" t="n">
-        <v>4.99</v>
+        <v>4.19</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>91.92</v>
+        <v>585.7</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>-4.76</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SEYAIND</t>
+          <t>ACMESOLAR</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>20.74</v>
+        <v>272.65</v>
       </c>
       <c r="C32" t="n">
-        <v>21.77</v>
+        <v>284</v>
       </c>
       <c r="D32" t="n">
-        <v>4.97</v>
+        <v>4.16</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>21.77</v>
+        <v>273.65</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TECHLABS</t>
+          <t>EXXARO</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>433.75</v>
+        <v>7.28</v>
       </c>
       <c r="C33" t="n">
-        <v>455.3</v>
+        <v>7.58</v>
       </c>
       <c r="D33" t="n">
-        <v>4.97</v>
+        <v>4.12</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>455.4</v>
+        <v>7.99</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>0.02</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>IL&amp;FSTRANS</t>
+          <t>GREENPOWER</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.03</v>
+        <v>14.34</v>
       </c>
       <c r="C34" t="n">
-        <v>3.18</v>
+        <v>14.93</v>
       </c>
       <c r="D34" t="n">
-        <v>4.95</v>
+        <v>4.11</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
-      <c r="F34" t="inlineStr"/>
+      <c r="F34" t="n">
+        <v>14.51</v>
+      </c>
       <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+      <c r="H34" t="n">
+        <v>-2.81</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GLFL</t>
+          <t>MEGASOFT</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>8.9</v>
+        <v>221.9</v>
       </c>
       <c r="C35" t="n">
-        <v>9.34</v>
+        <v>231</v>
       </c>
       <c r="D35" t="n">
-        <v>4.94</v>
+        <v>4.1</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>9.34</v>
+        <v>224.28</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>INNOMET</t>
+          <t>THANGAMAYL</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>137.95</v>
+        <v>2603.5</v>
       </c>
       <c r="C36" t="n">
-        <v>144.75</v>
+        <v>2709.1</v>
       </c>
       <c r="D36" t="n">
-        <v>4.93</v>
+        <v>4.06</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>144.8</v>
+        <v>2890</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>0.03</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HECPROJECT</t>
+          <t>DOLPHIN</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>135.17</v>
+        <v>446.1</v>
       </c>
       <c r="C37" t="n">
-        <v>141.8</v>
+        <v>464</v>
       </c>
       <c r="D37" t="n">
-        <v>4.9</v>
+        <v>4.01</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>138.06</v>
+        <v>475</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-2.64</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SADHNANIQ</t>
+          <t>UNITEDPOLY</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.36</v>
+        <v>41.8</v>
       </c>
       <c r="C38" t="n">
-        <v>7.72</v>
+        <v>43.4</v>
       </c>
       <c r="D38" t="n">
-        <v>4.89</v>
+        <v>3.83</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.72</v>
+        <v>43.5</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JPASSOCIAT</t>
+          <t>JSLL</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.3</v>
+        <v>772.45</v>
       </c>
       <c r="C39" t="n">
-        <v>3.46</v>
+        <v>801.95</v>
       </c>
       <c r="D39" t="n">
-        <v>4.85</v>
+        <v>3.82</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>3.13</v>
+        <v>786.9</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-9.539999999999999</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>TFL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8.73</v>
+        <v>12.91</v>
       </c>
       <c r="C40" t="n">
-        <v>9.15</v>
+        <v>13.4</v>
       </c>
       <c r="D40" t="n">
-        <v>4.81</v>
+        <v>3.8</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>8.98</v>
+        <v>13</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-1.86</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BGLOBAL</t>
+          <t>TAC</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.19</v>
+        <v>856.85</v>
       </c>
       <c r="C41" t="n">
-        <v>4.39</v>
+        <v>889</v>
       </c>
       <c r="D41" t="n">
-        <v>4.77</v>
+        <v>3.75</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>4.39</v>
+        <v>899.65</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GAYAHWS</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.52</v>
+        <v>234.66</v>
       </c>
       <c r="C42" t="n">
-        <v>3.68</v>
+        <v>243.45</v>
       </c>
       <c r="D42" t="n">
-        <v>4.55</v>
+        <v>3.75</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3.69</v>
+        <v>241.57</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>0.27</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RRKABEL</t>
+          <t>AUSOMENT</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1412</v>
+        <v>105.06</v>
       </c>
       <c r="C43" t="n">
-        <v>1475.4</v>
+        <v>109</v>
       </c>
       <c r="D43" t="n">
-        <v>4.49</v>
+        <v>3.75</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1438.3</v>
+        <v>105.79</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-2.51</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MUFIN</t>
+          <t>HECPROJECT</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>117.73</v>
+        <v>137.08</v>
       </c>
       <c r="C44" t="n">
-        <v>123</v>
+        <v>142</v>
       </c>
       <c r="D44" t="n">
-        <v>4.48</v>
+        <v>3.59</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>121.19</v>
+        <v>136.56</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-1.47</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ORIENTCEM</t>
+          <t>S&amp;SPOWER</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>214.46</v>
+        <v>352.6</v>
       </c>
       <c r="C45" t="n">
-        <v>223.99</v>
+        <v>365</v>
       </c>
       <c r="D45" t="n">
-        <v>4.44</v>
+        <v>3.52</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="n">
-        <v>219.2</v>
-      </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="n">
-        <v>-2.14</v>
-      </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NAGREEKCAP</t>
+          <t>KAYA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.25</v>
+        <v>459.55</v>
       </c>
       <c r="C46" t="n">
-        <v>32.6</v>
+        <v>474.9</v>
       </c>
       <c r="D46" t="n">
-        <v>4.32</v>
+        <v>3.34</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>32.64</v>
+        <v>464.95</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>0.12</v>
+        <v>-2.1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ROLTA</t>
+          <t>ADROITINFO</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1.86</v>
+        <v>11.47</v>
       </c>
       <c r="C47" t="n">
-        <v>1.94</v>
+        <v>11.85</v>
       </c>
       <c r="D47" t="n">
-        <v>4.3</v>
+        <v>3.31</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>1.9</v>
+        <v>11.56</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-2.06</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SAMBHAAV</t>
+          <t>PARASPETRO</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9.300000000000001</v>
+        <v>2.12</v>
       </c>
       <c r="C48" t="n">
-        <v>9.699999999999999</v>
+        <v>2.19</v>
       </c>
       <c r="D48" t="n">
-        <v>4.3</v>
+        <v>3.3</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>9.49</v>
+        <v>2.18</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-2.16</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MHRIL</t>
+          <t>SAGARDEEP</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>328.65</v>
+        <v>29.44</v>
       </c>
       <c r="C49" t="n">
-        <v>342.7</v>
+        <v>30.4</v>
       </c>
       <c r="D49" t="n">
-        <v>4.28</v>
+        <v>3.26</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>338.8</v>
+        <v>28.7</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-1.14</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PRIMECAB</t>
+          <t>VALIANTORG</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>104.55</v>
+        <v>305.05</v>
       </c>
       <c r="C50" t="n">
-        <v>109</v>
+        <v>314.9</v>
       </c>
       <c r="D50" t="n">
-        <v>4.26</v>
+        <v>3.23</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>113</v>
+        <v>309.05</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>3.67</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SIGMA</t>
+          <t>ROLTA</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>55.45</v>
+        <v>1.95</v>
       </c>
       <c r="C51" t="n">
-        <v>57.78</v>
+        <v>2.01</v>
       </c>
       <c r="D51" t="n">
-        <v>4.2</v>
+        <v>3.08</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>57.95</v>
+        <v>2</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>0.29</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VGL</t>
+          <t>ALMONDZ</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>127.53</v>
+        <v>18.6</v>
       </c>
       <c r="C52" t="n">
-        <v>132.8</v>
+        <v>19.17</v>
       </c>
       <c r="D52" t="n">
-        <v>4.13</v>
+        <v>3.06</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>133.9</v>
+        <v>18.97</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>0.83</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GCHOTELS</t>
+          <t>LATTEYS</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>196</v>
+        <v>29.46</v>
       </c>
       <c r="C53" t="n">
-        <v>204</v>
+        <v>30.35</v>
       </c>
       <c r="D53" t="n">
-        <v>4.08</v>
+        <v>3.02</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>204</v>
+        <v>29.8</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SNOWMAN</t>
+          <t>MADHUCON</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>51.31</v>
+        <v>7.11</v>
       </c>
       <c r="C54" t="n">
-        <v>53.4</v>
+        <v>7.32</v>
       </c>
       <c r="D54" t="n">
-        <v>4.07</v>
+        <v>2.95</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>52.01</v>
+        <v>7.03</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-2.6</v>
+        <v>-3.96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BCONCEPTS</t>
+          <t>OAL</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>340.1</v>
+        <v>347.1</v>
       </c>
       <c r="C55" t="n">
-        <v>353.95</v>
+        <v>357.3</v>
       </c>
       <c r="D55" t="n">
-        <v>4.07</v>
+        <v>2.94</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>340</v>
+        <v>348.7</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-3.94</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SHEKHAWATI</t>
+          <t>SILGO</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>20.66</v>
+        <v>68.02</v>
       </c>
       <c r="C56" t="n">
-        <v>21.49</v>
+        <v>70</v>
       </c>
       <c r="D56" t="n">
-        <v>4.02</v>
+        <v>2.91</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>20.87</v>
+        <v>67.13</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-2.89</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MEGASOFT</t>
+          <t>TVSHLTD</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>211.34</v>
+        <v>15062</v>
       </c>
       <c r="C57" t="n">
-        <v>219.8</v>
+        <v>15496</v>
       </c>
       <c r="D57" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>221.9</v>
+        <v>15137</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>0.96</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ALMONDZ</t>
+          <t>RITES</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>19.12</v>
+        <v>247.88</v>
       </c>
       <c r="C58" t="n">
-        <v>19.88</v>
+        <v>255</v>
       </c>
       <c r="D58" t="n">
-        <v>3.97</v>
+        <v>2.87</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>19.51</v>
+        <v>251.69</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-1.86</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>JAIPURKURT</t>
+          <t>TERASOFT</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>39.15</v>
+        <v>530.9</v>
       </c>
       <c r="C59" t="n">
-        <v>40.7</v>
+        <v>546</v>
       </c>
       <c r="D59" t="n">
-        <v>3.96</v>
+        <v>2.84</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>40.47</v>
+        <v>557</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-0.57</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DCMFINSERV</t>
+          <t>MAHASTEEL</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>5.44</v>
+        <v>601.9</v>
       </c>
       <c r="C60" t="n">
-        <v>5.65</v>
+        <v>619</v>
       </c>
       <c r="D60" t="n">
-        <v>3.86</v>
+        <v>2.84</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>5.29</v>
+        <v>606.3</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-6.37</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>KODYTECH</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>4.17</v>
+        <v>679.85</v>
       </c>
       <c r="C61" t="n">
-        <v>4.33</v>
+        <v>699</v>
       </c>
       <c r="D61" t="n">
-        <v>3.84</v>
+        <v>2.82</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>4.21</v>
+        <v>714.95</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-2.77</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DBSTOCKBRO</t>
+          <t>KAUSHALYA</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>25.25</v>
+        <v>1005.4</v>
       </c>
       <c r="C62" t="n">
-        <v>26.2</v>
+        <v>1033</v>
       </c>
       <c r="D62" t="n">
-        <v>3.76</v>
+        <v>2.75</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>25.4</v>
+        <v>1033</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-3.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INNOVANA</t>
+          <t>SIGMA</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>482</v>
+        <v>58.22</v>
       </c>
       <c r="C63" t="n">
-        <v>499.9</v>
+        <v>59.8</v>
       </c>
       <c r="D63" t="n">
-        <v>3.71</v>
+        <v>2.71</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>499.8</v>
+        <v>58.6</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-0.02</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DIGIKORE</t>
+          <t>FLFL</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>96.5</v>
+        <v>1.51</v>
       </c>
       <c r="C64" t="n">
-        <v>100</v>
+        <v>1.55</v>
       </c>
       <c r="D64" t="n">
-        <v>3.63</v>
+        <v>2.65</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>95</v>
+        <v>1.55</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ICDSLTD</t>
+          <t>NAGREEKEXP</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>47</v>
+        <v>29.42</v>
       </c>
       <c r="C65" t="n">
-        <v>48.7</v>
+        <v>30.2</v>
       </c>
       <c r="D65" t="n">
-        <v>3.62</v>
+        <v>2.65</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>47</v>
+        <v>29.95</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-3.49</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SCHAEFFLER</t>
+          <t>RELCHEMQ</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4021.4</v>
+        <v>153.64</v>
       </c>
       <c r="C66" t="n">
-        <v>4162</v>
+        <v>157.6</v>
       </c>
       <c r="D66" t="n">
-        <v>3.5</v>
+        <v>2.58</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>4177.9</v>
+        <v>156.82</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>0.38</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>AMNPLST</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>20.16</v>
+        <v>214.59</v>
       </c>
       <c r="C67" t="n">
-        <v>20.86</v>
+        <v>219.99</v>
       </c>
       <c r="D67" t="n">
-        <v>3.47</v>
+        <v>2.52</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>20.54</v>
+        <v>219.99</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-1.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>MWL</t>
+          <t>ANIKINDS</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>227.29</v>
+        <v>75.11</v>
       </c>
       <c r="C68" t="n">
-        <v>235</v>
+        <v>77</v>
       </c>
       <c r="D68" t="n">
-        <v>3.39</v>
+        <v>2.52</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>228.61</v>
+        <v>76.37</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-2.72</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>WOMANCART</t>
+          <t>HARRMALAYA</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>288.3</v>
+        <v>197.86</v>
       </c>
       <c r="C69" t="n">
-        <v>298</v>
+        <v>202.8</v>
       </c>
       <c r="D69" t="n">
-        <v>3.36</v>
+        <v>2.5</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>301.05</v>
+        <v>200.24</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>1.02</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LATTEYS</t>
+          <t>ORIENTTECH</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>28.06</v>
+        <v>471.95</v>
       </c>
       <c r="C70" t="n">
-        <v>29</v>
+        <v>483.65</v>
       </c>
       <c r="D70" t="n">
-        <v>3.35</v>
+        <v>2.48</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>29.43</v>
+        <v>480.5</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>1.48</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TVVISION</t>
+          <t>BTML</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>6.05</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>6.25</v>
+        <v>8.34</v>
       </c>
       <c r="D71" t="n">
-        <v>3.31</v>
+        <v>2.46</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>6.21</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-0.64</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TAC</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>816.05</v>
+        <v>53.1</v>
       </c>
       <c r="C72" t="n">
-        <v>843</v>
+        <v>54.4</v>
       </c>
       <c r="D72" t="n">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>855</v>
+        <v>53.71</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>1.42</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>V2RETAIL</t>
+          <t>INDUSTOWER</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>2442</v>
+        <v>382.75</v>
       </c>
       <c r="C73" t="n">
-        <v>2519.8</v>
+        <v>392</v>
       </c>
       <c r="D73" t="n">
-        <v>3.19</v>
+        <v>2.42</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>2462.4</v>
+        <v>392.85</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-2.28</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MEDPLUS</t>
+          <t>PNC</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>762.85</v>
+        <v>29</v>
       </c>
       <c r="C74" t="n">
-        <v>787</v>
+        <v>29.7</v>
       </c>
       <c r="D74" t="n">
-        <v>3.17</v>
+        <v>2.41</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>795.9</v>
+        <v>29.7</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>GOLDTECH</t>
+          <t>WIPL</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>60.56</v>
+        <v>172.86</v>
       </c>
       <c r="C75" t="n">
-        <v>62.47</v>
+        <v>177</v>
       </c>
       <c r="D75" t="n">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>61.07</v>
+        <v>170.46</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-2.24</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>AIROLAM</t>
+          <t>ASIANENE</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>102.75</v>
+        <v>332.55</v>
       </c>
       <c r="C76" t="n">
-        <v>105.99</v>
+        <v>340.4</v>
       </c>
       <c r="D76" t="n">
-        <v>3.15</v>
+        <v>2.36</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>104.9</v>
+        <v>350.5</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-1.03</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CUBEXTUB</t>
+          <t>YUKEN</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>93.8</v>
+        <v>964.3</v>
       </c>
       <c r="C77" t="n">
-        <v>96.75</v>
+        <v>987</v>
       </c>
       <c r="D77" t="n">
-        <v>3.14</v>
+        <v>2.35</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>91.81</v>
+        <v>973.85</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-5.11</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>DHUNINV</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>10.24</v>
+        <v>1391.4</v>
       </c>
       <c r="C78" t="n">
-        <v>10.56</v>
+        <v>1423.6</v>
       </c>
       <c r="D78" t="n">
-        <v>3.13</v>
+        <v>2.31</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>10.49</v>
+        <v>1410.3</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-0.66</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>GATECH</t>
+          <t>SHAHALLOYS</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.64</v>
+        <v>76.23999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.66</v>
+        <v>78</v>
       </c>
       <c r="D79" t="n">
-        <v>3.13</v>
+        <v>2.31</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>0.65</v>
+        <v>78.44</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-1.52</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BANG</t>
+          <t>SITINET</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>56.49</v>
+        <v>0.44</v>
       </c>
       <c r="C80" t="n">
-        <v>58.26</v>
+        <v>0.45</v>
       </c>
       <c r="D80" t="n">
-        <v>3.13</v>
+        <v>2.27</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>56</v>
+        <v>0.44</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-3.88</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SILGO</t>
+          <t>SMARTWORKS</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>67.03</v>
+        <v>594.25</v>
       </c>
       <c r="C81" t="n">
-        <v>69.09999999999999</v>
+        <v>607.7</v>
       </c>
       <c r="D81" t="n">
-        <v>3.09</v>
+        <v>2.26</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>67.25</v>
+        <v>598.3</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-2.68</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SKMEGGPROD</t>
+          <t>ASTRON</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>417.25</v>
+        <v>10.2</v>
       </c>
       <c r="C82" t="n">
-        <v>429.95</v>
+        <v>10.43</v>
       </c>
       <c r="D82" t="n">
-        <v>3.04</v>
+        <v>2.25</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>439.55</v>
+        <v>10.34</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>2.23</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ACLGATI</t>
+          <t>IZMO</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>64.58</v>
+        <v>860.65</v>
       </c>
       <c r="C83" t="n">
-        <v>66.5</v>
+        <v>880</v>
       </c>
       <c r="D83" t="n">
-        <v>2.97</v>
+        <v>2.25</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>65.67</v>
+        <v>903.65</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-1.25</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ROML</t>
+          <t>ABSMARINE</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>51.46</v>
+        <v>220</v>
       </c>
       <c r="C84" t="n">
-        <v>52.99</v>
+        <v>224.95</v>
       </c>
       <c r="D84" t="n">
-        <v>2.97</v>
+        <v>2.25</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>51.82</v>
+        <v>222.95</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-2.21</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>DAMODARIND</t>
+          <t>SARTELE</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>34.25</v>
+        <v>176.05</v>
       </c>
       <c r="C85" t="n">
-        <v>35.25</v>
+        <v>180</v>
       </c>
       <c r="D85" t="n">
-        <v>2.92</v>
+        <v>2.24</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>34.78</v>
+        <v>178.45</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-1.33</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WIPL</t>
+          <t>AIROLAM</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>171.98</v>
+        <v>103.24</v>
       </c>
       <c r="C86" t="n">
-        <v>177</v>
+        <v>105.55</v>
       </c>
       <c r="D86" t="n">
-        <v>2.92</v>
+        <v>2.24</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>170.3</v>
+        <v>105.99</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-3.79</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>KALYANIFRG</t>
+          <t>ZEELEARN</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>702.65</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C87" t="n">
-        <v>723</v>
+        <v>8.66</v>
       </c>
       <c r="D87" t="n">
-        <v>2.9</v>
+        <v>2.24</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>713.95</v>
+        <v>8.57</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-1.25</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CTE</t>
+          <t>HIGREEN</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>56.17</v>
+        <v>193.1</v>
       </c>
       <c r="C88" t="n">
-        <v>57.8</v>
+        <v>197.4</v>
       </c>
       <c r="D88" t="n">
-        <v>2.9</v>
+        <v>2.23</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>56.93</v>
+        <v>195</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-1.51</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>MAANALU</t>
+          <t>CHEMBONDCH</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>139.41</v>
+        <v>156</v>
       </c>
       <c r="C89" t="n">
-        <v>143.4</v>
+        <v>159.45</v>
       </c>
       <c r="D89" t="n">
-        <v>2.86</v>
+        <v>2.21</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>142.3</v>
+        <v>157.27</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-0.77</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PICCADIL</t>
+          <t>SHYAMCENT</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>680.05</v>
+        <v>6.83</v>
       </c>
       <c r="C90" t="n">
-        <v>699</v>
+        <v>6.98</v>
       </c>
       <c r="D90" t="n">
-        <v>2.79</v>
+        <v>2.2</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>694.3</v>
+        <v>6.84</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-0.67</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ARCHIES</t>
+          <t>SHAH</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>19.75</v>
+        <v>4.56</v>
       </c>
       <c r="C91" t="n">
-        <v>20.3</v>
+        <v>4.66</v>
       </c>
       <c r="D91" t="n">
-        <v>2.78</v>
+        <v>2.19</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>20.15</v>
+        <v>4.65</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-0.74</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CPS</t>
+          <t>ESSENTIA</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1050.85</v>
+        <v>1.84</v>
       </c>
       <c r="C92" t="n">
-        <v>1079.9</v>
+        <v>1.88</v>
       </c>
       <c r="D92" t="n">
-        <v>2.76</v>
+        <v>2.17</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1075</v>
+        <v>1.86</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-0.45</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SHANTIGOLD</t>
+          <t>SOMICONVEY</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>238.19</v>
+        <v>156.12</v>
       </c>
       <c r="C93" t="n">
-        <v>244.75</v>
+        <v>159.5</v>
       </c>
       <c r="D93" t="n">
-        <v>2.75</v>
+        <v>2.17</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>239.37</v>
+        <v>157.79</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-2.2</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>KODYTECH</t>
+          <t>BELLACASA</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>569.45</v>
+        <v>440.55</v>
       </c>
       <c r="C94" t="n">
-        <v>584.95</v>
+        <v>449.9</v>
       </c>
       <c r="D94" t="n">
-        <v>2.72</v>
+        <v>2.12</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>580</v>
+        <v>446.45</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-0.85</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BSL</t>
+          <t>ONEPOINT</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>197.65</v>
+        <v>48.92</v>
       </c>
       <c r="C95" t="n">
-        <v>203</v>
+        <v>49.95</v>
       </c>
       <c r="D95" t="n">
-        <v>2.71</v>
+        <v>2.11</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>198.13</v>
+        <v>49.5</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-2.4</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ANIKINDS</t>
+          <t>UYFINCORP</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>75.41</v>
+        <v>15.48</v>
       </c>
       <c r="C96" t="n">
-        <v>77.45</v>
+        <v>15.8</v>
       </c>
       <c r="D96" t="n">
-        <v>2.71</v>
+        <v>2.07</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>76.06999999999999</v>
+        <v>15.66</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-1.78</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PREMIERPOL</t>
+          <t>ACL</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>43.66</v>
+        <v>72.02</v>
       </c>
       <c r="C97" t="n">
-        <v>44.83</v>
+        <v>73.48999999999999</v>
       </c>
       <c r="D97" t="n">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>43.3</v>
+        <v>71.37</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-3.41</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>YUKEN</t>
+          <t>LOKESHMACH</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>988.8</v>
+        <v>188.75</v>
       </c>
       <c r="C98" t="n">
-        <v>1015</v>
+        <v>192.6</v>
       </c>
       <c r="D98" t="n">
-        <v>2.65</v>
+        <v>2.04</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>991.6</v>
+        <v>189.91</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-2.31</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>KAMOPAINTS</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1118.6</v>
+        <v>7.97</v>
       </c>
       <c r="C99" t="n">
-        <v>1148</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="D99" t="n">
-        <v>2.63</v>
+        <v>2.01</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1162.1</v>
+        <v>8</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>1.23</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ICRA</t>
+          <t>ABINFRA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6424.5</v>
+        <v>19.61</v>
       </c>
       <c r="C100" t="n">
-        <v>6590</v>
+        <v>20</v>
       </c>
       <c r="D100" t="n">
-        <v>2.58</v>
+        <v>1.99</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>6520</v>
+        <v>19.85</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-1.06</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SBFC</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>114.08</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C101" t="n">
-        <v>117</v>
+        <v>9.73</v>
       </c>
       <c r="D101" t="n">
-        <v>2.56</v>
+        <v>1.99</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>119.17</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>1.85</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HMT</t>
+          <t>NGIL</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>56.07</v>
+        <v>29.76</v>
       </c>
       <c r="C102" t="n">
-        <v>57.5</v>
+        <v>30.35</v>
       </c>
       <c r="D102" t="n">
-        <v>2.55</v>
+        <v>1.98</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>56.99</v>
+        <v>30.09</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-0.89</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>VRLLOG</t>
+          <t>MONEYBOXX</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>279.85</v>
+        <v>161.79</v>
       </c>
       <c r="C103" t="n">
-        <v>287</v>
+        <v>165</v>
       </c>
       <c r="D103" t="n">
-        <v>2.55</v>
+        <v>1.98</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>281.35</v>
+        <v>162.25</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-1.97</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>STOVEKRAFT</t>
+          <t>SYSTMTXC</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>787.65</v>
+        <v>160.34</v>
       </c>
       <c r="C104" t="n">
-        <v>807.7</v>
+        <v>163.5</v>
       </c>
       <c r="D104" t="n">
-        <v>2.55</v>
+        <v>1.97</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>782.95</v>
+        <v>173.81</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-3.06</v>
+        <v>6.31</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SPLIL</t>
+          <t>DCM</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>44.09</v>
+        <v>92</v>
       </c>
       <c r="C105" t="n">
-        <v>45.2</v>
+        <v>93.8</v>
       </c>
       <c r="D105" t="n">
-        <v>2.52</v>
+        <v>1.96</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>44.2</v>
+        <v>91.73999999999999</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-2.21</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FCONSUMER</t>
+          <t>USK</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.4</v>
+        <v>25.97</v>
       </c>
       <c r="C106" t="n">
-        <v>0.41</v>
+        <v>26.48</v>
       </c>
       <c r="D106" t="n">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>0.42</v>
+        <v>26.07</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>2.44</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ARVINDPORT</t>
+          <t>DBEIL</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>65.40000000000001</v>
+        <v>147.13</v>
       </c>
       <c r="C107" t="n">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="D107" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>66</v>
+        <v>148.59</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-1.49</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>RAJRILTD</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.87</v>
+        <v>24.67</v>
       </c>
       <c r="C108" t="n">
-        <v>2.94</v>
+        <v>25.15</v>
       </c>
       <c r="D108" t="n">
-        <v>2.44</v>
+        <v>1.95</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2.87</v>
+        <v>25.03</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-2.38</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NOVAAGRI</t>
+          <t>NIBE</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>47.55</v>
+        <v>1191.9</v>
       </c>
       <c r="C109" t="n">
-        <v>48.7</v>
+        <v>1215</v>
       </c>
       <c r="D109" t="n">
-        <v>2.42</v>
+        <v>1.94</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>47.14</v>
+        <v>1202.8</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-3.2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SRM</t>
+          <t>SUTLEJTEX</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>571.35</v>
+        <v>35.02</v>
       </c>
       <c r="C110" t="n">
-        <v>585</v>
+        <v>35.7</v>
       </c>
       <c r="D110" t="n">
-        <v>2.39</v>
+        <v>1.94</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>584.65</v>
+        <v>35.61</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-0.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DBOL</t>
+          <t>SHEMAROO</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>78.95999999999999</v>
+        <v>113.02</v>
       </c>
       <c r="C111" t="n">
-        <v>80.84</v>
+        <v>115.2</v>
       </c>
       <c r="D111" t="n">
-        <v>2.38</v>
+        <v>1.93</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>79.48</v>
+        <v>114</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-1.68</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SARTELE</t>
+          <t>BHARATSE</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>167.45</v>
+        <v>208.98</v>
       </c>
       <c r="C112" t="n">
-        <v>171.4</v>
+        <v>213</v>
       </c>
       <c r="D112" t="n">
-        <v>2.36</v>
+        <v>1.92</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>169.8</v>
+        <v>208.57</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-0.93</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TATVA</t>
+          <t>FOCUS</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1422.3</v>
+        <v>85.14</v>
       </c>
       <c r="C113" t="n">
-        <v>1455</v>
+        <v>86.77</v>
       </c>
       <c r="D113" t="n">
-        <v>2.3</v>
+        <v>1.91</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1397.1</v>
+        <v>85.31999999999999</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-3.98</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>GLOBALE</t>
+          <t>RPPL</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>12.21</v>
+        <v>19.33</v>
       </c>
       <c r="C114" t="n">
-        <v>12.49</v>
+        <v>19.7</v>
       </c>
       <c r="D114" t="n">
-        <v>2.29</v>
+        <v>1.91</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>12.89</v>
+        <v>19.34</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>3.2</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NIPPOBATRY</t>
+          <t>ODIGMA</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>441.6</v>
+        <v>38.75</v>
       </c>
       <c r="C115" t="n">
-        <v>451.5</v>
+        <v>39.49</v>
       </c>
       <c r="D115" t="n">
-        <v>2.24</v>
+        <v>1.91</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>446.95</v>
+        <v>38.6</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-1.01</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PAVNAIND</t>
+          <t>ORCHPHARMA</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>36.39</v>
+        <v>770.35</v>
       </c>
       <c r="C116" t="n">
-        <v>37.2</v>
+        <v>785</v>
       </c>
       <c r="D116" t="n">
-        <v>2.23</v>
+        <v>1.9</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>35.98</v>
+        <v>777.5</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-3.28</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>BANKBARODA</t>
+          <t>DNAMEDIA</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>278.4</v>
+        <v>4.21</v>
       </c>
       <c r="C117" t="n">
-        <v>284.5</v>
+        <v>4.29</v>
       </c>
       <c r="D117" t="n">
-        <v>2.19</v>
+        <v>1.9</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>287.95</v>
+        <v>4.27</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>1.21</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FLEXITUFF</t>
+          <t>TOKYOPLAST</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>21.48</v>
+        <v>124.54</v>
       </c>
       <c r="C118" t="n">
-        <v>21.95</v>
+        <v>126.9</v>
       </c>
       <c r="D118" t="n">
-        <v>2.19</v>
+        <v>1.89</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>21.48</v>
+        <v>126.7</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-2.14</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>AGSTRA</t>
+          <t>OCCLLTD</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>4.25</v>
+        <v>115.85</v>
       </c>
       <c r="C119" t="n">
-        <v>4.34</v>
+        <v>118.02</v>
       </c>
       <c r="D119" t="n">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>4.27</v>
+        <v>115.04</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-1.61</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NELCAST</t>
+          <t>OSWALAGRO</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>116.15</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="C120" t="n">
-        <v>118.6</v>
+        <v>80.69</v>
       </c>
       <c r="D120" t="n">
-        <v>2.11</v>
+        <v>1.87</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>115.43</v>
+        <v>80.48</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-2.67</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AIMTRON</t>
+          <t>LAKSHYA</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>802.15</v>
+        <v>149.7</v>
       </c>
       <c r="C121" t="n">
-        <v>819</v>
+        <v>152.5</v>
       </c>
       <c r="D121" t="n">
-        <v>2.1</v>
+        <v>1.87</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>869</v>
+        <v>150.1</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>6.11</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BROOKS</t>
+          <t>DIGIDRIVE</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>110.93</v>
+        <v>28.67</v>
       </c>
       <c r="C122" t="n">
-        <v>113.25</v>
+        <v>29.2</v>
       </c>
       <c r="D122" t="n">
-        <v>2.09</v>
+        <v>1.85</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>111.91</v>
+        <v>28.22</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-1.18</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>GPTINFRA</t>
+          <t>AURIONPRO</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>106.76</v>
+        <v>1217.4</v>
       </c>
       <c r="C123" t="n">
-        <v>108.98</v>
+        <v>1239.9</v>
       </c>
       <c r="D123" t="n">
-        <v>2.08</v>
+        <v>1.85</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>107.01</v>
+        <v>1205</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-1.81</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CHEMBONDCH</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>159.4</v>
+        <v>0.55</v>
       </c>
       <c r="C124" t="n">
-        <v>162.7</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>2.07</v>
+        <v>1.82</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>160.12</v>
+        <v>0.54</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-1.59</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>VIRINCHI</t>
+          <t>HINDCON</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>27.97</v>
+        <v>33.13</v>
       </c>
       <c r="C125" t="n">
-        <v>28.55</v>
+        <v>33.73</v>
       </c>
       <c r="D125" t="n">
-        <v>2.07</v>
+        <v>1.81</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>28.34</v>
+        <v>33</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-0.74</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEX</t>
+          <t>NOIDATOLL</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1641.2</v>
+        <v>4.42</v>
       </c>
       <c r="C126" t="n">
-        <v>1675</v>
+        <v>4.5</v>
       </c>
       <c r="D126" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1653.2</v>
+        <v>4.41</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-1.3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RADAAN</t>
+          <t>SHRADHA</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>3.4</v>
+        <v>44.2</v>
       </c>
       <c r="C127" t="n">
-        <v>3.47</v>
+        <v>45</v>
       </c>
       <c r="D127" t="n">
-        <v>2.06</v>
+        <v>1.81</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>3.41</v>
+        <v>44.38</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-1.73</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ACC</t>
+          <t>FISCHER</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>1881.5</v>
+        <v>107.07</v>
       </c>
       <c r="C128" t="n">
-        <v>1920</v>
+        <v>109</v>
       </c>
       <c r="D128" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>1893</v>
+        <v>103.26</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-1.41</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>INDBANK</t>
+          <t>BALAXI</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>40.45</v>
+        <v>43.08</v>
       </c>
       <c r="C129" t="n">
-        <v>41.28</v>
+        <v>43.85</v>
       </c>
       <c r="D129" t="n">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>40.45</v>
+        <v>42.78</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-2.01</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TARMAT</t>
+          <t>IFBAGRO</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>51.55</v>
+        <v>1444.4</v>
       </c>
       <c r="C130" t="n">
-        <v>52.6</v>
+        <v>1470</v>
       </c>
       <c r="D130" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>52.12</v>
+        <v>1449.9</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-0.91</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>FELDVR</t>
+          <t>HCL-INSYS</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.43</v>
+        <v>15.82</v>
       </c>
       <c r="C131" t="n">
-        <v>3.5</v>
+        <v>16.1</v>
       </c>
       <c r="D131" t="n">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>3.59</v>
+        <v>15.95</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>2.57</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ARTNIRMAN</t>
+          <t>TRIGYN</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>56.74</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>57.9</v>
+        <v>77.48</v>
       </c>
       <c r="D132" t="n">
-        <v>2.04</v>
+        <v>1.75</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>55.2</v>
+        <v>75.25</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-4.66</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SHIGAN</t>
+          <t>KRISHNADEF</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>68.8</v>
+        <v>795</v>
       </c>
       <c r="C133" t="n">
-        <v>70.2</v>
+        <v>808.95</v>
       </c>
       <c r="D133" t="n">
-        <v>2.03</v>
+        <v>1.75</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>72</v>
+        <v>802</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>2.56</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ASALCBR</t>
+          <t>SAKUMA</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1220.2</v>
+        <v>2.88</v>
       </c>
       <c r="C134" t="n">
-        <v>1245</v>
+        <v>2.93</v>
       </c>
       <c r="D134" t="n">
-        <v>2.03</v>
+        <v>1.74</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1256.8</v>
+        <v>2.9</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>0.95</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CENTEXT</t>
+          <t>ADVANIHOTR</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>27.82</v>
+        <v>57.87</v>
       </c>
       <c r="C135" t="n">
-        <v>28.38</v>
+        <v>58.87</v>
       </c>
       <c r="D135" t="n">
-        <v>2.01</v>
+        <v>1.73</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>28.47</v>
+        <v>58.2</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>0.32</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>MANAKALUCO</t>
+          <t>VARDMNPOLY</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>28.92</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>29.5</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="D136" t="n">
-        <v>2.01</v>
+        <v>1.7</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>29.25</v>
+        <v>8.01</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-0.85</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MOKSH</t>
+          <t>NURECA</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>13.9</v>
+        <v>255.55</v>
       </c>
       <c r="C137" t="n">
-        <v>14.18</v>
+        <v>259.9</v>
       </c>
       <c r="D137" t="n">
-        <v>2.01</v>
+        <v>1.7</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>13.89</v>
+        <v>255.75</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-2.05</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AARTECH</t>
+          <t>NILAINFRA</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>57.63</v>
+        <v>10.02</v>
       </c>
       <c r="C138" t="n">
-        <v>58.79</v>
+        <v>10.19</v>
       </c>
       <c r="D138" t="n">
-        <v>2.01</v>
+        <v>1.7</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>57.17</v>
+        <v>10.06</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-2.76</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FEDFINA</t>
+          <t>SARLAPOLY</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>141.67</v>
+        <v>92.14</v>
       </c>
       <c r="C139" t="n">
-        <v>144.5</v>
+        <v>93.7</v>
       </c>
       <c r="D139" t="n">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>142.82</v>
+        <v>92.66</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-1.16</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>WEWIN</t>
+          <t>RATNAVEER</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>51.57</v>
+        <v>154.4</v>
       </c>
       <c r="C140" t="n">
-        <v>52.6</v>
+        <v>157</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>52.57</v>
+        <v>152.9</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-0.06</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MODTHREAD</t>
+          <t>PDSL</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>46.1</v>
+        <v>378.65</v>
       </c>
       <c r="C141" t="n">
-        <v>47.02</v>
+        <v>385</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>47.79</v>
+        <v>376.15</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>1.64</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>NIBL</t>
+          <t>PRIMESECU</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>29.96</v>
+        <v>294</v>
       </c>
       <c r="C142" t="n">
-        <v>30.56</v>
+        <v>298.9</v>
       </c>
       <c r="D142" t="n">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>30.56</v>
+        <v>296.6</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MMP</t>
+          <t>BASML</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>290.1</v>
+        <v>27.82</v>
       </c>
       <c r="C143" t="n">
-        <v>295.9</v>
+        <v>28.28</v>
       </c>
       <c r="D143" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>289.35</v>
+        <v>27.97</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-2.21</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HAVISHA</t>
+          <t>IL&amp;FSTRANS</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>2</v>
+        <v>3.03</v>
       </c>
       <c r="C144" t="n">
-        <v>2.04</v>
+        <v>3.08</v>
       </c>
       <c r="D144" t="n">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
-      <c r="F144" t="n">
-        <v>2.03</v>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="n">
-        <v>-0.49</v>
-      </c>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>JHS</t>
+          <t>AAATECH</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>13</v>
+        <v>95.62</v>
       </c>
       <c r="C145" t="n">
-        <v>13.26</v>
+        <v>97.19</v>
       </c>
       <c r="D145" t="n">
-        <v>2</v>
+        <v>1.64</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>12.87</v>
+        <v>96</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-2.94</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NOIDATOLL</t>
+          <t>INTENTECH</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>4.55</v>
+        <v>121.03</v>
       </c>
       <c r="C146" t="n">
-        <v>4.64</v>
+        <v>122.99</v>
       </c>
       <c r="D146" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>4.59</v>
+        <v>121</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-1.08</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>BILVYAPAR</t>
+          <t>VINNY</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>11.59</v>
+        <v>1.24</v>
       </c>
       <c r="C147" t="n">
-        <v>11.82</v>
+        <v>1.26</v>
       </c>
       <c r="D147" t="n">
-        <v>1.98</v>
+        <v>1.61</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>11.82</v>
+        <v>1.25</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DIGISPICE</t>
+          <t>AURUM</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>25.39</v>
+        <v>172.24</v>
       </c>
       <c r="C148" t="n">
-        <v>25.89</v>
+        <v>175</v>
       </c>
       <c r="D148" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>25.4</v>
+        <v>172</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-1.89</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>GOKUL</t>
+          <t>HOMEFIRST</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>40.52</v>
+        <v>1254.7</v>
       </c>
       <c r="C149" t="n">
-        <v>41.32</v>
+        <v>1274.8</v>
       </c>
       <c r="D149" t="n">
-        <v>1.97</v>
+        <v>1.6</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>40.9</v>
+        <v>1243.4</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-1.02</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VASWANI</t>
+          <t>BHARTIARTL</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>61.04</v>
+        <v>2074</v>
       </c>
       <c r="C150" t="n">
-        <v>62.24</v>
+        <v>2107</v>
       </c>
       <c r="D150" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>61.4</v>
+        <v>2133.8</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-1.35</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RAJOOENG</t>
+          <t>HEADSUP</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>87.76000000000001</v>
+        <v>10.73</v>
       </c>
       <c r="C151" t="n">
-        <v>89.48</v>
+        <v>10.9</v>
       </c>
       <c r="D151" t="n">
-        <v>1.96</v>
+        <v>1.58</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>88.09</v>
+        <v>10.52</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-1.55</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>AKASH</t>
+          <t>NDGL</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>28.68</v>
+        <v>3795.2</v>
       </c>
       <c r="C152" t="n">
-        <v>29.24</v>
+        <v>3855</v>
       </c>
       <c r="D152" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>28.7</v>
+        <v>3840</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-1.85</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BEARDSELL</t>
+          <t>KESORAMIND</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>34.34</v>
+        <v>5.09</v>
       </c>
       <c r="C153" t="n">
-        <v>35.01</v>
+        <v>5.17</v>
       </c>
       <c r="D153" t="n">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>34.75</v>
+        <v>5.17</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>CREATIVEYE</t>
+          <t>SOLEX</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>7.75</v>
+        <v>1723.2</v>
       </c>
       <c r="C154" t="n">
-        <v>7.9</v>
+        <v>1750</v>
       </c>
       <c r="D154" t="n">
-        <v>1.94</v>
+        <v>1.56</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>7.74</v>
+        <v>1761</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-2.03</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>GATECHDVR</t>
+          <t>AKUMS</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.52</v>
+        <v>467.65</v>
       </c>
       <c r="C155" t="n">
-        <v>0.53</v>
+        <v>474.9</v>
       </c>
       <c r="D155" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>0.53</v>
+        <v>467.6</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PRABHA</t>
+          <t>AAKASH</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>212.78</v>
+        <v>9.06</v>
       </c>
       <c r="C156" t="n">
-        <v>216.86</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D156" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>216.39</v>
+        <v>9.16</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-0.22</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>TUNWAL</t>
+          <t>APS</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>31.3</v>
+        <v>476.15</v>
       </c>
       <c r="C157" t="n">
-        <v>31.9</v>
+        <v>483.5</v>
       </c>
       <c r="D157" t="n">
-        <v>1.92</v>
+        <v>1.54</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>32</v>
+        <v>480</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>0.31</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RELTD</t>
+          <t>GSS</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>164.66</v>
+        <v>24.23</v>
       </c>
       <c r="C158" t="n">
-        <v>167.77</v>
+        <v>24.6</v>
       </c>
       <c r="D158" t="n">
-        <v>1.89</v>
+        <v>1.53</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>167.37</v>
+        <v>24.5</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-0.24</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SHYAMCENT</t>
+          <t>TEXMOPIPES</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>6.92</v>
+        <v>53.68</v>
       </c>
       <c r="C159" t="n">
-        <v>7.05</v>
+        <v>54.5</v>
       </c>
       <c r="D159" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>6.94</v>
+        <v>53.87</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-1.56</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>KPIL</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>1256.4</v>
+        <v>33.88</v>
       </c>
       <c r="C160" t="n">
-        <v>1280</v>
+        <v>34.4</v>
       </c>
       <c r="D160" t="n">
-        <v>1.88</v>
+        <v>1.53</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>1285.8</v>
+        <v>34.6</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>0.45</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>DPSCLTD</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>54.58</v>
+        <v>11.79</v>
       </c>
       <c r="C161" t="n">
-        <v>55.6</v>
+        <v>11.97</v>
       </c>
       <c r="D161" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>54.06</v>
+        <v>11.85</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-2.77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>CCCL</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>2.67</v>
+        <v>20.93</v>
       </c>
       <c r="C162" t="n">
-        <v>2.72</v>
+        <v>21.25</v>
       </c>
       <c r="D162" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>2.72</v>
+        <v>20.71</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>EUROBOND</t>
+          <t>NAHARPOLY</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>202.73</v>
+        <v>313.9</v>
       </c>
       <c r="C163" t="n">
-        <v>206.5</v>
+        <v>318.7</v>
       </c>
       <c r="D163" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>205</v>
+        <v>322.2</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-0.73</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SHRIRAMFIN</t>
+          <t>ASKAUTOLTD</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>748.9</v>
+        <v>480.65</v>
       </c>
       <c r="C164" t="n">
-        <v>762.8</v>
+        <v>488</v>
       </c>
       <c r="D164" t="n">
-        <v>1.86</v>
+        <v>1.53</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>791.45</v>
+        <v>479.75</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>3.76</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>VSSL</t>
+          <t>DALMIASUG</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>286.65</v>
+        <v>329.9</v>
       </c>
       <c r="C165" t="n">
-        <v>291.95</v>
+        <v>334.95</v>
       </c>
       <c r="D165" t="n">
-        <v>1.85</v>
+        <v>1.53</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>288.4</v>
+        <v>333.65</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-1.22</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SONAMLTD</t>
+          <t>TCI</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>39.67</v>
+        <v>1200.8</v>
       </c>
       <c r="C166" t="n">
-        <v>40.4</v>
+        <v>1219</v>
       </c>
       <c r="D166" t="n">
-        <v>1.84</v>
+        <v>1.52</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>39.89</v>
+        <v>1205.8</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-1.26</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CPPLUS</t>
+          <t>PASUPTAC</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1314</v>
+        <v>55.26</v>
       </c>
       <c r="C167" t="n">
-        <v>1338</v>
+        <v>56.1</v>
       </c>
       <c r="D167" t="n">
-        <v>1.83</v>
+        <v>1.52</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1321</v>
+        <v>54.5</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-1.27</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>GOYALALUM</t>
+          <t>TPHQ</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>7.17</v>
+        <v>0.66</v>
       </c>
       <c r="C168" t="n">
-        <v>7.3</v>
+        <v>0.67</v>
       </c>
       <c r="D168" t="n">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>7.21</v>
+        <v>0.67</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>TIL</t>
+          <t>UTTAMSUGAR</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>303.45</v>
+        <v>245.3</v>
       </c>
       <c r="C169" t="n">
-        <v>308.95</v>
+        <v>249</v>
       </c>
       <c r="D169" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>301.65</v>
+        <v>246.29</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-2.36</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>HCL-INSYS</t>
+          <t>GEEKAYWIRE</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>15.44</v>
+        <v>34.49</v>
       </c>
       <c r="C170" t="n">
-        <v>15.72</v>
+        <v>35.01</v>
       </c>
       <c r="D170" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>16.18</v>
+        <v>34.74</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>2.93</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>ACCURACY</t>
+          <t>CLEDUCATE</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>6.68</v>
+        <v>88.08</v>
       </c>
       <c r="C171" t="n">
-        <v>6.8</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D171" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>6.7</v>
+        <v>88.40000000000001</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-1.47</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GHCLTEXTIL</t>
+          <t>ACCURACY</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>77.09999999999999</v>
+        <v>6.67</v>
       </c>
       <c r="C172" t="n">
-        <v>78.48999999999999</v>
+        <v>6.77</v>
       </c>
       <c r="D172" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>77.2</v>
+        <v>6.58</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-1.64</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NIBE</t>
+          <t>AVONMORE</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1208.3</v>
+        <v>17.44</v>
       </c>
       <c r="C173" t="n">
-        <v>1230</v>
+        <v>17.7</v>
       </c>
       <c r="D173" t="n">
-        <v>1.8</v>
+        <v>1.49</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1215.1</v>
+        <v>17.71</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-1.21</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>SHRENIK</t>
+          <t>JPOLYINVST</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>0.5600000000000001</v>
+        <v>980.35</v>
       </c>
       <c r="C174" t="n">
-        <v>0.57</v>
+        <v>995</v>
       </c>
       <c r="D174" t="n">
-        <v>1.79</v>
+        <v>1.49</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>0.5600000000000001</v>
+        <v>985.8</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-1.75</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ONELIFECAP</t>
+          <t>LORDSCHLO</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>13.95</v>
+        <v>214.33</v>
       </c>
       <c r="C175" t="n">
-        <v>14.2</v>
+        <v>217.5</v>
       </c>
       <c r="D175" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>14.5</v>
+        <v>216.9</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>2.11</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SIDDHICOTS</t>
+          <t>NIRAJ</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>33.55</v>
+        <v>28.97</v>
       </c>
       <c r="C176" t="n">
-        <v>34.15</v>
+        <v>29.4</v>
       </c>
       <c r="D176" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>33.65</v>
+        <v>29.65</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-1.46</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>MCL</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.5600000000000001</v>
+        <v>48.96</v>
       </c>
       <c r="C177" t="n">
-        <v>0.57</v>
+        <v>49.68</v>
       </c>
       <c r="D177" t="n">
-        <v>1.79</v>
+        <v>1.47</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.55</v>
+        <v>48.98</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-3.51</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GREENPOWER</t>
+          <t>TOLINS</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>14.04</v>
+        <v>186.14</v>
       </c>
       <c r="C178" t="n">
-        <v>14.29</v>
+        <v>188.85</v>
       </c>
       <c r="D178" t="n">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>14.35</v>
+        <v>186.05</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>0.42</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ARFIN</t>
+          <t>VIRINCHI</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>54.99</v>
+        <v>28.19</v>
       </c>
       <c r="C179" t="n">
-        <v>55.97</v>
+        <v>28.6</v>
       </c>
       <c r="D179" t="n">
-        <v>1.78</v>
+        <v>1.45</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>54.52</v>
+        <v>28.14</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-2.59</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>EBGNG</t>
+          <t>TECHLABS</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>334.95</v>
+        <v>455.4</v>
       </c>
       <c r="C180" t="n">
-        <v>340.85</v>
+        <v>462</v>
       </c>
       <c r="D180" t="n">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>340.4</v>
+        <v>462</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AAKASH</t>
+          <t>SCHAND</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>9.07</v>
+        <v>179.4</v>
       </c>
       <c r="C181" t="n">
-        <v>9.23</v>
+        <v>182</v>
       </c>
       <c r="D181" t="n">
-        <v>1.76</v>
+        <v>1.45</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>9.18</v>
+        <v>183.1</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-0.54</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RAJRILTD</t>
+          <t>MAXESTATES</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>24.37</v>
+        <v>481.6</v>
       </c>
       <c r="C182" t="n">
-        <v>24.8</v>
+        <v>488.55</v>
       </c>
       <c r="D182" t="n">
-        <v>1.76</v>
+        <v>1.44</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>24.84</v>
+        <v>481.5</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>0.16</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>VIPULLTD</t>
+          <t>SILINV</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>8</v>
+        <v>637</v>
       </c>
       <c r="C183" t="n">
-        <v>8.140000000000001</v>
+        <v>646.1</v>
       </c>
       <c r="D183" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>8.07</v>
+        <v>648</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-0.86</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>UMESLTD</t>
+          <t>CONSOFINVT</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5.15</v>
+        <v>183.12</v>
       </c>
       <c r="C184" t="n">
-        <v>5.24</v>
+        <v>185.74</v>
       </c>
       <c r="D184" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>5.22</v>
+        <v>186</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-0.38</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SGL</t>
+          <t>HMAAGRO</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>14.25</v>
+        <v>31.54</v>
       </c>
       <c r="C185" t="n">
-        <v>14.5</v>
+        <v>31.99</v>
       </c>
       <c r="D185" t="n">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>14.5</v>
+        <v>31.39</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>COASTCORP</t>
+          <t>AARTISURF</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>42.06</v>
+        <v>473.3</v>
       </c>
       <c r="C186" t="n">
-        <v>42.79</v>
+        <v>480</v>
       </c>
       <c r="D186" t="n">
-        <v>1.74</v>
+        <v>1.42</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>42.1</v>
+        <v>467.45</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-1.61</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GROBTEA</t>
+          <t>SETCO</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1204</v>
+        <v>18.48</v>
       </c>
       <c r="C187" t="n">
-        <v>1225</v>
+        <v>18.74</v>
       </c>
       <c r="D187" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1100</v>
+        <v>18.54</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-10.2</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SAKUMA</t>
+          <t>FIBERWEB</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>2.88</v>
+        <v>42.7</v>
       </c>
       <c r="C188" t="n">
-        <v>2.93</v>
+        <v>43.3</v>
       </c>
       <c r="D188" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>2.92</v>
+        <v>42.91</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-0.34</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MAHLIFE</t>
+          <t>HITECHGEAR</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>385.8</v>
+        <v>774.05</v>
       </c>
       <c r="C189" t="n">
-        <v>392.5</v>
+        <v>785</v>
       </c>
       <c r="D189" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>399.65</v>
+        <v>751.2</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>1.82</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RUCHINFRA</t>
+          <t>TREL</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>7.45</v>
+        <v>29.27</v>
       </c>
       <c r="C190" t="n">
-        <v>7.58</v>
+        <v>29.68</v>
       </c>
       <c r="D190" t="n">
-        <v>1.74</v>
+        <v>1.4</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>7.55</v>
+        <v>29.5</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-0.4</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>GEEKAYWIRE</t>
+          <t>LOTUSEYE</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>32.92</v>
+        <v>131.17</v>
       </c>
       <c r="C191" t="n">
-        <v>33.49</v>
+        <v>133</v>
       </c>
       <c r="D191" t="n">
-        <v>1.73</v>
+        <v>1.4</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>32.83</v>
+        <v>131.85</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-1.97</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>UYFINCORP</t>
+          <t>SRPL</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>15.03</v>
+        <v>0.72</v>
       </c>
       <c r="C192" t="n">
-        <v>15.29</v>
+        <v>0.73</v>
       </c>
       <c r="D192" t="n">
-        <v>1.73</v>
+        <v>1.39</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>15.5</v>
+        <v>0.72</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>1.37</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CIFL</t>
+          <t>INVENTURE</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>35.19</v>
+        <v>1.45</v>
       </c>
       <c r="C193" t="n">
-        <v>35.79</v>
+        <v>1.47</v>
       </c>
       <c r="D193" t="n">
-        <v>1.71</v>
+        <v>1.38</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>35.44</v>
+        <v>1.46</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-0.98</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>VEDL</t>
+          <t>ORIENTCER</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>493.55</v>
+        <v>36.49</v>
       </c>
       <c r="C194" t="n">
-        <v>502</v>
+        <v>36.99</v>
       </c>
       <c r="D194" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>504.4</v>
+        <v>36.48</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>0.48</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>GSS</t>
+          <t>FABTECH</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>24.58</v>
+        <v>236.6</v>
       </c>
       <c r="C195" t="n">
-        <v>25</v>
+        <v>239.85</v>
       </c>
       <c r="D195" t="n">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>24.69</v>
+        <v>238.41</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-1.24</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SHREEJISPG</t>
+          <t>VSTL</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>266.47</v>
+        <v>142.86</v>
       </c>
       <c r="C196" t="n">
-        <v>271</v>
+        <v>144.8</v>
       </c>
       <c r="D196" t="n">
-        <v>1.7</v>
+        <v>1.36</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>270</v>
+        <v>145.9</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-0.37</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>GICL</t>
+          <t>TGBHOTELS</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>41.3</v>
+        <v>11.92</v>
       </c>
       <c r="C197" t="n">
-        <v>42</v>
+        <v>12.08</v>
       </c>
       <c r="D197" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>42</v>
+        <v>11.96</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>AKSHAR</t>
+          <t>SHAREINDIA</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.59</v>
+        <v>188.68</v>
       </c>
       <c r="C198" t="n">
-        <v>0.6</v>
+        <v>191.2</v>
       </c>
       <c r="D198" t="n">
-        <v>1.69</v>
+        <v>1.34</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.59</v>
+        <v>187.9</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-1.67</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>KPEL</t>
+          <t>RUSTOMJEE</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>418.95</v>
+        <v>565.45</v>
       </c>
       <c r="C199" t="n">
-        <v>426</v>
+        <v>573</v>
       </c>
       <c r="D199" t="n">
-        <v>1.68</v>
+        <v>1.34</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>427</v>
+        <v>575.4</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>0.23</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>LYPSAGEMS</t>
+          <t>V2RETAIL</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>5.38</v>
+        <v>2495.6</v>
       </c>
       <c r="C200" t="n">
-        <v>5.47</v>
+        <v>2529</v>
       </c>
       <c r="D200" t="n">
-        <v>1.67</v>
+        <v>1.34</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>5.36</v>
+        <v>2468.5</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.01</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ORIENTELEC</t>
+          <t>STARCEMENT</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>208.86</v>
+        <v>259.75</v>
       </c>
       <c r="C201" t="n">
-        <v>212.33</v>
+        <v>263.2</v>
       </c>
       <c r="D201" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>210.97</v>
+        <v>264.25</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-0.64</v>
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -546,11 +546,11 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-2.7</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="5">
@@ -572,11 +572,11 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.77</v>
+        <v>9.4</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-5.15</v>
+        <v>-8.74</v>
       </c>
     </row>
     <row r="6">
@@ -598,11 +598,11 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>34230</v>
+        <v>35780</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>3.54</v>
+        <v>8.23</v>
       </c>
     </row>
     <row r="7">
@@ -624,11 +624,11 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>19292</v>
+        <v>20341</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0.43</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="8">
@@ -650,11 +650,11 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>13.04</v>
+        <v>12.8</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-3.26</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="9">
@@ -676,11 +676,11 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>251.31</v>
+        <v>254.6</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.12</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="10">
@@ -702,11 +702,11 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>271.1</v>
+        <v>271</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-6.15</v>
+        <v>-6.18</v>
       </c>
     </row>
     <row r="11">
@@ -728,11 +728,11 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>249.4</v>
+        <v>244</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-1.81</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="12">
@@ -754,11 +754,11 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>342</v>
+        <v>330.95</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>4.91</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="13">
@@ -806,11 +806,11 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>41</v>
+        <v>41.4</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-4.07</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="15">
@@ -884,11 +884,11 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>176</v>
+        <v>184.43</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>-4.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -936,11 +936,11 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>236</v>
+        <v>230.9</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>-1.1</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="20">
@@ -962,11 +962,11 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>70.34999999999999</v>
+        <v>69</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="21">
@@ -988,11 +988,11 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>76</v>
+        <v>76.28</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-0.55</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="22">
@@ -1014,11 +1014,11 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>54.75</v>
+        <v>54.8</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1066,11 +1066,11 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>921.5</v>
+        <v>895.75</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-1.22</v>
+        <v>-3.98</v>
       </c>
     </row>
     <row r="25">
@@ -1170,11 +1170,11 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1725</v>
+        <v>1729</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>1.17</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="29">
@@ -1222,11 +1222,11 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1589.2</v>
+        <v>1585</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="31">
@@ -1248,11 +1248,11 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>585.7</v>
+        <v>574.05</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-4.76</v>
+        <v>-6.66</v>
       </c>
     </row>
     <row r="32">
@@ -1274,11 +1274,11 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>273.65</v>
+        <v>272.6</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-3.64</v>
+        <v>-4.01</v>
       </c>
     </row>
     <row r="33">
@@ -1300,11 +1300,11 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>7.99</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>5.41</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="34">
@@ -1326,11 +1326,11 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>14.51</v>
+        <v>14</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-2.81</v>
+        <v>-6.23</v>
       </c>
     </row>
     <row r="35">
@@ -1352,11 +1352,11 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>224.28</v>
+        <v>221.26</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-2.91</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="36">
@@ -1378,11 +1378,11 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>2890</v>
+        <v>3033</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>6.68</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="37">
@@ -1404,11 +1404,11 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>475</v>
+        <v>412.6</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>2.37</v>
+        <v>-11.08</v>
       </c>
     </row>
     <row r="38">
@@ -1430,11 +1430,11 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>43.5</v>
+        <v>43.89</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>0.23</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="39">
@@ -1456,11 +1456,11 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>786.9</v>
+        <v>785.85</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-1.88</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="40">
@@ -1508,11 +1508,11 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>899.65</v>
+        <v>869.9</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1.2</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="42">
@@ -1534,11 +1534,11 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>241.57</v>
+        <v>230.75</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-0.77</v>
+        <v>-5.22</v>
       </c>
     </row>
     <row r="43">
@@ -1560,11 +1560,11 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>105.79</v>
+        <v>104.55</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-2.94</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="44">
@@ -1586,11 +1586,11 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>136.56</v>
+        <v>138</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-3.83</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="45">
@@ -1634,11 +1634,11 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>464.95</v>
+        <v>436.7</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-2.1</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="47">
@@ -1660,11 +1660,11 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>11.56</v>
+        <v>11.44</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-2.45</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="48">
@@ -1686,11 +1686,11 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-0.46</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="49">
@@ -1738,11 +1738,11 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>309.05</v>
+        <v>306.6</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-1.86</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="51">
@@ -1790,11 +1790,11 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>18.97</v>
+        <v>17.85</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-1.04</v>
+        <v>-6.89</v>
       </c>
     </row>
     <row r="53">
@@ -1816,11 +1816,11 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>29.8</v>
+        <v>29.15</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-1.81</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="54">
@@ -1842,11 +1842,11 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>7.03</v>
+        <v>7.08</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-3.96</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="55">
@@ -1868,11 +1868,11 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>348.7</v>
+        <v>344</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-2.41</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="56">
@@ -1894,11 +1894,11 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>67.13</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-4.1</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="57">
@@ -1920,11 +1920,11 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>15137</v>
+        <v>15183</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-2.32</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="58">
@@ -1946,11 +1946,11 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>251.69</v>
+        <v>246.5</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-1.3</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="59">
@@ -1972,11 +1972,11 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>557</v>
+        <v>557.4</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="60">
@@ -1998,11 +1998,11 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>606.3</v>
+        <v>609.75</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-2.05</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="61">
@@ -2024,11 +2024,11 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>714.95</v>
+        <v>709.9</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>2.28</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="62">
@@ -2050,11 +2050,11 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1033</v>
+        <v>1000.3</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="63">
@@ -2076,11 +2076,11 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>58.6</v>
+        <v>57.2</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-2.01</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="64">
@@ -2102,11 +2102,11 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="65">
@@ -2128,11 +2128,11 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>29.95</v>
+        <v>28.9</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-0.83</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="66">
@@ -2154,11 +2154,11 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>156.82</v>
+        <v>154</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-0.49</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="67">
@@ -2180,11 +2180,11 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>219.99</v>
+        <v>212.65</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="68">
@@ -2206,11 +2206,11 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>76.37</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-0.82</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="69">
@@ -2232,11 +2232,11 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>200.24</v>
+        <v>193.9</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-1.26</v>
+        <v>-4.39</v>
       </c>
     </row>
     <row r="70">
@@ -2258,11 +2258,11 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>480.5</v>
+        <v>469.6</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-0.65</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="71">
@@ -2284,11 +2284,11 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>8.279999999999999</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-0.72</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="72">
@@ -2310,11 +2310,11 @@
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>53.71</v>
+        <v>52.5</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-1.27</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="73">
@@ -2336,11 +2336,11 @@
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>392.85</v>
+        <v>392.3</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>0.22</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="74">
@@ -2362,11 +2362,11 @@
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>29.7</v>
+        <v>27.95</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="75">
@@ -2388,11 +2388,11 @@
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>170.46</v>
+        <v>171</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-3.69</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="76">
@@ -2414,11 +2414,11 @@
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>350.5</v>
+        <v>343.65</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>2.97</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77">
@@ -2440,11 +2440,11 @@
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>973.85</v>
+        <v>952</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-1.33</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="78">
@@ -2466,11 +2466,11 @@
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1410.3</v>
+        <v>1389.3</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-0.93</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="79">
@@ -2492,11 +2492,11 @@
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>78.44</v>
+        <v>80.05</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>0.5600000000000001</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="80">
@@ -2518,11 +2518,11 @@
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-2.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -2544,11 +2544,11 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>598.3</v>
+        <v>609</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-1.55</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="82">
@@ -2570,11 +2570,11 @@
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>10.34</v>
+        <v>10.07</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-0.86</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="83">
@@ -2622,11 +2622,11 @@
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>222.95</v>
+        <v>219.05</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-0.89</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="85">
@@ -2648,11 +2648,11 @@
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>178.45</v>
+        <v>180</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-0.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2674,11 +2674,11 @@
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>105.99</v>
+        <v>105.69</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>0.42</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="87">
@@ -2700,11 +2700,11 @@
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>8.57</v>
+        <v>8.5</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-1.04</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="88">
@@ -2726,11 +2726,11 @@
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>195</v>
+        <v>188.5</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-1.22</v>
+        <v>-4.51</v>
       </c>
     </row>
     <row r="89">
@@ -2752,11 +2752,11 @@
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>157.27</v>
+        <v>153.38</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-1.37</v>
+        <v>-3.81</v>
       </c>
     </row>
     <row r="90">
@@ -2778,11 +2778,11 @@
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>6.84</v>
+        <v>6.8</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-2.01</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="91">
@@ -2804,11 +2804,11 @@
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>4.65</v>
+        <v>4.47</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-0.21</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="92">
@@ -2830,11 +2830,11 @@
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1.86</v>
+        <v>1.79</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-1.06</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="93">
@@ -2856,11 +2856,11 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>157.79</v>
+        <v>157.71</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-1.07</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="94">
@@ -2882,11 +2882,11 @@
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>446.45</v>
+        <v>457.5</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-0.77</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="95">
@@ -2908,11 +2908,11 @@
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>49.5</v>
+        <v>49.16</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-0.9</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="96">
@@ -2934,11 +2934,11 @@
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>15.66</v>
+        <v>14.9</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-0.89</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="97">
@@ -2960,11 +2960,11 @@
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>71.37</v>
+        <v>73</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-2.88</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="98">
@@ -2986,11 +2986,11 @@
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>189.91</v>
+        <v>186.4</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-1.4</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="99">
@@ -3012,11 +3012,11 @@
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-1.6</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="100">
@@ -3038,11 +3038,11 @@
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>19.85</v>
+        <v>19.35</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-0.75</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="101">
@@ -3064,11 +3064,11 @@
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>9.640000000000001</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-0.92</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="102">
@@ -3090,11 +3090,11 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>30.09</v>
+        <v>29.11</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-0.86</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="103">
@@ -3116,11 +3116,11 @@
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>162.25</v>
+        <v>161.05</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-1.67</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="104">
@@ -3142,11 +3142,11 @@
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>173.81</v>
+        <v>164.3</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>6.31</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="105">
@@ -3168,11 +3168,11 @@
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>91.73999999999999</v>
+        <v>92</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-2.2</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="106">
@@ -3194,11 +3194,11 @@
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>26.07</v>
+        <v>26.29</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-1.55</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="107">
@@ -3220,11 +3220,11 @@
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>148.59</v>
+        <v>147</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="108">
@@ -3246,11 +3246,11 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>25.03</v>
+        <v>24.31</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-0.48</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="109">
@@ -3272,11 +3272,11 @@
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1202.8</v>
+        <v>1190</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-1</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="110">
@@ -3298,11 +3298,11 @@
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>35.61</v>
+        <v>35.85</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-0.25</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="111">
@@ -3324,11 +3324,11 @@
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>114</v>
+        <v>112.19</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-1.04</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="112">
@@ -3350,11 +3350,11 @@
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>208.57</v>
+        <v>210</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-2.08</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="113">
@@ -3376,11 +3376,11 @@
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>85.31999999999999</v>
+        <v>84.27</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-1.67</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="114">
@@ -3402,11 +3402,11 @@
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>19.34</v>
+        <v>19.35</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-1.83</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="115">
@@ -3428,11 +3428,11 @@
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>38.6</v>
+        <v>37.9</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-2.25</v>
+        <v>-4.03</v>
       </c>
     </row>
     <row r="116">
@@ -3454,11 +3454,11 @@
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>777.5</v>
+        <v>789.95</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-0.96</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="117">
@@ -3480,11 +3480,11 @@
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>4.27</v>
+        <v>4.24</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-0.47</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="118">
@@ -3506,11 +3506,11 @@
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>126.7</v>
+        <v>124.55</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-0.16</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="119">
@@ -3532,11 +3532,11 @@
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>115.04</v>
+        <v>113.5</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-2.52</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="120">
@@ -3558,11 +3558,11 @@
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>80.48</v>
+        <v>77.2</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-0.26</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="121">
@@ -3584,11 +3584,11 @@
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>150.1</v>
+        <v>136.8</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-1.57</v>
+        <v>-10.3</v>
       </c>
     </row>
     <row r="122">
@@ -3610,11 +3610,11 @@
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>28.22</v>
+        <v>28.7</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-3.36</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="123">
@@ -3636,11 +3636,11 @@
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1205</v>
+        <v>1186.5</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-2.81</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="124">
@@ -3688,11 +3688,11 @@
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>33</v>
+        <v>32.52</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-2.16</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="126">
@@ -3714,11 +3714,11 @@
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>4.41</v>
+        <v>4.36</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-2</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="127">
@@ -3740,11 +3740,11 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>44.38</v>
+        <v>44.2</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-1.38</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="128">
@@ -3766,11 +3766,11 @@
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>103.26</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-5.27</v>
+        <v>-13.85</v>
       </c>
     </row>
     <row r="129">
@@ -3792,11 +3792,11 @@
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>42.78</v>
+        <v>42.56</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-2.44</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="130">
@@ -3818,11 +3818,11 @@
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1449.9</v>
+        <v>1431.4</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-1.37</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="131">
@@ -3844,11 +3844,11 @@
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>15.95</v>
+        <v>15.83</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-0.93</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="132">
@@ -3870,11 +3870,11 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>75.25</v>
+        <v>74.89</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-2.88</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="133">
@@ -3896,11 +3896,11 @@
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>802</v>
+        <v>784</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-0.86</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="134">
@@ -3922,11 +3922,11 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>2.9</v>
+        <v>2.78</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-1.02</v>
+        <v>-5.12</v>
       </c>
     </row>
     <row r="135">
@@ -3948,11 +3948,11 @@
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>58.2</v>
+        <v>58.25</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-1.14</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="136">
@@ -3974,11 +3974,11 @@
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>8.01</v>
+        <v>7.78</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-4.19</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="137">
@@ -4000,11 +4000,11 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>255.75</v>
+        <v>259</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-1.6</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="138">
@@ -4026,11 +4026,11 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>10.06</v>
+        <v>9.92</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-1.28</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="139">
@@ -4052,11 +4052,11 @@
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>92.66</v>
+        <v>92.5</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-1.11</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="140">
@@ -4078,11 +4078,11 @@
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>152.9</v>
+        <v>147.59</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-2.61</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="141">
@@ -4104,11 +4104,11 @@
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>376.15</v>
+        <v>376</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-2.3</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="142">
@@ -4130,11 +4130,11 @@
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>296.6</v>
+        <v>305.4</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-0.77</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="143">
@@ -4156,11 +4156,11 @@
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>27.97</v>
+        <v>27.4</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-1.1</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="144">
@@ -4204,11 +4204,11 @@
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-1.22</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="146">
@@ -4230,11 +4230,11 @@
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>121</v>
+        <v>116.11</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-1.62</v>
+        <v>-5.59</v>
       </c>
     </row>
     <row r="147">
@@ -4256,11 +4256,11 @@
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-0.79</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="148">
@@ -4282,11 +4282,11 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>172</v>
+        <v>172.95</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-1.71</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="149">
@@ -4308,11 +4308,11 @@
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1243.4</v>
+        <v>1197</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-2.46</v>
+        <v>-6.1</v>
       </c>
     </row>
     <row r="150">
@@ -4334,11 +4334,11 @@
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>2133.8</v>
+        <v>2110</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>1.27</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="151">
@@ -4360,11 +4360,11 @@
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>10.52</v>
+        <v>10.51</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-3.49</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="152">
@@ -4386,11 +4386,11 @@
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>3840</v>
+        <v>3740.7</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-0.39</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="153">
@@ -4412,11 +4412,11 @@
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>5.17</v>
+        <v>5.15</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="154">
@@ -4438,11 +4438,11 @@
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1761</v>
+        <v>1753</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>0.63</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="155">
@@ -4464,11 +4464,11 @@
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>467.6</v>
+        <v>471.15</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-1.54</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="156">
@@ -4490,11 +4490,11 @@
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>9.16</v>
+        <v>9.02</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-0.43</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="157">
@@ -4516,11 +4516,11 @@
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>480</v>
+        <v>477.9</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-0.72</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="158">
@@ -4542,11 +4542,11 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>24.5</v>
+        <v>24.32</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-0.41</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="159">
@@ -4568,11 +4568,11 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>53.87</v>
+        <v>54.19</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-1.16</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="160">
@@ -4594,11 +4594,11 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>34.6</v>
+        <v>33.5</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>0.58</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="161">
@@ -4620,11 +4620,11 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>11.85</v>
+        <v>11.8</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-1</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="162">
@@ -4646,11 +4646,11 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>20.71</v>
+        <v>20.7</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-2.54</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="163">
@@ -4672,11 +4672,11 @@
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>322.2</v>
+        <v>319.8</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>1.1</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="164">
@@ -4698,11 +4698,11 @@
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>479.75</v>
+        <v>480.95</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>-1.69</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="165">
@@ -4724,11 +4724,11 @@
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>333.65</v>
+        <v>342.4</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-0.39</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="166">
@@ -4750,11 +4750,11 @@
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1205.8</v>
+        <v>1179.1</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-1.08</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="167">
@@ -4776,11 +4776,11 @@
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>54.5</v>
+        <v>53.44</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-2.85</v>
+        <v>-4.74</v>
       </c>
     </row>
     <row r="168">
@@ -4828,11 +4828,11 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>246.29</v>
+        <v>244.2</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-1.09</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="170">
@@ -4854,11 +4854,11 @@
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>34.74</v>
+        <v>33.71</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-0.77</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="171">
@@ -4880,11 +4880,11 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>88.40000000000001</v>
+        <v>88.95</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-1.12</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="172">
@@ -4906,11 +4906,11 @@
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>6.58</v>
+        <v>6.63</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-2.81</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="173">
@@ -4932,11 +4932,11 @@
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>17.71</v>
+        <v>17.49</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>0.06</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="174">
@@ -4958,11 +4958,11 @@
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>985.8</v>
+        <v>972</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-0.92</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="175">
@@ -4984,11 +4984,11 @@
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>216.9</v>
+        <v>224</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-0.28</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="176">
@@ -5010,11 +5010,11 @@
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>29.65</v>
+        <v>29.64</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="177">
@@ -5036,11 +5036,11 @@
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>48.98</v>
+        <v>48.8</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-1.41</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="178">
@@ -5062,11 +5062,11 @@
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>186.05</v>
+        <v>192.1</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-1.48</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="179">
@@ -5088,11 +5088,11 @@
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>28.14</v>
+        <v>28.5</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-1.61</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="180">
@@ -5114,11 +5114,11 @@
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>462</v>
+        <v>447.95</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="181">
@@ -5140,11 +5140,11 @@
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>183.1</v>
+        <v>179.5</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>0.6</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="182">
@@ -5166,11 +5166,11 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>481.5</v>
+        <v>477</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-1.44</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="183">
@@ -5192,11 +5192,11 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>648</v>
+        <v>615</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>0.29</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="184">
@@ -5218,11 +5218,11 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>186</v>
+        <v>180.97</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>0.14</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="185">
@@ -5244,11 +5244,11 @@
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>31.39</v>
+        <v>31.09</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-1.88</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="186">
@@ -5270,11 +5270,11 @@
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>467.45</v>
+        <v>464.75</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-2.61</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="187">
@@ -5296,11 +5296,11 @@
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>18.54</v>
+        <v>18.59</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-1.07</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="188">
@@ -5322,11 +5322,11 @@
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>42.91</v>
+        <v>42.75</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-0.9</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="189">
@@ -5348,11 +5348,11 @@
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>751.2</v>
+        <v>774.9</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-4.31</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="190">
@@ -5374,11 +5374,11 @@
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>29.5</v>
+        <v>30.64</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-0.61</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="191">
@@ -5400,11 +5400,11 @@
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>131.85</v>
+        <v>125.3</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-0.86</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="192">
@@ -5478,11 +5478,11 @@
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>36.48</v>
+        <v>36</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-1.38</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="195">
@@ -5504,11 +5504,11 @@
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>238.41</v>
+        <v>236.8</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-0.6</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="196">
@@ -5530,11 +5530,11 @@
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>145.9</v>
+        <v>145</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>0.76</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="197">
@@ -5556,11 +5556,11 @@
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>11.96</v>
+        <v>11.52</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-0.99</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="198">
@@ -5582,11 +5582,11 @@
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>187.9</v>
+        <v>185</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-1.73</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="199">
@@ -5608,11 +5608,11 @@
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>575.4</v>
+        <v>568</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>0.42</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="200">
@@ -5634,11 +5634,11 @@
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>2468.5</v>
+        <v>2441</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.39</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="201">
@@ -5660,11 +5660,11 @@
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>264.25</v>
+        <v>252.55</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>0.4</v>
+        <v>-4.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,621 +478,621 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SILLYMONKS</t>
+          <t>IEML-RE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19.76</v>
+        <v>12.6</v>
       </c>
       <c r="C2" t="n">
-        <v>23.71</v>
+        <v>16</v>
       </c>
       <c r="D2" t="n">
-        <v>19.99</v>
+        <v>26.98</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.71</v>
+        <v>14.8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-7.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RNPL</t>
+          <t>TRIDHYA</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>118.8</v>
+        <v>16.65</v>
       </c>
       <c r="C3" t="n">
-        <v>130.65</v>
+        <v>19.8</v>
       </c>
       <c r="D3" t="n">
-        <v>9.970000000000001</v>
+        <v>18.92</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>130.65</v>
+        <v>18.95</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MONOLITH</t>
+          <t>SILLYMONKS</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>509.1</v>
+        <v>23.71</v>
       </c>
       <c r="C4" t="n">
-        <v>555</v>
+        <v>27.7</v>
       </c>
       <c r="D4" t="n">
-        <v>9.02</v>
+        <v>16.83</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>535</v>
+        <v>27.81</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-3.6</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GVPTECH</t>
+          <t>SHIVATEX</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9.52</v>
+        <v>181.6</v>
       </c>
       <c r="C5" t="n">
-        <v>10.3</v>
+        <v>203</v>
       </c>
       <c r="D5" t="n">
-        <v>8.19</v>
+        <v>11.78</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>9.4</v>
+        <v>217.92</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-8.74</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3MINDIA</t>
+          <t>RNPL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>30700</v>
+        <v>130.65</v>
       </c>
       <c r="C6" t="n">
-        <v>33060</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>7.69</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>35780</v>
+        <v>128.95</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>8.23</v>
+        <v>-9.83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>POWERINDIA</t>
+          <t>RELTD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17919</v>
+        <v>154.55</v>
       </c>
       <c r="C7" t="n">
-        <v>19210</v>
+        <v>167.9</v>
       </c>
       <c r="D7" t="n">
-        <v>7.2</v>
+        <v>8.640000000000001</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>20341</v>
+        <v>170</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>5.89</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GLOBALE</t>
+          <t>IVP</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.59</v>
+        <v>168</v>
       </c>
       <c r="C8" t="n">
-        <v>13.48</v>
+        <v>181.97</v>
       </c>
       <c r="D8" t="n">
-        <v>7.07</v>
+        <v>8.32</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12.8</v>
+        <v>175.9</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-5.04</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CUB</t>
+          <t>EXXARO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>236.04</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>251</v>
+        <v>9</v>
       </c>
       <c r="D9" t="n">
-        <v>6.34</v>
+        <v>7.66</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>254.6</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>1.43</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SALONA</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>273.6</v>
+        <v>162.78</v>
       </c>
       <c r="C10" t="n">
-        <v>288.85</v>
+        <v>175.1</v>
       </c>
       <c r="D10" t="n">
-        <v>5.57</v>
+        <v>7.57</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>271</v>
+        <v>177.09</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-6.18</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MARINE</t>
+          <t>UFO</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>240.85</v>
+        <v>75.79000000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>254</v>
+        <v>81.5</v>
       </c>
       <c r="D11" t="n">
-        <v>5.46</v>
+        <v>7.53</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>244</v>
+        <v>80.31999999999999</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-3.94</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>QUADFUTURE</t>
+          <t>FALCONTECH</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>309.55</v>
+        <v>17.55</v>
       </c>
       <c r="C12" t="n">
-        <v>326</v>
+        <v>18.85</v>
       </c>
       <c r="D12" t="n">
-        <v>5.31</v>
+        <v>7.41</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>330.95</v>
+        <v>18.85</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ONELIFECAP</t>
+          <t>NEXTMEDIA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.34</v>
+        <v>6.55</v>
       </c>
       <c r="C13" t="n">
-        <v>16.15</v>
+        <v>7</v>
       </c>
       <c r="D13" t="n">
-        <v>5.28</v>
+        <v>6.87</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>16.87</v>
+        <v>6.55</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>4.46</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>RAJTV</t>
+          <t>ANDHRSUGAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.6</v>
+        <v>76.77</v>
       </c>
       <c r="C14" t="n">
-        <v>42.74</v>
+        <v>82</v>
       </c>
       <c r="D14" t="n">
-        <v>5.27</v>
+        <v>6.81</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>41.4</v>
+        <v>83.83</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-3.14</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>BELLACASA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.94</v>
+        <v>450.05</v>
       </c>
       <c r="C15" t="n">
-        <v>3.09</v>
+        <v>480</v>
       </c>
       <c r="D15" t="n">
-        <v>5.1</v>
+        <v>6.65</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.84</v>
+        <v>460.45</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-8.09</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TECHD</t>
+          <t>BUTTERFLY</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.45</v>
+        <v>750.5</v>
       </c>
       <c r="C16" t="n">
-        <v>843.6</v>
+        <v>800</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>6.6</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>843.6</v>
+        <v>795.05</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CYBERTECH</t>
+          <t>EFORCE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>175.65</v>
+        <v>43.2</v>
       </c>
       <c r="C17" t="n">
-        <v>184.43</v>
+        <v>46</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>6.48</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>184.43</v>
+        <v>44.35</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOMATEX</t>
+          <t>WOMANCART</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>146.27</v>
+        <v>324.75</v>
       </c>
       <c r="C18" t="n">
-        <v>153.58</v>
+        <v>344.95</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>6.22</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>153.58</v>
+        <v>351.05</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TREJHARA</t>
+          <t>KRN</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>227.27</v>
+        <v>792.3</v>
       </c>
       <c r="C19" t="n">
-        <v>238.63</v>
+        <v>840</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>6.02</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>230.9</v>
+        <v>818.3</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>-3.24</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>VISASTEEL</t>
+          <t>REDINGTON</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>67</v>
+        <v>250.25</v>
       </c>
       <c r="C20" t="n">
-        <v>70.34999999999999</v>
+        <v>265.15</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>5.95</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>69</v>
+        <v>276.05</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>-1.92</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ISHANCH</t>
+          <t>RAJOOENG</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>72.79000000000001</v>
+        <v>86.09</v>
       </c>
       <c r="C21" t="n">
-        <v>76.42</v>
+        <v>91</v>
       </c>
       <c r="D21" t="n">
-        <v>4.99</v>
+        <v>5.7</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>76.28</v>
+        <v>87.75</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-0.18</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>REFRACTORY</t>
+          <t>CALSOFT</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.2</v>
+        <v>17.76</v>
       </c>
       <c r="C22" t="n">
-        <v>54.8</v>
+        <v>18.76</v>
       </c>
       <c r="D22" t="n">
-        <v>4.98</v>
+        <v>5.63</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>54.8</v>
+        <v>18.15</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SEYAIND</t>
+          <t>DGCONTENT</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21.77</v>
+        <v>36.76</v>
       </c>
       <c r="C23" t="n">
-        <v>22.85</v>
+        <v>38.76</v>
       </c>
       <c r="D23" t="n">
-        <v>4.96</v>
+        <v>5.44</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>22.85</v>
+        <v>37.9</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>DREDGECORP</t>
+          <t>GARUDA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>889.35</v>
+        <v>224.88</v>
       </c>
       <c r="C24" t="n">
-        <v>932.9</v>
+        <v>237</v>
       </c>
       <c r="D24" t="n">
-        <v>4.9</v>
+        <v>5.39</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>895.75</v>
+        <v>232.22</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-3.98</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GAYAHWS</t>
+          <t>CURAA</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.69</v>
+        <v>176.46</v>
       </c>
       <c r="C25" t="n">
-        <v>3.87</v>
+        <v>185.28</v>
       </c>
       <c r="D25" t="n">
-        <v>4.88</v>
+        <v>5</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>3.87</v>
+        <v>185.28</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
@@ -1102,101 +1102,101 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SYNOPTICS</t>
+          <t>GSMFOILS</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>79.5</v>
+        <v>213.05</v>
       </c>
       <c r="C26" t="n">
-        <v>83.2</v>
+        <v>223.7</v>
       </c>
       <c r="D26" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>83.2</v>
+        <v>216.45</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SWANDEF</t>
+          <t>BAFNAPH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>773.25</v>
+        <v>158.34</v>
       </c>
       <c r="C27" t="n">
-        <v>808</v>
+        <v>166.25</v>
       </c>
       <c r="D27" t="n">
-        <v>4.49</v>
+        <v>5</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>811.9</v>
+        <v>166.25</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>JUBLCPL</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1632.2</v>
+        <v>2399.4</v>
       </c>
       <c r="C28" t="n">
-        <v>1705</v>
+        <v>2519.3</v>
       </c>
       <c r="D28" t="n">
-        <v>4.46</v>
+        <v>5</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1729</v>
+        <v>2519.3</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DHARAN</t>
+          <t>IRIS</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.46</v>
+        <v>335.3</v>
       </c>
       <c r="C29" t="n">
-        <v>0.48</v>
+        <v>352.05</v>
       </c>
       <c r="D29" t="n">
-        <v>4.35</v>
+        <v>5</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0.48</v>
+        <v>352.05</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
@@ -1206,673 +1206,677 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TBOTEK</t>
+          <t>RAMCOSYS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1496.6</v>
+        <v>605.75</v>
       </c>
       <c r="C30" t="n">
-        <v>1560</v>
+        <v>636</v>
       </c>
       <c r="D30" t="n">
-        <v>4.24</v>
+        <v>4.99</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1585</v>
+        <v>636.55</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1.6</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMFAB</t>
+          <t>SOMATEX</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>590.25</v>
+        <v>153.58</v>
       </c>
       <c r="C31" t="n">
-        <v>615</v>
+        <v>161.25</v>
       </c>
       <c r="D31" t="n">
-        <v>4.19</v>
+        <v>4.99</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>574.05</v>
+        <v>161.25</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-6.66</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ACMESOLAR</t>
+          <t>SWANDEF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>272.65</v>
+        <v>811.9</v>
       </c>
       <c r="C32" t="n">
-        <v>284</v>
+        <v>852.45</v>
       </c>
       <c r="D32" t="n">
-        <v>4.16</v>
+        <v>4.99</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>272.6</v>
+        <v>852.45</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-4.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EXXARO</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>7.28</v>
+        <v>5892.5</v>
       </c>
       <c r="C33" t="n">
-        <v>7.58</v>
+        <v>6186</v>
       </c>
       <c r="D33" t="n">
-        <v>4.12</v>
+        <v>4.98</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>8.630000000000001</v>
+        <v>6110</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>13.85</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GREENPOWER</t>
+          <t>SICALLOG</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.34</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>14.93</v>
+        <v>101.29</v>
       </c>
       <c r="D34" t="n">
-        <v>4.11</v>
+        <v>4.95</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>14</v>
+        <v>100.9</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-6.23</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MEGASOFT</t>
+          <t>NAGREEKCAP</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>221.9</v>
+        <v>32.72</v>
       </c>
       <c r="C35" t="n">
-        <v>231</v>
+        <v>34.34</v>
       </c>
       <c r="D35" t="n">
-        <v>4.1</v>
+        <v>4.95</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>221.26</v>
+        <v>33</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-4.22</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>THANGAMAYL</t>
+          <t>GAYAHWS</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>2603.5</v>
+        <v>3.87</v>
       </c>
       <c r="C36" t="n">
-        <v>2709.1</v>
+        <v>4.06</v>
       </c>
       <c r="D36" t="n">
-        <v>4.06</v>
+        <v>4.91</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>3033</v>
+        <v>4</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>11.96</v>
+        <v>-1.48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DOLPHIN</t>
+          <t>BALCO</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>446.1</v>
+        <v>26.6</v>
       </c>
       <c r="C37" t="n">
-        <v>464</v>
+        <v>27.9</v>
       </c>
       <c r="D37" t="n">
-        <v>4.01</v>
+        <v>4.89</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>412.6</v>
+        <v>27.9</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-11.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>UNITEDPOLY</t>
+          <t>FMNL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.8</v>
+        <v>11.68</v>
       </c>
       <c r="C38" t="n">
-        <v>43.4</v>
+        <v>12.25</v>
       </c>
       <c r="D38" t="n">
-        <v>3.83</v>
+        <v>4.88</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>43.89</v>
+        <v>12.19</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>1.13</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>JSLL</t>
+          <t>ONELIFECAP</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.45</v>
+        <v>16.87</v>
       </c>
       <c r="C39" t="n">
-        <v>801.95</v>
+        <v>17.69</v>
       </c>
       <c r="D39" t="n">
-        <v>3.82</v>
+        <v>4.86</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>785.85</v>
+        <v>17.71</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-2.01</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>TFL</t>
+          <t>AMDIND</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>12.91</v>
+        <v>56.04</v>
       </c>
       <c r="C40" t="n">
-        <v>13.4</v>
+        <v>58.75</v>
       </c>
       <c r="D40" t="n">
-        <v>3.8</v>
+        <v>4.84</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-2.99</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TAC</t>
+          <t>CUBEINVIT</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.85</v>
+        <v>135</v>
       </c>
       <c r="C41" t="n">
-        <v>889</v>
+        <v>141.5</v>
       </c>
       <c r="D41" t="n">
-        <v>3.75</v>
+        <v>4.81</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>869.9</v>
+        <v>141.5</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-2.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>WELINV</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>234.66</v>
+        <v>1164.2</v>
       </c>
       <c r="C42" t="n">
-        <v>243.45</v>
+        <v>1220</v>
       </c>
       <c r="D42" t="n">
-        <v>3.75</v>
+        <v>4.79</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>230.75</v>
+        <v>1191</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-5.22</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AUSOMENT</t>
+          <t>APCOTEXIND</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>105.06</v>
+        <v>354.9</v>
       </c>
       <c r="C43" t="n">
-        <v>109</v>
+        <v>371.9</v>
       </c>
       <c r="D43" t="n">
-        <v>3.75</v>
+        <v>4.79</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>104.55</v>
+        <v>377.55</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-4.08</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HECPROJECT</t>
+          <t>DDEVPLSTIK</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>137.08</v>
+        <v>296.85</v>
       </c>
       <c r="C44" t="n">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="D44" t="n">
-        <v>3.59</v>
+        <v>4.77</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>138</v>
+        <v>297.95</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-2.82</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S&amp;SPOWER</t>
+          <t>MADHAV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>352.6</v>
+        <v>41.01</v>
       </c>
       <c r="C45" t="n">
-        <v>365</v>
+        <v>42.96</v>
       </c>
       <c r="D45" t="n">
-        <v>3.52</v>
+        <v>4.75</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
-      <c r="F45" t="inlineStr"/>
+      <c r="F45" t="n">
+        <v>40.46</v>
+      </c>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+      <c r="H45" t="n">
+        <v>-5.82</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KAYA</t>
+          <t>PRIVISCL</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>459.55</v>
+        <v>2984.1</v>
       </c>
       <c r="C46" t="n">
-        <v>474.9</v>
+        <v>3125</v>
       </c>
       <c r="D46" t="n">
-        <v>3.34</v>
+        <v>4.72</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>436.7</v>
+        <v>3262.1</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-8.039999999999999</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ADROITINFO</t>
+          <t>KEYFINSERV</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>11.47</v>
+        <v>360</v>
       </c>
       <c r="C47" t="n">
-        <v>11.85</v>
+        <v>377</v>
       </c>
       <c r="D47" t="n">
-        <v>3.31</v>
+        <v>4.72</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>11.44</v>
+        <v>356.7</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-3.46</v>
+        <v>-5.38</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PARASPETRO</t>
+          <t>CYBERMEDIA</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.12</v>
+        <v>17.68</v>
       </c>
       <c r="C48" t="n">
-        <v>2.19</v>
+        <v>18.5</v>
       </c>
       <c r="D48" t="n">
-        <v>3.3</v>
+        <v>4.64</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.15</v>
+        <v>18.34</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-1.83</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SAGARDEEP</t>
+          <t>TREEHOUSE</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>29.44</v>
+        <v>7.8</v>
       </c>
       <c r="C49" t="n">
-        <v>30.4</v>
+        <v>8.16</v>
       </c>
       <c r="D49" t="n">
-        <v>3.26</v>
+        <v>4.62</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>28.7</v>
+        <v>8.1</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-5.59</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>VALIANTORG</t>
+          <t>LCCINFOTEC</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>305.05</v>
+        <v>4.11</v>
       </c>
       <c r="C50" t="n">
-        <v>314.9</v>
+        <v>4.3</v>
       </c>
       <c r="D50" t="n">
-        <v>3.23</v>
+        <v>4.62</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>306.6</v>
+        <v>4.07</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-2.64</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ROLTA</t>
+          <t>TECHLABS</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.95</v>
+        <v>442.3</v>
       </c>
       <c r="C51" t="n">
-        <v>2.01</v>
+        <v>462.6</v>
       </c>
       <c r="D51" t="n">
-        <v>3.08</v>
+        <v>4.59</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>2</v>
+        <v>444.65</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-0.5</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ALMONDZ</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>18.6</v>
+        <v>0.88</v>
       </c>
       <c r="C52" t="n">
-        <v>19.17</v>
+        <v>0.92</v>
       </c>
       <c r="D52" t="n">
-        <v>3.06</v>
+        <v>4.55</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>17.85</v>
+        <v>0.91</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-6.89</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LATTEYS</t>
+          <t>GREENPOWER</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>29.46</v>
+        <v>13.97</v>
       </c>
       <c r="C53" t="n">
-        <v>30.35</v>
+        <v>14.6</v>
       </c>
       <c r="D53" t="n">
-        <v>3.02</v>
+        <v>4.51</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>29.15</v>
+        <v>14.32</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-3.95</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MADHUCON</t>
+          <t>SANCO</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>7.11</v>
+        <v>1.8</v>
       </c>
       <c r="C54" t="n">
-        <v>7.32</v>
+        <v>1.88</v>
       </c>
       <c r="D54" t="n">
-        <v>2.95</v>
+        <v>4.44</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>7.08</v>
+        <v>1.88</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-3.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>OAL</t>
+          <t>JINDRILL</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>347.1</v>
+        <v>584.35</v>
       </c>
       <c r="C55" t="n">
-        <v>357.3</v>
+        <v>610</v>
       </c>
       <c r="D55" t="n">
-        <v>2.94</v>
+        <v>4.39</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>344</v>
+        <v>590</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-3.72</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="56">
@@ -1882,3789 +1886,3785 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>68.02</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="C56" t="n">
         <v>70</v>
       </c>
       <c r="D56" t="n">
-        <v>2.91</v>
+        <v>4.32</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>68.40000000000001</v>
+        <v>67.77</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-2.29</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TVSHLTD</t>
+          <t>KDL</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>15062</v>
+        <v>174.5</v>
       </c>
       <c r="C57" t="n">
-        <v>15496</v>
+        <v>181.95</v>
       </c>
       <c r="D57" t="n">
-        <v>2.88</v>
+        <v>4.27</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>15183</v>
+        <v>180</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-2.02</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>RITES</t>
+          <t>NEPTUNE</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>247.88</v>
+        <v>162.1</v>
       </c>
       <c r="C58" t="n">
-        <v>255</v>
+        <v>169</v>
       </c>
       <c r="D58" t="n">
-        <v>2.87</v>
+        <v>4.26</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>246.5</v>
+        <v>169</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TERASOFT</t>
+          <t>ROYALARC</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>530.9</v>
+        <v>165</v>
       </c>
       <c r="C59" t="n">
-        <v>546</v>
+        <v>172</v>
       </c>
       <c r="D59" t="n">
-        <v>2.84</v>
+        <v>4.24</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>557.4</v>
+        <v>172</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>2.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MAHASTEEL</t>
+          <t>DHARAN</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>601.9</v>
+        <v>0.48</v>
       </c>
       <c r="C60" t="n">
-        <v>619</v>
+        <v>0.5</v>
       </c>
       <c r="D60" t="n">
-        <v>2.84</v>
+        <v>4.17</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>609.75</v>
+        <v>0.5</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-1.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KODYTECH</t>
+          <t>EMAMIREAL</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>679.85</v>
+        <v>95.15000000000001</v>
       </c>
       <c r="C61" t="n">
-        <v>699</v>
+        <v>99</v>
       </c>
       <c r="D61" t="n">
-        <v>2.82</v>
+        <v>4.05</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>709.9</v>
+        <v>94.91</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>1.56</v>
+        <v>-4.13</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>KAUSHALYA</t>
+          <t>TEAMGTY</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1005.4</v>
+        <v>268</v>
       </c>
       <c r="C62" t="n">
-        <v>1033</v>
+        <v>278.8</v>
       </c>
       <c r="D62" t="n">
-        <v>2.75</v>
+        <v>4.03</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1000.3</v>
+        <v>280.9</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-3.17</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SIGMA</t>
+          <t>APOLLO</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>58.22</v>
+        <v>277.9</v>
       </c>
       <c r="C63" t="n">
-        <v>59.8</v>
+        <v>289</v>
       </c>
       <c r="D63" t="n">
-        <v>2.71</v>
+        <v>3.99</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>57.2</v>
+        <v>283.75</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-4.35</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>FLFL</t>
+          <t>EMMBI</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>1.51</v>
+        <v>108.03</v>
       </c>
       <c r="C64" t="n">
-        <v>1.55</v>
+        <v>112.3</v>
       </c>
       <c r="D64" t="n">
-        <v>2.65</v>
+        <v>3.95</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.54</v>
+        <v>108.95</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-0.65</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NAGREEKEXP</t>
+          <t>SETUINFRA</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>29.42</v>
+        <v>0.53</v>
       </c>
       <c r="C65" t="n">
-        <v>30.2</v>
+        <v>0.55</v>
       </c>
       <c r="D65" t="n">
-        <v>2.65</v>
+        <v>3.77</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>28.9</v>
+        <v>0.55</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-4.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RELCHEMQ</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>153.64</v>
+        <v>888.65</v>
       </c>
       <c r="C66" t="n">
-        <v>157.6</v>
+        <v>922</v>
       </c>
       <c r="D66" t="n">
-        <v>2.58</v>
+        <v>3.75</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>154</v>
+        <v>988.6</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-2.28</v>
+        <v>7.22</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AMNPLST</t>
+          <t>AERONEU</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>214.59</v>
+        <v>79.88</v>
       </c>
       <c r="C67" t="n">
-        <v>219.99</v>
+        <v>82.87</v>
       </c>
       <c r="D67" t="n">
-        <v>2.52</v>
+        <v>3.74</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>212.65</v>
+        <v>80.58</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-3.34</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ANIKINDS</t>
+          <t>VMART</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>75.11</v>
+        <v>832.1</v>
       </c>
       <c r="C68" t="n">
-        <v>77</v>
+        <v>863.15</v>
       </c>
       <c r="D68" t="n">
-        <v>2.52</v>
+        <v>3.73</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>76.40000000000001</v>
+        <v>839.85</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-0.78</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HARRMALAYA</t>
+          <t>METROPOLIS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>197.86</v>
+        <v>2030.8</v>
       </c>
       <c r="C69" t="n">
-        <v>202.8</v>
+        <v>2106.5</v>
       </c>
       <c r="D69" t="n">
-        <v>2.5</v>
+        <v>3.73</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>193.9</v>
+        <v>2060</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-4.39</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ORIENTTECH</t>
+          <t>DECCANTRAN</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>471.95</v>
+        <v>36.3</v>
       </c>
       <c r="C70" t="n">
-        <v>483.65</v>
+        <v>37.65</v>
       </c>
       <c r="D70" t="n">
-        <v>2.48</v>
+        <v>3.72</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>469.6</v>
+        <v>37.65</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BTML</t>
+          <t>GANGAFORGE</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>8.140000000000001</v>
+        <v>3.53</v>
       </c>
       <c r="C71" t="n">
-        <v>8.34</v>
+        <v>3.66</v>
       </c>
       <c r="D71" t="n">
-        <v>2.46</v>
+        <v>3.68</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>8.050000000000001</v>
+        <v>3.49</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-3.48</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>MARKSANS</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>53.1</v>
+        <v>186.79</v>
       </c>
       <c r="C72" t="n">
-        <v>54.4</v>
+        <v>193.65</v>
       </c>
       <c r="D72" t="n">
-        <v>2.45</v>
+        <v>3.67</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>52.5</v>
+        <v>188.43</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-3.49</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>INDUSTOWER</t>
+          <t>FMGOETZE</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>382.75</v>
+        <v>501.7</v>
       </c>
       <c r="C73" t="n">
-        <v>392</v>
+        <v>519.95</v>
       </c>
       <c r="D73" t="n">
-        <v>2.42</v>
+        <v>3.64</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>392.3</v>
+        <v>512</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>0.08</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PNC</t>
+          <t>BANCOINDIA</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>29</v>
+        <v>820.2</v>
       </c>
       <c r="C74" t="n">
-        <v>29.7</v>
+        <v>850</v>
       </c>
       <c r="D74" t="n">
-        <v>2.41</v>
+        <v>3.63</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>27.95</v>
+        <v>813.6</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-5.89</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>WIPL</t>
+          <t>SANWARIA</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>172.86</v>
+        <v>0.28</v>
       </c>
       <c r="C75" t="n">
-        <v>177</v>
+        <v>0.29</v>
       </c>
       <c r="D75" t="n">
-        <v>2.4</v>
+        <v>3.57</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>171</v>
+        <v>0.29</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-3.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ASIANENE</t>
+          <t>NAHARPOLY</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>332.55</v>
+        <v>308.85</v>
       </c>
       <c r="C76" t="n">
-        <v>340.4</v>
+        <v>319.8</v>
       </c>
       <c r="D76" t="n">
-        <v>2.36</v>
+        <v>3.55</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>343.65</v>
+        <v>312.2</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>0.95</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>YUKEN</t>
+          <t>VIPULLTD</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>964.3</v>
+        <v>8.74</v>
       </c>
       <c r="C77" t="n">
-        <v>987</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>2.35</v>
+        <v>3.55</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>952</v>
+        <v>9.09</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-3.55</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DHUNINV</t>
+          <t>KAYNES</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1391.4</v>
+        <v>6658.5</v>
       </c>
       <c r="C78" t="n">
-        <v>1423.6</v>
+        <v>6890</v>
       </c>
       <c r="D78" t="n">
-        <v>2.31</v>
+        <v>3.48</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>1389.3</v>
+        <v>6571</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-2.41</v>
+        <v>-4.63</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SHAHALLOYS</t>
+          <t>BLACKBUCK</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>76.23999999999999</v>
+        <v>653.85</v>
       </c>
       <c r="C79" t="n">
-        <v>78</v>
+        <v>676.55</v>
       </c>
       <c r="D79" t="n">
-        <v>2.31</v>
+        <v>3.47</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>80.05</v>
+        <v>709.15</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>2.63</v>
+        <v>4.82</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SITINET</t>
+          <t>IGIL</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.44</v>
+        <v>335.15</v>
       </c>
       <c r="C80" t="n">
-        <v>0.45</v>
+        <v>346.65</v>
       </c>
       <c r="D80" t="n">
-        <v>2.27</v>
+        <v>3.43</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>0.45</v>
+        <v>354.1</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SMARTWORKS</t>
+          <t>SIMPLEXINF</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>594.25</v>
+        <v>296.65</v>
       </c>
       <c r="C81" t="n">
-        <v>607.7</v>
+        <v>306.65</v>
       </c>
       <c r="D81" t="n">
-        <v>2.26</v>
+        <v>3.37</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>609</v>
+        <v>308.15</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>0.21</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ASTRON</t>
+          <t>PAYTM</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>10.2</v>
+        <v>1268</v>
       </c>
       <c r="C82" t="n">
-        <v>10.43</v>
+        <v>1310</v>
       </c>
       <c r="D82" t="n">
-        <v>2.25</v>
+        <v>3.31</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>10.07</v>
+        <v>1305.6</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-3.45</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>IZMO</t>
+          <t>JETFREIGHT</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>860.65</v>
+        <v>12.43</v>
       </c>
       <c r="C83" t="n">
-        <v>880</v>
+        <v>12.84</v>
       </c>
       <c r="D83" t="n">
-        <v>2.25</v>
+        <v>3.3</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>903.65</v>
+        <v>12.4</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>2.69</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ABSMARINE</t>
+          <t>NITCO</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>220</v>
+        <v>100.68</v>
       </c>
       <c r="C84" t="n">
-        <v>224.95</v>
+        <v>103.99</v>
       </c>
       <c r="D84" t="n">
-        <v>2.25</v>
+        <v>3.29</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>219.05</v>
+        <v>100.96</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-2.62</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SARTELE</t>
+          <t>CUPID</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>176.05</v>
+        <v>241.11</v>
       </c>
       <c r="C85" t="n">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="D85" t="n">
-        <v>2.24</v>
+        <v>3.27</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>180</v>
+        <v>248.08</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AIROLAM</t>
+          <t>GLOBALPET</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>103.24</v>
+        <v>154</v>
       </c>
       <c r="C86" t="n">
-        <v>105.55</v>
+        <v>159</v>
       </c>
       <c r="D86" t="n">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>105.69</v>
+        <v>159</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ZEELEARN</t>
+          <t>DIAMONDYD</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>8.470000000000001</v>
+        <v>1112.2</v>
       </c>
       <c r="C87" t="n">
-        <v>8.66</v>
+        <v>1148.2</v>
       </c>
       <c r="D87" t="n">
-        <v>2.24</v>
+        <v>3.24</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>8.5</v>
+        <v>1129.3</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-1.85</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HIGREEN</t>
+          <t>BHARATSE</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>193.1</v>
+        <v>205.76</v>
       </c>
       <c r="C88" t="n">
-        <v>197.4</v>
+        <v>212.39</v>
       </c>
       <c r="D88" t="n">
-        <v>2.23</v>
+        <v>3.22</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>188.5</v>
+        <v>206.33</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-4.51</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHEMBONDCH</t>
+          <t>ZOTA</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>156</v>
+        <v>1560.4</v>
       </c>
       <c r="C89" t="n">
-        <v>159.45</v>
+        <v>1610</v>
       </c>
       <c r="D89" t="n">
-        <v>2.21</v>
+        <v>3.18</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>153.38</v>
+        <v>1550.5</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-3.81</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SHYAMCENT</t>
+          <t>NAGREEKEXP</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>6.83</v>
+        <v>29.03</v>
       </c>
       <c r="C90" t="n">
-        <v>6.98</v>
+        <v>29.95</v>
       </c>
       <c r="D90" t="n">
-        <v>2.2</v>
+        <v>3.17</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>6.8</v>
+        <v>29.68</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-2.58</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SHAH</t>
+          <t>KREBSBIO</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>4.56</v>
+        <v>69.59999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>4.66</v>
+        <v>71.8</v>
       </c>
       <c r="D91" t="n">
-        <v>2.19</v>
+        <v>3.16</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>4.47</v>
+        <v>68.98999999999999</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-4.08</v>
+        <v>-3.91</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>ESSENTIA</t>
+          <t>PRUDMOULI</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>1.84</v>
+        <v>26.57</v>
       </c>
       <c r="C92" t="n">
-        <v>1.88</v>
+        <v>27.4</v>
       </c>
       <c r="D92" t="n">
-        <v>2.17</v>
+        <v>3.12</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>1.79</v>
+        <v>27.07</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-4.79</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOMICONVEY</t>
+          <t>LIBAS</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>156.12</v>
+        <v>11.87</v>
       </c>
       <c r="C93" t="n">
-        <v>159.5</v>
+        <v>12.24</v>
       </c>
       <c r="D93" t="n">
-        <v>2.17</v>
+        <v>3.12</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>157.71</v>
+        <v>11.71</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-1.12</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BELLACASA</t>
+          <t>SHANTIGOLD</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>440.55</v>
+        <v>241.57</v>
       </c>
       <c r="C94" t="n">
-        <v>449.9</v>
+        <v>248.8</v>
       </c>
       <c r="D94" t="n">
-        <v>2.12</v>
+        <v>2.99</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>457.5</v>
+        <v>232.89</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>1.69</v>
+        <v>-6.39</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ONEPOINT</t>
+          <t>NURECA</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>48.92</v>
+        <v>258.3</v>
       </c>
       <c r="C95" t="n">
-        <v>49.95</v>
+        <v>266</v>
       </c>
       <c r="D95" t="n">
-        <v>2.11</v>
+        <v>2.98</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>49.16</v>
+        <v>267</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-1.58</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>UYFINCORP</t>
+          <t>LMW</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>15.48</v>
+        <v>15779</v>
       </c>
       <c r="C96" t="n">
-        <v>15.8</v>
+        <v>16250</v>
       </c>
       <c r="D96" t="n">
-        <v>2.07</v>
+        <v>2.98</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>14.9</v>
+        <v>15982</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-5.7</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>ACL</t>
+          <t>AKIKO</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>72.02</v>
+        <v>266.65</v>
       </c>
       <c r="C97" t="n">
-        <v>73.48999999999999</v>
+        <v>274.6</v>
       </c>
       <c r="D97" t="n">
-        <v>2.04</v>
+        <v>2.98</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>73</v>
+        <v>274.6</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-0.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>LOKESHMACH</t>
+          <t>DRCSYSTEMS</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>188.75</v>
+        <v>19.28</v>
       </c>
       <c r="C98" t="n">
-        <v>192.6</v>
+        <v>19.85</v>
       </c>
       <c r="D98" t="n">
-        <v>2.04</v>
+        <v>2.96</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>186.4</v>
+        <v>19.48</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-3.22</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>KAMOPAINTS</t>
+          <t>UYFINCORP</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>7.97</v>
+        <v>14.85</v>
       </c>
       <c r="C99" t="n">
-        <v>8.130000000000001</v>
+        <v>15.29</v>
       </c>
       <c r="D99" t="n">
-        <v>2.01</v>
+        <v>2.96</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>8.1</v>
+        <v>15.3</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-0.37</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ABINFRA</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>19.61</v>
+        <v>2486.7</v>
       </c>
       <c r="C100" t="n">
-        <v>20</v>
+        <v>2560.1</v>
       </c>
       <c r="D100" t="n">
-        <v>1.99</v>
+        <v>2.95</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>19.35</v>
+        <v>2588.5</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-3.25</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>UNITEDPOLY</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.539999999999999</v>
+        <v>43.89</v>
       </c>
       <c r="C101" t="n">
-        <v>9.73</v>
+        <v>45.18</v>
       </c>
       <c r="D101" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>9.380000000000001</v>
+        <v>45</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-3.6</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>NGIL</t>
+          <t>SPUNWEB</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>29.76</v>
+        <v>146.15</v>
       </c>
       <c r="C102" t="n">
-        <v>30.35</v>
+        <v>150.4</v>
       </c>
       <c r="D102" t="n">
-        <v>1.98</v>
+        <v>2.91</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>29.11</v>
+        <v>155</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-4.09</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MONEYBOXX</t>
+          <t>TEAMLEASE</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>161.79</v>
+        <v>1687.9</v>
       </c>
       <c r="C103" t="n">
-        <v>165</v>
+        <v>1736</v>
       </c>
       <c r="D103" t="n">
-        <v>1.98</v>
+        <v>2.85</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>161.05</v>
+        <v>1754.9</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-2.39</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SYSTMTXC</t>
+          <t>MAHAPEXLTD</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>160.34</v>
+        <v>95.28</v>
       </c>
       <c r="C104" t="n">
-        <v>163.5</v>
+        <v>97.97</v>
       </c>
       <c r="D104" t="n">
-        <v>1.97</v>
+        <v>2.82</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>164.3</v>
+        <v>95.01000000000001</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>0.49</v>
+        <v>-3.02</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DCM</t>
+          <t>RATEGAIN</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>92</v>
+        <v>685.8</v>
       </c>
       <c r="C105" t="n">
-        <v>93.8</v>
+        <v>705</v>
       </c>
       <c r="D105" t="n">
-        <v>1.96</v>
+        <v>2.8</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>92</v>
+        <v>688.5</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-1.92</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>USK</t>
+          <t>EMUDHRA</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>25.97</v>
+        <v>638.8</v>
       </c>
       <c r="C106" t="n">
-        <v>26.48</v>
+        <v>656.35</v>
       </c>
       <c r="D106" t="n">
-        <v>1.96</v>
+        <v>2.75</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>26.29</v>
+        <v>639.9</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-0.72</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>DBEIL</t>
+          <t>CAPLIPOINT</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>147.13</v>
+        <v>1995.2</v>
       </c>
       <c r="C107" t="n">
-        <v>150</v>
+        <v>2050</v>
       </c>
       <c r="D107" t="n">
-        <v>1.95</v>
+        <v>2.75</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>147</v>
+        <v>2025.9</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-2</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RAJRILTD</t>
+          <t>GRSE</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>24.67</v>
+        <v>2556.2</v>
       </c>
       <c r="C108" t="n">
-        <v>25.15</v>
+        <v>2624.7</v>
       </c>
       <c r="D108" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>24.31</v>
+        <v>2591.1</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-3.34</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NIBE</t>
+          <t>ZODIAC</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1191.9</v>
+        <v>379.35</v>
       </c>
       <c r="C109" t="n">
-        <v>1215</v>
+        <v>389.5</v>
       </c>
       <c r="D109" t="n">
-        <v>1.94</v>
+        <v>2.68</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>1190</v>
+        <v>387.05</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-2.06</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SUTLEJTEX</t>
+          <t>AVANTIFEED</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>35.02</v>
+        <v>690.55</v>
       </c>
       <c r="C110" t="n">
-        <v>35.7</v>
+        <v>709</v>
       </c>
       <c r="D110" t="n">
-        <v>1.94</v>
+        <v>2.67</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>35.85</v>
+        <v>702.45</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>0.42</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SHEMAROO</t>
+          <t>RAMCOCEM</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>113.02</v>
+        <v>1027</v>
       </c>
       <c r="C111" t="n">
-        <v>115.2</v>
+        <v>1054</v>
       </c>
       <c r="D111" t="n">
-        <v>1.93</v>
+        <v>2.63</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>112.19</v>
+        <v>1030</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-2.61</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BHARATSE</t>
+          <t>SATTVAENGG</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>208.98</v>
+        <v>80</v>
       </c>
       <c r="C112" t="n">
-        <v>213</v>
+        <v>82.05</v>
       </c>
       <c r="D112" t="n">
-        <v>1.92</v>
+        <v>2.56</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>210</v>
+        <v>86.7</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-1.41</v>
+        <v>5.67</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>FOCUS</t>
+          <t>DIL</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>85.14</v>
+        <v>1.95</v>
       </c>
       <c r="C113" t="n">
-        <v>86.77</v>
+        <v>2</v>
       </c>
       <c r="D113" t="n">
-        <v>1.91</v>
+        <v>2.56</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>84.27</v>
+        <v>1.97</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-2.88</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>RPPL</t>
+          <t>SUZLON</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>19.33</v>
+        <v>59.99</v>
       </c>
       <c r="C114" t="n">
-        <v>19.7</v>
+        <v>61.5</v>
       </c>
       <c r="D114" t="n">
-        <v>1.91</v>
+        <v>2.52</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>19.35</v>
+        <v>60.07</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-1.78</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ODIGMA</t>
+          <t>ROLLT</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>38.75</v>
+        <v>1.2</v>
       </c>
       <c r="C115" t="n">
-        <v>39.49</v>
+        <v>1.23</v>
       </c>
       <c r="D115" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>37.9</v>
+        <v>1.22</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-4.03</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORCHPHARMA</t>
+          <t>TAINWALCHM</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>770.35</v>
+        <v>200.1</v>
       </c>
       <c r="C116" t="n">
-        <v>785</v>
+        <v>205</v>
       </c>
       <c r="D116" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>789.95</v>
+        <v>202</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>0.63</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DNAMEDIA</t>
+          <t>CELLECOR</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>4.21</v>
+        <v>32.65</v>
       </c>
       <c r="C117" t="n">
-        <v>4.29</v>
+        <v>33.45</v>
       </c>
       <c r="D117" t="n">
-        <v>1.9</v>
+        <v>2.45</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>4.24</v>
+        <v>32</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-1.17</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TOKYOPLAST</t>
+          <t>GOLDTECH</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>124.54</v>
+        <v>59.89</v>
       </c>
       <c r="C118" t="n">
-        <v>126.9</v>
+        <v>61.35</v>
       </c>
       <c r="D118" t="n">
-        <v>1.89</v>
+        <v>2.44</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>124.55</v>
+        <v>59.39</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-1.85</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>OCCLLTD</t>
+          <t>SEYAIND</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>115.85</v>
+        <v>22.85</v>
       </c>
       <c r="C119" t="n">
-        <v>118.02</v>
+        <v>23.4</v>
       </c>
       <c r="D119" t="n">
-        <v>1.87</v>
+        <v>2.41</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>113.5</v>
+        <v>23.99</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-3.83</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>OSWALAGRO</t>
+          <t>AATMAJ</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>79.20999999999999</v>
+        <v>20.8</v>
       </c>
       <c r="C120" t="n">
-        <v>80.69</v>
+        <v>21.3</v>
       </c>
       <c r="D120" t="n">
-        <v>1.87</v>
+        <v>2.4</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>77.2</v>
+        <v>20.55</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-4.33</v>
+        <v>-3.52</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>LAKSHYA</t>
+          <t>EBGNG</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>149.7</v>
+        <v>346.65</v>
       </c>
       <c r="C121" t="n">
-        <v>152.5</v>
+        <v>354.95</v>
       </c>
       <c r="D121" t="n">
-        <v>1.87</v>
+        <v>2.39</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>136.8</v>
+        <v>347</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-10.3</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>DIGIDRIVE</t>
+          <t>TERASOFT</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>28.67</v>
+        <v>555.75</v>
       </c>
       <c r="C122" t="n">
-        <v>29.2</v>
+        <v>569</v>
       </c>
       <c r="D122" t="n">
-        <v>1.85</v>
+        <v>2.38</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>28.7</v>
+        <v>542.8</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-1.71</v>
+        <v>-4.6</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AURIONPRO</t>
+          <t>ZENITHEXPO</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1217.4</v>
+        <v>238.32</v>
       </c>
       <c r="C123" t="n">
-        <v>1239.9</v>
+        <v>243.98</v>
       </c>
       <c r="D123" t="n">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1186.5</v>
+        <v>243.98</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-4.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>HEADSUP</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>0.55</v>
+        <v>10.64</v>
       </c>
       <c r="C124" t="n">
-        <v>0.5600000000000001</v>
+        <v>10.89</v>
       </c>
       <c r="D124" t="n">
-        <v>1.82</v>
+        <v>2.35</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0.54</v>
+        <v>10.55</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-3.57</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HINDCON</t>
+          <t>APCL</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>33.13</v>
+        <v>125.85</v>
       </c>
       <c r="C125" t="n">
-        <v>33.73</v>
+        <v>128.8</v>
       </c>
       <c r="D125" t="n">
-        <v>1.81</v>
+        <v>2.34</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>32.52</v>
+        <v>128.8</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-3.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NOIDATOLL</t>
+          <t>SIGMA</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4.42</v>
+        <v>57.07</v>
       </c>
       <c r="C126" t="n">
-        <v>4.5</v>
+        <v>58.4</v>
       </c>
       <c r="D126" t="n">
-        <v>1.81</v>
+        <v>2.33</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>4.36</v>
+        <v>57</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-3.11</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SHRADHA</t>
+          <t>BBTC</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>44.2</v>
+        <v>1952.8</v>
       </c>
       <c r="C127" t="n">
-        <v>45</v>
+        <v>1998</v>
       </c>
       <c r="D127" t="n">
-        <v>1.81</v>
+        <v>2.31</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>44.2</v>
+        <v>1953.3</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-1.78</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>FISCHER</t>
+          <t>DAMODARIND</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>107.07</v>
+        <v>34.2</v>
       </c>
       <c r="C128" t="n">
-        <v>109</v>
+        <v>34.99</v>
       </c>
       <c r="D128" t="n">
-        <v>1.8</v>
+        <v>2.31</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>93.90000000000001</v>
+        <v>34.69</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-13.85</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>BALAXI</t>
+          <t>WEIZMANIND</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>43.08</v>
+        <v>106.06</v>
       </c>
       <c r="C129" t="n">
-        <v>43.85</v>
+        <v>108.5</v>
       </c>
       <c r="D129" t="n">
-        <v>1.79</v>
+        <v>2.3</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>42.56</v>
+        <v>108.39</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-2.94</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>IFBAGRO</t>
+          <t>WIPL</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1444.4</v>
+        <v>171.09</v>
       </c>
       <c r="C130" t="n">
-        <v>1470</v>
+        <v>175</v>
       </c>
       <c r="D130" t="n">
-        <v>1.77</v>
+        <v>2.29</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1431.4</v>
+        <v>171</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-2.63</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HCL-INSYS</t>
+          <t>SBC</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>15.82</v>
+        <v>24.2</v>
       </c>
       <c r="C131" t="n">
-        <v>16.1</v>
+        <v>24.75</v>
       </c>
       <c r="D131" t="n">
-        <v>1.77</v>
+        <v>2.27</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>15.83</v>
+        <v>24.63</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-1.68</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TRIGYN</t>
+          <t>ARIHANTCAP</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>76.15000000000001</v>
+        <v>100.72</v>
       </c>
       <c r="C132" t="n">
-        <v>77.48</v>
+        <v>102.99</v>
       </c>
       <c r="D132" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>74.89</v>
+        <v>101.56</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-3.34</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>KRISHNADEF</t>
+          <t>SAMBHAAV</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>795</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="C133" t="n">
-        <v>808.95</v>
+        <v>9.17</v>
       </c>
       <c r="D133" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>784</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-3.08</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SAKUMA</t>
+          <t>ABAN</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>2.88</v>
+        <v>38.54</v>
       </c>
       <c r="C134" t="n">
-        <v>2.93</v>
+        <v>39.4</v>
       </c>
       <c r="D134" t="n">
-        <v>1.74</v>
+        <v>2.23</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>2.78</v>
+        <v>38.9</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-5.12</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ADVANIHOTR</t>
+          <t>KERNEX</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>57.87</v>
+        <v>1271.2</v>
       </c>
       <c r="C135" t="n">
-        <v>58.87</v>
+        <v>1299</v>
       </c>
       <c r="D135" t="n">
-        <v>1.73</v>
+        <v>2.19</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>58.25</v>
+        <v>1268.7</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-1.05</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>VARDMNPOLY</t>
+          <t>BHARATRAS</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>8.220000000000001</v>
+        <v>11117</v>
       </c>
       <c r="C136" t="n">
-        <v>8.359999999999999</v>
+        <v>11359</v>
       </c>
       <c r="D136" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>7.78</v>
+        <v>11104</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-6.94</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NURECA</t>
+          <t>ARISINFRA</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>255.55</v>
+        <v>165.4</v>
       </c>
       <c r="C137" t="n">
-        <v>259.9</v>
+        <v>169</v>
       </c>
       <c r="D137" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>259</v>
+        <v>166</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-0.35</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>NILAINFRA</t>
+          <t>ATCENERGY</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>10.02</v>
+        <v>50.4</v>
       </c>
       <c r="C138" t="n">
-        <v>10.19</v>
+        <v>51.5</v>
       </c>
       <c r="D138" t="n">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>9.92</v>
+        <v>50.05</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-2.65</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SARLAPOLY</t>
+          <t>STEELXIND</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>92.14</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>93.7</v>
+        <v>9.5</v>
       </c>
       <c r="D139" t="n">
-        <v>1.69</v>
+        <v>2.15</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>92.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-1.28</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>RATNAVEER</t>
+          <t>MSUMI</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>154.4</v>
+        <v>46.99</v>
       </c>
       <c r="C140" t="n">
-        <v>157</v>
+        <v>47.99</v>
       </c>
       <c r="D140" t="n">
-        <v>1.68</v>
+        <v>2.13</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>147.59</v>
+        <v>47.72</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-5.99</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PDSL</t>
+          <t>MAHASTEEL</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>378.65</v>
+        <v>607.1</v>
       </c>
       <c r="C141" t="n">
-        <v>385</v>
+        <v>619.95</v>
       </c>
       <c r="D141" t="n">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>376</v>
+        <v>597</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-2.34</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PRIMESECU</t>
+          <t>XTGLOBAL</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>294</v>
+        <v>39.66</v>
       </c>
       <c r="C142" t="n">
-        <v>298.9</v>
+        <v>40.5</v>
       </c>
       <c r="D142" t="n">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>305.4</v>
+        <v>39.85</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>2.17</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>BASML</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>27.82</v>
+        <v>2.84</v>
       </c>
       <c r="C143" t="n">
-        <v>28.28</v>
+        <v>2.9</v>
       </c>
       <c r="D143" t="n">
-        <v>1.65</v>
+        <v>2.11</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>27.4</v>
+        <v>2.83</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-3.11</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>IL&amp;FSTRANS</t>
+          <t>RADIOCITY</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>3.03</v>
+        <v>7.63</v>
       </c>
       <c r="C144" t="n">
-        <v>3.08</v>
+        <v>7.79</v>
       </c>
       <c r="D144" t="n">
-        <v>1.65</v>
+        <v>2.1</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
-      <c r="F144" t="inlineStr"/>
+      <c r="F144" t="n">
+        <v>7.77</v>
+      </c>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
+      <c r="H144" t="n">
+        <v>-0.26</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AAATECH</t>
+          <t>GSS</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>95.62</v>
+        <v>24.32</v>
       </c>
       <c r="C145" t="n">
-        <v>97.19</v>
+        <v>24.83</v>
       </c>
       <c r="D145" t="n">
-        <v>1.64</v>
+        <v>2.1</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>94</v>
+        <v>24.65</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-3.28</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>INTENTECH</t>
+          <t>ABSMARINE</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>121.03</v>
+        <v>219.85</v>
       </c>
       <c r="C146" t="n">
-        <v>122.99</v>
+        <v>224.45</v>
       </c>
       <c r="D146" t="n">
-        <v>1.62</v>
+        <v>2.09</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>116.11</v>
+        <v>222.05</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-5.59</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>VINNY</t>
+          <t>KALYANIFRG</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>1.24</v>
+        <v>684.2</v>
       </c>
       <c r="C147" t="n">
-        <v>1.26</v>
+        <v>698.4</v>
       </c>
       <c r="D147" t="n">
-        <v>1.61</v>
+        <v>2.08</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>1.23</v>
+        <v>697.4</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-2.38</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AURUM</t>
+          <t>OMKARCHEM</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>172.24</v>
+        <v>5.3</v>
       </c>
       <c r="C148" t="n">
-        <v>175</v>
+        <v>5.41</v>
       </c>
       <c r="D148" t="n">
-        <v>1.6</v>
+        <v>2.08</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>172.95</v>
+        <v>5.05</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-1.17</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HOMEFIRST</t>
+          <t>INDUSINVIT</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1254.7</v>
+        <v>120.99</v>
       </c>
       <c r="C149" t="n">
-        <v>1274.8</v>
+        <v>123.49</v>
       </c>
       <c r="D149" t="n">
-        <v>1.6</v>
+        <v>2.07</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>1197</v>
+        <v>122.28</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-6.1</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>BHARTIARTL</t>
+          <t>TRIGYN</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>2074</v>
+        <v>74.45</v>
       </c>
       <c r="C150" t="n">
-        <v>2107</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="D150" t="n">
-        <v>1.59</v>
+        <v>2.07</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>2110</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>0.14</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HEADSUP</t>
+          <t>IL&amp;FSTRANS</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>10.73</v>
+        <v>2.91</v>
       </c>
       <c r="C151" t="n">
-        <v>10.9</v>
+        <v>2.97</v>
       </c>
       <c r="D151" t="n">
-        <v>1.58</v>
+        <v>2.06</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
-      <c r="F151" t="n">
-        <v>10.51</v>
-      </c>
+      <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="n">
-        <v>-3.58</v>
-      </c>
+      <c r="H151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NDGL</t>
+          <t>THEJO</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>3795.2</v>
+        <v>1773.5</v>
       </c>
       <c r="C152" t="n">
-        <v>3855</v>
+        <v>1809.9</v>
       </c>
       <c r="D152" t="n">
-        <v>1.58</v>
+        <v>2.05</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>3740.7</v>
+        <v>1769.5</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-2.96</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>KESORAMIND</t>
+          <t>VALIANTLAB</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>5.09</v>
+        <v>83.5</v>
       </c>
       <c r="C153" t="n">
-        <v>5.17</v>
+        <v>85.2</v>
       </c>
       <c r="D153" t="n">
-        <v>1.57</v>
+        <v>2.04</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>5.15</v>
+        <v>83.48</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-0.39</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEX</t>
+          <t>TRU</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1723.2</v>
+        <v>10.77</v>
       </c>
       <c r="C154" t="n">
-        <v>1750</v>
+        <v>10.99</v>
       </c>
       <c r="D154" t="n">
-        <v>1.56</v>
+        <v>2.04</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1753</v>
+        <v>10.43</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>0.17</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>AKUMS</t>
+          <t>MCL</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>467.65</v>
+        <v>48.57</v>
       </c>
       <c r="C155" t="n">
-        <v>474.9</v>
+        <v>49.55</v>
       </c>
       <c r="D155" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>471.15</v>
+        <v>48.45</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-0.79</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>AAKASH</t>
+          <t>HOMEFIRST</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>9.06</v>
+        <v>1195.9</v>
       </c>
       <c r="C156" t="n">
-        <v>9.199999999999999</v>
+        <v>1220</v>
       </c>
       <c r="D156" t="n">
-        <v>1.55</v>
+        <v>2.02</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>9.02</v>
+        <v>1137.7</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-1.96</v>
+        <v>-6.75</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>APS</t>
+          <t>KOTHARIPRO</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>476.15</v>
+        <v>89.97</v>
       </c>
       <c r="C157" t="n">
-        <v>483.5</v>
+        <v>91.78</v>
       </c>
       <c r="D157" t="n">
-        <v>1.54</v>
+        <v>2.01</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>477.9</v>
+        <v>90.19</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-1.16</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GSS</t>
+          <t>SREEL</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>24.23</v>
+        <v>225.76</v>
       </c>
       <c r="C158" t="n">
-        <v>24.6</v>
+        <v>230.3</v>
       </c>
       <c r="D158" t="n">
-        <v>1.53</v>
+        <v>2.01</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>24.32</v>
+        <v>226.49</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-1.14</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TEXMOPIPES</t>
+          <t>INDIGO</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>53.68</v>
+        <v>5637</v>
       </c>
       <c r="C159" t="n">
-        <v>54.5</v>
+        <v>5750</v>
       </c>
       <c r="D159" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>54.19</v>
+        <v>5801.5</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-0.57</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>VAISHALI</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>33.88</v>
+        <v>10</v>
       </c>
       <c r="C160" t="n">
-        <v>34.4</v>
+        <v>10.2</v>
       </c>
       <c r="D160" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>33.5</v>
+        <v>10.06</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-2.62</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DPSCLTD</t>
+          <t>ENIL</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>11.79</v>
+        <v>135.3</v>
       </c>
       <c r="C161" t="n">
-        <v>11.97</v>
+        <v>138</v>
       </c>
       <c r="D161" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>11.8</v>
+        <v>136.78</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-1.42</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>CCCL</t>
+          <t>SAFEENTP</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>20.93</v>
+        <v>194.55</v>
       </c>
       <c r="C162" t="n">
-        <v>21.25</v>
+        <v>198.45</v>
       </c>
       <c r="D162" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>20.7</v>
+        <v>201</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-2.59</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NAHARPOLY</t>
+          <t>AGROPHOS</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>313.9</v>
+        <v>42.7</v>
       </c>
       <c r="C163" t="n">
-        <v>318.7</v>
+        <v>43.55</v>
       </c>
       <c r="D163" t="n">
-        <v>1.53</v>
+        <v>1.99</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>319.8</v>
+        <v>42.8</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>0.35</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ASKAUTOLTD</t>
+          <t>ANTGRAPHIC</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>480.65</v>
+        <v>1.01</v>
       </c>
       <c r="C164" t="n">
-        <v>488</v>
+        <v>1.03</v>
       </c>
       <c r="D164" t="n">
-        <v>1.53</v>
+        <v>1.98</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>480.95</v>
+        <v>1.03</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>-1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DALMIASUG</t>
+          <t>KCPSUGIND</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>329.9</v>
+        <v>30.65</v>
       </c>
       <c r="C165" t="n">
-        <v>334.95</v>
+        <v>31.25</v>
       </c>
       <c r="D165" t="n">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>342.4</v>
+        <v>30.48</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>2.22</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TCI</t>
+          <t>UMESLTD</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1200.8</v>
+        <v>5.09</v>
       </c>
       <c r="C166" t="n">
-        <v>1219</v>
+        <v>5.19</v>
       </c>
       <c r="D166" t="n">
-        <v>1.52</v>
+        <v>1.96</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1179.1</v>
+        <v>5.15</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-3.27</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>PASUPTAC</t>
+          <t>CSBBANK</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>55.26</v>
+        <v>418.65</v>
       </c>
       <c r="C167" t="n">
-        <v>56.1</v>
+        <v>426.8</v>
       </c>
       <c r="D167" t="n">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>53.44</v>
+        <v>429.5</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-4.74</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>TPHQ</t>
+          <t>MIRZAINT</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.66</v>
+        <v>36.92</v>
       </c>
       <c r="C168" t="n">
-        <v>0.67</v>
+        <v>37.64</v>
       </c>
       <c r="D168" t="n">
-        <v>1.52</v>
+        <v>1.95</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.67</v>
+        <v>37.16</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>UTTAMSUGAR</t>
+          <t>AVONMORE</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>245.3</v>
+        <v>17.45</v>
       </c>
       <c r="C169" t="n">
-        <v>249</v>
+        <v>17.79</v>
       </c>
       <c r="D169" t="n">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>244.2</v>
+        <v>17.62</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-1.93</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GEEKAYWIRE</t>
+          <t>VINEETLAB</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>34.49</v>
+        <v>47.19</v>
       </c>
       <c r="C170" t="n">
-        <v>35.01</v>
+        <v>48.11</v>
       </c>
       <c r="D170" t="n">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>33.71</v>
+        <v>46.04</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-3.71</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>CLEDUCATE</t>
+          <t>S&amp;SPOWER</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>88.08</v>
+        <v>358.05</v>
       </c>
       <c r="C171" t="n">
-        <v>89.40000000000001</v>
+        <v>365</v>
       </c>
       <c r="D171" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
-      <c r="F171" t="n">
-        <v>88.95</v>
-      </c>
+      <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="n">
-        <v>-0.5</v>
-      </c>
+      <c r="H171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ACCURACY</t>
+          <t>AIMTRON</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>6.67</v>
+        <v>875.95</v>
       </c>
       <c r="C172" t="n">
-        <v>6.77</v>
+        <v>892.95</v>
       </c>
       <c r="D172" t="n">
-        <v>1.5</v>
+        <v>1.94</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>6.63</v>
+        <v>860</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-2.07</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>AVONMORE</t>
+          <t>BROOKS</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>17.44</v>
+        <v>109.67</v>
       </c>
       <c r="C173" t="n">
-        <v>17.7</v>
+        <v>111.8</v>
       </c>
       <c r="D173" t="n">
-        <v>1.49</v>
+        <v>1.94</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>17.49</v>
+        <v>106.53</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-1.19</v>
+        <v>-4.71</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>JPOLYINVST</t>
+          <t>PRITIKAUTO</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>980.35</v>
+        <v>15.54</v>
       </c>
       <c r="C174" t="n">
-        <v>995</v>
+        <v>15.84</v>
       </c>
       <c r="D174" t="n">
-        <v>1.49</v>
+        <v>1.93</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>972</v>
+        <v>15.56</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-2.31</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>LORDSCHLO</t>
+          <t>ANSALAPI</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>214.33</v>
+        <v>4.17</v>
       </c>
       <c r="C175" t="n">
-        <v>217.5</v>
+        <v>4.25</v>
       </c>
       <c r="D175" t="n">
-        <v>1.48</v>
+        <v>1.92</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>224</v>
+        <v>4.08</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>2.99</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>NIRAJ</t>
+          <t>BPCL</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>28.97</v>
+        <v>372.95</v>
       </c>
       <c r="C176" t="n">
-        <v>29.4</v>
+        <v>380</v>
       </c>
       <c r="D176" t="n">
-        <v>1.48</v>
+        <v>1.89</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>29.64</v>
+        <v>374.05</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>0.82</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>MCL</t>
+          <t>RAMASTEEL</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>48.96</v>
+        <v>10.13</v>
       </c>
       <c r="C177" t="n">
-        <v>49.68</v>
+        <v>10.32</v>
       </c>
       <c r="D177" t="n">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>48.8</v>
+        <v>10.2</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-1.77</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>TOLINS</t>
+          <t>OSWALSEEDS</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>186.14</v>
+        <v>15.46</v>
       </c>
       <c r="C178" t="n">
-        <v>188.85</v>
+        <v>15.75</v>
       </c>
       <c r="D178" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>192.1</v>
+        <v>15.67</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>1.72</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>VIRINCHI</t>
+          <t>UNIVASTU</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>28.19</v>
+        <v>71.65000000000001</v>
       </c>
       <c r="C179" t="n">
-        <v>28.6</v>
+        <v>72.98999999999999</v>
       </c>
       <c r="D179" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>28.5</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-0.35</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>TECHLABS</t>
+          <t>PARASPETRO</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>455.4</v>
+        <v>2.14</v>
       </c>
       <c r="C180" t="n">
-        <v>462</v>
+        <v>2.18</v>
       </c>
       <c r="D180" t="n">
-        <v>1.45</v>
+        <v>1.87</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>447.95</v>
+        <v>2.17</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-3.04</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>SCHAND</t>
+          <t>GFLLIMITED</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>179.4</v>
+        <v>62.33</v>
       </c>
       <c r="C181" t="n">
-        <v>182</v>
+        <v>63.49</v>
       </c>
       <c r="D181" t="n">
-        <v>1.45</v>
+        <v>1.86</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>179.5</v>
+        <v>61.5</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-1.37</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MAXESTATES</t>
+          <t>ANDHRAPAP</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>481.6</v>
+        <v>77.56999999999999</v>
       </c>
       <c r="C182" t="n">
-        <v>488.55</v>
+        <v>79</v>
       </c>
       <c r="D182" t="n">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>477</v>
+        <v>78.23</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-2.36</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>SILINV</t>
+          <t>AADHARHFC</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>637</v>
+        <v>509.2</v>
       </c>
       <c r="C183" t="n">
-        <v>646.1</v>
+        <v>518.5</v>
       </c>
       <c r="D183" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>615</v>
+        <v>507.5</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-4.81</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CONSOFINVT</t>
+          <t>INDOTECH</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>183.12</v>
+        <v>1668.4</v>
       </c>
       <c r="C184" t="n">
-        <v>185.74</v>
+        <v>1699</v>
       </c>
       <c r="D184" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>180.97</v>
+        <v>1656</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-2.57</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>HMAAGRO</t>
+          <t>SCPL</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>31.54</v>
+        <v>235.68</v>
       </c>
       <c r="C185" t="n">
-        <v>31.99</v>
+        <v>239.99</v>
       </c>
       <c r="D185" t="n">
-        <v>1.43</v>
+        <v>1.83</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>31.09</v>
+        <v>236.25</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-2.81</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AARTISURF</t>
+          <t>FINKURVE</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>473.3</v>
+        <v>112.35</v>
       </c>
       <c r="C186" t="n">
-        <v>480</v>
+        <v>114.4</v>
       </c>
       <c r="D186" t="n">
-        <v>1.42</v>
+        <v>1.82</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>464.75</v>
+        <v>114.3</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-3.18</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SETCO</t>
+          <t>MEP</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>18.48</v>
+        <v>2.77</v>
       </c>
       <c r="C187" t="n">
-        <v>18.74</v>
+        <v>2.82</v>
       </c>
       <c r="D187" t="n">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>18.59</v>
+        <v>2.82</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>FIBERWEB</t>
+          <t>AARVI</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>42.7</v>
+        <v>119.34</v>
       </c>
       <c r="C188" t="n">
-        <v>43.3</v>
+        <v>121.5</v>
       </c>
       <c r="D188" t="n">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>42.75</v>
+        <v>119.87</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-1.27</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HITECHGEAR</t>
+          <t>PILANIINVS</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>774.05</v>
+        <v>5234.5</v>
       </c>
       <c r="C189" t="n">
-        <v>785</v>
+        <v>5329.5</v>
       </c>
       <c r="D189" t="n">
-        <v>1.41</v>
+        <v>1.81</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>774.9</v>
+        <v>5230</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-1.29</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>TREL</t>
+          <t>SHREYANIND</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>29.27</v>
+        <v>218.06</v>
       </c>
       <c r="C190" t="n">
-        <v>29.68</v>
+        <v>221.98</v>
       </c>
       <c r="D190" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>30.64</v>
+        <v>222.02</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>3.23</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>LOTUSEYE</t>
+          <t>AVALON</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>131.17</v>
+        <v>1150.3</v>
       </c>
       <c r="C191" t="n">
-        <v>133</v>
+        <v>1170.9</v>
       </c>
       <c r="D191" t="n">
-        <v>1.4</v>
+        <v>1.79</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>125.3</v>
+        <v>1106.1</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-5.79</v>
+        <v>-5.53</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SRPL</t>
+          <t>MKPL</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>0.72</v>
+        <v>6.71</v>
       </c>
       <c r="C192" t="n">
-        <v>0.73</v>
+        <v>6.83</v>
       </c>
       <c r="D192" t="n">
-        <v>1.39</v>
+        <v>1.79</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>0.72</v>
+        <v>6.78</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-1.37</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>INVENTURE</t>
+          <t>TREJHARA</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>1.45</v>
+        <v>230.75</v>
       </c>
       <c r="C193" t="n">
-        <v>1.47</v>
+        <v>234.88</v>
       </c>
       <c r="D193" t="n">
-        <v>1.38</v>
+        <v>1.79</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>1.46</v>
+        <v>234</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-0.68</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ORIENTCER</t>
+          <t>VARDMNPOLY</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>36.49</v>
+        <v>7.81</v>
       </c>
       <c r="C194" t="n">
-        <v>36.99</v>
+        <v>7.95</v>
       </c>
       <c r="D194" t="n">
-        <v>1.37</v>
+        <v>1.79</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>36</v>
+        <v>7.69</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-2.68</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FABTECH</t>
+          <t>BANG</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>236.6</v>
+        <v>54.04</v>
       </c>
       <c r="C195" t="n">
-        <v>239.85</v>
+        <v>55</v>
       </c>
       <c r="D195" t="n">
-        <v>1.37</v>
+        <v>1.78</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>236.8</v>
+        <v>55.68</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-1.27</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>VSTL</t>
+          <t>CHAMBLFERT</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>142.86</v>
+        <v>481.5</v>
       </c>
       <c r="C196" t="n">
-        <v>144.8</v>
+        <v>490</v>
       </c>
       <c r="D196" t="n">
-        <v>1.36</v>
+        <v>1.77</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>145</v>
+        <v>484.45</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>0.14</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>TGBHOTELS</t>
+          <t>SENCO</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>11.92</v>
+        <v>334.15</v>
       </c>
       <c r="C197" t="n">
-        <v>12.08</v>
+        <v>340</v>
       </c>
       <c r="D197" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>11.52</v>
+        <v>332.2</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-4.64</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SHAREINDIA</t>
+          <t>SIKKO</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>188.68</v>
+        <v>107.13</v>
       </c>
       <c r="C198" t="n">
-        <v>191.2</v>
+        <v>109.01</v>
       </c>
       <c r="D198" t="n">
-        <v>1.34</v>
+        <v>1.75</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>185</v>
+        <v>108.41</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-3.24</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>RUSTOMJEE</t>
+          <t>BRNL</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>565.45</v>
+        <v>25.36</v>
       </c>
       <c r="C199" t="n">
-        <v>573</v>
+        <v>25.8</v>
       </c>
       <c r="D199" t="n">
-        <v>1.34</v>
+        <v>1.74</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>568</v>
+        <v>25.1</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-0.87</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>V2RETAIL</t>
+          <t>SHRADHA</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>2495.6</v>
+        <v>44.21</v>
       </c>
       <c r="C200" t="n">
-        <v>2529</v>
+        <v>44.98</v>
       </c>
       <c r="D200" t="n">
-        <v>1.34</v>
+        <v>1.74</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>2441</v>
+        <v>44</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-3.48</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>STARCEMENT</t>
+          <t>CHEMBONDCH</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>259.75</v>
+        <v>153.35</v>
       </c>
       <c r="C201" t="n">
-        <v>263.2</v>
+        <v>156</v>
       </c>
       <c r="D201" t="n">
-        <v>1.33</v>
+        <v>1.73</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>252.55</v>
+        <v>155.24</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-4.05</v>
+        <v>-0.49</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -482,279 +482,279 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>12.6</v>
+        <v>11.5</v>
       </c>
       <c r="C2" t="n">
-        <v>16</v>
+        <v>12.9</v>
       </c>
       <c r="D2" t="n">
-        <v>26.98</v>
+        <v>12.17</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>14.8</v>
+        <v>12.8</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-7.5</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TRIDHYA</t>
+          <t>DHARIWAL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.65</v>
+        <v>254.45</v>
       </c>
       <c r="C3" t="n">
-        <v>19.8</v>
+        <v>277.3</v>
       </c>
       <c r="D3" t="n">
-        <v>18.92</v>
+        <v>8.98</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>18.95</v>
+        <v>281</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>-4.29</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SILLYMONKS</t>
+          <t>BILVYAPAR</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.71</v>
+        <v>11.06</v>
       </c>
       <c r="C4" t="n">
-        <v>27.7</v>
+        <v>11.99</v>
       </c>
       <c r="D4" t="n">
-        <v>16.83</v>
+        <v>8.41</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>27.81</v>
+        <v>11.25</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.4</v>
+        <v>-6.17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SHIVATEX</t>
+          <t>DAMCAPITAL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>181.6</v>
+        <v>254.68</v>
       </c>
       <c r="C5" t="n">
-        <v>203</v>
+        <v>275.9</v>
       </c>
       <c r="D5" t="n">
-        <v>11.78</v>
+        <v>8.33</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>217.92</v>
+        <v>265.8</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>7.35</v>
+        <v>-3.66</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>RNPL</t>
+          <t>INTERARCH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130.65</v>
+        <v>2194.4</v>
       </c>
       <c r="C6" t="n">
-        <v>143</v>
+        <v>2351.9</v>
       </c>
       <c r="D6" t="n">
-        <v>9.449999999999999</v>
+        <v>7.18</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>128.95</v>
+        <v>2446.1</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-9.83</v>
+        <v>4.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RELTD</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>154.55</v>
+        <v>517.8</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9</v>
+        <v>551</v>
       </c>
       <c r="D7" t="n">
-        <v>8.640000000000001</v>
+        <v>6.41</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>170</v>
+        <v>550.1</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1.25</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IVP</t>
+          <t>MFML</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>168</v>
+        <v>27.72</v>
       </c>
       <c r="C8" t="n">
-        <v>181.97</v>
+        <v>29.4</v>
       </c>
       <c r="D8" t="n">
-        <v>8.32</v>
+        <v>6.06</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>175.9</v>
+        <v>28.07</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-3.34</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>EXXARO</t>
+          <t>GULPOLY</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.359999999999999</v>
+        <v>151.56</v>
       </c>
       <c r="C9" t="n">
-        <v>9</v>
+        <v>160</v>
       </c>
       <c r="D9" t="n">
-        <v>7.66</v>
+        <v>5.57</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>9.880000000000001</v>
+        <v>156.77</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>9.779999999999999</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>JSLL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>162.78</v>
+        <v>785.2</v>
       </c>
       <c r="C10" t="n">
-        <v>175.1</v>
+        <v>825</v>
       </c>
       <c r="D10" t="n">
-        <v>7.57</v>
+        <v>5.07</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>177.09</v>
+        <v>784.7</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>1.14</v>
+        <v>-4.88</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UFO</t>
+          <t>SGL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>75.79000000000001</v>
+        <v>14.57</v>
       </c>
       <c r="C11" t="n">
-        <v>81.5</v>
+        <v>15.3</v>
       </c>
       <c r="D11" t="n">
-        <v>7.53</v>
+        <v>5.01</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>80.31999999999999</v>
+        <v>14.84</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-1.45</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FALCONTECH</t>
+          <t>SWANDEF</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17.55</v>
+        <v>852.45</v>
       </c>
       <c r="C12" t="n">
-        <v>18.85</v>
+        <v>895.05</v>
       </c>
       <c r="D12" t="n">
-        <v>7.41</v>
+        <v>5</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>18.85</v>
+        <v>895.05</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
@@ -764,3763 +764,3767 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NEXTMEDIA</t>
+          <t>SHRIAHIMSA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.55</v>
+        <v>254.1</v>
       </c>
       <c r="C13" t="n">
-        <v>7</v>
+        <v>266.8</v>
       </c>
       <c r="D13" t="n">
-        <v>6.87</v>
+        <v>5</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>6.55</v>
+        <v>266.8</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-6.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ANDHRSUGAR</t>
+          <t>CURAA</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>76.77</v>
+        <v>185.28</v>
       </c>
       <c r="C14" t="n">
-        <v>82</v>
+        <v>194.54</v>
       </c>
       <c r="D14" t="n">
-        <v>6.81</v>
+        <v>5</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>83.83</v>
+        <v>194.54</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>2.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BELLACASA</t>
+          <t>JUBLCPL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>450.05</v>
+        <v>2519.3</v>
       </c>
       <c r="C15" t="n">
-        <v>480</v>
+        <v>2645.2</v>
       </c>
       <c r="D15" t="n">
-        <v>6.65</v>
+        <v>5</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>460.45</v>
+        <v>2645.2</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-4.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BUTTERFLY</t>
+          <t>ESFL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>750.5</v>
+        <v>212.25</v>
       </c>
       <c r="C16" t="n">
-        <v>800</v>
+        <v>222.85</v>
       </c>
       <c r="D16" t="n">
-        <v>6.6</v>
+        <v>4.99</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>795.05</v>
+        <v>222.85</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>EFORCE</t>
+          <t>SUMEETINDS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>43.2</v>
+        <v>34.48</v>
       </c>
       <c r="C17" t="n">
-        <v>46</v>
+        <v>36.2</v>
       </c>
       <c r="D17" t="n">
-        <v>6.48</v>
+        <v>4.99</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>44.35</v>
+        <v>35.6</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>-3.59</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WOMANCART</t>
+          <t>ONELIFECAP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>324.75</v>
+        <v>17.71</v>
       </c>
       <c r="C18" t="n">
-        <v>344.95</v>
+        <v>18.59</v>
       </c>
       <c r="D18" t="n">
-        <v>6.22</v>
+        <v>4.97</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>351.05</v>
+        <v>17.05</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>1.77</v>
+        <v>-8.279999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>KRN</t>
+          <t>CAPTRUST</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>792.3</v>
+        <v>26.88</v>
       </c>
       <c r="C19" t="n">
-        <v>840</v>
+        <v>28.21</v>
       </c>
       <c r="D19" t="n">
-        <v>6.02</v>
+        <v>4.95</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>818.3</v>
+        <v>27.01</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>-2.58</v>
+        <v>-4.25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>REDINGTON</t>
+          <t>GAYAHWS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>250.25</v>
+        <v>4.06</v>
       </c>
       <c r="C20" t="n">
-        <v>265.15</v>
+        <v>4.26</v>
       </c>
       <c r="D20" t="n">
-        <v>5.95</v>
+        <v>4.93</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>276.05</v>
+        <v>4.26</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>4.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>RAJOOENG</t>
+          <t>ANKITMETAL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>86.09</v>
+        <v>1.63</v>
       </c>
       <c r="C21" t="n">
-        <v>91</v>
+        <v>1.71</v>
       </c>
       <c r="D21" t="n">
-        <v>5.7</v>
+        <v>4.91</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>87.75</v>
+        <v>1.55</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-3.57</v>
+        <v>-9.359999999999999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CALSOFT</t>
+          <t>DUCOL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.76</v>
+        <v>195.6</v>
       </c>
       <c r="C22" t="n">
-        <v>18.76</v>
+        <v>204.95</v>
       </c>
       <c r="D22" t="n">
-        <v>5.63</v>
+        <v>4.78</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>18.15</v>
+        <v>199.45</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-3.25</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>DGCONTENT</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36.76</v>
+        <v>216.64</v>
       </c>
       <c r="C23" t="n">
-        <v>38.76</v>
+        <v>227</v>
       </c>
       <c r="D23" t="n">
-        <v>5.44</v>
+        <v>4.78</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>37.9</v>
+        <v>214</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>-2.22</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GARUDA</t>
+          <t>KALYANIFRG</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>224.88</v>
+        <v>676.95</v>
       </c>
       <c r="C24" t="n">
-        <v>237</v>
+        <v>709</v>
       </c>
       <c r="D24" t="n">
-        <v>5.39</v>
+        <v>4.73</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>232.22</v>
+        <v>685.15</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-2.02</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CURAA</t>
+          <t>PARADEEP</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>176.46</v>
+        <v>163.81</v>
       </c>
       <c r="C25" t="n">
-        <v>185.28</v>
+        <v>171.45</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>4.66</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>185.28</v>
+        <v>167.8</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GSMFOILS</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>213.05</v>
+        <v>218.63</v>
       </c>
       <c r="C26" t="n">
-        <v>223.7</v>
+        <v>228.79</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>216.45</v>
+        <v>221.95</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-3.24</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAFNAPH</t>
+          <t>KAVDEFENCE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.34</v>
+        <v>92.69</v>
       </c>
       <c r="C27" t="n">
-        <v>166.25</v>
+        <v>97</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4.65</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>166.25</v>
+        <v>97.31999999999999</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JUBLCPL</t>
+          <t>SICALLOG</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2399.4</v>
+        <v>101.33</v>
       </c>
       <c r="C28" t="n">
-        <v>2519.3</v>
+        <v>106</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>4.61</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2519.3</v>
+        <v>105.46</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IRIS</t>
+          <t>NAGREEKEXP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.3</v>
+        <v>28.67</v>
       </c>
       <c r="C29" t="n">
-        <v>352.05</v>
+        <v>29.99</v>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>352.05</v>
+        <v>28.23</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-5.87</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>RAMCOSYS</t>
+          <t>SHYAMCENT</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>605.75</v>
+        <v>6.53</v>
       </c>
       <c r="C30" t="n">
-        <v>636</v>
+        <v>6.83</v>
       </c>
       <c r="D30" t="n">
-        <v>4.99</v>
+        <v>4.59</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>636.55</v>
+        <v>6.55</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>0.09</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOMATEX</t>
+          <t>KANDARP</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>153.58</v>
+        <v>109.1</v>
       </c>
       <c r="C31" t="n">
-        <v>161.25</v>
+        <v>114</v>
       </c>
       <c r="D31" t="n">
-        <v>4.99</v>
+        <v>4.49</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>161.25</v>
+        <v>114.55</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SWANDEF</t>
+          <t>LINDEINDIA</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>811.9</v>
+        <v>5843</v>
       </c>
       <c r="C32" t="n">
-        <v>852.45</v>
+        <v>6105</v>
       </c>
       <c r="D32" t="n">
-        <v>4.99</v>
+        <v>4.48</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>852.45</v>
+        <v>5994</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>MVKAGRO</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5892.5</v>
+        <v>550.9</v>
       </c>
       <c r="C33" t="n">
-        <v>6186</v>
+        <v>575</v>
       </c>
       <c r="D33" t="n">
-        <v>4.98</v>
+        <v>4.37</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>6110</v>
+        <v>575.9</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>-1.23</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SICALLOG</t>
+          <t>FELDVR</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>96.51000000000001</v>
+        <v>3.44</v>
       </c>
       <c r="C34" t="n">
-        <v>101.29</v>
+        <v>3.59</v>
       </c>
       <c r="D34" t="n">
-        <v>4.95</v>
+        <v>4.36</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>100.9</v>
+        <v>3.44</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-0.39</v>
+        <v>-4.18</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NAGREEKCAP</t>
+          <t>JAIPURKURT</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>32.72</v>
+        <v>35.46</v>
       </c>
       <c r="C35" t="n">
-        <v>34.34</v>
+        <v>37</v>
       </c>
       <c r="D35" t="n">
-        <v>4.95</v>
+        <v>4.34</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-3.9</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GAYAHWS</t>
+          <t>POLYSIL</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.87</v>
+        <v>261.9</v>
       </c>
       <c r="C36" t="n">
-        <v>4.06</v>
+        <v>273</v>
       </c>
       <c r="D36" t="n">
-        <v>4.91</v>
+        <v>4.24</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>4</v>
+        <v>271.8</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-1.48</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>BALCO</t>
+          <t>EXXARO</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.6</v>
+        <v>9.92</v>
       </c>
       <c r="C37" t="n">
-        <v>27.9</v>
+        <v>10.33</v>
       </c>
       <c r="D37" t="n">
-        <v>4.89</v>
+        <v>4.13</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>27.9</v>
+        <v>9.44</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-8.619999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FMNL</t>
+          <t>TREEHOUSE</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>11.68</v>
+        <v>7.76</v>
       </c>
       <c r="C38" t="n">
-        <v>12.25</v>
+        <v>8.08</v>
       </c>
       <c r="D38" t="n">
-        <v>4.88</v>
+        <v>4.12</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>12.19</v>
+        <v>7.63</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-0.49</v>
+        <v>-5.57</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ONELIFECAP</t>
+          <t>DHARAN</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>16.87</v>
+        <v>0.5</v>
       </c>
       <c r="C39" t="n">
-        <v>17.69</v>
+        <v>0.52</v>
       </c>
       <c r="D39" t="n">
-        <v>4.86</v>
+        <v>4</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>17.71</v>
+        <v>0.52</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>AMDIND</t>
+          <t>KSHITIJPOL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>56.04</v>
+        <v>2.77</v>
       </c>
       <c r="C40" t="n">
-        <v>58.75</v>
+        <v>2.88</v>
       </c>
       <c r="D40" t="n">
-        <v>4.84</v>
+        <v>3.97</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>57</v>
+        <v>2.83</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-2.98</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CUBEINVIT</t>
+          <t>ALIVUS</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>135</v>
+        <v>890.5</v>
       </c>
       <c r="C41" t="n">
-        <v>141.5</v>
+        <v>925</v>
       </c>
       <c r="D41" t="n">
-        <v>4.81</v>
+        <v>3.87</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>141.5</v>
+        <v>913.4</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>WELINV</t>
+          <t>URBAN</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1164.2</v>
+        <v>180.25</v>
       </c>
       <c r="C42" t="n">
-        <v>1220</v>
+        <v>187</v>
       </c>
       <c r="D42" t="n">
-        <v>4.79</v>
+        <v>3.74</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1191</v>
+        <v>171.2</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-2.38</v>
+        <v>-8.449999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>APCOTEXIND</t>
+          <t>AARTIIND</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>354.9</v>
+        <v>390.5</v>
       </c>
       <c r="C43" t="n">
-        <v>371.9</v>
+        <v>404.95</v>
       </c>
       <c r="D43" t="n">
-        <v>4.79</v>
+        <v>3.7</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>377.55</v>
+        <v>411.7</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>1.52</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DDEVPLSTIK</t>
+          <t>TRIVENI</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>296.85</v>
+        <v>357.25</v>
       </c>
       <c r="C44" t="n">
-        <v>311</v>
+        <v>370</v>
       </c>
       <c r="D44" t="n">
-        <v>4.77</v>
+        <v>3.57</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>297.95</v>
+        <v>367.1</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-4.2</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MADHAV</t>
+          <t>ANIKINDS</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>41.01</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>42.96</v>
+        <v>77</v>
       </c>
       <c r="D45" t="n">
-        <v>4.75</v>
+        <v>3.56</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>40.46</v>
+        <v>75.76000000000001</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-5.82</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PRIVISCL</t>
+          <t>BASML</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2984.1</v>
+        <v>26.57</v>
       </c>
       <c r="C46" t="n">
-        <v>3125</v>
+        <v>27.5</v>
       </c>
       <c r="D46" t="n">
-        <v>4.72</v>
+        <v>3.5</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>3262.1</v>
+        <v>26.91</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>4.39</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>KEYFINSERV</t>
+          <t>HBSL</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>360</v>
+        <v>83.18000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>377</v>
+        <v>86</v>
       </c>
       <c r="D47" t="n">
-        <v>4.72</v>
+        <v>3.39</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>356.7</v>
+        <v>80.25</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-5.38</v>
+        <v>-6.69</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CYBERMEDIA</t>
+          <t>VALIANTORG</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17.68</v>
+        <v>298.05</v>
       </c>
       <c r="C48" t="n">
-        <v>18.5</v>
+        <v>308</v>
       </c>
       <c r="D48" t="n">
-        <v>4.64</v>
+        <v>3.34</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>18.34</v>
+        <v>306.3</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-0.86</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TREEHOUSE</t>
+          <t>JTLIND</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>7.8</v>
+        <v>59.99</v>
       </c>
       <c r="C49" t="n">
-        <v>8.16</v>
+        <v>61.97</v>
       </c>
       <c r="D49" t="n">
-        <v>4.62</v>
+        <v>3.3</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>8.1</v>
+        <v>59.94</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-0.74</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>AKI</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>4.11</v>
+        <v>8.08</v>
       </c>
       <c r="C50" t="n">
-        <v>4.3</v>
+        <v>8.34</v>
       </c>
       <c r="D50" t="n">
-        <v>4.62</v>
+        <v>3.22</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>4.07</v>
+        <v>8.08</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-5.35</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TECHLABS</t>
+          <t>SUNLITE</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>442.3</v>
+        <v>240.25</v>
       </c>
       <c r="C51" t="n">
-        <v>462.6</v>
+        <v>247.95</v>
       </c>
       <c r="D51" t="n">
-        <v>4.59</v>
+        <v>3.2</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>444.65</v>
+        <v>234</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-3.88</v>
+        <v>-5.63</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>DBSTOCKBRO</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.88</v>
+        <v>25</v>
       </c>
       <c r="C52" t="n">
-        <v>0.92</v>
+        <v>25.8</v>
       </c>
       <c r="D52" t="n">
-        <v>4.55</v>
+        <v>3.2</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.91</v>
+        <v>24.8</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-1.09</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GREENPOWER</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>13.97</v>
+        <v>19.41</v>
       </c>
       <c r="C53" t="n">
-        <v>14.6</v>
+        <v>20</v>
       </c>
       <c r="D53" t="n">
-        <v>4.51</v>
+        <v>3.04</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>14.32</v>
+        <v>19.18</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-1.92</v>
+        <v>-4.1</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SANCO</t>
+          <t>SHAH</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.8</v>
+        <v>4.3</v>
       </c>
       <c r="C54" t="n">
-        <v>1.88</v>
+        <v>4.42</v>
       </c>
       <c r="D54" t="n">
-        <v>4.44</v>
+        <v>2.79</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.88</v>
+        <v>4.3</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>JINDRILL</t>
+          <t>TIJARIA</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>584.35</v>
+        <v>5.73</v>
       </c>
       <c r="C55" t="n">
-        <v>610</v>
+        <v>5.89</v>
       </c>
       <c r="D55" t="n">
-        <v>4.39</v>
+        <v>2.79</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>590</v>
+        <v>5.8</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-3.28</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SILGO</t>
+          <t>NESCO</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>67.09999999999999</v>
+        <v>1244.8</v>
       </c>
       <c r="C56" t="n">
-        <v>70</v>
+        <v>1279.2</v>
       </c>
       <c r="D56" t="n">
-        <v>4.32</v>
+        <v>2.76</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>67.77</v>
+        <v>1283.5</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-3.19</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KDL</t>
+          <t>RAIN</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>174.5</v>
+        <v>134.79</v>
       </c>
       <c r="C57" t="n">
-        <v>181.95</v>
+        <v>138.5</v>
       </c>
       <c r="D57" t="n">
-        <v>4.27</v>
+        <v>2.75</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>180</v>
+        <v>135.51</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-1.07</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>NEPTUNE</t>
+          <t>UNIVASTU</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>162.1</v>
+        <v>69.81</v>
       </c>
       <c r="C58" t="n">
-        <v>169</v>
+        <v>71.7</v>
       </c>
       <c r="D58" t="n">
-        <v>4.26</v>
+        <v>2.71</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>169</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ROYALARC</t>
+          <t>NURECA</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>165</v>
+        <v>271.2</v>
       </c>
       <c r="C59" t="n">
-        <v>172</v>
+        <v>278.45</v>
       </c>
       <c r="D59" t="n">
-        <v>4.24</v>
+        <v>2.67</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>172</v>
+        <v>274</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DHARAN</t>
+          <t>EXCEL</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.48</v>
+        <v>1.52</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5</v>
+        <v>1.56</v>
       </c>
       <c r="D60" t="n">
-        <v>4.17</v>
+        <v>2.63</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>0.5</v>
+        <v>1.55</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EMAMIREAL</t>
+          <t>JHS</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>95.15000000000001</v>
+        <v>12.22</v>
       </c>
       <c r="C61" t="n">
-        <v>99</v>
+        <v>12.54</v>
       </c>
       <c r="D61" t="n">
-        <v>4.05</v>
+        <v>2.62</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>94.91</v>
+        <v>12.49</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-4.13</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TEAMGTY</t>
+          <t>DJML</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>268</v>
+        <v>83.52</v>
       </c>
       <c r="C62" t="n">
-        <v>278.8</v>
+        <v>85.7</v>
       </c>
       <c r="D62" t="n">
-        <v>4.03</v>
+        <v>2.61</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>280.9</v>
+        <v>82.8</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>0.75</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>APOLLO</t>
+          <t>GANGAFORGE</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>277.9</v>
+        <v>3.45</v>
       </c>
       <c r="C63" t="n">
-        <v>289</v>
+        <v>3.54</v>
       </c>
       <c r="D63" t="n">
-        <v>3.99</v>
+        <v>2.61</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>283.75</v>
+        <v>3.49</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-1.82</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EMMBI</t>
+          <t>CENTRUM</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>108.03</v>
+        <v>34.81</v>
       </c>
       <c r="C64" t="n">
-        <v>112.3</v>
+        <v>35.7</v>
       </c>
       <c r="D64" t="n">
-        <v>3.95</v>
+        <v>2.56</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>108.95</v>
+        <v>34.77</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-2.98</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SETUINFRA</t>
+          <t>SAKAR</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.53</v>
+        <v>390.1</v>
       </c>
       <c r="C65" t="n">
-        <v>0.55</v>
+        <v>400</v>
       </c>
       <c r="D65" t="n">
-        <v>3.77</v>
+        <v>2.54</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.55</v>
+        <v>398.65</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>NOIDATOLL</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>888.65</v>
+        <v>4.34</v>
       </c>
       <c r="C66" t="n">
-        <v>922</v>
+        <v>4.45</v>
       </c>
       <c r="D66" t="n">
-        <v>3.75</v>
+        <v>2.53</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>988.6</v>
+        <v>4.3</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>7.22</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>AERONEU</t>
+          <t>ALPHAGEO</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>79.88</v>
+        <v>252</v>
       </c>
       <c r="C67" t="n">
-        <v>82.87</v>
+        <v>258.3</v>
       </c>
       <c r="D67" t="n">
-        <v>3.74</v>
+        <v>2.5</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>80.58</v>
+        <v>249.15</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-2.76</v>
+        <v>-3.54</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>VMART</t>
+          <t>PRAENG</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>832.1</v>
+        <v>30.12</v>
       </c>
       <c r="C68" t="n">
-        <v>863.15</v>
+        <v>30.87</v>
       </c>
       <c r="D68" t="n">
-        <v>3.73</v>
+        <v>2.49</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>839.85</v>
+        <v>29.49</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-2.7</v>
+        <v>-4.47</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>METROPOLIS</t>
+          <t>SHAHALLOYS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2030.8</v>
+        <v>78.06999999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>2106.5</v>
+        <v>79.98</v>
       </c>
       <c r="D69" t="n">
-        <v>3.73</v>
+        <v>2.45</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2060</v>
+        <v>76.39</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-2.21</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DECCANTRAN</t>
+          <t>OSWALSEEDS</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>36.3</v>
+        <v>15.27</v>
       </c>
       <c r="C70" t="n">
-        <v>37.65</v>
+        <v>15.64</v>
       </c>
       <c r="D70" t="n">
-        <v>3.72</v>
+        <v>2.42</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>37.65</v>
+        <v>14.91</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>-4.67</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>GANGAFORGE</t>
+          <t>FLAIR</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>3.53</v>
+        <v>330</v>
       </c>
       <c r="C71" t="n">
-        <v>3.66</v>
+        <v>338</v>
       </c>
       <c r="D71" t="n">
-        <v>3.68</v>
+        <v>2.42</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>3.49</v>
+        <v>327.35</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-4.64</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MARKSANS</t>
+          <t>ORCHASP</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>186.79</v>
+        <v>3.35</v>
       </c>
       <c r="C72" t="n">
-        <v>193.65</v>
+        <v>3.43</v>
       </c>
       <c r="D72" t="n">
-        <v>3.67</v>
+        <v>2.39</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>188.43</v>
+        <v>3.35</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-2.7</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>FMGOETZE</t>
+          <t>KRITI</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>501.7</v>
+        <v>112.06</v>
       </c>
       <c r="C73" t="n">
-        <v>519.95</v>
+        <v>114.7</v>
       </c>
       <c r="D73" t="n">
-        <v>3.64</v>
+        <v>2.36</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>512</v>
+        <v>113.86</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-1.53</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BANCOINDIA</t>
+          <t>SGLTL</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>820.2</v>
+        <v>168.81</v>
       </c>
       <c r="C74" t="n">
-        <v>850</v>
+        <v>172.8</v>
       </c>
       <c r="D74" t="n">
-        <v>3.63</v>
+        <v>2.36</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>813.6</v>
+        <v>167.52</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-4.28</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SANWARIA</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.28</v>
+        <v>128</v>
       </c>
       <c r="C75" t="n">
-        <v>0.29</v>
+        <v>130.99</v>
       </c>
       <c r="D75" t="n">
-        <v>3.57</v>
+        <v>2.34</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.29</v>
+        <v>128.99</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NAHARPOLY</t>
+          <t>SUTLEJTEX</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>308.85</v>
+        <v>33.41</v>
       </c>
       <c r="C76" t="n">
-        <v>319.8</v>
+        <v>34.19</v>
       </c>
       <c r="D76" t="n">
-        <v>3.55</v>
+        <v>2.33</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>312.2</v>
+        <v>33.52</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-2.38</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>VIPULLTD</t>
+          <t>KRIDHANINF</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>8.74</v>
+        <v>3.52</v>
       </c>
       <c r="C77" t="n">
-        <v>9.050000000000001</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="n">
-        <v>3.55</v>
+        <v>2.27</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>9.09</v>
+        <v>3.52</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>0.44</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>KAYNES</t>
+          <t>IRIS</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>6658.5</v>
+        <v>352.05</v>
       </c>
       <c r="C78" t="n">
-        <v>6890</v>
+        <v>360</v>
       </c>
       <c r="D78" t="n">
-        <v>3.48</v>
+        <v>2.26</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>6571</v>
+        <v>350.15</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-4.63</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BLACKBUCK</t>
+          <t>IEML</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>653.85</v>
+        <v>95.84999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>676.55</v>
+        <v>98</v>
       </c>
       <c r="D79" t="n">
-        <v>3.47</v>
+        <v>2.24</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>709.15</v>
+        <v>98</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>4.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>IGIL</t>
+          <t>THOMASCOTT</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>335.15</v>
+        <v>399.1</v>
       </c>
       <c r="C80" t="n">
-        <v>346.65</v>
+        <v>408</v>
       </c>
       <c r="D80" t="n">
-        <v>3.43</v>
+        <v>2.23</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>354.1</v>
+        <v>410.25</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>2.15</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SIMPLEXINF</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>296.65</v>
+        <v>0.9</v>
       </c>
       <c r="C81" t="n">
-        <v>306.65</v>
+        <v>0.92</v>
       </c>
       <c r="D81" t="n">
-        <v>3.37</v>
+        <v>2.22</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>308.15</v>
+        <v>0.92</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PAYTM</t>
+          <t>VINEETLAB</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1268</v>
+        <v>44.62</v>
       </c>
       <c r="C82" t="n">
-        <v>1310</v>
+        <v>45.6</v>
       </c>
       <c r="D82" t="n">
-        <v>3.31</v>
+        <v>2.2</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1305.6</v>
+        <v>45.22</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-0.34</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>JETFREIGHT</t>
+          <t>FILATFASH</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>12.43</v>
+        <v>0.46</v>
       </c>
       <c r="C83" t="n">
-        <v>12.84</v>
+        <v>0.47</v>
       </c>
       <c r="D83" t="n">
-        <v>3.3</v>
+        <v>2.17</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>12.4</v>
+        <v>0.46</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-3.43</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>NITCO</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>100.68</v>
+        <v>140.9</v>
       </c>
       <c r="C84" t="n">
-        <v>103.99</v>
+        <v>143.89</v>
       </c>
       <c r="D84" t="n">
-        <v>3.29</v>
+        <v>2.12</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>100.96</v>
+        <v>141.29</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-2.91</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CUPID</t>
+          <t>AKG</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>241.11</v>
+        <v>12.52</v>
       </c>
       <c r="C85" t="n">
-        <v>249</v>
+        <v>12.78</v>
       </c>
       <c r="D85" t="n">
-        <v>3.27</v>
+        <v>2.08</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>248.08</v>
+        <v>12.48</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-0.37</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GLOBALPET</t>
+          <t>CUBEXTUB</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>154</v>
+        <v>90.56</v>
       </c>
       <c r="C86" t="n">
-        <v>159</v>
+        <v>92.44</v>
       </c>
       <c r="D86" t="n">
-        <v>3.25</v>
+        <v>2.08</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>159</v>
+        <v>90.27</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DIAMONDYD</t>
+          <t>HAVISHA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1112.2</v>
+        <v>1.94</v>
       </c>
       <c r="C87" t="n">
-        <v>1148.2</v>
+        <v>1.98</v>
       </c>
       <c r="D87" t="n">
-        <v>3.24</v>
+        <v>2.06</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1129.3</v>
+        <v>1.9</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-1.65</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>BHARATSE</t>
+          <t>SIKKO</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>205.76</v>
+        <v>112.42</v>
       </c>
       <c r="C88" t="n">
-        <v>212.39</v>
+        <v>114.7</v>
       </c>
       <c r="D88" t="n">
-        <v>3.22</v>
+        <v>2.03</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>206.33</v>
+        <v>114</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-2.85</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ZOTA</t>
+          <t>ZUARI</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1560.4</v>
+        <v>239.2</v>
       </c>
       <c r="C89" t="n">
-        <v>1610</v>
+        <v>244.05</v>
       </c>
       <c r="D89" t="n">
-        <v>3.18</v>
+        <v>2.03</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1550.5</v>
+        <v>244.05</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>NAGREEKEXP</t>
+          <t>RKSWAMY</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>29.03</v>
+        <v>127.41</v>
       </c>
       <c r="C90" t="n">
-        <v>29.95</v>
+        <v>130</v>
       </c>
       <c r="D90" t="n">
-        <v>3.17</v>
+        <v>2.03</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>29.68</v>
+        <v>128.58</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-0.9</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>KREBSBIO</t>
+          <t>UTTAMSUGAR</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>69.59999999999999</v>
+        <v>238.98</v>
       </c>
       <c r="C91" t="n">
-        <v>71.8</v>
+        <v>243.8</v>
       </c>
       <c r="D91" t="n">
-        <v>3.16</v>
+        <v>2.02</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>68.98999999999999</v>
+        <v>238.6</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-3.91</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PRUDMOULI</t>
+          <t>NEXTMEDIA</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>26.57</v>
+        <v>6.42</v>
       </c>
       <c r="C92" t="n">
-        <v>27.4</v>
+        <v>6.55</v>
       </c>
       <c r="D92" t="n">
-        <v>3.12</v>
+        <v>2.02</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>27.07</v>
+        <v>7.36</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-1.2</v>
+        <v>12.37</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LIBAS</t>
+          <t>EFFWA</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>11.87</v>
+        <v>235.3</v>
       </c>
       <c r="C93" t="n">
-        <v>12.24</v>
+        <v>240</v>
       </c>
       <c r="D93" t="n">
-        <v>3.12</v>
+        <v>2</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>11.71</v>
+        <v>231.05</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-4.33</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SHANTIGOLD</t>
+          <t>BVCL</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>241.57</v>
+        <v>45.49</v>
       </c>
       <c r="C94" t="n">
-        <v>248.8</v>
+        <v>46.4</v>
       </c>
       <c r="D94" t="n">
-        <v>2.99</v>
+        <v>2</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>232.89</v>
+        <v>45.01</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-6.39</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NURECA</t>
+          <t>VSTL</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>258.3</v>
+        <v>142.36</v>
       </c>
       <c r="C95" t="n">
-        <v>266</v>
+        <v>145.2</v>
       </c>
       <c r="D95" t="n">
-        <v>2.98</v>
+        <v>1.99</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>267</v>
+        <v>142.91</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>0.38</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>LMW</t>
+          <t>MODIRUBBER</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>15779</v>
+        <v>122.56</v>
       </c>
       <c r="C96" t="n">
-        <v>16250</v>
+        <v>125</v>
       </c>
       <c r="D96" t="n">
-        <v>2.98</v>
+        <v>1.99</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>15982</v>
+        <v>122</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-1.65</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AKIKO</t>
+          <t>BPL</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>266.65</v>
+        <v>71.97</v>
       </c>
       <c r="C97" t="n">
-        <v>274.6</v>
+        <v>73.39</v>
       </c>
       <c r="D97" t="n">
-        <v>2.98</v>
+        <v>1.97</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>274.6</v>
+        <v>71.28</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DRCSYSTEMS</t>
+          <t>WONDERLA</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>19.28</v>
+        <v>560.95</v>
       </c>
       <c r="C98" t="n">
-        <v>19.85</v>
+        <v>571.95</v>
       </c>
       <c r="D98" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>19.48</v>
+        <v>552.1</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-1.86</v>
+        <v>-3.47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>UYFINCORP</t>
+          <t>SAURASHCEM</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>14.85</v>
+        <v>99.45999999999999</v>
       </c>
       <c r="C99" t="n">
-        <v>15.29</v>
+        <v>101.4</v>
       </c>
       <c r="D99" t="n">
-        <v>2.96</v>
+        <v>1.95</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>15.3</v>
+        <v>99.55</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>0.07000000000000001</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>TREJHARA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>2486.7</v>
+        <v>242.28</v>
       </c>
       <c r="C100" t="n">
-        <v>2560.1</v>
+        <v>247</v>
       </c>
       <c r="D100" t="n">
-        <v>2.95</v>
+        <v>1.95</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>2588.5</v>
+        <v>246</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>1.11</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>UNITEDPOLY</t>
+          <t>GVPTECH</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>43.89</v>
+        <v>9.27</v>
       </c>
       <c r="C101" t="n">
-        <v>45.18</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="D101" t="n">
-        <v>2.94</v>
+        <v>1.94</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>45</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-0.4</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SPUNWEB</t>
+          <t>CUMMINSIND</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>146.15</v>
+        <v>4316.1</v>
       </c>
       <c r="C102" t="n">
-        <v>150.4</v>
+        <v>4399.9</v>
       </c>
       <c r="D102" t="n">
-        <v>2.91</v>
+        <v>1.94</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>155</v>
+        <v>4348.2</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>3.06</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>TEAMLEASE</t>
+          <t>AHLADA</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>1687.9</v>
+        <v>57.73</v>
       </c>
       <c r="C103" t="n">
-        <v>1736</v>
+        <v>58.85</v>
       </c>
       <c r="D103" t="n">
-        <v>2.85</v>
+        <v>1.94</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>1754.9</v>
+        <v>56.6</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>1.09</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MAHAPEXLTD</t>
+          <t>IVP</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>95.28</v>
+        <v>175.61</v>
       </c>
       <c r="C104" t="n">
-        <v>97.97</v>
+        <v>179</v>
       </c>
       <c r="D104" t="n">
-        <v>2.82</v>
+        <v>1.93</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>95.01000000000001</v>
+        <v>174</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-3.02</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RATEGAIN</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>685.8</v>
+        <v>0.53</v>
       </c>
       <c r="C105" t="n">
-        <v>705</v>
+        <v>0.54</v>
       </c>
       <c r="D105" t="n">
-        <v>2.8</v>
+        <v>1.89</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>688.5</v>
+        <v>0.52</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-2.34</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>EMUDHRA</t>
+          <t>AMNPLST</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>638.8</v>
+        <v>209.14</v>
       </c>
       <c r="C106" t="n">
-        <v>656.35</v>
+        <v>213</v>
       </c>
       <c r="D106" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>639.9</v>
+        <v>207.9</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-2.51</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CAPLIPOINT</t>
+          <t>ANTGRAPHIC</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1995.2</v>
+        <v>1.08</v>
       </c>
       <c r="C107" t="n">
-        <v>2050</v>
+        <v>1.1</v>
       </c>
       <c r="D107" t="n">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>2025.9</v>
+        <v>1.04</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-1.18</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GRSE</t>
+          <t>BEARDSELL</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2556.2</v>
+        <v>34.66</v>
       </c>
       <c r="C108" t="n">
-        <v>2624.7</v>
+        <v>35.3</v>
       </c>
       <c r="D108" t="n">
-        <v>2.68</v>
+        <v>1.85</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2591.1</v>
+        <v>34.54</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-1.28</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>ZODIAC</t>
+          <t>SHRENIK</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>379.35</v>
+        <v>0.54</v>
       </c>
       <c r="C109" t="n">
-        <v>389.5</v>
+        <v>0.55</v>
       </c>
       <c r="D109" t="n">
-        <v>2.68</v>
+        <v>1.85</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>387.05</v>
+        <v>0.54</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-0.63</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AVANTIFEED</t>
+          <t>KRITIKA</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>690.55</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="C110" t="n">
-        <v>709</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>702.45</v>
+        <v>8.15</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-0.92</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>RAMCOCEM</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>1027</v>
+        <v>2.72</v>
       </c>
       <c r="C111" t="n">
-        <v>1054</v>
+        <v>2.77</v>
       </c>
       <c r="D111" t="n">
-        <v>2.63</v>
+        <v>1.84</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>1030</v>
+        <v>2.74</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-2.28</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SATTVAENGG</t>
+          <t>WELENT</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>80</v>
+        <v>548.05</v>
       </c>
       <c r="C112" t="n">
-        <v>82.05</v>
+        <v>558.1</v>
       </c>
       <c r="D112" t="n">
-        <v>2.56</v>
+        <v>1.83</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>86.7</v>
+        <v>556.55</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>5.67</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>DIL</t>
+          <t>AJAXENGG</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1.95</v>
+        <v>581.1</v>
       </c>
       <c r="C113" t="n">
-        <v>2</v>
+        <v>591.65</v>
       </c>
       <c r="D113" t="n">
-        <v>2.56</v>
+        <v>1.82</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1.97</v>
+        <v>575</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-1.5</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SUZLON</t>
+          <t>MAXVOLT</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>59.99</v>
+        <v>349.75</v>
       </c>
       <c r="C114" t="n">
-        <v>61.5</v>
+        <v>356</v>
       </c>
       <c r="D114" t="n">
-        <v>2.52</v>
+        <v>1.79</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>60.07</v>
+        <v>354</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-2.33</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>ROLLT</t>
+          <t>GILLANDERS</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1.2</v>
+        <v>119.85</v>
       </c>
       <c r="C115" t="n">
-        <v>1.23</v>
+        <v>122</v>
       </c>
       <c r="D115" t="n">
-        <v>2.5</v>
+        <v>1.79</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1.22</v>
+        <v>122</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TAINWALCHM</t>
+          <t>CINELINE</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>200.1</v>
+        <v>88.65000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>205</v>
+        <v>90.22</v>
       </c>
       <c r="D116" t="n">
-        <v>2.45</v>
+        <v>1.77</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>202</v>
+        <v>87.59999999999999</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-1.46</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CELLECOR</t>
+          <t>MUFIN</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>32.65</v>
+        <v>121.5</v>
       </c>
       <c r="C117" t="n">
-        <v>33.45</v>
+        <v>123.64</v>
       </c>
       <c r="D117" t="n">
-        <v>2.45</v>
+        <v>1.76</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>32</v>
+        <v>120.46</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-4.33</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GOLDTECH</t>
+          <t>GMBREW</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>59.89</v>
+        <v>1224.2</v>
       </c>
       <c r="C118" t="n">
-        <v>61.35</v>
+        <v>1245.8</v>
       </c>
       <c r="D118" t="n">
-        <v>2.44</v>
+        <v>1.76</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>59.39</v>
+        <v>1217.4</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-3.19</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SEYAIND</t>
+          <t>DPSCLTD</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>22.85</v>
+        <v>11.55</v>
       </c>
       <c r="C119" t="n">
-        <v>23.4</v>
+        <v>11.75</v>
       </c>
       <c r="D119" t="n">
-        <v>2.41</v>
+        <v>1.73</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>23.99</v>
+        <v>11.65</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>2.52</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AATMAJ</t>
+          <t>BIL</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>20.8</v>
+        <v>855.25</v>
       </c>
       <c r="C120" t="n">
-        <v>21.3</v>
+        <v>870</v>
       </c>
       <c r="D120" t="n">
-        <v>2.4</v>
+        <v>1.72</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>20.55</v>
+        <v>867</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-3.52</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>EBGNG</t>
+          <t>ARSHIYA</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>346.65</v>
+        <v>1.76</v>
       </c>
       <c r="C121" t="n">
-        <v>354.95</v>
+        <v>1.79</v>
       </c>
       <c r="D121" t="n">
-        <v>2.39</v>
+        <v>1.7</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>347</v>
+        <v>1.79</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>TERASOFT</t>
+          <t>JUNIPER</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>555.75</v>
+        <v>260.55</v>
       </c>
       <c r="C122" t="n">
-        <v>569</v>
+        <v>264.95</v>
       </c>
       <c r="D122" t="n">
-        <v>2.38</v>
+        <v>1.69</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>542.8</v>
+        <v>257.55</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-4.6</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ZENITHEXPO</t>
+          <t>ROSSELLIND</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>238.32</v>
+        <v>60.33</v>
       </c>
       <c r="C123" t="n">
-        <v>243.98</v>
+        <v>61.35</v>
       </c>
       <c r="D123" t="n">
-        <v>2.37</v>
+        <v>1.69</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>243.98</v>
+        <v>59.73</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HEADSUP</t>
+          <t>K2INFRA</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>10.64</v>
+        <v>56.05</v>
       </c>
       <c r="C124" t="n">
-        <v>10.89</v>
+        <v>57</v>
       </c>
       <c r="D124" t="n">
-        <v>2.35</v>
+        <v>1.69</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>10.55</v>
+        <v>57</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-3.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>APCL</t>
+          <t>GNA</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>125.85</v>
+        <v>314.7</v>
       </c>
       <c r="C125" t="n">
-        <v>128.8</v>
+        <v>320</v>
       </c>
       <c r="D125" t="n">
-        <v>2.34</v>
+        <v>1.68</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>128.8</v>
+        <v>312.7</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SIGMA</t>
+          <t>FABTECH</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>57.07</v>
+        <v>232.13</v>
       </c>
       <c r="C126" t="n">
-        <v>58.4</v>
+        <v>236.01</v>
       </c>
       <c r="D126" t="n">
-        <v>2.33</v>
+        <v>1.67</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>57</v>
+        <v>230.61</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-2.4</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BBTC</t>
+          <t>KSOLVES</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1952.8</v>
+        <v>317.7</v>
       </c>
       <c r="C127" t="n">
-        <v>1998</v>
+        <v>323</v>
       </c>
       <c r="D127" t="n">
-        <v>2.31</v>
+        <v>1.67</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1953.3</v>
+        <v>315.4</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-2.24</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>DAMODARIND</t>
+          <t>GSS</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>34.2</v>
+        <v>23.99</v>
       </c>
       <c r="C128" t="n">
-        <v>34.99</v>
+        <v>24.39</v>
       </c>
       <c r="D128" t="n">
-        <v>2.31</v>
+        <v>1.67</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>34.69</v>
+        <v>23.9</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-0.86</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>WEIZMANIND</t>
+          <t>ICDSLTD</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>106.06</v>
+        <v>48.2</v>
       </c>
       <c r="C129" t="n">
-        <v>108.5</v>
+        <v>49</v>
       </c>
       <c r="D129" t="n">
-        <v>2.3</v>
+        <v>1.66</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>108.39</v>
+        <v>49</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>WIPL</t>
+          <t>DGCONTENT</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>171.09</v>
+        <v>38.22</v>
       </c>
       <c r="C130" t="n">
-        <v>175</v>
+        <v>38.85</v>
       </c>
       <c r="D130" t="n">
-        <v>2.29</v>
+        <v>1.65</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>171</v>
+        <v>36.6</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-2.29</v>
+        <v>-5.79</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SBC</t>
+          <t>STEELCITY</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>24.2</v>
+        <v>98.38</v>
       </c>
       <c r="C131" t="n">
-        <v>24.75</v>
+        <v>100</v>
       </c>
       <c r="D131" t="n">
-        <v>2.27</v>
+        <v>1.65</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>24.63</v>
+        <v>99.5</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-0.48</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>ARIHANTCAP</t>
+          <t>COUNCODOS</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>100.72</v>
+        <v>6.15</v>
       </c>
       <c r="C132" t="n">
-        <v>102.99</v>
+        <v>6.25</v>
       </c>
       <c r="D132" t="n">
-        <v>2.25</v>
+        <v>1.63</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>101.56</v>
+        <v>6.05</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-1.39</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SAMBHAAV</t>
+          <t>SHEKHAWATI</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>8.970000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="C133" t="n">
-        <v>9.17</v>
+        <v>20.93</v>
       </c>
       <c r="D133" t="n">
-        <v>2.23</v>
+        <v>1.6</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>8.970000000000001</v>
+        <v>20.31</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-2.18</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ABAN</t>
+          <t>AARTECH</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>38.54</v>
+        <v>53.45</v>
       </c>
       <c r="C134" t="n">
-        <v>39.4</v>
+        <v>54.3</v>
       </c>
       <c r="D134" t="n">
-        <v>2.23</v>
+        <v>1.59</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>38.9</v>
+        <v>54.29</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-1.27</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>KERNEX</t>
+          <t>SUNDARAM</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1271.2</v>
+        <v>1.89</v>
       </c>
       <c r="C135" t="n">
-        <v>1299</v>
+        <v>1.92</v>
       </c>
       <c r="D135" t="n">
-        <v>2.19</v>
+        <v>1.59</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1268.7</v>
+        <v>1.9</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-2.33</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BHARATRAS</t>
+          <t>DCM</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>11117</v>
+        <v>91.56</v>
       </c>
       <c r="C136" t="n">
-        <v>11359</v>
+        <v>93</v>
       </c>
       <c r="D136" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>11104</v>
+        <v>91.12</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-2.24</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ARISINFRA</t>
+          <t>GENUSPOWER</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>165.4</v>
+        <v>354.45</v>
       </c>
       <c r="C137" t="n">
-        <v>169</v>
+        <v>360</v>
       </c>
       <c r="D137" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>166</v>
+        <v>355.65</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-1.78</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ATCENERGY</t>
+          <t>TAINWALCHM</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>50.4</v>
+        <v>199.86</v>
       </c>
       <c r="C138" t="n">
-        <v>51.5</v>
+        <v>203</v>
       </c>
       <c r="D138" t="n">
-        <v>2.18</v>
+        <v>1.57</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>50.05</v>
+        <v>203</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-2.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>STEELXIND</t>
+          <t>BHANDARI</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>9.300000000000001</v>
+        <v>4.49</v>
       </c>
       <c r="C139" t="n">
-        <v>9.5</v>
+        <v>4.56</v>
       </c>
       <c r="D139" t="n">
-        <v>2.15</v>
+        <v>1.56</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>9.300000000000001</v>
+        <v>4.53</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-2.11</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MSUMI</t>
+          <t>SYNCOMF</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>46.99</v>
+        <v>16.09</v>
       </c>
       <c r="C140" t="n">
-        <v>47.99</v>
+        <v>16.34</v>
       </c>
       <c r="D140" t="n">
-        <v>2.13</v>
+        <v>1.55</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>47.72</v>
+        <v>16</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MAHASTEEL</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>607.1</v>
+        <v>896.1</v>
       </c>
       <c r="C141" t="n">
-        <v>619.95</v>
+        <v>910</v>
       </c>
       <c r="D141" t="n">
-        <v>2.12</v>
+        <v>1.55</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>597</v>
+        <v>905.9</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-3.7</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>XTGLOBAL</t>
+          <t>SJLOGISTIC</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>39.66</v>
+        <v>344.6</v>
       </c>
       <c r="C142" t="n">
-        <v>40.5</v>
+        <v>349.9</v>
       </c>
       <c r="D142" t="n">
-        <v>2.12</v>
+        <v>1.54</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>39.85</v>
+        <v>335</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-1.6</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>STEL</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.84</v>
+        <v>410.2</v>
       </c>
       <c r="C143" t="n">
-        <v>2.9</v>
+        <v>416.45</v>
       </c>
       <c r="D143" t="n">
-        <v>2.11</v>
+        <v>1.52</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>2.83</v>
+        <v>411.1</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-2.41</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>RADIOCITY</t>
+          <t>CPCAP</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>7.63</v>
+        <v>118.01</v>
       </c>
       <c r="C144" t="n">
-        <v>7.79</v>
+        <v>119.8</v>
       </c>
       <c r="D144" t="n">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>7.77</v>
+        <v>117.77</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-0.26</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>GSS</t>
+          <t>OAL</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>24.32</v>
+        <v>347.45</v>
       </c>
       <c r="C145" t="n">
-        <v>24.83</v>
+        <v>352.7</v>
       </c>
       <c r="D145" t="n">
-        <v>2.1</v>
+        <v>1.51</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>24.65</v>
+        <v>344.6</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-0.72</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ABSMARINE</t>
+          <t>LINC</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>219.85</v>
+        <v>125.56</v>
       </c>
       <c r="C146" t="n">
-        <v>224.45</v>
+        <v>127.45</v>
       </c>
       <c r="D146" t="n">
-        <v>2.09</v>
+        <v>1.51</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>222.05</v>
+        <v>126.43</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-1.07</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>KALYANIFRG</t>
+          <t>MINDACORP</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>684.2</v>
+        <v>573.35</v>
       </c>
       <c r="C147" t="n">
-        <v>698.4</v>
+        <v>582</v>
       </c>
       <c r="D147" t="n">
-        <v>2.08</v>
+        <v>1.51</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>697.4</v>
+        <v>611.1</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-0.14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>OMKARCHEM</t>
+          <t>INDIGOPNTS</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>5.3</v>
+        <v>990.8</v>
       </c>
       <c r="C148" t="n">
-        <v>5.41</v>
+        <v>1005.65</v>
       </c>
       <c r="D148" t="n">
-        <v>2.08</v>
+        <v>1.5</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>5.05</v>
+        <v>996.4</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-6.65</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>INDUSINVIT</t>
+          <t>RPTECH</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>120.99</v>
+        <v>334.5</v>
       </c>
       <c r="C149" t="n">
-        <v>123.49</v>
+        <v>339.5</v>
       </c>
       <c r="D149" t="n">
-        <v>2.07</v>
+        <v>1.49</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>122.28</v>
+        <v>334.45</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-0.98</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>TRIGYN</t>
+          <t>VISHNU</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>74.45</v>
+        <v>502.5</v>
       </c>
       <c r="C150" t="n">
-        <v>75.98999999999999</v>
+        <v>510</v>
       </c>
       <c r="D150" t="n">
-        <v>2.07</v>
+        <v>1.49</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>73.76000000000001</v>
+        <v>496.85</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-2.93</v>
+        <v>-2.58</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IL&amp;FSTRANS</t>
+          <t>RUCHINFRA</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.91</v>
+        <v>7.36</v>
       </c>
       <c r="C151" t="n">
-        <v>2.97</v>
+        <v>7.47</v>
       </c>
       <c r="D151" t="n">
-        <v>2.06</v>
+        <v>1.49</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
-      <c r="F151" t="inlineStr"/>
+      <c r="F151" t="n">
+        <v>7.4</v>
+      </c>
       <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
+      <c r="H151" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>THEJO</t>
+          <t>BRNL</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1773.5</v>
+        <v>24.34</v>
       </c>
       <c r="C152" t="n">
-        <v>1809.9</v>
+        <v>24.7</v>
       </c>
       <c r="D152" t="n">
-        <v>2.05</v>
+        <v>1.48</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1769.5</v>
+        <v>24.25</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-2.23</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>VALIANTLAB</t>
+          <t>MAANALU</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>83.5</v>
+        <v>138.84</v>
       </c>
       <c r="C153" t="n">
-        <v>85.2</v>
+        <v>140.9</v>
       </c>
       <c r="D153" t="n">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>83.48</v>
+        <v>140</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-2.02</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>NIRAJ</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>10.77</v>
+        <v>28.48</v>
       </c>
       <c r="C154" t="n">
-        <v>10.99</v>
+        <v>28.9</v>
       </c>
       <c r="D154" t="n">
-        <v>2.04</v>
+        <v>1.47</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>10.43</v>
+        <v>28.4</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-5.1</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MCL</t>
+          <t>LUPIN</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>48.57</v>
+        <v>1955.5</v>
       </c>
       <c r="C155" t="n">
-        <v>49.55</v>
+        <v>1984</v>
       </c>
       <c r="D155" t="n">
-        <v>2.02</v>
+        <v>1.46</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>48.45</v>
+        <v>1979.4</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-2.22</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HOMEFIRST</t>
+          <t>SIGMA</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>1195.9</v>
+        <v>55.18</v>
       </c>
       <c r="C156" t="n">
-        <v>1220</v>
+        <v>55.98</v>
       </c>
       <c r="D156" t="n">
-        <v>2.02</v>
+        <v>1.45</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>1137.7</v>
+        <v>55.69</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-6.75</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>KOTHARIPRO</t>
+          <t>UGARSUGAR</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>89.97</v>
+        <v>42.14</v>
       </c>
       <c r="C157" t="n">
-        <v>91.78</v>
+        <v>42.75</v>
       </c>
       <c r="D157" t="n">
-        <v>2.01</v>
+        <v>1.45</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>90.19</v>
+        <v>42.01</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
@@ -4530,1141 +4534,1145 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SREEL</t>
+          <t>OSWALAGRO</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>225.76</v>
+        <v>67.33</v>
       </c>
       <c r="C158" t="n">
-        <v>230.3</v>
+        <v>68.3</v>
       </c>
       <c r="D158" t="n">
-        <v>2.01</v>
+        <v>1.44</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>226.49</v>
+        <v>67.62</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-1.65</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>FIBERWEB</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5637</v>
+        <v>42.29</v>
       </c>
       <c r="C159" t="n">
-        <v>5750</v>
+        <v>42.9</v>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>5801.5</v>
+        <v>42.37</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>0.9</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VAISHALI</t>
+          <t>ISHANCH</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>10</v>
+        <v>73.64</v>
       </c>
       <c r="C160" t="n">
-        <v>10.2</v>
+        <v>74.7</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>1.44</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>10.06</v>
+        <v>74.7</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ENIL</t>
+          <t>KCEIL</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>135.3</v>
+        <v>185.35</v>
       </c>
       <c r="C161" t="n">
-        <v>138</v>
+        <v>188</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1.43</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>136.78</v>
+        <v>187</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-0.88</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SAFEENTP</t>
+          <t>HILINFRA</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>194.55</v>
+        <v>73.95</v>
       </c>
       <c r="C162" t="n">
-        <v>198.45</v>
+        <v>75</v>
       </c>
       <c r="D162" t="n">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>201</v>
+        <v>74.28</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>1.28</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AGROPHOS</t>
+          <t>HOACFOODS</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>42.7</v>
+        <v>275.15</v>
       </c>
       <c r="C163" t="n">
-        <v>43.55</v>
+        <v>279</v>
       </c>
       <c r="D163" t="n">
-        <v>1.99</v>
+        <v>1.4</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>42.8</v>
+        <v>279</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-1.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ANTGRAPHIC</t>
+          <t>SBGLP</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>1.01</v>
+        <v>33.49</v>
       </c>
       <c r="C164" t="n">
-        <v>1.03</v>
+        <v>33.96</v>
       </c>
       <c r="D164" t="n">
-        <v>1.98</v>
+        <v>1.4</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>1.03</v>
+        <v>33.07</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>KCPSUGIND</t>
+          <t>BHAGYANGR</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>30.65</v>
+        <v>126.25</v>
       </c>
       <c r="C165" t="n">
-        <v>31.25</v>
+        <v>128</v>
       </c>
       <c r="D165" t="n">
-        <v>1.96</v>
+        <v>1.39</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>30.48</v>
+        <v>125.5</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-2.46</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>UMESLTD</t>
+          <t>LAXMICOT</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>5.09</v>
+        <v>21</v>
       </c>
       <c r="C166" t="n">
-        <v>5.19</v>
+        <v>21.29</v>
       </c>
       <c r="D166" t="n">
-        <v>1.96</v>
+        <v>1.38</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>5.15</v>
+        <v>20.63</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-0.77</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CSBBANK</t>
+          <t>FINKURVE</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>418.65</v>
+        <v>112.92</v>
       </c>
       <c r="C167" t="n">
-        <v>426.8</v>
+        <v>114.48</v>
       </c>
       <c r="D167" t="n">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>429.5</v>
+        <v>111.41</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>0.63</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MIRZAINT</t>
+          <t>MKPL</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>36.92</v>
+        <v>6.54</v>
       </c>
       <c r="C168" t="n">
-        <v>37.64</v>
+        <v>6.63</v>
       </c>
       <c r="D168" t="n">
-        <v>1.95</v>
+        <v>1.38</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>37.16</v>
+        <v>6.49</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-1.28</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AVONMORE</t>
+          <t>CIFL</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>17.45</v>
+        <v>34.04</v>
       </c>
       <c r="C169" t="n">
-        <v>17.79</v>
+        <v>34.5</v>
       </c>
       <c r="D169" t="n">
-        <v>1.95</v>
+        <v>1.35</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>17.62</v>
+        <v>34.25</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-0.96</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>VINEETLAB</t>
+          <t>WANBURY</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>47.19</v>
+        <v>253.55</v>
       </c>
       <c r="C170" t="n">
-        <v>48.11</v>
+        <v>256.95</v>
       </c>
       <c r="D170" t="n">
-        <v>1.95</v>
+        <v>1.34</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>46.04</v>
+        <v>252.8</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-4.3</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>S&amp;SPOWER</t>
+          <t>NELCAST</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>358.05</v>
+        <v>108.58</v>
       </c>
       <c r="C171" t="n">
-        <v>365</v>
+        <v>110.04</v>
       </c>
       <c r="D171" t="n">
-        <v>1.94</v>
+        <v>1.34</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
-      <c r="F171" t="inlineStr"/>
+      <c r="F171" t="n">
+        <v>108.1</v>
+      </c>
       <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
+      <c r="H171" t="n">
+        <v>-1.76</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AIMTRON</t>
+          <t>HILTON</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>875.95</v>
+        <v>42.91</v>
       </c>
       <c r="C172" t="n">
-        <v>892.95</v>
+        <v>43.48</v>
       </c>
       <c r="D172" t="n">
-        <v>1.94</v>
+        <v>1.33</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>860</v>
+        <v>42.93</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-3.69</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BROOKS</t>
+          <t>CSBBANK</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>109.67</v>
+        <v>424.4</v>
       </c>
       <c r="C173" t="n">
-        <v>111.8</v>
+        <v>430</v>
       </c>
       <c r="D173" t="n">
-        <v>1.94</v>
+        <v>1.32</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>106.53</v>
+        <v>418.55</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-4.71</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PRITIKAUTO</t>
+          <t>NAHARPOLY</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>15.54</v>
+        <v>305</v>
       </c>
       <c r="C174" t="n">
-        <v>15.84</v>
+        <v>309</v>
       </c>
       <c r="D174" t="n">
-        <v>1.93</v>
+        <v>1.31</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>15.56</v>
+        <v>303.8</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-1.77</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ANSALAPI</t>
+          <t>DHRUV</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>4.17</v>
+        <v>50.34</v>
       </c>
       <c r="C175" t="n">
-        <v>4.25</v>
+        <v>51</v>
       </c>
       <c r="D175" t="n">
-        <v>1.92</v>
+        <v>1.31</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>4.08</v>
+        <v>49.31</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-4</v>
+        <v>-3.31</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BPCL</t>
+          <t>AMDIND</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>372.95</v>
+        <v>55.77</v>
       </c>
       <c r="C176" t="n">
-        <v>380</v>
+        <v>56.5</v>
       </c>
       <c r="D176" t="n">
-        <v>1.89</v>
+        <v>1.31</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>374.05</v>
+        <v>55.4</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-1.57</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RAMASTEEL</t>
+          <t>DOLPHIN</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>10.13</v>
+        <v>409.6</v>
       </c>
       <c r="C177" t="n">
-        <v>10.32</v>
+        <v>414.9</v>
       </c>
       <c r="D177" t="n">
-        <v>1.88</v>
+        <v>1.29</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>10.2</v>
+        <v>409</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-1.16</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>OSWALSEEDS</t>
+          <t>STYLEBAAZA</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>15.46</v>
+        <v>322.9</v>
       </c>
       <c r="C178" t="n">
-        <v>15.75</v>
+        <v>327</v>
       </c>
       <c r="D178" t="n">
-        <v>1.88</v>
+        <v>1.27</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>15.67</v>
+        <v>320.65</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-0.51</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>UNIVASTU</t>
+          <t>SARLAPOLY</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>71.65000000000001</v>
+        <v>90.73</v>
       </c>
       <c r="C179" t="n">
-        <v>72.98999999999999</v>
+        <v>91.88</v>
       </c>
       <c r="D179" t="n">
-        <v>1.87</v>
+        <v>1.27</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>70.90000000000001</v>
+        <v>89.66</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-2.86</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PARASPETRO</t>
+          <t>MADHUCON</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>2.14</v>
+        <v>7.13</v>
       </c>
       <c r="C180" t="n">
-        <v>2.18</v>
+        <v>7.22</v>
       </c>
       <c r="D180" t="n">
-        <v>1.87</v>
+        <v>1.26</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>2.17</v>
+        <v>7.1</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-0.46</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>GFLLIMITED</t>
+          <t>RADAAN</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>62.33</v>
+        <v>3.2</v>
       </c>
       <c r="C181" t="n">
-        <v>63.49</v>
+        <v>3.24</v>
       </c>
       <c r="D181" t="n">
-        <v>1.86</v>
+        <v>1.25</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>61.5</v>
+        <v>3.13</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-3.13</v>
+        <v>-3.4</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ANDHRAPAP</t>
+          <t>GREENLEAF</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>77.56999999999999</v>
+        <v>133.35</v>
       </c>
       <c r="C182" t="n">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="D182" t="n">
-        <v>1.84</v>
+        <v>1.24</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>78.23</v>
+        <v>135</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-0.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AADHARHFC</t>
+          <t>STLTECH</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>509.2</v>
+        <v>112.58</v>
       </c>
       <c r="C183" t="n">
-        <v>518.5</v>
+        <v>113.97</v>
       </c>
       <c r="D183" t="n">
-        <v>1.83</v>
+        <v>1.23</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>507.5</v>
+        <v>110.81</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-2.12</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>INDOTECH</t>
+          <t>PFIZER</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1668.4</v>
+        <v>5067.5</v>
       </c>
       <c r="C184" t="n">
-        <v>1699</v>
+        <v>5129.5</v>
       </c>
       <c r="D184" t="n">
-        <v>1.83</v>
+        <v>1.22</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1656</v>
+        <v>5041.5</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-2.53</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SCPL</t>
+          <t>GANDHITUBE</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>235.68</v>
+        <v>828.95</v>
       </c>
       <c r="C185" t="n">
-        <v>239.99</v>
+        <v>839</v>
       </c>
       <c r="D185" t="n">
-        <v>1.83</v>
+        <v>1.21</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>236.25</v>
+        <v>826.7</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-1.56</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>FINKURVE</t>
+          <t>RAJINDLTD</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>112.35</v>
+        <v>85</v>
       </c>
       <c r="C186" t="n">
-        <v>114.4</v>
+        <v>86</v>
       </c>
       <c r="D186" t="n">
-        <v>1.82</v>
+        <v>1.18</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>114.3</v>
+        <v>86</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MEP</t>
+          <t>VMARCIND</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>2.77</v>
+        <v>603.9</v>
       </c>
       <c r="C187" t="n">
-        <v>2.82</v>
+        <v>610.95</v>
       </c>
       <c r="D187" t="n">
-        <v>1.81</v>
+        <v>1.17</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>2.82</v>
+        <v>618</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>AARVI</t>
+          <t>RADIOCITY</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>119.34</v>
+        <v>6.96</v>
       </c>
       <c r="C188" t="n">
-        <v>121.5</v>
+        <v>7.04</v>
       </c>
       <c r="D188" t="n">
-        <v>1.81</v>
+        <v>1.15</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>119.87</v>
+        <v>7</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-1.34</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>PILANIINVS</t>
+          <t>MUKTAARTS</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>5234.5</v>
+        <v>66.88</v>
       </c>
       <c r="C189" t="n">
-        <v>5329.5</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>1.81</v>
+        <v>1.15</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>5230</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-1.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>SHREYANIND</t>
+          <t>ARCHIES</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>218.06</v>
+        <v>19.94</v>
       </c>
       <c r="C190" t="n">
-        <v>221.98</v>
+        <v>20.17</v>
       </c>
       <c r="D190" t="n">
-        <v>1.8</v>
+        <v>1.15</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>222.02</v>
+        <v>19.51</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>0.02</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>AVALON</t>
+          <t>NILKAMAL</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1150.3</v>
+        <v>1546.3</v>
       </c>
       <c r="C191" t="n">
-        <v>1170.9</v>
+        <v>1564</v>
       </c>
       <c r="D191" t="n">
-        <v>1.79</v>
+        <v>1.14</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1106.1</v>
+        <v>1531.6</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-5.53</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MKPL</t>
+          <t>ESSENTIA</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>6.71</v>
+        <v>1.75</v>
       </c>
       <c r="C192" t="n">
-        <v>6.83</v>
+        <v>1.77</v>
       </c>
       <c r="D192" t="n">
-        <v>1.79</v>
+        <v>1.14</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>6.78</v>
+        <v>1.75</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-0.73</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TREJHARA</t>
+          <t>ORTINGLOBE</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>230.75</v>
+        <v>11.62</v>
       </c>
       <c r="C193" t="n">
-        <v>234.88</v>
+        <v>11.75</v>
       </c>
       <c r="D193" t="n">
-        <v>1.79</v>
+        <v>1.12</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>234</v>
+        <v>11.74</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-0.37</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>VARDMNPOLY</t>
+          <t>VARROC</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>7.81</v>
+        <v>625.05</v>
       </c>
       <c r="C194" t="n">
-        <v>7.95</v>
+        <v>632</v>
       </c>
       <c r="D194" t="n">
-        <v>1.79</v>
+        <v>1.11</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>7.69</v>
+        <v>618.35</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-3.27</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>BANG</t>
+          <t>MMFL</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>54.04</v>
+        <v>304.35</v>
       </c>
       <c r="C195" t="n">
-        <v>55</v>
+        <v>307.7</v>
       </c>
       <c r="D195" t="n">
-        <v>1.78</v>
+        <v>1.1</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>55.68</v>
+        <v>303.45</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>1.24</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CHAMBLFERT</t>
+          <t>FOODSIN</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>481.5</v>
+        <v>81.56999999999999</v>
       </c>
       <c r="C196" t="n">
-        <v>490</v>
+        <v>82.45</v>
       </c>
       <c r="D196" t="n">
-        <v>1.77</v>
+        <v>1.08</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>484.45</v>
+        <v>80.92</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-1.13</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SENCO</t>
+          <t>SADBHIN</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>334.15</v>
+        <v>3.72</v>
       </c>
       <c r="C197" t="n">
-        <v>340</v>
+        <v>3.76</v>
       </c>
       <c r="D197" t="n">
-        <v>1.75</v>
+        <v>1.08</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>332.2</v>
+        <v>3.74</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-2.29</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SIKKO</t>
+          <t>RAMASTEEL</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>107.13</v>
+        <v>10.19</v>
       </c>
       <c r="C198" t="n">
-        <v>109.01</v>
+        <v>10.3</v>
       </c>
       <c r="D198" t="n">
-        <v>1.75</v>
+        <v>1.08</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>108.41</v>
+        <v>10.15</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-0.55</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BRNL</t>
+          <t>GEECEE</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>25.36</v>
+        <v>350.25</v>
       </c>
       <c r="C199" t="n">
-        <v>25.8</v>
+        <v>354</v>
       </c>
       <c r="D199" t="n">
-        <v>1.74</v>
+        <v>1.07</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>25.1</v>
+        <v>345.2</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-2.71</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SHRADHA</t>
+          <t>PARSVNATH</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>44.21</v>
+        <v>16.82</v>
       </c>
       <c r="C200" t="n">
-        <v>44.98</v>
+        <v>17</v>
       </c>
       <c r="D200" t="n">
-        <v>1.74</v>
+        <v>1.07</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>44</v>
+        <v>16.61</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.18</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CHEMBONDCH</t>
+          <t>LORDSCHLO</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>153.35</v>
+        <v>217.7</v>
       </c>
       <c r="C201" t="n">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="D201" t="n">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>155.24</v>
+        <v>214.02</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-0.49</v>
+        <v>-2.72</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -482,981 +482,981 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.5</v>
+        <v>15.7</v>
       </c>
       <c r="C2" t="n">
-        <v>12.9</v>
+        <v>21.95</v>
       </c>
       <c r="D2" t="n">
-        <v>12.17</v>
+        <v>39.81</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>12.8</v>
+        <v>21.95</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-0.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DHARIWAL</t>
+          <t>IEML</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>254.45</v>
+        <v>100.8</v>
       </c>
       <c r="C3" t="n">
-        <v>277.3</v>
+        <v>120.95</v>
       </c>
       <c r="D3" t="n">
-        <v>8.98</v>
+        <v>19.99</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>281</v>
+        <v>120.95</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>1.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BILVYAPAR</t>
+          <t>PASUPTAC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11.06</v>
+        <v>51.62</v>
       </c>
       <c r="C4" t="n">
-        <v>11.99</v>
+        <v>58.9</v>
       </c>
       <c r="D4" t="n">
-        <v>8.41</v>
+        <v>14.1</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>11.25</v>
+        <v>55.11</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-6.17</v>
+        <v>-6.43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DAMCAPITAL</t>
+          <t>VMARCIND</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.68</v>
+        <v>624.45</v>
       </c>
       <c r="C5" t="n">
-        <v>275.9</v>
+        <v>687.95</v>
       </c>
       <c r="D5" t="n">
-        <v>8.33</v>
+        <v>10.17</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>265.8</v>
+        <v>696</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-3.66</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INTERARCH</t>
+          <t>INSPIRISYS</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2194.4</v>
+        <v>98.75</v>
       </c>
       <c r="C6" t="n">
-        <v>2351.9</v>
+        <v>108.01</v>
       </c>
       <c r="D6" t="n">
-        <v>7.18</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2446.1</v>
+        <v>100.27</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>4.01</v>
+        <v>-7.17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>NIRAJ</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.8</v>
+        <v>28.8</v>
       </c>
       <c r="C7" t="n">
-        <v>551</v>
+        <v>31.23</v>
       </c>
       <c r="D7" t="n">
-        <v>6.41</v>
+        <v>8.44</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>550.1</v>
+        <v>30.95</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-0.16</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>MFML</t>
+          <t>HBLENGINE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.72</v>
+        <v>979.2</v>
       </c>
       <c r="C8" t="n">
-        <v>29.4</v>
+        <v>1060</v>
       </c>
       <c r="D8" t="n">
-        <v>6.06</v>
+        <v>8.25</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>28.07</v>
+        <v>1098.7</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-4.52</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GULPOLY</t>
+          <t>RADAAN</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>151.56</v>
+        <v>3.19</v>
       </c>
       <c r="C9" t="n">
-        <v>160</v>
+        <v>3.45</v>
       </c>
       <c r="D9" t="n">
-        <v>5.57</v>
+        <v>8.15</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>156.77</v>
+        <v>3.25</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-2.02</v>
+        <v>-5.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>JSLL</t>
+          <t>KRITINUT</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>785.2</v>
+        <v>88.02</v>
       </c>
       <c r="C10" t="n">
-        <v>825</v>
+        <v>94.8</v>
       </c>
       <c r="D10" t="n">
-        <v>5.07</v>
+        <v>7.7</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>784.7</v>
+        <v>89.90000000000001</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-4.88</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SGL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>14.57</v>
+        <v>9.869999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3</v>
+        <v>10.59</v>
       </c>
       <c r="D11" t="n">
-        <v>5.01</v>
+        <v>7.29</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>14.84</v>
+        <v>9.83</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-3.01</v>
+        <v>-7.18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SWANDEF</t>
+          <t>HBSL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>852.45</v>
+        <v>98.81999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>895.05</v>
+        <v>106.02</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>7.29</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>895.05</v>
+        <v>100.33</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-5.37</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SHRIAHIMSA</t>
+          <t>NIRAJISPAT</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>254.1</v>
+        <v>228.39</v>
       </c>
       <c r="C13" t="n">
-        <v>266.8</v>
+        <v>245</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>7.27</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>266.8</v>
+        <v>228</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-6.94</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CURAA</t>
+          <t>ROML</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>185.28</v>
+        <v>51.42</v>
       </c>
       <c r="C14" t="n">
-        <v>194.54</v>
+        <v>54.99</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>6.94</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>194.54</v>
+        <v>53.49</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JUBLCPL</t>
+          <t>RETAIL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2519.3</v>
+        <v>30.89</v>
       </c>
       <c r="C15" t="n">
-        <v>2645.2</v>
+        <v>33</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6.83</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2645.2</v>
+        <v>29.48</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-10.67</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ESFL</t>
+          <t>NEULANDLAB</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>212.25</v>
+        <v>17837</v>
       </c>
       <c r="C16" t="n">
-        <v>222.85</v>
+        <v>19000</v>
       </c>
       <c r="D16" t="n">
-        <v>4.99</v>
+        <v>6.52</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>222.85</v>
+        <v>18650</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SUMEETINDS</t>
+          <t>RENUKA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>34.48</v>
+        <v>27.83</v>
       </c>
       <c r="C17" t="n">
-        <v>36.2</v>
+        <v>29.6</v>
       </c>
       <c r="D17" t="n">
-        <v>4.99</v>
+        <v>6.36</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>35.6</v>
+        <v>28.84</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>-1.66</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ONELIFECAP</t>
+          <t>SYSTANGO</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.71</v>
+        <v>272.85</v>
       </c>
       <c r="C18" t="n">
-        <v>18.59</v>
+        <v>289</v>
       </c>
       <c r="D18" t="n">
-        <v>4.97</v>
+        <v>5.92</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>17.05</v>
+        <v>302</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>-8.279999999999999</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CAPTRUST</t>
+          <t>LUMAXTECH</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>26.88</v>
+        <v>1200.2</v>
       </c>
       <c r="C19" t="n">
-        <v>28.21</v>
+        <v>1269.9</v>
       </c>
       <c r="D19" t="n">
-        <v>4.95</v>
+        <v>5.81</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>27.01</v>
+        <v>1384</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>-4.25</v>
+        <v>8.98</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GAYAHWS</t>
+          <t>SSEGL</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.06</v>
+        <v>548.7</v>
       </c>
       <c r="C20" t="n">
-        <v>4.26</v>
+        <v>580</v>
       </c>
       <c r="D20" t="n">
-        <v>4.93</v>
+        <v>5.7</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4.26</v>
+        <v>548</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.52</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ANKITMETAL</t>
+          <t>SWARAJ</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.63</v>
+        <v>213.9</v>
       </c>
       <c r="C21" t="n">
-        <v>1.71</v>
+        <v>226.1</v>
       </c>
       <c r="D21" t="n">
-        <v>4.91</v>
+        <v>5.7</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.55</v>
+        <v>241.2</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-9.359999999999999</v>
+        <v>6.68</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DUCOL</t>
+          <t>UGROCAP</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>195.6</v>
+        <v>176.94</v>
       </c>
       <c r="C22" t="n">
-        <v>204.95</v>
+        <v>186.99</v>
       </c>
       <c r="D22" t="n">
-        <v>4.78</v>
+        <v>5.68</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>199.45</v>
+        <v>174.75</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-2.68</v>
+        <v>-6.55</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>KRSNAA</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>216.64</v>
+        <v>724.3</v>
       </c>
       <c r="C23" t="n">
-        <v>227</v>
+        <v>763.95</v>
       </c>
       <c r="D23" t="n">
-        <v>4.78</v>
+        <v>5.47</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>214</v>
+        <v>748</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>-5.73</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>KALYANIFRG</t>
+          <t>SMSPHARMA</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>676.95</v>
+        <v>289.25</v>
       </c>
       <c r="C24" t="n">
-        <v>709</v>
+        <v>305</v>
       </c>
       <c r="D24" t="n">
-        <v>4.73</v>
+        <v>5.45</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>685.15</v>
+        <v>316.55</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-3.36</v>
+        <v>3.79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PARADEEP</t>
+          <t>ZUARI</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>163.81</v>
+        <v>251.15</v>
       </c>
       <c r="C25" t="n">
-        <v>171.45</v>
+        <v>263.7</v>
       </c>
       <c r="D25" t="n">
-        <v>4.66</v>
+        <v>5</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>167.8</v>
+        <v>263.7</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>-2.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>SWANDEF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>218.63</v>
+        <v>895.05</v>
       </c>
       <c r="C26" t="n">
-        <v>228.79</v>
+        <v>939.8</v>
       </c>
       <c r="D26" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>221.95</v>
+        <v>939.8</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-2.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KAVDEFENCE</t>
+          <t>BAFNAPH</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>92.69</v>
+        <v>174.56</v>
       </c>
       <c r="C27" t="n">
-        <v>97</v>
+        <v>183.28</v>
       </c>
       <c r="D27" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>97.31999999999999</v>
+        <v>183.28</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SICALLOG</t>
+          <t>CURAA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>101.33</v>
+        <v>194.54</v>
       </c>
       <c r="C28" t="n">
-        <v>106</v>
+        <v>204.26</v>
       </c>
       <c r="D28" t="n">
-        <v>4.61</v>
+        <v>5</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>105.46</v>
+        <v>204.25</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>-0.51</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NAGREEKEXP</t>
+          <t>SHRIAHIMSA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28.67</v>
+        <v>266.8</v>
       </c>
       <c r="C29" t="n">
-        <v>29.99</v>
+        <v>280.1</v>
       </c>
       <c r="D29" t="n">
-        <v>4.6</v>
+        <v>4.99</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>28.23</v>
+        <v>280.1</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-5.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SHYAMCENT</t>
+          <t>ESFL</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>6.53</v>
+        <v>222.85</v>
       </c>
       <c r="C30" t="n">
-        <v>6.83</v>
+        <v>233.95</v>
       </c>
       <c r="D30" t="n">
-        <v>4.59</v>
+        <v>4.98</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>6.55</v>
+        <v>233.95</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-4.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KANDARP</t>
+          <t>WEWIN</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>109.1</v>
+        <v>52.1</v>
       </c>
       <c r="C31" t="n">
-        <v>114</v>
+        <v>54.69</v>
       </c>
       <c r="D31" t="n">
-        <v>4.49</v>
+        <v>4.97</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>114.55</v>
+        <v>54.49</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>0.48</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LINDEINDIA</t>
+          <t>VIJIFIN</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>5843</v>
+        <v>3.02</v>
       </c>
       <c r="C32" t="n">
-        <v>6105</v>
+        <v>3.17</v>
       </c>
       <c r="D32" t="n">
-        <v>4.48</v>
+        <v>4.97</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>5994</v>
+        <v>3.17</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-1.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MVKAGRO</t>
+          <t>FORCEMOT</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>550.9</v>
+        <v>18194</v>
       </c>
       <c r="C33" t="n">
-        <v>575</v>
+        <v>19096</v>
       </c>
       <c r="D33" t="n">
-        <v>4.37</v>
+        <v>4.96</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>575.9</v>
+        <v>18283</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>0.16</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FELDVR</t>
+          <t>GAYAHWS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3.44</v>
+        <v>4.26</v>
       </c>
       <c r="C34" t="n">
-        <v>3.59</v>
+        <v>4.47</v>
       </c>
       <c r="D34" t="n">
-        <v>4.36</v>
+        <v>4.93</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>3.44</v>
+        <v>4.46</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-4.18</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>JAIPURKURT</t>
+          <t>SICALLOG</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>35.46</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="C35" t="n">
-        <v>37</v>
+        <v>104.83</v>
       </c>
       <c r="D35" t="n">
-        <v>4.34</v>
+        <v>4.93</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>35</v>
+        <v>104.4</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-5.41</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>POLYSIL</t>
+          <t>HEADSUP</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>261.9</v>
+        <v>10.26</v>
       </c>
       <c r="C36" t="n">
-        <v>273</v>
+        <v>10.76</v>
       </c>
       <c r="D36" t="n">
-        <v>4.24</v>
+        <v>4.87</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>271.8</v>
+        <v>10.76</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-0.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>EXXARO</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>9.92</v>
+        <v>218.84</v>
       </c>
       <c r="C37" t="n">
-        <v>10.33</v>
+        <v>229.5</v>
       </c>
       <c r="D37" t="n">
-        <v>4.13</v>
+        <v>4.87</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>9.44</v>
+        <v>229.77</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-8.619999999999999</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TREEHOUSE</t>
+          <t>WINDMACHIN</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.76</v>
+        <v>289.9</v>
       </c>
       <c r="C38" t="n">
-        <v>8.08</v>
+        <v>304</v>
       </c>
       <c r="D38" t="n">
-        <v>4.12</v>
+        <v>4.86</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.63</v>
+        <v>305.7</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-5.57</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>DHARAN</t>
+          <t>PALASHSECU</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.5</v>
+        <v>115.43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.52</v>
+        <v>121</v>
       </c>
       <c r="D39" t="n">
-        <v>4</v>
+        <v>4.83</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.52</v>
+        <v>121</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
@@ -1466,2337 +1466,2333 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KSHITIJPOL</t>
+          <t>GFSTEELS</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.77</v>
+        <v>10.21</v>
       </c>
       <c r="C40" t="n">
-        <v>2.88</v>
+        <v>10.7</v>
       </c>
       <c r="D40" t="n">
-        <v>3.97</v>
+        <v>4.8</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>2.83</v>
+        <v>10.7</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-1.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ALIVUS</t>
+          <t>EFCIL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>890.5</v>
+        <v>283.55</v>
       </c>
       <c r="C41" t="n">
-        <v>925</v>
+        <v>297</v>
       </c>
       <c r="D41" t="n">
-        <v>3.87</v>
+        <v>4.74</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>913.4</v>
+        <v>278.6</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-1.25</v>
+        <v>-6.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>URBAN</t>
+          <t>SANCO</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>180.25</v>
+        <v>1.69</v>
       </c>
       <c r="C42" t="n">
-        <v>187</v>
+        <v>1.77</v>
       </c>
       <c r="D42" t="n">
-        <v>3.74</v>
+        <v>4.73</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>171.2</v>
+        <v>1.77</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-8.449999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AARTIIND</t>
+          <t>LGHL</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>390.5</v>
+        <v>259.75</v>
       </c>
       <c r="C43" t="n">
-        <v>404.95</v>
+        <v>272</v>
       </c>
       <c r="D43" t="n">
-        <v>3.7</v>
+        <v>4.72</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>411.7</v>
+        <v>261</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>1.67</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TRIVENI</t>
+          <t>DCI</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>357.25</v>
+        <v>261.8</v>
       </c>
       <c r="C44" t="n">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="D44" t="n">
-        <v>3.57</v>
+        <v>4.66</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>367.1</v>
+        <v>264.6</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-0.78</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ANIKINDS</t>
+          <t>CALSOFT</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>74.34999999999999</v>
+        <v>16.34</v>
       </c>
       <c r="C45" t="n">
-        <v>77</v>
+        <v>17.1</v>
       </c>
       <c r="D45" t="n">
-        <v>3.56</v>
+        <v>4.65</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>75.76000000000001</v>
+        <v>16.7</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-1.61</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>BASML</t>
+          <t>RAJSREESUG</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>26.57</v>
+        <v>37.93</v>
       </c>
       <c r="C46" t="n">
-        <v>27.5</v>
+        <v>39.66</v>
       </c>
       <c r="D46" t="n">
-        <v>3.5</v>
+        <v>4.56</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>26.91</v>
+        <v>39.21</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-2.15</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBSL</t>
+          <t>SUNLITE</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>83.18000000000001</v>
+        <v>262.1</v>
       </c>
       <c r="C47" t="n">
-        <v>86</v>
+        <v>273.95</v>
       </c>
       <c r="D47" t="n">
-        <v>3.39</v>
+        <v>4.52</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>80.25</v>
+        <v>264</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-6.69</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>VALIANTORG</t>
+          <t>IRIS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>298.05</v>
+        <v>369.65</v>
       </c>
       <c r="C48" t="n">
-        <v>308</v>
+        <v>385.85</v>
       </c>
       <c r="D48" t="n">
-        <v>3.34</v>
+        <v>4.38</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>306.3</v>
+        <v>388.1</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-0.55</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>JTLIND</t>
+          <t>OMKARCHEM</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>59.99</v>
+        <v>5.26</v>
       </c>
       <c r="C49" t="n">
-        <v>61.97</v>
+        <v>5.49</v>
       </c>
       <c r="D49" t="n">
-        <v>3.3</v>
+        <v>4.37</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>59.94</v>
+        <v>5.2</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-3.28</v>
+        <v>-5.28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>AKI</t>
+          <t>DHAMPURSUG</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8.08</v>
+        <v>132.34</v>
       </c>
       <c r="C50" t="n">
-        <v>8.34</v>
+        <v>138</v>
       </c>
       <c r="D50" t="n">
-        <v>3.22</v>
+        <v>4.28</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>8.08</v>
+        <v>138.56</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-3.12</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SUNLITE</t>
+          <t>MADHUCON</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>240.25</v>
+        <v>7.06</v>
       </c>
       <c r="C51" t="n">
-        <v>247.95</v>
+        <v>7.36</v>
       </c>
       <c r="D51" t="n">
-        <v>3.2</v>
+        <v>4.25</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>234</v>
+        <v>6.93</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-5.63</v>
+        <v>-5.84</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DBSTOCKBRO</t>
+          <t>SGL</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>25</v>
+        <v>14.49</v>
       </c>
       <c r="C52" t="n">
-        <v>25.8</v>
+        <v>15.1</v>
       </c>
       <c r="D52" t="n">
-        <v>3.2</v>
+        <v>4.21</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>24.8</v>
+        <v>14.95</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-3.88</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>DJML</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>19.41</v>
+        <v>82.53</v>
       </c>
       <c r="C53" t="n">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="D53" t="n">
-        <v>3.04</v>
+        <v>4.2</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>19.18</v>
+        <v>82.2</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-4.1</v>
+        <v>-4.42</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SHAH</t>
+          <t>BIL</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>4.3</v>
+        <v>849.5</v>
       </c>
       <c r="C54" t="n">
-        <v>4.42</v>
+        <v>885</v>
       </c>
       <c r="D54" t="n">
-        <v>2.79</v>
+        <v>4.18</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>4.3</v>
+        <v>856.6</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-2.71</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>TIJARIA</t>
+          <t>RAMASTEEL</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>5.73</v>
+        <v>10.54</v>
       </c>
       <c r="C55" t="n">
-        <v>5.89</v>
+        <v>10.98</v>
       </c>
       <c r="D55" t="n">
-        <v>2.79</v>
+        <v>4.17</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>5.8</v>
+        <v>10.78</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-1.53</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NESCO</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1244.8</v>
+        <v>123.3</v>
       </c>
       <c r="C56" t="n">
-        <v>1279.2</v>
+        <v>128.4</v>
       </c>
       <c r="D56" t="n">
-        <v>2.76</v>
+        <v>4.14</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1283.5</v>
+        <v>124.5</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>0.34</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>RAIN</t>
+          <t>TIJARIA</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>134.79</v>
+        <v>6.12</v>
       </c>
       <c r="C57" t="n">
-        <v>138.5</v>
+        <v>6.37</v>
       </c>
       <c r="D57" t="n">
-        <v>2.75</v>
+        <v>4.08</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>135.51</v>
+        <v>6.26</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-2.16</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>UNIVASTU</t>
+          <t>QUINTEGRA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>69.81</v>
+        <v>1.72</v>
       </c>
       <c r="C58" t="n">
-        <v>71.7</v>
+        <v>1.79</v>
       </c>
       <c r="D58" t="n">
-        <v>2.71</v>
+        <v>4.07</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>69.98999999999999</v>
+        <v>1.79</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-2.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NURECA</t>
+          <t>KODYTECH</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>271.2</v>
+        <v>667.25</v>
       </c>
       <c r="C59" t="n">
-        <v>278.45</v>
+        <v>694</v>
       </c>
       <c r="D59" t="n">
-        <v>2.67</v>
+        <v>4.01</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>274</v>
+        <v>688</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-1.6</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EXCEL</t>
+          <t>MVKAGRO</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.52</v>
+        <v>576.95</v>
       </c>
       <c r="C60" t="n">
-        <v>1.56</v>
+        <v>600</v>
       </c>
       <c r="D60" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>1.55</v>
+        <v>601</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-0.64</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>JHS</t>
+          <t>KAYA</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>12.22</v>
+        <v>422.6</v>
       </c>
       <c r="C61" t="n">
-        <v>12.54</v>
+        <v>439</v>
       </c>
       <c r="D61" t="n">
-        <v>2.62</v>
+        <v>3.88</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>12.49</v>
+        <v>433</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-0.4</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DJML</t>
+          <t>RPPL</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>83.52</v>
+        <v>18.92</v>
       </c>
       <c r="C62" t="n">
-        <v>85.7</v>
+        <v>19.65</v>
       </c>
       <c r="D62" t="n">
-        <v>2.61</v>
+        <v>3.86</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>82.8</v>
+        <v>19.12</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-3.38</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GANGAFORGE</t>
+          <t>DHARAN</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>3.45</v>
+        <v>0.52</v>
       </c>
       <c r="C63" t="n">
-        <v>3.54</v>
+        <v>0.54</v>
       </c>
       <c r="D63" t="n">
-        <v>2.61</v>
+        <v>3.85</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>3.49</v>
+        <v>0.54</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-1.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CENTRUM</t>
+          <t>SUPREMEINF</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>34.81</v>
+        <v>92.92</v>
       </c>
       <c r="C64" t="n">
-        <v>35.7</v>
+        <v>96.5</v>
       </c>
       <c r="D64" t="n">
-        <v>2.56</v>
+        <v>3.85</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>34.77</v>
+        <v>97</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-2.61</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SAKAR</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>390.1</v>
+        <v>566.4</v>
       </c>
       <c r="C65" t="n">
-        <v>400</v>
+        <v>587.95</v>
       </c>
       <c r="D65" t="n">
-        <v>2.54</v>
+        <v>3.8</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>398.65</v>
+        <v>596.3</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-0.34</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NOIDATOLL</t>
+          <t>SBC</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>4.34</v>
+        <v>24.61</v>
       </c>
       <c r="C66" t="n">
-        <v>4.45</v>
+        <v>25.54</v>
       </c>
       <c r="D66" t="n">
-        <v>2.53</v>
+        <v>3.78</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>4.3</v>
+        <v>25.29</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-3.37</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ALPHAGEO</t>
+          <t>JEYYAM</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>252</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>258.3</v>
+        <v>72</v>
       </c>
       <c r="D67" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>249.15</v>
+        <v>69.75</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-3.54</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PRAENG</t>
+          <t>CUPID</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>30.12</v>
+        <v>260.38</v>
       </c>
       <c r="C68" t="n">
-        <v>30.87</v>
+        <v>270</v>
       </c>
       <c r="D68" t="n">
-        <v>2.49</v>
+        <v>3.69</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>29.49</v>
+        <v>265.31</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-4.47</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SHAHALLOYS</t>
+          <t>CRAFTSMAN</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>78.06999999999999</v>
+        <v>6770.5</v>
       </c>
       <c r="C69" t="n">
-        <v>79.98</v>
+        <v>7019.5</v>
       </c>
       <c r="D69" t="n">
-        <v>2.45</v>
+        <v>3.68</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>76.39</v>
+        <v>6650</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-4.49</v>
+        <v>-5.26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>OSWALSEEDS</t>
+          <t>NOIDATOLL</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>15.27</v>
+        <v>4.38</v>
       </c>
       <c r="C70" t="n">
-        <v>15.64</v>
+        <v>4.54</v>
       </c>
       <c r="D70" t="n">
-        <v>2.42</v>
+        <v>3.65</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>14.91</v>
+        <v>4.44</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-4.67</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FLAIR</t>
+          <t>BOHRAIND</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>330</v>
+        <v>20.07</v>
       </c>
       <c r="C71" t="n">
-        <v>338</v>
+        <v>20.8</v>
       </c>
       <c r="D71" t="n">
-        <v>2.42</v>
+        <v>3.64</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>327.35</v>
+        <v>20.74</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-3.15</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ORCHASP</t>
+          <t>SOUTHWEST</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>3.35</v>
+        <v>173.64</v>
       </c>
       <c r="C72" t="n">
-        <v>3.43</v>
+        <v>179.94</v>
       </c>
       <c r="D72" t="n">
-        <v>2.39</v>
+        <v>3.63</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>3.35</v>
+        <v>189.09</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-2.33</v>
+        <v>5.09</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>KRITI</t>
+          <t>DHARIWAL</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>112.06</v>
+        <v>300.15</v>
       </c>
       <c r="C73" t="n">
-        <v>114.7</v>
+        <v>311</v>
       </c>
       <c r="D73" t="n">
-        <v>2.36</v>
+        <v>3.61</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>113.86</v>
+        <v>307</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-0.73</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SGLTL</t>
+          <t>KHANDSE</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>168.81</v>
+        <v>22.49</v>
       </c>
       <c r="C74" t="n">
-        <v>172.8</v>
+        <v>23.3</v>
       </c>
       <c r="D74" t="n">
-        <v>2.36</v>
+        <v>3.6</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>167.52</v>
+        <v>23</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-3.06</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>CPPLUS</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>128</v>
+        <v>1534.9</v>
       </c>
       <c r="C75" t="n">
-        <v>130.99</v>
+        <v>1589.9</v>
       </c>
       <c r="D75" t="n">
-        <v>2.34</v>
+        <v>3.58</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>128.99</v>
+        <v>1541.2</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-1.53</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SUTLEJTEX</t>
+          <t>SHEKHAWATI</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>33.41</v>
+        <v>20.17</v>
       </c>
       <c r="C76" t="n">
-        <v>34.19</v>
+        <v>20.89</v>
       </c>
       <c r="D76" t="n">
-        <v>2.33</v>
+        <v>3.57</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>33.52</v>
+        <v>20.74</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-1.96</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KRIDHANINF</t>
+          <t>TOTAL</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>3.52</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C77" t="n">
-        <v>3.6</v>
+        <v>68.5</v>
       </c>
       <c r="D77" t="n">
-        <v>2.27</v>
+        <v>3.55</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>3.52</v>
+        <v>69.03</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-2.22</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>IRIS</t>
+          <t>FLEXITUFF</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>352.05</v>
+        <v>18.34</v>
       </c>
       <c r="C78" t="n">
-        <v>360</v>
+        <v>18.99</v>
       </c>
       <c r="D78" t="n">
-        <v>2.26</v>
+        <v>3.54</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>350.15</v>
+        <v>18.99</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-2.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>IEML</t>
+          <t>ELECTHERM</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>95.84999999999999</v>
+        <v>984.35</v>
       </c>
       <c r="C79" t="n">
-        <v>98</v>
+        <v>1019</v>
       </c>
       <c r="D79" t="n">
-        <v>2.24</v>
+        <v>3.52</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>98</v>
+        <v>970</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>-4.81</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>THOMASCOTT</t>
+          <t>BAJAJHIND</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>399.1</v>
+        <v>21.13</v>
       </c>
       <c r="C80" t="n">
-        <v>408</v>
+        <v>21.87</v>
       </c>
       <c r="D80" t="n">
-        <v>2.23</v>
+        <v>3.5</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>410.25</v>
+        <v>21.85</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>0.55</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.9</v>
+        <v>41.55</v>
       </c>
       <c r="C81" t="n">
-        <v>0.92</v>
+        <v>43</v>
       </c>
       <c r="D81" t="n">
-        <v>2.22</v>
+        <v>3.49</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0.92</v>
+        <v>42.75</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>VINEETLAB</t>
+          <t>GTL</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>44.62</v>
+        <v>8.94</v>
       </c>
       <c r="C82" t="n">
-        <v>45.6</v>
+        <v>9.25</v>
       </c>
       <c r="D82" t="n">
-        <v>2.2</v>
+        <v>3.47</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>45.22</v>
+        <v>9.08</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-0.83</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FILATFASH</t>
+          <t>TNTELE</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.46</v>
+        <v>11.59</v>
       </c>
       <c r="C83" t="n">
-        <v>0.47</v>
+        <v>11.99</v>
       </c>
       <c r="D83" t="n">
-        <v>2.17</v>
+        <v>3.45</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>0.46</v>
+        <v>11.59</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-2.13</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>KAPSTON</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>140.9</v>
+        <v>299.7</v>
       </c>
       <c r="C84" t="n">
-        <v>143.89</v>
+        <v>310</v>
       </c>
       <c r="D84" t="n">
-        <v>2.12</v>
+        <v>3.44</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>141.29</v>
+        <v>312.3</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-1.81</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AKG</t>
+          <t>KERNEX</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>12.52</v>
+        <v>1276.9</v>
       </c>
       <c r="C85" t="n">
-        <v>12.78</v>
+        <v>1320</v>
       </c>
       <c r="D85" t="n">
-        <v>2.08</v>
+        <v>3.38</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>12.48</v>
+        <v>1351.4</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-2.35</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CUBEXTUB</t>
+          <t>HONDAPOWER</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>90.56</v>
+        <v>2515.1</v>
       </c>
       <c r="C86" t="n">
-        <v>92.44</v>
+        <v>2599.8</v>
       </c>
       <c r="D86" t="n">
-        <v>2.08</v>
+        <v>3.37</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>90.27</v>
+        <v>2565.1</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-2.35</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HAVISHA</t>
+          <t>SUPERSPIN</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>1.94</v>
+        <v>9.31</v>
       </c>
       <c r="C87" t="n">
-        <v>1.98</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>2.06</v>
+        <v>3.33</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>1.9</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-4.04</v>
+        <v>-5.3</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SIKKO</t>
+          <t>MOL</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>112.42</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="C88" t="n">
-        <v>114.7</v>
+        <v>77</v>
       </c>
       <c r="D88" t="n">
-        <v>2.03</v>
+        <v>3.26</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>114</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-0.61</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ZUARI</t>
+          <t>UGARSUGAR</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>239.2</v>
+        <v>41.33</v>
       </c>
       <c r="C89" t="n">
-        <v>244.05</v>
+        <v>42.67</v>
       </c>
       <c r="D89" t="n">
-        <v>2.03</v>
+        <v>3.24</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>244.05</v>
+        <v>42.1</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>RKSWAMY</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>127.41</v>
+        <v>213.14</v>
       </c>
       <c r="C90" t="n">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="D90" t="n">
-        <v>2.03</v>
+        <v>3.22</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>128.58</v>
+        <v>215</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-1.09</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>UTTAMSUGAR</t>
+          <t>BBTCL</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>238.98</v>
+        <v>191.85</v>
       </c>
       <c r="C91" t="n">
-        <v>243.8</v>
+        <v>198</v>
       </c>
       <c r="D91" t="n">
-        <v>2.02</v>
+        <v>3.21</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>238.6</v>
+        <v>192.5</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-2.13</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NEXTMEDIA</t>
+          <t>FOCUS</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>6.42</v>
+        <v>81.39</v>
       </c>
       <c r="C92" t="n">
-        <v>6.55</v>
+        <v>84</v>
       </c>
       <c r="D92" t="n">
-        <v>2.02</v>
+        <v>3.21</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>7.36</v>
+        <v>83</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>12.37</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>EFFWA</t>
+          <t>DANGEE</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>235.3</v>
+        <v>4.1</v>
       </c>
       <c r="C93" t="n">
-        <v>240</v>
+        <v>4.23</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>3.17</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>231.05</v>
+        <v>4.13</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-3.73</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BVCL</t>
+          <t>SUMEETINDS</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>45.49</v>
+        <v>35.86</v>
       </c>
       <c r="C94" t="n">
-        <v>46.4</v>
+        <v>36.98</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>3.12</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>45.01</v>
+        <v>36.5</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-3</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>VSTL</t>
+          <t>MAGADSUGAR</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>142.36</v>
+        <v>528.55</v>
       </c>
       <c r="C95" t="n">
-        <v>145.2</v>
+        <v>545</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99</v>
+        <v>3.11</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>142.91</v>
+        <v>548.15</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-1.58</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MODIRUBBER</t>
+          <t>BLUECOAST</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>122.56</v>
+        <v>49.46</v>
       </c>
       <c r="C96" t="n">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="D96" t="n">
-        <v>1.99</v>
+        <v>3.11</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>122</v>
+        <v>48.3</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-2.4</v>
+        <v>-5.29</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BPL</t>
+          <t>FINPIPE</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>71.97</v>
+        <v>185.26</v>
       </c>
       <c r="C97" t="n">
-        <v>73.39</v>
+        <v>191</v>
       </c>
       <c r="D97" t="n">
-        <v>1.97</v>
+        <v>3.1</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>71.28</v>
+        <v>186.36</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-2.88</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>WONDERLA</t>
+          <t>BEDMUTHA</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>560.95</v>
+        <v>125.13</v>
       </c>
       <c r="C98" t="n">
-        <v>571.95</v>
+        <v>129</v>
       </c>
       <c r="D98" t="n">
-        <v>1.96</v>
+        <v>3.09</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>552.1</v>
+        <v>127.5</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-3.47</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SAURASHCEM</t>
+          <t>AVADHSUGAR</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>99.45999999999999</v>
+        <v>410.3</v>
       </c>
       <c r="C99" t="n">
-        <v>101.4</v>
+        <v>422.95</v>
       </c>
       <c r="D99" t="n">
-        <v>1.95</v>
+        <v>3.08</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>99.55</v>
+        <v>421</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-1.82</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TREJHARA</t>
+          <t>SANDUMA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>242.28</v>
+        <v>204.74</v>
       </c>
       <c r="C100" t="n">
-        <v>247</v>
+        <v>211</v>
       </c>
       <c r="D100" t="n">
-        <v>1.95</v>
+        <v>3.06</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>246</v>
+        <v>213.5</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-0.4</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GVPTECH</t>
+          <t>AARTIDRUGS</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.27</v>
+        <v>491.45</v>
       </c>
       <c r="C101" t="n">
-        <v>9.449999999999999</v>
+        <v>506.5</v>
       </c>
       <c r="D101" t="n">
-        <v>1.94</v>
+        <v>3.06</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>9.210000000000001</v>
+        <v>525.45</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-2.54</v>
+        <v>3.74</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CUMMINSIND</t>
+          <t>CCCL</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>4316.1</v>
+        <v>20.25</v>
       </c>
       <c r="C102" t="n">
-        <v>4399.9</v>
+        <v>20.87</v>
       </c>
       <c r="D102" t="n">
-        <v>1.94</v>
+        <v>3.06</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>4348.2</v>
+        <v>20.25</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-1.18</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>AHLADA</t>
+          <t>JSWCEMENT</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>57.73</v>
+        <v>127.67</v>
       </c>
       <c r="C103" t="n">
-        <v>58.85</v>
+        <v>131.5</v>
       </c>
       <c r="D103" t="n">
-        <v>1.94</v>
+        <v>3</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>56.6</v>
+        <v>129.42</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-3.82</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>IVP</t>
+          <t>APEX</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>175.61</v>
+        <v>233.52</v>
       </c>
       <c r="C104" t="n">
-        <v>179</v>
+        <v>240.49</v>
       </c>
       <c r="D104" t="n">
-        <v>1.93</v>
+        <v>2.98</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>174</v>
+        <v>245.7</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-2.79</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>DAMODARIND</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.53</v>
+        <v>33.11</v>
       </c>
       <c r="C105" t="n">
-        <v>0.54</v>
+        <v>34.09</v>
       </c>
       <c r="D105" t="n">
-        <v>1.89</v>
+        <v>2.96</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.52</v>
+        <v>33.2</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-3.7</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AMNPLST</t>
+          <t>NGLFINE</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>209.14</v>
+        <v>1485.5</v>
       </c>
       <c r="C106" t="n">
-        <v>213</v>
+        <v>1529</v>
       </c>
       <c r="D106" t="n">
-        <v>1.85</v>
+        <v>2.93</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>207.9</v>
+        <v>1493.1</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-2.39</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ANTGRAPHIC</t>
+          <t>NYKAA</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1.08</v>
+        <v>245.87</v>
       </c>
       <c r="C107" t="n">
-        <v>1.1</v>
+        <v>253.02</v>
       </c>
       <c r="D107" t="n">
-        <v>1.85</v>
+        <v>2.91</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1.04</v>
+        <v>254.62</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-5.45</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BEARDSELL</t>
+          <t>GANGAFORGE</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>34.66</v>
+        <v>3.47</v>
       </c>
       <c r="C108" t="n">
-        <v>35.3</v>
+        <v>3.57</v>
       </c>
       <c r="D108" t="n">
-        <v>1.85</v>
+        <v>2.88</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>34.54</v>
+        <v>3.5</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-2.15</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SHRENIK</t>
+          <t>INNOVANA</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.54</v>
+        <v>481.85</v>
       </c>
       <c r="C109" t="n">
-        <v>0.55</v>
+        <v>495.5</v>
       </c>
       <c r="D109" t="n">
-        <v>1.85</v>
+        <v>2.83</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>0.54</v>
+        <v>485</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-1.82</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>KRITIKA</t>
+          <t>COUNCODOS</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>8.140000000000001</v>
+        <v>6.07</v>
       </c>
       <c r="C110" t="n">
-        <v>8.289999999999999</v>
+        <v>6.24</v>
       </c>
       <c r="D110" t="n">
-        <v>1.84</v>
+        <v>2.8</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>8.15</v>
+        <v>6.09</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-1.69</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>HPL</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>2.72</v>
+        <v>421.1</v>
       </c>
       <c r="C111" t="n">
-        <v>2.77</v>
+        <v>432.85</v>
       </c>
       <c r="D111" t="n">
-        <v>1.84</v>
+        <v>2.79</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>2.74</v>
+        <v>459.65</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-1.08</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WELENT</t>
+          <t>WEALTH</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>548.05</v>
+        <v>1064.3</v>
       </c>
       <c r="C112" t="n">
-        <v>558.1</v>
+        <v>1094</v>
       </c>
       <c r="D112" t="n">
-        <v>1.83</v>
+        <v>2.79</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>556.55</v>
+        <v>1080.9</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-0.28</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>AJAXENGG</t>
+          <t>VGL</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>581.1</v>
+        <v>148.87</v>
       </c>
       <c r="C113" t="n">
-        <v>591.65</v>
+        <v>152.99</v>
       </c>
       <c r="D113" t="n">
-        <v>1.82</v>
+        <v>2.77</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>575</v>
+        <v>154</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-2.81</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MAXVOLT</t>
+          <t>NATIONALUM</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>349.75</v>
+        <v>234.73</v>
       </c>
       <c r="C114" t="n">
-        <v>356</v>
+        <v>241.15</v>
       </c>
       <c r="D114" t="n">
-        <v>1.79</v>
+        <v>2.74</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>354</v>
+        <v>254</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-0.5600000000000001</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>GILLANDERS</t>
+          <t>NECLIFE</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>119.85</v>
+        <v>14.68</v>
       </c>
       <c r="C115" t="n">
-        <v>122</v>
+        <v>15.08</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79</v>
+        <v>2.72</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>122</v>
+        <v>15.12</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CINELINE</t>
+          <t>ORIENTALTL</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>88.65000000000001</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>90.22</v>
+        <v>9.9</v>
       </c>
       <c r="D116" t="n">
-        <v>1.77</v>
+        <v>2.7</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>87.59999999999999</v>
+        <v>9.74</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-2.9</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MUFIN</t>
+          <t>DWARKESH</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>121.5</v>
+        <v>41.94</v>
       </c>
       <c r="C117" t="n">
-        <v>123.64</v>
+        <v>43.05</v>
       </c>
       <c r="D117" t="n">
-        <v>1.76</v>
+        <v>2.65</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>120.46</v>
+        <v>43.26</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-2.57</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>GMBREW</t>
+          <t>UTTAMSUGAR</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1224.2</v>
+        <v>235.66</v>
       </c>
       <c r="C118" t="n">
-        <v>1245.8</v>
+        <v>241.9</v>
       </c>
       <c r="D118" t="n">
-        <v>1.76</v>
+        <v>2.65</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1217.4</v>
+        <v>242.16</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-2.28</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>DPSCLTD</t>
+          <t>JAINREC</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>11.55</v>
+        <v>385.85</v>
       </c>
       <c r="C119" t="n">
-        <v>11.75</v>
+        <v>395.95</v>
       </c>
       <c r="D119" t="n">
-        <v>1.73</v>
+        <v>2.62</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>11.65</v>
+        <v>405.7</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-0.85</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>BIL</t>
+          <t>NSIL</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>855.25</v>
+        <v>6812.5</v>
       </c>
       <c r="C120" t="n">
-        <v>870</v>
+        <v>6990</v>
       </c>
       <c r="D120" t="n">
-        <v>1.72</v>
+        <v>2.61</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>867</v>
+        <v>7025</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-0.34</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ARSHIYA</t>
+          <t>BANARISUG</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>1.76</v>
+        <v>3601.1</v>
       </c>
       <c r="C121" t="n">
-        <v>1.79</v>
+        <v>3695</v>
       </c>
       <c r="D121" t="n">
-        <v>1.7</v>
+        <v>2.61</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>1.79</v>
+        <v>3652</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>JUNIPER</t>
+          <t>ROSSELLIND</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>260.55</v>
+        <v>60.15</v>
       </c>
       <c r="C122" t="n">
-        <v>264.95</v>
+        <v>61.7</v>
       </c>
       <c r="D122" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>257.55</v>
+        <v>60.15</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-2.79</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ROSSELLIND</t>
+          <t>BLBLIMITED</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>60.33</v>
+        <v>17.04</v>
       </c>
       <c r="C123" t="n">
-        <v>61.35</v>
+        <v>17.48</v>
       </c>
       <c r="D123" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>59.73</v>
+        <v>17.04</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-2.64</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>K2INFRA</t>
+          <t>KOTHARIPRO</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>56.05</v>
+        <v>89.13</v>
       </c>
       <c r="C124" t="n">
-        <v>57</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>1.69</v>
+        <v>2.55</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>57</v>
+        <v>89.94</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GNA</t>
+          <t>FABTECH</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>314.7</v>
+        <v>243.88</v>
       </c>
       <c r="C125" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="D125" t="n">
-        <v>1.68</v>
+        <v>2.51</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>312.7</v>
+        <v>242.61</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-2.28</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>FABTECH</t>
+          <t>RATNAMANI</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>232.13</v>
+        <v>2409.5</v>
       </c>
       <c r="C126" t="n">
-        <v>236.01</v>
+        <v>2470</v>
       </c>
       <c r="D126" t="n">
-        <v>1.67</v>
+        <v>2.51</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>230.61</v>
+        <v>2438</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-2.29</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>KSOLVES</t>
+          <t>DIVINEHIRA</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>317.7</v>
+        <v>122</v>
       </c>
       <c r="C127" t="n">
-        <v>323</v>
+        <v>125.05</v>
       </c>
       <c r="D127" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>315.4</v>
+        <v>125.05</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-2.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GSS</t>
+          <t>IL&amp;FSENGG</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>23.99</v>
+        <v>26.76</v>
       </c>
       <c r="C128" t="n">
-        <v>24.39</v>
+        <v>27.42</v>
       </c>
       <c r="D128" t="n">
-        <v>1.67</v>
+        <v>2.47</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
-      <c r="F128" t="n">
-        <v>23.9</v>
-      </c>
+      <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="n">
-        <v>-2.01</v>
-      </c>
+      <c r="H128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ICDSLTD</t>
+          <t>GTECJAINX</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>48.2</v>
+        <v>22.67</v>
       </c>
       <c r="C129" t="n">
-        <v>49</v>
+        <v>23.23</v>
       </c>
       <c r="D129" t="n">
-        <v>1.66</v>
+        <v>2.47</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>49</v>
+        <v>23.23</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
@@ -3806,1873 +3802,1869 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>DGCONTENT</t>
+          <t>ANANTRAJ</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>38.22</v>
+        <v>619.85</v>
       </c>
       <c r="C130" t="n">
-        <v>38.85</v>
+        <v>635.1</v>
       </c>
       <c r="D130" t="n">
-        <v>1.65</v>
+        <v>2.46</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>36.6</v>
+        <v>636</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-5.79</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>STEELCITY</t>
+          <t>VISHWARAJ</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>98.38</v>
+        <v>7.71</v>
       </c>
       <c r="C131" t="n">
-        <v>100</v>
+        <v>7.9</v>
       </c>
       <c r="D131" t="n">
-        <v>1.65</v>
+        <v>2.46</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>99.5</v>
+        <v>7.89</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-0.5</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>COUNCODOS</t>
+          <t>DRCSYSTEMS</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>6.15</v>
+        <v>19.04</v>
       </c>
       <c r="C132" t="n">
-        <v>6.25</v>
+        <v>19.5</v>
       </c>
       <c r="D132" t="n">
-        <v>1.63</v>
+        <v>2.42</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>6.05</v>
+        <v>19.05</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-3.2</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SHEKHAWATI</t>
+          <t>AGROPHOS</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>20.6</v>
+        <v>42.76</v>
       </c>
       <c r="C133" t="n">
-        <v>20.93</v>
+        <v>43.79</v>
       </c>
       <c r="D133" t="n">
-        <v>1.6</v>
+        <v>2.41</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>20.31</v>
+        <v>41.92</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-2.96</v>
+        <v>-4.27</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>AARTECH</t>
+          <t>SEQUENT</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>53.45</v>
+        <v>214.79</v>
       </c>
       <c r="C134" t="n">
-        <v>54.3</v>
+        <v>219.89</v>
       </c>
       <c r="D134" t="n">
-        <v>1.59</v>
+        <v>2.37</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>54.29</v>
+        <v>215.37</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-0.02</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SUNDARAM</t>
+          <t>VIPCLOTHNG</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1.89</v>
+        <v>35.07</v>
       </c>
       <c r="C135" t="n">
-        <v>1.92</v>
+        <v>35.9</v>
       </c>
       <c r="D135" t="n">
-        <v>1.59</v>
+        <v>2.37</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1.9</v>
+        <v>35.39</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-1.04</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>DCM</t>
+          <t>EBGNG</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>91.56</v>
+        <v>337.55</v>
       </c>
       <c r="C136" t="n">
-        <v>93</v>
+        <v>345.55</v>
       </c>
       <c r="D136" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>91.12</v>
+        <v>353.7</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-2.02</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>GENUSPOWER</t>
+          <t>SAKHTISUG</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>354.45</v>
+        <v>19.93</v>
       </c>
       <c r="C137" t="n">
-        <v>360</v>
+        <v>20.4</v>
       </c>
       <c r="D137" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>355.65</v>
+        <v>20.56</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-1.21</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TAINWALCHM</t>
+          <t>KDL</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>199.86</v>
+        <v>173.9</v>
       </c>
       <c r="C138" t="n">
-        <v>203</v>
+        <v>178</v>
       </c>
       <c r="D138" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>BHANDARI</t>
+          <t>INTERARCH</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>4.49</v>
+        <v>2520.7</v>
       </c>
       <c r="C139" t="n">
-        <v>4.56</v>
+        <v>2580</v>
       </c>
       <c r="D139" t="n">
-        <v>1.56</v>
+        <v>2.35</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>4.53</v>
+        <v>2674</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-0.66</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SYNCOMF</t>
+          <t>UNIVPHOTO</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>16.09</v>
+        <v>268.65</v>
       </c>
       <c r="C140" t="n">
-        <v>16.34</v>
+        <v>274.95</v>
       </c>
       <c r="D140" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>16</v>
+        <v>274.75</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-2.08</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>896.1</v>
+        <v>141.67</v>
       </c>
       <c r="C141" t="n">
-        <v>910</v>
+        <v>145</v>
       </c>
       <c r="D141" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>905.9</v>
+        <v>141.41</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-0.45</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SJLOGISTIC</t>
+          <t>RITCO</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>344.6</v>
+        <v>256.8</v>
       </c>
       <c r="C142" t="n">
-        <v>349.9</v>
+        <v>262.8</v>
       </c>
       <c r="D142" t="n">
-        <v>1.54</v>
+        <v>2.34</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>335</v>
+        <v>254.45</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-4.26</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>STEL</t>
+          <t>SMCGLOBAL</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>410.2</v>
+        <v>130.93</v>
       </c>
       <c r="C143" t="n">
-        <v>416.45</v>
+        <v>134</v>
       </c>
       <c r="D143" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>411.1</v>
+        <v>135.99</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-1.28</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CPCAP</t>
+          <t>KOHINOOR</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>118.01</v>
+        <v>31.15</v>
       </c>
       <c r="C144" t="n">
-        <v>119.8</v>
+        <v>31.88</v>
       </c>
       <c r="D144" t="n">
-        <v>1.52</v>
+        <v>2.34</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>117.77</v>
+        <v>30.97</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-1.69</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>OAL</t>
+          <t>SITINET</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>347.45</v>
+        <v>0.43</v>
       </c>
       <c r="C145" t="n">
-        <v>352.7</v>
+        <v>0.44</v>
       </c>
       <c r="D145" t="n">
-        <v>1.51</v>
+        <v>2.33</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>344.6</v>
+        <v>0.43</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-2.3</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>LINC</t>
+          <t>NAHARINDUS</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>125.56</v>
+        <v>110.92</v>
       </c>
       <c r="C146" t="n">
-        <v>127.45</v>
+        <v>113.5</v>
       </c>
       <c r="D146" t="n">
-        <v>1.51</v>
+        <v>2.33</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>126.43</v>
+        <v>110.68</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-0.8</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>MINDACORP</t>
+          <t>NIPPOBATRY</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>573.35</v>
+        <v>439.35</v>
       </c>
       <c r="C147" t="n">
-        <v>582</v>
+        <v>449.5</v>
       </c>
       <c r="D147" t="n">
-        <v>1.51</v>
+        <v>2.31</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>611.1</v>
+        <v>439.65</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>5</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>INDIGOPNTS</t>
+          <t>COMSYN</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>990.8</v>
+        <v>159.83</v>
       </c>
       <c r="C148" t="n">
-        <v>1005.65</v>
+        <v>163.5</v>
       </c>
       <c r="D148" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>996.4</v>
+        <v>159.11</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-0.92</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RPTECH</t>
+          <t>LORDSCHLO</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>334.5</v>
+        <v>219.37</v>
       </c>
       <c r="C149" t="n">
-        <v>339.5</v>
+        <v>224.4</v>
       </c>
       <c r="D149" t="n">
-        <v>1.49</v>
+        <v>2.29</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>334.45</v>
+        <v>223</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-1.49</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VISHNU</t>
+          <t>AIAENG</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>502.5</v>
+        <v>3256.2</v>
       </c>
       <c r="C150" t="n">
-        <v>510</v>
+        <v>3330</v>
       </c>
       <c r="D150" t="n">
-        <v>1.49</v>
+        <v>2.27</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>496.85</v>
+        <v>3385.6</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-2.58</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RUCHINFRA</t>
+          <t>INDORAMA</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>7.36</v>
+        <v>68.63</v>
       </c>
       <c r="C151" t="n">
-        <v>7.47</v>
+        <v>70.19</v>
       </c>
       <c r="D151" t="n">
-        <v>1.49</v>
+        <v>2.27</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>7.4</v>
+        <v>68.87</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BRNL</t>
+          <t>SGIL</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>24.34</v>
+        <v>543.6</v>
       </c>
       <c r="C152" t="n">
-        <v>24.7</v>
+        <v>555.95</v>
       </c>
       <c r="D152" t="n">
-        <v>1.48</v>
+        <v>2.27</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>24.25</v>
+        <v>543.5</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-1.82</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>MAANALU</t>
+          <t>SHAILY</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>138.84</v>
+        <v>2475.9</v>
       </c>
       <c r="C153" t="n">
-        <v>140.9</v>
+        <v>2532</v>
       </c>
       <c r="D153" t="n">
-        <v>1.48</v>
+        <v>2.27</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>140</v>
+        <v>2372.8</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-0.64</v>
+        <v>-6.29</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>NIRAJ</t>
+          <t>BASML</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>28.48</v>
+        <v>26.89</v>
       </c>
       <c r="C154" t="n">
-        <v>28.9</v>
+        <v>27.5</v>
       </c>
       <c r="D154" t="n">
-        <v>1.47</v>
+        <v>2.27</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>28.4</v>
+        <v>26.69</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-1.73</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>LUPIN</t>
+          <t>DENTA</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1955.5</v>
+        <v>409.75</v>
       </c>
       <c r="C155" t="n">
-        <v>1984</v>
+        <v>419</v>
       </c>
       <c r="D155" t="n">
-        <v>1.46</v>
+        <v>2.26</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1979.4</v>
+        <v>413.45</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-0.23</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SIGMA</t>
+          <t>MFML</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>55.18</v>
+        <v>27.84</v>
       </c>
       <c r="C156" t="n">
-        <v>55.98</v>
+        <v>28.47</v>
       </c>
       <c r="D156" t="n">
-        <v>1.45</v>
+        <v>2.26</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>55.69</v>
+        <v>28.46</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-0.52</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>UGARSUGAR</t>
+          <t>SHERA</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>42.14</v>
+        <v>133</v>
       </c>
       <c r="C157" t="n">
-        <v>42.75</v>
+        <v>136</v>
       </c>
       <c r="D157" t="n">
-        <v>1.45</v>
+        <v>2.26</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>42.01</v>
+        <v>136.45</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-1.73</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>OSWALAGRO</t>
+          <t>TRU</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>67.33</v>
+        <v>9.83</v>
       </c>
       <c r="C158" t="n">
-        <v>68.3</v>
+        <v>10.05</v>
       </c>
       <c r="D158" t="n">
-        <v>1.44</v>
+        <v>2.24</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>67.62</v>
+        <v>10</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>FIBERWEB</t>
+          <t>TORNTPHARM</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>42.29</v>
+        <v>3580</v>
       </c>
       <c r="C159" t="n">
-        <v>42.9</v>
+        <v>3660</v>
       </c>
       <c r="D159" t="n">
-        <v>1.44</v>
+        <v>2.23</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>42.37</v>
+        <v>3725.5</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-1.24</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>ISHANCH</t>
+          <t>BAJAJINDEF</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>73.64</v>
+        <v>371.6</v>
       </c>
       <c r="C160" t="n">
-        <v>74.7</v>
+        <v>379.9</v>
       </c>
       <c r="D160" t="n">
-        <v>1.44</v>
+        <v>2.23</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>74.7</v>
+        <v>375.85</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>KCEIL</t>
+          <t>PIGL</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>185.35</v>
+        <v>148.23</v>
       </c>
       <c r="C161" t="n">
-        <v>188</v>
+        <v>151.5</v>
       </c>
       <c r="D161" t="n">
-        <v>1.43</v>
+        <v>2.21</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>187</v>
+        <v>153.69</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-0.53</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HILINFRA</t>
+          <t>ADFFOODS</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>73.95</v>
+        <v>232.49</v>
       </c>
       <c r="C162" t="n">
-        <v>75</v>
+        <v>237.6</v>
       </c>
       <c r="D162" t="n">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>74.28</v>
+        <v>227.64</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-0.96</v>
+        <v>-4.19</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HOACFOODS</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>275.15</v>
+        <v>0.91</v>
       </c>
       <c r="C163" t="n">
-        <v>279</v>
+        <v>0.93</v>
       </c>
       <c r="D163" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>279</v>
+        <v>0.92</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SBGLP</t>
+          <t>SIYSIL</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>33.49</v>
+        <v>781.9</v>
       </c>
       <c r="C164" t="n">
-        <v>33.96</v>
+        <v>798.95</v>
       </c>
       <c r="D164" t="n">
-        <v>1.4</v>
+        <v>2.18</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>33.07</v>
+        <v>808.45</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>-2.62</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>BHAGYANGR</t>
+          <t>NITCO</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>126.25</v>
+        <v>93.45999999999999</v>
       </c>
       <c r="C165" t="n">
-        <v>128</v>
+        <v>95.5</v>
       </c>
       <c r="D165" t="n">
-        <v>1.39</v>
+        <v>2.18</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>125.5</v>
+        <v>92.66</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-1.95</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LAXMICOT</t>
+          <t>GANGESSECU</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>21</v>
+        <v>150.71</v>
       </c>
       <c r="C166" t="n">
-        <v>21.29</v>
+        <v>154</v>
       </c>
       <c r="D166" t="n">
-        <v>1.38</v>
+        <v>2.18</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>20.63</v>
+        <v>150</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-3.1</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>FINKURVE</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>112.92</v>
+        <v>2.76</v>
       </c>
       <c r="C167" t="n">
-        <v>114.48</v>
+        <v>2.82</v>
       </c>
       <c r="D167" t="n">
-        <v>1.38</v>
+        <v>2.17</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>111.41</v>
+        <v>2.87</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-2.68</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MKPL</t>
+          <t>FILATFASH</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>6.54</v>
+        <v>0.46</v>
       </c>
       <c r="C168" t="n">
-        <v>6.63</v>
+        <v>0.47</v>
       </c>
       <c r="D168" t="n">
-        <v>1.38</v>
+        <v>2.17</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>6.49</v>
+        <v>0.48</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-2.11</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CIFL</t>
+          <t>BALRAMCHIN</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>34.04</v>
+        <v>432.55</v>
       </c>
       <c r="C169" t="n">
-        <v>34.5</v>
+        <v>441.95</v>
       </c>
       <c r="D169" t="n">
-        <v>1.35</v>
+        <v>2.17</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>34.25</v>
+        <v>452.4</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-0.72</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>WANBURY</t>
+          <t>SOMICONVEY</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>253.55</v>
+        <v>152.83</v>
       </c>
       <c r="C170" t="n">
-        <v>256.95</v>
+        <v>156.13</v>
       </c>
       <c r="D170" t="n">
-        <v>1.34</v>
+        <v>2.16</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>252.8</v>
+        <v>154.73</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-1.62</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>NELCAST</t>
+          <t>AVONMORE</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>108.58</v>
+        <v>17.71</v>
       </c>
       <c r="C171" t="n">
-        <v>110.04</v>
+        <v>18.09</v>
       </c>
       <c r="D171" t="n">
-        <v>1.34</v>
+        <v>2.15</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>108.1</v>
+        <v>17.63</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-1.76</v>
+        <v>-2.54</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>HILTON</t>
+          <t>ACEINTEG</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>42.91</v>
+        <v>23.4</v>
       </c>
       <c r="C172" t="n">
-        <v>43.48</v>
+        <v>23.9</v>
       </c>
       <c r="D172" t="n">
-        <v>1.33</v>
+        <v>2.14</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>42.93</v>
+        <v>23.85</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-1.26</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CSBBANK</t>
+          <t>KCPSUGIND</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>424.4</v>
+        <v>29.49</v>
       </c>
       <c r="C173" t="n">
-        <v>430</v>
+        <v>30.12</v>
       </c>
       <c r="D173" t="n">
-        <v>1.32</v>
+        <v>2.14</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>418.55</v>
+        <v>29.96</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-2.66</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>NAHARPOLY</t>
+          <t>ANDHRSUGAR</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>305</v>
+        <v>81.95</v>
       </c>
       <c r="C174" t="n">
-        <v>309</v>
+        <v>83.7</v>
       </c>
       <c r="D174" t="n">
-        <v>1.31</v>
+        <v>2.14</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>303.8</v>
+        <v>83.64</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-1.68</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>DHRUV</t>
+          <t>CELEBRITY</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>50.34</v>
+        <v>10.29</v>
       </c>
       <c r="C175" t="n">
-        <v>51</v>
+        <v>10.51</v>
       </c>
       <c r="D175" t="n">
-        <v>1.31</v>
+        <v>2.14</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>49.31</v>
+        <v>10.4</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-3.31</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>AMDIND</t>
+          <t>SILLYMONKS</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>55.77</v>
+        <v>23</v>
       </c>
       <c r="C176" t="n">
-        <v>56.5</v>
+        <v>23.49</v>
       </c>
       <c r="D176" t="n">
-        <v>1.31</v>
+        <v>2.13</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>55.4</v>
+        <v>22.75</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-1.95</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>DOLPHIN</t>
+          <t>GLOTTIS</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>409.6</v>
+        <v>69.52</v>
       </c>
       <c r="C177" t="n">
-        <v>414.9</v>
+        <v>71</v>
       </c>
       <c r="D177" t="n">
-        <v>1.29</v>
+        <v>2.13</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>409</v>
+        <v>69.88</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-1.42</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>STYLEBAAZA</t>
+          <t>SWARAJENG</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>322.9</v>
+        <v>3893.1</v>
       </c>
       <c r="C178" t="n">
-        <v>327</v>
+        <v>3976</v>
       </c>
       <c r="D178" t="n">
-        <v>1.27</v>
+        <v>2.13</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>320.65</v>
+        <v>3918.9</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-1.94</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SARLAPOLY</t>
+          <t>SATTVAENGG</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>90.73</v>
+        <v>92.05</v>
       </c>
       <c r="C179" t="n">
-        <v>91.88</v>
+        <v>94</v>
       </c>
       <c r="D179" t="n">
-        <v>1.27</v>
+        <v>2.12</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>89.66</v>
+        <v>91.75</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-2.42</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MADHUCON</t>
+          <t>VINEETLAB</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>7.13</v>
+        <v>46.03</v>
       </c>
       <c r="C180" t="n">
-        <v>7.22</v>
+        <v>47</v>
       </c>
       <c r="D180" t="n">
-        <v>1.26</v>
+        <v>2.11</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>7.1</v>
+        <v>46.41</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-1.66</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>RADAAN</t>
+          <t>LYPSAGEMS</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>3.2</v>
+        <v>5.26</v>
       </c>
       <c r="C181" t="n">
-        <v>3.24</v>
+        <v>5.37</v>
       </c>
       <c r="D181" t="n">
-        <v>1.25</v>
+        <v>2.09</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>3.13</v>
+        <v>5.35</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-3.4</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>GREENLEAF</t>
+          <t>REPRO</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>133.35</v>
+        <v>563.3</v>
       </c>
       <c r="C182" t="n">
-        <v>135</v>
+        <v>575</v>
       </c>
       <c r="D182" t="n">
-        <v>1.24</v>
+        <v>2.08</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>135</v>
+        <v>574.5</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>STLTECH</t>
+          <t>ROLTA</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>112.58</v>
+        <v>1.96</v>
       </c>
       <c r="C183" t="n">
-        <v>113.97</v>
+        <v>2</v>
       </c>
       <c r="D183" t="n">
-        <v>1.23</v>
+        <v>2.04</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>110.81</v>
+        <v>1.98</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-2.77</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>AUSOMENT</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5067.5</v>
+        <v>102.91</v>
       </c>
       <c r="C184" t="n">
-        <v>5129.5</v>
+        <v>105</v>
       </c>
       <c r="D184" t="n">
-        <v>1.22</v>
+        <v>2.03</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>5041.5</v>
+        <v>103.8</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-1.72</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>GANDHITUBE</t>
+          <t>VSTL</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>828.95</v>
+        <v>142.82</v>
       </c>
       <c r="C185" t="n">
-        <v>839</v>
+        <v>145.7</v>
       </c>
       <c r="D185" t="n">
-        <v>1.21</v>
+        <v>2.02</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>826.7</v>
+        <v>143.1</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-1.47</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RAJINDLTD</t>
+          <t>IL&amp;FSTRANS</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>85</v>
+        <v>2.97</v>
       </c>
       <c r="C186" t="n">
-        <v>86</v>
+        <v>3.03</v>
       </c>
       <c r="D186" t="n">
-        <v>1.18</v>
+        <v>2.02</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
-      <c r="F186" t="n">
-        <v>86</v>
-      </c>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
+      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>VMARCIND</t>
+          <t>SETCO</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>603.9</v>
+        <v>17.84</v>
       </c>
       <c r="C187" t="n">
-        <v>610.95</v>
+        <v>18.2</v>
       </c>
       <c r="D187" t="n">
-        <v>1.17</v>
+        <v>2.02</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>618</v>
+        <v>18.28</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>1.15</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RADIOCITY</t>
+          <t>KOTARISUG</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>6.96</v>
+        <v>29.88</v>
       </c>
       <c r="C188" t="n">
-        <v>7.04</v>
+        <v>30.48</v>
       </c>
       <c r="D188" t="n">
-        <v>1.15</v>
+        <v>2.01</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>7</v>
+        <v>30.66</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-0.57</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>MUKTAARTS</t>
+          <t>SINCLAIR</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>66.88</v>
+        <v>89.38</v>
       </c>
       <c r="C189" t="n">
-        <v>67.65000000000001</v>
+        <v>91.18000000000001</v>
       </c>
       <c r="D189" t="n">
-        <v>1.15</v>
+        <v>2.01</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>67.65000000000001</v>
+        <v>89.91</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ARCHIES</t>
+          <t>GATECHDVR</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>19.94</v>
+        <v>0.5</v>
       </c>
       <c r="C190" t="n">
-        <v>20.17</v>
+        <v>0.51</v>
       </c>
       <c r="D190" t="n">
-        <v>1.15</v>
+        <v>2</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>19.51</v>
+        <v>0.51</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-3.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>NILKAMAL</t>
+          <t>ARTNIRMAN</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1546.3</v>
+        <v>55</v>
       </c>
       <c r="C191" t="n">
-        <v>1564</v>
+        <v>56.1</v>
       </c>
       <c r="D191" t="n">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1531.6</v>
+        <v>56.1</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-2.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ESSENTIA</t>
+          <t>MVGJL</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>1.75</v>
+        <v>200.01</v>
       </c>
       <c r="C192" t="n">
-        <v>1.77</v>
+        <v>204</v>
       </c>
       <c r="D192" t="n">
-        <v>1.14</v>
+        <v>1.99</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>1.75</v>
+        <v>200.82</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-1.13</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ORTINGLOBE</t>
+          <t>IZMO</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>11.62</v>
+        <v>867.2</v>
       </c>
       <c r="C193" t="n">
-        <v>11.75</v>
+        <v>884.45</v>
       </c>
       <c r="D193" t="n">
-        <v>1.12</v>
+        <v>1.99</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>11.74</v>
+        <v>850</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-0.09</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>VARROC</t>
+          <t>LLOYDSENGG</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>625.05</v>
+        <v>58.73</v>
       </c>
       <c r="C194" t="n">
-        <v>632</v>
+        <v>59.9</v>
       </c>
       <c r="D194" t="n">
-        <v>1.11</v>
+        <v>1.99</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>618.35</v>
+        <v>59.8</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-2.16</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MMFL</t>
+          <t>MONEYBOXX</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>304.35</v>
+        <v>154.54</v>
       </c>
       <c r="C195" t="n">
-        <v>307.7</v>
+        <v>157.6</v>
       </c>
       <c r="D195" t="n">
-        <v>1.1</v>
+        <v>1.98</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>303.45</v>
+        <v>156.23</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-1.38</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>FOODSIN</t>
+          <t>SCPL</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>81.56999999999999</v>
+        <v>228.28</v>
       </c>
       <c r="C196" t="n">
-        <v>82.45</v>
+        <v>232.8</v>
       </c>
       <c r="D196" t="n">
-        <v>1.08</v>
+        <v>1.98</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>80.92</v>
+        <v>223</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-1.86</v>
+        <v>-4.21</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SADBHIN</t>
+          <t>KPIGREEN</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>3.72</v>
+        <v>503.2</v>
       </c>
       <c r="C197" t="n">
-        <v>3.76</v>
+        <v>513.15</v>
       </c>
       <c r="D197" t="n">
-        <v>1.08</v>
+        <v>1.98</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>3.74</v>
+        <v>498.7</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-0.53</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RAMASTEEL</t>
+          <t>MOSCHIP</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>10.19</v>
+        <v>233.75</v>
       </c>
       <c r="C198" t="n">
-        <v>10.3</v>
+        <v>238.35</v>
       </c>
       <c r="D198" t="n">
-        <v>1.08</v>
+        <v>1.97</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>10.15</v>
+        <v>233.55</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-1.46</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>GEECEE</t>
+          <t>ZENITHSTL</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>350.25</v>
+        <v>8.16</v>
       </c>
       <c r="C199" t="n">
-        <v>354</v>
+        <v>8.32</v>
       </c>
       <c r="D199" t="n">
-        <v>1.07</v>
+        <v>1.96</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>345.2</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-2.49</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>PARSVNATH</t>
+          <t>INTLCONV</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>16.82</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="C200" t="n">
-        <v>17</v>
+        <v>95.88</v>
       </c>
       <c r="D200" t="n">
-        <v>1.07</v>
+        <v>1.96</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>16.61</v>
+        <v>93.25</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.29</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>LORDSCHLO</t>
+          <t>SURANASOL</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>217.7</v>
+        <v>31.07</v>
       </c>
       <c r="C201" t="n">
-        <v>220</v>
+        <v>31.68</v>
       </c>
       <c r="D201" t="n">
-        <v>1.06</v>
+        <v>1.96</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>214.02</v>
+        <v>31.08</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-2.72</v>
+        <v>-1.89</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -482,19 +482,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.7</v>
+        <v>21.95</v>
       </c>
       <c r="C2" t="n">
-        <v>21.95</v>
+        <v>30.7</v>
       </c>
       <c r="D2" t="n">
-        <v>39.81</v>
+        <v>39.86</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>21.95</v>
+        <v>30.7</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
@@ -504,595 +504,595 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IEML</t>
+          <t>SAFEENTP</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.8</v>
+        <v>194.65</v>
       </c>
       <c r="C3" t="n">
-        <v>120.95</v>
+        <v>232</v>
       </c>
       <c r="D3" t="n">
-        <v>19.99</v>
+        <v>19.19</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>120.95</v>
+        <v>215</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PASUPTAC</t>
+          <t>VENUSREM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.62</v>
+        <v>468.95</v>
       </c>
       <c r="C4" t="n">
-        <v>58.9</v>
+        <v>548</v>
       </c>
       <c r="D4" t="n">
-        <v>14.1</v>
+        <v>16.86</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>55.11</v>
+        <v>531.9</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-6.43</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VMARCIND</t>
+          <t>ORIENTCER</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>624.45</v>
+        <v>35.93</v>
       </c>
       <c r="C5" t="n">
-        <v>687.95</v>
+        <v>41.8</v>
       </c>
       <c r="D5" t="n">
-        <v>10.17</v>
+        <v>16.34</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>696</v>
+        <v>40.18</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1.17</v>
+        <v>-3.88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>INSPIRISYS</t>
+          <t>PREMIERPOL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>98.75</v>
+        <v>39.8</v>
       </c>
       <c r="C6" t="n">
-        <v>108.01</v>
+        <v>42.5</v>
       </c>
       <c r="D6" t="n">
-        <v>9.380000000000001</v>
+        <v>6.78</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>100.27</v>
+        <v>41.14</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-7.17</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>NIRAJ</t>
+          <t>FORCAS</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>28.8</v>
+        <v>125</v>
       </c>
       <c r="C7" t="n">
-        <v>31.23</v>
+        <v>133</v>
       </c>
       <c r="D7" t="n">
-        <v>8.44</v>
+        <v>6.4</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>30.95</v>
+        <v>133</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-0.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBLENGINE</t>
+          <t>PILITA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>979.2</v>
+        <v>11.93</v>
       </c>
       <c r="C8" t="n">
-        <v>1060</v>
+        <v>12.65</v>
       </c>
       <c r="D8" t="n">
-        <v>8.25</v>
+        <v>6.04</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1098.7</v>
+        <v>12</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>-5.14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RADAAN</t>
+          <t>UNIINFO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.19</v>
+        <v>15.91</v>
       </c>
       <c r="C9" t="n">
-        <v>3.45</v>
+        <v>16.85</v>
       </c>
       <c r="D9" t="n">
-        <v>8.15</v>
+        <v>5.91</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3.25</v>
+        <v>16.57</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-5.8</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KRITINUT</t>
+          <t>ESABINDIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>88.02</v>
+        <v>4850.2</v>
       </c>
       <c r="C10" t="n">
-        <v>94.8</v>
+        <v>5135</v>
       </c>
       <c r="D10" t="n">
-        <v>7.7</v>
+        <v>5.87</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>89.90000000000001</v>
+        <v>5445.2</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-5.17</v>
+        <v>6.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.869999999999999</v>
+        <v>84.06</v>
       </c>
       <c r="C11" t="n">
-        <v>10.59</v>
+        <v>88.98999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>7.29</v>
+        <v>5.86</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>9.83</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-7.18</v>
+        <v>-7.74</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBSL</t>
+          <t>VIKRAN</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.81999999999999</v>
+        <v>99.27</v>
       </c>
       <c r="C12" t="n">
-        <v>106.02</v>
+        <v>105</v>
       </c>
       <c r="D12" t="n">
-        <v>7.29</v>
+        <v>5.77</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>100.33</v>
+        <v>106.9</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>-5.37</v>
+        <v>1.81</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>NIRAJISPAT</t>
+          <t>SONAMLTD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>228.39</v>
+        <v>40.01</v>
       </c>
       <c r="C13" t="n">
-        <v>245</v>
+        <v>42.25</v>
       </c>
       <c r="D13" t="n">
-        <v>7.27</v>
+        <v>5.6</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>228</v>
+        <v>40.74</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-6.94</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ROML</t>
+          <t>MEGASTAR</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51.42</v>
+        <v>265.55</v>
       </c>
       <c r="C14" t="n">
-        <v>54.99</v>
+        <v>280</v>
       </c>
       <c r="D14" t="n">
-        <v>6.94</v>
+        <v>5.44</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>53.49</v>
+        <v>270</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-2.73</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RETAIL</t>
+          <t>KAPSTON</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.89</v>
+        <v>298.2</v>
       </c>
       <c r="C15" t="n">
-        <v>33</v>
+        <v>314</v>
       </c>
       <c r="D15" t="n">
-        <v>6.83</v>
+        <v>5.3</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>29.48</v>
+        <v>306.8</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-10.67</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>NEULANDLAB</t>
+          <t>DCMNVL</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17837</v>
+        <v>138.24</v>
       </c>
       <c r="C16" t="n">
-        <v>19000</v>
+        <v>145.45</v>
       </c>
       <c r="D16" t="n">
-        <v>6.52</v>
+        <v>5.22</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>18650</v>
+        <v>141.62</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-1.84</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>RENUKA</t>
+          <t>BAFNAPH</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>27.83</v>
+        <v>183.28</v>
       </c>
       <c r="C17" t="n">
-        <v>29.6</v>
+        <v>192.44</v>
       </c>
       <c r="D17" t="n">
-        <v>6.36</v>
+        <v>5</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>28.84</v>
+        <v>192.44</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>-2.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SYSTANGO</t>
+          <t>SWANDEF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>272.85</v>
+        <v>939.8</v>
       </c>
       <c r="C18" t="n">
-        <v>289</v>
+        <v>986.75</v>
       </c>
       <c r="D18" t="n">
-        <v>5.92</v>
+        <v>5</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>302</v>
+        <v>986.75</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LUMAXTECH</t>
+          <t>ZUARI</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1200.2</v>
+        <v>263.7</v>
       </c>
       <c r="C19" t="n">
-        <v>1269.9</v>
+        <v>276.85</v>
       </c>
       <c r="D19" t="n">
-        <v>5.81</v>
+        <v>4.99</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1384</v>
+        <v>276.85</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>8.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SSEGL</t>
+          <t>KANDARP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>548.7</v>
+        <v>120.25</v>
       </c>
       <c r="C20" t="n">
-        <v>580</v>
+        <v>126.25</v>
       </c>
       <c r="D20" t="n">
-        <v>5.7</v>
+        <v>4.99</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>548</v>
+        <v>126.25</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>-5.52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SWARAJ</t>
+          <t>IWARE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>213.9</v>
+        <v>189.85</v>
       </c>
       <c r="C21" t="n">
-        <v>226.1</v>
+        <v>199.3</v>
       </c>
       <c r="D21" t="n">
-        <v>5.7</v>
+        <v>4.98</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>241.2</v>
+        <v>199</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>6.68</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>UGROCAP</t>
+          <t>TAKE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.94</v>
+        <v>23.74</v>
       </c>
       <c r="C22" t="n">
-        <v>186.99</v>
+        <v>24.92</v>
       </c>
       <c r="D22" t="n">
-        <v>5.68</v>
+        <v>4.97</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>174.75</v>
+        <v>24.92</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-6.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>KRSNAA</t>
+          <t>FMNL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>724.3</v>
+        <v>11.31</v>
       </c>
       <c r="C23" t="n">
-        <v>763.95</v>
+        <v>11.87</v>
       </c>
       <c r="D23" t="n">
-        <v>5.47</v>
+        <v>4.95</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>748</v>
+        <v>11.85</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>-2.09</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SMSPHARMA</t>
+          <t>SAKSOFT</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>289.25</v>
+        <v>194.29</v>
       </c>
       <c r="C24" t="n">
-        <v>305</v>
+        <v>203.9</v>
       </c>
       <c r="D24" t="n">
-        <v>5.45</v>
+        <v>4.95</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>316.55</v>
+        <v>200.43</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>3.79</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ZUARI</t>
+          <t>ANKITMETAL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>251.15</v>
+        <v>1.63</v>
       </c>
       <c r="C25" t="n">
-        <v>263.7</v>
+        <v>1.71</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>4.91</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>263.7</v>
+        <v>1.71</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
@@ -1102,101 +1102,101 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SWANDEF</t>
+          <t>POLYSIL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>895.05</v>
+        <v>286.1</v>
       </c>
       <c r="C26" t="n">
-        <v>939.8</v>
+        <v>300</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>4.86</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>939.8</v>
+        <v>293</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BAFNAPH</t>
+          <t>CINEVISTA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>174.56</v>
+        <v>17.52</v>
       </c>
       <c r="C27" t="n">
-        <v>183.28</v>
+        <v>18.37</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>183.28</v>
+        <v>17.2</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-6.37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CURAA</t>
+          <t>ABMINTLLTD</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>194.54</v>
+        <v>46.45</v>
       </c>
       <c r="C28" t="n">
-        <v>204.26</v>
+        <v>48.69</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>4.82</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>204.25</v>
+        <v>48.69</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SHRIAHIMSA</t>
+          <t>FLFL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>266.8</v>
+        <v>1.48</v>
       </c>
       <c r="C29" t="n">
-        <v>280.1</v>
+        <v>1.55</v>
       </c>
       <c r="D29" t="n">
-        <v>4.99</v>
+        <v>4.73</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>280.1</v>
+        <v>1.55</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
@@ -1206,4465 +1206,4465 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ESFL</t>
+          <t>VIJIFIN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>222.85</v>
+        <v>3.17</v>
       </c>
       <c r="C30" t="n">
-        <v>233.95</v>
+        <v>3.32</v>
       </c>
       <c r="D30" t="n">
-        <v>4.98</v>
+        <v>4.73</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>233.95</v>
+        <v>3.3</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>WEWIN</t>
+          <t>ESFL</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>52.1</v>
+        <v>233.95</v>
       </c>
       <c r="C31" t="n">
-        <v>54.69</v>
+        <v>245</v>
       </c>
       <c r="D31" t="n">
-        <v>4.97</v>
+        <v>4.72</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>54.49</v>
+        <v>236.5</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-0.37</v>
+        <v>-3.47</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>VIJIFIN</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>3.02</v>
+        <v>9.99</v>
       </c>
       <c r="C32" t="n">
-        <v>3.17</v>
+        <v>10.46</v>
       </c>
       <c r="D32" t="n">
-        <v>4.97</v>
+        <v>4.7</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>3.17</v>
+        <v>10.17</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FORCEMOT</t>
+          <t>GATECH</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>18194</v>
+        <v>0.64</v>
       </c>
       <c r="C33" t="n">
-        <v>19096</v>
+        <v>0.67</v>
       </c>
       <c r="D33" t="n">
-        <v>4.96</v>
+        <v>4.69</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>18283</v>
+        <v>0.67</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>-4.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>GAYAHWS</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.26</v>
+        <v>2.77</v>
       </c>
       <c r="C34" t="n">
-        <v>4.47</v>
+        <v>2.9</v>
       </c>
       <c r="D34" t="n">
-        <v>4.93</v>
+        <v>4.69</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>4.46</v>
+        <v>2.81</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-0.22</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SICALLOG</t>
+          <t>MVKAGRO</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>99.90000000000001</v>
+        <v>604.2</v>
       </c>
       <c r="C35" t="n">
-        <v>104.83</v>
+        <v>632.5</v>
       </c>
       <c r="D35" t="n">
-        <v>4.93</v>
+        <v>4.68</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>104.4</v>
+        <v>625</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-0.41</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HEADSUP</t>
+          <t>RELIABLE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>10.26</v>
+        <v>149.88</v>
       </c>
       <c r="C36" t="n">
-        <v>10.76</v>
+        <v>156.9</v>
       </c>
       <c r="D36" t="n">
-        <v>4.87</v>
+        <v>4.68</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>10.76</v>
+        <v>155.6</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>218.84</v>
+        <v>122.25</v>
       </c>
       <c r="C37" t="n">
-        <v>229.5</v>
+        <v>127.79</v>
       </c>
       <c r="D37" t="n">
-        <v>4.87</v>
+        <v>4.53</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>229.77</v>
+        <v>125</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>0.12</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>WINDMACHIN</t>
+          <t>GENSOL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>289.9</v>
+        <v>29.66</v>
       </c>
       <c r="C38" t="n">
-        <v>304</v>
+        <v>30.99</v>
       </c>
       <c r="D38" t="n">
-        <v>4.86</v>
+        <v>4.48</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>305.7</v>
+        <v>31.14</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PALASHSECU</t>
+          <t>PARSVNATH</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>115.43</v>
+        <v>15.94</v>
       </c>
       <c r="C39" t="n">
-        <v>121</v>
+        <v>16.65</v>
       </c>
       <c r="D39" t="n">
-        <v>4.83</v>
+        <v>4.45</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>121</v>
+        <v>15.82</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>GFSTEELS</t>
+          <t>CLEDUCATE</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>10.21</v>
+        <v>89.53</v>
       </c>
       <c r="C40" t="n">
-        <v>10.7</v>
+        <v>93.5</v>
       </c>
       <c r="D40" t="n">
-        <v>4.8</v>
+        <v>4.43</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>10.7</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EFCIL</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>283.55</v>
+        <v>807.25</v>
       </c>
       <c r="C41" t="n">
-        <v>297</v>
+        <v>843</v>
       </c>
       <c r="D41" t="n">
-        <v>4.74</v>
+        <v>4.43</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>278.6</v>
+        <v>825.4</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-6.2</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SANCO</t>
+          <t>SARVESHWAR</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.69</v>
+        <v>4.98</v>
       </c>
       <c r="C42" t="n">
-        <v>1.77</v>
+        <v>5.19</v>
       </c>
       <c r="D42" t="n">
-        <v>4.73</v>
+        <v>4.22</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1.77</v>
+        <v>4.96</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>-4.43</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>LGHL</t>
+          <t>SAVY</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>259.75</v>
+        <v>166.5</v>
       </c>
       <c r="C43" t="n">
-        <v>272</v>
+        <v>173.4</v>
       </c>
       <c r="D43" t="n">
-        <v>4.72</v>
+        <v>4.14</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>261</v>
+        <v>165.85</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-4.04</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>DCI</t>
+          <t>GLOBALE</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>261.8</v>
+        <v>12.43</v>
       </c>
       <c r="C44" t="n">
-        <v>274</v>
+        <v>12.94</v>
       </c>
       <c r="D44" t="n">
-        <v>4.66</v>
+        <v>4.1</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>264.6</v>
+        <v>12.7</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-3.43</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CALSOFT</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>16.34</v>
+        <v>32.08</v>
       </c>
       <c r="C45" t="n">
-        <v>17.1</v>
+        <v>33.39</v>
       </c>
       <c r="D45" t="n">
-        <v>4.65</v>
+        <v>4.08</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>16.7</v>
+        <v>32.62</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-2.34</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RAJSREESUG</t>
+          <t>NAZARA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>37.93</v>
+        <v>258.4</v>
       </c>
       <c r="C46" t="n">
-        <v>39.66</v>
+        <v>268.95</v>
       </c>
       <c r="D46" t="n">
-        <v>4.56</v>
+        <v>4.08</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39.21</v>
+        <v>261.2</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-1.13</v>
+        <v>-2.88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SUNLITE</t>
+          <t>BRNL</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>262.1</v>
+        <v>24.46</v>
       </c>
       <c r="C47" t="n">
-        <v>273.95</v>
+        <v>25.45</v>
       </c>
       <c r="D47" t="n">
-        <v>4.52</v>
+        <v>4.05</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>264</v>
+        <v>24.76</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-3.63</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IRIS</t>
+          <t>ARFIN</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>369.65</v>
+        <v>56.97</v>
       </c>
       <c r="C48" t="n">
-        <v>385.85</v>
+        <v>59.28</v>
       </c>
       <c r="D48" t="n">
-        <v>4.38</v>
+        <v>4.05</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>388.1</v>
+        <v>58</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>0.58</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>OMKARCHEM</t>
+          <t>HEG</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5.26</v>
+        <v>519.3</v>
       </c>
       <c r="C49" t="n">
-        <v>5.49</v>
+        <v>540</v>
       </c>
       <c r="D49" t="n">
-        <v>4.37</v>
+        <v>3.99</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>5.2</v>
+        <v>546.3</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-5.28</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DHAMPURSUG</t>
+          <t>INNOVACAP</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>132.34</v>
+        <v>740.45</v>
       </c>
       <c r="C50" t="n">
-        <v>138</v>
+        <v>770</v>
       </c>
       <c r="D50" t="n">
-        <v>4.28</v>
+        <v>3.99</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>138.56</v>
+        <v>724.65</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>0.41</v>
+        <v>-5.89</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>MADHUCON</t>
+          <t>CONNPLEX</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.06</v>
+        <v>227.95</v>
       </c>
       <c r="C51" t="n">
-        <v>7.36</v>
+        <v>237</v>
       </c>
       <c r="D51" t="n">
-        <v>4.25</v>
+        <v>3.97</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>6.93</v>
+        <v>233.15</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-5.84</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SGL</t>
+          <t>MITCON</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>14.49</v>
+        <v>69.01000000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>15.1</v>
+        <v>71.7</v>
       </c>
       <c r="D52" t="n">
-        <v>4.21</v>
+        <v>3.9</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>14.95</v>
+        <v>70.39</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-0.99</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DJML</t>
+          <t>NRBBEARING</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>82.53</v>
+        <v>269.45</v>
       </c>
       <c r="C53" t="n">
-        <v>86</v>
+        <v>279.95</v>
       </c>
       <c r="D53" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>82.2</v>
+        <v>287.3</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-4.42</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>BIL</t>
+          <t>UNIDT</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>849.5</v>
+        <v>197.33</v>
       </c>
       <c r="C54" t="n">
-        <v>885</v>
+        <v>205</v>
       </c>
       <c r="D54" t="n">
-        <v>4.18</v>
+        <v>3.89</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>856.6</v>
+        <v>199.88</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-3.21</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>RAMASTEEL</t>
+          <t>KEC</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>10.54</v>
+        <v>722.25</v>
       </c>
       <c r="C55" t="n">
-        <v>10.98</v>
+        <v>750</v>
       </c>
       <c r="D55" t="n">
-        <v>4.17</v>
+        <v>3.84</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>10.78</v>
+        <v>724.3</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-1.82</v>
+        <v>-3.43</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>MASKINVEST</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>123.3</v>
+        <v>149.27</v>
       </c>
       <c r="C56" t="n">
-        <v>128.4</v>
+        <v>155</v>
       </c>
       <c r="D56" t="n">
-        <v>4.14</v>
+        <v>3.84</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>124.5</v>
+        <v>155</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-3.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TIJARIA</t>
+          <t>GSS</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>6.12</v>
+        <v>22.41</v>
       </c>
       <c r="C57" t="n">
-        <v>6.37</v>
+        <v>23.25</v>
       </c>
       <c r="D57" t="n">
-        <v>4.08</v>
+        <v>3.75</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>6.26</v>
+        <v>22.7</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-1.73</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>QUINTEGRA</t>
+          <t>DHARAN</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.72</v>
+        <v>0.54</v>
       </c>
       <c r="C58" t="n">
-        <v>1.79</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D58" t="n">
-        <v>4.07</v>
+        <v>3.7</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1.79</v>
+        <v>0.54</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>KODYTECH</t>
+          <t>VGL</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>667.25</v>
+        <v>156.31</v>
       </c>
       <c r="C59" t="n">
-        <v>694</v>
+        <v>162</v>
       </c>
       <c r="D59" t="n">
-        <v>4.01</v>
+        <v>3.64</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>688</v>
+        <v>160.97</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-0.86</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MVKAGRO</t>
+          <t>ADROITINFO</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>576.95</v>
+        <v>11.03</v>
       </c>
       <c r="C60" t="n">
-        <v>600</v>
+        <v>11.43</v>
       </c>
       <c r="D60" t="n">
-        <v>4</v>
+        <v>3.63</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>601</v>
+        <v>11.1</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>0.17</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>KAYA</t>
+          <t>MANAKALUCO</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>422.6</v>
+        <v>27.12</v>
       </c>
       <c r="C61" t="n">
-        <v>439</v>
+        <v>28.1</v>
       </c>
       <c r="D61" t="n">
-        <v>3.88</v>
+        <v>3.61</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>433</v>
+        <v>27.98</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-1.37</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RPPL</t>
+          <t>ICIL</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>18.92</v>
+        <v>269.3</v>
       </c>
       <c r="C62" t="n">
-        <v>19.65</v>
+        <v>279</v>
       </c>
       <c r="D62" t="n">
-        <v>3.86</v>
+        <v>3.6</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>19.12</v>
+        <v>275.3</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-2.7</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>DHARAN</t>
+          <t>HESTERBIO</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.52</v>
+        <v>1617.4</v>
       </c>
       <c r="C63" t="n">
-        <v>0.54</v>
+        <v>1674.9</v>
       </c>
       <c r="D63" t="n">
-        <v>3.85</v>
+        <v>3.56</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.54</v>
+        <v>1624.9</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SUPREMEINF</t>
+          <t>INSPIRISYS</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>92.92</v>
+        <v>106.04</v>
       </c>
       <c r="C64" t="n">
-        <v>96.5</v>
+        <v>109.81</v>
       </c>
       <c r="D64" t="n">
-        <v>3.85</v>
+        <v>3.56</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>97</v>
+        <v>106.11</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>0.52</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>KAVDEFENCE</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>566.4</v>
+        <v>102.18</v>
       </c>
       <c r="C65" t="n">
-        <v>587.95</v>
+        <v>105.8</v>
       </c>
       <c r="D65" t="n">
-        <v>3.8</v>
+        <v>3.54</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>596.3</v>
+        <v>107.28</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SBC</t>
+          <t>ZEELEARN</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>24.61</v>
+        <v>7.91</v>
       </c>
       <c r="C66" t="n">
-        <v>25.54</v>
+        <v>8.19</v>
       </c>
       <c r="D66" t="n">
-        <v>3.78</v>
+        <v>3.54</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>25.29</v>
+        <v>8.06</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-0.98</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JEYYAM</t>
+          <t>RHETAN</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>69.40000000000001</v>
+        <v>22.7</v>
       </c>
       <c r="C67" t="n">
-        <v>72</v>
+        <v>23.5</v>
       </c>
       <c r="D67" t="n">
-        <v>3.75</v>
+        <v>3.52</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>69.75</v>
+        <v>23.58</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-3.12</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CUPID</t>
+          <t>TRANSRAILL</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>260.38</v>
+        <v>627.9</v>
       </c>
       <c r="C68" t="n">
-        <v>270</v>
+        <v>650</v>
       </c>
       <c r="D68" t="n">
-        <v>3.69</v>
+        <v>3.52</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>265.31</v>
+        <v>652</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-1.74</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CRAFTSMAN</t>
+          <t>SONUINFRA</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6770.5</v>
+        <v>92.25</v>
       </c>
       <c r="C69" t="n">
-        <v>7019.5</v>
+        <v>95.5</v>
       </c>
       <c r="D69" t="n">
-        <v>3.68</v>
+        <v>3.52</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>6650</v>
+        <v>95.45</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-5.26</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NOIDATOLL</t>
+          <t>BEDMUTHA</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>4.38</v>
+        <v>122.72</v>
       </c>
       <c r="C70" t="n">
-        <v>4.54</v>
+        <v>127</v>
       </c>
       <c r="D70" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>4.44</v>
+        <v>123.99</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-2.2</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BOHRAIND</t>
+          <t>ICDSLTD</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>20.07</v>
+        <v>47.35</v>
       </c>
       <c r="C71" t="n">
-        <v>20.8</v>
+        <v>48.98</v>
       </c>
       <c r="D71" t="n">
-        <v>3.64</v>
+        <v>3.44</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>20.74</v>
+        <v>46.6</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-0.29</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOUTHWEST</t>
+          <t>TERASOFT</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>173.64</v>
+        <v>531.8</v>
       </c>
       <c r="C72" t="n">
-        <v>179.94</v>
+        <v>550</v>
       </c>
       <c r="D72" t="n">
-        <v>3.63</v>
+        <v>3.42</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>189.09</v>
+        <v>538.4</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>5.09</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DHARIWAL</t>
+          <t>ALMONDZ</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>300.15</v>
+        <v>17.89</v>
       </c>
       <c r="C73" t="n">
-        <v>311</v>
+        <v>18.48</v>
       </c>
       <c r="D73" t="n">
-        <v>3.61</v>
+        <v>3.3</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>307</v>
+        <v>17.68</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-1.29</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>KHANDSE</t>
+          <t>EVERESTIND</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>22.49</v>
+        <v>578.4</v>
       </c>
       <c r="C74" t="n">
-        <v>23.3</v>
+        <v>597</v>
       </c>
       <c r="D74" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>23</v>
+        <v>580.15</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-1.29</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CPPLUS</t>
+          <t>HTMEDIA</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>1534.9</v>
+        <v>27.04</v>
       </c>
       <c r="C75" t="n">
-        <v>1589.9</v>
+        <v>27.9</v>
       </c>
       <c r="D75" t="n">
-        <v>3.58</v>
+        <v>3.18</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>1541.2</v>
+        <v>26.85</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-3.06</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SHEKHAWATI</t>
+          <t>VISHNUINFR</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>20.17</v>
+        <v>163</v>
       </c>
       <c r="C76" t="n">
-        <v>20.89</v>
+        <v>168.1</v>
       </c>
       <c r="D76" t="n">
-        <v>3.57</v>
+        <v>3.13</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>20.74</v>
+        <v>170</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-0.72</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>AIMTRON</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>66.15000000000001</v>
+        <v>877.8</v>
       </c>
       <c r="C77" t="n">
-        <v>68.5</v>
+        <v>905</v>
       </c>
       <c r="D77" t="n">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>69.03</v>
+        <v>899</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>0.77</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FLEXITUFF</t>
+          <t>JSL</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>18.34</v>
+        <v>722.75</v>
       </c>
       <c r="C78" t="n">
-        <v>18.99</v>
+        <v>745</v>
       </c>
       <c r="D78" t="n">
-        <v>3.54</v>
+        <v>3.08</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>18.99</v>
+        <v>740</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>ELECTHERM</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>984.35</v>
+        <v>260.6</v>
       </c>
       <c r="C79" t="n">
-        <v>1019</v>
+        <v>268.5</v>
       </c>
       <c r="D79" t="n">
-        <v>3.52</v>
+        <v>3.03</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>970</v>
+        <v>262.95</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-4.81</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BAJAJHIND</t>
+          <t>BLUECOAST</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>21.13</v>
+        <v>49.5</v>
       </c>
       <c r="C80" t="n">
-        <v>21.87</v>
+        <v>51</v>
       </c>
       <c r="D80" t="n">
-        <v>3.5</v>
+        <v>3.03</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>21.85</v>
+        <v>50.49</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-0.09</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>PRAENG</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>41.55</v>
+        <v>28.53</v>
       </c>
       <c r="C81" t="n">
-        <v>43</v>
+        <v>29.39</v>
       </c>
       <c r="D81" t="n">
-        <v>3.49</v>
+        <v>3.01</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>42.75</v>
+        <v>28.3</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-0.58</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GTL</t>
+          <t>CALSOFT</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>8.94</v>
+        <v>16.82</v>
       </c>
       <c r="C82" t="n">
-        <v>9.25</v>
+        <v>17.31</v>
       </c>
       <c r="D82" t="n">
-        <v>3.47</v>
+        <v>2.91</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>9.08</v>
+        <v>17.21</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-1.84</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TNTELE</t>
+          <t>NIRAJ</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>11.59</v>
+        <v>31.68</v>
       </c>
       <c r="C83" t="n">
-        <v>11.99</v>
+        <v>32.6</v>
       </c>
       <c r="D83" t="n">
-        <v>3.45</v>
+        <v>2.9</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>11.59</v>
+        <v>31.12</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-3.34</v>
+        <v>-4.54</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>KAPSTON</t>
+          <t>KITEX</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>299.7</v>
+        <v>198.73</v>
       </c>
       <c r="C84" t="n">
-        <v>310</v>
+        <v>204.5</v>
       </c>
       <c r="D84" t="n">
-        <v>3.44</v>
+        <v>2.9</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>312.3</v>
+        <v>199.25</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>0.74</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>KERNEX</t>
+          <t>ALEMBICLTD</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>1276.9</v>
+        <v>98.05</v>
       </c>
       <c r="C85" t="n">
-        <v>1320</v>
+        <v>100.86</v>
       </c>
       <c r="D85" t="n">
-        <v>3.38</v>
+        <v>2.87</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>1351.4</v>
+        <v>100.2</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>2.38</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HONDAPOWER</t>
+          <t>AKG</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2515.1</v>
+        <v>12.39</v>
       </c>
       <c r="C86" t="n">
-        <v>2599.8</v>
+        <v>12.74</v>
       </c>
       <c r="D86" t="n">
-        <v>3.37</v>
+        <v>2.82</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2565.1</v>
+        <v>12.42</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-1.33</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SUPERSPIN</t>
+          <t>GANESHIN</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>9.31</v>
+        <v>219.55</v>
       </c>
       <c r="C87" t="n">
-        <v>9.619999999999999</v>
+        <v>225.7</v>
       </c>
       <c r="D87" t="n">
-        <v>3.33</v>
+        <v>2.8</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>9.109999999999999</v>
+        <v>223.85</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-5.3</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MOL</t>
+          <t>MAHASTEEL</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>74.56999999999999</v>
+        <v>696.6</v>
       </c>
       <c r="C88" t="n">
-        <v>77</v>
+        <v>716</v>
       </c>
       <c r="D88" t="n">
-        <v>3.26</v>
+        <v>2.78</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>73.76000000000001</v>
+        <v>731.4</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-4.21</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>UGARSUGAR</t>
+          <t>AKSHARCHEM</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>41.33</v>
+        <v>253.9</v>
       </c>
       <c r="C89" t="n">
-        <v>42.67</v>
+        <v>260.9</v>
       </c>
       <c r="D89" t="n">
-        <v>3.24</v>
+        <v>2.76</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>42.1</v>
+        <v>255.1</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-1.34</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>CCCL</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>213.14</v>
+        <v>20.27</v>
       </c>
       <c r="C90" t="n">
-        <v>220</v>
+        <v>20.83</v>
       </c>
       <c r="D90" t="n">
-        <v>3.22</v>
+        <v>2.76</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>215</v>
+        <v>21.05</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-2.27</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BBTCL</t>
+          <t>SAKHTISUG</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>191.85</v>
+        <v>20.35</v>
       </c>
       <c r="C91" t="n">
-        <v>198</v>
+        <v>20.91</v>
       </c>
       <c r="D91" t="n">
-        <v>3.21</v>
+        <v>2.75</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>192.5</v>
+        <v>20.29</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-2.78</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FOCUS</t>
+          <t>BASML</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>81.39</v>
+        <v>26.28</v>
       </c>
       <c r="C92" t="n">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="D92" t="n">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>83</v>
+        <v>26.65</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-1.19</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>DANGEE</t>
+          <t>IDEA</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>4.1</v>
+        <v>9.5</v>
       </c>
       <c r="C93" t="n">
-        <v>4.23</v>
+        <v>9.76</v>
       </c>
       <c r="D93" t="n">
-        <v>3.17</v>
+        <v>2.74</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>4.13</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-2.36</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SUMEETINDS</t>
+          <t>KAMATHOTEL</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>35.86</v>
+        <v>227.9</v>
       </c>
       <c r="C94" t="n">
-        <v>36.98</v>
+        <v>234</v>
       </c>
       <c r="D94" t="n">
-        <v>3.12</v>
+        <v>2.68</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>36.5</v>
+        <v>234</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MAGADSUGAR</t>
+          <t>ONWARDTEC</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>528.55</v>
+        <v>289.3</v>
       </c>
       <c r="C95" t="n">
-        <v>545</v>
+        <v>297</v>
       </c>
       <c r="D95" t="n">
-        <v>3.11</v>
+        <v>2.66</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>548.15</v>
+        <v>288.15</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>0.58</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BLUECOAST</t>
+          <t>WALCHANNAG</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>49.46</v>
+        <v>166.59</v>
       </c>
       <c r="C96" t="n">
-        <v>51</v>
+        <v>171</v>
       </c>
       <c r="D96" t="n">
-        <v>3.11</v>
+        <v>2.65</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>48.3</v>
+        <v>168</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-5.29</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FINPIPE</t>
+          <t>DIL</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>185.26</v>
+        <v>1.9</v>
       </c>
       <c r="C97" t="n">
-        <v>191</v>
+        <v>1.95</v>
       </c>
       <c r="D97" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>186.36</v>
+        <v>1.9</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-2.43</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BEDMUTHA</t>
+          <t>GOYALSALT</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>125.13</v>
+        <v>181.15</v>
       </c>
       <c r="C98" t="n">
-        <v>129</v>
+        <v>185.9</v>
       </c>
       <c r="D98" t="n">
-        <v>3.09</v>
+        <v>2.62</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>127.5</v>
+        <v>183.6</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-1.16</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AVADHSUGAR</t>
+          <t>PIRAMALFIN</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>410.3</v>
+        <v>1389.1</v>
       </c>
       <c r="C99" t="n">
-        <v>422.95</v>
+        <v>1425</v>
       </c>
       <c r="D99" t="n">
-        <v>3.08</v>
+        <v>2.58</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>421</v>
+        <v>1372</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-0.46</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SANDUMA</t>
+          <t>TRIGYN</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>204.74</v>
+        <v>72.11</v>
       </c>
       <c r="C100" t="n">
-        <v>211</v>
+        <v>73.97</v>
       </c>
       <c r="D100" t="n">
-        <v>3.06</v>
+        <v>2.58</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>213.5</v>
+        <v>73.7</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>1.18</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AARTIDRUGS</t>
+          <t>GOKEX</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>491.45</v>
+        <v>833.6</v>
       </c>
       <c r="C101" t="n">
-        <v>506.5</v>
+        <v>854.9</v>
       </c>
       <c r="D101" t="n">
-        <v>3.06</v>
+        <v>2.56</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>525.45</v>
+        <v>849.3</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>3.74</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CCCL</t>
+          <t>THEMISMED</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>20.25</v>
+        <v>119.89</v>
       </c>
       <c r="C102" t="n">
-        <v>20.87</v>
+        <v>122.95</v>
       </c>
       <c r="D102" t="n">
-        <v>3.06</v>
+        <v>2.55</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>20.25</v>
+        <v>119.22</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-2.97</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>JSWCEMENT</t>
+          <t>DCI</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>127.67</v>
+        <v>264.2</v>
       </c>
       <c r="C103" t="n">
-        <v>131.5</v>
+        <v>270.95</v>
       </c>
       <c r="D103" t="n">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>129.42</v>
+        <v>267.7</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-1.58</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>APEX</t>
+          <t>MMTC</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>233.52</v>
+        <v>66.03</v>
       </c>
       <c r="C104" t="n">
-        <v>240.49</v>
+        <v>67.7</v>
       </c>
       <c r="D104" t="n">
-        <v>2.98</v>
+        <v>2.53</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>245.7</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>2.17</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DAMODARIND</t>
+          <t>INDOBORAX</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>33.11</v>
+        <v>253.5</v>
       </c>
       <c r="C105" t="n">
-        <v>34.09</v>
+        <v>259.9</v>
       </c>
       <c r="D105" t="n">
-        <v>2.96</v>
+        <v>2.52</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>33.2</v>
+        <v>250.35</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-2.61</v>
+        <v>-3.67</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NGLFINE</t>
+          <t>NOIDATOLL</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>1485.5</v>
+        <v>4.39</v>
       </c>
       <c r="C106" t="n">
-        <v>1529</v>
+        <v>4.5</v>
       </c>
       <c r="D106" t="n">
-        <v>2.93</v>
+        <v>2.51</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>1493.1</v>
+        <v>4.35</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-2.35</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NYKAA</t>
+          <t>BANKA</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>245.87</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="C107" t="n">
-        <v>253.02</v>
+        <v>87.84</v>
       </c>
       <c r="D107" t="n">
-        <v>2.91</v>
+        <v>2.49</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>254.62</v>
+        <v>87.77</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>0.63</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>GANGAFORGE</t>
+          <t>MAANALU</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>3.47</v>
+        <v>138.38</v>
       </c>
       <c r="C108" t="n">
-        <v>3.57</v>
+        <v>141.8</v>
       </c>
       <c r="D108" t="n">
-        <v>2.88</v>
+        <v>2.47</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>3.5</v>
+        <v>136.22</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-1.96</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>INNOVANA</t>
+          <t>IL&amp;FSENGG</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>481.85</v>
+        <v>26.39</v>
       </c>
       <c r="C109" t="n">
-        <v>495.5</v>
+        <v>27.04</v>
       </c>
       <c r="D109" t="n">
-        <v>2.83</v>
+        <v>2.46</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
-      <c r="F109" t="n">
-        <v>485</v>
-      </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="n">
-        <v>-2.12</v>
-      </c>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>COUNCODOS</t>
+          <t>FLEXITUFF</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>6.07</v>
+        <v>17.56</v>
       </c>
       <c r="C110" t="n">
-        <v>6.24</v>
+        <v>17.99</v>
       </c>
       <c r="D110" t="n">
-        <v>2.8</v>
+        <v>2.45</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>6.09</v>
+        <v>17.99</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-2.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HPL</t>
+          <t>POKARNA</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>421.1</v>
+        <v>839.6</v>
       </c>
       <c r="C111" t="n">
-        <v>432.85</v>
+        <v>860</v>
       </c>
       <c r="D111" t="n">
-        <v>2.79</v>
+        <v>2.43</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>459.65</v>
+        <v>844.55</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>6.19</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>WEALTH</t>
+          <t>MCLOUD</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>1064.3</v>
+        <v>55.36</v>
       </c>
       <c r="C112" t="n">
-        <v>1094</v>
+        <v>56.7</v>
       </c>
       <c r="D112" t="n">
-        <v>2.79</v>
+        <v>2.42</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>1080.9</v>
+        <v>57.98</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-1.2</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>VGL</t>
+          <t>PRECOT</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>148.87</v>
+        <v>463.8</v>
       </c>
       <c r="C113" t="n">
-        <v>152.99</v>
+        <v>475</v>
       </c>
       <c r="D113" t="n">
-        <v>2.77</v>
+        <v>2.41</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>154</v>
+        <v>470.15</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>0.66</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>NATIONALUM</t>
+          <t>SITINET</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>234.73</v>
+        <v>0.42</v>
       </c>
       <c r="C114" t="n">
-        <v>241.15</v>
+        <v>0.43</v>
       </c>
       <c r="D114" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>254</v>
+        <v>0.43</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>5.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NECLIFE</t>
+          <t>APEX</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>14.68</v>
+        <v>243.35</v>
       </c>
       <c r="C115" t="n">
-        <v>15.08</v>
+        <v>248.99</v>
       </c>
       <c r="D115" t="n">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>15.12</v>
+        <v>244</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>0.27</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ORIENTALTL</t>
+          <t>MARALOVER</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>9.640000000000001</v>
+        <v>50.68</v>
       </c>
       <c r="C116" t="n">
-        <v>9.9</v>
+        <v>51.85</v>
       </c>
       <c r="D116" t="n">
-        <v>2.7</v>
+        <v>2.31</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>9.74</v>
+        <v>51.64</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-1.62</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DWARKESH</t>
+          <t>TICL</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>41.94</v>
+        <v>32.5</v>
       </c>
       <c r="C117" t="n">
-        <v>43.05</v>
+        <v>33.25</v>
       </c>
       <c r="D117" t="n">
-        <v>2.65</v>
+        <v>2.31</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>43.26</v>
+        <v>32.25</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>0.49</v>
+        <v>-3.01</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>UTTAMSUGAR</t>
+          <t>BESTAGRO</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>235.66</v>
+        <v>311.35</v>
       </c>
       <c r="C118" t="n">
-        <v>241.9</v>
+        <v>318.5</v>
       </c>
       <c r="D118" t="n">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>242.16</v>
+        <v>313.3</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>0.11</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>JAINREC</t>
+          <t>ATHERENERG</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>385.85</v>
+        <v>625.7</v>
       </c>
       <c r="C119" t="n">
-        <v>395.95</v>
+        <v>640</v>
       </c>
       <c r="D119" t="n">
-        <v>2.62</v>
+        <v>2.29</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>405.7</v>
+        <v>631</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>2.46</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>NSIL</t>
+          <t>FOODSIN</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>6812.5</v>
+        <v>84.09</v>
       </c>
       <c r="C120" t="n">
-        <v>6990</v>
+        <v>86</v>
       </c>
       <c r="D120" t="n">
-        <v>2.61</v>
+        <v>2.27</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>7025</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>0.5</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BANARISUG</t>
+          <t>ROSSELLIND</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>3601.1</v>
+        <v>60.43</v>
       </c>
       <c r="C121" t="n">
-        <v>3695</v>
+        <v>61.8</v>
       </c>
       <c r="D121" t="n">
-        <v>2.61</v>
+        <v>2.27</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>3652</v>
+        <v>61.38</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-1.16</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ROSSELLIND</t>
+          <t>INDIANHUME</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>60.15</v>
+        <v>373.6</v>
       </c>
       <c r="C122" t="n">
-        <v>61.7</v>
+        <v>382</v>
       </c>
       <c r="D122" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>60.15</v>
+        <v>388</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-2.51</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BLBLIMITED</t>
+          <t>INTELLECT</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>17.04</v>
+        <v>1099.1</v>
       </c>
       <c r="C123" t="n">
-        <v>17.48</v>
+        <v>1123.8</v>
       </c>
       <c r="D123" t="n">
-        <v>2.58</v>
+        <v>2.25</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>17.04</v>
+        <v>1102.3</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-2.52</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>KOTHARIPRO</t>
+          <t>UNIVASTU</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>89.13</v>
+        <v>65.26000000000001</v>
       </c>
       <c r="C124" t="n">
-        <v>91.40000000000001</v>
+        <v>66.7</v>
       </c>
       <c r="D124" t="n">
-        <v>2.55</v>
+        <v>2.21</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>89.94</v>
+        <v>65.16</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-1.6</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>FABTECH</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>243.88</v>
+        <v>0.91</v>
       </c>
       <c r="C125" t="n">
-        <v>250</v>
+        <v>0.93</v>
       </c>
       <c r="D125" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>242.61</v>
+        <v>0.92</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-2.96</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RATNAMANI</t>
+          <t>AROGRANITE</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>2409.5</v>
+        <v>34.69</v>
       </c>
       <c r="C126" t="n">
-        <v>2470</v>
+        <v>35.45</v>
       </c>
       <c r="D126" t="n">
-        <v>2.51</v>
+        <v>2.19</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>2438</v>
+        <v>35.14</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-1.3</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>DIVINEHIRA</t>
+          <t>KEYFINSERV</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>122</v>
+        <v>352.3</v>
       </c>
       <c r="C127" t="n">
-        <v>125.05</v>
+        <v>360</v>
       </c>
       <c r="D127" t="n">
-        <v>2.5</v>
+        <v>2.19</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>125.05</v>
+        <v>350.3</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>-2.69</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>IL&amp;FSENGG</t>
+          <t>MANALIPETC</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>26.76</v>
+        <v>68.02</v>
       </c>
       <c r="C128" t="n">
-        <v>27.42</v>
+        <v>69.5</v>
       </c>
       <c r="D128" t="n">
-        <v>2.47</v>
+        <v>2.18</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
-      <c r="F128" t="inlineStr"/>
+      <c r="F128" t="n">
+        <v>71.63</v>
+      </c>
       <c r="G128" t="inlineStr"/>
-      <c r="H128" t="inlineStr"/>
+      <c r="H128" t="n">
+        <v>3.06</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GTECJAINX</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>22.67</v>
+        <v>204.46</v>
       </c>
       <c r="C129" t="n">
-        <v>23.23</v>
+        <v>208.89</v>
       </c>
       <c r="D129" t="n">
-        <v>2.47</v>
+        <v>2.17</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>23.23</v>
+        <v>201.42</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ANANTRAJ</t>
+          <t>ATAM</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>619.85</v>
+        <v>94.94</v>
       </c>
       <c r="C130" t="n">
-        <v>635.1</v>
+        <v>97</v>
       </c>
       <c r="D130" t="n">
-        <v>2.46</v>
+        <v>2.17</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>636</v>
+        <v>95.17</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>0.14</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>VISHWARAJ</t>
+          <t>ELIN</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>7.71</v>
+        <v>205.53</v>
       </c>
       <c r="C131" t="n">
-        <v>7.9</v>
+        <v>210</v>
       </c>
       <c r="D131" t="n">
-        <v>2.46</v>
+        <v>2.17</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>7.89</v>
+        <v>204.95</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-0.13</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>DRCSYSTEMS</t>
+          <t>VISAKAIND</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>19.04</v>
+        <v>78.59</v>
       </c>
       <c r="C132" t="n">
-        <v>19.5</v>
+        <v>80.28</v>
       </c>
       <c r="D132" t="n">
-        <v>2.42</v>
+        <v>2.15</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>19.05</v>
+        <v>78.15000000000001</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-2.31</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>AGROPHOS</t>
+          <t>VETO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>42.76</v>
+        <v>116.03</v>
       </c>
       <c r="C133" t="n">
-        <v>43.79</v>
+        <v>118.5</v>
       </c>
       <c r="D133" t="n">
-        <v>2.41</v>
+        <v>2.13</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>41.92</v>
+        <v>115.74</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-4.27</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SEQUENT</t>
+          <t>BANSALWIRE</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>214.79</v>
+        <v>313.2</v>
       </c>
       <c r="C134" t="n">
-        <v>219.89</v>
+        <v>319.85</v>
       </c>
       <c r="D134" t="n">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>215.37</v>
+        <v>315</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-2.06</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>VIPCLOTHNG</t>
+          <t>HINDCOMPOS</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>35.07</v>
+        <v>472.4</v>
       </c>
       <c r="C135" t="n">
-        <v>35.9</v>
+        <v>482.4</v>
       </c>
       <c r="D135" t="n">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>35.39</v>
+        <v>471</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-1.42</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>EBGNG</t>
+          <t>TRANSWORLD</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>337.55</v>
+        <v>242.89</v>
       </c>
       <c r="C136" t="n">
-        <v>345.55</v>
+        <v>248</v>
       </c>
       <c r="D136" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>353.7</v>
+        <v>247.83</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>2.36</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SAKHTISUG</t>
+          <t>CARTRADE</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>19.93</v>
+        <v>2981.7</v>
       </c>
       <c r="C137" t="n">
-        <v>20.4</v>
+        <v>3044</v>
       </c>
       <c r="D137" t="n">
-        <v>2.36</v>
+        <v>2.09</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>20.56</v>
+        <v>3133</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>0.78</v>
+        <v>2.92</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>KDL</t>
+          <t>HMVL</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>173.9</v>
+        <v>74.45</v>
       </c>
       <c r="C138" t="n">
-        <v>178</v>
+        <v>76</v>
       </c>
       <c r="D138" t="n">
-        <v>2.36</v>
+        <v>2.08</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>181</v>
+        <v>73.75</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>1.69</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>INTERARCH</t>
+          <t>THEJO</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>2520.7</v>
+        <v>1739.8</v>
       </c>
       <c r="C139" t="n">
-        <v>2580</v>
+        <v>1776</v>
       </c>
       <c r="D139" t="n">
-        <v>2.35</v>
+        <v>2.08</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>2674</v>
+        <v>1778.6</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>3.64</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>UNIVPHOTO</t>
+          <t>MANBA</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>268.65</v>
+        <v>137.67</v>
       </c>
       <c r="C140" t="n">
-        <v>274.95</v>
+        <v>140.5</v>
       </c>
       <c r="D140" t="n">
-        <v>2.35</v>
+        <v>2.06</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>274.75</v>
+        <v>137.68</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>BAJAJCON</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>141.67</v>
+        <v>295.9</v>
       </c>
       <c r="C141" t="n">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="D141" t="n">
-        <v>2.35</v>
+        <v>2.06</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>141.41</v>
+        <v>293.15</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-2.48</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>RITCO</t>
+          <t>SSEGL</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>256.8</v>
+        <v>546.8</v>
       </c>
       <c r="C142" t="n">
-        <v>262.8</v>
+        <v>558</v>
       </c>
       <c r="D142" t="n">
-        <v>2.34</v>
+        <v>2.05</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>254.45</v>
+        <v>542.95</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-3.18</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SMCGLOBAL</t>
+          <t>CELEBRITY</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>130.93</v>
+        <v>10.34</v>
       </c>
       <c r="C143" t="n">
-        <v>134</v>
+        <v>10.55</v>
       </c>
       <c r="D143" t="n">
-        <v>2.34</v>
+        <v>2.03</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>135.99</v>
+        <v>10.5</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>1.49</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>KOHINOOR</t>
+          <t>NELCAST</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>31.15</v>
+        <v>111.26</v>
       </c>
       <c r="C144" t="n">
-        <v>31.88</v>
+        <v>113.5</v>
       </c>
       <c r="D144" t="n">
-        <v>2.34</v>
+        <v>2.01</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>30.97</v>
+        <v>110.25</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-2.85</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SITINET</t>
+          <t>COMPINFO</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.43</v>
+        <v>1.99</v>
       </c>
       <c r="C145" t="n">
-        <v>0.44</v>
+        <v>2.03</v>
       </c>
       <c r="D145" t="n">
-        <v>2.33</v>
+        <v>2.01</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.43</v>
+        <v>1.91</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-2.27</v>
+        <v>-5.91</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NAHARINDUS</t>
+          <t>MOTOGENFIN</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>110.92</v>
+        <v>25.83</v>
       </c>
       <c r="C146" t="n">
-        <v>113.5</v>
+        <v>26.35</v>
       </c>
       <c r="D146" t="n">
-        <v>2.33</v>
+        <v>2.01</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>110.68</v>
+        <v>25.9</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-2.48</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NIPPOBATRY</t>
+          <t>SHK</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>439.35</v>
+        <v>188.37</v>
       </c>
       <c r="C147" t="n">
-        <v>449.5</v>
+        <v>192.15</v>
       </c>
       <c r="D147" t="n">
-        <v>2.31</v>
+        <v>2.01</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>439.65</v>
+        <v>186.3</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-2.19</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>COMSYN</t>
+          <t>OILCOUNTUB</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>159.83</v>
+        <v>64.16</v>
       </c>
       <c r="C148" t="n">
-        <v>163.5</v>
+        <v>65.45</v>
       </c>
       <c r="D148" t="n">
-        <v>2.3</v>
+        <v>2.01</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>159.11</v>
+        <v>65.48</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-2.69</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LORDSCHLO</t>
+          <t>UYFINCORP</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>219.37</v>
+        <v>16.44</v>
       </c>
       <c r="C149" t="n">
-        <v>224.4</v>
+        <v>16.77</v>
       </c>
       <c r="D149" t="n">
-        <v>2.29</v>
+        <v>2.01</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>223</v>
+        <v>16.16</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-0.62</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AIAENG</t>
+          <t>SAGARDEEP</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>3256.2</v>
+        <v>27.45</v>
       </c>
       <c r="C150" t="n">
-        <v>3330</v>
+        <v>28</v>
       </c>
       <c r="D150" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>3385.6</v>
+        <v>28</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>INDORAMA</t>
+          <t>BPL</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>68.63</v>
+        <v>70.48999999999999</v>
       </c>
       <c r="C151" t="n">
-        <v>70.19</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="D151" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>68.87</v>
+        <v>70.54000000000001</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-1.88</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SGIL</t>
+          <t>TARAPUR</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>543.6</v>
+        <v>35.53</v>
       </c>
       <c r="C152" t="n">
-        <v>555.95</v>
+        <v>36.24</v>
       </c>
       <c r="D152" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>543.5</v>
+        <v>36.3</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-2.24</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SHAILY</t>
+          <t>ALANKIT</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2475.9</v>
+        <v>11.52</v>
       </c>
       <c r="C153" t="n">
-        <v>2532</v>
+        <v>11.75</v>
       </c>
       <c r="D153" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>2372.8</v>
+        <v>11.69</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-6.29</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>BASML</t>
+          <t>ACCENTMIC</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>26.89</v>
+        <v>295.1</v>
       </c>
       <c r="C154" t="n">
-        <v>27.5</v>
+        <v>301</v>
       </c>
       <c r="D154" t="n">
-        <v>2.27</v>
+        <v>2</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>26.69</v>
+        <v>306</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-2.95</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DENTA</t>
+          <t>SIKKO</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>409.75</v>
+        <v>109.29</v>
       </c>
       <c r="C155" t="n">
-        <v>419</v>
+        <v>111.48</v>
       </c>
       <c r="D155" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>413.45</v>
+        <v>106.52</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-1.32</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>MFML</t>
+          <t>BILVYAPAR</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>27.84</v>
+        <v>11</v>
       </c>
       <c r="C156" t="n">
-        <v>28.47</v>
+        <v>11.22</v>
       </c>
       <c r="D156" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>28.46</v>
+        <v>11.22</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SHERA</t>
+          <t>FISCHER</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>133</v>
+        <v>91.78</v>
       </c>
       <c r="C157" t="n">
-        <v>136</v>
+        <v>93.62</v>
       </c>
       <c r="D157" t="n">
-        <v>2.26</v>
+        <v>2</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>136.45</v>
+        <v>86</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>0.33</v>
+        <v>-8.140000000000001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>VARDMNPOLY</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>9.83</v>
+        <v>7.59</v>
       </c>
       <c r="C158" t="n">
-        <v>10.05</v>
+        <v>7.74</v>
       </c>
       <c r="D158" t="n">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>10</v>
+        <v>7.47</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-0.5</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TORNTPHARM</t>
+          <t>DTIL</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>3580</v>
+        <v>160.27</v>
       </c>
       <c r="C159" t="n">
-        <v>3660</v>
+        <v>163.44</v>
       </c>
       <c r="D159" t="n">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>3725.5</v>
+        <v>163.24</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>1.79</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>BAJAJINDEF</t>
+          <t>HINDCON</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>371.6</v>
+        <v>30.84</v>
       </c>
       <c r="C160" t="n">
-        <v>379.9</v>
+        <v>31.45</v>
       </c>
       <c r="D160" t="n">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>375.85</v>
+        <v>31.26</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-1.07</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PIGL</t>
+          <t>LCCINFOTEC</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>148.23</v>
+        <v>4.06</v>
       </c>
       <c r="C161" t="n">
-        <v>151.5</v>
+        <v>4.14</v>
       </c>
       <c r="D161" t="n">
-        <v>2.21</v>
+        <v>1.97</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>153.69</v>
+        <v>4.12</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>1.45</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>ADFFOODS</t>
+          <t>HEADSUP</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>232.49</v>
+        <v>10.64</v>
       </c>
       <c r="C162" t="n">
-        <v>237.6</v>
+        <v>10.85</v>
       </c>
       <c r="D162" t="n">
-        <v>2.2</v>
+        <v>1.97</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>227.64</v>
+        <v>10.72</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-4.19</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>MKPL</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>0.91</v>
+        <v>6.62</v>
       </c>
       <c r="C163" t="n">
-        <v>0.93</v>
+        <v>6.75</v>
       </c>
       <c r="D163" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>0.92</v>
+        <v>6.77</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-1.08</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SIYSIL</t>
+          <t>RAJRILTD</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>781.9</v>
+        <v>24.46</v>
       </c>
       <c r="C164" t="n">
-        <v>798.95</v>
+        <v>24.94</v>
       </c>
       <c r="D164" t="n">
-        <v>2.18</v>
+        <v>1.96</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>808.45</v>
+        <v>24.85</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>1.19</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NITCO</t>
+          <t>LPDC</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>93.45999999999999</v>
+        <v>7.7</v>
       </c>
       <c r="C165" t="n">
-        <v>95.5</v>
+        <v>7.85</v>
       </c>
       <c r="D165" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>92.66</v>
+        <v>7.71</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-2.97</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GANGESSECU</t>
+          <t>GUJTHEM</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>150.71</v>
+        <v>453.15</v>
       </c>
       <c r="C166" t="n">
-        <v>154</v>
+        <v>462</v>
       </c>
       <c r="D166" t="n">
-        <v>2.18</v>
+        <v>1.95</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>150</v>
+        <v>451</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-2.6</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>DALMIASUG</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>2.76</v>
+        <v>323.25</v>
       </c>
       <c r="C167" t="n">
-        <v>2.82</v>
+        <v>329.55</v>
       </c>
       <c r="D167" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>2.87</v>
+        <v>320</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>1.77</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>FILATFASH</t>
+          <t>DIGIDRIVE</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.46</v>
+        <v>28.94</v>
       </c>
       <c r="C168" t="n">
-        <v>0.47</v>
+        <v>29.5</v>
       </c>
       <c r="D168" t="n">
-        <v>2.17</v>
+        <v>1.94</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.48</v>
+        <v>29.16</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>2.13</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BALRAMCHIN</t>
+          <t>SURANAT&amp;P</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>432.55</v>
+        <v>20.74</v>
       </c>
       <c r="C169" t="n">
-        <v>441.95</v>
+        <v>21.14</v>
       </c>
       <c r="D169" t="n">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
-      <c r="F169" t="n">
-        <v>452.4</v>
-      </c>
+      <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="n">
-        <v>2.36</v>
-      </c>
+      <c r="H169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SOMICONVEY</t>
+          <t>GATECHDVR</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>152.83</v>
+        <v>0.52</v>
       </c>
       <c r="C170" t="n">
-        <v>156.13</v>
+        <v>0.53</v>
       </c>
       <c r="D170" t="n">
-        <v>2.16</v>
+        <v>1.92</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>154.73</v>
+        <v>0.52</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-0.9</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AVONMORE</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>17.71</v>
+        <v>54.45</v>
       </c>
       <c r="C171" t="n">
-        <v>18.09</v>
+        <v>55.49</v>
       </c>
       <c r="D171" t="n">
-        <v>2.15</v>
+        <v>1.91</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>17.63</v>
+        <v>54.22</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-2.54</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ACEINTEG</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>23.4</v>
+        <v>0.53</v>
       </c>
       <c r="C172" t="n">
-        <v>23.9</v>
+        <v>0.54</v>
       </c>
       <c r="D172" t="n">
-        <v>2.14</v>
+        <v>1.89</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>23.85</v>
+        <v>0.54</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>KCPSUGIND</t>
+          <t>INTENTECH</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>29.49</v>
+        <v>120.62</v>
       </c>
       <c r="C173" t="n">
-        <v>30.12</v>
+        <v>122.89</v>
       </c>
       <c r="D173" t="n">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>29.96</v>
+        <v>119.5</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-0.53</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ANDHRSUGAR</t>
+          <t>TNPETRO</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>81.95</v>
+        <v>123.69</v>
       </c>
       <c r="C174" t="n">
-        <v>83.7</v>
+        <v>126</v>
       </c>
       <c r="D174" t="n">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>83.64</v>
+        <v>126.27</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CELEBRITY</t>
+          <t>RHFL</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>10.29</v>
+        <v>3.22</v>
       </c>
       <c r="C175" t="n">
-        <v>10.51</v>
+        <v>3.28</v>
       </c>
       <c r="D175" t="n">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>10.4</v>
+        <v>3.34</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-1.05</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SILLYMONKS</t>
+          <t>INDUSINVIT</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>23</v>
+        <v>121.15</v>
       </c>
       <c r="C176" t="n">
-        <v>23.49</v>
+        <v>123.4</v>
       </c>
       <c r="D176" t="n">
-        <v>2.13</v>
+        <v>1.86</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>22.75</v>
+        <v>122</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-3.15</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>GLOTTIS</t>
+          <t>VGINFOTECH</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>69.52</v>
+        <v>157.05</v>
       </c>
       <c r="C177" t="n">
-        <v>71</v>
+        <v>159.95</v>
       </c>
       <c r="D177" t="n">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>69.88</v>
+        <v>159.95</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-1.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SWARAJENG</t>
+          <t>BSL</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>3893.1</v>
+        <v>200.29</v>
       </c>
       <c r="C178" t="n">
-        <v>3976</v>
+        <v>203.99</v>
       </c>
       <c r="D178" t="n">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>3918.9</v>
+        <v>200.29</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-1.44</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SATTVAENGG</t>
+          <t>HYBRIDFIN</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>92.05</v>
+        <v>23.52</v>
       </c>
       <c r="C179" t="n">
-        <v>94</v>
+        <v>23.95</v>
       </c>
       <c r="D179" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>91.75</v>
+        <v>23.99</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-2.39</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>VINEETLAB</t>
+          <t>BHAGYANGR</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>46.03</v>
+        <v>137.47</v>
       </c>
       <c r="C180" t="n">
-        <v>47</v>
+        <v>139.97</v>
       </c>
       <c r="D180" t="n">
-        <v>2.11</v>
+        <v>1.82</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>46.41</v>
+        <v>141.5</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-1.26</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LYPSAGEMS</t>
+          <t>VISHWARAJ</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>5.26</v>
+        <v>7.75</v>
       </c>
       <c r="C181" t="n">
-        <v>5.37</v>
+        <v>7.89</v>
       </c>
       <c r="D181" t="n">
-        <v>2.09</v>
+        <v>1.81</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>5.35</v>
+        <v>7.8</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-0.37</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>REPRO</t>
+          <t>INDTERRAIN</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>563.3</v>
+        <v>40.77</v>
       </c>
       <c r="C182" t="n">
-        <v>575</v>
+        <v>41.5</v>
       </c>
       <c r="D182" t="n">
-        <v>2.08</v>
+        <v>1.79</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>574.5</v>
+        <v>41.19</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-0.09</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ROLTA</t>
+          <t>IVALUE</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>1.96</v>
+        <v>290.85</v>
       </c>
       <c r="C183" t="n">
-        <v>2</v>
+        <v>296.05</v>
       </c>
       <c r="D183" t="n">
-        <v>2.04</v>
+        <v>1.79</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>1.98</v>
+        <v>292.1</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-1</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AUSOMENT</t>
+          <t>KESORAMIND</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>102.91</v>
+        <v>5.06</v>
       </c>
       <c r="C184" t="n">
-        <v>105</v>
+        <v>5.15</v>
       </c>
       <c r="D184" t="n">
-        <v>2.03</v>
+        <v>1.78</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>103.8</v>
+        <v>5.07</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-1.14</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>VSTL</t>
+          <t>ATULAUTO</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>142.82</v>
+        <v>445.75</v>
       </c>
       <c r="C185" t="n">
-        <v>145.7</v>
+        <v>453.65</v>
       </c>
       <c r="D185" t="n">
-        <v>2.02</v>
+        <v>1.77</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>143.1</v>
+        <v>442.5</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-1.78</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>IL&amp;FSTRANS</t>
+          <t>GILLANDERS</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2.97</v>
+        <v>117.83</v>
       </c>
       <c r="C186" t="n">
-        <v>3.03</v>
+        <v>119.9</v>
       </c>
       <c r="D186" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>121</v>
+      </c>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>0.92</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SETCO</t>
+          <t>SMSLIFE</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>17.84</v>
+        <v>1197.9</v>
       </c>
       <c r="C187" t="n">
-        <v>18.2</v>
+        <v>1219</v>
       </c>
       <c r="D187" t="n">
-        <v>2.02</v>
+        <v>1.76</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>18.28</v>
+        <v>1222.2</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>0.44</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KOTARISUG</t>
+          <t>GLOSTERLTD</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>29.88</v>
+        <v>610.35</v>
       </c>
       <c r="C188" t="n">
-        <v>30.48</v>
+        <v>621</v>
       </c>
       <c r="D188" t="n">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>30.66</v>
+        <v>620.95</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>0.59</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SINCLAIR</t>
+          <t>CSLFINANCE</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>89.38</v>
+        <v>265.4</v>
       </c>
       <c r="C189" t="n">
-        <v>91.18000000000001</v>
+        <v>270</v>
       </c>
       <c r="D189" t="n">
-        <v>2.01</v>
+        <v>1.73</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>89.91</v>
+        <v>261.2</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-1.39</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>GATECHDVR</t>
+          <t>MOTISONS</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.5</v>
+        <v>16.17</v>
       </c>
       <c r="C190" t="n">
-        <v>0.51</v>
+        <v>16.45</v>
       </c>
       <c r="D190" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.51</v>
+        <v>16.24</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>ARTNIRMAN</t>
+          <t>K2INFRA</t>
         </is>
       </c>
       <c r="B191" t="n">
         <v>55</v>
       </c>
       <c r="C191" t="n">
-        <v>56.1</v>
+        <v>55.95</v>
       </c>
       <c r="D191" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>56.1</v>
+        <v>53.6</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>MVGJL</t>
+          <t>BIRLAMONEY</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>200.01</v>
+        <v>157.27</v>
       </c>
       <c r="C192" t="n">
-        <v>204</v>
+        <v>159.98</v>
       </c>
       <c r="D192" t="n">
-        <v>1.99</v>
+        <v>1.72</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>200.82</v>
+        <v>157.12</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-1.56</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>IZMO</t>
+          <t>TAC</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>867.2</v>
+        <v>804.2</v>
       </c>
       <c r="C193" t="n">
-        <v>884.45</v>
+        <v>817.95</v>
       </c>
       <c r="D193" t="n">
-        <v>1.99</v>
+        <v>1.71</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>850</v>
+        <v>785.2</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>LLOYDSENGG</t>
+          <t>PEARLPOLY</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>58.73</v>
+        <v>26.5</v>
       </c>
       <c r="C194" t="n">
-        <v>59.9</v>
+        <v>26.95</v>
       </c>
       <c r="D194" t="n">
-        <v>1.99</v>
+        <v>1.7</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>59.8</v>
+        <v>26.45</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-0.17</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MONEYBOXX</t>
+          <t>RAMRAT</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>154.54</v>
+        <v>622.4</v>
       </c>
       <c r="C195" t="n">
-        <v>157.6</v>
+        <v>633</v>
       </c>
       <c r="D195" t="n">
-        <v>1.98</v>
+        <v>1.7</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>156.23</v>
+        <v>627</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-0.87</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SCPL</t>
+          <t>LYPSAGEMS</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>228.28</v>
+        <v>5.31</v>
       </c>
       <c r="C196" t="n">
-        <v>232.8</v>
+        <v>5.4</v>
       </c>
       <c r="D196" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>223</v>
+        <v>5.35</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-4.21</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>KPIGREEN</t>
+          <t>BANSWRAS</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>503.2</v>
+        <v>115.05</v>
       </c>
       <c r="C197" t="n">
-        <v>513.15</v>
+        <v>117</v>
       </c>
       <c r="D197" t="n">
-        <v>1.98</v>
+        <v>1.69</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>498.7</v>
+        <v>117.26</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-2.82</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MOSCHIP</t>
+          <t>VARDHACRLC</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>233.75</v>
+        <v>40.33</v>
       </c>
       <c r="C198" t="n">
-        <v>238.35</v>
+        <v>41</v>
       </c>
       <c r="D198" t="n">
-        <v>1.97</v>
+        <v>1.66</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>233.55</v>
+        <v>40.49</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-2.01</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ZENITHSTL</t>
+          <t>SATIA</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>8.16</v>
+        <v>74.75</v>
       </c>
       <c r="C199" t="n">
-        <v>8.32</v>
+        <v>75.98</v>
       </c>
       <c r="D199" t="n">
-        <v>1.96</v>
+        <v>1.65</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>8.199999999999999</v>
+        <v>74.88</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-1.44</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>INTLCONV</t>
+          <t>AKASH</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>94.04000000000001</v>
+        <v>27.48</v>
       </c>
       <c r="C200" t="n">
-        <v>95.88</v>
+        <v>27.93</v>
       </c>
       <c r="D200" t="n">
-        <v>1.96</v>
+        <v>1.64</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>93.25</v>
+        <v>27.93</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SURANASOL</t>
+          <t>SADBHIN</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>31.07</v>
+        <v>3.74</v>
       </c>
       <c r="C201" t="n">
-        <v>31.68</v>
+        <v>3.8</v>
       </c>
       <c r="D201" t="n">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>31.08</v>
+        <v>3.81</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-1.89</v>
+        <v>0.26</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,430 +478,430 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>IEML-RE</t>
+          <t>SHREEOSFM</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.95</v>
+        <v>94.95</v>
       </c>
       <c r="C2" t="n">
-        <v>30.7</v>
+        <v>104.9</v>
       </c>
       <c r="D2" t="n">
-        <v>39.86</v>
+        <v>10.48</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>30.7</v>
+        <v>101.6</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SAFEENTP</t>
+          <t>NMSTEEL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>194.65</v>
+        <v>31</v>
       </c>
       <c r="C3" t="n">
-        <v>232</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>19.19</v>
+        <v>9.68</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>215</v>
+        <v>33.1</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>-7.33</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>VENUSREM</t>
+          <t>MASTER</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>468.95</v>
+        <v>398</v>
       </c>
       <c r="C4" t="n">
-        <v>548</v>
+        <v>436</v>
       </c>
       <c r="D4" t="n">
-        <v>16.86</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>531.9</v>
+        <v>380</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-2.94</v>
+        <v>-12.84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ORIENTCER</t>
+          <t>VIESL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.93</v>
+        <v>261.9</v>
       </c>
       <c r="C5" t="n">
-        <v>41.8</v>
+        <v>285</v>
       </c>
       <c r="D5" t="n">
-        <v>16.34</v>
+        <v>8.82</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>40.18</v>
+        <v>276.2</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-3.88</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PREMIERPOL</t>
+          <t>FINKURVE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.8</v>
+        <v>106.41</v>
       </c>
       <c r="C6" t="n">
-        <v>42.5</v>
+        <v>115</v>
       </c>
       <c r="D6" t="n">
-        <v>6.78</v>
+        <v>8.07</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>41.14</v>
+        <v>112.36</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-3.2</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FORCAS</t>
+          <t>RACE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>125</v>
+        <v>184</v>
       </c>
       <c r="C7" t="n">
-        <v>133</v>
+        <v>197.99</v>
       </c>
       <c r="D7" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>133</v>
+        <v>184.8</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-6.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PILITA</t>
+          <t>SUNTECH</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.93</v>
+        <v>54</v>
       </c>
       <c r="C8" t="n">
-        <v>12.65</v>
+        <v>57.95</v>
       </c>
       <c r="D8" t="n">
-        <v>6.04</v>
+        <v>7.31</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-5.14</v>
+        <v>-6.82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UNIINFO</t>
+          <t>KIRLOSENG</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.91</v>
+        <v>945.4</v>
       </c>
       <c r="C9" t="n">
-        <v>16.85</v>
+        <v>1010</v>
       </c>
       <c r="D9" t="n">
-        <v>5.91</v>
+        <v>6.83</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>16.57</v>
+        <v>1058.6</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-1.66</v>
+        <v>4.81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ESABINDIA</t>
+          <t>GANESHIN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4850.2</v>
+        <v>232.6</v>
       </c>
       <c r="C10" t="n">
-        <v>5135</v>
+        <v>248</v>
       </c>
       <c r="D10" t="n">
-        <v>5.87</v>
+        <v>6.62</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>5445.2</v>
+        <v>224</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>6.04</v>
+        <v>-9.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>ECOSMOBLTY</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.06</v>
+        <v>193.53</v>
       </c>
       <c r="C11" t="n">
-        <v>88.98999999999999</v>
+        <v>205.94</v>
       </c>
       <c r="D11" t="n">
-        <v>5.86</v>
+        <v>6.41</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>82.09999999999999</v>
+        <v>224.86</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-7.74</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VIKRAN</t>
+          <t>VIPULLTD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>99.27</v>
+        <v>9.68</v>
       </c>
       <c r="C12" t="n">
-        <v>105</v>
+        <v>10.3</v>
       </c>
       <c r="D12" t="n">
-        <v>5.77</v>
+        <v>6.4</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>106.9</v>
+        <v>10.36</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>1.81</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SONAMLTD</t>
+          <t>IEML-RE</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.01</v>
+        <v>30.15</v>
       </c>
       <c r="C13" t="n">
-        <v>42.25</v>
+        <v>32</v>
       </c>
       <c r="D13" t="n">
-        <v>5.6</v>
+        <v>6.14</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>40.74</v>
+        <v>33.8</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-3.57</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MEGASTAR</t>
+          <t>ARENTERP</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>265.55</v>
+        <v>45.27</v>
       </c>
       <c r="C14" t="n">
-        <v>280</v>
+        <v>48</v>
       </c>
       <c r="D14" t="n">
-        <v>5.44</v>
+        <v>6.03</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>270</v>
+        <v>44.9</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-3.57</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KAPSTON</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>298.2</v>
+        <v>2.73</v>
       </c>
       <c r="C15" t="n">
-        <v>314</v>
+        <v>2.89</v>
       </c>
       <c r="D15" t="n">
-        <v>5.3</v>
+        <v>5.86</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>306.8</v>
+        <v>2.81</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-2.29</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DCMNVL</t>
+          <t>KANPRPLA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.24</v>
+        <v>205.72</v>
       </c>
       <c r="C16" t="n">
-        <v>145.45</v>
+        <v>217.47</v>
       </c>
       <c r="D16" t="n">
-        <v>5.22</v>
+        <v>5.71</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>141.62</v>
+        <v>211</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-2.63</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BAFNAPH</t>
+          <t>CINEVISTA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>183.28</v>
+        <v>17.5</v>
       </c>
       <c r="C17" t="n">
-        <v>192.44</v>
+        <v>18.39</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>5.09</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>192.44</v>
+        <v>17.79</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SWANDEF</t>
+          <t>TERASOFT</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>939.8</v>
+        <v>514</v>
       </c>
       <c r="C18" t="n">
-        <v>986.75</v>
+        <v>539.7</v>
       </c>
       <c r="D18" t="n">
         <v>5</v>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>986.75</v>
+        <v>539.7</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
@@ -920,23 +920,23 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZUARI</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.7</v>
+        <v>847.6</v>
       </c>
       <c r="C19" t="n">
-        <v>276.85</v>
+        <v>889.95</v>
       </c>
       <c r="D19" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>276.85</v>
+        <v>889.95</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
@@ -946,14 +946,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KANDARP</t>
+          <t>TECHLABS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>120.25</v>
+        <v>437.75</v>
       </c>
       <c r="C20" t="n">
-        <v>126.25</v>
+        <v>459.6</v>
       </c>
       <c r="D20" t="n">
         <v>4.99</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>126.25</v>
+        <v>459.6</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
@@ -972,14 +972,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IWARE</t>
+          <t>ZUARI</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>189.85</v>
+        <v>276.85</v>
       </c>
       <c r="C21" t="n">
-        <v>199.3</v>
+        <v>290.65</v>
       </c>
       <c r="D21" t="n">
         <v>4.98</v>
@@ -988,33 +988,33 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>199</v>
+        <v>284.3</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-0.15</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TAKE</t>
+          <t>KORE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>23.74</v>
+        <v>192.6</v>
       </c>
       <c r="C22" t="n">
-        <v>24.92</v>
+        <v>202.2</v>
       </c>
       <c r="D22" t="n">
-        <v>4.97</v>
+        <v>4.98</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>24.92</v>
+        <v>202.2</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
@@ -1024,404 +1024,404 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>FMNL</t>
+          <t>MSPL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.31</v>
+        <v>33.33</v>
       </c>
       <c r="C23" t="n">
-        <v>11.87</v>
+        <v>34.99</v>
       </c>
       <c r="D23" t="n">
-        <v>4.95</v>
+        <v>4.98</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>11.85</v>
+        <v>34.99</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SAKSOFT</t>
+          <t>TAKE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.29</v>
+        <v>24.92</v>
       </c>
       <c r="C24" t="n">
-        <v>203.9</v>
+        <v>26.16</v>
       </c>
       <c r="D24" t="n">
-        <v>4.95</v>
+        <v>4.98</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>200.43</v>
+        <v>26.16</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ANKITMETAL</t>
+          <t>NEPHROCARE</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.63</v>
+        <v>134.3</v>
       </c>
       <c r="C25" t="n">
-        <v>1.71</v>
+        <v>140.95</v>
       </c>
       <c r="D25" t="n">
-        <v>4.91</v>
+        <v>4.95</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.71</v>
+        <v>138</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>POLYSIL</t>
+          <t>IOLCP</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>286.1</v>
+        <v>88.8</v>
       </c>
       <c r="C26" t="n">
-        <v>300</v>
+        <v>93.2</v>
       </c>
       <c r="D26" t="n">
-        <v>4.86</v>
+        <v>4.95</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>293</v>
+        <v>98.69</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-2.33</v>
+        <v>5.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CINEVISTA</t>
+          <t>SSFL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17.52</v>
+        <v>154.35</v>
       </c>
       <c r="C27" t="n">
-        <v>18.37</v>
+        <v>161.9</v>
       </c>
       <c r="D27" t="n">
-        <v>4.85</v>
+        <v>4.89</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>17.2</v>
+        <v>160</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-6.37</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ABMINTLLTD</t>
+          <t>JAYSREETEA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.45</v>
+        <v>92.5</v>
       </c>
       <c r="C28" t="n">
-        <v>48.69</v>
+        <v>97</v>
       </c>
       <c r="D28" t="n">
-        <v>4.82</v>
+        <v>4.86</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>48.69</v>
+        <v>95.04000000000001</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FLFL</t>
+          <t>AMCL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.48</v>
+        <v>335.65</v>
       </c>
       <c r="C29" t="n">
-        <v>1.55</v>
+        <v>351.9</v>
       </c>
       <c r="D29" t="n">
-        <v>4.73</v>
+        <v>4.84</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>1.55</v>
+        <v>352</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>VIJIFIN</t>
+          <t>DRONE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3.17</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>3.32</v>
+        <v>83.7</v>
       </c>
       <c r="D30" t="n">
-        <v>4.73</v>
+        <v>4.82</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>3.3</v>
+        <v>83.8</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-0.6</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ESFL</t>
+          <t>ACCORD</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>233.95</v>
+        <v>20.8</v>
       </c>
       <c r="C31" t="n">
-        <v>245</v>
+        <v>21.8</v>
       </c>
       <c r="D31" t="n">
-        <v>4.72</v>
+        <v>4.81</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>236.5</v>
+        <v>21.8</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-3.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>BSE</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>9.99</v>
+        <v>2644.2</v>
       </c>
       <c r="C32" t="n">
-        <v>10.46</v>
+        <v>2770</v>
       </c>
       <c r="D32" t="n">
-        <v>4.7</v>
+        <v>4.76</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10.17</v>
+        <v>2812.9</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-2.77</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>GATECH</t>
+          <t>ALPSINDUS</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.64</v>
+        <v>1.89</v>
       </c>
       <c r="C33" t="n">
-        <v>0.67</v>
+        <v>1.98</v>
       </c>
       <c r="D33" t="n">
-        <v>4.69</v>
+        <v>4.76</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.67</v>
+        <v>1.92</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>ANIKINDS</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2.77</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="C34" t="n">
-        <v>2.9</v>
+        <v>77.5</v>
       </c>
       <c r="D34" t="n">
-        <v>4.69</v>
+        <v>4.74</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>2.81</v>
+        <v>74.02</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-3.1</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MVKAGRO</t>
+          <t>KLL</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>604.2</v>
+        <v>45.85</v>
       </c>
       <c r="C35" t="n">
-        <v>632.5</v>
+        <v>48</v>
       </c>
       <c r="D35" t="n">
-        <v>4.68</v>
+        <v>4.69</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>625</v>
+        <v>45.85</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-1.19</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>RELIABLE</t>
+          <t>MASKINVEST</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>149.88</v>
+        <v>156.73</v>
       </c>
       <c r="C36" t="n">
-        <v>156.9</v>
+        <v>164</v>
       </c>
       <c r="D36" t="n">
-        <v>4.68</v>
+        <v>4.64</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>155.6</v>
+        <v>163.9</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-0.83</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>FILATFASH</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>122.25</v>
+        <v>0.44</v>
       </c>
       <c r="C37" t="n">
-        <v>127.79</v>
+        <v>0.46</v>
       </c>
       <c r="D37" t="n">
-        <v>4.53</v>
+        <v>4.55</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>125</v>
+        <v>0.47</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-2.18</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GENSOL</t>
+          <t>MVGJL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>29.66</v>
+        <v>197.55</v>
       </c>
       <c r="C38" t="n">
-        <v>30.99</v>
+        <v>206.4</v>
       </c>
       <c r="D38" t="n">
         <v>4.48</v>
@@ -1430,596 +1430,596 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>31.14</v>
+        <v>207.13</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>0.48</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PARSVNATH</t>
+          <t>SHRADHA</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>15.94</v>
+        <v>42.88</v>
       </c>
       <c r="C39" t="n">
-        <v>16.65</v>
+        <v>44.75</v>
       </c>
       <c r="D39" t="n">
-        <v>4.45</v>
+        <v>4.36</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>15.82</v>
+        <v>44.04</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-4.98</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CLEDUCATE</t>
+          <t>ABCOTS</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>89.53</v>
+        <v>418.85</v>
       </c>
       <c r="C40" t="n">
-        <v>93.5</v>
+        <v>437</v>
       </c>
       <c r="D40" t="n">
-        <v>4.43</v>
+        <v>4.33</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>91.59999999999999</v>
+        <v>419.25</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-2.03</v>
+        <v>-4.06</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>TREEHOUSE</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>807.25</v>
+        <v>7.66</v>
       </c>
       <c r="C41" t="n">
-        <v>843</v>
+        <v>7.99</v>
       </c>
       <c r="D41" t="n">
-        <v>4.43</v>
+        <v>4.31</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>825.4</v>
+        <v>7.89</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-2.09</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SARVESHWAR</t>
+          <t>RADAAN</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>4.98</v>
+        <v>3.25</v>
       </c>
       <c r="C42" t="n">
-        <v>5.19</v>
+        <v>3.39</v>
       </c>
       <c r="D42" t="n">
-        <v>4.22</v>
+        <v>4.31</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>4.96</v>
+        <v>3.35</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-4.43</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SAVY</t>
+          <t>CREATIVE</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>166.5</v>
+        <v>693.35</v>
       </c>
       <c r="C43" t="n">
-        <v>173.4</v>
+        <v>723.1</v>
       </c>
       <c r="D43" t="n">
-        <v>4.14</v>
+        <v>4.29</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>165.85</v>
+        <v>702.9</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-4.35</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GLOBALE</t>
+          <t>GSFC</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>12.43</v>
+        <v>184.14</v>
       </c>
       <c r="C44" t="n">
-        <v>12.94</v>
+        <v>192</v>
       </c>
       <c r="D44" t="n">
-        <v>4.1</v>
+        <v>4.27</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>12.7</v>
+        <v>192.11</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-1.85</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BEDMUTHA</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.08</v>
+        <v>117.96</v>
       </c>
       <c r="C45" t="n">
-        <v>33.39</v>
+        <v>122.95</v>
       </c>
       <c r="D45" t="n">
-        <v>4.08</v>
+        <v>4.23</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>32.62</v>
+        <v>115.96</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-2.31</v>
+        <v>-5.69</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>NAZARA</t>
+          <t>GLOSTERLTD</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>258.4</v>
+        <v>649.8</v>
       </c>
       <c r="C46" t="n">
-        <v>268.95</v>
+        <v>677</v>
       </c>
       <c r="D46" t="n">
-        <v>4.08</v>
+        <v>4.19</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>261.2</v>
+        <v>645</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-2.88</v>
+        <v>-4.73</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BRNL</t>
+          <t>AKI</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>24.46</v>
+        <v>7.92</v>
       </c>
       <c r="C47" t="n">
-        <v>25.45</v>
+        <v>8.25</v>
       </c>
       <c r="D47" t="n">
-        <v>4.05</v>
+        <v>4.17</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>24.76</v>
+        <v>7.8</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-2.71</v>
+        <v>-5.45</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ARFIN</t>
+          <t>BLBLIMITED</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>56.97</v>
+        <v>17.29</v>
       </c>
       <c r="C48" t="n">
-        <v>59.28</v>
+        <v>17.98</v>
       </c>
       <c r="D48" t="n">
-        <v>4.05</v>
+        <v>3.99</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>58</v>
+        <v>17.66</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-2.16</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HEG</t>
+          <t>AGIIL</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>519.3</v>
+        <v>258.7</v>
       </c>
       <c r="C49" t="n">
-        <v>540</v>
+        <v>268.95</v>
       </c>
       <c r="D49" t="n">
-        <v>3.99</v>
+        <v>3.96</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>546.3</v>
+        <v>261.4</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>1.17</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INNOVACAP</t>
+          <t>SANCO</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>740.45</v>
+        <v>1.77</v>
       </c>
       <c r="C50" t="n">
-        <v>770</v>
+        <v>1.84</v>
       </c>
       <c r="D50" t="n">
-        <v>3.99</v>
+        <v>3.95</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>724.65</v>
+        <v>1.68</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-5.89</v>
+        <v>-8.699999999999999</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CONNPLEX</t>
+          <t>TEAMGTY</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>227.95</v>
+        <v>248.4</v>
       </c>
       <c r="C51" t="n">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="D51" t="n">
-        <v>3.97</v>
+        <v>3.86</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>233.15</v>
+        <v>257.9</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-1.62</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MITCON</t>
+          <t>IVALUE</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>69.01000000000001</v>
+        <v>296.8</v>
       </c>
       <c r="C52" t="n">
-        <v>71.7</v>
+        <v>307.95</v>
       </c>
       <c r="D52" t="n">
-        <v>3.9</v>
+        <v>3.76</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>70.39</v>
+        <v>324.8</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-1.83</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NRBBEARING</t>
+          <t>SAFEENTP</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>269.45</v>
+        <v>212.05</v>
       </c>
       <c r="C53" t="n">
-        <v>279.95</v>
+        <v>220</v>
       </c>
       <c r="D53" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>287.3</v>
+        <v>222.05</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>2.63</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>UNIDT</t>
+          <t>RELIABLE</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>197.33</v>
+        <v>157.37</v>
       </c>
       <c r="C54" t="n">
-        <v>205</v>
+        <v>163.2</v>
       </c>
       <c r="D54" t="n">
-        <v>3.89</v>
+        <v>3.7</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>199.88</v>
+        <v>159.6</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-2.5</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>KEC</t>
+          <t>LCCINFOTEC</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>722.25</v>
+        <v>4.07</v>
       </c>
       <c r="C55" t="n">
-        <v>750</v>
+        <v>4.22</v>
       </c>
       <c r="D55" t="n">
-        <v>3.84</v>
+        <v>3.69</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>724.3</v>
+        <v>4.14</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-3.43</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>MASKINVEST</t>
+          <t>SMSPHARMA</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>149.27</v>
+        <v>291.25</v>
       </c>
       <c r="C56" t="n">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="D56" t="n">
-        <v>3.84</v>
+        <v>3.69</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>155</v>
+        <v>291.35</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>-3.53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GSS</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>22.41</v>
+        <v>44.8</v>
       </c>
       <c r="C57" t="n">
-        <v>23.25</v>
+        <v>46.45</v>
       </c>
       <c r="D57" t="n">
-        <v>3.75</v>
+        <v>3.68</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>22.7</v>
+        <v>46.35</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-2.37</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DHARAN</t>
+          <t>MAZDA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.54</v>
+        <v>257.5</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5600000000000001</v>
+        <v>266.95</v>
       </c>
       <c r="D58" t="n">
-        <v>3.7</v>
+        <v>3.67</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.54</v>
+        <v>259.6</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-3.57</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>VGL</t>
+          <t>UNIECOM</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>156.31</v>
+        <v>128.69</v>
       </c>
       <c r="C59" t="n">
-        <v>162</v>
+        <v>133.4</v>
       </c>
       <c r="D59" t="n">
-        <v>3.64</v>
+        <v>3.66</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>160.97</v>
+        <v>134</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-0.64</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ADROITINFO</t>
+          <t>HEADSUP</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11.03</v>
+        <v>10.4</v>
       </c>
       <c r="C60" t="n">
-        <v>11.43</v>
+        <v>10.78</v>
       </c>
       <c r="D60" t="n">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>11.1</v>
+        <v>10.32</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-2.89</v>
+        <v>-4.27</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MANAKALUCO</t>
+          <t>TREL</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>27.12</v>
+        <v>28.28</v>
       </c>
       <c r="C61" t="n">
-        <v>28.1</v>
+        <v>29.3</v>
       </c>
       <c r="D61" t="n">
         <v>3.61</v>
@@ -2028,3644 +2028,3640 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>27.98</v>
+        <v>28.6</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-0.43</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ICIL</t>
+          <t>FLYSBS</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>269.3</v>
+        <v>560.05</v>
       </c>
       <c r="C62" t="n">
-        <v>279</v>
+        <v>580</v>
       </c>
       <c r="D62" t="n">
-        <v>3.6</v>
+        <v>3.56</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>275.3</v>
+        <v>572</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-1.33</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HESTERBIO</t>
+          <t>PILITA</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1617.4</v>
+        <v>11.83</v>
       </c>
       <c r="C63" t="n">
-        <v>1674.9</v>
+        <v>12.25</v>
       </c>
       <c r="D63" t="n">
-        <v>3.56</v>
+        <v>3.55</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>1624.9</v>
+        <v>12.18</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-2.99</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INSPIRISYS</t>
+          <t>XELPMOC</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>106.04</v>
+        <v>132.01</v>
       </c>
       <c r="C64" t="n">
-        <v>109.81</v>
+        <v>136.6</v>
       </c>
       <c r="D64" t="n">
-        <v>3.56</v>
+        <v>3.48</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>106.11</v>
+        <v>133.94</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-3.37</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>KAVDEFENCE</t>
+          <t>BELRISE</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>102.18</v>
+        <v>151.02</v>
       </c>
       <c r="C65" t="n">
-        <v>105.8</v>
+        <v>156.2</v>
       </c>
       <c r="D65" t="n">
-        <v>3.54</v>
+        <v>3.43</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>107.28</v>
+        <v>157.2</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>1.4</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ZEELEARN</t>
+          <t>CEREBRAINT</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>7.91</v>
+        <v>8.26</v>
       </c>
       <c r="C66" t="n">
-        <v>8.19</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>3.54</v>
+        <v>3.39</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>8.06</v>
+        <v>8.43</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-1.59</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>RHETAN</t>
+          <t>TRANSRAILL</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>22.7</v>
+        <v>650.05</v>
       </c>
       <c r="C67" t="n">
-        <v>23.5</v>
+        <v>672</v>
       </c>
       <c r="D67" t="n">
-        <v>3.52</v>
+        <v>3.38</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>23.58</v>
+        <v>662</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>0.34</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TRANSRAILL</t>
+          <t>CPEDU</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>627.9</v>
+        <v>299</v>
       </c>
       <c r="C68" t="n">
-        <v>650</v>
+        <v>309</v>
       </c>
       <c r="D68" t="n">
-        <v>3.52</v>
+        <v>3.34</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>652</v>
+        <v>307</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>0.31</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SONUINFRA</t>
+          <t>NINSYS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>92.25</v>
+        <v>424.8</v>
       </c>
       <c r="C69" t="n">
-        <v>95.5</v>
+        <v>439</v>
       </c>
       <c r="D69" t="n">
-        <v>3.52</v>
+        <v>3.34</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>95.45</v>
+        <v>436</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-0.05</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>BEDMUTHA</t>
+          <t>IWARE</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>122.72</v>
+        <v>199.3</v>
       </c>
       <c r="C70" t="n">
-        <v>127</v>
+        <v>205.9</v>
       </c>
       <c r="D70" t="n">
-        <v>3.49</v>
+        <v>3.31</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>123.99</v>
+        <v>194.15</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-2.37</v>
+        <v>-5.71</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ICDSLTD</t>
+          <t>ACL</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>47.35</v>
+        <v>79.84999999999999</v>
       </c>
       <c r="C71" t="n">
-        <v>48.98</v>
+        <v>82.45999999999999</v>
       </c>
       <c r="D71" t="n">
-        <v>3.44</v>
+        <v>3.27</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>46.6</v>
+        <v>83.84</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-4.86</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TERASOFT</t>
+          <t>MAHASTEEL</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>531.8</v>
+        <v>731.15</v>
       </c>
       <c r="C72" t="n">
-        <v>550</v>
+        <v>754.95</v>
       </c>
       <c r="D72" t="n">
-        <v>3.42</v>
+        <v>3.26</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>538.4</v>
+        <v>765</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-2.11</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>ALMONDZ</t>
+          <t>BIKEWO</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>17.89</v>
+        <v>15.5</v>
       </c>
       <c r="C73" t="n">
-        <v>18.48</v>
+        <v>16</v>
       </c>
       <c r="D73" t="n">
-        <v>3.3</v>
+        <v>3.23</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>17.68</v>
+        <v>16</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-4.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EVERESTIND</t>
+          <t>DELPHIFX</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>578.4</v>
+        <v>199.11</v>
       </c>
       <c r="C74" t="n">
-        <v>597</v>
+        <v>205.55</v>
       </c>
       <c r="D74" t="n">
-        <v>3.22</v>
+        <v>3.23</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>580.15</v>
+        <v>206.2</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-2.82</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HTMEDIA</t>
+          <t>ORTINGLOBE</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>27.04</v>
+        <v>11.82</v>
       </c>
       <c r="C75" t="n">
-        <v>27.9</v>
+        <v>12.2</v>
       </c>
       <c r="D75" t="n">
-        <v>3.18</v>
+        <v>3.21</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>26.85</v>
+        <v>11.82</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-3.76</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>VISHNUINFR</t>
+          <t>SONAMLTD</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>163</v>
+        <v>40.5</v>
       </c>
       <c r="C76" t="n">
-        <v>168.1</v>
+        <v>41.8</v>
       </c>
       <c r="D76" t="n">
-        <v>3.13</v>
+        <v>3.21</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>170</v>
+        <v>40.93</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>1.13</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AIMTRON</t>
+          <t>GKENERGY</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>877.8</v>
+        <v>187.05</v>
       </c>
       <c r="C77" t="n">
-        <v>905</v>
+        <v>193</v>
       </c>
       <c r="D77" t="n">
-        <v>3.1</v>
+        <v>3.18</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>899</v>
+        <v>191.58</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-0.66</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>JSL</t>
+          <t>GLOBE</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>722.75</v>
+        <v>2.83</v>
       </c>
       <c r="C78" t="n">
-        <v>745</v>
+        <v>2.92</v>
       </c>
       <c r="D78" t="n">
-        <v>3.08</v>
+        <v>3.18</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>740</v>
+        <v>2.88</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-0.67</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>AGARWALTUF</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>260.6</v>
+        <v>146.2</v>
       </c>
       <c r="C79" t="n">
-        <v>268.5</v>
+        <v>150.8</v>
       </c>
       <c r="D79" t="n">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>262.95</v>
+        <v>143</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-2.07</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>BLUECOAST</t>
+          <t>EMMBI</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>49.5</v>
+        <v>105.5</v>
       </c>
       <c r="C80" t="n">
-        <v>51</v>
+        <v>108.8</v>
       </c>
       <c r="D80" t="n">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>50.49</v>
+        <v>107.98</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PRAENG</t>
+          <t>SHYAMCENT</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>28.53</v>
+        <v>6.08</v>
       </c>
       <c r="C81" t="n">
-        <v>29.39</v>
+        <v>6.27</v>
       </c>
       <c r="D81" t="n">
-        <v>3.01</v>
+        <v>3.12</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>28.3</v>
+        <v>6.05</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-3.71</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CALSOFT</t>
+          <t>OMAXAUTO</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>16.82</v>
+        <v>95.95</v>
       </c>
       <c r="C82" t="n">
-        <v>17.31</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>2.91</v>
+        <v>3.07</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>17.21</v>
+        <v>97.09</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-0.58</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NIRAJ</t>
+          <t>LATTEYS</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>31.68</v>
+        <v>26.69</v>
       </c>
       <c r="C83" t="n">
-        <v>32.6</v>
+        <v>27.5</v>
       </c>
       <c r="D83" t="n">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>31.12</v>
+        <v>27.25</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-4.54</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>KITEX</t>
+          <t>IFCI</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>198.73</v>
+        <v>54.06</v>
       </c>
       <c r="C84" t="n">
-        <v>204.5</v>
+        <v>55.7</v>
       </c>
       <c r="D84" t="n">
-        <v>2.9</v>
+        <v>3.03</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>199.25</v>
+        <v>55.93</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-2.57</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>ALEMBICLTD</t>
+          <t>S&amp;SPOWER</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>98.05</v>
+        <v>349.35</v>
       </c>
       <c r="C85" t="n">
-        <v>100.86</v>
+        <v>359.9</v>
       </c>
       <c r="D85" t="n">
-        <v>2.87</v>
+        <v>3.02</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
-      <c r="F85" t="n">
-        <v>100.2</v>
-      </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="n">
-        <v>-0.65</v>
-      </c>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>AKG</t>
+          <t>DOLPHIN</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>12.39</v>
+        <v>391.85</v>
       </c>
       <c r="C86" t="n">
-        <v>12.74</v>
+        <v>403.65</v>
       </c>
       <c r="D86" t="n">
-        <v>2.82</v>
+        <v>3.01</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>12.42</v>
+        <v>391</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-2.51</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>GANESHIN</t>
+          <t>ORIENTLTD</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>219.55</v>
+        <v>85.91</v>
       </c>
       <c r="C87" t="n">
-        <v>225.7</v>
+        <v>88.5</v>
       </c>
       <c r="D87" t="n">
-        <v>2.8</v>
+        <v>3.01</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>223.85</v>
+        <v>88.5</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-0.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MAHASTEEL</t>
+          <t>TGBHOTELS</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>696.6</v>
+        <v>11.44</v>
       </c>
       <c r="C88" t="n">
-        <v>716</v>
+        <v>11.78</v>
       </c>
       <c r="D88" t="n">
-        <v>2.78</v>
+        <v>2.97</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>731.4</v>
+        <v>11.47</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>2.15</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>AKSHARCHEM</t>
+          <t>TBI</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>253.9</v>
+        <v>84.5</v>
       </c>
       <c r="C89" t="n">
-        <v>260.9</v>
+        <v>87</v>
       </c>
       <c r="D89" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>255.1</v>
+        <v>87</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-2.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CCCL</t>
+          <t>YATRA</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>20.27</v>
+        <v>165.21</v>
       </c>
       <c r="C90" t="n">
-        <v>20.83</v>
+        <v>170.1</v>
       </c>
       <c r="D90" t="n">
-        <v>2.76</v>
+        <v>2.96</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>21.05</v>
+        <v>185</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>1.06</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SAKHTISUG</t>
+          <t>TTL</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>20.35</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>20.91</v>
+        <v>9.48</v>
       </c>
       <c r="D91" t="n">
-        <v>2.75</v>
+        <v>2.93</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>20.29</v>
+        <v>9.4</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-2.97</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>BASML</t>
+          <t>PAR</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>26.28</v>
+        <v>95.23999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>27</v>
+        <v>97.98999999999999</v>
       </c>
       <c r="D92" t="n">
-        <v>2.74</v>
+        <v>2.89</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>26.65</v>
+        <v>97</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-1.3</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>IDEA</t>
+          <t>PEARLPOLY</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>9.5</v>
+        <v>26.73</v>
       </c>
       <c r="C93" t="n">
-        <v>9.76</v>
+        <v>27.5</v>
       </c>
       <c r="D93" t="n">
-        <v>2.74</v>
+        <v>2.88</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>9.710000000000001</v>
+        <v>27.24</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-0.51</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>KAMATHOTEL</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>227.9</v>
+        <v>198.35</v>
       </c>
       <c r="C94" t="n">
-        <v>234</v>
+        <v>204</v>
       </c>
       <c r="D94" t="n">
-        <v>2.68</v>
+        <v>2.85</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>234</v>
+        <v>200.61</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ONWARDTEC</t>
+          <t>TNTELE</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>289.3</v>
+        <v>11.91</v>
       </c>
       <c r="C95" t="n">
-        <v>297</v>
+        <v>12.25</v>
       </c>
       <c r="D95" t="n">
-        <v>2.66</v>
+        <v>2.85</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>288.15</v>
+        <v>11.87</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-2.98</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>WALCHANNAG</t>
+          <t>BAJAJHLDNG</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>166.59</v>
+        <v>12156</v>
       </c>
       <c r="C96" t="n">
-        <v>171</v>
+        <v>12499</v>
       </c>
       <c r="D96" t="n">
-        <v>2.65</v>
+        <v>2.82</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>168</v>
+        <v>12077</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-1.75</v>
+        <v>-3.38</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DIL</t>
+          <t>PAISALO</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>1.9</v>
+        <v>32.37</v>
       </c>
       <c r="C97" t="n">
-        <v>1.95</v>
+        <v>33.28</v>
       </c>
       <c r="D97" t="n">
-        <v>2.63</v>
+        <v>2.81</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>1.9</v>
+        <v>33.24</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-2.56</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GOYALSALT</t>
+          <t>PRABHA</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>181.15</v>
+        <v>202.37</v>
       </c>
       <c r="C98" t="n">
-        <v>185.9</v>
+        <v>208</v>
       </c>
       <c r="D98" t="n">
-        <v>2.62</v>
+        <v>2.78</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>183.6</v>
+        <v>207.03</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-1.24</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PIRAMALFIN</t>
+          <t>FISCHER</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1389.1</v>
+        <v>77.86</v>
       </c>
       <c r="C99" t="n">
-        <v>1425</v>
+        <v>80</v>
       </c>
       <c r="D99" t="n">
-        <v>2.58</v>
+        <v>2.75</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>1372</v>
+        <v>76.08</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-3.72</v>
+        <v>-4.9</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>TRIGYN</t>
+          <t>NAMOEWASTE</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>72.11</v>
+        <v>191.6</v>
       </c>
       <c r="C100" t="n">
-        <v>73.97</v>
+        <v>196.85</v>
       </c>
       <c r="D100" t="n">
-        <v>2.58</v>
+        <v>2.74</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>73.7</v>
+        <v>196.8</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-0.37</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>GOKEX</t>
+          <t>CEIGALL</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>833.6</v>
+        <v>249.2</v>
       </c>
       <c r="C101" t="n">
-        <v>854.9</v>
+        <v>256</v>
       </c>
       <c r="D101" t="n">
-        <v>2.56</v>
+        <v>2.73</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>849.3</v>
+        <v>254.35</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-0.66</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>THEMISMED</t>
+          <t>BHAGYANGR</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>119.89</v>
+        <v>139.6</v>
       </c>
       <c r="C102" t="n">
-        <v>122.95</v>
+        <v>143.4</v>
       </c>
       <c r="D102" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>119.22</v>
+        <v>140.62</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-3.03</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DCI</t>
+          <t>BFUTILITIE</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>264.2</v>
+        <v>660.9</v>
       </c>
       <c r="C103" t="n">
-        <v>270.95</v>
+        <v>678.9</v>
       </c>
       <c r="D103" t="n">
-        <v>2.55</v>
+        <v>2.72</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>267.7</v>
+        <v>674.95</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-1.2</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MMTC</t>
+          <t>COUNCODOS</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>66.03</v>
+        <v>5.94</v>
       </c>
       <c r="C104" t="n">
-        <v>67.7</v>
+        <v>6.1</v>
       </c>
       <c r="D104" t="n">
-        <v>2.53</v>
+        <v>2.69</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>67.01000000000001</v>
+        <v>6.08</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-1.02</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>INDOBORAX</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>253.5</v>
+        <v>1095.4</v>
       </c>
       <c r="C105" t="n">
-        <v>259.9</v>
+        <v>1124.9</v>
       </c>
       <c r="D105" t="n">
-        <v>2.52</v>
+        <v>2.69</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>250.35</v>
+        <v>1102.9</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-3.67</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NOIDATOLL</t>
+          <t>TARIL</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>4.39</v>
+        <v>282.2</v>
       </c>
       <c r="C106" t="n">
-        <v>4.5</v>
+        <v>289.8</v>
       </c>
       <c r="D106" t="n">
-        <v>2.51</v>
+        <v>2.69</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>4.35</v>
+        <v>297.4</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-3.33</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BANKA</t>
+          <t>SAKHTISUG</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>85.70999999999999</v>
+        <v>20.15</v>
       </c>
       <c r="C107" t="n">
-        <v>87.84</v>
+        <v>20.69</v>
       </c>
       <c r="D107" t="n">
-        <v>2.49</v>
+        <v>2.68</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>87.77</v>
+        <v>20.4</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-0.08</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MAANALU</t>
+          <t>BRNL</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>138.38</v>
+        <v>24.55</v>
       </c>
       <c r="C108" t="n">
-        <v>141.8</v>
+        <v>25.2</v>
       </c>
       <c r="D108" t="n">
-        <v>2.47</v>
+        <v>2.65</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>136.22</v>
+        <v>24.72</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-3.94</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IL&amp;FSENGG</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>26.39</v>
+        <v>123.77</v>
       </c>
       <c r="C109" t="n">
-        <v>27.04</v>
+        <v>127</v>
       </c>
       <c r="D109" t="n">
-        <v>2.46</v>
+        <v>2.61</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
-      <c r="F109" t="inlineStr"/>
+      <c r="F109" t="n">
+        <v>126.8</v>
+      </c>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
+      <c r="H109" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FLEXITUFF</t>
+          <t>ZAGGLE</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>17.56</v>
+        <v>374.85</v>
       </c>
       <c r="C110" t="n">
-        <v>17.99</v>
+        <v>384.5</v>
       </c>
       <c r="D110" t="n">
-        <v>2.45</v>
+        <v>2.57</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>17.99</v>
+        <v>393.4</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>POKARNA</t>
+          <t>ORIENTBELL</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>839.6</v>
+        <v>273.45</v>
       </c>
       <c r="C111" t="n">
-        <v>860</v>
+        <v>280.45</v>
       </c>
       <c r="D111" t="n">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>844.55</v>
+        <v>283.45</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-1.8</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MCLOUD</t>
+          <t>NELCAST</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>55.36</v>
+        <v>110.18</v>
       </c>
       <c r="C112" t="n">
-        <v>56.7</v>
+        <v>113</v>
       </c>
       <c r="D112" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>57.98</v>
+        <v>111.32</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>2.26</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PRECOT</t>
+          <t>TREJHARA</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>463.8</v>
+        <v>251.4</v>
       </c>
       <c r="C113" t="n">
-        <v>475</v>
+        <v>257.82</v>
       </c>
       <c r="D113" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>470.15</v>
+        <v>255</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-1.02</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SITINET</t>
+          <t>AFFORDABLE</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.42</v>
+        <v>226.35</v>
       </c>
       <c r="C114" t="n">
-        <v>0.43</v>
+        <v>232</v>
       </c>
       <c r="D114" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.43</v>
+        <v>233.35</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>APEX</t>
+          <t>TVSELECT</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>243.35</v>
+        <v>585.25</v>
       </c>
       <c r="C115" t="n">
-        <v>248.99</v>
+        <v>599.8</v>
       </c>
       <c r="D115" t="n">
-        <v>2.32</v>
+        <v>2.49</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>244</v>
+        <v>609.9</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-2</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>MARALOVER</t>
+          <t>GAJANAND</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>50.68</v>
+        <v>12.15</v>
       </c>
       <c r="C116" t="n">
-        <v>51.85</v>
+        <v>12.45</v>
       </c>
       <c r="D116" t="n">
-        <v>2.31</v>
+        <v>2.47</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>51.64</v>
+        <v>12.85</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-0.41</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>TICL</t>
+          <t>DBOL</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>32.5</v>
+        <v>74.67</v>
       </c>
       <c r="C117" t="n">
-        <v>33.25</v>
+        <v>76.5</v>
       </c>
       <c r="D117" t="n">
-        <v>2.31</v>
+        <v>2.45</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>32.25</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-3.01</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BESTAGRO</t>
+          <t>KAVDEFENCE</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>311.35</v>
+        <v>107.28</v>
       </c>
       <c r="C118" t="n">
-        <v>318.5</v>
+        <v>109.9</v>
       </c>
       <c r="D118" t="n">
-        <v>2.3</v>
+        <v>2.44</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>313.3</v>
+        <v>112.6</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-1.63</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ATHERENERG</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>625.7</v>
+        <v>218.7</v>
       </c>
       <c r="C119" t="n">
-        <v>640</v>
+        <v>224</v>
       </c>
       <c r="D119" t="n">
-        <v>2.29</v>
+        <v>2.42</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>631</v>
+        <v>222.2</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-1.41</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FOODSIN</t>
+          <t>RCOM</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>84.09</v>
+        <v>1.24</v>
       </c>
       <c r="C120" t="n">
-        <v>86</v>
+        <v>1.27</v>
       </c>
       <c r="D120" t="n">
-        <v>2.27</v>
+        <v>2.42</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>85.01000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-1.15</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ROSSELLIND</t>
+          <t>MKPL</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>60.43</v>
+        <v>6.65</v>
       </c>
       <c r="C121" t="n">
-        <v>61.8</v>
+        <v>6.81</v>
       </c>
       <c r="D121" t="n">
-        <v>2.27</v>
+        <v>2.41</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>61.38</v>
+        <v>6.81</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>INDIANHUME</t>
+          <t>AKASH</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>373.6</v>
+        <v>27.21</v>
       </c>
       <c r="C122" t="n">
-        <v>382</v>
+        <v>27.86</v>
       </c>
       <c r="D122" t="n">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>388</v>
+        <v>27.56</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>1.57</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>INTELLECT</t>
+          <t>BHARATGEAR</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1099.1</v>
+        <v>106.83</v>
       </c>
       <c r="C123" t="n">
-        <v>1123.8</v>
+        <v>109.38</v>
       </c>
       <c r="D123" t="n">
-        <v>2.25</v>
+        <v>2.39</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1102.3</v>
+        <v>108.7</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-1.91</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>UNIVASTU</t>
+          <t>KHADIM</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>65.26000000000001</v>
+        <v>229.37</v>
       </c>
       <c r="C124" t="n">
-        <v>66.7</v>
+        <v>234.79</v>
       </c>
       <c r="D124" t="n">
-        <v>2.21</v>
+        <v>2.36</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>65.16</v>
+        <v>232.78</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-2.31</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>PRECWIRE</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>0.91</v>
+        <v>230.56</v>
       </c>
       <c r="C125" t="n">
-        <v>0.93</v>
+        <v>236</v>
       </c>
       <c r="D125" t="n">
-        <v>2.2</v>
+        <v>2.36</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>0.92</v>
+        <v>232.27</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-1.08</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AROGRANITE</t>
+          <t>SOMICONVEY</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>34.69</v>
+        <v>151.35</v>
       </c>
       <c r="C126" t="n">
-        <v>35.45</v>
+        <v>154.9</v>
       </c>
       <c r="D126" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>35.14</v>
+        <v>154.35</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-0.87</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>KEYFINSERV</t>
+          <t>PCJEWELLER</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>352.3</v>
+        <v>12.36</v>
       </c>
       <c r="C127" t="n">
-        <v>360</v>
+        <v>12.65</v>
       </c>
       <c r="D127" t="n">
-        <v>2.19</v>
+        <v>2.35</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>350.3</v>
+        <v>12.41</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-2.69</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MANALIPETC</t>
+          <t>BANKA</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>68.02</v>
+        <v>85.98999999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>69.5</v>
+        <v>88</v>
       </c>
       <c r="D128" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>71.63</v>
+        <v>87.88</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>3.06</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>IPL</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>204.46</v>
+        <v>191.54</v>
       </c>
       <c r="C129" t="n">
-        <v>208.89</v>
+        <v>196</v>
       </c>
       <c r="D129" t="n">
-        <v>2.17</v>
+        <v>2.33</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>201.42</v>
+        <v>192.61</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-3.58</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ATAM</t>
+          <t>ADVANCE</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>94.94</v>
+        <v>134.89</v>
       </c>
       <c r="C130" t="n">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D130" t="n">
-        <v>2.17</v>
+        <v>2.31</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>95.17</v>
+        <v>137.39</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-1.89</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ELIN</t>
+          <t>GALAPREC</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>205.53</v>
+        <v>723.45</v>
       </c>
       <c r="C131" t="n">
-        <v>210</v>
+        <v>740</v>
       </c>
       <c r="D131" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>204.95</v>
+        <v>770.05</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-2.4</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>VISAKAIND</t>
+          <t>PATINTLOG</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>78.59</v>
+        <v>14.08</v>
       </c>
       <c r="C132" t="n">
-        <v>80.28</v>
+        <v>14.4</v>
       </c>
       <c r="D132" t="n">
-        <v>2.15</v>
+        <v>2.27</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>78.15000000000001</v>
+        <v>14.3</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-2.65</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VETO</t>
+          <t>DIGIDRIVE</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>116.03</v>
+        <v>29.03</v>
       </c>
       <c r="C133" t="n">
-        <v>118.5</v>
+        <v>29.69</v>
       </c>
       <c r="D133" t="n">
-        <v>2.13</v>
+        <v>2.27</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>115.74</v>
+        <v>28.81</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-2.33</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>BANSALWIRE</t>
+          <t>EIDPARRY</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>313.2</v>
+        <v>1017</v>
       </c>
       <c r="C134" t="n">
-        <v>319.85</v>
+        <v>1040</v>
       </c>
       <c r="D134" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>315</v>
+        <v>1050</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-1.52</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HINDCOMPOS</t>
+          <t>SMSLIFE</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>472.4</v>
+        <v>1237.5</v>
       </c>
       <c r="C135" t="n">
-        <v>482.4</v>
+        <v>1265</v>
       </c>
       <c r="D135" t="n">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>471</v>
+        <v>1227.9</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-2.36</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>TRANSWORLD</t>
+          <t>BASILIC</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>242.89</v>
+        <v>371.75</v>
       </c>
       <c r="C136" t="n">
-        <v>248</v>
+        <v>379.9</v>
       </c>
       <c r="D136" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>247.83</v>
+        <v>365</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-3.92</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CARTRADE</t>
+          <t>DALMIASUG</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>2981.7</v>
+        <v>317.6</v>
       </c>
       <c r="C137" t="n">
-        <v>3044</v>
+        <v>324.5</v>
       </c>
       <c r="D137" t="n">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>3133</v>
+        <v>322.45</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>2.92</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HMVL</t>
+          <t>KOHINOOR</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>74.45</v>
+        <v>30.85</v>
       </c>
       <c r="C138" t="n">
-        <v>76</v>
+        <v>31.52</v>
       </c>
       <c r="D138" t="n">
-        <v>2.08</v>
+        <v>2.17</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>73.75</v>
+        <v>31.09</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-2.96</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>THEJO</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1739.8</v>
+        <v>0.93</v>
       </c>
       <c r="C139" t="n">
-        <v>1776</v>
+        <v>0.95</v>
       </c>
       <c r="D139" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1778.6</v>
+        <v>0.95</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>MANBA</t>
+          <t>TRU</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>137.67</v>
+        <v>9.84</v>
       </c>
       <c r="C140" t="n">
-        <v>140.5</v>
+        <v>10.05</v>
       </c>
       <c r="D140" t="n">
-        <v>2.06</v>
+        <v>2.13</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>137.68</v>
+        <v>9.99</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-2.01</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BAJAJCON</t>
+          <t>DIL</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>295.9</v>
+        <v>1.9</v>
       </c>
       <c r="C141" t="n">
-        <v>302</v>
+        <v>1.94</v>
       </c>
       <c r="D141" t="n">
-        <v>2.06</v>
+        <v>2.11</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>293.15</v>
+        <v>1.9</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-2.93</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SSEGL</t>
+          <t>LANCORHOL</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>546.8</v>
+        <v>30.36</v>
       </c>
       <c r="C142" t="n">
-        <v>558</v>
+        <v>31</v>
       </c>
       <c r="D142" t="n">
-        <v>2.05</v>
+        <v>2.11</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>542.95</v>
+        <v>30.95</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-2.7</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CELEBRITY</t>
+          <t>PANAMAPET</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>10.34</v>
+        <v>294.8</v>
       </c>
       <c r="C143" t="n">
-        <v>10.55</v>
+        <v>301</v>
       </c>
       <c r="D143" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>10.5</v>
+        <v>304.3</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-0.47</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NELCAST</t>
+          <t>KUANTUM</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>111.26</v>
+        <v>102.3</v>
       </c>
       <c r="C144" t="n">
-        <v>113.5</v>
+        <v>104.44</v>
       </c>
       <c r="D144" t="n">
-        <v>2.01</v>
+        <v>2.09</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>110.25</v>
+        <v>103.66</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-2.86</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>COMPINFO</t>
+          <t>COMPUSOFT</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>1.99</v>
+        <v>17.29</v>
       </c>
       <c r="C145" t="n">
-        <v>2.03</v>
+        <v>17.65</v>
       </c>
       <c r="D145" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>1.91</v>
+        <v>17.8</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-5.91</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>MOTOGENFIN</t>
+          <t>AKG</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>25.83</v>
+        <v>12.49</v>
       </c>
       <c r="C146" t="n">
-        <v>26.35</v>
+        <v>12.75</v>
       </c>
       <c r="D146" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>25.9</v>
+        <v>12.72</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-1.71</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SHK</t>
+          <t>VLEGOV</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>188.37</v>
+        <v>19.71</v>
       </c>
       <c r="C147" t="n">
-        <v>192.15</v>
+        <v>20.12</v>
       </c>
       <c r="D147" t="n">
-        <v>2.01</v>
+        <v>2.08</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>186.3</v>
+        <v>19.59</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-3.04</v>
+        <v>-2.63</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>OILCOUNTUB</t>
+          <t>KICL</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>64.16</v>
+        <v>4941</v>
       </c>
       <c r="C148" t="n">
-        <v>65.45</v>
+        <v>5043.5</v>
       </c>
       <c r="D148" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>65.48</v>
+        <v>5007.5</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>0.05</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>UYFINCORP</t>
+          <t>SSEGL</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>16.44</v>
+        <v>532</v>
       </c>
       <c r="C149" t="n">
-        <v>16.77</v>
+        <v>543</v>
       </c>
       <c r="D149" t="n">
-        <v>2.01</v>
+        <v>2.07</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>16.16</v>
+        <v>542.1</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-3.64</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SAGARDEEP</t>
+          <t>FOCUS</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>27.45</v>
+        <v>81.33</v>
       </c>
       <c r="C150" t="n">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D150" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>28</v>
+        <v>82.48999999999999</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>BPL</t>
+          <t>IFGLEXPOR</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>70.48999999999999</v>
+        <v>231.17</v>
       </c>
       <c r="C151" t="n">
-        <v>71.90000000000001</v>
+        <v>235.9</v>
       </c>
       <c r="D151" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>70.54000000000001</v>
+        <v>235.45</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-1.89</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>TARAPUR</t>
+          <t>ARTEMISMED</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>35.53</v>
+        <v>251.94</v>
       </c>
       <c r="C152" t="n">
-        <v>36.24</v>
+        <v>257.09</v>
       </c>
       <c r="D152" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>36.3</v>
+        <v>266.16</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>0.17</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ALANKIT</t>
+          <t>COASTCORP</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>11.52</v>
+        <v>41.15</v>
       </c>
       <c r="C153" t="n">
-        <v>11.75</v>
+        <v>41.99</v>
       </c>
       <c r="D153" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>11.69</v>
+        <v>41.4</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-0.51</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ACCENTMIC</t>
+          <t>AARTECH</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>295.1</v>
+        <v>51.75</v>
       </c>
       <c r="C154" t="n">
-        <v>301</v>
+        <v>52.8</v>
       </c>
       <c r="D154" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>306</v>
+        <v>52.33</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>1.66</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SIKKO</t>
+          <t>PGIL</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>109.29</v>
+        <v>1411.4</v>
       </c>
       <c r="C155" t="n">
-        <v>111.48</v>
+        <v>1440</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>106.52</v>
+        <v>1425</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-4.45</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BILVYAPAR</t>
+          <t>LALPATHLAB</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>11</v>
+        <v>3064.1</v>
       </c>
       <c r="C156" t="n">
-        <v>11.22</v>
+        <v>3126</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>11.22</v>
+        <v>3038.5</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>FISCHER</t>
+          <t>RNBDENIMS</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>91.78</v>
+        <v>121.54</v>
       </c>
       <c r="C157" t="n">
-        <v>93.62</v>
+        <v>124</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>86</v>
+        <v>125.5</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-8.140000000000001</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>VARDMNPOLY</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>7.59</v>
+        <v>10</v>
       </c>
       <c r="C158" t="n">
-        <v>7.74</v>
+        <v>10.2</v>
       </c>
       <c r="D158" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>7.47</v>
+        <v>10.2</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-3.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>DTIL</t>
+          <t>TVVISION</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>160.27</v>
+        <v>5.99</v>
       </c>
       <c r="C159" t="n">
-        <v>163.44</v>
+        <v>6.11</v>
       </c>
       <c r="D159" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>163.24</v>
+        <v>6.11</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HINDCON</t>
+          <t>EQUIPPP</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>30.84</v>
+        <v>18.04</v>
       </c>
       <c r="C160" t="n">
-        <v>31.45</v>
+        <v>18.4</v>
       </c>
       <c r="D160" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>31.26</v>
+        <v>17.6</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-0.6</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>RELCHEMQ</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.06</v>
+        <v>148.48</v>
       </c>
       <c r="C161" t="n">
-        <v>4.14</v>
+        <v>151.45</v>
       </c>
       <c r="D161" t="n">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>4.12</v>
+        <v>149.94</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-0.48</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HEADSUP</t>
+          <t>HBLENGINE</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>10.64</v>
+        <v>994.2</v>
       </c>
       <c r="C162" t="n">
-        <v>10.85</v>
+        <v>1014</v>
       </c>
       <c r="D162" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>10.72</v>
+        <v>1003.5</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-1.2</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MKPL</t>
+          <t>HINDWAREAP</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>6.62</v>
+        <v>377.5</v>
       </c>
       <c r="C163" t="n">
-        <v>6.75</v>
+        <v>385</v>
       </c>
       <c r="D163" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>6.77</v>
+        <v>375.55</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>0.3</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>RAJRILTD</t>
+          <t>CORALFINAC</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>24.46</v>
+        <v>40.8</v>
       </c>
       <c r="C164" t="n">
-        <v>24.94</v>
+        <v>41.61</v>
       </c>
       <c r="D164" t="n">
-        <v>1.96</v>
+        <v>1.99</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>24.85</v>
+        <v>41.26</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>-0.36</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>LPDC</t>
+          <t>ANUHPHR</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>7.7</v>
+        <v>81.27</v>
       </c>
       <c r="C165" t="n">
-        <v>7.85</v>
+        <v>82.88</v>
       </c>
       <c r="D165" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>7.71</v>
+        <v>82.25</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-1.78</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>GUJTHEM</t>
+          <t>KHAITANLTD</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>453.15</v>
+        <v>111.75</v>
       </c>
       <c r="C166" t="n">
-        <v>462</v>
+        <v>113.95</v>
       </c>
       <c r="D166" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>451</v>
+        <v>113</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-2.38</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DALMIASUG</t>
+          <t>TIGERLOGS</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>323.25</v>
+        <v>41.58</v>
       </c>
       <c r="C167" t="n">
-        <v>329.55</v>
+        <v>42.4</v>
       </c>
       <c r="D167" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>320</v>
+        <v>42.64</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-2.9</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>DIGIDRIVE</t>
+          <t>KCK</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>28.94</v>
+        <v>25.5</v>
       </c>
       <c r="C168" t="n">
-        <v>29.5</v>
+        <v>26</v>
       </c>
       <c r="D168" t="n">
-        <v>1.94</v>
+        <v>1.96</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>29.16</v>
+        <v>26</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-1.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SURANAT&amp;P</t>
+          <t>BIGBLOC</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>20.74</v>
+        <v>48.46</v>
       </c>
       <c r="C169" t="n">
-        <v>21.14</v>
+        <v>49.4</v>
       </c>
       <c r="D169" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
-      <c r="F169" t="inlineStr"/>
+      <c r="F169" t="n">
+        <v>49.8</v>
+      </c>
       <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
+      <c r="H169" t="n">
+        <v>0.8100000000000001</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GATECHDVR</t>
+          <t>ORIENTCER</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>0.52</v>
+        <v>39.14</v>
       </c>
       <c r="C170" t="n">
-        <v>0.53</v>
+        <v>39.9</v>
       </c>
       <c r="D170" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>0.52</v>
+        <v>39.12</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-1.89</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>TNPETRO</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>54.45</v>
+        <v>107.96</v>
       </c>
       <c r="C171" t="n">
-        <v>55.49</v>
+        <v>110.05</v>
       </c>
       <c r="D171" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>54.22</v>
+        <v>110</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-2.29</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>INDTERRAIN</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>0.53</v>
+        <v>39.73</v>
       </c>
       <c r="C172" t="n">
-        <v>0.54</v>
+        <v>40.5</v>
       </c>
       <c r="D172" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>0.54</v>
+        <v>40.22</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>INTENTECH</t>
+          <t>RPTECH</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>120.62</v>
+        <v>328.7</v>
       </c>
       <c r="C173" t="n">
-        <v>122.89</v>
+        <v>335</v>
       </c>
       <c r="D173" t="n">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>119.5</v>
+        <v>335.1</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-2.76</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>TNPETRO</t>
+          <t>FLUOROCHEM</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>123.69</v>
+        <v>3488.2</v>
       </c>
       <c r="C174" t="n">
-        <v>126</v>
+        <v>3555</v>
       </c>
       <c r="D174" t="n">
-        <v>1.87</v>
+        <v>1.92</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>126.27</v>
+        <v>3559</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RHFL</t>
+          <t>ATLANTAA</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>3.22</v>
+        <v>45.24</v>
       </c>
       <c r="C175" t="n">
-        <v>3.28</v>
+        <v>46.1</v>
       </c>
       <c r="D175" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>3.34</v>
+        <v>47.5</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>1.83</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>INDUSINVIT</t>
+          <t>EMMIL</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>121.15</v>
+        <v>182.5</v>
       </c>
       <c r="C176" t="n">
-        <v>123.4</v>
+        <v>185.95</v>
       </c>
       <c r="D176" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-1.13</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>VGINFOTECH</t>
+          <t>VIVIANA</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>157.05</v>
+        <v>1515.35</v>
       </c>
       <c r="C177" t="n">
-        <v>159.95</v>
+        <v>1544</v>
       </c>
       <c r="D177" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>159.95</v>
+        <v>1577.85</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>BSL</t>
+          <t>GFLLIMITED</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>200.29</v>
+        <v>59.87</v>
       </c>
       <c r="C178" t="n">
-        <v>203.99</v>
+        <v>61</v>
       </c>
       <c r="D178" t="n">
-        <v>1.85</v>
+        <v>1.89</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>200.29</v>
+        <v>60</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-1.81</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>HYBRIDFIN</t>
+          <t>PARAGMILK</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>23.52</v>
+        <v>314.45</v>
       </c>
       <c r="C179" t="n">
-        <v>23.95</v>
+        <v>320.35</v>
       </c>
       <c r="D179" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>23.99</v>
+        <v>354.6</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>0.17</v>
+        <v>10.69</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BHAGYANGR</t>
+          <t>BAFNAPH</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>137.47</v>
+        <v>192.44</v>
       </c>
       <c r="C180" t="n">
-        <v>139.97</v>
+        <v>196</v>
       </c>
       <c r="D180" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>141.5</v>
+        <v>201</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>1.09</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>VISHWARAJ</t>
+          <t>ALPHAGEO</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>7.75</v>
+        <v>253.8</v>
       </c>
       <c r="C181" t="n">
-        <v>7.89</v>
+        <v>258.5</v>
       </c>
       <c r="D181" t="n">
-        <v>1.81</v>
+        <v>1.85</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>7.8</v>
+        <v>255.5</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-1.14</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>INDTERRAIN</t>
+          <t>RELINFRA</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>40.77</v>
+        <v>173.79</v>
       </c>
       <c r="C182" t="n">
-        <v>41.5</v>
+        <v>177</v>
       </c>
       <c r="D182" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>41.19</v>
+        <v>179.4</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-0.75</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>IVALUE</t>
+          <t>MUFIN</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>290.85</v>
+        <v>110.96</v>
       </c>
       <c r="C183" t="n">
-        <v>296.05</v>
+        <v>113</v>
       </c>
       <c r="D183" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>292.1</v>
+        <v>111.34</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-1.33</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>KESORAMIND</t>
+          <t>HONASA</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>5.06</v>
+        <v>274.85</v>
       </c>
       <c r="C184" t="n">
-        <v>5.15</v>
+        <v>279.9</v>
       </c>
       <c r="D184" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>5.07</v>
+        <v>282</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-1.55</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ATULAUTO</t>
+          <t>VARDMNPOLY</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>445.75</v>
+        <v>7.12</v>
       </c>
       <c r="C185" t="n">
-        <v>453.65</v>
+        <v>7.25</v>
       </c>
       <c r="D185" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>442.5</v>
+        <v>7.05</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-2.46</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GILLANDERS</t>
+          <t>SURANAT&amp;P</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>117.83</v>
+        <v>20.8</v>
       </c>
       <c r="C186" t="n">
-        <v>119.9</v>
+        <v>21.18</v>
       </c>
       <c r="D186" t="n">
-        <v>1.76</v>
+        <v>1.83</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
-      <c r="F186" t="n">
-        <v>121</v>
-      </c>
+      <c r="F186" t="inlineStr"/>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="n">
-        <v>0.92</v>
-      </c>
+      <c r="H186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SMSLIFE</t>
+          <t>VIKRAN</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>1197.9</v>
+        <v>102.63</v>
       </c>
       <c r="C187" t="n">
-        <v>1219</v>
+        <v>104.5</v>
       </c>
       <c r="D187" t="n">
-        <v>1.76</v>
+        <v>1.82</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>1222.2</v>
+        <v>105.31</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>0.26</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>GLOSTERLTD</t>
+          <t>KITEX</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>610.35</v>
+        <v>203.3</v>
       </c>
       <c r="C188" t="n">
-        <v>621</v>
+        <v>207</v>
       </c>
       <c r="D188" t="n">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>620.95</v>
+        <v>207.33</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-0.01</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>CSLFINANCE</t>
+          <t>EXXARO</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>265.4</v>
+        <v>9.32</v>
       </c>
       <c r="C189" t="n">
-        <v>270</v>
+        <v>9.49</v>
       </c>
       <c r="D189" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>261.2</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-3.26</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MOTISONS</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>16.17</v>
+        <v>0.55</v>
       </c>
       <c r="C190" t="n">
-        <v>16.45</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D190" t="n">
-        <v>1.73</v>
+        <v>1.82</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>16.24</v>
+        <v>0.57</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-1.28</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>K2INFRA</t>
+          <t>PDMJEPAPER</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>55</v>
+        <v>105.53</v>
       </c>
       <c r="C191" t="n">
-        <v>55.95</v>
+        <v>107.44</v>
       </c>
       <c r="D191" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>53.6</v>
+        <v>106.95</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-4.2</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BIRLAMONEY</t>
+          <t>IEML</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>157.27</v>
+        <v>121.3</v>
       </c>
       <c r="C192" t="n">
-        <v>159.98</v>
+        <v>123.5</v>
       </c>
       <c r="D192" t="n">
-        <v>1.72</v>
+        <v>1.81</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>157.12</v>
+        <v>123.5</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-1.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>TAC</t>
+          <t>AHCL</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>804.2</v>
+        <v>145.75</v>
       </c>
       <c r="C193" t="n">
-        <v>817.95</v>
+        <v>148.38</v>
       </c>
       <c r="D193" t="n">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>785.2</v>
+        <v>146.3</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-4</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>PEARLPOLY</t>
+          <t>MAYURUNIQ</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>26.5</v>
+        <v>554.95</v>
       </c>
       <c r="C194" t="n">
-        <v>26.95</v>
+        <v>564.95</v>
       </c>
       <c r="D194" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>26.45</v>
+        <v>537</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-1.86</v>
+        <v>-4.95</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RAMRAT</t>
+          <t>ODIGMA</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>622.4</v>
+        <v>36.74</v>
       </c>
       <c r="C195" t="n">
-        <v>633</v>
+        <v>37.4</v>
       </c>
       <c r="D195" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>627</v>
+        <v>36.7</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-0.95</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>LYPSAGEMS</t>
+          <t>GENSOL</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>5.31</v>
+        <v>31.14</v>
       </c>
       <c r="C196" t="n">
-        <v>5.4</v>
+        <v>31.7</v>
       </c>
       <c r="D196" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>5.35</v>
+        <v>32.69</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-0.93</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>BANSWRAS</t>
+          <t>AVROIND</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>115.05</v>
+        <v>111.52</v>
       </c>
       <c r="C197" t="n">
-        <v>117</v>
+        <v>113.5</v>
       </c>
       <c r="D197" t="n">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>117.26</v>
+        <v>111.3</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>0.22</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>VARDHACRLC</t>
+          <t>MEDICO</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>40.33</v>
+        <v>53.35</v>
       </c>
       <c r="C198" t="n">
-        <v>41</v>
+        <v>54.3</v>
       </c>
       <c r="D198" t="n">
-        <v>1.66</v>
+        <v>1.78</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>40.49</v>
+        <v>52.65</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-1.24</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SATIA</t>
+          <t>BIOFILCHEM</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>74.75</v>
+        <v>38.32</v>
       </c>
       <c r="C199" t="n">
-        <v>75.98</v>
+        <v>39</v>
       </c>
       <c r="D199" t="n">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>74.88</v>
+        <v>38.95</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-1.45</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>AKASH</t>
+          <t>GSS</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>27.48</v>
+        <v>22.1</v>
       </c>
       <c r="C200" t="n">
-        <v>27.93</v>
+        <v>22.49</v>
       </c>
       <c r="D200" t="n">
-        <v>1.64</v>
+        <v>1.76</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>27.93</v>
+        <v>22.39</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SADBHIN</t>
+          <t>IL&amp;FSTRANS</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>3.74</v>
+        <v>2.84</v>
       </c>
       <c r="C201" t="n">
-        <v>3.8</v>
+        <v>2.89</v>
       </c>
       <c r="D201" t="n">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
-      <c r="F201" t="n">
-        <v>3.81</v>
-      </c>
+      <c r="F201" t="inlineStr"/>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="n">
-        <v>0.26</v>
-      </c>
+      <c r="H201" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,543 +478,543 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SHREEOSFM</t>
+          <t>ABSMARINE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.95</v>
+        <v>219.75</v>
       </c>
       <c r="C2" t="n">
-        <v>104.9</v>
+        <v>259</v>
       </c>
       <c r="D2" t="n">
-        <v>10.48</v>
+        <v>17.86</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>101.6</v>
+        <v>245.95</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-3.15</v>
+        <v>-5.04</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>NMSTEEL</t>
+          <t>KHANDSE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31</v>
+        <v>21.75</v>
       </c>
       <c r="C3" t="n">
-        <v>34</v>
+        <v>23.99</v>
       </c>
       <c r="D3" t="n">
-        <v>9.68</v>
+        <v>10.3</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>33.1</v>
+        <v>25.13</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>-2.65</v>
+        <v>4.75</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MASTER</t>
+          <t>NOVAAGRI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>398</v>
+        <v>47.14</v>
       </c>
       <c r="C4" t="n">
-        <v>436</v>
+        <v>51.99</v>
       </c>
       <c r="D4" t="n">
-        <v>9.550000000000001</v>
+        <v>10.29</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>380</v>
+        <v>48.01</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-12.84</v>
+        <v>-7.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>VIESL</t>
+          <t>DCMFINSERV</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>261.9</v>
+        <v>5.79</v>
       </c>
       <c r="C5" t="n">
-        <v>285</v>
+        <v>6.36</v>
       </c>
       <c r="D5" t="n">
-        <v>8.82</v>
+        <v>9.84</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>276.2</v>
+        <v>6.12</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-3.09</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FINKURVE</t>
+          <t>SJLOGISTIC</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>106.41</v>
+        <v>332.05</v>
       </c>
       <c r="C6" t="n">
-        <v>115</v>
+        <v>363</v>
       </c>
       <c r="D6" t="n">
-        <v>8.07</v>
+        <v>9.32</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>112.36</v>
+        <v>378.4</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-2.3</v>
+        <v>4.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>UNIVCABLES</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>184</v>
+        <v>725.1</v>
       </c>
       <c r="C7" t="n">
-        <v>197.99</v>
+        <v>789.95</v>
       </c>
       <c r="D7" t="n">
-        <v>7.6</v>
+        <v>8.94</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>184.8</v>
+        <v>821.7</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-6.66</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SUNTECH</t>
+          <t>SACHEEROME</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54</v>
+        <v>266.4</v>
       </c>
       <c r="C8" t="n">
-        <v>57.95</v>
+        <v>287.95</v>
       </c>
       <c r="D8" t="n">
-        <v>7.31</v>
+        <v>8.09</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>54</v>
+        <v>271.6</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-6.82</v>
+        <v>-5.68</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KIRLOSENG</t>
+          <t>CARERATING</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>945.4</v>
+        <v>1519.8</v>
       </c>
       <c r="C9" t="n">
-        <v>1010</v>
+        <v>1631.9</v>
       </c>
       <c r="D9" t="n">
-        <v>6.83</v>
+        <v>7.38</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1058.6</v>
+        <v>1636.3</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>4.81</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GANESHIN</t>
+          <t>MUKKA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>232.6</v>
+        <v>25.21</v>
       </c>
       <c r="C10" t="n">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="D10" t="n">
-        <v>6.62</v>
+        <v>7.1</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>224</v>
+        <v>26.5</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-9.68</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ECOSMOBLTY</t>
+          <t>PGIL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>193.53</v>
+        <v>1693.6</v>
       </c>
       <c r="C11" t="n">
-        <v>205.94</v>
+        <v>1804.9</v>
       </c>
       <c r="D11" t="n">
-        <v>6.41</v>
+        <v>6.57</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>224.86</v>
+        <v>1800</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>9.19</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>VIPULLTD</t>
+          <t>HONASA</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.68</v>
+        <v>282.05</v>
       </c>
       <c r="C12" t="n">
-        <v>10.3</v>
+        <v>300</v>
       </c>
       <c r="D12" t="n">
-        <v>6.4</v>
+        <v>6.36</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>10.36</v>
+        <v>301.35</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.58</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IEML-RE</t>
+          <t>ARENTERP</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>30.15</v>
+        <v>45.26</v>
       </c>
       <c r="C13" t="n">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="D13" t="n">
-        <v>6.14</v>
+        <v>6.05</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>33.8</v>
+        <v>45.25</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>5.62</v>
+        <v>-5.73</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ARENTERP</t>
+          <t>JAIPURKURT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>45.27</v>
+        <v>34.48</v>
       </c>
       <c r="C14" t="n">
-        <v>48</v>
+        <v>36.5</v>
       </c>
       <c r="D14" t="n">
-        <v>6.03</v>
+        <v>5.86</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>44.9</v>
+        <v>34.01</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-6.46</v>
+        <v>-6.82</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>GOKULAGRO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.73</v>
+        <v>183.71</v>
       </c>
       <c r="C15" t="n">
-        <v>2.89</v>
+        <v>194.33</v>
       </c>
       <c r="D15" t="n">
-        <v>5.86</v>
+        <v>5.78</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>2.81</v>
+        <v>192.8</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-2.77</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>KANPRPLA</t>
+          <t>SIMPLEXINF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.72</v>
+        <v>290.55</v>
       </c>
       <c r="C16" t="n">
-        <v>217.47</v>
+        <v>307.05</v>
       </c>
       <c r="D16" t="n">
-        <v>5.71</v>
+        <v>5.68</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>211</v>
+        <v>296.05</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-2.98</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CINEVISTA</t>
+          <t>ASHIANA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>17.5</v>
+        <v>288.95</v>
       </c>
       <c r="C17" t="n">
-        <v>18.39</v>
+        <v>305</v>
       </c>
       <c r="D17" t="n">
-        <v>5.09</v>
+        <v>5.55</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>17.79</v>
+        <v>310</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>-3.26</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>TERASOFT</t>
+          <t>ORBTEXP</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>514</v>
+        <v>213.6</v>
       </c>
       <c r="C18" t="n">
-        <v>539.7</v>
+        <v>224.99</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>5.33</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>539.7</v>
+        <v>223.76</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>DATAPATTNS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>847.6</v>
+        <v>2792.2</v>
       </c>
       <c r="C19" t="n">
-        <v>889.95</v>
+        <v>2940</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>5.29</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>889.95</v>
+        <v>3029.3</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TECHLABS</t>
+          <t>SECMARK</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>437.75</v>
+        <v>125.01</v>
       </c>
       <c r="C20" t="n">
-        <v>459.6</v>
+        <v>131.55</v>
       </c>
       <c r="D20" t="n">
-        <v>4.99</v>
+        <v>5.23</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>459.6</v>
+        <v>128</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ZUARI</t>
+          <t>SSFL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>276.85</v>
+        <v>160.75</v>
       </c>
       <c r="C21" t="n">
-        <v>290.65</v>
+        <v>168.8</v>
       </c>
       <c r="D21" t="n">
-        <v>4.98</v>
+        <v>5.01</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>284.3</v>
+        <v>146.05</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-2.18</v>
+        <v>-13.48</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>KORE</t>
+          <t>RVHL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>192.6</v>
+        <v>50.43</v>
       </c>
       <c r="C22" t="n">
-        <v>202.2</v>
+        <v>52.95</v>
       </c>
       <c r="D22" t="n">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>202.2</v>
+        <v>52.95</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
@@ -1024,23 +1024,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MSPL</t>
+          <t>INTENTECH</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>33.33</v>
+        <v>125.12</v>
       </c>
       <c r="C23" t="n">
-        <v>34.99</v>
+        <v>131.37</v>
       </c>
       <c r="D23" t="n">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>34.99</v>
+        <v>131.37</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
@@ -1050,23 +1050,23 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TAKE</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>24.92</v>
+        <v>47</v>
       </c>
       <c r="C24" t="n">
-        <v>26.16</v>
+        <v>49.35</v>
       </c>
       <c r="D24" t="n">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>26.16</v>
+        <v>49.35</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
@@ -1076,179 +1076,179 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>NEPHROCARE</t>
+          <t>KDL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>134.3</v>
+        <v>179.1</v>
       </c>
       <c r="C25" t="n">
-        <v>140.95</v>
+        <v>188.05</v>
       </c>
       <c r="D25" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>138</v>
+        <v>188.05</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>-2.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IOLCP</t>
+          <t>AXISCADES</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>88.8</v>
+        <v>1412.8</v>
       </c>
       <c r="C26" t="n">
-        <v>93.2</v>
+        <v>1483.4</v>
       </c>
       <c r="D26" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>98.69</v>
+        <v>1483.4</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>5.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SSFL</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>154.35</v>
+        <v>889.95</v>
       </c>
       <c r="C27" t="n">
-        <v>161.9</v>
+        <v>934.4</v>
       </c>
       <c r="D27" t="n">
-        <v>4.89</v>
+        <v>4.99</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>160</v>
+        <v>934.4</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>JAYSREETEA</t>
+          <t>ATLANTAA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>92.5</v>
+        <v>47.5</v>
       </c>
       <c r="C28" t="n">
-        <v>97</v>
+        <v>49.87</v>
       </c>
       <c r="D28" t="n">
-        <v>4.86</v>
+        <v>4.99</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>95.04000000000001</v>
+        <v>49.87</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>-2.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AMCL</t>
+          <t>TERASOFT</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.65</v>
+        <v>539.7</v>
       </c>
       <c r="C29" t="n">
-        <v>351.9</v>
+        <v>566.65</v>
       </c>
       <c r="D29" t="n">
-        <v>4.84</v>
+        <v>4.99</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>352</v>
+        <v>566.65</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DRONE</t>
+          <t>CPPLUS</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>79.84999999999999</v>
+        <v>1495.6</v>
       </c>
       <c r="C30" t="n">
-        <v>83.7</v>
+        <v>1570</v>
       </c>
       <c r="D30" t="n">
-        <v>4.82</v>
+        <v>4.97</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>83.8</v>
+        <v>1600</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>0.12</v>
+        <v>1.91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ACCORD</t>
+          <t>TAKE</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>20.8</v>
+        <v>26.16</v>
       </c>
       <c r="C31" t="n">
-        <v>21.8</v>
+        <v>27.46</v>
       </c>
       <c r="D31" t="n">
-        <v>4.81</v>
+        <v>4.97</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>21.8</v>
+        <v>27.46</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
@@ -1258,950 +1258,948 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>BSE</t>
+          <t>DRONE</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2644.2</v>
+        <v>83.8</v>
       </c>
       <c r="C32" t="n">
-        <v>2770</v>
+        <v>87.95</v>
       </c>
       <c r="D32" t="n">
-        <v>4.76</v>
+        <v>4.95</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2812.9</v>
+        <v>87.95</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ALPSINDUS</t>
+          <t>LAKPRE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1.89</v>
+        <v>5.67</v>
       </c>
       <c r="C33" t="n">
-        <v>1.98</v>
+        <v>5.95</v>
       </c>
       <c r="D33" t="n">
-        <v>4.76</v>
+        <v>4.94</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.92</v>
+        <v>5.95</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>-3.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ANIKINDS</t>
+          <t>NAZARA</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>73.98999999999999</v>
+        <v>257.3</v>
       </c>
       <c r="C34" t="n">
-        <v>77.5</v>
+        <v>270</v>
       </c>
       <c r="D34" t="n">
-        <v>4.74</v>
+        <v>4.94</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>74.02</v>
+        <v>266.65</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-4.49</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>KLL</t>
+          <t>ACCORD</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>45.85</v>
+        <v>21.8</v>
       </c>
       <c r="C35" t="n">
-        <v>48</v>
+        <v>22.85</v>
       </c>
       <c r="D35" t="n">
-        <v>4.69</v>
+        <v>4.82</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>45.85</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="n">
-        <v>-4.48</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MASKINVEST</t>
+          <t>ASPIRE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>156.73</v>
+        <v>17.95</v>
       </c>
       <c r="C36" t="n">
-        <v>164</v>
+        <v>18.8</v>
       </c>
       <c r="D36" t="n">
-        <v>4.64</v>
+        <v>4.74</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>163.9</v>
+        <v>18.8</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FILATFASH</t>
+          <t>KCK</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.44</v>
+        <v>26.7</v>
       </c>
       <c r="C37" t="n">
-        <v>0.46</v>
+        <v>27.95</v>
       </c>
       <c r="D37" t="n">
-        <v>4.55</v>
+        <v>4.68</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.47</v>
+        <v>28</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>2.17</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MVGJL</t>
+          <t>FIEMIND</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>197.55</v>
+        <v>2139.8</v>
       </c>
       <c r="C38" t="n">
-        <v>206.4</v>
+        <v>2240</v>
       </c>
       <c r="D38" t="n">
-        <v>4.48</v>
+        <v>4.68</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>207.13</v>
+        <v>2241.4</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>0.35</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SHRADHA</t>
+          <t>CLASSICEIL</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>42.88</v>
+        <v>86</v>
       </c>
       <c r="C39" t="n">
-        <v>44.75</v>
+        <v>90</v>
       </c>
       <c r="D39" t="n">
-        <v>4.36</v>
+        <v>4.65</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>44.04</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-1.59</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ABCOTS</t>
+          <t>RCOM</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>418.85</v>
+        <v>1.3</v>
       </c>
       <c r="C40" t="n">
-        <v>437</v>
+        <v>1.36</v>
       </c>
       <c r="D40" t="n">
-        <v>4.33</v>
+        <v>4.62</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>419.25</v>
+        <v>1.34</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-4.06</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TREEHOUSE</t>
+          <t>GLOSTERLTD</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7.66</v>
+        <v>649.1</v>
       </c>
       <c r="C41" t="n">
-        <v>7.99</v>
+        <v>679</v>
       </c>
       <c r="D41" t="n">
-        <v>4.31</v>
+        <v>4.61</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>7.89</v>
+        <v>669.6</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-1.25</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RADAAN</t>
+          <t>OBSCP</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3.25</v>
+        <v>317.55</v>
       </c>
       <c r="C42" t="n">
-        <v>3.39</v>
+        <v>332</v>
       </c>
       <c r="D42" t="n">
-        <v>4.31</v>
+        <v>4.55</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>3.35</v>
+        <v>340</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-1.18</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CREATIVE</t>
+          <t>GLOBALE</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>693.35</v>
+        <v>12.96</v>
       </c>
       <c r="C43" t="n">
-        <v>723.1</v>
+        <v>13.55</v>
       </c>
       <c r="D43" t="n">
-        <v>4.29</v>
+        <v>4.55</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>702.9</v>
+        <v>13.44</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-2.79</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GSFC</t>
+          <t>GANDHAR</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>184.14</v>
+        <v>141.44</v>
       </c>
       <c r="C44" t="n">
-        <v>192</v>
+        <v>147.8</v>
       </c>
       <c r="D44" t="n">
-        <v>4.27</v>
+        <v>4.5</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>192.11</v>
+        <v>151.03</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>0.06</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BEDMUTHA</t>
+          <t>REGAAL</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>117.96</v>
+        <v>89.22</v>
       </c>
       <c r="C45" t="n">
-        <v>122.95</v>
+        <v>93.22</v>
       </c>
       <c r="D45" t="n">
-        <v>4.23</v>
+        <v>4.48</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>115.96</v>
+        <v>92.14</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-5.69</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GLOSTERLTD</t>
+          <t>ABCOTS</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>649.8</v>
+        <v>405.8</v>
       </c>
       <c r="C46" t="n">
-        <v>677</v>
+        <v>423.95</v>
       </c>
       <c r="D46" t="n">
-        <v>4.19</v>
+        <v>4.47</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>645</v>
+        <v>409.95</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-4.73</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AKI</t>
+          <t>OSELDEVICE</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>7.92</v>
+        <v>637.45</v>
       </c>
       <c r="C47" t="n">
-        <v>8.25</v>
+        <v>665.9</v>
       </c>
       <c r="D47" t="n">
-        <v>4.17</v>
+        <v>4.46</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>7.8</v>
+        <v>665</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-5.45</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>BLBLIMITED</t>
+          <t>MEGASTAR</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>17.29</v>
+        <v>268.35</v>
       </c>
       <c r="C48" t="n">
-        <v>17.98</v>
+        <v>280</v>
       </c>
       <c r="D48" t="n">
-        <v>3.99</v>
+        <v>4.34</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>17.66</v>
+        <v>279.95</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-1.78</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AGIIL</t>
+          <t>EFFWA</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>258.7</v>
+        <v>235.4</v>
       </c>
       <c r="C49" t="n">
-        <v>268.95</v>
+        <v>245.6</v>
       </c>
       <c r="D49" t="n">
-        <v>3.96</v>
+        <v>4.33</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>261.4</v>
+        <v>255</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-2.81</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SANCO</t>
+          <t>SGL</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1.77</v>
+        <v>14.18</v>
       </c>
       <c r="C50" t="n">
-        <v>1.84</v>
+        <v>14.79</v>
       </c>
       <c r="D50" t="n">
-        <v>3.95</v>
+        <v>4.3</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.68</v>
+        <v>14.5</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-8.699999999999999</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TEAMGTY</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>248.4</v>
+        <v>209.06</v>
       </c>
       <c r="C51" t="n">
-        <v>258</v>
+        <v>217.97</v>
       </c>
       <c r="D51" t="n">
-        <v>3.86</v>
+        <v>4.26</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>257.9</v>
+        <v>213</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-0.04</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>IVALUE</t>
+          <t>VASWANI</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>296.8</v>
+        <v>67.22</v>
       </c>
       <c r="C52" t="n">
-        <v>307.95</v>
+        <v>69.98999999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>3.76</v>
+        <v>4.12</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>324.8</v>
+        <v>68.59</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>5.47</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SAFEENTP</t>
+          <t>CCCL</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>212.05</v>
+        <v>22.3</v>
       </c>
       <c r="C53" t="n">
-        <v>220</v>
+        <v>23.2</v>
       </c>
       <c r="D53" t="n">
-        <v>3.75</v>
+        <v>4.04</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>222.05</v>
+        <v>22.55</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>0.93</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RELIABLE</t>
+          <t>DICIND</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>157.37</v>
+        <v>501.9</v>
       </c>
       <c r="C54" t="n">
-        <v>163.2</v>
+        <v>521.95</v>
       </c>
       <c r="D54" t="n">
-        <v>3.7</v>
+        <v>3.99</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>159.6</v>
+        <v>503.05</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-2.21</v>
+        <v>-3.62</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>LOKESHMACH</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.07</v>
+        <v>177.86</v>
       </c>
       <c r="C55" t="n">
-        <v>4.22</v>
+        <v>184.9</v>
       </c>
       <c r="D55" t="n">
-        <v>3.69</v>
+        <v>3.96</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>4.14</v>
+        <v>182.48</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-1.9</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SMSPHARMA</t>
+          <t>USK</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>291.25</v>
+        <v>25.02</v>
       </c>
       <c r="C56" t="n">
-        <v>302</v>
+        <v>25.99</v>
       </c>
       <c r="D56" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>291.35</v>
+        <v>25.36</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-3.53</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>INFLUX</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>44.8</v>
+        <v>188.65</v>
       </c>
       <c r="C57" t="n">
-        <v>46.45</v>
+        <v>195.95</v>
       </c>
       <c r="D57" t="n">
-        <v>3.68</v>
+        <v>3.87</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>46.35</v>
+        <v>196</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-0.22</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MAZDA</t>
+          <t>TFL</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>257.5</v>
+        <v>12.99</v>
       </c>
       <c r="C58" t="n">
-        <v>266.95</v>
+        <v>13.49</v>
       </c>
       <c r="D58" t="n">
-        <v>3.67</v>
+        <v>3.85</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>259.6</v>
+        <v>13.35</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-2.75</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>UNIECOM</t>
+          <t>TGBHOTELS</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>128.69</v>
+        <v>11.39</v>
       </c>
       <c r="C59" t="n">
-        <v>133.4</v>
+        <v>11.82</v>
       </c>
       <c r="D59" t="n">
-        <v>3.66</v>
+        <v>3.78</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>134</v>
+        <v>11.82</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HEADSUP</t>
+          <t>MADHUCON</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>10.4</v>
+        <v>7.04</v>
       </c>
       <c r="C60" t="n">
-        <v>10.78</v>
+        <v>7.3</v>
       </c>
       <c r="D60" t="n">
-        <v>3.65</v>
+        <v>3.69</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>10.32</v>
+        <v>6.95</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-4.27</v>
+        <v>-4.79</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TREL</t>
+          <t>RHFL</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>28.28</v>
+        <v>3.54</v>
       </c>
       <c r="C61" t="n">
-        <v>29.3</v>
+        <v>3.67</v>
       </c>
       <c r="D61" t="n">
-        <v>3.61</v>
+        <v>3.67</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>28.6</v>
+        <v>3.64</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-2.39</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FLYSBS</t>
+          <t>BLBLIMITED</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>560.05</v>
+        <v>16.89</v>
       </c>
       <c r="C62" t="n">
-        <v>580</v>
+        <v>17.5</v>
       </c>
       <c r="D62" t="n">
-        <v>3.56</v>
+        <v>3.61</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>572</v>
+        <v>16.81</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-1.38</v>
+        <v>-3.94</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PILITA</t>
+          <t>BASML</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>11.83</v>
+        <v>25.77</v>
       </c>
       <c r="C63" t="n">
-        <v>12.25</v>
+        <v>26.69</v>
       </c>
       <c r="D63" t="n">
-        <v>3.55</v>
+        <v>3.57</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>12.18</v>
+        <v>25.99</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-0.57</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>XELPMOC</t>
+          <t>SUNLITE</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>132.01</v>
+        <v>236.95</v>
       </c>
       <c r="C64" t="n">
-        <v>136.6</v>
+        <v>245.15</v>
       </c>
       <c r="D64" t="n">
-        <v>3.48</v>
+        <v>3.46</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>133.94</v>
+        <v>245.15</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-1.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>BELRISE</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>151.02</v>
+        <v>222.36</v>
       </c>
       <c r="C65" t="n">
-        <v>156.2</v>
+        <v>230</v>
       </c>
       <c r="D65" t="n">
-        <v>3.43</v>
+        <v>3.44</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>157.2</v>
+        <v>223.41</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>0.64</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CEREBRAINT</t>
+          <t>VLEGOV</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>8.26</v>
+        <v>19.32</v>
       </c>
       <c r="C66" t="n">
-        <v>8.539999999999999</v>
+        <v>19.98</v>
       </c>
       <c r="D66" t="n">
-        <v>3.39</v>
+        <v>3.42</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>8.43</v>
+        <v>19.78</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-1.29</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TRANSRAILL</t>
+          <t>NIBL</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>650.05</v>
+        <v>30.39</v>
       </c>
       <c r="C67" t="n">
-        <v>672</v>
+        <v>31.41</v>
       </c>
       <c r="D67" t="n">
-        <v>3.38</v>
+        <v>3.36</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>662</v>
+        <v>30</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-1.49</v>
+        <v>-4.49</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CPEDU</t>
+          <t>BHARATWIRE</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>299</v>
+        <v>193.53</v>
       </c>
       <c r="C68" t="n">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c r="D68" t="n">
         <v>3.34</v>
@@ -2210,313 +2208,313 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>307</v>
+        <v>196.79</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-0.65</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>NINSYS</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>424.8</v>
+        <v>2769.8</v>
       </c>
       <c r="C69" t="n">
-        <v>439</v>
+        <v>2858.9</v>
       </c>
       <c r="D69" t="n">
-        <v>3.34</v>
+        <v>3.22</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>436</v>
+        <v>2860.3</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-0.68</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>IWARE</t>
+          <t>PRABHA</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>199.3</v>
+        <v>205.41</v>
       </c>
       <c r="C70" t="n">
-        <v>205.9</v>
+        <v>212</v>
       </c>
       <c r="D70" t="n">
-        <v>3.31</v>
+        <v>3.21</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>194.15</v>
+        <v>205.99</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-5.71</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ACL</t>
+          <t>VALIANTORG</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>79.84999999999999</v>
+        <v>294.6</v>
       </c>
       <c r="C71" t="n">
-        <v>82.45999999999999</v>
+        <v>304</v>
       </c>
       <c r="D71" t="n">
-        <v>3.27</v>
+        <v>3.19</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>83.84</v>
+        <v>294.55</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>1.67</v>
+        <v>-3.11</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MAHASTEEL</t>
+          <t>NINSYS</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>731.15</v>
+        <v>422.8</v>
       </c>
       <c r="C72" t="n">
-        <v>754.95</v>
+        <v>436.2</v>
       </c>
       <c r="D72" t="n">
-        <v>3.26</v>
+        <v>3.17</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>765</v>
+        <v>429.8</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>1.33</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BIKEWO</t>
+          <t>GFLLIMITED</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>15.5</v>
+        <v>61.11</v>
       </c>
       <c r="C73" t="n">
-        <v>16</v>
+        <v>62.99</v>
       </c>
       <c r="D73" t="n">
-        <v>3.23</v>
+        <v>3.08</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>16</v>
+        <v>61.5</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DELPHIFX</t>
+          <t>AGIIL</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>199.11</v>
+        <v>254.25</v>
       </c>
       <c r="C74" t="n">
-        <v>205.55</v>
+        <v>262</v>
       </c>
       <c r="D74" t="n">
-        <v>3.23</v>
+        <v>3.05</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>206.2</v>
+        <v>256.15</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>0.32</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ORTINGLOBE</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>11.82</v>
+        <v>178.61</v>
       </c>
       <c r="C75" t="n">
-        <v>12.2</v>
+        <v>184</v>
       </c>
       <c r="D75" t="n">
-        <v>3.21</v>
+        <v>3.02</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>11.82</v>
+        <v>182.21</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-3.11</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SONAMLTD</t>
+          <t>SHEKHAWATI</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>40.5</v>
+        <v>19.59</v>
       </c>
       <c r="C76" t="n">
-        <v>41.8</v>
+        <v>20.18</v>
       </c>
       <c r="D76" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>40.93</v>
+        <v>19.8</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-2.08</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GKENERGY</t>
+          <t>FRESHARA</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>187.05</v>
+        <v>146.6</v>
       </c>
       <c r="C77" t="n">
-        <v>193</v>
+        <v>151</v>
       </c>
       <c r="D77" t="n">
-        <v>3.18</v>
+        <v>3</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>191.58</v>
+        <v>141</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-0.74</v>
+        <v>-6.62</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>GLOBE</t>
+          <t>TREL</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>2.83</v>
+        <v>28.02</v>
       </c>
       <c r="C78" t="n">
-        <v>2.92</v>
+        <v>28.85</v>
       </c>
       <c r="D78" t="n">
-        <v>3.18</v>
+        <v>2.96</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>2.88</v>
+        <v>28.15</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-1.37</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AGARWALTUF</t>
+          <t>PFIZER</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>146.2</v>
+        <v>5015.5</v>
       </c>
       <c r="C79" t="n">
-        <v>150.8</v>
+        <v>5164</v>
       </c>
       <c r="D79" t="n">
-        <v>3.15</v>
+        <v>2.96</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>143</v>
+        <v>5272.5</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-5.17</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>EMMBI</t>
+          <t>ATLASCYCLE</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>105.5</v>
+        <v>107.71</v>
       </c>
       <c r="C80" t="n">
-        <v>108.8</v>
+        <v>110.89</v>
       </c>
       <c r="D80" t="n">
-        <v>3.13</v>
+        <v>2.95</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
@@ -2526,1472 +2524,1476 @@
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-0.75</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SHYAMCENT</t>
+          <t>TPLPLASTEH</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>6.08</v>
+        <v>71.78</v>
       </c>
       <c r="C81" t="n">
-        <v>6.27</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>6.05</v>
+        <v>73.98999999999999</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-3.51</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>OMAXAUTO</t>
+          <t>SYNCOMF</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>95.95</v>
+        <v>16.36</v>
       </c>
       <c r="C82" t="n">
-        <v>98.90000000000001</v>
+        <v>16.84</v>
       </c>
       <c r="D82" t="n">
-        <v>3.07</v>
+        <v>2.93</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>97.09</v>
+        <v>16.91</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-1.83</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>LATTEYS</t>
+          <t>MIDWESTLTD</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>26.69</v>
+        <v>1097.8</v>
       </c>
       <c r="C83" t="n">
-        <v>27.5</v>
+        <v>1130</v>
       </c>
       <c r="D83" t="n">
-        <v>3.03</v>
+        <v>2.93</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>27.25</v>
+        <v>1121.9</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-0.91</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IFCI</t>
+          <t>3IINFOLTD</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>54.06</v>
+        <v>17.27</v>
       </c>
       <c r="C84" t="n">
-        <v>55.7</v>
+        <v>17.77</v>
       </c>
       <c r="D84" t="n">
-        <v>3.03</v>
+        <v>2.9</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>55.93</v>
+        <v>18.21</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>0.41</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S&amp;SPOWER</t>
+          <t>UNIVASTU</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>349.35</v>
+        <v>68.05</v>
       </c>
       <c r="C85" t="n">
-        <v>359.9</v>
+        <v>70</v>
       </c>
       <c r="D85" t="n">
-        <v>3.02</v>
+        <v>2.87</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
-      <c r="F85" t="inlineStr"/>
+      <c r="F85" t="n">
+        <v>69.25</v>
+      </c>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
+      <c r="H85" t="n">
+        <v>-1.07</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DOLPHIN</t>
+          <t>VINDHYATEL</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>391.85</v>
+        <v>1370.5</v>
       </c>
       <c r="C86" t="n">
-        <v>403.65</v>
+        <v>1409.9</v>
       </c>
       <c r="D86" t="n">
-        <v>3.01</v>
+        <v>2.87</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>391</v>
+        <v>1522.1</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-3.13</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ORIENTLTD</t>
+          <t>PREMIERPOL</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>85.91</v>
+        <v>39.87</v>
       </c>
       <c r="C87" t="n">
-        <v>88.5</v>
+        <v>41</v>
       </c>
       <c r="D87" t="n">
-        <v>3.01</v>
+        <v>2.83</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>88.5</v>
+        <v>39.9</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>-2.68</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TGBHOTELS</t>
+          <t>AIMTRON</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>11.44</v>
+        <v>937.6</v>
       </c>
       <c r="C88" t="n">
-        <v>11.78</v>
+        <v>963.9</v>
       </c>
       <c r="D88" t="n">
-        <v>2.97</v>
+        <v>2.81</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>11.47</v>
+        <v>963.9</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-2.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TBI</t>
+          <t>ORIENTCER</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>84.5</v>
+        <v>38.4</v>
       </c>
       <c r="C89" t="n">
-        <v>87</v>
+        <v>39.47</v>
       </c>
       <c r="D89" t="n">
-        <v>2.96</v>
+        <v>2.79</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>87</v>
+        <v>38.42</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>YATRA</t>
+          <t>MOHITIND</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>165.21</v>
+        <v>31.63</v>
       </c>
       <c r="C90" t="n">
-        <v>170.1</v>
+        <v>32.49</v>
       </c>
       <c r="D90" t="n">
-        <v>2.96</v>
+        <v>2.72</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>185</v>
+        <v>32.49</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>8.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>TTL</t>
+          <t>SEJALLTD</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>9.210000000000001</v>
+        <v>866.4</v>
       </c>
       <c r="C91" t="n">
-        <v>9.48</v>
+        <v>889.8</v>
       </c>
       <c r="D91" t="n">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>9.4</v>
+        <v>888.5</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-0.84</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>PAR</t>
+          <t>GSS</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>95.23999999999999</v>
+        <v>22.25</v>
       </c>
       <c r="C92" t="n">
-        <v>97.98999999999999</v>
+        <v>22.85</v>
       </c>
       <c r="D92" t="n">
-        <v>2.89</v>
+        <v>2.7</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>97</v>
+        <v>22.67</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-1.01</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PEARLPOLY</t>
+          <t>PILANIINVS</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>26.73</v>
+        <v>5256.5</v>
       </c>
       <c r="C93" t="n">
-        <v>27.5</v>
+        <v>5398</v>
       </c>
       <c r="D93" t="n">
-        <v>2.88</v>
+        <v>2.69</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>27.24</v>
+        <v>5300</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-0.95</v>
+        <v>-1.82</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>COSMOFIRST</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>198.35</v>
+        <v>801.5</v>
       </c>
       <c r="C94" t="n">
-        <v>204</v>
+        <v>823</v>
       </c>
       <c r="D94" t="n">
-        <v>2.85</v>
+        <v>2.68</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>200.61</v>
+        <v>819.15</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-1.66</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TNTELE</t>
+          <t>SUNDARAM</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>11.91</v>
+        <v>1.89</v>
       </c>
       <c r="C95" t="n">
-        <v>12.25</v>
+        <v>1.94</v>
       </c>
       <c r="D95" t="n">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>11.87</v>
+        <v>1.91</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-3.1</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BAJAJHLDNG</t>
+          <t>TAURIAN</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>12156</v>
+        <v>354.6</v>
       </c>
       <c r="C96" t="n">
-        <v>12499</v>
+        <v>364</v>
       </c>
       <c r="D96" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>12077</v>
+        <v>364</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-3.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PAISALO</t>
+          <t>BALAXI</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>32.37</v>
+        <v>37.91</v>
       </c>
       <c r="C97" t="n">
-        <v>33.28</v>
+        <v>38.91</v>
       </c>
       <c r="D97" t="n">
-        <v>2.81</v>
+        <v>2.64</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>33.24</v>
+        <v>39</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-0.12</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>PRABHA</t>
+          <t>BVCL</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>202.37</v>
+        <v>46.18</v>
       </c>
       <c r="C98" t="n">
-        <v>208</v>
+        <v>47.39</v>
       </c>
       <c r="D98" t="n">
-        <v>2.78</v>
+        <v>2.62</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>207.03</v>
+        <v>46.03</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-0.47</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>FISCHER</t>
+          <t>TNTELE</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>77.86</v>
+        <v>11.81</v>
       </c>
       <c r="C99" t="n">
-        <v>80</v>
+        <v>12.12</v>
       </c>
       <c r="D99" t="n">
-        <v>2.75</v>
+        <v>2.62</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>76.08</v>
+        <v>11.85</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-4.9</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NAMOEWASTE</t>
+          <t>SPANDANA</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>191.6</v>
+        <v>237.8</v>
       </c>
       <c r="C100" t="n">
-        <v>196.85</v>
+        <v>244</v>
       </c>
       <c r="D100" t="n">
-        <v>2.74</v>
+        <v>2.61</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>196.8</v>
+        <v>246.9</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-0.03</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>CEIGALL</t>
+          <t>AARTECH</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>249.2</v>
+        <v>51.17</v>
       </c>
       <c r="C101" t="n">
-        <v>256</v>
+        <v>52.5</v>
       </c>
       <c r="D101" t="n">
-        <v>2.73</v>
+        <v>2.6</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>254.35</v>
+        <v>51.74</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-0.64</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BHAGYANGR</t>
+          <t>GEEKAYWIRE</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>139.6</v>
+        <v>31.39</v>
       </c>
       <c r="C102" t="n">
-        <v>143.4</v>
+        <v>32.2</v>
       </c>
       <c r="D102" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>140.62</v>
+        <v>31.79</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-1.94</v>
+        <v>-1.27</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BFUTILITIE</t>
+          <t>XTGLOBAL</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>660.9</v>
+        <v>40.22</v>
       </c>
       <c r="C103" t="n">
-        <v>678.9</v>
+        <v>41.25</v>
       </c>
       <c r="D103" t="n">
-        <v>2.72</v>
+        <v>2.56</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>674.95</v>
+        <v>42.35</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-0.58</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>COUNCODOS</t>
+          <t>QPOWER</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>5.94</v>
+        <v>897.2</v>
       </c>
       <c r="C104" t="n">
-        <v>6.1</v>
+        <v>920</v>
       </c>
       <c r="D104" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>6.08</v>
+        <v>907.7</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-0.33</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>SYSTANGO</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>1095.4</v>
+        <v>287.55</v>
       </c>
       <c r="C105" t="n">
-        <v>1124.9</v>
+        <v>294.85</v>
       </c>
       <c r="D105" t="n">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>1102.9</v>
+        <v>292</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-1.96</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>TARIL</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>282.2</v>
+        <v>53.83</v>
       </c>
       <c r="C106" t="n">
-        <v>289.8</v>
+        <v>55.17</v>
       </c>
       <c r="D106" t="n">
-        <v>2.69</v>
+        <v>2.49</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>297.4</v>
+        <v>54.35</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>2.62</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SAKHTISUG</t>
+          <t>A2ZINFRA</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>20.15</v>
+        <v>18.05</v>
       </c>
       <c r="C107" t="n">
-        <v>20.69</v>
+        <v>18.5</v>
       </c>
       <c r="D107" t="n">
-        <v>2.68</v>
+        <v>2.49</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>20.4</v>
+        <v>18.18</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-1.4</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>BRNL</t>
+          <t>DJML</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>24.55</v>
+        <v>73.56999999999999</v>
       </c>
       <c r="C108" t="n">
-        <v>25.2</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="D108" t="n">
-        <v>2.65</v>
+        <v>2.49</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>24.72</v>
+        <v>74.97</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-1.9</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>SUPERSPIN</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>123.77</v>
+        <v>9.27</v>
       </c>
       <c r="C109" t="n">
-        <v>127</v>
+        <v>9.5</v>
       </c>
       <c r="D109" t="n">
-        <v>2.61</v>
+        <v>2.48</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>126.8</v>
+        <v>9.4</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-0.16</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>ZAGGLE</t>
+          <t>KICL</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>374.85</v>
+        <v>5073</v>
       </c>
       <c r="C110" t="n">
-        <v>384.5</v>
+        <v>5199</v>
       </c>
       <c r="D110" t="n">
-        <v>2.57</v>
+        <v>2.48</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>393.4</v>
+        <v>5141.5</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>2.31</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ORIENTBELL</t>
+          <t>IEML-RE</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>273.45</v>
+        <v>26.35</v>
       </c>
       <c r="C111" t="n">
-        <v>280.45</v>
+        <v>27</v>
       </c>
       <c r="D111" t="n">
-        <v>2.56</v>
+        <v>2.47</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>283.45</v>
+        <v>27</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>NELCAST</t>
+          <t>HIMATSEIDE</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>110.18</v>
+        <v>122.98</v>
       </c>
       <c r="C112" t="n">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D112" t="n">
-        <v>2.56</v>
+        <v>2.46</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>111.32</v>
+        <v>126.63</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-1.49</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TREJHARA</t>
+          <t>RADAAN</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>251.4</v>
+        <v>3.27</v>
       </c>
       <c r="C113" t="n">
-        <v>257.82</v>
+        <v>3.35</v>
       </c>
       <c r="D113" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>255</v>
+        <v>3.3</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-1.09</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>AFFORDABLE</t>
+          <t>SITINET</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>226.35</v>
+        <v>0.41</v>
       </c>
       <c r="C114" t="n">
-        <v>232</v>
+        <v>0.42</v>
       </c>
       <c r="D114" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>233.35</v>
+        <v>0.42</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TVSELECT</t>
+          <t>LASA</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>585.25</v>
+        <v>10.68</v>
       </c>
       <c r="C115" t="n">
-        <v>599.8</v>
+        <v>10.94</v>
       </c>
       <c r="D115" t="n">
-        <v>2.49</v>
+        <v>2.43</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>609.9</v>
+        <v>10.76</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>1.68</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>GAJANAND</t>
+          <t>ARSSBL</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>12.15</v>
+        <v>651.5</v>
       </c>
       <c r="C116" t="n">
-        <v>12.45</v>
+        <v>667.3</v>
       </c>
       <c r="D116" t="n">
-        <v>2.47</v>
+        <v>2.43</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>12.85</v>
+        <v>658.65</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>3.21</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>DBOL</t>
+          <t>LYPSAGEMS</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>74.67</v>
+        <v>5.37</v>
       </c>
       <c r="C117" t="n">
-        <v>76.5</v>
+        <v>5.5</v>
       </c>
       <c r="D117" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>75.40000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-1.44</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>KAVDEFENCE</t>
+          <t>SHIVAMAUTO</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>107.28</v>
+        <v>28.32</v>
       </c>
       <c r="C118" t="n">
-        <v>109.9</v>
+        <v>29</v>
       </c>
       <c r="D118" t="n">
-        <v>2.44</v>
+        <v>2.4</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>112.6</v>
+        <v>28.59</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>2.46</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>KNAGRI</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>218.7</v>
+        <v>219.75</v>
       </c>
       <c r="C119" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D119" t="n">
-        <v>2.42</v>
+        <v>2.39</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>222.2</v>
+        <v>221</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-0.8</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>RCOM</t>
+          <t>AKI</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>1.24</v>
+        <v>7.99</v>
       </c>
       <c r="C120" t="n">
-        <v>1.27</v>
+        <v>8.18</v>
       </c>
       <c r="D120" t="n">
-        <v>2.42</v>
+        <v>2.38</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>1.3</v>
+        <v>8</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>2.36</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MKPL</t>
+          <t>DEVIT</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>6.65</v>
+        <v>41.44</v>
       </c>
       <c r="C121" t="n">
-        <v>6.81</v>
+        <v>42.42</v>
       </c>
       <c r="D121" t="n">
-        <v>2.41</v>
+        <v>2.36</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>6.81</v>
+        <v>42.8</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AKASH</t>
+          <t>ASMS</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>27.21</v>
+        <v>12.77</v>
       </c>
       <c r="C122" t="n">
-        <v>27.86</v>
+        <v>13.07</v>
       </c>
       <c r="D122" t="n">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>27.56</v>
+        <v>12.97</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-1.08</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>BHARATGEAR</t>
+          <t>AMBICAAGAR</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>106.83</v>
+        <v>25.65</v>
       </c>
       <c r="C123" t="n">
-        <v>109.38</v>
+        <v>26.25</v>
       </c>
       <c r="D123" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>108.7</v>
+        <v>26.25</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-0.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>KHADIM</t>
+          <t>LEXUS</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>229.37</v>
+        <v>28.82</v>
       </c>
       <c r="C124" t="n">
-        <v>234.79</v>
+        <v>29.49</v>
       </c>
       <c r="D124" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>232.78</v>
+        <v>30.25</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-0.86</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>PRECWIRE</t>
+          <t>ATHERENERG</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>230.56</v>
+        <v>628.55</v>
       </c>
       <c r="C125" t="n">
-        <v>236</v>
+        <v>643.05</v>
       </c>
       <c r="D125" t="n">
-        <v>2.36</v>
+        <v>2.31</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>232.27</v>
+        <v>648.9</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-1.58</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOMICONVEY</t>
+          <t>JINDALPHOT</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>151.35</v>
+        <v>1385.2</v>
       </c>
       <c r="C126" t="n">
-        <v>154.9</v>
+        <v>1417</v>
       </c>
       <c r="D126" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>154.35</v>
+        <v>1380</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-0.36</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>PCJEWELLER</t>
+          <t>BIGBLOC</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12.36</v>
+        <v>48.88</v>
       </c>
       <c r="C127" t="n">
-        <v>12.65</v>
+        <v>50</v>
       </c>
       <c r="D127" t="n">
-        <v>2.35</v>
+        <v>2.29</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>12.41</v>
+        <v>49.21</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-1.9</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BANKA</t>
+          <t>HMAAGRO</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>85.98999999999999</v>
+        <v>30.11</v>
       </c>
       <c r="C128" t="n">
-        <v>88</v>
+        <v>30.8</v>
       </c>
       <c r="D128" t="n">
-        <v>2.34</v>
+        <v>2.29</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>87.88</v>
+        <v>30.26</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-0.14</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>IPL</t>
+          <t>VAISHALI</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>191.54</v>
+        <v>9.68</v>
       </c>
       <c r="C129" t="n">
-        <v>196</v>
+        <v>9.9</v>
       </c>
       <c r="D129" t="n">
-        <v>2.33</v>
+        <v>2.27</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>192.61</v>
+        <v>9.82</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-1.73</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ADVANCE</t>
+          <t>NAGAFERT</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>134.89</v>
+        <v>4.87</v>
       </c>
       <c r="C130" t="n">
-        <v>138</v>
+        <v>4.98</v>
       </c>
       <c r="D130" t="n">
-        <v>2.31</v>
+        <v>2.26</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>137.39</v>
+        <v>4.9</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-0.44</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>GALAPREC</t>
+          <t>SVPGLOB</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>723.45</v>
+        <v>3.55</v>
       </c>
       <c r="C131" t="n">
-        <v>740</v>
+        <v>3.63</v>
       </c>
       <c r="D131" t="n">
-        <v>2.29</v>
+        <v>2.25</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>770.05</v>
+        <v>3.5</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>4.06</v>
+        <v>-3.58</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>PATINTLOG</t>
+          <t>SUTLEJTEX</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>14.08</v>
+        <v>35.41</v>
       </c>
       <c r="C132" t="n">
-        <v>14.4</v>
+        <v>36.2</v>
       </c>
       <c r="D132" t="n">
-        <v>2.27</v>
+        <v>2.23</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>14.3</v>
+        <v>36</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DIGIDRIVE</t>
+          <t>FILATFASH</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>29.03</v>
+        <v>0.45</v>
       </c>
       <c r="C133" t="n">
-        <v>29.69</v>
+        <v>0.46</v>
       </c>
       <c r="D133" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>28.81</v>
+        <v>0.45</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-2.96</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>EIDPARRY</t>
+          <t>SOMICONVEY</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>1017</v>
+        <v>153.61</v>
       </c>
       <c r="C134" t="n">
-        <v>1040</v>
+        <v>157</v>
       </c>
       <c r="D134" t="n">
-        <v>2.26</v>
+        <v>2.21</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>1050</v>
+        <v>156.62</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>0.96</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SMSLIFE</t>
+          <t>SANOFICONR</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>1237.5</v>
+        <v>4658.3</v>
       </c>
       <c r="C135" t="n">
-        <v>1265</v>
+        <v>4760.9</v>
       </c>
       <c r="D135" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>1227.9</v>
+        <v>4996.2</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-2.93</v>
+        <v>4.94</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BASILIC</t>
+          <t>OMINFRAL</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>371.75</v>
+        <v>111.57</v>
       </c>
       <c r="C136" t="n">
-        <v>379.9</v>
+        <v>114</v>
       </c>
       <c r="D136" t="n">
-        <v>2.19</v>
+        <v>2.18</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>365</v>
+        <v>111.66</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-3.92</v>
+        <v>-2.05</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>DALMIASUG</t>
+          <t>GENSOL</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>317.6</v>
+        <v>32.69</v>
       </c>
       <c r="C137" t="n">
-        <v>324.5</v>
+        <v>33.4</v>
       </c>
       <c r="D137" t="n">
         <v>2.17</v>
@@ -4000,24 +4002,24 @@
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>322.45</v>
+        <v>31.4</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-0.63</v>
+        <v>-5.99</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>KOHINOOR</t>
+          <t>AROGRANITE</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>30.85</v>
+        <v>33.17</v>
       </c>
       <c r="C138" t="n">
-        <v>31.52</v>
+        <v>33.89</v>
       </c>
       <c r="D138" t="n">
         <v>2.17</v>
@@ -4026,258 +4028,258 @@
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>31.09</v>
+        <v>33.61</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-1.36</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>TOLINS</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>0.93</v>
+        <v>185.15</v>
       </c>
       <c r="C139" t="n">
-        <v>0.95</v>
+        <v>189.15</v>
       </c>
       <c r="D139" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.95</v>
+        <v>186.15</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>BFUTILITIE</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>9.84</v>
+        <v>693.9</v>
       </c>
       <c r="C140" t="n">
-        <v>10.05</v>
+        <v>708.8</v>
       </c>
       <c r="D140" t="n">
-        <v>2.13</v>
+        <v>2.15</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>9.99</v>
+        <v>702</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-0.6</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>DIL</t>
+          <t>OILCOUNTUB</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>1.9</v>
+        <v>64.33</v>
       </c>
       <c r="C141" t="n">
-        <v>1.94</v>
+        <v>65.7</v>
       </c>
       <c r="D141" t="n">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>1.9</v>
+        <v>64.52</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-2.06</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>LANCORHOL</t>
+          <t>KSHITIJPOL</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>30.36</v>
+        <v>2.82</v>
       </c>
       <c r="C142" t="n">
-        <v>31</v>
+        <v>2.88</v>
       </c>
       <c r="D142" t="n">
-        <v>2.11</v>
+        <v>2.13</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>30.95</v>
+        <v>2.82</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-0.16</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PANAMAPET</t>
+          <t>TVVISION</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>294.8</v>
+        <v>6.1</v>
       </c>
       <c r="C143" t="n">
-        <v>301</v>
+        <v>6.23</v>
       </c>
       <c r="D143" t="n">
-        <v>2.1</v>
+        <v>2.13</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>304.3</v>
+        <v>6.23</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>KUANTUM</t>
+          <t>SIGIND</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>102.3</v>
+        <v>56.6</v>
       </c>
       <c r="C144" t="n">
-        <v>104.44</v>
+        <v>57.8</v>
       </c>
       <c r="D144" t="n">
-        <v>2.09</v>
+        <v>2.12</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>103.66</v>
+        <v>56.99</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-0.75</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>COMPUSOFT</t>
+          <t>RAJSREESUG</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>17.29</v>
+        <v>39.05</v>
       </c>
       <c r="C145" t="n">
-        <v>17.65</v>
+        <v>39.87</v>
       </c>
       <c r="D145" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>17.8</v>
+        <v>39.01</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>0.85</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AKG</t>
+          <t>DIL</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>12.49</v>
+        <v>1.91</v>
       </c>
       <c r="C146" t="n">
-        <v>12.75</v>
+        <v>1.95</v>
       </c>
       <c r="D146" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>12.72</v>
+        <v>1.92</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-0.24</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>VLEGOV</t>
+          <t>STALLION</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>19.71</v>
+        <v>234.15</v>
       </c>
       <c r="C147" t="n">
-        <v>20.12</v>
+        <v>239</v>
       </c>
       <c r="D147" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>19.59</v>
+        <v>233.9</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-2.63</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>KICL</t>
+          <t>ELGIEQUIP</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>4941</v>
+        <v>491.8</v>
       </c>
       <c r="C148" t="n">
-        <v>5043.5</v>
+        <v>502</v>
       </c>
       <c r="D148" t="n">
         <v>2.07</v>
@@ -4286,258 +4288,258 @@
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>5007.5</v>
+        <v>501.9</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-0.71</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SSEGL</t>
+          <t>ALPSINDUS</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>532</v>
+        <v>1.98</v>
       </c>
       <c r="C149" t="n">
-        <v>543</v>
+        <v>2.02</v>
       </c>
       <c r="D149" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
         <v>2.07</v>
-      </c>
-      <c r="E149" t="b">
-        <v>0</v>
-      </c>
-      <c r="F149" t="n">
-        <v>542.1</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-0.17</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>FOCUS</t>
+          <t>CYBERMEDIA</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>81.33</v>
+        <v>17.36</v>
       </c>
       <c r="C150" t="n">
-        <v>83</v>
+        <v>17.71</v>
       </c>
       <c r="D150" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>82.48999999999999</v>
+        <v>17.71</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-0.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>IFGLEXPOR</t>
+          <t>VALIANTLAB</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>231.17</v>
+        <v>80.38</v>
       </c>
       <c r="C151" t="n">
-        <v>235.9</v>
+        <v>82</v>
       </c>
       <c r="D151" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>235.45</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-0.19</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ARTEMISMED</t>
+          <t>NSIL</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>251.94</v>
+        <v>7009</v>
       </c>
       <c r="C152" t="n">
-        <v>257.09</v>
+        <v>7150</v>
       </c>
       <c r="D152" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>266.16</v>
+        <v>7085</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>3.53</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>COASTCORP</t>
+          <t>AIRAN</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>41.15</v>
+        <v>21.87</v>
       </c>
       <c r="C153" t="n">
-        <v>41.99</v>
+        <v>22.31</v>
       </c>
       <c r="D153" t="n">
-        <v>2.04</v>
+        <v>2.01</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>41.4</v>
+        <v>22.2</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-1.41</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>AARTECH</t>
+          <t>SAFEENTP</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>51.75</v>
+        <v>239.2</v>
       </c>
       <c r="C154" t="n">
-        <v>52.8</v>
+        <v>244</v>
       </c>
       <c r="D154" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>52.33</v>
+        <v>246</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-0.89</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PGIL</t>
+          <t>ARTNIRMAN</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>1411.4</v>
+        <v>50.76</v>
       </c>
       <c r="C155" t="n">
-        <v>1440</v>
+        <v>51.78</v>
       </c>
       <c r="D155" t="n">
-        <v>2.03</v>
+        <v>2.01</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>1425</v>
+        <v>52.99</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-1.04</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>LALPATHLAB</t>
+          <t>BALAJEE</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3064.1</v>
+        <v>41.86</v>
       </c>
       <c r="C156" t="n">
-        <v>3126</v>
+        <v>42.7</v>
       </c>
       <c r="D156" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>3038.5</v>
+        <v>42.3</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-2.8</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>RNBDENIMS</t>
+          <t>SUNCLAY</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>121.54</v>
+        <v>1336.8</v>
       </c>
       <c r="C157" t="n">
-        <v>124</v>
+        <v>1363.5</v>
       </c>
       <c r="D157" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>125.5</v>
+        <v>1333</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>1.21</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>KARMAENG</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>10</v>
+        <v>52.47</v>
       </c>
       <c r="C158" t="n">
-        <v>10.2</v>
+        <v>53.52</v>
       </c>
       <c r="D158" t="n">
         <v>2</v>
@@ -4546,24 +4548,24 @@
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>10.2</v>
+        <v>52.21</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TVVISION</t>
+          <t>SILINV</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>5.99</v>
+        <v>606.65</v>
       </c>
       <c r="C159" t="n">
-        <v>6.11</v>
+        <v>618.8</v>
       </c>
       <c r="D159" t="n">
         <v>2</v>
@@ -4572,24 +4574,24 @@
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>6.11</v>
+        <v>612</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>EQUIPPP</t>
+          <t>UNIDT</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>18.04</v>
+        <v>201.96</v>
       </c>
       <c r="C160" t="n">
-        <v>18.4</v>
+        <v>206</v>
       </c>
       <c r="D160" t="n">
         <v>2</v>
@@ -4598,24 +4600,24 @@
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>17.6</v>
+        <v>207.61</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-4.35</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RELCHEMQ</t>
+          <t>SCPL</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>148.48</v>
+        <v>235.48</v>
       </c>
       <c r="C161" t="n">
-        <v>151.45</v>
+        <v>240.18</v>
       </c>
       <c r="D161" t="n">
         <v>2</v>
@@ -4624,141 +4626,141 @@
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>149.94</v>
+        <v>234.84</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-1</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>HBLENGINE</t>
+          <t>REMSONSIND</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>994.2</v>
+        <v>139.72</v>
       </c>
       <c r="C162" t="n">
-        <v>1014</v>
+        <v>142.47</v>
       </c>
       <c r="D162" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>1003.5</v>
+        <v>140.9</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-1.04</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>HINDWAREAP</t>
+          <t>ANTGRAPHIC</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>377.5</v>
+        <v>1.02</v>
       </c>
       <c r="C163" t="n">
-        <v>385</v>
+        <v>1.04</v>
       </c>
       <c r="D163" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>375.55</v>
+        <v>1.04</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-2.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CORALFINAC</t>
+          <t>GATECHDVR</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>40.8</v>
+        <v>0.51</v>
       </c>
       <c r="C164" t="n">
-        <v>41.61</v>
+        <v>0.52</v>
       </c>
       <c r="D164" t="n">
-        <v>1.99</v>
+        <v>1.96</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>41.26</v>
+        <v>0.52</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>-0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ANUHPHR</t>
+          <t>TARIL</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>81.27</v>
+        <v>296.65</v>
       </c>
       <c r="C165" t="n">
-        <v>82.88</v>
+        <v>302.45</v>
       </c>
       <c r="D165" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>82.25</v>
+        <v>302.3</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-0.76</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>KHAITANLTD</t>
+          <t>LAXMICOT</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>111.75</v>
+        <v>20.99</v>
       </c>
       <c r="C166" t="n">
-        <v>113.95</v>
+        <v>21.4</v>
       </c>
       <c r="D166" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>113</v>
+        <v>21.25</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-0.83</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="167">
@@ -4768,62 +4770,62 @@
         </is>
       </c>
       <c r="B167" t="n">
-        <v>41.58</v>
+        <v>42.76</v>
       </c>
       <c r="C167" t="n">
-        <v>42.4</v>
+        <v>43.59</v>
       </c>
       <c r="D167" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>42.64</v>
+        <v>43.01</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>0.57</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>KCK</t>
+          <t>AKSHOPTFBR</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>25.5</v>
+        <v>7.21</v>
       </c>
       <c r="C168" t="n">
-        <v>26</v>
+        <v>7.35</v>
       </c>
       <c r="D168" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>26</v>
+        <v>7.33</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>BIGBLOC</t>
+          <t>KELLTONTEC</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>48.46</v>
+        <v>21.17</v>
       </c>
       <c r="C169" t="n">
-        <v>49.4</v>
+        <v>21.58</v>
       </c>
       <c r="D169" t="n">
         <v>1.94</v>
@@ -4832,336 +4834,336 @@
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>49.8</v>
+        <v>21.89</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>ORIENTCER</t>
+          <t>GEECEE</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>39.14</v>
+        <v>348.8</v>
       </c>
       <c r="C170" t="n">
-        <v>39.9</v>
+        <v>355.5</v>
       </c>
       <c r="D170" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>39.12</v>
+        <v>348.9</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-1.95</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>TNPETRO</t>
+          <t>EMMBI</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>107.96</v>
+        <v>109.01</v>
       </c>
       <c r="C171" t="n">
-        <v>110.05</v>
+        <v>111.1</v>
       </c>
       <c r="D171" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>110</v>
+        <v>108.44</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-0.05</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>INDTERRAIN</t>
+          <t>MKPL</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>39.73</v>
+        <v>6.79</v>
       </c>
       <c r="C172" t="n">
-        <v>40.5</v>
+        <v>6.92</v>
       </c>
       <c r="D172" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>40.22</v>
+        <v>6.76</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>RPTECH</t>
+          <t>MANCREDIT</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>328.7</v>
+        <v>180.38</v>
       </c>
       <c r="C173" t="n">
-        <v>335</v>
+        <v>183.8</v>
       </c>
       <c r="D173" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>335.1</v>
+        <v>180.88</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>0.03</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FLUOROCHEM</t>
+          <t>ENTERO</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>3488.2</v>
+        <v>1134.4</v>
       </c>
       <c r="C174" t="n">
-        <v>3555</v>
+        <v>1156</v>
       </c>
       <c r="D174" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>3559</v>
+        <v>1132.9</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>0.11</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ATLANTAA</t>
+          <t>DRCSYSTEMS</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>45.24</v>
+        <v>19.56</v>
       </c>
       <c r="C175" t="n">
-        <v>46.1</v>
+        <v>19.93</v>
       </c>
       <c r="D175" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>47.5</v>
+        <v>19.56</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>3.04</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>EMMIL</t>
+          <t>SBCL</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>182.5</v>
+        <v>495.65</v>
       </c>
       <c r="C176" t="n">
-        <v>185.95</v>
+        <v>504.9</v>
       </c>
       <c r="D176" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>184</v>
+        <v>496.95</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-1.05</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>VIVIANA</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1515.35</v>
+        <v>2.67</v>
       </c>
       <c r="C177" t="n">
-        <v>1544</v>
+        <v>2.72</v>
       </c>
       <c r="D177" t="n">
-        <v>1.89</v>
+        <v>1.87</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1577.85</v>
+        <v>2.79</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>2.19</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GFLLIMITED</t>
+          <t>OMAXAUTO</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>59.87</v>
+        <v>97.09</v>
       </c>
       <c r="C178" t="n">
-        <v>61</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="D178" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>60</v>
+        <v>97.2</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-1.64</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PARAGMILK</t>
+          <t>EQUIPPP</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>314.45</v>
+        <v>17.18</v>
       </c>
       <c r="C179" t="n">
-        <v>320.35</v>
+        <v>17.5</v>
       </c>
       <c r="D179" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>354.6</v>
+        <v>18</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>10.69</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BAFNAPH</t>
+          <t>ADVENZYMES</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>192.44</v>
+        <v>330.85</v>
       </c>
       <c r="C180" t="n">
-        <v>196</v>
+        <v>337</v>
       </c>
       <c r="D180" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>201</v>
+        <v>343.4</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>2.55</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>ALPHAGEO</t>
+          <t>FAZE3Q</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>253.8</v>
+        <v>512.95</v>
       </c>
       <c r="C181" t="n">
-        <v>258.5</v>
+        <v>522.5</v>
       </c>
       <c r="D181" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>255.5</v>
+        <v>523.25</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-1.16</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RELINFRA</t>
+          <t>ALLCARGO</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>173.79</v>
+        <v>11.88</v>
       </c>
       <c r="C182" t="n">
-        <v>177</v>
+        <v>12.1</v>
       </c>
       <c r="D182" t="n">
         <v>1.85</v>
@@ -5170,24 +5172,24 @@
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>179.4</v>
+        <v>12.47</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>1.36</v>
+        <v>3.06</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MUFIN</t>
+          <t>DENTALKART</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>110.96</v>
+        <v>573.45</v>
       </c>
       <c r="C183" t="n">
-        <v>113</v>
+        <v>584</v>
       </c>
       <c r="D183" t="n">
         <v>1.84</v>
@@ -5196,24 +5198,24 @@
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>111.34</v>
+        <v>584.85</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-1.47</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HONASA</t>
+          <t>KOHINOOR</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>274.85</v>
+        <v>30.93</v>
       </c>
       <c r="C184" t="n">
-        <v>279.9</v>
+        <v>31.5</v>
       </c>
       <c r="D184" t="n">
         <v>1.84</v>
@@ -5222,446 +5224,454 @@
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>282</v>
+        <v>30.91</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>0.75</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>VARDMNPOLY</t>
+          <t>AARVI</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>7.12</v>
+        <v>119.12</v>
       </c>
       <c r="C185" t="n">
-        <v>7.25</v>
+        <v>121.29</v>
       </c>
       <c r="D185" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>7.05</v>
+        <v>121.09</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-2.76</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SURANAT&amp;P</t>
+          <t>AKSHAR</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>20.8</v>
+        <v>0.55</v>
       </c>
       <c r="C186" t="n">
-        <v>21.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D186" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
-      <c r="F186" t="inlineStr"/>
+      <c r="F186" t="n">
+        <v>0.5600000000000001</v>
+      </c>
       <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>VIKRAN</t>
+          <t>THEINVEST</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>102.63</v>
+        <v>127</v>
       </c>
       <c r="C187" t="n">
-        <v>104.5</v>
+        <v>129.3</v>
       </c>
       <c r="D187" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>105.31</v>
+        <v>127.4</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>0.78</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>KITEX</t>
+          <t>BYKE</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>203.3</v>
+        <v>62.33</v>
       </c>
       <c r="C188" t="n">
-        <v>207</v>
+        <v>63.45</v>
       </c>
       <c r="D188" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>207.33</v>
+        <v>63.49</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>EXXARO</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>9.32</v>
+        <v>123.73</v>
       </c>
       <c r="C189" t="n">
-        <v>9.49</v>
+        <v>125.94</v>
       </c>
       <c r="D189" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>9.369999999999999</v>
+        <v>125.9</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-1.26</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>CUBEXTUB</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>0.55</v>
+        <v>91.76000000000001</v>
       </c>
       <c r="C190" t="n">
-        <v>0.5600000000000001</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="D190" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>0.57</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>1.79</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PDMJEPAPER</t>
+          <t>HINDCON</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>105.53</v>
+        <v>31.93</v>
       </c>
       <c r="C191" t="n">
-        <v>107.44</v>
+        <v>32.5</v>
       </c>
       <c r="D191" t="n">
-        <v>1.81</v>
+        <v>1.79</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>106.95</v>
+        <v>31.8</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-0.46</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>IEML</t>
+          <t>AGROPHOS</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>121.3</v>
+        <v>43.19</v>
       </c>
       <c r="C192" t="n">
-        <v>123.5</v>
+        <v>43.96</v>
       </c>
       <c r="D192" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>123.5</v>
+        <v>43.49</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>AHCL</t>
+          <t>SHILPAMED</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>145.75</v>
+        <v>399.9</v>
       </c>
       <c r="C193" t="n">
-        <v>148.38</v>
+        <v>407</v>
       </c>
       <c r="D193" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>146.3</v>
+        <v>402.15</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-1.4</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MAYURUNIQ</t>
+          <t>NRVANDANA</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>554.95</v>
+        <v>67.59999999999999</v>
       </c>
       <c r="C194" t="n">
-        <v>564.95</v>
+        <v>68.8</v>
       </c>
       <c r="D194" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>537</v>
+        <v>69</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-4.95</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>ODIGMA</t>
+          <t>PATINTLOG</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>36.74</v>
+        <v>14.11</v>
       </c>
       <c r="C195" t="n">
-        <v>37.4</v>
+        <v>14.36</v>
       </c>
       <c r="D195" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>36.7</v>
+        <v>14.19</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-1.87</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>GENSOL</t>
+          <t>ACL</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>31.14</v>
+        <v>80.08</v>
       </c>
       <c r="C196" t="n">
-        <v>31.7</v>
+        <v>81.5</v>
       </c>
       <c r="D196" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>32.69</v>
+        <v>77.16</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>3.12</v>
+        <v>-5.33</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AVROIND</t>
+          <t>LLOYDSME</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>111.52</v>
+        <v>1316.9</v>
       </c>
       <c r="C197" t="n">
-        <v>113.5</v>
+        <v>1340</v>
       </c>
       <c r="D197" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>111.3</v>
+        <v>1335.5</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-1.94</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MEDICO</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>53.35</v>
+        <v>0.57</v>
       </c>
       <c r="C198" t="n">
-        <v>54.3</v>
+        <v>0.58</v>
       </c>
       <c r="D198" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>52.65</v>
+        <v>0.58</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-3.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>BIOFILCHEM</t>
+          <t>SANGINITA</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>38.32</v>
+        <v>11.06</v>
       </c>
       <c r="C199" t="n">
-        <v>39</v>
+        <v>11.25</v>
       </c>
       <c r="D199" t="n">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>38.95</v>
+        <v>11.25</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>GSS</t>
+          <t>SHRADHA</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>22.1</v>
+        <v>43.26</v>
       </c>
       <c r="C200" t="n">
-        <v>22.49</v>
+        <v>44</v>
       </c>
       <c r="D200" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>22.39</v>
+        <v>43.39</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-0.44</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>IL&amp;FSTRANS</t>
+          <t>INDOAMIN</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>2.84</v>
+        <v>134.71</v>
       </c>
       <c r="C201" t="n">
-        <v>2.89</v>
+        <v>137</v>
       </c>
       <c r="D201" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
-      <c r="F201" t="inlineStr"/>
+      <c r="F201" t="n">
+        <v>138.39</v>
+      </c>
       <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
+      <c r="H201" t="n">
+        <v>1.01</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,612 +478,612 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ABSMARINE</t>
+          <t>EXPLEOSOL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>219.75</v>
+        <v>979.3</v>
       </c>
       <c r="C2" t="n">
-        <v>259</v>
+        <v>1175.1</v>
       </c>
       <c r="D2" t="n">
-        <v>17.86</v>
+        <v>19.99</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>245.95</v>
+        <v>1128.1</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-5.04</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KHANDSE</t>
+          <t>IPHL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.75</v>
+        <v>52.45</v>
       </c>
       <c r="C3" t="n">
-        <v>23.99</v>
+        <v>62.9</v>
       </c>
       <c r="D3" t="n">
-        <v>10.3</v>
+        <v>19.92</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>25.13</v>
+        <v>62.9</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>4.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>NOVAAGRI</t>
+          <t>IVC</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.14</v>
+        <v>7.69</v>
       </c>
       <c r="C4" t="n">
-        <v>51.99</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>10.29</v>
+        <v>16.38</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>48.01</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-7.66</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DCMFINSERV</t>
+          <t>APRAMEYA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.79</v>
+        <v>296.1</v>
       </c>
       <c r="C5" t="n">
-        <v>6.36</v>
+        <v>339</v>
       </c>
       <c r="D5" t="n">
-        <v>9.84</v>
+        <v>14.49</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.12</v>
+        <v>317.95</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-3.77</v>
+        <v>-6.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SJLOGISTIC</t>
+          <t>JNKINDIA</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>332.05</v>
+        <v>279.5</v>
       </c>
       <c r="C6" t="n">
-        <v>363</v>
+        <v>310</v>
       </c>
       <c r="D6" t="n">
-        <v>9.32</v>
+        <v>10.91</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>378.4</v>
+        <v>294.1</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>4.24</v>
+        <v>-5.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UNIVCABLES</t>
+          <t>RAJPUTANA</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.1</v>
+        <v>270</v>
       </c>
       <c r="C7" t="n">
-        <v>789.95</v>
+        <v>299</v>
       </c>
       <c r="D7" t="n">
-        <v>8.94</v>
+        <v>10.74</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>821.7</v>
+        <v>283</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>4.02</v>
+        <v>-5.35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SACHEEROME</t>
+          <t>HILTON</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>266.4</v>
+        <v>41.46</v>
       </c>
       <c r="C8" t="n">
-        <v>287.95</v>
+        <v>45.6</v>
       </c>
       <c r="D8" t="n">
-        <v>8.09</v>
+        <v>9.99</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>271.6</v>
+        <v>45.6</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-5.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CARERATING</t>
+          <t>AARVI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1519.8</v>
+        <v>120.03</v>
       </c>
       <c r="C9" t="n">
-        <v>1631.9</v>
+        <v>129.89</v>
       </c>
       <c r="D9" t="n">
-        <v>7.38</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>1636.3</v>
+        <v>144.03</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0.27</v>
+        <v>10.89</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MUKKA</t>
+          <t>CONTROLPR</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>25.21</v>
+        <v>730.65</v>
       </c>
       <c r="C10" t="n">
-        <v>27</v>
+        <v>786</v>
       </c>
       <c r="D10" t="n">
-        <v>7.1</v>
+        <v>7.58</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>26.5</v>
+        <v>762.55</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-1.85</v>
+        <v>-2.98</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PGIL</t>
+          <t>MUTHOOTFIN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1693.6</v>
+        <v>3393.1</v>
       </c>
       <c r="C11" t="n">
-        <v>1804.9</v>
+        <v>3650</v>
       </c>
       <c r="D11" t="n">
-        <v>6.57</v>
+        <v>7.57</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1800</v>
+        <v>3712.5</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-0.27</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HONASA</t>
+          <t>DOLLAR</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>282.05</v>
+        <v>348.25</v>
       </c>
       <c r="C12" t="n">
-        <v>300</v>
+        <v>374</v>
       </c>
       <c r="D12" t="n">
-        <v>6.36</v>
+        <v>7.39</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>301.35</v>
+        <v>371.5</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0.45</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ARENTERP</t>
+          <t>MHLXMIRU</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.26</v>
+        <v>205.29</v>
       </c>
       <c r="C13" t="n">
-        <v>48</v>
+        <v>220</v>
       </c>
       <c r="D13" t="n">
-        <v>6.05</v>
+        <v>7.17</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>45.25</v>
+        <v>238.17</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-5.73</v>
+        <v>8.26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JAIPURKURT</t>
+          <t>VILAS</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>34.48</v>
+        <v>415.65</v>
       </c>
       <c r="C14" t="n">
-        <v>36.5</v>
+        <v>444.95</v>
       </c>
       <c r="D14" t="n">
-        <v>5.86</v>
+        <v>7.05</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>34.01</v>
+        <v>444</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-6.82</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>GOKULAGRO</t>
+          <t>RULKA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>183.71</v>
+        <v>125.2</v>
       </c>
       <c r="C15" t="n">
-        <v>194.33</v>
+        <v>134</v>
       </c>
       <c r="D15" t="n">
-        <v>5.78</v>
+        <v>7.03</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>192.8</v>
+        <v>130.5</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-0.79</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SIMPLEXINF</t>
+          <t>TVVISION</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>290.55</v>
+        <v>5.95</v>
       </c>
       <c r="C16" t="n">
-        <v>307.05</v>
+        <v>6.36</v>
       </c>
       <c r="D16" t="n">
-        <v>5.68</v>
+        <v>6.89</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>296.05</v>
+        <v>6.2</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-3.58</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ASHIANA</t>
+          <t>GVPIL</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>288.95</v>
+        <v>300.3</v>
       </c>
       <c r="C17" t="n">
-        <v>305</v>
+        <v>319.95</v>
       </c>
       <c r="D17" t="n">
-        <v>5.55</v>
+        <v>6.54</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>310</v>
+        <v>320.35</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>1.64</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ORBTEXP</t>
+          <t>RHL</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>213.6</v>
+        <v>223.49</v>
       </c>
       <c r="C18" t="n">
-        <v>224.99</v>
+        <v>238</v>
       </c>
       <c r="D18" t="n">
-        <v>5.33</v>
+        <v>6.49</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>223.76</v>
+        <v>223.01</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>-0.55</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DATAPATTNS</t>
+          <t>GPIL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2792.2</v>
+        <v>263.25</v>
       </c>
       <c r="C19" t="n">
-        <v>2940</v>
+        <v>280</v>
       </c>
       <c r="D19" t="n">
-        <v>5.29</v>
+        <v>6.36</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>3029.3</v>
+        <v>281.55</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>3.04</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SECMARK</t>
+          <t>ASHAPURMIN</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125.01</v>
+        <v>638.25</v>
       </c>
       <c r="C20" t="n">
-        <v>131.55</v>
+        <v>677.25</v>
       </c>
       <c r="D20" t="n">
-        <v>5.23</v>
+        <v>6.11</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>128</v>
+        <v>699.8</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>-2.7</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SSFL</t>
+          <t>INDOTECH</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>160.75</v>
+        <v>1824.9</v>
       </c>
       <c r="C21" t="n">
-        <v>168.8</v>
+        <v>1930</v>
       </c>
       <c r="D21" t="n">
-        <v>5.01</v>
+        <v>5.76</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>146.05</v>
+        <v>1905.9</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-13.48</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>RVHL</t>
+          <t>JUBLFOOD</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>50.43</v>
+        <v>573.5</v>
       </c>
       <c r="C22" t="n">
-        <v>52.95</v>
+        <v>604.95</v>
       </c>
       <c r="D22" t="n">
-        <v>5</v>
+        <v>5.48</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>52.95</v>
+        <v>613.95</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INTENTECH</t>
+          <t>BDL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>125.12</v>
+        <v>1517.9</v>
       </c>
       <c r="C23" t="n">
-        <v>131.37</v>
+        <v>1601</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>5.47</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>131.37</v>
+        <v>1620.9</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>GANESHBE</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>47</v>
+        <v>81.61</v>
       </c>
       <c r="C24" t="n">
-        <v>49.35</v>
+        <v>85.8</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>5.13</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>49.35</v>
+        <v>83.84999999999999</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>KDL</t>
+          <t>IZMO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.1</v>
+        <v>819.3</v>
       </c>
       <c r="C25" t="n">
-        <v>188.05</v>
+        <v>860.25</v>
       </c>
       <c r="D25" t="n">
         <v>5</v>
@@ -1092,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>188.05</v>
+        <v>860.25</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
@@ -1102,14 +1102,14 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AXISCADES</t>
+          <t>SOMATEX</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1412.8</v>
+        <v>126.02</v>
       </c>
       <c r="C26" t="n">
-        <v>1483.4</v>
+        <v>132.32</v>
       </c>
       <c r="D26" t="n">
         <v>5</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1483.4</v>
+        <v>132.32</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
@@ -1128,49 +1128,49 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>KDL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>889.95</v>
+        <v>188.05</v>
       </c>
       <c r="C27" t="n">
-        <v>934.4</v>
+        <v>197.45</v>
       </c>
       <c r="D27" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>934.4</v>
+        <v>189</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>-4.28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ATLANTAA</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.5</v>
+        <v>934.4</v>
       </c>
       <c r="C28" t="n">
-        <v>49.87</v>
+        <v>981.1</v>
       </c>
       <c r="D28" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>49.87</v>
+        <v>981.1</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
@@ -1180,14 +1180,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>TERASOFT</t>
+          <t>ADVENTHTL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>539.7</v>
+        <v>328.65</v>
       </c>
       <c r="C29" t="n">
-        <v>566.65</v>
+        <v>345.05</v>
       </c>
       <c r="D29" t="n">
         <v>4.99</v>
@@ -1196,59 +1196,59 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>566.65</v>
+        <v>335</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CPPLUS</t>
+          <t>TRIGYN</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1495.6</v>
+        <v>72.31</v>
       </c>
       <c r="C30" t="n">
-        <v>1570</v>
+        <v>75.92</v>
       </c>
       <c r="D30" t="n">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1600</v>
+        <v>75.59999999999999</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>1.91</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TAKE</t>
+          <t>RISHABH</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>26.16</v>
+        <v>377.9</v>
       </c>
       <c r="C31" t="n">
-        <v>27.46</v>
+        <v>396.75</v>
       </c>
       <c r="D31" t="n">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>27.46</v>
+        <v>396.75</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
@@ -1258,49 +1258,49 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DRONE</t>
+          <t>MAXVOLT</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>83.8</v>
+        <v>400.45</v>
       </c>
       <c r="C32" t="n">
-        <v>87.95</v>
+        <v>420.45</v>
       </c>
       <c r="D32" t="n">
-        <v>4.95</v>
+        <v>4.99</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>87.95</v>
+        <v>420</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>LAKPRE</t>
+          <t>TAKE</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>5.67</v>
+        <v>27.46</v>
       </c>
       <c r="C33" t="n">
-        <v>5.95</v>
+        <v>28.83</v>
       </c>
       <c r="D33" t="n">
-        <v>4.94</v>
+        <v>4.99</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>5.95</v>
+        <v>28.83</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
@@ -1310,532 +1310,534 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NAZARA</t>
+          <t>NIRAJ</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>257.3</v>
+        <v>32.34</v>
       </c>
       <c r="C34" t="n">
-        <v>270</v>
+        <v>33.95</v>
       </c>
       <c r="D34" t="n">
-        <v>4.94</v>
+        <v>4.98</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>266.65</v>
+        <v>33.34</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-1.24</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ACCORD</t>
+          <t>ALLCARGO</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.8</v>
+        <v>12.47</v>
       </c>
       <c r="C35" t="n">
-        <v>22.85</v>
+        <v>13.09</v>
       </c>
       <c r="D35" t="n">
-        <v>4.82</v>
+        <v>4.97</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>13.09</v>
       </c>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ASPIRE</t>
+          <t>DRONE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>17.95</v>
+        <v>87.95</v>
       </c>
       <c r="C36" t="n">
-        <v>18.8</v>
+        <v>92.3</v>
       </c>
       <c r="D36" t="n">
-        <v>4.74</v>
+        <v>4.95</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>18.8</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>-9.43</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>KCK</t>
+          <t>SUPREMEENG</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>26.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>27.95</v>
+        <v>0.85</v>
       </c>
       <c r="D37" t="n">
-        <v>4.68</v>
+        <v>4.94</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>28</v>
+        <v>0.85</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>FIEMIND</t>
+          <t>EXXARO</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2139.8</v>
+        <v>8.93</v>
       </c>
       <c r="C38" t="n">
-        <v>2240</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>4.68</v>
+        <v>4.93</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>2241.4</v>
+        <v>9.09</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>0.06</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CLASSICEIL</t>
+          <t>MAL</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>86</v>
+        <v>50.75</v>
       </c>
       <c r="C39" t="n">
-        <v>90</v>
+        <v>53.25</v>
       </c>
       <c r="D39" t="n">
-        <v>4.65</v>
+        <v>4.93</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>86.40000000000001</v>
+        <v>53.25</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RCOM</t>
+          <t>KRBL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.3</v>
+        <v>379.1</v>
       </c>
       <c r="C40" t="n">
-        <v>1.36</v>
+        <v>397.7</v>
       </c>
       <c r="D40" t="n">
-        <v>4.62</v>
+        <v>4.91</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.34</v>
+        <v>402.35</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-1.47</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GLOSTERLTD</t>
+          <t>NIRAJISPAT</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>649.1</v>
+        <v>209.83</v>
       </c>
       <c r="C41" t="n">
-        <v>679</v>
+        <v>220</v>
       </c>
       <c r="D41" t="n">
-        <v>4.61</v>
+        <v>4.85</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>669.6</v>
+        <v>200.4</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-1.38</v>
+        <v>-8.91</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>OBSCP</t>
+          <t>AXISCADES</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>317.55</v>
+        <v>1483.4</v>
       </c>
       <c r="C42" t="n">
-        <v>332</v>
+        <v>1555</v>
       </c>
       <c r="D42" t="n">
-        <v>4.55</v>
+        <v>4.83</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>340</v>
+        <v>1542</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>2.41</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>GLOBALE</t>
+          <t>K2INFRA</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>12.96</v>
+        <v>55.9</v>
       </c>
       <c r="C43" t="n">
-        <v>13.55</v>
+        <v>58.6</v>
       </c>
       <c r="D43" t="n">
-        <v>4.55</v>
+        <v>4.83</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>13.44</v>
+        <v>58</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GANDHAR</t>
+          <t>MADHUCON</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.44</v>
+        <v>7.17</v>
       </c>
       <c r="C44" t="n">
-        <v>147.8</v>
+        <v>7.51</v>
       </c>
       <c r="D44" t="n">
-        <v>4.5</v>
+        <v>4.74</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>151.03</v>
+        <v>6.94</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>2.19</v>
+        <v>-7.59</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>REGAAL</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>89.22</v>
+        <v>10</v>
       </c>
       <c r="C45" t="n">
-        <v>93.22</v>
+        <v>10.47</v>
       </c>
       <c r="D45" t="n">
-        <v>4.48</v>
+        <v>4.7</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>92.14</v>
+        <v>9.84</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-1.16</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ABCOTS</t>
+          <t>SOLEX</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>405.8</v>
+        <v>1628.7</v>
       </c>
       <c r="C46" t="n">
-        <v>423.95</v>
+        <v>1705</v>
       </c>
       <c r="D46" t="n">
-        <v>4.47</v>
+        <v>4.68</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>409.95</v>
+        <v>1710.1</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-3.3</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>OSELDEVICE</t>
+          <t>INTENTECH</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>637.45</v>
+        <v>131.37</v>
       </c>
       <c r="C47" t="n">
-        <v>665.9</v>
+        <v>137.5</v>
       </c>
       <c r="D47" t="n">
-        <v>4.46</v>
+        <v>4.67</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>665</v>
+        <v>137</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-0.14</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>MEGASTAR</t>
+          <t>DCI</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>268.35</v>
+        <v>246.3</v>
       </c>
       <c r="C48" t="n">
-        <v>280</v>
+        <v>257.8</v>
       </c>
       <c r="D48" t="n">
-        <v>4.34</v>
+        <v>4.67</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>279.95</v>
+        <v>250.2</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-0.02</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EFFWA</t>
+          <t>INFINIUM</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>235.4</v>
+        <v>256.15</v>
       </c>
       <c r="C49" t="n">
-        <v>245.6</v>
+        <v>268</v>
       </c>
       <c r="D49" t="n">
-        <v>4.33</v>
+        <v>4.63</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>3.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SGL</t>
+          <t>GGBL</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>14.18</v>
+        <v>443.85</v>
       </c>
       <c r="C50" t="n">
-        <v>14.79</v>
+        <v>464</v>
       </c>
       <c r="D50" t="n">
-        <v>4.3</v>
+        <v>4.54</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>14.5</v>
+        <v>467</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-1.96</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>NAVKARURB</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>209.06</v>
+        <v>1.98</v>
       </c>
       <c r="C51" t="n">
-        <v>217.97</v>
+        <v>2.06</v>
       </c>
       <c r="D51" t="n">
-        <v>4.26</v>
+        <v>4.04</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>213</v>
+        <v>1.88</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-2.28</v>
+        <v>-8.74</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VASWANI</t>
+          <t>VALIANTORG</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>67.22</v>
+        <v>290.3</v>
       </c>
       <c r="C52" t="n">
-        <v>69.98999999999999</v>
+        <v>302</v>
       </c>
       <c r="D52" t="n">
-        <v>4.12</v>
+        <v>4.03</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>68.59</v>
+        <v>287.85</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-2</v>
+        <v>-4.69</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CCCL</t>
+          <t>ALPSINDUS</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>22.3</v>
+        <v>1.99</v>
       </c>
       <c r="C53" t="n">
-        <v>23.2</v>
+        <v>2.07</v>
       </c>
       <c r="D53" t="n">
-        <v>4.04</v>
+        <v>4.02</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>22.55</v>
+        <v>2.04</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-2.8</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DICIND</t>
+          <t>TGBHOTELS</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>501.9</v>
+        <v>11.29</v>
       </c>
       <c r="C54" t="n">
-        <v>521.95</v>
+        <v>11.74</v>
       </c>
       <c r="D54" t="n">
         <v>3.99</v>
@@ -1844,128 +1846,128 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>503.05</v>
+        <v>11.33</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-3.62</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LOKESHMACH</t>
+          <t>UNIINFO</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>177.86</v>
+        <v>16.22</v>
       </c>
       <c r="C55" t="n">
-        <v>184.9</v>
+        <v>16.86</v>
       </c>
       <c r="D55" t="n">
-        <v>3.96</v>
+        <v>3.95</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>182.48</v>
+        <v>16.48</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-1.31</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>USK</t>
+          <t>DHARAN</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>25.02</v>
+        <v>0.51</v>
       </c>
       <c r="C56" t="n">
-        <v>25.99</v>
+        <v>0.53</v>
       </c>
       <c r="D56" t="n">
-        <v>3.88</v>
+        <v>3.92</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>25.36</v>
+        <v>0.53</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-2.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>INFLUX</t>
+          <t>GATECHDVR</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>188.65</v>
+        <v>0.51</v>
       </c>
       <c r="C57" t="n">
-        <v>195.95</v>
+        <v>0.53</v>
       </c>
       <c r="D57" t="n">
-        <v>3.87</v>
+        <v>3.92</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>196</v>
+        <v>0.51</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>0.03</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TFL</t>
+          <t>ARTNIRMAN</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>12.99</v>
+        <v>52.81</v>
       </c>
       <c r="C58" t="n">
-        <v>13.49</v>
+        <v>54.85</v>
       </c>
       <c r="D58" t="n">
-        <v>3.85</v>
+        <v>3.86</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>13.35</v>
+        <v>54.85</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TGBHOTELS</t>
+          <t>ATLASCYCLE</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>11.39</v>
+        <v>105.77</v>
       </c>
       <c r="C59" t="n">
-        <v>11.82</v>
+        <v>109.77</v>
       </c>
       <c r="D59" t="n">
         <v>3.78</v>
@@ -1974,1116 +1976,1116 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>11.82</v>
+        <v>105.29</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MADHUCON</t>
+          <t>RACE</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>7.04</v>
+        <v>181.17</v>
       </c>
       <c r="C60" t="n">
-        <v>7.3</v>
+        <v>188</v>
       </c>
       <c r="D60" t="n">
-        <v>3.69</v>
+        <v>3.77</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>6.95</v>
+        <v>181.26</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-4.79</v>
+        <v>-3.59</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>RHFL</t>
+          <t>INDOTHAI</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>3.54</v>
+        <v>383.75</v>
       </c>
       <c r="C61" t="n">
-        <v>3.67</v>
+        <v>397.8</v>
       </c>
       <c r="D61" t="n">
-        <v>3.67</v>
+        <v>3.66</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3.64</v>
+        <v>395</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-0.82</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BLBLIMITED</t>
+          <t>GICHSGFIN</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>16.89</v>
+        <v>165.93</v>
       </c>
       <c r="C62" t="n">
-        <v>17.5</v>
+        <v>172</v>
       </c>
       <c r="D62" t="n">
-        <v>3.61</v>
+        <v>3.66</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>16.81</v>
+        <v>173.98</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-3.94</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>BASML</t>
+          <t>TBI</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>25.77</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>26.69</v>
+        <v>88</v>
       </c>
       <c r="D63" t="n">
-        <v>3.57</v>
+        <v>3.65</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>25.99</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-2.62</v>
+        <v>6.08</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SUNLITE</t>
+          <t>GROWW</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>236.95</v>
+        <v>137.69</v>
       </c>
       <c r="C64" t="n">
-        <v>245.15</v>
+        <v>142.7</v>
       </c>
       <c r="D64" t="n">
-        <v>3.46</v>
+        <v>3.64</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>245.15</v>
+        <v>144.69</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>TREEHOUSE</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>222.36</v>
+        <v>7.18</v>
       </c>
       <c r="C65" t="n">
-        <v>230</v>
+        <v>7.44</v>
       </c>
       <c r="D65" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>223.41</v>
+        <v>7.4</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-2.87</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>VLEGOV</t>
+          <t>EFFWA</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>19.32</v>
+        <v>249</v>
       </c>
       <c r="C66" t="n">
-        <v>19.98</v>
+        <v>258</v>
       </c>
       <c r="D66" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>19.78</v>
+        <v>253.4</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-1</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NIBL</t>
+          <t>ANONDITA</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>30.39</v>
+        <v>613</v>
       </c>
       <c r="C67" t="n">
-        <v>31.41</v>
+        <v>635</v>
       </c>
       <c r="D67" t="n">
-        <v>3.36</v>
+        <v>3.59</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>30</v>
+        <v>635</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-4.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BHARATWIRE</t>
+          <t>ARIES</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>193.53</v>
+        <v>362.45</v>
       </c>
       <c r="C68" t="n">
-        <v>200</v>
+        <v>375.4</v>
       </c>
       <c r="D68" t="n">
-        <v>3.34</v>
+        <v>3.57</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>196.79</v>
+        <v>380</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-1.61</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>PRAXIS</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2769.8</v>
+        <v>11.3</v>
       </c>
       <c r="C69" t="n">
-        <v>2858.9</v>
+        <v>11.7</v>
       </c>
       <c r="D69" t="n">
-        <v>3.22</v>
+        <v>3.54</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2860.3</v>
+        <v>11.49</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>0.05</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PRABHA</t>
+          <t>SURAJEST</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>205.41</v>
+        <v>278.35</v>
       </c>
       <c r="C70" t="n">
-        <v>212</v>
+        <v>287.9</v>
       </c>
       <c r="D70" t="n">
-        <v>3.21</v>
+        <v>3.43</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>205.99</v>
+        <v>288.85</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-2.83</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VALIANTORG</t>
+          <t>SRM</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>294.6</v>
+        <v>579.75</v>
       </c>
       <c r="C71" t="n">
-        <v>304</v>
+        <v>599.6</v>
       </c>
       <c r="D71" t="n">
-        <v>3.19</v>
+        <v>3.42</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>294.55</v>
+        <v>603</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-3.11</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>NINSYS</t>
+          <t>A2ZINFRA</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>422.8</v>
+        <v>17.41</v>
       </c>
       <c r="C72" t="n">
-        <v>436.2</v>
+        <v>18</v>
       </c>
       <c r="D72" t="n">
-        <v>3.17</v>
+        <v>3.39</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>429.8</v>
+        <v>17.41</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-1.47</v>
+        <v>-3.28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>GFLLIMITED</t>
+          <t>OMKARCHEM</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>61.11</v>
+        <v>5.32</v>
       </c>
       <c r="C73" t="n">
-        <v>62.99</v>
+        <v>5.5</v>
       </c>
       <c r="D73" t="n">
-        <v>3.08</v>
+        <v>3.38</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>61.5</v>
+        <v>5.58</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-2.37</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>AGIIL</t>
+          <t>WORTHPERI</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>254.25</v>
+        <v>150.42</v>
       </c>
       <c r="C74" t="n">
-        <v>262</v>
+        <v>155.42</v>
       </c>
       <c r="D74" t="n">
-        <v>3.05</v>
+        <v>3.32</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>256.15</v>
+        <v>151.46</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-2.23</v>
+        <v>-2.55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>TATASTEEL</t>
+          <t>RUBICON</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>178.61</v>
+        <v>654.35</v>
       </c>
       <c r="C75" t="n">
-        <v>184</v>
+        <v>675.95</v>
       </c>
       <c r="D75" t="n">
-        <v>3.02</v>
+        <v>3.3</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>182.21</v>
+        <v>667</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-0.97</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SHEKHAWATI</t>
+          <t>SHREERAMA</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>19.59</v>
+        <v>53.97</v>
       </c>
       <c r="C76" t="n">
-        <v>20.18</v>
+        <v>55.75</v>
       </c>
       <c r="D76" t="n">
-        <v>3.01</v>
+        <v>3.3</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>19.8</v>
+        <v>56</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-1.88</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>FRESHARA</t>
+          <t>KIOCL</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>146.6</v>
+        <v>387.45</v>
       </c>
       <c r="C77" t="n">
-        <v>151</v>
+        <v>399.85</v>
       </c>
       <c r="D77" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>141</v>
+        <v>393</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-6.62</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>TREL</t>
+          <t>VLEGOV</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>28.02</v>
+        <v>20.28</v>
       </c>
       <c r="C78" t="n">
-        <v>28.85</v>
+        <v>20.9</v>
       </c>
       <c r="D78" t="n">
-        <v>2.96</v>
+        <v>3.06</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>28.15</v>
+        <v>20.49</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-2.43</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PFIZER</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>5015.5</v>
+        <v>19.4</v>
       </c>
       <c r="C79" t="n">
-        <v>5164</v>
+        <v>19.99</v>
       </c>
       <c r="D79" t="n">
-        <v>2.96</v>
+        <v>3.04</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>5272.5</v>
+        <v>19.51</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>2.1</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ATLASCYCLE</t>
+          <t>NINSYS</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>107.71</v>
+        <v>423.1</v>
       </c>
       <c r="C80" t="n">
-        <v>110.89</v>
+        <v>435.9</v>
       </c>
       <c r="D80" t="n">
-        <v>2.95</v>
+        <v>3.03</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>107.98</v>
+        <v>431.8</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-2.62</v>
+        <v>-0.9399999999999999</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TPLPLASTEH</t>
+          <t>HARRMALAYA</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>71.78</v>
+        <v>184.42</v>
       </c>
       <c r="C81" t="n">
-        <v>73.90000000000001</v>
+        <v>190</v>
       </c>
       <c r="D81" t="n">
-        <v>2.95</v>
+        <v>3.03</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>73.98999999999999</v>
+        <v>186.28</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>0.12</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SYNCOMF</t>
+          <t>ABINFRA</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>16.36</v>
+        <v>20.17</v>
       </c>
       <c r="C82" t="n">
-        <v>16.84</v>
+        <v>20.78</v>
       </c>
       <c r="D82" t="n">
-        <v>2.93</v>
+        <v>3.02</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>16.91</v>
+        <v>20.37</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>0.42</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MIDWESTLTD</t>
+          <t>UTTAMSUGAR</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1097.8</v>
+        <v>237.68</v>
       </c>
       <c r="C83" t="n">
-        <v>1130</v>
+        <v>244.8</v>
       </c>
       <c r="D83" t="n">
-        <v>2.93</v>
+        <v>3</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1121.9</v>
+        <v>241.71</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-0.72</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>3IINFOLTD</t>
+          <t>GLOBALE</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>17.27</v>
+        <v>12.8</v>
       </c>
       <c r="C84" t="n">
-        <v>17.77</v>
+        <v>13.18</v>
       </c>
       <c r="D84" t="n">
-        <v>2.9</v>
+        <v>2.97</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>18.21</v>
+        <v>13</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>2.48</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>UNIVASTU</t>
+          <t>RNBDENIMS</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>68.05</v>
+        <v>116.54</v>
       </c>
       <c r="C85" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="D85" t="n">
-        <v>2.87</v>
+        <v>2.97</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>69.25</v>
+        <v>119.41</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-1.07</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VINDHYATEL</t>
+          <t>IEML</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>1370.5</v>
+        <v>115.4</v>
       </c>
       <c r="C86" t="n">
-        <v>1409.9</v>
+        <v>118.8</v>
       </c>
       <c r="D86" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>1522.1</v>
+        <v>119.4</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>7.96</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>PREMIERPOL</t>
+          <t>NKIND</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>39.87</v>
+        <v>69</v>
       </c>
       <c r="C87" t="n">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="D87" t="n">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>39.9</v>
+        <v>71</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-2.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AIMTRON</t>
+          <t>MUTHOOTCAP</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>937.6</v>
+        <v>282</v>
       </c>
       <c r="C88" t="n">
-        <v>963.9</v>
+        <v>290</v>
       </c>
       <c r="D88" t="n">
-        <v>2.81</v>
+        <v>2.84</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>963.9</v>
+        <v>286.85</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ORIENTCER</t>
+          <t>KSHITIJPOL</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>38.4</v>
+        <v>2.82</v>
       </c>
       <c r="C89" t="n">
-        <v>39.47</v>
+        <v>2.9</v>
       </c>
       <c r="D89" t="n">
-        <v>2.79</v>
+        <v>2.84</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>38.42</v>
+        <v>2.83</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-2.66</v>
+        <v>-2.41</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MOHITIND</t>
+          <t>SUVIDHAA</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>31.63</v>
+        <v>3.88</v>
       </c>
       <c r="C90" t="n">
-        <v>32.49</v>
+        <v>3.99</v>
       </c>
       <c r="D90" t="n">
-        <v>2.72</v>
+        <v>2.84</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>32.49</v>
+        <v>3.88</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>-2.76</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SEJALLTD</t>
+          <t>PEARLPOLY</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>866.4</v>
+        <v>26.65</v>
       </c>
       <c r="C91" t="n">
-        <v>889.8</v>
+        <v>27.4</v>
       </c>
       <c r="D91" t="n">
-        <v>2.7</v>
+        <v>2.81</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>888.5</v>
+        <v>26.47</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-0.15</v>
+        <v>-3.39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GSS</t>
+          <t>SETCO</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>22.25</v>
+        <v>17.9</v>
       </c>
       <c r="C92" t="n">
-        <v>22.85</v>
+        <v>18.4</v>
       </c>
       <c r="D92" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>22.67</v>
+        <v>17.72</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-0.79</v>
+        <v>-3.7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PILANIINVS</t>
+          <t>HONDAPOWER</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>5256.5</v>
+        <v>2578.5</v>
       </c>
       <c r="C93" t="n">
-        <v>5398</v>
+        <v>2650</v>
       </c>
       <c r="D93" t="n">
-        <v>2.69</v>
+        <v>2.77</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>5300</v>
+        <v>2572</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-1.82</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>COSMOFIRST</t>
+          <t>UNIVCABLES</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>801.5</v>
+        <v>778.55</v>
       </c>
       <c r="C94" t="n">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="D94" t="n">
-        <v>2.68</v>
+        <v>2.76</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>819.15</v>
+        <v>806.4</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-0.47</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SUNDARAM</t>
+          <t>BANG</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1.89</v>
+        <v>51.48</v>
       </c>
       <c r="C95" t="n">
-        <v>1.94</v>
+        <v>52.9</v>
       </c>
       <c r="D95" t="n">
-        <v>2.65</v>
+        <v>2.76</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1.91</v>
+        <v>52.51</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-1.55</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>TAURIAN</t>
+          <t>BLBLIMITED</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>354.6</v>
+        <v>16.35</v>
       </c>
       <c r="C96" t="n">
-        <v>364</v>
+        <v>16.8</v>
       </c>
       <c r="D96" t="n">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>364</v>
+        <v>16.59</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BALAXI</t>
+          <t>PRABHA</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>37.91</v>
+        <v>207.28</v>
       </c>
       <c r="C97" t="n">
-        <v>38.91</v>
+        <v>212.9</v>
       </c>
       <c r="D97" t="n">
-        <v>2.64</v>
+        <v>2.71</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>39</v>
+        <v>206.1</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>0.23</v>
+        <v>-3.19</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BVCL</t>
+          <t>EMAMIPAP</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>46.18</v>
+        <v>94.45</v>
       </c>
       <c r="C98" t="n">
-        <v>47.39</v>
+        <v>97</v>
       </c>
       <c r="D98" t="n">
-        <v>2.62</v>
+        <v>2.7</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>46.03</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-2.87</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TNTELE</t>
+          <t>KNAGRI</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>11.81</v>
+        <v>218.25</v>
       </c>
       <c r="C99" t="n">
-        <v>12.12</v>
+        <v>224</v>
       </c>
       <c r="D99" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>11.85</v>
+        <v>221</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-2.23</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SPANDANA</t>
+          <t>RKEC</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>237.8</v>
+        <v>63.08</v>
       </c>
       <c r="C100" t="n">
-        <v>244</v>
+        <v>64.73</v>
       </c>
       <c r="D100" t="n">
-        <v>2.61</v>
+        <v>2.62</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>246.9</v>
+        <v>63.96</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>1.19</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AARTECH</t>
+          <t>DELTACORP</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>51.17</v>
+        <v>71.84</v>
       </c>
       <c r="C101" t="n">
-        <v>52.5</v>
+        <v>73.7</v>
       </c>
       <c r="D101" t="n">
-        <v>2.6</v>
+        <v>2.59</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>51.74</v>
+        <v>71.91</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-1.45</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>GEEKAYWIRE</t>
+          <t>MANORG</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>31.39</v>
+        <v>541.05</v>
       </c>
       <c r="C102" t="n">
-        <v>32.2</v>
+        <v>555</v>
       </c>
       <c r="D102" t="n">
         <v>2.58</v>
@@ -3092,154 +3094,154 @@
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>31.79</v>
+        <v>539.85</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-1.27</v>
+        <v>-2.73</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>XTGLOBAL</t>
+          <t>DONEAR</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>40.22</v>
+        <v>100.17</v>
       </c>
       <c r="C103" t="n">
-        <v>41.25</v>
+        <v>102.69</v>
       </c>
       <c r="D103" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>42.35</v>
+        <v>102.3</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>2.67</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>QPOWER</t>
+          <t>CSLFINANCE</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>897.2</v>
+        <v>272.15</v>
       </c>
       <c r="C104" t="n">
-        <v>920</v>
+        <v>279</v>
       </c>
       <c r="D104" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>907.7</v>
+        <v>284.6</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-1.34</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SYSTANGO</t>
+          <t>DCMNVL</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>287.55</v>
+        <v>139.01</v>
       </c>
       <c r="C105" t="n">
-        <v>294.85</v>
+        <v>142.5</v>
       </c>
       <c r="D105" t="n">
-        <v>2.54</v>
+        <v>2.51</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>292</v>
+        <v>138.92</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-0.97</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>BANARBEADS</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>53.83</v>
+        <v>136.29</v>
       </c>
       <c r="C106" t="n">
-        <v>55.17</v>
+        <v>139.7</v>
       </c>
       <c r="D106" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>54.35</v>
+        <v>137</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-1.49</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A2ZINFRA</t>
+          <t>ZENITHEXPO</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>18.05</v>
+        <v>230.56</v>
       </c>
       <c r="C107" t="n">
-        <v>18.5</v>
+        <v>236.32</v>
       </c>
       <c r="D107" t="n">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>18.18</v>
+        <v>230.56</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-1.73</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DJML</t>
+          <t>HAVISHA</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>73.56999999999999</v>
+        <v>2.01</v>
       </c>
       <c r="C108" t="n">
-        <v>75.40000000000001</v>
+        <v>2.06</v>
       </c>
       <c r="D108" t="n">
         <v>2.49</v>
@@ -3248,917 +3250,917 @@
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>74.97</v>
+        <v>2.05</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-0.57</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SUPERSPIN</t>
+          <t>RUBYMILLS</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>9.27</v>
+        <v>221.48</v>
       </c>
       <c r="C109" t="n">
-        <v>9.5</v>
+        <v>227</v>
       </c>
       <c r="D109" t="n">
-        <v>2.48</v>
+        <v>2.49</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>9.4</v>
+        <v>228.67</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-1.05</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>KICL</t>
+          <t>MOLDTECH</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>5073</v>
+        <v>176.65</v>
       </c>
       <c r="C110" t="n">
-        <v>5199</v>
+        <v>181</v>
       </c>
       <c r="D110" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>5141.5</v>
+        <v>175.18</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-1.11</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>IEML-RE</t>
+          <t>SADBHAV</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>26.35</v>
+        <v>11.37</v>
       </c>
       <c r="C111" t="n">
-        <v>27</v>
+        <v>11.65</v>
       </c>
       <c r="D111" t="n">
-        <v>2.47</v>
+        <v>2.46</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>27</v>
+        <v>11.42</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HIMATSEIDE</t>
+          <t>INDTERRAIN</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>122.98</v>
+        <v>39.06</v>
       </c>
       <c r="C112" t="n">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="D112" t="n">
-        <v>2.46</v>
+        <v>2.41</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>126.63</v>
+        <v>39.5</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>RADAAN</t>
+          <t>INFLUX</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>3.27</v>
+        <v>198.05</v>
       </c>
       <c r="C113" t="n">
-        <v>3.35</v>
+        <v>202.8</v>
       </c>
       <c r="D113" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>3.3</v>
+        <v>198.05</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-1.49</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SITINET</t>
+          <t>PRECOT</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>0.41</v>
+        <v>453.85</v>
       </c>
       <c r="C114" t="n">
-        <v>0.42</v>
+        <v>464.7</v>
       </c>
       <c r="D114" t="n">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>0.42</v>
+        <v>468</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>LASA</t>
+          <t>MATRIMONY</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>10.68</v>
+        <v>502.7</v>
       </c>
       <c r="C115" t="n">
-        <v>10.94</v>
+        <v>514.6</v>
       </c>
       <c r="D115" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>10.76</v>
+        <v>501.15</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-1.65</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ARSSBL</t>
+          <t>PREMIER</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>651.5</v>
+        <v>3.41</v>
       </c>
       <c r="C116" t="n">
-        <v>667.3</v>
+        <v>3.49</v>
       </c>
       <c r="D116" t="n">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>658.65</v>
+        <v>3.49</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-1.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>LYPSAGEMS</t>
+          <t>AJOONI</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5.37</v>
+        <v>5.1</v>
       </c>
       <c r="C117" t="n">
-        <v>5.5</v>
+        <v>5.22</v>
       </c>
       <c r="D117" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>5.3</v>
+        <v>5.19</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-3.64</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SHIVAMAUTO</t>
+          <t>FILATFASH</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>28.32</v>
+        <v>0.44</v>
       </c>
       <c r="C118" t="n">
-        <v>29</v>
+        <v>0.45</v>
       </c>
       <c r="D118" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>28.59</v>
+        <v>0.44</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-1.41</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>KNAGRI</t>
+          <t>GMRAIRPORT</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>219.75</v>
+        <v>95.48999999999999</v>
       </c>
       <c r="C119" t="n">
-        <v>225</v>
+        <v>97.65000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>2.39</v>
+        <v>2.26</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>221</v>
+        <v>97.29000000000001</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-1.78</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AKI</t>
+          <t>MACPOWER</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>7.99</v>
+        <v>860.75</v>
       </c>
       <c r="C120" t="n">
-        <v>8.18</v>
+        <v>880</v>
       </c>
       <c r="D120" t="n">
-        <v>2.38</v>
+        <v>2.24</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>8</v>
+        <v>865.15</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-2.2</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DEVIT</t>
+          <t>FAIRCHEMOR</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>41.44</v>
+        <v>643.5</v>
       </c>
       <c r="C121" t="n">
-        <v>42.42</v>
+        <v>657.8</v>
       </c>
       <c r="D121" t="n">
-        <v>2.36</v>
+        <v>2.22</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>42.8</v>
+        <v>636.95</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>0.9</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>ASMS</t>
+          <t>NATHBIOGEN</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>12.77</v>
+        <v>165.13</v>
       </c>
       <c r="C122" t="n">
-        <v>13.07</v>
+        <v>168.8</v>
       </c>
       <c r="D122" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>12.97</v>
+        <v>168.51</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-0.77</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AMBICAAGAR</t>
+          <t>AHLADA</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>25.65</v>
+        <v>56.64</v>
       </c>
       <c r="C123" t="n">
-        <v>26.25</v>
+        <v>57.89</v>
       </c>
       <c r="D123" t="n">
-        <v>2.34</v>
+        <v>2.21</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>26.25</v>
+        <v>57.3</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>LEXUS</t>
+          <t>INDOWIND</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>28.82</v>
+        <v>16.58</v>
       </c>
       <c r="C124" t="n">
-        <v>29.49</v>
+        <v>16.94</v>
       </c>
       <c r="D124" t="n">
-        <v>2.32</v>
+        <v>2.17</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>30.25</v>
+        <v>16.73</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>2.58</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ATHERENERG</t>
+          <t>RAMASTEEL</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>628.55</v>
+        <v>10.67</v>
       </c>
       <c r="C125" t="n">
-        <v>643.05</v>
+        <v>10.9</v>
       </c>
       <c r="D125" t="n">
-        <v>2.31</v>
+        <v>2.16</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>648.9</v>
+        <v>10.62</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>0.91</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>JINDALPHOT</t>
+          <t>SANDHAR</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>1385.2</v>
+        <v>553.15</v>
       </c>
       <c r="C126" t="n">
-        <v>1417</v>
+        <v>565</v>
       </c>
       <c r="D126" t="n">
-        <v>2.3</v>
+        <v>2.14</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>1380</v>
+        <v>565</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-2.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BIGBLOC</t>
+          <t>CUBEXTUB</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>48.88</v>
+        <v>91</v>
       </c>
       <c r="C127" t="n">
-        <v>50</v>
+        <v>92.95</v>
       </c>
       <c r="D127" t="n">
-        <v>2.29</v>
+        <v>2.14</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>49.21</v>
+        <v>91.89</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-1.58</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HMAAGRO</t>
+          <t>AVPINFRA</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>30.11</v>
+        <v>167.85</v>
       </c>
       <c r="C128" t="n">
-        <v>30.8</v>
+        <v>171.4</v>
       </c>
       <c r="D128" t="n">
-        <v>2.29</v>
+        <v>2.11</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>30.26</v>
+        <v>167.5</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-1.75</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>VAISHALI</t>
+          <t>RPPL</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>9.68</v>
+        <v>19.43</v>
       </c>
       <c r="C129" t="n">
-        <v>9.9</v>
+        <v>19.84</v>
       </c>
       <c r="D129" t="n">
-        <v>2.27</v>
+        <v>2.11</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>9.82</v>
+        <v>19.5</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NAGAFERT</t>
+          <t>MODIS</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>4.87</v>
+        <v>380.95</v>
       </c>
       <c r="C130" t="n">
-        <v>4.98</v>
+        <v>389</v>
       </c>
       <c r="D130" t="n">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>4.9</v>
+        <v>404.8</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-1.61</v>
+        <v>4.06</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SVPGLOB</t>
+          <t>SIGMA</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>3.55</v>
+        <v>52.34</v>
       </c>
       <c r="C131" t="n">
-        <v>3.63</v>
+        <v>53.44</v>
       </c>
       <c r="D131" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>3.5</v>
+        <v>52.97</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-3.58</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SUTLEJTEX</t>
+          <t>GANGAFORGE</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>35.41</v>
+        <v>3.34</v>
       </c>
       <c r="C132" t="n">
-        <v>36.2</v>
+        <v>3.41</v>
       </c>
       <c r="D132" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>36</v>
+        <v>3.41</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>FILATFASH</t>
+          <t>SONAMLTD</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>0.45</v>
+        <v>40.15</v>
       </c>
       <c r="C133" t="n">
-        <v>0.46</v>
+        <v>40.98</v>
       </c>
       <c r="D133" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>0.45</v>
+        <v>40.45</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-2.17</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOMICONVEY</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>153.61</v>
+        <v>125.4</v>
       </c>
       <c r="C134" t="n">
-        <v>157</v>
+        <v>127.99</v>
       </c>
       <c r="D134" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>156.62</v>
+        <v>125.6</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-0.24</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SANOFICONR</t>
+          <t>RUPA</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>4658.3</v>
+        <v>196.45</v>
       </c>
       <c r="C135" t="n">
-        <v>4760.9</v>
+        <v>200.5</v>
       </c>
       <c r="D135" t="n">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>4996.2</v>
+        <v>196.32</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>4.94</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>OMINFRAL</t>
+          <t>NOIDATOLL</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>111.57</v>
+        <v>4.4</v>
       </c>
       <c r="C136" t="n">
-        <v>114</v>
+        <v>4.49</v>
       </c>
       <c r="D136" t="n">
-        <v>2.18</v>
+        <v>2.05</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>111.66</v>
+        <v>4.37</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-2.05</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>GENSOL</t>
+          <t>SHYAMTEL</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>32.69</v>
+        <v>11.78</v>
       </c>
       <c r="C137" t="n">
-        <v>33.4</v>
+        <v>12.02</v>
       </c>
       <c r="D137" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>31.4</v>
+        <v>12.18</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-5.99</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AROGRANITE</t>
+          <t>LGHL</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>33.17</v>
+        <v>281.25</v>
       </c>
       <c r="C138" t="n">
-        <v>33.89</v>
+        <v>287</v>
       </c>
       <c r="D138" t="n">
-        <v>2.17</v>
+        <v>2.04</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>33.61</v>
+        <v>276.75</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-0.83</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>TOLINS</t>
+          <t>SAURASHCEM</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>185.15</v>
+        <v>98.01000000000001</v>
       </c>
       <c r="C139" t="n">
-        <v>189.15</v>
+        <v>99.98999999999999</v>
       </c>
       <c r="D139" t="n">
-        <v>2.16</v>
+        <v>2.02</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>186.15</v>
+        <v>98</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-1.59</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BFUTILITIE</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>693.9</v>
+        <v>1</v>
       </c>
       <c r="C140" t="n">
-        <v>708.8</v>
+        <v>1.02</v>
       </c>
       <c r="D140" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>702</v>
+        <v>1.02</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-0.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>OILCOUNTUB</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>64.33</v>
+        <v>109.13</v>
       </c>
       <c r="C141" t="n">
-        <v>65.7</v>
+        <v>111.31</v>
       </c>
       <c r="D141" t="n">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>64.52</v>
+        <v>112</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-1.8</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>KSHITIJPOL</t>
+          <t>JINDALPHOT</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>2.82</v>
+        <v>1378.6</v>
       </c>
       <c r="C142" t="n">
-        <v>2.88</v>
+        <v>1406</v>
       </c>
       <c r="D142" t="n">
-        <v>2.13</v>
+        <v>1.99</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>2.82</v>
+        <v>1395</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-2.08</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TVVISION</t>
+          <t>RAJRILTD</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>6.1</v>
+        <v>25.25</v>
       </c>
       <c r="C143" t="n">
-        <v>6.23</v>
+        <v>25.75</v>
       </c>
       <c r="D143" t="n">
-        <v>2.13</v>
+        <v>1.98</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>6.23</v>
+        <v>25.75</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
@@ -4168,1509 +4170,1505 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SIGIND</t>
+          <t>NILASPACES</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>56.6</v>
+        <v>16.17</v>
       </c>
       <c r="C144" t="n">
-        <v>57.8</v>
+        <v>16.49</v>
       </c>
       <c r="D144" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>56.99</v>
+        <v>16.65</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-1.4</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RAJSREESUG</t>
+          <t>WSI</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>39.05</v>
+        <v>85.8</v>
       </c>
       <c r="C145" t="n">
-        <v>39.87</v>
+        <v>87.5</v>
       </c>
       <c r="D145" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>39.01</v>
+        <v>87</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-2.16</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>DIL</t>
+          <t>SUTLEJTEX</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1.91</v>
+        <v>34.52</v>
       </c>
       <c r="C146" t="n">
-        <v>1.95</v>
+        <v>35.2</v>
       </c>
       <c r="D146" t="n">
-        <v>2.09</v>
+        <v>1.97</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1.92</v>
+        <v>35.02</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-1.54</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>STALLION</t>
+          <t>AKSHOPTFBR</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>234.15</v>
+        <v>7.14</v>
       </c>
       <c r="C147" t="n">
-        <v>239</v>
+        <v>7.28</v>
       </c>
       <c r="D147" t="n">
-        <v>2.07</v>
+        <v>1.96</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>233.9</v>
+        <v>7.2</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-2.13</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ELGIEQUIP</t>
+          <t>MONTECARLO</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>491.8</v>
+        <v>768.95</v>
       </c>
       <c r="C148" t="n">
-        <v>502</v>
+        <v>783.9</v>
       </c>
       <c r="D148" t="n">
-        <v>2.07</v>
+        <v>1.94</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>501.9</v>
+        <v>771.6</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-0.02</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ALPSINDUS</t>
+          <t>ROSSELLIND</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>1.98</v>
+        <v>60.57</v>
       </c>
       <c r="C149" t="n">
-        <v>2.02</v>
+        <v>61.74</v>
       </c>
       <c r="D149" t="n">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>2.07</v>
+        <v>61.49</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>2.48</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CYBERMEDIA</t>
+          <t>CEWATER</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>17.36</v>
+        <v>423.8</v>
       </c>
       <c r="C150" t="n">
-        <v>17.71</v>
+        <v>431.9</v>
       </c>
       <c r="D150" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>17.71</v>
+        <v>425</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>VALIANTLAB</t>
+          <t>AIRAN</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>80.38</v>
+        <v>22.09</v>
       </c>
       <c r="C151" t="n">
-        <v>82</v>
+        <v>22.51</v>
       </c>
       <c r="D151" t="n">
-        <v>2.02</v>
+        <v>1.9</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>80.65000000000001</v>
+        <v>22</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-1.65</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>NSIL</t>
+          <t>SHIVALIK</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>7009</v>
+        <v>441.7</v>
       </c>
       <c r="C152" t="n">
-        <v>7150</v>
+        <v>450</v>
       </c>
       <c r="D152" t="n">
-        <v>2.01</v>
+        <v>1.88</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>7085</v>
+        <v>440</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-0.91</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AIRAN</t>
+          <t>AEROENTER</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>21.87</v>
+        <v>90.31999999999999</v>
       </c>
       <c r="C153" t="n">
-        <v>22.31</v>
+        <v>92</v>
       </c>
       <c r="D153" t="n">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>22.2</v>
+        <v>91.03</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-0.49</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SAFEENTP</t>
+          <t>ABCOTS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>239.2</v>
+        <v>410.3</v>
       </c>
       <c r="C154" t="n">
-        <v>244</v>
+        <v>417.95</v>
       </c>
       <c r="D154" t="n">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>246</v>
+        <v>415.6</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>0.82</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ARTNIRMAN</t>
+          <t>EBGNG</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>50.76</v>
+        <v>336.5</v>
       </c>
       <c r="C155" t="n">
-        <v>51.78</v>
+        <v>342.75</v>
       </c>
       <c r="D155" t="n">
-        <v>2.01</v>
+        <v>1.86</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>52.99</v>
+        <v>338.6</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>2.34</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BALAJEE</t>
+          <t>NUVOCO</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>41.86</v>
+        <v>370.8</v>
       </c>
       <c r="C156" t="n">
-        <v>42.7</v>
+        <v>377.65</v>
       </c>
       <c r="D156" t="n">
-        <v>2.01</v>
+        <v>1.85</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>42.3</v>
+        <v>370.35</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SUNCLAY</t>
+          <t>SHRENIK</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>1336.8</v>
+        <v>0.54</v>
       </c>
       <c r="C157" t="n">
-        <v>1363.5</v>
+        <v>0.55</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>1333</v>
+        <v>0.55</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-2.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>KARMAENG</t>
+          <t>HECPROJECT</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>52.47</v>
+        <v>143.35</v>
       </c>
       <c r="C158" t="n">
-        <v>53.52</v>
+        <v>146</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>52.21</v>
+        <v>143.57</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-2.45</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SILINV</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>606.65</v>
+        <v>53.67</v>
       </c>
       <c r="C159" t="n">
-        <v>618.8</v>
+        <v>54.65</v>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>612</v>
+        <v>53.87</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-1.1</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>UNIDT</t>
+          <t>MCL</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>201.96</v>
+        <v>48.11</v>
       </c>
       <c r="C160" t="n">
-        <v>206</v>
+        <v>48.99</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>207.61</v>
+        <v>48.68</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>0.78</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SCPL</t>
+          <t>SPCENET</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>235.48</v>
+        <v>8.73</v>
       </c>
       <c r="C161" t="n">
-        <v>240.18</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D161" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>234.84</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-2.22</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>REMSONSIND</t>
+          <t>DIGIDRIVE</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>139.72</v>
+        <v>28.48</v>
       </c>
       <c r="C162" t="n">
-        <v>142.47</v>
+        <v>29</v>
       </c>
       <c r="D162" t="n">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>140.9</v>
+        <v>28.98</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-1.1</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ANTGRAPHIC</t>
+          <t>BALAJEE</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1.02</v>
+        <v>41.1</v>
       </c>
       <c r="C163" t="n">
-        <v>1.04</v>
+        <v>41.85</v>
       </c>
       <c r="D163" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1.04</v>
+        <v>41.17</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GATECHDVR</t>
+          <t>LIBERTSHOE</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>0.51</v>
+        <v>311.15</v>
       </c>
       <c r="C164" t="n">
-        <v>0.52</v>
+        <v>316.8</v>
       </c>
       <c r="D164" t="n">
-        <v>1.96</v>
+        <v>1.82</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>0.52</v>
+        <v>310.35</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>TARIL</t>
+          <t>NELCAST</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>296.65</v>
+        <v>110</v>
       </c>
       <c r="C165" t="n">
-        <v>302.45</v>
+        <v>111.99</v>
       </c>
       <c r="D165" t="n">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>302.3</v>
+        <v>109.79</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-0.05</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>LAXMICOT</t>
+          <t>SANOFICONR</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>20.99</v>
+        <v>4984.8</v>
       </c>
       <c r="C166" t="n">
-        <v>21.4</v>
+        <v>5075</v>
       </c>
       <c r="D166" t="n">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>21.25</v>
+        <v>4926.1</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-0.7</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TIGERLOGS</t>
+          <t>IFGLEXPOR</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>42.76</v>
+        <v>230.85</v>
       </c>
       <c r="C167" t="n">
-        <v>43.59</v>
+        <v>235</v>
       </c>
       <c r="D167" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>43.01</v>
+        <v>243.1</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-1.33</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AKSHOPTFBR</t>
+          <t>VIPULLTD</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>7.21</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C168" t="n">
-        <v>7.35</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="D168" t="n">
-        <v>1.94</v>
+        <v>1.8</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>7.33</v>
+        <v>9.4</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-0.27</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>KELLTONTEC</t>
+          <t>VSTL</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>21.17</v>
+        <v>137.53</v>
       </c>
       <c r="C169" t="n">
-        <v>21.58</v>
+        <v>139.98</v>
       </c>
       <c r="D169" t="n">
-        <v>1.94</v>
+        <v>1.78</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>21.89</v>
+        <v>138.01</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>1.44</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>GEECEE</t>
+          <t>CEREBRAINT</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>348.8</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="C170" t="n">
-        <v>355.5</v>
+        <v>8.69</v>
       </c>
       <c r="D170" t="n">
-        <v>1.92</v>
+        <v>1.76</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>348.9</v>
+        <v>8.75</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-1.86</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>EMMBI</t>
+          <t>AFIL</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>109.01</v>
+        <v>7.46</v>
       </c>
       <c r="C171" t="n">
-        <v>111.1</v>
+        <v>7.59</v>
       </c>
       <c r="D171" t="n">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>108.44</v>
+        <v>7.59</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-2.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>MKPL</t>
+          <t>PDMJEPAPER</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>6.79</v>
+        <v>106.16</v>
       </c>
       <c r="C172" t="n">
-        <v>6.92</v>
+        <v>108</v>
       </c>
       <c r="D172" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>6.76</v>
+        <v>106.97</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-2.31</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MANCREDIT</t>
+          <t>STEL</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>180.38</v>
+        <v>447.35</v>
       </c>
       <c r="C173" t="n">
-        <v>183.8</v>
+        <v>455</v>
       </c>
       <c r="D173" t="n">
-        <v>1.9</v>
+        <v>1.71</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>180.88</v>
+        <v>448.85</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-1.59</v>
+        <v>-1.35</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>ENTERO</t>
+          <t>KRITI</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>1134.4</v>
+        <v>99.31</v>
       </c>
       <c r="C174" t="n">
-        <v>1156</v>
+        <v>101</v>
       </c>
       <c r="D174" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>1132.9</v>
+        <v>100.89</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-2</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>DRCSYSTEMS</t>
+          <t>AVONMORE</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>19.56</v>
+        <v>17.21</v>
       </c>
       <c r="C175" t="n">
-        <v>19.93</v>
+        <v>17.5</v>
       </c>
       <c r="D175" t="n">
-        <v>1.89</v>
+        <v>1.69</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>19.56</v>
+        <v>17.67</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-1.86</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SBCL</t>
+          <t>SUKHJITS</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>495.65</v>
+        <v>157.39</v>
       </c>
       <c r="C176" t="n">
-        <v>504.9</v>
+        <v>160</v>
       </c>
       <c r="D176" t="n">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>496.95</v>
+        <v>156.65</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-1.57</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>NGLFINE</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>2.67</v>
+        <v>1426.3</v>
       </c>
       <c r="C177" t="n">
-        <v>2.72</v>
+        <v>1449.8</v>
       </c>
       <c r="D177" t="n">
-        <v>1.87</v>
+        <v>1.65</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>2.79</v>
+        <v>1440</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>2.57</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>OMAXAUTO</t>
+          <t>ANANTAM</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>97.09</v>
+        <v>105.37</v>
       </c>
       <c r="C178" t="n">
-        <v>98.90000000000001</v>
+        <v>107.1</v>
       </c>
       <c r="D178" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>97.2</v>
+        <v>105.2</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-1.72</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>EQUIPPP</t>
+          <t>SJLOGISTIC</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>17.18</v>
+        <v>398.45</v>
       </c>
       <c r="C179" t="n">
-        <v>17.5</v>
+        <v>405</v>
       </c>
       <c r="D179" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>18</v>
+        <v>389</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>2.86</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>ADVENZYMES</t>
+          <t>MVGJL</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>330.85</v>
+        <v>198.74</v>
       </c>
       <c r="C180" t="n">
-        <v>337</v>
+        <v>202</v>
       </c>
       <c r="D180" t="n">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>343.4</v>
+        <v>197.03</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>1.9</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FAZE3Q</t>
+          <t>TIJARIA</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>512.95</v>
+        <v>6.15</v>
       </c>
       <c r="C181" t="n">
-        <v>522.5</v>
+        <v>6.25</v>
       </c>
       <c r="D181" t="n">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>523.25</v>
+        <v>6.29</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>0.14</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>ALLCARGO</t>
+          <t>RAMANEWS</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>11.88</v>
+        <v>29.02</v>
       </c>
       <c r="C182" t="n">
-        <v>12.1</v>
+        <v>29.49</v>
       </c>
       <c r="D182" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>12.47</v>
+        <v>28.97</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>3.06</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>DENTALKART</t>
+          <t>ABSMARINE</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>573.45</v>
+        <v>244.05</v>
       </c>
       <c r="C183" t="n">
-        <v>584</v>
+        <v>248</v>
       </c>
       <c r="D183" t="n">
-        <v>1.84</v>
+        <v>1.62</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>584.85</v>
+        <v>244</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>0.15</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>KOHINOOR</t>
+          <t>HINDOILEXP</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>30.93</v>
+        <v>146.94</v>
       </c>
       <c r="C184" t="n">
-        <v>31.5</v>
+        <v>149.3</v>
       </c>
       <c r="D184" t="n">
-        <v>1.84</v>
+        <v>1.61</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>30.91</v>
+        <v>146.85</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-1.87</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AARVI</t>
+          <t>SUPREMEPWR</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>119.12</v>
+        <v>207.65</v>
       </c>
       <c r="C185" t="n">
-        <v>121.29</v>
+        <v>211</v>
       </c>
       <c r="D185" t="n">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
-      <c r="F185" t="n">
-        <v>121.09</v>
-      </c>
+      <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="n">
-        <v>-0.16</v>
-      </c>
+      <c r="H185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>AKSHAR</t>
+          <t>WIPL</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>0.55</v>
+        <v>153.55</v>
       </c>
       <c r="C186" t="n">
-        <v>0.5600000000000001</v>
+        <v>156</v>
       </c>
       <c r="D186" t="n">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>0.5600000000000001</v>
+        <v>160</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>THEINVEST</t>
+          <t>DAVANGERE</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>127</v>
+        <v>3.74</v>
       </c>
       <c r="C187" t="n">
-        <v>129.3</v>
+        <v>3.8</v>
       </c>
       <c r="D187" t="n">
-        <v>1.81</v>
+        <v>1.6</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>127.4</v>
+        <v>3.76</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-1.47</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BYKE</t>
+          <t>DIVGIITTS</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>62.33</v>
+        <v>643.75</v>
       </c>
       <c r="C188" t="n">
-        <v>63.45</v>
+        <v>654</v>
       </c>
       <c r="D188" t="n">
-        <v>1.8</v>
+        <v>1.59</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>63.49</v>
+        <v>646.95</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>0.06</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>SHEKHAWATI</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>123.73</v>
+        <v>19.51</v>
       </c>
       <c r="C189" t="n">
-        <v>125.94</v>
+        <v>19.82</v>
       </c>
       <c r="D189" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>125.9</v>
+        <v>19.96</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-0.03</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>CUBEXTUB</t>
+          <t>HITECHCORP</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>91.76000000000001</v>
+        <v>187.92</v>
       </c>
       <c r="C190" t="n">
-        <v>93.40000000000001</v>
+        <v>190.9</v>
       </c>
       <c r="D190" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>93.59999999999999</v>
+        <v>189.02</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>0.21</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>HINDCON</t>
+          <t>MAGADSUGAR</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>31.93</v>
+        <v>501.05</v>
       </c>
       <c r="C191" t="n">
-        <v>32.5</v>
+        <v>509</v>
       </c>
       <c r="D191" t="n">
-        <v>1.79</v>
+        <v>1.59</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>31.8</v>
+        <v>503.7</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-2.15</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>AGROPHOS</t>
+          <t>ADVANIHOTR</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>43.19</v>
+        <v>56.5</v>
       </c>
       <c r="C192" t="n">
-        <v>43.96</v>
+        <v>57.39</v>
       </c>
       <c r="D192" t="n">
-        <v>1.78</v>
+        <v>1.58</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>43.49</v>
+        <v>56.68</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-1.07</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SHILPAMED</t>
+          <t>INNOVANA</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>399.9</v>
+        <v>481.45</v>
       </c>
       <c r="C193" t="n">
-        <v>407</v>
+        <v>489</v>
       </c>
       <c r="D193" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>402.15</v>
+        <v>481.8</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-1.19</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>NRVANDANA</t>
+          <t>CPCAP</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>67.59999999999999</v>
+        <v>116.08</v>
       </c>
       <c r="C194" t="n">
-        <v>68.8</v>
+        <v>117.9</v>
       </c>
       <c r="D194" t="n">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>69</v>
+        <v>116</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>0.29</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PATINTLOG</t>
+          <t>SHRADHA</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>14.11</v>
+        <v>42.34</v>
       </c>
       <c r="C195" t="n">
-        <v>14.36</v>
+        <v>43</v>
       </c>
       <c r="D195" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>14.19</v>
+        <v>42.98</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-1.18</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ACL</t>
+          <t>INFIBEAM</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>80.08</v>
+        <v>19.2</v>
       </c>
       <c r="C196" t="n">
-        <v>81.5</v>
+        <v>19.5</v>
       </c>
       <c r="D196" t="n">
-        <v>1.77</v>
+        <v>1.56</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>77.16</v>
+        <v>19.28</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-5.33</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>LLOYDSME</t>
+          <t>AVROIND</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>1316.9</v>
+        <v>124.49</v>
       </c>
       <c r="C197" t="n">
-        <v>1340</v>
+        <v>126.4</v>
       </c>
       <c r="D197" t="n">
-        <v>1.75</v>
+        <v>1.53</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>1335.5</v>
+        <v>125.41</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-0.34</v>
+        <v>-0.78</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>CORALFINAC</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>0.57</v>
+        <v>42.16</v>
       </c>
       <c r="C198" t="n">
-        <v>0.58</v>
+        <v>42.8</v>
       </c>
       <c r="D198" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>0.58</v>
+        <v>42.4</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SANGINITA</t>
+          <t>INSPIRISYS</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>11.06</v>
+        <v>104.01</v>
       </c>
       <c r="C199" t="n">
-        <v>11.25</v>
+        <v>105.59</v>
       </c>
       <c r="D199" t="n">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>11.25</v>
+        <v>104.79</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>SHRADHA</t>
+          <t>BLUSPRING</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>43.26</v>
+        <v>78.31</v>
       </c>
       <c r="C200" t="n">
-        <v>44</v>
+        <v>79.5</v>
       </c>
       <c r="D200" t="n">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>43.39</v>
+        <v>77.84999999999999</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-1.39</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>INDOAMIN</t>
+          <t>MANAPPURAM</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>134.71</v>
+        <v>273.85</v>
       </c>
       <c r="C201" t="n">
-        <v>137</v>
+        <v>278</v>
       </c>
       <c r="D201" t="n">
-        <v>1.7</v>
+        <v>1.52</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>138.39</v>
+        <v>280.25</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>1.01</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,157 +478,157 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>EXPLEOSOL</t>
+          <t>CANARYS</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>979.3</v>
+        <v>28.75</v>
       </c>
       <c r="C2" t="n">
-        <v>1175.1</v>
+        <v>34.5</v>
       </c>
       <c r="D2" t="n">
-        <v>19.99</v>
+        <v>20</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1128.1</v>
+        <v>33.55</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-4</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IPHL</t>
+          <t>UNIHEALTH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>52.45</v>
+        <v>164.45</v>
       </c>
       <c r="C3" t="n">
-        <v>62.9</v>
+        <v>194</v>
       </c>
       <c r="D3" t="n">
-        <v>19.92</v>
+        <v>17.97</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>62.9</v>
+        <v>185</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IVC</t>
+          <t>SOUTHWEST</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.69</v>
+        <v>180.55</v>
       </c>
       <c r="C4" t="n">
-        <v>8.949999999999999</v>
+        <v>205.65</v>
       </c>
       <c r="D4" t="n">
-        <v>16.38</v>
+        <v>13.9</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>8.699999999999999</v>
+        <v>195.5</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-2.79</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>APRAMEYA</t>
+          <t>BBTCL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>296.1</v>
+        <v>197.28</v>
       </c>
       <c r="C5" t="n">
-        <v>339</v>
+        <v>223</v>
       </c>
       <c r="D5" t="n">
-        <v>14.49</v>
+        <v>13.04</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>317.95</v>
+        <v>218.34</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-6.21</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>JNKINDIA</t>
+          <t>VLSFINANCE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>279.5</v>
+        <v>210.26</v>
       </c>
       <c r="C6" t="n">
-        <v>310</v>
+        <v>232</v>
       </c>
       <c r="D6" t="n">
-        <v>10.91</v>
+        <v>10.34</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>294.1</v>
+        <v>246.15</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-5.13</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RAJPUTANA</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>270</v>
+        <v>1.1</v>
       </c>
       <c r="C7" t="n">
-        <v>299</v>
+        <v>1.21</v>
       </c>
       <c r="D7" t="n">
-        <v>10.74</v>
+        <v>10</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>283</v>
+        <v>1.21</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-5.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -638,669 +638,669 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.46</v>
+        <v>45.6</v>
       </c>
       <c r="C8" t="n">
-        <v>45.6</v>
+        <v>50.16</v>
       </c>
       <c r="D8" t="n">
-        <v>9.99</v>
+        <v>10</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>45.6</v>
+        <v>49.99</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AARVI</t>
+          <t>HMAAGRO</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>120.03</v>
+        <v>29.98</v>
       </c>
       <c r="C9" t="n">
-        <v>129.89</v>
+        <v>32.97</v>
       </c>
       <c r="D9" t="n">
-        <v>8.210000000000001</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>144.03</v>
+        <v>32.65</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>10.89</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CONTROLPR</t>
+          <t>GTECJAINX</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>730.65</v>
+        <v>22.6</v>
       </c>
       <c r="C10" t="n">
-        <v>786</v>
+        <v>24.85</v>
       </c>
       <c r="D10" t="n">
-        <v>7.58</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>762.55</v>
+        <v>24.75</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-2.98</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MUTHOOTFIN</t>
+          <t>RBMINFRA</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3393.1</v>
+        <v>478.55</v>
       </c>
       <c r="C11" t="n">
-        <v>3650</v>
+        <v>524.8</v>
       </c>
       <c r="D11" t="n">
-        <v>7.57</v>
+        <v>9.66</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>3712.5</v>
+        <v>502.1</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>1.71</v>
+        <v>-4.33</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>DOLLAR</t>
+          <t>KHANDSE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>348.25</v>
+        <v>23.12</v>
       </c>
       <c r="C12" t="n">
-        <v>374</v>
+        <v>25</v>
       </c>
       <c r="D12" t="n">
-        <v>7.39</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>371.5</v>
+        <v>23.2</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>-0.67</v>
+        <v>-7.2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MHLXMIRU</t>
+          <t>BHAGYANGR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>205.29</v>
+        <v>153.67</v>
       </c>
       <c r="C13" t="n">
-        <v>220</v>
+        <v>165.4</v>
       </c>
       <c r="D13" t="n">
-        <v>7.17</v>
+        <v>7.63</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>238.17</v>
+        <v>159.19</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>8.26</v>
+        <v>-3.75</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>VILAS</t>
+          <t>AHLUCONT</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.65</v>
+        <v>882.9</v>
       </c>
       <c r="C14" t="n">
-        <v>444.95</v>
+        <v>950</v>
       </c>
       <c r="D14" t="n">
-        <v>7.05</v>
+        <v>7.6</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>444</v>
+        <v>980</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-0.21</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>RULKA</t>
+          <t>INNOVANA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>125.2</v>
+        <v>481.8</v>
       </c>
       <c r="C15" t="n">
-        <v>134</v>
+        <v>515</v>
       </c>
       <c r="D15" t="n">
-        <v>7.03</v>
+        <v>6.89</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>130.5</v>
+        <v>495.65</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-2.61</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TVVISION</t>
+          <t>PHANTOMFX</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.95</v>
+        <v>251.9</v>
       </c>
       <c r="C16" t="n">
-        <v>6.36</v>
+        <v>269</v>
       </c>
       <c r="D16" t="n">
-        <v>6.89</v>
+        <v>6.79</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>6.2</v>
+        <v>258.25</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-2.52</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>GVPIL</t>
+          <t>IDEAFORGE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.3</v>
+        <v>464.65</v>
       </c>
       <c r="C17" t="n">
-        <v>319.95</v>
+        <v>496</v>
       </c>
       <c r="D17" t="n">
-        <v>6.54</v>
+        <v>6.75</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>320.35</v>
+        <v>506.65</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>0.13</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RHL</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>223.49</v>
+        <v>2.67</v>
       </c>
       <c r="C18" t="n">
-        <v>238</v>
+        <v>2.85</v>
       </c>
       <c r="D18" t="n">
-        <v>6.49</v>
+        <v>6.74</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>223.01</v>
+        <v>2.65</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>-6.3</v>
+        <v>-7.02</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GPIL</t>
+          <t>ENFUSE</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.25</v>
+        <v>201.05</v>
       </c>
       <c r="C19" t="n">
-        <v>280</v>
+        <v>214</v>
       </c>
       <c r="D19" t="n">
-        <v>6.36</v>
+        <v>6.44</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>281.55</v>
+        <v>214</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ASHAPURMIN</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>638.25</v>
+        <v>18.63</v>
       </c>
       <c r="C20" t="n">
-        <v>677.25</v>
+        <v>19.8</v>
       </c>
       <c r="D20" t="n">
-        <v>6.11</v>
+        <v>6.28</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>699.8</v>
+        <v>18.76</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>3.33</v>
+        <v>-5.25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>INDOTECH</t>
+          <t>SINTERCOM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1824.9</v>
+        <v>111.26</v>
       </c>
       <c r="C21" t="n">
-        <v>1930</v>
+        <v>118</v>
       </c>
       <c r="D21" t="n">
-        <v>5.76</v>
+        <v>6.06</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1905.9</v>
+        <v>118</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-1.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JUBLFOOD</t>
+          <t>ARVEE</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>573.5</v>
+        <v>163.45</v>
       </c>
       <c r="C22" t="n">
-        <v>604.95</v>
+        <v>172.9</v>
       </c>
       <c r="D22" t="n">
-        <v>5.48</v>
+        <v>5.78</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>613.95</v>
+        <v>171.99</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>1.49</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BDL</t>
+          <t>MODISONLTD</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1517.9</v>
+        <v>151.42</v>
       </c>
       <c r="C23" t="n">
-        <v>1601</v>
+        <v>160</v>
       </c>
       <c r="D23" t="n">
-        <v>5.47</v>
+        <v>5.67</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1620.9</v>
+        <v>160.68</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>1.24</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>GANESHBE</t>
+          <t>VILAS</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>81.61</v>
+        <v>442.45</v>
       </c>
       <c r="C24" t="n">
-        <v>85.8</v>
+        <v>467</v>
       </c>
       <c r="D24" t="n">
-        <v>5.13</v>
+        <v>5.55</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>83.84999999999999</v>
+        <v>460</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-2.27</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IZMO</t>
+          <t>GLOBALE</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>819.3</v>
+        <v>12.8</v>
       </c>
       <c r="C25" t="n">
-        <v>860.25</v>
+        <v>13.49</v>
       </c>
       <c r="D25" t="n">
-        <v>5</v>
+        <v>5.39</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>860.25</v>
+        <v>13.05</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOMATEX</t>
+          <t>SALASAR</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>126.02</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>132.32</v>
+        <v>10.05</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>5.35</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>132.32</v>
+        <v>10.26</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KDL</t>
+          <t>CHANDAN</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>188.05</v>
+        <v>313.4</v>
       </c>
       <c r="C27" t="n">
-        <v>197.45</v>
+        <v>330</v>
       </c>
       <c r="D27" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>189</v>
+        <v>331</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-4.28</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>SAHASRA</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>934.4</v>
+        <v>315.4</v>
       </c>
       <c r="C28" t="n">
-        <v>981.1</v>
+        <v>332</v>
       </c>
       <c r="D28" t="n">
-        <v>5</v>
+        <v>5.26</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>981.1</v>
+        <v>334.7</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ADVENTHTL</t>
+          <t>DSSL</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>328.65</v>
+        <v>950.1</v>
       </c>
       <c r="C29" t="n">
-        <v>345.05</v>
+        <v>999</v>
       </c>
       <c r="D29" t="n">
-        <v>4.99</v>
+        <v>5.15</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>335</v>
+        <v>983.5</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-2.91</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>TRIGYN</t>
+          <t>ATLASCYCLE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>72.31</v>
+        <v>102.76</v>
       </c>
       <c r="C30" t="n">
-        <v>75.92</v>
+        <v>108</v>
       </c>
       <c r="D30" t="n">
-        <v>4.99</v>
+        <v>5.1</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>75.59999999999999</v>
+        <v>106</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-0.42</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>RISHABH</t>
+          <t>SARTELE</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>377.9</v>
+        <v>166.45</v>
       </c>
       <c r="C31" t="n">
-        <v>396.75</v>
+        <v>174.9</v>
       </c>
       <c r="D31" t="n">
-        <v>4.99</v>
+        <v>5.08</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>396.75</v>
+        <v>175</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MAXVOLT</t>
+          <t>V2RETAIL</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>400.45</v>
+        <v>2374.5</v>
       </c>
       <c r="C32" t="n">
-        <v>420.45</v>
+        <v>2493.2</v>
       </c>
       <c r="D32" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420</v>
+        <v>2444</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-0.11</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TAKE</t>
+          <t>SHUBHLAXMI</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>27.46</v>
+        <v>17</v>
       </c>
       <c r="C33" t="n">
-        <v>28.83</v>
+        <v>17.85</v>
       </c>
       <c r="D33" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>28.83</v>
+        <v>17.85</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
@@ -1310,49 +1310,49 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NIRAJ</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.34</v>
+        <v>981.1</v>
       </c>
       <c r="C34" t="n">
-        <v>33.95</v>
+        <v>1030.15</v>
       </c>
       <c r="D34" t="n">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>33.34</v>
+        <v>1030.15</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-1.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ALLCARGO</t>
+          <t>WTICAB</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>12.47</v>
+        <v>159.15</v>
       </c>
       <c r="C35" t="n">
-        <v>13.09</v>
+        <v>167.1</v>
       </c>
       <c r="D35" t="n">
-        <v>4.97</v>
+        <v>5</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>13.09</v>
+        <v>167.1</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
@@ -1362,49 +1362,49 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>DRONE</t>
+          <t>SOMATEX</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>87.95</v>
+        <v>132.32</v>
       </c>
       <c r="C36" t="n">
-        <v>92.3</v>
+        <v>138.93</v>
       </c>
       <c r="D36" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>83.59999999999999</v>
+        <v>138.93</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-9.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SUPREMEENG</t>
+          <t>PIGL</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.8100000000000001</v>
+        <v>157.25</v>
       </c>
       <c r="C37" t="n">
-        <v>0.85</v>
+        <v>165.11</v>
       </c>
       <c r="D37" t="n">
-        <v>4.94</v>
+        <v>5</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.85</v>
+        <v>165.11</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
@@ -1414,49 +1414,49 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>EXXARO</t>
+          <t>SWANDEF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>8.93</v>
+        <v>986.75</v>
       </c>
       <c r="C38" t="n">
-        <v>9.369999999999999</v>
+        <v>1036.05</v>
       </c>
       <c r="D38" t="n">
-        <v>4.93</v>
+        <v>5</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>9.09</v>
+        <v>1036.05</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-2.99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAL</t>
+          <t>IZMO</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>50.75</v>
+        <v>860.25</v>
       </c>
       <c r="C39" t="n">
-        <v>53.25</v>
+        <v>903.25</v>
       </c>
       <c r="D39" t="n">
-        <v>4.93</v>
+        <v>5</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>53.25</v>
+        <v>903.25</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
@@ -1466,257 +1466,255 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>KRBL</t>
+          <t>RISHABH</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>379.1</v>
+        <v>396.75</v>
       </c>
       <c r="C40" t="n">
-        <v>397.7</v>
+        <v>416.55</v>
       </c>
       <c r="D40" t="n">
-        <v>4.91</v>
+        <v>4.99</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>402.35</v>
+        <v>401</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>1.17</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NIRAJISPAT</t>
+          <t>EASTSILK</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>209.83</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>220</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>4.85</v>
+        <v>4.99</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>200.4</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-8.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AXISCADES</t>
+          <t>BHARATGEAR</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1483.4</v>
+        <v>108.72</v>
       </c>
       <c r="C42" t="n">
-        <v>1555</v>
+        <v>114.15</v>
       </c>
       <c r="D42" t="n">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1542</v>
+        <v>114.15</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-0.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>K2INFRA</t>
+          <t>INDOTHAI</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55.9</v>
+        <v>402.9</v>
       </c>
       <c r="C43" t="n">
-        <v>58.6</v>
+        <v>423</v>
       </c>
       <c r="D43" t="n">
-        <v>4.83</v>
+        <v>4.99</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>58</v>
+        <v>423</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>MADHUCON</t>
+          <t>LAKPRE</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>7.17</v>
+        <v>5.21</v>
       </c>
       <c r="C44" t="n">
-        <v>7.51</v>
+        <v>5.47</v>
       </c>
       <c r="D44" t="n">
-        <v>4.74</v>
+        <v>4.99</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>6.94</v>
+        <v>0</v>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="n">
-        <v>-7.59</v>
-      </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>VLEGOV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
+        <v>21.29</v>
       </c>
       <c r="C45" t="n">
-        <v>10.47</v>
+        <v>22.35</v>
       </c>
       <c r="D45" t="n">
-        <v>4.7</v>
+        <v>4.98</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>9.84</v>
+        <v>22.35</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-6.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEX</t>
+          <t>RVHL</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1628.7</v>
+        <v>55.59</v>
       </c>
       <c r="C46" t="n">
-        <v>1705</v>
+        <v>58.36</v>
       </c>
       <c r="D46" t="n">
-        <v>4.68</v>
+        <v>4.98</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>1710.1</v>
+        <v>58.36</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INTENTECH</t>
+          <t>ALLCARGO</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>131.37</v>
+        <v>13.09</v>
       </c>
       <c r="C47" t="n">
-        <v>137.5</v>
+        <v>13.74</v>
       </c>
       <c r="D47" t="n">
-        <v>4.67</v>
+        <v>4.97</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>137</v>
+        <v>13.74</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-0.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DCI</t>
+          <t>SUNLITE</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>246.3</v>
+        <v>247.5</v>
       </c>
       <c r="C48" t="n">
-        <v>257.8</v>
+        <v>259.8</v>
       </c>
       <c r="D48" t="n">
-        <v>4.67</v>
+        <v>4.97</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>250.2</v>
+        <v>259.85</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-2.95</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>INFINIUM</t>
+          <t>UWCSL</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>256.15</v>
+        <v>110.95</v>
       </c>
       <c r="C49" t="n">
-        <v>268</v>
+        <v>116.45</v>
       </c>
       <c r="D49" t="n">
-        <v>4.63</v>
+        <v>4.96</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>268</v>
+        <v>116.45</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
@@ -1726,2779 +1724,2779 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GGBL</t>
+          <t>NDLVENTURE</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>443.85</v>
+        <v>85.64</v>
       </c>
       <c r="C50" t="n">
-        <v>464</v>
+        <v>89.89</v>
       </c>
       <c r="D50" t="n">
-        <v>4.54</v>
+        <v>4.96</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>467</v>
+        <v>85.86</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>0.65</v>
+        <v>-4.48</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NAVKARURB</t>
+          <t>TREJHARA</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>1.98</v>
+        <v>245.86</v>
       </c>
       <c r="C51" t="n">
-        <v>2.06</v>
+        <v>258</v>
       </c>
       <c r="D51" t="n">
-        <v>4.04</v>
+        <v>4.94</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.88</v>
+        <v>254</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-8.74</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>VALIANTORG</t>
+          <t>PRAXIS</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>290.3</v>
+        <v>10.98</v>
       </c>
       <c r="C52" t="n">
-        <v>302</v>
+        <v>11.52</v>
       </c>
       <c r="D52" t="n">
-        <v>4.03</v>
+        <v>4.92</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>287.85</v>
+        <v>11.52</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-4.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ALPSINDUS</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1.99</v>
+        <v>51.8</v>
       </c>
       <c r="C53" t="n">
-        <v>2.07</v>
+        <v>54.35</v>
       </c>
       <c r="D53" t="n">
-        <v>4.02</v>
+        <v>4.92</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>2.04</v>
+        <v>54.25</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-1.45</v>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TGBHOTELS</t>
+          <t>SYNOPTICS</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>11.29</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="C54" t="n">
-        <v>11.74</v>
+        <v>76.7</v>
       </c>
       <c r="D54" t="n">
-        <v>3.99</v>
+        <v>4.92</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>11.33</v>
+        <v>76.7</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-3.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UNIINFO</t>
+          <t>LCCINFOTEC</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>16.22</v>
+        <v>4.28</v>
       </c>
       <c r="C55" t="n">
-        <v>16.86</v>
+        <v>4.49</v>
       </c>
       <c r="D55" t="n">
-        <v>3.95</v>
+        <v>4.91</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>16.48</v>
+        <v>4.49</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DHARAN</t>
+          <t>ESFL</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.51</v>
+        <v>233.6</v>
       </c>
       <c r="C56" t="n">
-        <v>0.53</v>
+        <v>244.95</v>
       </c>
       <c r="D56" t="n">
-        <v>3.92</v>
+        <v>4.86</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>0.53</v>
+        <v>237.25</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>GATECHDVR</t>
+          <t>HGM</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.51</v>
+        <v>73.25</v>
       </c>
       <c r="C57" t="n">
-        <v>0.53</v>
+        <v>76.8</v>
       </c>
       <c r="D57" t="n">
-        <v>3.92</v>
+        <v>4.85</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>0.51</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-3.77</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>ARTNIRMAN</t>
+          <t>SPLPETRO</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>52.81</v>
+        <v>645.1</v>
       </c>
       <c r="C58" t="n">
-        <v>54.85</v>
+        <v>676.05</v>
       </c>
       <c r="D58" t="n">
-        <v>3.86</v>
+        <v>4.8</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>54.85</v>
+        <v>652.45</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ATLASCYCLE</t>
+          <t>BCG</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>105.77</v>
+        <v>14.03</v>
       </c>
       <c r="C59" t="n">
-        <v>109.77</v>
+        <v>14.7</v>
       </c>
       <c r="D59" t="n">
-        <v>3.78</v>
+        <v>4.78</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>105.29</v>
+        <v>14.37</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-4.08</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>RACE</t>
+          <t>IRB</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>181.17</v>
+        <v>42.96</v>
       </c>
       <c r="C60" t="n">
-        <v>188</v>
+        <v>45</v>
       </c>
       <c r="D60" t="n">
-        <v>3.77</v>
+        <v>4.75</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>181.26</v>
+        <v>44.85</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-3.59</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>INDOTHAI</t>
+          <t>VIJIFIN</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>383.75</v>
+        <v>2.97</v>
       </c>
       <c r="C61" t="n">
-        <v>397.8</v>
+        <v>3.11</v>
       </c>
       <c r="D61" t="n">
-        <v>3.66</v>
+        <v>4.71</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>395</v>
+        <v>3.06</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-0.7</v>
+        <v>-1.61</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>GICHSGFIN</t>
+          <t>NH</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>165.93</v>
+        <v>1753.5</v>
       </c>
       <c r="C62" t="n">
-        <v>172</v>
+        <v>1835</v>
       </c>
       <c r="D62" t="n">
-        <v>3.66</v>
+        <v>4.65</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>173.98</v>
+        <v>1893</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>1.15</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>TBI</t>
+          <t>UNIPARTS</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>84.90000000000001</v>
+        <v>487.6</v>
       </c>
       <c r="C63" t="n">
-        <v>88</v>
+        <v>510.05</v>
       </c>
       <c r="D63" t="n">
-        <v>3.65</v>
+        <v>4.6</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>93.34999999999999</v>
+        <v>522.95</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>6.08</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GROWW</t>
+          <t>GVPTECH</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>137.69</v>
+        <v>9.17</v>
       </c>
       <c r="C64" t="n">
-        <v>142.7</v>
+        <v>9.59</v>
       </c>
       <c r="D64" t="n">
-        <v>3.64</v>
+        <v>4.58</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>144.69</v>
+        <v>9.26</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>1.39</v>
+        <v>-3.44</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>TREEHOUSE</t>
+          <t>PSRAJ</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>7.18</v>
+        <v>258.3</v>
       </c>
       <c r="C65" t="n">
-        <v>7.44</v>
+        <v>270</v>
       </c>
       <c r="D65" t="n">
-        <v>3.62</v>
+        <v>4.53</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>7.4</v>
+        <v>265</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-0.54</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EFFWA</t>
+          <t>CARRARO</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>249</v>
+        <v>540.85</v>
       </c>
       <c r="C66" t="n">
-        <v>258</v>
+        <v>565</v>
       </c>
       <c r="D66" t="n">
-        <v>3.61</v>
+        <v>4.47</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>253.4</v>
+        <v>547.9</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-1.78</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANONDITA</t>
+          <t>KAPSTON</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>613</v>
+        <v>322.65</v>
       </c>
       <c r="C67" t="n">
-        <v>635</v>
+        <v>337</v>
       </c>
       <c r="D67" t="n">
-        <v>3.59</v>
+        <v>4.45</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>635</v>
+        <v>330.9</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ARIES</t>
+          <t>VALIANTORG</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>362.45</v>
+        <v>286.25</v>
       </c>
       <c r="C68" t="n">
-        <v>375.4</v>
+        <v>298.75</v>
       </c>
       <c r="D68" t="n">
-        <v>3.57</v>
+        <v>4.37</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>380</v>
+        <v>288.35</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>1.23</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>PRAXIS</t>
+          <t>JAYBARMARU</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>11.3</v>
+        <v>91.84</v>
       </c>
       <c r="C69" t="n">
-        <v>11.7</v>
+        <v>95.78</v>
       </c>
       <c r="D69" t="n">
-        <v>3.54</v>
+        <v>4.29</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>11.49</v>
+        <v>93.25</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-1.79</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SURAJEST</t>
+          <t>JAYBEE</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>278.35</v>
+        <v>140.95</v>
       </c>
       <c r="C70" t="n">
-        <v>287.9</v>
+        <v>146.9</v>
       </c>
       <c r="D70" t="n">
-        <v>3.43</v>
+        <v>4.22</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>288.85</v>
+        <v>147</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>0.33</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SRM</t>
+          <t>BORANA</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>579.75</v>
+        <v>272.7</v>
       </c>
       <c r="C71" t="n">
-        <v>599.6</v>
+        <v>284</v>
       </c>
       <c r="D71" t="n">
-        <v>3.42</v>
+        <v>4.14</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>603</v>
+        <v>280.64</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>0.57</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A2ZINFRA</t>
+          <t>ARTNIRMAN</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>17.41</v>
+        <v>53.4</v>
       </c>
       <c r="C72" t="n">
-        <v>18</v>
+        <v>55.6</v>
       </c>
       <c r="D72" t="n">
-        <v>3.39</v>
+        <v>4.12</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>17.41</v>
+        <v>55.49</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-3.28</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>OMKARCHEM</t>
+          <t>MADHUSUDAN</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>5.32</v>
+        <v>113.35</v>
       </c>
       <c r="C73" t="n">
-        <v>5.5</v>
+        <v>117.95</v>
       </c>
       <c r="D73" t="n">
-        <v>3.38</v>
+        <v>4.06</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>5.58</v>
+        <v>117.5</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>1.45</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WORTHPERI</t>
+          <t>MMP</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>150.42</v>
+        <v>264.4</v>
       </c>
       <c r="C74" t="n">
-        <v>155.42</v>
+        <v>274.95</v>
       </c>
       <c r="D74" t="n">
-        <v>3.32</v>
+        <v>3.99</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>151.46</v>
+        <v>268</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-2.55</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RUBICON</t>
+          <t>KRISHNADEF</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>654.35</v>
+        <v>846.25</v>
       </c>
       <c r="C75" t="n">
-        <v>675.95</v>
+        <v>880</v>
       </c>
       <c r="D75" t="n">
-        <v>3.3</v>
+        <v>3.99</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>667</v>
+        <v>854.95</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-1.32</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SHREERAMA</t>
+          <t>LYPSAGEMS</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>53.97</v>
+        <v>5.27</v>
       </c>
       <c r="C76" t="n">
-        <v>55.75</v>
+        <v>5.48</v>
       </c>
       <c r="D76" t="n">
-        <v>3.3</v>
+        <v>3.98</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>56</v>
+        <v>5.39</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>0.45</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KIOCL</t>
+          <t>WANBURY</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>387.45</v>
+        <v>240.5</v>
       </c>
       <c r="C77" t="n">
-        <v>399.85</v>
+        <v>250</v>
       </c>
       <c r="D77" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>393</v>
+        <v>246.8</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-1.71</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>VLEGOV</t>
+          <t>SUPERHOUSE</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>20.28</v>
+        <v>161.33</v>
       </c>
       <c r="C78" t="n">
-        <v>20.9</v>
+        <v>167.7</v>
       </c>
       <c r="D78" t="n">
-        <v>3.06</v>
+        <v>3.95</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>20.49</v>
+        <v>163.65</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-1.96</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>SPAL</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>19.4</v>
+        <v>784.2</v>
       </c>
       <c r="C79" t="n">
-        <v>19.99</v>
+        <v>815</v>
       </c>
       <c r="D79" t="n">
-        <v>3.04</v>
+        <v>3.93</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>19.51</v>
+        <v>868.7</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-2.4</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NINSYS</t>
+          <t>HECPROJECT</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>423.1</v>
+        <v>137.6</v>
       </c>
       <c r="C80" t="n">
-        <v>435.9</v>
+        <v>143</v>
       </c>
       <c r="D80" t="n">
-        <v>3.03</v>
+        <v>3.92</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>431.8</v>
+        <v>140.26</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HARRMALAYA</t>
+          <t>RACLGEAR</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>184.42</v>
+        <v>1102</v>
       </c>
       <c r="C81" t="n">
-        <v>190</v>
+        <v>1144.9</v>
       </c>
       <c r="D81" t="n">
-        <v>3.03</v>
+        <v>3.89</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>186.28</v>
+        <v>1161.6</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-1.96</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ABINFRA</t>
+          <t>TARIL</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>20.17</v>
+        <v>318.2</v>
       </c>
       <c r="C82" t="n">
-        <v>20.78</v>
+        <v>330.55</v>
       </c>
       <c r="D82" t="n">
-        <v>3.02</v>
+        <v>3.88</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>20.37</v>
+        <v>339.6</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-1.97</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>UTTAMSUGAR</t>
+          <t>SAHANA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>237.68</v>
+        <v>1157.1</v>
       </c>
       <c r="C83" t="n">
-        <v>244.8</v>
+        <v>1202</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>3.88</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>241.71</v>
+        <v>1200</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-1.26</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>GLOBALE</t>
+          <t>RKSWAMY</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>12.8</v>
+        <v>127.46</v>
       </c>
       <c r="C84" t="n">
-        <v>13.18</v>
+        <v>132.4</v>
       </c>
       <c r="D84" t="n">
-        <v>2.97</v>
+        <v>3.88</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>13</v>
+        <v>128.95</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-1.37</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RNBDENIMS</t>
+          <t>MAHSCOOTER</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>116.54</v>
+        <v>14337</v>
       </c>
       <c r="C85" t="n">
-        <v>120</v>
+        <v>14887</v>
       </c>
       <c r="D85" t="n">
-        <v>2.97</v>
+        <v>3.84</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>119.41</v>
+        <v>14725</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-0.49</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>IEML</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>115.4</v>
+        <v>137.73</v>
       </c>
       <c r="C86" t="n">
-        <v>118.8</v>
+        <v>143</v>
       </c>
       <c r="D86" t="n">
-        <v>2.95</v>
+        <v>3.83</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>119.4</v>
+        <v>140.1</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>0.51</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NKIND</t>
+          <t>AJAXENGG</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>69</v>
+        <v>626.1</v>
       </c>
       <c r="C87" t="n">
-        <v>71</v>
+        <v>650</v>
       </c>
       <c r="D87" t="n">
-        <v>2.9</v>
+        <v>3.82</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>71</v>
+        <v>673.15</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>3.56</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MUTHOOTCAP</t>
+          <t>EEPL</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>282</v>
+        <v>173.4</v>
       </c>
       <c r="C88" t="n">
-        <v>290</v>
+        <v>180</v>
       </c>
       <c r="D88" t="n">
-        <v>2.84</v>
+        <v>3.81</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>286.85</v>
+        <v>178</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-1.09</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>KSHITIJPOL</t>
+          <t>BASML</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>2.82</v>
+        <v>25.05</v>
       </c>
       <c r="C89" t="n">
-        <v>2.9</v>
+        <v>26</v>
       </c>
       <c r="D89" t="n">
-        <v>2.84</v>
+        <v>3.79</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>2.83</v>
+        <v>26.02</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-2.41</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SUVIDHAA</t>
+          <t>SIGIND</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>3.88</v>
+        <v>57.41</v>
       </c>
       <c r="C90" t="n">
-        <v>3.99</v>
+        <v>59.58</v>
       </c>
       <c r="D90" t="n">
-        <v>2.84</v>
+        <v>3.78</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>3.88</v>
+        <v>59.15</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-2.76</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PEARLPOLY</t>
+          <t>GROWW</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>26.65</v>
+        <v>148.53</v>
       </c>
       <c r="C91" t="n">
-        <v>27.4</v>
+        <v>154.15</v>
       </c>
       <c r="D91" t="n">
-        <v>2.81</v>
+        <v>3.78</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>26.47</v>
+        <v>157.61</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-3.39</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SETCO</t>
+          <t>SETUINFRA</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>17.9</v>
+        <v>0.54</v>
       </c>
       <c r="C92" t="n">
-        <v>18.4</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>2.79</v>
+        <v>3.7</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>17.72</v>
+        <v>0.55</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-3.7</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HONDAPOWER</t>
+          <t>PRECOT</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>2578.5</v>
+        <v>438.9</v>
       </c>
       <c r="C93" t="n">
-        <v>2650</v>
+        <v>455</v>
       </c>
       <c r="D93" t="n">
-        <v>2.77</v>
+        <v>3.67</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>2572</v>
+        <v>444.6</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-2.94</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>UNIVCABLES</t>
+          <t>AARTECH</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>778.55</v>
+        <v>50.64</v>
       </c>
       <c r="C94" t="n">
-        <v>800</v>
+        <v>52.49</v>
       </c>
       <c r="D94" t="n">
-        <v>2.76</v>
+        <v>3.65</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>806.4</v>
+        <v>50.99</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>0.8</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BANG</t>
+          <t>BLUEWATER</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>51.48</v>
+        <v>159.15</v>
       </c>
       <c r="C95" t="n">
-        <v>52.9</v>
+        <v>164.95</v>
       </c>
       <c r="D95" t="n">
-        <v>2.76</v>
+        <v>3.64</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>52.51</v>
+        <v>165</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-0.74</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>BLBLIMITED</t>
+          <t>ANIKINDS</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>16.35</v>
+        <v>73.14</v>
       </c>
       <c r="C96" t="n">
-        <v>16.8</v>
+        <v>75.8</v>
       </c>
       <c r="D96" t="n">
-        <v>2.75</v>
+        <v>3.64</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>16.59</v>
+        <v>74.31</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-1.25</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>PRABHA</t>
+          <t>SIKKO</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>207.28</v>
+        <v>107.97</v>
       </c>
       <c r="C97" t="n">
-        <v>212.9</v>
+        <v>111.88</v>
       </c>
       <c r="D97" t="n">
-        <v>2.71</v>
+        <v>3.62</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>206.1</v>
+        <v>110.1</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-3.19</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EMAMIPAP</t>
+          <t>ADROITINFO</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>94.45</v>
+        <v>11.06</v>
       </c>
       <c r="C98" t="n">
-        <v>97</v>
+        <v>11.46</v>
       </c>
       <c r="D98" t="n">
-        <v>2.7</v>
+        <v>3.62</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>94.51000000000001</v>
+        <v>11.22</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-2.57</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>KNAGRI</t>
+          <t>INNOMET</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>218.25</v>
+        <v>124</v>
       </c>
       <c r="C99" t="n">
-        <v>224</v>
+        <v>128.45</v>
       </c>
       <c r="D99" t="n">
-        <v>2.63</v>
+        <v>3.59</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>221</v>
+        <v>130.15</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-1.34</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RKEC</t>
+          <t>NAGREEKEXP</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>63.08</v>
+        <v>27.5</v>
       </c>
       <c r="C100" t="n">
-        <v>64.73</v>
+        <v>28.48</v>
       </c>
       <c r="D100" t="n">
-        <v>2.62</v>
+        <v>3.56</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>63.96</v>
+        <v>28</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-1.19</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>DELTACORP</t>
+          <t>RAJESHEXPO</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>71.84</v>
+        <v>187.33</v>
       </c>
       <c r="C101" t="n">
-        <v>73.7</v>
+        <v>194</v>
       </c>
       <c r="D101" t="n">
-        <v>2.59</v>
+        <v>3.56</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>71.91</v>
+        <v>193.6</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-2.43</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MANORG</t>
+          <t>MAXVOLT</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>541.05</v>
+        <v>408.5</v>
       </c>
       <c r="C102" t="n">
-        <v>555</v>
+        <v>423</v>
       </c>
       <c r="D102" t="n">
-        <v>2.58</v>
+        <v>3.55</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>539.85</v>
+        <v>428.9</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-2.73</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DONEAR</t>
+          <t>JNKINDIA</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>100.17</v>
+        <v>283.75</v>
       </c>
       <c r="C103" t="n">
-        <v>102.69</v>
+        <v>293.75</v>
       </c>
       <c r="D103" t="n">
-        <v>2.52</v>
+        <v>3.52</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>102.3</v>
+        <v>290.4</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-0.38</v>
+        <v>-1.14</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CSLFINANCE</t>
+          <t>TRUALT</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>272.15</v>
+        <v>457.9</v>
       </c>
       <c r="C104" t="n">
-        <v>279</v>
+        <v>473.95</v>
       </c>
       <c r="D104" t="n">
-        <v>2.52</v>
+        <v>3.51</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>284.6</v>
+        <v>477.25</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>2.01</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DCMNVL</t>
+          <t>AUSOMENT</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>139.01</v>
+        <v>100.5</v>
       </c>
       <c r="C105" t="n">
-        <v>142.5</v>
+        <v>104</v>
       </c>
       <c r="D105" t="n">
-        <v>2.51</v>
+        <v>3.48</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>138.92</v>
+        <v>103.5</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-2.51</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>BANARBEADS</t>
+          <t>DHARIWAL</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>136.29</v>
+        <v>307.3</v>
       </c>
       <c r="C106" t="n">
-        <v>139.7</v>
+        <v>318</v>
       </c>
       <c r="D106" t="n">
-        <v>2.5</v>
+        <v>3.48</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>137</v>
+        <v>315.85</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-1.93</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ZENITHEXPO</t>
+          <t>AXISCADES</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>230.56</v>
+        <v>1557.5</v>
       </c>
       <c r="C107" t="n">
-        <v>236.32</v>
+        <v>1611</v>
       </c>
       <c r="D107" t="n">
-        <v>2.5</v>
+        <v>3.43</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>230.56</v>
+        <v>1593.5</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-2.44</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HAVISHA</t>
+          <t>UNIVCABLES</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>2.01</v>
+        <v>860.5</v>
       </c>
       <c r="C108" t="n">
-        <v>2.06</v>
+        <v>889.9</v>
       </c>
       <c r="D108" t="n">
-        <v>2.49</v>
+        <v>3.42</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>2.05</v>
+        <v>888.1</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-0.49</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>RUBYMILLS</t>
+          <t>IFGLEXPOR</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>221.48</v>
+        <v>234.02</v>
       </c>
       <c r="C109" t="n">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="D109" t="n">
-        <v>2.49</v>
+        <v>3.41</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>228.67</v>
+        <v>232.1</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>0.74</v>
+        <v>-4.09</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MOLDTECH</t>
+          <t>TRIGYN</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>176.65</v>
+        <v>75.92</v>
       </c>
       <c r="C110" t="n">
-        <v>181</v>
+        <v>78.5</v>
       </c>
       <c r="D110" t="n">
-        <v>2.46</v>
+        <v>3.4</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>175.18</v>
+        <v>76.08</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-3.22</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SADBHAV</t>
+          <t>GUJAPOLLO</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>11.37</v>
+        <v>462.25</v>
       </c>
       <c r="C111" t="n">
-        <v>11.65</v>
+        <v>477.9</v>
       </c>
       <c r="D111" t="n">
-        <v>2.46</v>
+        <v>3.39</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>11.42</v>
+        <v>479.45</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-1.97</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>INDTERRAIN</t>
+          <t>DHRUV</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>39.06</v>
+        <v>50.97</v>
       </c>
       <c r="C112" t="n">
-        <v>40</v>
+        <v>52.7</v>
       </c>
       <c r="D112" t="n">
-        <v>2.41</v>
+        <v>3.39</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>39.5</v>
+        <v>50.32</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-1.25</v>
+        <v>-4.52</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>INFLUX</t>
+          <t>NITIRAJ</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>198.05</v>
+        <v>200.36</v>
       </c>
       <c r="C113" t="n">
-        <v>202.8</v>
+        <v>207.06</v>
       </c>
       <c r="D113" t="n">
-        <v>2.4</v>
+        <v>3.34</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>198.05</v>
+        <v>213.21</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-2.34</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PRECOT</t>
+          <t>JHS</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>453.85</v>
+        <v>12.34</v>
       </c>
       <c r="C114" t="n">
-        <v>464.7</v>
+        <v>12.74</v>
       </c>
       <c r="D114" t="n">
-        <v>2.39</v>
+        <v>3.24</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>468</v>
+        <v>12.5</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>0.71</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MATRIMONY</t>
+          <t>TRU</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>502.7</v>
+        <v>9.35</v>
       </c>
       <c r="C115" t="n">
-        <v>514.6</v>
+        <v>9.65</v>
       </c>
       <c r="D115" t="n">
-        <v>2.37</v>
+        <v>3.21</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>501.15</v>
+        <v>9.57</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-2.61</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>PREMIER</t>
+          <t>EMMBI</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>3.41</v>
+        <v>111.06</v>
       </c>
       <c r="C116" t="n">
-        <v>3.49</v>
+        <v>114.6</v>
       </c>
       <c r="D116" t="n">
-        <v>2.35</v>
+        <v>3.19</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>3.49</v>
+        <v>114.5</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AJOONI</t>
+          <t>CALSOFT</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>5.1</v>
+        <v>16.78</v>
       </c>
       <c r="C117" t="n">
-        <v>5.22</v>
+        <v>17.3</v>
       </c>
       <c r="D117" t="n">
-        <v>2.35</v>
+        <v>3.1</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>5.19</v>
+        <v>16.87</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-0.57</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FILATFASH</t>
+          <t>BEWLTD</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>0.44</v>
+        <v>135.5</v>
       </c>
       <c r="C118" t="n">
-        <v>0.45</v>
+        <v>139.7</v>
       </c>
       <c r="D118" t="n">
-        <v>2.27</v>
+        <v>3.1</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>0.44</v>
+        <v>139</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-2.22</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>GMRAIRPORT</t>
+          <t>JAYSREETEA</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>95.48999999999999</v>
+        <v>95</v>
       </c>
       <c r="C119" t="n">
-        <v>97.65000000000001</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>2.26</v>
+        <v>3.05</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>97.29000000000001</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-0.37</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MACPOWER</t>
+          <t>IEML-RE</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>860.75</v>
+        <v>21.35</v>
       </c>
       <c r="C120" t="n">
-        <v>880</v>
+        <v>22</v>
       </c>
       <c r="D120" t="n">
-        <v>2.24</v>
+        <v>3.04</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>865.15</v>
+        <v>17.1</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-1.69</v>
+        <v>-22.27</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FAIRCHEMOR</t>
+          <t>VALIANTLAB</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>643.5</v>
+        <v>79.58</v>
       </c>
       <c r="C121" t="n">
-        <v>657.8</v>
+        <v>82</v>
       </c>
       <c r="D121" t="n">
-        <v>2.22</v>
+        <v>3.04</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>636.95</v>
+        <v>80.11</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-3.17</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NATHBIOGEN</t>
+          <t>SRPL</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>165.13</v>
+        <v>0.66</v>
       </c>
       <c r="C122" t="n">
-        <v>168.8</v>
+        <v>0.68</v>
       </c>
       <c r="D122" t="n">
-        <v>2.22</v>
+        <v>3.03</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>168.51</v>
+        <v>0.67</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-0.17</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AHLADA</t>
+          <t>PIRAMALFIN</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>56.64</v>
+        <v>1490.2</v>
       </c>
       <c r="C123" t="n">
-        <v>57.89</v>
+        <v>1535</v>
       </c>
       <c r="D123" t="n">
-        <v>2.21</v>
+        <v>3.01</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>57.3</v>
+        <v>1535</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>INDOWIND</t>
+          <t>KOTHARIPRO</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>16.58</v>
+        <v>84.70999999999999</v>
       </c>
       <c r="C124" t="n">
-        <v>16.94</v>
+        <v>87.25</v>
       </c>
       <c r="D124" t="n">
-        <v>2.17</v>
+        <v>3</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>16.73</v>
+        <v>85.52</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-1.24</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>RAMASTEEL</t>
+          <t>UNIVASTU</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>10.67</v>
+        <v>68.94</v>
       </c>
       <c r="C125" t="n">
-        <v>10.9</v>
+        <v>71</v>
       </c>
       <c r="D125" t="n">
-        <v>2.16</v>
+        <v>2.99</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>10.62</v>
+        <v>70.44</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-2.57</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SANDHAR</t>
+          <t>HARRMALAYA</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>553.15</v>
+        <v>185.16</v>
       </c>
       <c r="C126" t="n">
-        <v>565</v>
+        <v>190.7</v>
       </c>
       <c r="D126" t="n">
-        <v>2.14</v>
+        <v>2.99</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>565</v>
+        <v>187</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CUBEXTUB</t>
+          <t>SREEL</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>91</v>
+        <v>221.86</v>
       </c>
       <c r="C127" t="n">
-        <v>92.95</v>
+        <v>228.5</v>
       </c>
       <c r="D127" t="n">
-        <v>2.14</v>
+        <v>2.99</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>91.89</v>
+        <v>235.95</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-1.14</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>AVPINFRA</t>
+          <t>BIOFILCHEM</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>167.85</v>
+        <v>39.23</v>
       </c>
       <c r="C128" t="n">
-        <v>171.4</v>
+        <v>40.4</v>
       </c>
       <c r="D128" t="n">
-        <v>2.11</v>
+        <v>2.98</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>167.5</v>
+        <v>40.2</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-2.28</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>RPPL</t>
+          <t>NRL</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>19.43</v>
+        <v>66.04000000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>19.84</v>
+        <v>68</v>
       </c>
       <c r="D129" t="n">
-        <v>2.11</v>
+        <v>2.97</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>19.5</v>
+        <v>67</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-1.71</v>
+        <v>-1.47</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>MODIS</t>
+          <t>FOODSIN</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>380.95</v>
+        <v>78.45</v>
       </c>
       <c r="C130" t="n">
-        <v>389</v>
+        <v>80.7</v>
       </c>
       <c r="D130" t="n">
-        <v>2.11</v>
+        <v>2.87</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>404.8</v>
+        <v>80.5</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>4.06</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SIGMA</t>
+          <t>DRCSYSTEMS</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>52.34</v>
+        <v>18.8</v>
       </c>
       <c r="C131" t="n">
-        <v>53.44</v>
+        <v>19.34</v>
       </c>
       <c r="D131" t="n">
-        <v>2.1</v>
+        <v>2.87</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>52.97</v>
+        <v>19.18</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-0.88</v>
+        <v>-0.83</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>GANGAFORGE</t>
+          <t>TREEHOUSE</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>3.34</v>
+        <v>7.33</v>
       </c>
       <c r="C132" t="n">
-        <v>3.41</v>
+        <v>7.54</v>
       </c>
       <c r="D132" t="n">
-        <v>2.1</v>
+        <v>2.86</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>3.41</v>
+        <v>7.5</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SONAMLTD</t>
+          <t>ENERGYDEV</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>40.15</v>
+        <v>19.21</v>
       </c>
       <c r="C133" t="n">
-        <v>40.98</v>
+        <v>19.76</v>
       </c>
       <c r="D133" t="n">
-        <v>2.07</v>
+        <v>2.86</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>40.45</v>
+        <v>21.7</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-1.29</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>LIBAS</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>125.4</v>
+        <v>11.56</v>
       </c>
       <c r="C134" t="n">
-        <v>127.99</v>
+        <v>11.89</v>
       </c>
       <c r="D134" t="n">
-        <v>2.07</v>
+        <v>2.85</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>125.6</v>
+        <v>11.42</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-1.87</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>RUPA</t>
+          <t>FELIX</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>196.45</v>
+        <v>178.85</v>
       </c>
       <c r="C135" t="n">
-        <v>200.5</v>
+        <v>183.85</v>
       </c>
       <c r="D135" t="n">
-        <v>2.06</v>
+        <v>2.8</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>196.32</v>
+        <v>185.9</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-2.08</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>NOIDATOLL</t>
+          <t>INOXGREEN</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>4.4</v>
+        <v>253</v>
       </c>
       <c r="C136" t="n">
-        <v>4.49</v>
+        <v>259.95</v>
       </c>
       <c r="D136" t="n">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>4.37</v>
+        <v>253.75</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-2.67</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SHYAMTEL</t>
+          <t>VGINFOTECH</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>11.78</v>
+        <v>158.15</v>
       </c>
       <c r="C137" t="n">
-        <v>12.02</v>
+        <v>162.5</v>
       </c>
       <c r="D137" t="n">
-        <v>2.04</v>
+        <v>2.75</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>12.18</v>
+        <v>165</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>LGHL</t>
+          <t>ROSSELLIND</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>281.25</v>
+        <v>60</v>
       </c>
       <c r="C138" t="n">
-        <v>287</v>
+        <v>61.64</v>
       </c>
       <c r="D138" t="n">
-        <v>2.04</v>
+        <v>2.73</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>276.75</v>
+        <v>63.93</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-3.57</v>
+        <v>3.72</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SAURASHCEM</t>
+          <t>SPLIL</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>98.01000000000001</v>
+        <v>38.93</v>
       </c>
       <c r="C139" t="n">
-        <v>99.98999999999999</v>
+        <v>39.98</v>
       </c>
       <c r="D139" t="n">
-        <v>2.02</v>
+        <v>2.7</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>98</v>
+        <v>39.49</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-1.99</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>BRNL</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>1</v>
+        <v>25.31</v>
       </c>
       <c r="C140" t="n">
-        <v>1.02</v>
+        <v>25.99</v>
       </c>
       <c r="D140" t="n">
-        <v>2</v>
+        <v>2.69</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>1.02</v>
+        <v>26.11</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>IEML</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>109.13</v>
+        <v>118.75</v>
       </c>
       <c r="C141" t="n">
-        <v>111.31</v>
+        <v>121.95</v>
       </c>
       <c r="D141" t="n">
-        <v>2</v>
+        <v>2.69</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>0.62</v>
+        <v>-3.24</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>JINDALPHOT</t>
+          <t>PLAZACABLE</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>1378.6</v>
+        <v>44.21</v>
       </c>
       <c r="C142" t="n">
-        <v>1406</v>
+        <v>45.4</v>
       </c>
       <c r="D142" t="n">
-        <v>1.99</v>
+        <v>2.69</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>1395</v>
+        <v>44.69</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-0.78</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RAJRILTD</t>
+          <t>MASTEK</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>25.25</v>
+        <v>2235</v>
       </c>
       <c r="C143" t="n">
-        <v>25.75</v>
+        <v>2295</v>
       </c>
       <c r="D143" t="n">
-        <v>1.98</v>
+        <v>2.68</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>25.75</v>
+        <v>2353</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>NILASPACES</t>
+          <t>DCMNVL</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>16.17</v>
+        <v>141.28</v>
       </c>
       <c r="C144" t="n">
-        <v>16.49</v>
+        <v>145</v>
       </c>
       <c r="D144" t="n">
-        <v>1.98</v>
+        <v>2.63</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>16.65</v>
+        <v>135.98</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>0.97</v>
+        <v>-6.22</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>WSI</t>
+          <t>RNBDENIMS</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>85.8</v>
+        <v>120.84</v>
       </c>
       <c r="C145" t="n">
-        <v>87.5</v>
+        <v>124</v>
       </c>
       <c r="D145" t="n">
-        <v>1.98</v>
+        <v>2.62</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>87</v>
+        <v>122.4</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-0.57</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SUTLEJTEX</t>
+          <t>THYROCARE</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>34.52</v>
+        <v>1564</v>
       </c>
       <c r="C146" t="n">
-        <v>35.2</v>
+        <v>1605</v>
       </c>
       <c r="D146" t="n">
-        <v>1.97</v>
+        <v>2.62</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>35.02</v>
+        <v>1580.6</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-0.51</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AKSHOPTFBR</t>
+          <t>DANGEE</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>7.14</v>
+        <v>3.89</v>
       </c>
       <c r="C147" t="n">
-        <v>7.28</v>
+        <v>3.99</v>
       </c>
       <c r="D147" t="n">
-        <v>1.96</v>
+        <v>2.57</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>7.2</v>
+        <v>3.95</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MONTECARLO</t>
+          <t>ORIENTALTL</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>768.95</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>783.9</v>
+        <v>9.69</v>
       </c>
       <c r="D148" t="n">
-        <v>1.94</v>
+        <v>2.54</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>771.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-1.57</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ROSSELLIND</t>
+          <t>IPHL</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>60.57</v>
+        <v>62.9</v>
       </c>
       <c r="C149" t="n">
-        <v>61.74</v>
+        <v>64.5</v>
       </c>
       <c r="D149" t="n">
-        <v>1.93</v>
+        <v>2.54</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>61.49</v>
+        <v>57.25</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-0.4</v>
+        <v>-11.24</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>CEWATER</t>
+          <t>EPACKPEB</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>423.8</v>
+        <v>327.55</v>
       </c>
       <c r="C150" t="n">
-        <v>431.9</v>
+        <v>335.85</v>
       </c>
       <c r="D150" t="n">
-        <v>1.91</v>
+        <v>2.53</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>425</v>
+        <v>329.35</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-1.6</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AIRAN</t>
+          <t>AKI</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>22.09</v>
+        <v>8</v>
       </c>
       <c r="C151" t="n">
-        <v>22.51</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="D151" t="n">
-        <v>1.9</v>
+        <v>2.5</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-2.27</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SHIVALIK</t>
+          <t>XELPMOC</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>441.7</v>
+        <v>134.54</v>
       </c>
       <c r="C152" t="n">
-        <v>450</v>
+        <v>137.9</v>
       </c>
       <c r="D152" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>440</v>
+        <v>135.8</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-2.22</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>AEROENTER</t>
+          <t>DJML</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>90.31999999999999</v>
+        <v>73.18000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D153" t="n">
-        <v>1.86</v>
+        <v>2.49</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>91.03</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-1.05</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ABCOTS</t>
+          <t>TBZ</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>410.3</v>
+        <v>190.27</v>
       </c>
       <c r="C154" t="n">
-        <v>417.95</v>
+        <v>195</v>
       </c>
       <c r="D154" t="n">
-        <v>1.86</v>
+        <v>2.49</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>415.6</v>
+        <v>192.5</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>EBGNG</t>
+          <t>SAHYADRI</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>336.5</v>
+        <v>255.7</v>
       </c>
       <c r="C155" t="n">
-        <v>342.75</v>
+        <v>262</v>
       </c>
       <c r="D155" t="n">
-        <v>1.86</v>
+        <v>2.46</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>338.6</v>
+        <v>260.5</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-1.21</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>NUVOCO</t>
+          <t>DONEAR</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>370.8</v>
+        <v>102.44</v>
       </c>
       <c r="C156" t="n">
-        <v>377.65</v>
+        <v>104.95</v>
       </c>
       <c r="D156" t="n">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>370.35</v>
+        <v>102.92</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
@@ -4508,1167 +4506,1167 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SHRENIK</t>
+          <t>PATINTLOG</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>0.54</v>
+        <v>13.9</v>
       </c>
       <c r="C157" t="n">
-        <v>0.55</v>
+        <v>14.24</v>
       </c>
       <c r="D157" t="n">
-        <v>1.85</v>
+        <v>2.45</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>0.55</v>
+        <v>13.95</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HECPROJECT</t>
+          <t>RAMRAT</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>143.35</v>
+        <v>634.55</v>
       </c>
       <c r="C158" t="n">
-        <v>146</v>
+        <v>650</v>
       </c>
       <c r="D158" t="n">
-        <v>1.85</v>
+        <v>2.43</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>143.57</v>
+        <v>635.2</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-1.66</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>GKENERGY</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>53.67</v>
+        <v>198.45</v>
       </c>
       <c r="C159" t="n">
-        <v>54.65</v>
+        <v>203.25</v>
       </c>
       <c r="D159" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>53.87</v>
+        <v>202.31</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-1.43</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MCL</t>
+          <t>RAMANEWS</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>48.11</v>
+        <v>29.29</v>
       </c>
       <c r="C160" t="n">
-        <v>48.99</v>
+        <v>30</v>
       </c>
       <c r="D160" t="n">
-        <v>1.83</v>
+        <v>2.42</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>48.68</v>
+        <v>29.93</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-0.63</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SPCENET</t>
+          <t>ELECTHERM</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>8.73</v>
+        <v>898.55</v>
       </c>
       <c r="C161" t="n">
-        <v>8.890000000000001</v>
+        <v>920</v>
       </c>
       <c r="D161" t="n">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>8.789999999999999</v>
+        <v>892.05</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-1.12</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DIGIDRIVE</t>
+          <t>VINDHYATEL</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>28.48</v>
+        <v>1572.4</v>
       </c>
       <c r="C162" t="n">
-        <v>29</v>
+        <v>1610</v>
       </c>
       <c r="D162" t="n">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>28.98</v>
+        <v>1581.6</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BALAJEE</t>
+          <t>ADOR</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>41.1</v>
+        <v>1074.4</v>
       </c>
       <c r="C163" t="n">
-        <v>41.85</v>
+        <v>1100</v>
       </c>
       <c r="D163" t="n">
-        <v>1.82</v>
+        <v>2.38</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>41.17</v>
+        <v>1079.9</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-1.62</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LIBERTSHOE</t>
+          <t>MUFIN</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>311.15</v>
+        <v>108.85</v>
       </c>
       <c r="C164" t="n">
-        <v>316.8</v>
+        <v>111.44</v>
       </c>
       <c r="D164" t="n">
-        <v>1.82</v>
+        <v>2.38</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>310.35</v>
+        <v>110.37</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>-2.04</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NELCAST</t>
+          <t>SITINET</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>110</v>
+        <v>0.42</v>
       </c>
       <c r="C165" t="n">
-        <v>111.99</v>
+        <v>0.43</v>
       </c>
       <c r="D165" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>109.79</v>
+        <v>0.43</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-1.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SANOFICONR</t>
+          <t>MORARJEE</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4984.8</v>
+        <v>7.99</v>
       </c>
       <c r="C166" t="n">
-        <v>5075</v>
+        <v>8.18</v>
       </c>
       <c r="D166" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>4926.1</v>
+        <v>8</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-2.93</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>IFGLEXPOR</t>
+          <t>DNAMEDIA</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>230.85</v>
+        <v>4.22</v>
       </c>
       <c r="C167" t="n">
-        <v>235</v>
+        <v>4.32</v>
       </c>
       <c r="D167" t="n">
-        <v>1.8</v>
+        <v>2.37</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>243.1</v>
+        <v>4.26</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>3.45</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>VIPULLTD</t>
+          <t>SAMBHAAV</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>9.449999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="C168" t="n">
-        <v>9.619999999999999</v>
+        <v>9.09</v>
       </c>
       <c r="D168" t="n">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>9.4</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-2.29</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>VSTL</t>
+          <t>INDIANCARD</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>137.53</v>
+        <v>256.8</v>
       </c>
       <c r="C169" t="n">
-        <v>139.98</v>
+        <v>262.8</v>
       </c>
       <c r="D169" t="n">
-        <v>1.78</v>
+        <v>2.34</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>138.01</v>
+        <v>261</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-1.41</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CEREBRAINT</t>
+          <t>SOLEX</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>8.539999999999999</v>
+        <v>1710.1</v>
       </c>
       <c r="C170" t="n">
-        <v>8.69</v>
+        <v>1750</v>
       </c>
       <c r="D170" t="n">
-        <v>1.76</v>
+        <v>2.33</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>8.75</v>
+        <v>1701.2</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>0.6899999999999999</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AFIL</t>
+          <t>BTML</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>7.46</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="C171" t="n">
-        <v>7.59</v>
+        <v>9.34</v>
       </c>
       <c r="D171" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>7.59</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>PDMJEPAPER</t>
+          <t>TBI</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>106.16</v>
+        <v>93.34999999999999</v>
       </c>
       <c r="C172" t="n">
-        <v>108</v>
+        <v>95.5</v>
       </c>
       <c r="D172" t="n">
-        <v>1.73</v>
+        <v>2.3</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>106.97</v>
+        <v>94.40000000000001</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-0.95</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>STEL</t>
+          <t>MANAKSTEEL</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>447.35</v>
+        <v>63.54</v>
       </c>
       <c r="C173" t="n">
-        <v>455</v>
+        <v>65</v>
       </c>
       <c r="D173" t="n">
-        <v>1.71</v>
+        <v>2.3</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>448.85</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-1.35</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>KRITI</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>99.31</v>
+        <v>123.95</v>
       </c>
       <c r="C174" t="n">
-        <v>101</v>
+        <v>126.8</v>
       </c>
       <c r="D174" t="n">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>100.89</v>
+        <v>120.03</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-0.11</v>
+        <v>-5.34</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AVONMORE</t>
+          <t>ONELIFECAP</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>17.21</v>
+        <v>13.53</v>
       </c>
       <c r="C175" t="n">
-        <v>17.5</v>
+        <v>13.84</v>
       </c>
       <c r="D175" t="n">
-        <v>1.69</v>
+        <v>2.29</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>17.67</v>
+        <v>13.56</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>0.97</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SUKHJITS</t>
+          <t>GEEKAYWIRE</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>157.39</v>
+        <v>32.21</v>
       </c>
       <c r="C176" t="n">
-        <v>160</v>
+        <v>32.94</v>
       </c>
       <c r="D176" t="n">
-        <v>1.66</v>
+        <v>2.27</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>156.65</v>
+        <v>32.81</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-2.09</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>NGLFINE</t>
+          <t>FILATFASH</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1426.3</v>
+        <v>0.44</v>
       </c>
       <c r="C177" t="n">
-        <v>1449.8</v>
+        <v>0.45</v>
       </c>
       <c r="D177" t="n">
-        <v>1.65</v>
+        <v>2.27</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1440</v>
+        <v>0.45</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ANANTAM</t>
+          <t>MANCREDIT</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>105.37</v>
+        <v>177.98</v>
       </c>
       <c r="C178" t="n">
-        <v>107.1</v>
+        <v>181.99</v>
       </c>
       <c r="D178" t="n">
-        <v>1.64</v>
+        <v>2.25</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>105.2</v>
+        <v>177.48</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-1.77</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>SJLOGISTIC</t>
+          <t>ZOTA</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>398.45</v>
+        <v>1597.1</v>
       </c>
       <c r="C179" t="n">
-        <v>405</v>
+        <v>1633</v>
       </c>
       <c r="D179" t="n">
-        <v>1.64</v>
+        <v>2.25</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>389</v>
+        <v>1610.4</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-3.95</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MVGJL</t>
+          <t>PARSVNATH</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>198.74</v>
+        <v>15.14</v>
       </c>
       <c r="C180" t="n">
-        <v>202</v>
+        <v>15.48</v>
       </c>
       <c r="D180" t="n">
-        <v>1.64</v>
+        <v>2.25</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>197.03</v>
+        <v>15.26</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-2.46</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>TIJARIA</t>
+          <t>FABTECH</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>6.15</v>
+        <v>246.48</v>
       </c>
       <c r="C181" t="n">
-        <v>6.25</v>
+        <v>252</v>
       </c>
       <c r="D181" t="n">
-        <v>1.63</v>
+        <v>2.24</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>6.29</v>
+        <v>251.44</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>0.64</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RAMANEWS</t>
+          <t>MODIRUBBER</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>29.02</v>
+        <v>116.81</v>
       </c>
       <c r="C182" t="n">
-        <v>29.49</v>
+        <v>119.4</v>
       </c>
       <c r="D182" t="n">
-        <v>1.62</v>
+        <v>2.22</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>28.97</v>
+        <v>116.4</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-1.76</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ABSMARINE</t>
+          <t>DALMIASUG</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>244.05</v>
+        <v>316.8</v>
       </c>
       <c r="C183" t="n">
-        <v>248</v>
+        <v>323.8</v>
       </c>
       <c r="D183" t="n">
-        <v>1.62</v>
+        <v>2.21</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>244</v>
+        <v>323.7</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-1.61</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>HINDOILEXP</t>
+          <t>XTGLOBAL</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>146.94</v>
+        <v>39.02</v>
       </c>
       <c r="C184" t="n">
-        <v>149.3</v>
+        <v>39.88</v>
       </c>
       <c r="D184" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>146.85</v>
+        <v>39.73</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-1.64</v>
+        <v>-0.38</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SUPREMEPWR</t>
+          <t>SRM</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>207.65</v>
+        <v>634.1</v>
       </c>
       <c r="C185" t="n">
-        <v>211</v>
+        <v>648.05</v>
       </c>
       <c r="D185" t="n">
-        <v>1.61</v>
+        <v>2.2</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
-      <c r="F185" t="inlineStr"/>
+      <c r="F185" t="n">
+        <v>640.4</v>
+      </c>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
+      <c r="H185" t="n">
+        <v>-1.18</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>WIPL</t>
+          <t>INDSWFTLAB</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>153.55</v>
+        <v>103.75</v>
       </c>
       <c r="C186" t="n">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="D186" t="n">
-        <v>1.6</v>
+        <v>2.17</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>160</v>
+        <v>103.49</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>2.56</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>DAVANGERE</t>
+          <t>SHEMAROO</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3.74</v>
+        <v>111.56</v>
       </c>
       <c r="C187" t="n">
-        <v>3.8</v>
+        <v>113.98</v>
       </c>
       <c r="D187" t="n">
-        <v>1.6</v>
+        <v>2.17</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>3.76</v>
+        <v>111.49</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-1.05</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>DIVGIITTS</t>
+          <t>MAHAPEXLTD</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>643.75</v>
+        <v>92.95</v>
       </c>
       <c r="C188" t="n">
-        <v>654</v>
+        <v>94.95999999999999</v>
       </c>
       <c r="D188" t="n">
-        <v>1.59</v>
+        <v>2.16</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>646.95</v>
+        <v>91.5</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-1.08</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SHEKHAWATI</t>
+          <t>INFOMEDIA</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>19.51</v>
+        <v>7</v>
       </c>
       <c r="C189" t="n">
-        <v>19.82</v>
+        <v>7.15</v>
       </c>
       <c r="D189" t="n">
-        <v>1.59</v>
+        <v>2.14</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>19.96</v>
+        <v>7.34</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>0.71</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HITECHCORP</t>
+          <t>ARSSBL</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>187.92</v>
+        <v>733.4</v>
       </c>
       <c r="C190" t="n">
-        <v>190.9</v>
+        <v>749</v>
       </c>
       <c r="D190" t="n">
-        <v>1.59</v>
+        <v>2.13</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>189.02</v>
+        <v>759.6</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-0.98</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MAGADSUGAR</t>
+          <t>NAHARINDUS</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>501.05</v>
+        <v>110.55</v>
       </c>
       <c r="C191" t="n">
-        <v>509</v>
+        <v>112.86</v>
       </c>
       <c r="D191" t="n">
-        <v>1.59</v>
+        <v>2.09</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>503.7</v>
+        <v>113</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-1.04</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>ADVANIHOTR</t>
+          <t>VSTL</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>56.5</v>
+        <v>137.14</v>
       </c>
       <c r="C192" t="n">
-        <v>57.39</v>
+        <v>140</v>
       </c>
       <c r="D192" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>56.68</v>
+        <v>139.62</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-1.24</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>INNOVANA</t>
+          <t>RAYMONDREL</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>481.45</v>
+        <v>542.75</v>
       </c>
       <c r="C193" t="n">
-        <v>489</v>
+        <v>554</v>
       </c>
       <c r="D193" t="n">
-        <v>1.57</v>
+        <v>2.07</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>481.8</v>
+        <v>536.15</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-1.47</v>
+        <v>-3.22</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>CPCAP</t>
+          <t>BAJEL</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>116.08</v>
+        <v>191.03</v>
       </c>
       <c r="C194" t="n">
-        <v>117.9</v>
+        <v>194.99</v>
       </c>
       <c r="D194" t="n">
-        <v>1.57</v>
+        <v>2.07</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>116</v>
+        <v>189</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-1.61</v>
+        <v>-3.07</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>SHRADHA</t>
+          <t>PROSTARM</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>42.34</v>
+        <v>161.65</v>
       </c>
       <c r="C195" t="n">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="D195" t="n">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>42.98</v>
+        <v>156.31</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-0.05</v>
+        <v>-5.27</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>INFIBEAM</t>
+          <t>GMRP&amp;UI</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>19.2</v>
+        <v>120.41</v>
       </c>
       <c r="C196" t="n">
-        <v>19.5</v>
+        <v>122.9</v>
       </c>
       <c r="D196" t="n">
-        <v>1.56</v>
+        <v>2.07</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
-      <c r="F196" t="n">
-        <v>19.28</v>
-      </c>
+      <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="n">
-        <v>-1.13</v>
-      </c>
+      <c r="H196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AVROIND</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>124.49</v>
+        <v>53.3</v>
       </c>
       <c r="C197" t="n">
-        <v>126.4</v>
+        <v>54.4</v>
       </c>
       <c r="D197" t="n">
-        <v>1.53</v>
+        <v>2.06</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>125.41</v>
+        <v>54.45</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-0.78</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CORALFINAC</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>42.16</v>
+        <v>219.49</v>
       </c>
       <c r="C198" t="n">
-        <v>42.8</v>
+        <v>224</v>
       </c>
       <c r="D198" t="n">
-        <v>1.52</v>
+        <v>2.05</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>42.4</v>
+        <v>216.99</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-0.93</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>INSPIRISYS</t>
+          <t>ZEELEARN</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>104.01</v>
+        <v>7.84</v>
       </c>
       <c r="C199" t="n">
-        <v>105.59</v>
+        <v>8</v>
       </c>
       <c r="D199" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>104.79</v>
+        <v>7.9</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-0.76</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>BLUSPRING</t>
+          <t>ACCPL</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>78.31</v>
+        <v>68.5</v>
       </c>
       <c r="C200" t="n">
-        <v>79.5</v>
+        <v>69.90000000000001</v>
       </c>
       <c r="D200" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>77.84999999999999</v>
+        <v>70</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.08</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>MANAPPURAM</t>
+          <t>GENUSPAPER</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>273.85</v>
+        <v>15.69</v>
       </c>
       <c r="C201" t="n">
-        <v>278</v>
+        <v>16.01</v>
       </c>
       <c r="D201" t="n">
-        <v>1.52</v>
+        <v>2.04</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>280.25</v>
+        <v>15.93</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>0.8100000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,465 +478,465 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CANARYS</t>
+          <t>WELINV</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>28.75</v>
+        <v>1144.1</v>
       </c>
       <c r="C2" t="n">
-        <v>34.5</v>
+        <v>1298.9</v>
       </c>
       <c r="D2" t="n">
-        <v>20</v>
+        <v>13.53</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>33.55</v>
+        <v>1248.7</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-2.75</v>
+        <v>-3.86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>UNIHEALTH</t>
+          <t>FAIRCHEMOR</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>164.45</v>
+        <v>635.15</v>
       </c>
       <c r="C3" t="n">
-        <v>194</v>
+        <v>700</v>
       </c>
       <c r="D3" t="n">
-        <v>17.97</v>
+        <v>10.21</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>185</v>
+        <v>717</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>-4.64</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOUTHWEST</t>
+          <t>PANSARI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.55</v>
+        <v>291.2</v>
       </c>
       <c r="C4" t="n">
-        <v>205.65</v>
+        <v>315</v>
       </c>
       <c r="D4" t="n">
-        <v>13.9</v>
+        <v>8.17</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>195.5</v>
+        <v>316</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-4.94</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BBTCL</t>
+          <t>PREMIUM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>197.28</v>
+        <v>35.65</v>
       </c>
       <c r="C5" t="n">
-        <v>223</v>
+        <v>37.9</v>
       </c>
       <c r="D5" t="n">
-        <v>13.04</v>
+        <v>6.31</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>218.34</v>
+        <v>38.6</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-2.09</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>VLSFINANCE</t>
+          <t>ARENTERP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>210.26</v>
+        <v>44.92</v>
       </c>
       <c r="C6" t="n">
-        <v>232</v>
+        <v>47.7</v>
       </c>
       <c r="D6" t="n">
-        <v>10.34</v>
+        <v>6.19</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>246.15</v>
+        <v>48.59</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>6.1</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>GROWW</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.1</v>
+        <v>174.45</v>
       </c>
       <c r="C7" t="n">
-        <v>1.21</v>
+        <v>185</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>6.05</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>1.21</v>
+        <v>187.32</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HILTON</t>
+          <t>WEWORK</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.6</v>
+        <v>614.8</v>
       </c>
       <c r="C8" t="n">
-        <v>50.16</v>
+        <v>650</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>5.73</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>49.99</v>
+        <v>645.05</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-0.34</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HMAAGRO</t>
+          <t>INDOTHAI</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>29.98</v>
+        <v>423</v>
       </c>
       <c r="C9" t="n">
-        <v>32.97</v>
+        <v>444.15</v>
       </c>
       <c r="D9" t="n">
-        <v>9.970000000000001</v>
+        <v>5</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>32.65</v>
+        <v>444.15</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-0.97</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GTECJAINX</t>
+          <t>IZMO</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>22.6</v>
+        <v>903.25</v>
       </c>
       <c r="C10" t="n">
-        <v>24.85</v>
+        <v>948.4</v>
       </c>
       <c r="D10" t="n">
-        <v>9.960000000000001</v>
+        <v>5</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>24.75</v>
+        <v>948.4</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-0.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RBMINFRA</t>
+          <t>PIRAMALFIN</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>478.55</v>
+        <v>1564.7</v>
       </c>
       <c r="C11" t="n">
-        <v>524.8</v>
+        <v>1642.9</v>
       </c>
       <c r="D11" t="n">
-        <v>9.66</v>
+        <v>5</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>502.1</v>
+        <v>1564</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-4.33</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>KHANDSE</t>
+          <t>MAXVOLT</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>23.12</v>
+        <v>428.9</v>
       </c>
       <c r="C12" t="n">
-        <v>25</v>
+        <v>450.3</v>
       </c>
       <c r="D12" t="n">
-        <v>8.130000000000001</v>
+        <v>4.99</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.2</v>
+        <v>448</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>-7.2</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BHAGYANGR</t>
+          <t>BHARATGEAR</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.67</v>
+        <v>114.15</v>
       </c>
       <c r="C13" t="n">
-        <v>165.4</v>
+        <v>119.85</v>
       </c>
       <c r="D13" t="n">
-        <v>7.63</v>
+        <v>4.99</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>159.19</v>
+        <v>119.85</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-3.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>AHLUCONT</t>
+          <t>MODTHREAD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>882.9</v>
+        <v>43.58</v>
       </c>
       <c r="C14" t="n">
-        <v>950</v>
+        <v>45.75</v>
       </c>
       <c r="D14" t="n">
-        <v>7.6</v>
+        <v>4.98</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>980</v>
+        <v>45.7</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>3.16</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>INNOVANA</t>
+          <t>DIVINEHIRA</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>481.8</v>
+        <v>153.9</v>
       </c>
       <c r="C15" t="n">
-        <v>515</v>
+        <v>161.55</v>
       </c>
       <c r="D15" t="n">
-        <v>6.89</v>
+        <v>4.97</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>495.65</v>
+        <v>161.55</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-3.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PHANTOMFX</t>
+          <t>RISHABH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>251.9</v>
+        <v>416.55</v>
       </c>
       <c r="C16" t="n">
-        <v>269</v>
+        <v>437.25</v>
       </c>
       <c r="D16" t="n">
-        <v>6.79</v>
+        <v>4.97</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>258.25</v>
+        <v>432</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-4</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IDEAFORGE</t>
+          <t>VLEGOV</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>464.65</v>
+        <v>22.35</v>
       </c>
       <c r="C17" t="n">
-        <v>496</v>
+        <v>23.46</v>
       </c>
       <c r="D17" t="n">
-        <v>6.75</v>
+        <v>4.97</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>506.65</v>
+        <v>23.46</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>2.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>K2INFRA</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.67</v>
+        <v>61.5</v>
       </c>
       <c r="C18" t="n">
-        <v>2.85</v>
+        <v>64.55</v>
       </c>
       <c r="D18" t="n">
-        <v>6.74</v>
+        <v>4.96</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>2.65</v>
+        <v>64.55</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>-7.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ENFUSE</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>201.05</v>
+        <v>1.21</v>
       </c>
       <c r="C19" t="n">
-        <v>214</v>
+        <v>1.27</v>
       </c>
       <c r="D19" t="n">
-        <v>6.44</v>
+        <v>4.96</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>214</v>
+        <v>1.27</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
@@ -946,361 +946,361 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>LCCINFOTEC</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.63</v>
+        <v>4.49</v>
       </c>
       <c r="C20" t="n">
-        <v>19.8</v>
+        <v>4.71</v>
       </c>
       <c r="D20" t="n">
-        <v>6.28</v>
+        <v>4.9</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>18.76</v>
+        <v>4.71</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>-5.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SINTERCOM</t>
+          <t>VLSFINANCE</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>111.26</v>
+        <v>252.31</v>
       </c>
       <c r="C21" t="n">
-        <v>118</v>
+        <v>264.6</v>
       </c>
       <c r="D21" t="n">
-        <v>6.06</v>
+        <v>4.87</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>118</v>
+        <v>262.45</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ARVEE</t>
+          <t>INFLUX</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>163.45</v>
+        <v>207.95</v>
       </c>
       <c r="C22" t="n">
-        <v>172.9</v>
+        <v>218</v>
       </c>
       <c r="D22" t="n">
-        <v>5.78</v>
+        <v>4.83</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>171.99</v>
+        <v>218</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MODISONLTD</t>
+          <t>ALLCARGO</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>151.42</v>
+        <v>13.74</v>
       </c>
       <c r="C23" t="n">
-        <v>160</v>
+        <v>14.4</v>
       </c>
       <c r="D23" t="n">
-        <v>5.67</v>
+        <v>4.8</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>160.68</v>
+        <v>14.42</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.43</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>VILAS</t>
+          <t>SHUBHLAXMI</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>442.45</v>
+        <v>17.85</v>
       </c>
       <c r="C24" t="n">
-        <v>467</v>
+        <v>18.7</v>
       </c>
       <c r="D24" t="n">
-        <v>5.55</v>
+        <v>4.76</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>460</v>
+        <v>18.7</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GLOBALE</t>
+          <t>ARTEMISMED</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>12.8</v>
+        <v>271.73</v>
       </c>
       <c r="C25" t="n">
-        <v>13.49</v>
+        <v>284.59</v>
       </c>
       <c r="D25" t="n">
-        <v>5.39</v>
+        <v>4.73</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>13.05</v>
+        <v>294.97</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>-3.26</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SALASAR</t>
+          <t>PRECOT</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>9.539999999999999</v>
+        <v>444.7</v>
       </c>
       <c r="C26" t="n">
-        <v>10.05</v>
+        <v>465</v>
       </c>
       <c r="D26" t="n">
-        <v>5.35</v>
+        <v>4.56</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>10.26</v>
+        <v>449.45</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>2.09</v>
+        <v>-3.34</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHANDAN</t>
+          <t>AMEYA</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>313.4</v>
+        <v>107.1</v>
       </c>
       <c r="C27" t="n">
-        <v>330</v>
+        <v>111.95</v>
       </c>
       <c r="D27" t="n">
-        <v>5.3</v>
+        <v>4.53</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>331</v>
+        <v>111.5</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>0.3</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SAHASRA</t>
+          <t>IEML</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>315.4</v>
+        <v>107.2</v>
       </c>
       <c r="C28" t="n">
-        <v>332</v>
+        <v>111.7</v>
       </c>
       <c r="D28" t="n">
-        <v>5.26</v>
+        <v>4.2</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>334.7</v>
+        <v>121.05</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.369999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>DSSL</t>
+          <t>ATLASCYCLE</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>950.1</v>
+        <v>102.89</v>
       </c>
       <c r="C29" t="n">
-        <v>999</v>
+        <v>106.99</v>
       </c>
       <c r="D29" t="n">
-        <v>5.15</v>
+        <v>3.98</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>983.5</v>
+        <v>103.5</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-1.55</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ATLASCYCLE</t>
+          <t>5PAISA</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>102.76</v>
+        <v>315.2</v>
       </c>
       <c r="C30" t="n">
-        <v>108</v>
+        <v>327.5</v>
       </c>
       <c r="D30" t="n">
-        <v>5.1</v>
+        <v>3.9</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>106</v>
+        <v>356.75</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-1.85</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SARTELE</t>
+          <t>COMSYN</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>166.45</v>
+        <v>138.19</v>
       </c>
       <c r="C31" t="n">
-        <v>174.9</v>
+        <v>143.5</v>
       </c>
       <c r="D31" t="n">
-        <v>5.08</v>
+        <v>3.84</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>0.06</v>
+        <v>-3.83</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>V2RETAIL</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.5</v>
+        <v>16.36</v>
       </c>
       <c r="C32" t="n">
-        <v>2493.2</v>
+        <v>16.97</v>
       </c>
       <c r="D32" t="n">
-        <v>5</v>
+        <v>3.73</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>2444</v>
+        <v>17.35</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-1.97</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SHUBHLAXMI</t>
+          <t>SANWARIA</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>0.27</v>
       </c>
       <c r="C33" t="n">
-        <v>17.85</v>
+        <v>0.28</v>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>17.85</v>
+        <v>0.28</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
@@ -1310,49 +1310,49 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>MADHAV</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>981.1</v>
+        <v>41.37</v>
       </c>
       <c r="C34" t="n">
-        <v>1030.15</v>
+        <v>42.84</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>3.55</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1030.15</v>
+        <v>42.9</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>WTICAB</t>
+          <t>CHAMUNDA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>159.15</v>
+        <v>55.05</v>
       </c>
       <c r="C35" t="n">
-        <v>167.1</v>
+        <v>57</v>
       </c>
       <c r="D35" t="n">
-        <v>5</v>
+        <v>3.54</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>167.1</v>
+        <v>57</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
@@ -1362,4311 +1362,4309 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOMATEX</t>
+          <t>WOL3D</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>132.32</v>
+        <v>140</v>
       </c>
       <c r="C36" t="n">
-        <v>138.93</v>
+        <v>144.9</v>
       </c>
       <c r="D36" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>138.93</v>
+        <v>145.4</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>PIGL</t>
+          <t>JHS</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>157.25</v>
+        <v>11.79</v>
       </c>
       <c r="C37" t="n">
-        <v>165.11</v>
+        <v>12.2</v>
       </c>
       <c r="D37" t="n">
-        <v>5</v>
+        <v>3.48</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>165.11</v>
+        <v>11.79</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SWANDEF</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>986.75</v>
+        <v>54.15</v>
       </c>
       <c r="C38" t="n">
-        <v>1036.05</v>
+        <v>56</v>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>3.42</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1036.05</v>
+        <v>54.7</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-2.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>IZMO</t>
+          <t>WESTLIFE</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>860.25</v>
+        <v>544.25</v>
       </c>
       <c r="C39" t="n">
-        <v>903.25</v>
+        <v>562.75</v>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>903.25</v>
+        <v>556.75</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RISHABH</t>
+          <t>ACL</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>396.75</v>
+        <v>76.41</v>
       </c>
       <c r="C40" t="n">
-        <v>416.55</v>
+        <v>78.98999999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>4.99</v>
+        <v>3.38</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>401</v>
+        <v>76</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-3.73</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>EASTSILK</t>
+          <t>SMSLIFE</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>73.54000000000001</v>
+        <v>1301</v>
       </c>
       <c r="C41" t="n">
-        <v>77.20999999999999</v>
+        <v>1344.9</v>
       </c>
       <c r="D41" t="n">
-        <v>4.99</v>
+        <v>3.37</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>77.20999999999999</v>
+        <v>1320</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BHARATGEAR</t>
+          <t>ISHANCH</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>108.72</v>
+        <v>69.58</v>
       </c>
       <c r="C42" t="n">
-        <v>114.15</v>
+        <v>71.89</v>
       </c>
       <c r="D42" t="n">
-        <v>4.99</v>
+        <v>3.32</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>114.15</v>
+        <v>71.59999999999999</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INDOTHAI</t>
+          <t>WORTHPERI</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>402.9</v>
+        <v>147.21</v>
       </c>
       <c r="C43" t="n">
-        <v>423</v>
+        <v>152</v>
       </c>
       <c r="D43" t="n">
-        <v>4.99</v>
+        <v>3.25</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>423</v>
+        <v>148.19</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LAKPRE</t>
+          <t>NOIDATOLL</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>5.21</v>
+        <v>4.35</v>
       </c>
       <c r="C44" t="n">
-        <v>5.47</v>
+        <v>4.49</v>
       </c>
       <c r="D44" t="n">
-        <v>4.99</v>
+        <v>3.22</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>4.36</v>
       </c>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+      <c r="H44" t="n">
+        <v>-2.9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>VLEGOV</t>
+          <t>APEXECO</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21.29</v>
+        <v>132.6</v>
       </c>
       <c r="C45" t="n">
-        <v>22.35</v>
+        <v>136.8</v>
       </c>
       <c r="D45" t="n">
-        <v>4.98</v>
+        <v>3.17</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>22.35</v>
+        <v>135</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>RVHL</t>
+          <t>SHEKHAWATI</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>55.59</v>
+        <v>19</v>
       </c>
       <c r="C46" t="n">
-        <v>58.36</v>
+        <v>19.6</v>
       </c>
       <c r="D46" t="n">
-        <v>4.98</v>
+        <v>3.16</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>58.36</v>
+        <v>19.3</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ALLCARGO</t>
+          <t>SUNLITE</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>13.09</v>
+        <v>259.85</v>
       </c>
       <c r="C47" t="n">
-        <v>13.74</v>
+        <v>268</v>
       </c>
       <c r="D47" t="n">
-        <v>4.97</v>
+        <v>3.14</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>13.74</v>
+        <v>272.8</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SUNLITE</t>
+          <t>KAUSHALYA</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>247.5</v>
+        <v>969</v>
       </c>
       <c r="C48" t="n">
-        <v>259.8</v>
+        <v>999</v>
       </c>
       <c r="D48" t="n">
-        <v>4.97</v>
+        <v>3.1</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>259.85</v>
+        <v>999</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UWCSL</t>
+          <t>COUNCODOS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>110.95</v>
+        <v>6.49</v>
       </c>
       <c r="C49" t="n">
-        <v>116.45</v>
+        <v>6.69</v>
       </c>
       <c r="D49" t="n">
-        <v>4.96</v>
+        <v>3.08</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>116.45</v>
+        <v>6.49</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>NDLVENTURE</t>
+          <t>ONELIFECAP</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>85.64</v>
+        <v>12.89</v>
       </c>
       <c r="C50" t="n">
-        <v>89.89</v>
+        <v>13.28</v>
       </c>
       <c r="D50" t="n">
-        <v>4.96</v>
+        <v>3.03</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>85.86</v>
+        <v>13.26</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-4.48</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TREJHARA</t>
+          <t>TECHLABS</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>245.86</v>
+        <v>433.25</v>
       </c>
       <c r="C51" t="n">
-        <v>258</v>
+        <v>446</v>
       </c>
       <c r="D51" t="n">
-        <v>4.94</v>
+        <v>2.94</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-1.55</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PRAXIS</t>
+          <t>MITTAL</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>10.98</v>
+        <v>1.37</v>
       </c>
       <c r="C52" t="n">
-        <v>11.52</v>
+        <v>1.41</v>
       </c>
       <c r="D52" t="n">
-        <v>4.92</v>
+        <v>2.92</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>11.52</v>
+        <v>1.38</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>ANUHPHR</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>51.8</v>
+        <v>80.11</v>
       </c>
       <c r="C53" t="n">
-        <v>54.35</v>
+        <v>82.44</v>
       </c>
       <c r="D53" t="n">
-        <v>4.92</v>
+        <v>2.91</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>54.25</v>
+        <v>81.01000000000001</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-0.18</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SYNOPTICS</t>
+          <t>CPCAP</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>73.09999999999999</v>
+        <v>114.62</v>
       </c>
       <c r="C54" t="n">
-        <v>76.7</v>
+        <v>117.9</v>
       </c>
       <c r="D54" t="n">
-        <v>4.92</v>
+        <v>2.86</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>76.7</v>
+        <v>116.53</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>XTGLOBAL</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>4.28</v>
+        <v>38.78</v>
       </c>
       <c r="C55" t="n">
-        <v>4.49</v>
+        <v>39.89</v>
       </c>
       <c r="D55" t="n">
-        <v>4.91</v>
+        <v>2.86</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>4.49</v>
+        <v>39.64</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ESFL</t>
+          <t>KOHINOOR</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>233.6</v>
+        <v>29.53</v>
       </c>
       <c r="C56" t="n">
-        <v>244.95</v>
+        <v>30.37</v>
       </c>
       <c r="D56" t="n">
-        <v>4.86</v>
+        <v>2.84</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>237.25</v>
+        <v>29.74</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-3.14</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HGM</t>
+          <t>SUBAHOTELS</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>73.25</v>
+        <v>160</v>
       </c>
       <c r="C57" t="n">
-        <v>76.8</v>
+        <v>164.45</v>
       </c>
       <c r="D57" t="n">
-        <v>4.85</v>
+        <v>2.78</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>76.90000000000001</v>
+        <v>160</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>0.13</v>
+        <v>-2.71</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SPLPETRO</t>
+          <t>FEL</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>645.1</v>
+        <v>0.36</v>
       </c>
       <c r="C58" t="n">
-        <v>676.05</v>
+        <v>0.37</v>
       </c>
       <c r="D58" t="n">
-        <v>4.8</v>
+        <v>2.78</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>652.45</v>
+        <v>0.37</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-3.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BCG</t>
+          <t>SEJALLTD</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>14.03</v>
+        <v>893.6</v>
       </c>
       <c r="C59" t="n">
-        <v>14.7</v>
+        <v>918</v>
       </c>
       <c r="D59" t="n">
-        <v>4.78</v>
+        <v>2.73</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>14.37</v>
+        <v>890</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-2.24</v>
+        <v>-3.05</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IRB</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>42.96</v>
+        <v>121.55</v>
       </c>
       <c r="C60" t="n">
-        <v>45</v>
+        <v>124.8</v>
       </c>
       <c r="D60" t="n">
-        <v>4.75</v>
+        <v>2.67</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>44.85</v>
+        <v>123.89</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-0.33</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>VIJIFIN</t>
+          <t>OSELDEVICE</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>2.97</v>
+        <v>695.35</v>
       </c>
       <c r="C61" t="n">
-        <v>3.11</v>
+        <v>713.95</v>
       </c>
       <c r="D61" t="n">
-        <v>4.71</v>
+        <v>2.67</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>3.06</v>
+        <v>705</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-1.61</v>
+        <v>-1.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>NH</t>
+          <t>RSSOFTWARE</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1753.5</v>
+        <v>52.55</v>
       </c>
       <c r="C62" t="n">
-        <v>1835</v>
+        <v>53.9</v>
       </c>
       <c r="D62" t="n">
-        <v>4.65</v>
+        <v>2.57</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1893</v>
+        <v>54.03</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>3.16</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>UNIPARTS</t>
+          <t>VISAKAIND</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>487.6</v>
+        <v>74.34999999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>510.05</v>
+        <v>76.2</v>
       </c>
       <c r="D63" t="n">
-        <v>4.6</v>
+        <v>2.49</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>522.95</v>
+        <v>75</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>2.53</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GVPTECH</t>
+          <t>HMT</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>9.17</v>
+        <v>54.66</v>
       </c>
       <c r="C64" t="n">
-        <v>9.59</v>
+        <v>56</v>
       </c>
       <c r="D64" t="n">
-        <v>4.58</v>
+        <v>2.45</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>9.26</v>
+        <v>55.5</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-3.44</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PSRAJ</t>
+          <t>OMFREIGHT</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>258.3</v>
+        <v>94.25</v>
       </c>
       <c r="C65" t="n">
-        <v>270</v>
+        <v>96.55</v>
       </c>
       <c r="D65" t="n">
-        <v>4.53</v>
+        <v>2.44</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>265</v>
+        <v>96.59</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-1.85</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CARRARO</t>
+          <t>SUVIDHAA</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>540.85</v>
+        <v>3.76</v>
       </c>
       <c r="C66" t="n">
-        <v>565</v>
+        <v>3.85</v>
       </c>
       <c r="D66" t="n">
-        <v>4.47</v>
+        <v>2.39</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>547.9</v>
+        <v>3.81</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-3.03</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>KAPSTON</t>
+          <t>SITINET</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>322.65</v>
+        <v>0.43</v>
       </c>
       <c r="C67" t="n">
-        <v>337</v>
+        <v>0.44</v>
       </c>
       <c r="D67" t="n">
-        <v>4.45</v>
+        <v>2.33</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>330.9</v>
+        <v>0.43</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-1.81</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>VALIANTORG</t>
+          <t>FILATFASH</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>286.25</v>
+        <v>0.43</v>
       </c>
       <c r="C68" t="n">
-        <v>298.75</v>
+        <v>0.44</v>
       </c>
       <c r="D68" t="n">
-        <v>4.37</v>
+        <v>2.33</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>288.35</v>
+        <v>0.44</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-3.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>JAYBARMARU</t>
+          <t>RADIOCITY</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>91.84</v>
+        <v>6.9</v>
       </c>
       <c r="C69" t="n">
-        <v>95.78</v>
+        <v>7.06</v>
       </c>
       <c r="D69" t="n">
-        <v>4.29</v>
+        <v>2.32</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>93.25</v>
+        <v>6.98</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-2.64</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>JAYBEE</t>
+          <t>PEARLPOLY</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>140.95</v>
+        <v>25.42</v>
       </c>
       <c r="C70" t="n">
-        <v>146.9</v>
+        <v>26</v>
       </c>
       <c r="D70" t="n">
-        <v>4.22</v>
+        <v>2.28</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>147</v>
+        <v>26</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BORANA</t>
+          <t>MVGJL</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>272.7</v>
+        <v>199.34</v>
       </c>
       <c r="C71" t="n">
-        <v>284</v>
+        <v>203.85</v>
       </c>
       <c r="D71" t="n">
-        <v>4.14</v>
+        <v>2.26</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>280.64</v>
+        <v>197.79</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-1.18</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ARTNIRMAN</t>
+          <t>GEEKAYWIRE</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>53.4</v>
+        <v>32.18</v>
       </c>
       <c r="C72" t="n">
-        <v>55.6</v>
+        <v>32.9</v>
       </c>
       <c r="D72" t="n">
-        <v>4.12</v>
+        <v>2.24</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>55.49</v>
+        <v>32.32</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-0.2</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MADHUSUDAN</t>
+          <t>MEGASOFT</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>113.35</v>
+        <v>199.11</v>
       </c>
       <c r="C73" t="n">
-        <v>117.95</v>
+        <v>203.58</v>
       </c>
       <c r="D73" t="n">
-        <v>4.06</v>
+        <v>2.24</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>117.5</v>
+        <v>198</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-0.38</v>
+        <v>-2.74</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MMP</t>
+          <t>SALASAR</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>264.4</v>
+        <v>10.32</v>
       </c>
       <c r="C74" t="n">
-        <v>274.95</v>
+        <v>10.55</v>
       </c>
       <c r="D74" t="n">
-        <v>3.99</v>
+        <v>2.23</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>268</v>
+        <v>10.49</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-2.53</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>KRISHNADEF</t>
+          <t>ASHOKAMET</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>846.25</v>
+        <v>16.59</v>
       </c>
       <c r="C75" t="n">
-        <v>880</v>
+        <v>16.95</v>
       </c>
       <c r="D75" t="n">
-        <v>3.99</v>
+        <v>2.17</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>854.95</v>
+        <v>16.74</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-2.85</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LYPSAGEMS</t>
+          <t>GENUSPAPER</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>5.27</v>
+        <v>15.29</v>
       </c>
       <c r="C76" t="n">
-        <v>5.48</v>
+        <v>15.62</v>
       </c>
       <c r="D76" t="n">
-        <v>3.98</v>
+        <v>2.16</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>5.39</v>
+        <v>15.23</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-1.64</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WANBURY</t>
+          <t>ANANTAM</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>240.5</v>
+        <v>102.09</v>
       </c>
       <c r="C77" t="n">
-        <v>250</v>
+        <v>104.3</v>
       </c>
       <c r="D77" t="n">
-        <v>3.95</v>
+        <v>2.16</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>246.8</v>
+        <v>103.81</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-1.28</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SUPERHOUSE</t>
+          <t>FIBERWEB</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>161.33</v>
+        <v>39.45</v>
       </c>
       <c r="C78" t="n">
-        <v>167.7</v>
+        <v>40.3</v>
       </c>
       <c r="D78" t="n">
-        <v>3.95</v>
+        <v>2.15</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>163.65</v>
+        <v>39.61</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-2.42</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SPAL</t>
+          <t>HMAAGRO</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>784.2</v>
+        <v>31.99</v>
       </c>
       <c r="C79" t="n">
-        <v>815</v>
+        <v>32.67</v>
       </c>
       <c r="D79" t="n">
-        <v>3.93</v>
+        <v>2.13</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>868.7</v>
+        <v>33.4</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>6.59</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HECPROJECT</t>
+          <t>ALMONDZ</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>137.6</v>
+        <v>17.46</v>
       </c>
       <c r="C80" t="n">
-        <v>143</v>
+        <v>17.83</v>
       </c>
       <c r="D80" t="n">
-        <v>3.92</v>
+        <v>2.12</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>140.26</v>
+        <v>17.39</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-1.92</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>RACLGEAR</t>
+          <t>CHEMBONDCH</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>1102</v>
+        <v>149.84</v>
       </c>
       <c r="C81" t="n">
-        <v>1144.9</v>
+        <v>153</v>
       </c>
       <c r="D81" t="n">
-        <v>3.89</v>
+        <v>2.11</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>1161.6</v>
+        <v>152.98</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>1.46</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TARIL</t>
+          <t>KICL</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>318.2</v>
+        <v>5112</v>
       </c>
       <c r="C82" t="n">
-        <v>330.55</v>
+        <v>5220</v>
       </c>
       <c r="D82" t="n">
-        <v>3.88</v>
+        <v>2.11</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>339.6</v>
+        <v>5104</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>2.74</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SAHANA</t>
+          <t>VGL</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1157.1</v>
+        <v>156.64</v>
       </c>
       <c r="C83" t="n">
-        <v>1202</v>
+        <v>159.95</v>
       </c>
       <c r="D83" t="n">
-        <v>3.88</v>
+        <v>2.11</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1200</v>
+        <v>161</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-0.17</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>RKSWAMY</t>
+          <t>BLBLIMITED</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>127.46</v>
+        <v>16.64</v>
       </c>
       <c r="C84" t="n">
-        <v>132.4</v>
+        <v>16.99</v>
       </c>
       <c r="D84" t="n">
-        <v>3.88</v>
+        <v>2.1</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>128.95</v>
+        <v>16.35</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-2.61</v>
+        <v>-3.77</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MAHSCOOTER</t>
+          <t>INSPIRISYS</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>14337</v>
+        <v>101.88</v>
       </c>
       <c r="C85" t="n">
-        <v>14887</v>
+        <v>104</v>
       </c>
       <c r="D85" t="n">
-        <v>3.84</v>
+        <v>2.08</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>14725</v>
+        <v>103.8</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-1.09</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>VAKRANGEE</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>137.73</v>
+        <v>8.23</v>
       </c>
       <c r="C86" t="n">
-        <v>143</v>
+        <v>8.4</v>
       </c>
       <c r="D86" t="n">
-        <v>3.83</v>
+        <v>2.07</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>140.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-2.03</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AJAXENGG</t>
+          <t>BANSALWIRE</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>626.1</v>
+        <v>311.75</v>
       </c>
       <c r="C87" t="n">
-        <v>650</v>
+        <v>318.2</v>
       </c>
       <c r="D87" t="n">
-        <v>3.82</v>
+        <v>2.07</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>673.15</v>
+        <v>318.2</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>3.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>EEPL</t>
+          <t>SEPC</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>173.4</v>
+        <v>10.68</v>
       </c>
       <c r="C88" t="n">
-        <v>180</v>
+        <v>10.9</v>
       </c>
       <c r="D88" t="n">
-        <v>3.81</v>
+        <v>2.06</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>178</v>
+        <v>10.73</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-1.11</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BASML</t>
+          <t>TIJARIA</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>25.05</v>
+        <v>6.38</v>
       </c>
       <c r="C89" t="n">
-        <v>26</v>
+        <v>6.51</v>
       </c>
       <c r="D89" t="n">
-        <v>3.79</v>
+        <v>2.04</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>26.02</v>
+        <v>6.48</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>0.08</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SIGIND</t>
+          <t>INDOWIND</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>57.41</v>
+        <v>16.31</v>
       </c>
       <c r="C90" t="n">
-        <v>59.58</v>
+        <v>16.64</v>
       </c>
       <c r="D90" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>59.15</v>
+        <v>16.32</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-0.72</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GROWW</t>
+          <t>HILINFRA</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>148.53</v>
+        <v>68.81999999999999</v>
       </c>
       <c r="C91" t="n">
-        <v>154.15</v>
+        <v>70.2</v>
       </c>
       <c r="D91" t="n">
-        <v>3.78</v>
+        <v>2.01</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>157.61</v>
+        <v>69.23</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>2.24</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SETUINFRA</t>
+          <t>HPAL</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.54</v>
+        <v>46.82</v>
       </c>
       <c r="C92" t="n">
-        <v>0.5600000000000001</v>
+        <v>47.76</v>
       </c>
       <c r="D92" t="n">
-        <v>3.7</v>
+        <v>2.01</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.55</v>
+        <v>47.19</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-1.79</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PRECOT</t>
+          <t>LANCORHOL</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>438.9</v>
+        <v>28.55</v>
       </c>
       <c r="C93" t="n">
-        <v>455</v>
+        <v>29.12</v>
       </c>
       <c r="D93" t="n">
-        <v>3.67</v>
+        <v>2</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>444.6</v>
+        <v>29</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-2.29</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AARTECH</t>
+          <t>INFOBEAN</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>50.64</v>
+        <v>608.85</v>
       </c>
       <c r="C94" t="n">
-        <v>52.49</v>
+        <v>621.05</v>
       </c>
       <c r="D94" t="n">
-        <v>3.65</v>
+        <v>2</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>50.99</v>
+        <v>608.95</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-2.86</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BLUEWATER</t>
+          <t>A2ZINFRA</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>159.15</v>
+        <v>17.11</v>
       </c>
       <c r="C95" t="n">
-        <v>164.95</v>
+        <v>17.45</v>
       </c>
       <c r="D95" t="n">
-        <v>3.64</v>
+        <v>1.99</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>165</v>
+        <v>17.56</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>0.03</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>ANIKINDS</t>
+          <t>CUBEXTUB</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>73.14</v>
+        <v>89.72</v>
       </c>
       <c r="C96" t="n">
-        <v>75.8</v>
+        <v>91.5</v>
       </c>
       <c r="D96" t="n">
-        <v>3.64</v>
+        <v>1.98</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>74.31</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-1.97</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SIKKO</t>
+          <t>JOCIL</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>107.97</v>
+        <v>149.05</v>
       </c>
       <c r="C97" t="n">
-        <v>111.88</v>
+        <v>152</v>
       </c>
       <c r="D97" t="n">
-        <v>3.62</v>
+        <v>1.98</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>110.1</v>
+        <v>152</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-1.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ADROITINFO</t>
+          <t>DIACABS</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>11.06</v>
+        <v>151.02</v>
       </c>
       <c r="C98" t="n">
-        <v>11.46</v>
+        <v>153.99</v>
       </c>
       <c r="D98" t="n">
-        <v>3.62</v>
+        <v>1.97</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>11.22</v>
+        <v>150.54</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-2.09</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>INNOMET</t>
+          <t>RADAAN</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>124</v>
+        <v>3.06</v>
       </c>
       <c r="C99" t="n">
-        <v>128.45</v>
+        <v>3.12</v>
       </c>
       <c r="D99" t="n">
-        <v>3.59</v>
+        <v>1.96</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>130.15</v>
+        <v>3.17</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>1.32</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NAGREEKEXP</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>27.5</v>
+        <v>0.51</v>
       </c>
       <c r="C100" t="n">
-        <v>28.48</v>
+        <v>0.52</v>
       </c>
       <c r="D100" t="n">
-        <v>3.56</v>
+        <v>1.96</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>28</v>
+        <v>0.52</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-1.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RAJESHEXPO</t>
+          <t>AUSOMENT</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>187.33</v>
+        <v>101.57</v>
       </c>
       <c r="C101" t="n">
-        <v>194</v>
+        <v>103.55</v>
       </c>
       <c r="D101" t="n">
-        <v>3.56</v>
+        <v>1.95</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>193.6</v>
+        <v>102.8</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-0.21</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MAXVOLT</t>
+          <t>ZODIAC</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>408.5</v>
+        <v>367.3</v>
       </c>
       <c r="C102" t="n">
-        <v>423</v>
+        <v>374.35</v>
       </c>
       <c r="D102" t="n">
-        <v>3.55</v>
+        <v>1.92</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>428.9</v>
+        <v>368.4</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>1.39</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>JNKINDIA</t>
+          <t>DGCONTENT</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>283.75</v>
+        <v>35.38</v>
       </c>
       <c r="C103" t="n">
-        <v>293.75</v>
+        <v>36.06</v>
       </c>
       <c r="D103" t="n">
-        <v>3.52</v>
+        <v>1.92</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>290.4</v>
+        <v>34.99</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-1.14</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>TRUALT</t>
+          <t>KEC</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>457.9</v>
+        <v>785.1</v>
       </c>
       <c r="C104" t="n">
-        <v>473.95</v>
+        <v>800</v>
       </c>
       <c r="D104" t="n">
-        <v>3.51</v>
+        <v>1.9</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>477.25</v>
+        <v>782.15</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>0.7</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AUSOMENT</t>
+          <t>TPHQ</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>100.5</v>
+        <v>0.53</v>
       </c>
       <c r="C105" t="n">
-        <v>104</v>
+        <v>0.54</v>
       </c>
       <c r="D105" t="n">
-        <v>3.48</v>
+        <v>1.89</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>103.5</v>
+        <v>0.55</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-0.48</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>DHARIWAL</t>
+          <t>VARDMNPOLY</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>307.3</v>
+        <v>6.97</v>
       </c>
       <c r="C106" t="n">
-        <v>318</v>
+        <v>7.1</v>
       </c>
       <c r="D106" t="n">
-        <v>3.48</v>
+        <v>1.87</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>315.85</v>
+        <v>7.04</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-0.68</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>AXISCADES</t>
+          <t>SURANASOL</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>1557.5</v>
+        <v>30.63</v>
       </c>
       <c r="C107" t="n">
-        <v>1611</v>
+        <v>31.2</v>
       </c>
       <c r="D107" t="n">
-        <v>3.43</v>
+        <v>1.86</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>1593.5</v>
+        <v>30.58</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-1.09</v>
+        <v>-1.99</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>UNIVCABLES</t>
+          <t>SOLEX</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>860.5</v>
+        <v>1736.7</v>
       </c>
       <c r="C108" t="n">
-        <v>889.9</v>
+        <v>1769</v>
       </c>
       <c r="D108" t="n">
-        <v>3.42</v>
+        <v>1.86</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>888.1</v>
+        <v>1753</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-0.2</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>IFGLEXPOR</t>
+          <t>TEMBO</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>234.02</v>
+        <v>780.55</v>
       </c>
       <c r="C109" t="n">
-        <v>242</v>
+        <v>795</v>
       </c>
       <c r="D109" t="n">
-        <v>3.41</v>
+        <v>1.85</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>232.1</v>
+        <v>771.75</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-4.09</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TRIGYN</t>
+          <t>PREMIERPOL</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>75.92</v>
+        <v>39.26</v>
       </c>
       <c r="C110" t="n">
-        <v>78.5</v>
+        <v>39.98</v>
       </c>
       <c r="D110" t="n">
-        <v>3.4</v>
+        <v>1.83</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>76.08</v>
+        <v>39.3</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-3.08</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>GUJAPOLLO</t>
+          <t>SAMBHAAV</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>462.25</v>
+        <v>9.31</v>
       </c>
       <c r="C111" t="n">
-        <v>477.9</v>
+        <v>9.48</v>
       </c>
       <c r="D111" t="n">
-        <v>3.39</v>
+        <v>1.83</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>479.45</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>0.32</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DHRUV</t>
+          <t>FLAIR</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>50.97</v>
+        <v>316.2</v>
       </c>
       <c r="C112" t="n">
-        <v>52.7</v>
+        <v>321.95</v>
       </c>
       <c r="D112" t="n">
-        <v>3.39</v>
+        <v>1.82</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>50.32</v>
+        <v>312.45</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-4.52</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>NITIRAJ</t>
+          <t>SETCO</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>200.36</v>
+        <v>17.17</v>
       </c>
       <c r="C113" t="n">
-        <v>207.06</v>
+        <v>17.48</v>
       </c>
       <c r="D113" t="n">
-        <v>3.34</v>
+        <v>1.81</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>213.21</v>
+        <v>17.05</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>2.97</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>JHS</t>
+          <t>WEALTH</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>12.34</v>
+        <v>1011.3</v>
       </c>
       <c r="C114" t="n">
-        <v>12.74</v>
+        <v>1029.5</v>
       </c>
       <c r="D114" t="n">
-        <v>3.24</v>
+        <v>1.8</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>12.5</v>
+        <v>1045</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-1.88</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>AKSHAR</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>9.35</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C115" t="n">
-        <v>9.65</v>
+        <v>0.57</v>
       </c>
       <c r="D115" t="n">
-        <v>3.21</v>
+        <v>1.79</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>9.57</v>
+        <v>0.57</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-0.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>EMMBI</t>
+          <t>BANARBEADS</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>111.06</v>
+        <v>136.06</v>
       </c>
       <c r="C116" t="n">
-        <v>114.6</v>
+        <v>138.5</v>
       </c>
       <c r="D116" t="n">
-        <v>3.19</v>
+        <v>1.79</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>114.5</v>
+        <v>135.8</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-0.09</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CALSOFT</t>
+          <t>RULKA</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>16.78</v>
+        <v>115.85</v>
       </c>
       <c r="C117" t="n">
-        <v>17.3</v>
+        <v>117.9</v>
       </c>
       <c r="D117" t="n">
-        <v>3.1</v>
+        <v>1.77</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>16.87</v>
+        <v>118.95</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-2.49</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>BEWLTD</t>
+          <t>YASHO</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>135.5</v>
+        <v>1699</v>
       </c>
       <c r="C118" t="n">
-        <v>139.7</v>
+        <v>1729</v>
       </c>
       <c r="D118" t="n">
-        <v>3.1</v>
+        <v>1.77</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>139</v>
+        <v>1692</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-0.5</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>JAYSREETEA</t>
+          <t>MAXHEALTH</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>95</v>
+        <v>1121.6</v>
       </c>
       <c r="C119" t="n">
-        <v>97.90000000000001</v>
+        <v>1141.4</v>
       </c>
       <c r="D119" t="n">
-        <v>3.05</v>
+        <v>1.77</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>98.40000000000001</v>
+        <v>1140.1</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>0.51</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>IEML-RE</t>
+          <t>PRUDENT</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>21.35</v>
+        <v>2495</v>
       </c>
       <c r="C120" t="n">
-        <v>22</v>
+        <v>2539</v>
       </c>
       <c r="D120" t="n">
-        <v>3.04</v>
+        <v>1.76</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>17.1</v>
+        <v>2496.6</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-22.27</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>VALIANTLAB</t>
+          <t>DEVIT</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>79.58</v>
+        <v>40.29</v>
       </c>
       <c r="C121" t="n">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c r="D121" t="n">
-        <v>3.04</v>
+        <v>1.76</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>80.11</v>
+        <v>40.42</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-2.3</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SRPL</t>
+          <t>SGIL</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>0.66</v>
+        <v>548.2</v>
       </c>
       <c r="C122" t="n">
-        <v>0.68</v>
+        <v>557.8</v>
       </c>
       <c r="D122" t="n">
-        <v>3.03</v>
+        <v>1.75</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>0.67</v>
+        <v>547.9</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-1.47</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PIRAMALFIN</t>
+          <t>ADVANCE</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>1490.2</v>
+        <v>146.36</v>
       </c>
       <c r="C123" t="n">
-        <v>1535</v>
+        <v>148.9</v>
       </c>
       <c r="D123" t="n">
-        <v>3.01</v>
+        <v>1.74</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>1535</v>
+        <v>145.33</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>KOTHARIPRO</t>
+          <t>ASTRAZEN</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>84.70999999999999</v>
+        <v>9140</v>
       </c>
       <c r="C124" t="n">
-        <v>87.25</v>
+        <v>9298.5</v>
       </c>
       <c r="D124" t="n">
-        <v>3</v>
+        <v>1.73</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>85.52</v>
+        <v>9178.5</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-1.98</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>UNIVASTU</t>
+          <t>BAIDFIN</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>68.94</v>
+        <v>10.45</v>
       </c>
       <c r="C125" t="n">
-        <v>71</v>
+        <v>10.63</v>
       </c>
       <c r="D125" t="n">
-        <v>2.99</v>
+        <v>1.72</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>70.44</v>
+        <v>10.52</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-0.79</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HARRMALAYA</t>
+          <t>GUJAPOLLO</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>185.16</v>
+        <v>481.8</v>
       </c>
       <c r="C126" t="n">
-        <v>190.7</v>
+        <v>489.95</v>
       </c>
       <c r="D126" t="n">
-        <v>2.99</v>
+        <v>1.69</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>187</v>
+        <v>484.95</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-1.94</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SREEL</t>
+          <t>TARMAT</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>221.86</v>
+        <v>52.77</v>
       </c>
       <c r="C127" t="n">
-        <v>228.5</v>
+        <v>53.65</v>
       </c>
       <c r="D127" t="n">
-        <v>2.99</v>
+        <v>1.67</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>235.95</v>
+        <v>52.63</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>3.26</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BIOFILCHEM</t>
+          <t>SARTELE</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>39.23</v>
+        <v>174.05</v>
       </c>
       <c r="C128" t="n">
-        <v>40.4</v>
+        <v>176.95</v>
       </c>
       <c r="D128" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>40.2</v>
+        <v>174.55</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-0.5</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NRL</t>
+          <t>GSLSU</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>66.04000000000001</v>
+        <v>131.21</v>
       </c>
       <c r="C129" t="n">
-        <v>68</v>
+        <v>133.38</v>
       </c>
       <c r="D129" t="n">
-        <v>2.97</v>
+        <v>1.65</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>67</v>
+        <v>130.74</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-1.47</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>FOODSIN</t>
+          <t>GEECEE</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>78.45</v>
+        <v>362.5</v>
       </c>
       <c r="C130" t="n">
-        <v>80.7</v>
+        <v>368.45</v>
       </c>
       <c r="D130" t="n">
-        <v>2.87</v>
+        <v>1.64</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>80.5</v>
+        <v>360.6</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-0.25</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>DRCSYSTEMS</t>
+          <t>BGRENERGY</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>18.8</v>
+        <v>411.8</v>
       </c>
       <c r="C131" t="n">
-        <v>19.34</v>
+        <v>418.5</v>
       </c>
       <c r="D131" t="n">
-        <v>2.87</v>
+        <v>1.63</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>19.18</v>
+        <v>408</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-0.83</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>TREEHOUSE</t>
+          <t>BASML</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>7.33</v>
+        <v>29.03</v>
       </c>
       <c r="C132" t="n">
-        <v>7.54</v>
+        <v>29.5</v>
       </c>
       <c r="D132" t="n">
-        <v>2.86</v>
+        <v>1.62</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>7.5</v>
+        <v>28.47</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-0.53</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ENERGYDEV</t>
+          <t>OSIAHYPER</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>19.21</v>
+        <v>20.5</v>
       </c>
       <c r="C133" t="n">
-        <v>19.76</v>
+        <v>20.83</v>
       </c>
       <c r="D133" t="n">
-        <v>2.86</v>
+        <v>1.61</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>21.7</v>
+        <v>20.6</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>9.82</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>LIBAS</t>
+          <t>GKENERGY</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>11.56</v>
+        <v>197.89</v>
       </c>
       <c r="C134" t="n">
-        <v>11.89</v>
+        <v>201.01</v>
       </c>
       <c r="D134" t="n">
-        <v>2.85</v>
+        <v>1.58</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>11.42</v>
+        <v>197.5</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-3.95</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>FELIX</t>
+          <t>GEMAROMA</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>178.85</v>
+        <v>184.11</v>
       </c>
       <c r="C135" t="n">
-        <v>183.85</v>
+        <v>187</v>
       </c>
       <c r="D135" t="n">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>185.9</v>
+        <v>184.34</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>1.12</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>INOXGREEN</t>
+          <t>LAXMIINDIA</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>253</v>
+        <v>129.61</v>
       </c>
       <c r="C136" t="n">
-        <v>259.95</v>
+        <v>131.65</v>
       </c>
       <c r="D136" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>253.75</v>
+        <v>134.54</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-2.39</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>VGINFOTECH</t>
+          <t>JMA</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>158.15</v>
+        <v>88.02</v>
       </c>
       <c r="C137" t="n">
-        <v>162.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="D137" t="n">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>165</v>
+        <v>88</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>1.54</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>ROSSELLIND</t>
+          <t>RADIANTCMS</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>60</v>
+        <v>53.6</v>
       </c>
       <c r="C138" t="n">
-        <v>61.64</v>
+        <v>54.43</v>
       </c>
       <c r="D138" t="n">
-        <v>2.73</v>
+        <v>1.55</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>63.93</v>
+        <v>53.9</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>3.72</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SPLIL</t>
+          <t>GANESHBE</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>38.93</v>
+        <v>85.56999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>39.98</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="D139" t="n">
-        <v>2.7</v>
+        <v>1.55</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>39.49</v>
+        <v>85.19</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-1.23</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BRNL</t>
+          <t>BOROSCI</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>25.31</v>
+        <v>124.78</v>
       </c>
       <c r="C140" t="n">
-        <v>25.99</v>
+        <v>126.7</v>
       </c>
       <c r="D140" t="n">
-        <v>2.69</v>
+        <v>1.54</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>26.11</v>
+        <v>125.59</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>0.46</v>
+        <v>-0.88</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>IEML</t>
+          <t>AMDIND</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>118.75</v>
+        <v>55.74</v>
       </c>
       <c r="C141" t="n">
-        <v>121.95</v>
+        <v>56.6</v>
       </c>
       <c r="D141" t="n">
-        <v>2.69</v>
+        <v>1.54</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>118</v>
+        <v>56.58</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-3.24</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>PLAZACABLE</t>
+          <t>AHCL</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>44.21</v>
+        <v>150.11</v>
       </c>
       <c r="C142" t="n">
-        <v>45.4</v>
+        <v>152.4</v>
       </c>
       <c r="D142" t="n">
-        <v>2.69</v>
+        <v>1.53</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>44.69</v>
+        <v>157.61</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-1.56</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MASTEK</t>
+          <t>TICL</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2235</v>
+        <v>31.97</v>
       </c>
       <c r="C143" t="n">
-        <v>2295</v>
+        <v>32.46</v>
       </c>
       <c r="D143" t="n">
-        <v>2.68</v>
+        <v>1.53</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>2353</v>
+        <v>32.2</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>2.53</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>DCMNVL</t>
+          <t>BROOKS</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>141.28</v>
+        <v>102.74</v>
       </c>
       <c r="C144" t="n">
-        <v>145</v>
+        <v>104.3</v>
       </c>
       <c r="D144" t="n">
-        <v>2.63</v>
+        <v>1.52</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>135.98</v>
+        <v>103.39</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-6.22</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>RNBDENIMS</t>
+          <t>EXCELINDUS</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>120.84</v>
+        <v>981.7</v>
       </c>
       <c r="C145" t="n">
-        <v>124</v>
+        <v>996.6</v>
       </c>
       <c r="D145" t="n">
-        <v>2.62</v>
+        <v>1.52</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>122.4</v>
+        <v>982.9</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-1.29</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>THYROCARE</t>
+          <t>ONWARDTEC</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>1564</v>
+        <v>288.05</v>
       </c>
       <c r="C146" t="n">
-        <v>1605</v>
+        <v>292.4</v>
       </c>
       <c r="D146" t="n">
-        <v>2.62</v>
+        <v>1.51</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>1580.6</v>
+        <v>286.2</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-1.52</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>DANGEE</t>
+          <t>UNIINFO</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>3.89</v>
+        <v>16.65</v>
       </c>
       <c r="C147" t="n">
-        <v>3.99</v>
+        <v>16.9</v>
       </c>
       <c r="D147" t="n">
-        <v>2.57</v>
+        <v>1.5</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>3.95</v>
+        <v>16.9</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ORIENTALTL</t>
+          <t>AARTISURF</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>9.449999999999999</v>
+        <v>452.65</v>
       </c>
       <c r="C148" t="n">
-        <v>9.69</v>
+        <v>459.45</v>
       </c>
       <c r="D148" t="n">
-        <v>2.54</v>
+        <v>1.5</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>9.699999999999999</v>
+        <v>459</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>0.1</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>IPHL</t>
+          <t>MCLOUD</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>62.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="C149" t="n">
-        <v>64.5</v>
+        <v>65.87</v>
       </c>
       <c r="D149" t="n">
-        <v>2.54</v>
+        <v>1.49</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>57.25</v>
+        <v>65.91</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-11.24</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>EPACKPEB</t>
+          <t>LINC</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>327.55</v>
+        <v>125.23</v>
       </c>
       <c r="C150" t="n">
-        <v>335.85</v>
+        <v>127.1</v>
       </c>
       <c r="D150" t="n">
-        <v>2.53</v>
+        <v>1.49</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>329.35</v>
+        <v>124.84</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-1.94</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>AKI</t>
+          <t>GOLDTECH</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>8</v>
+        <v>55.56</v>
       </c>
       <c r="C151" t="n">
-        <v>8.199999999999999</v>
+        <v>56.39</v>
       </c>
       <c r="D151" t="n">
-        <v>2.5</v>
+        <v>1.49</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>8</v>
+        <v>55.79</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-2.44</v>
+        <v>-1.06</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>XELPMOC</t>
+          <t>BPL</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>134.54</v>
+        <v>67.65000000000001</v>
       </c>
       <c r="C152" t="n">
-        <v>137.9</v>
+        <v>68.65000000000001</v>
       </c>
       <c r="D152" t="n">
-        <v>2.5</v>
+        <v>1.48</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>135.8</v>
+        <v>67.77</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-1.52</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>DJML</t>
+          <t>PARASPETRO</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>73.18000000000001</v>
+        <v>2.05</v>
       </c>
       <c r="C153" t="n">
-        <v>75</v>
+        <v>2.08</v>
       </c>
       <c r="D153" t="n">
-        <v>2.49</v>
+        <v>1.46</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>73.59999999999999</v>
+        <v>2.04</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-1.87</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>TBZ</t>
+          <t>EBGNG</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>190.27</v>
+        <v>332.1</v>
       </c>
       <c r="C154" t="n">
-        <v>195</v>
+        <v>336.95</v>
       </c>
       <c r="D154" t="n">
-        <v>2.49</v>
+        <v>1.46</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>192.5</v>
+        <v>332.7</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-1.28</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SAHYADRI</t>
+          <t>HILTON</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>255.7</v>
+        <v>46.86</v>
       </c>
       <c r="C155" t="n">
-        <v>262</v>
+        <v>47.54</v>
       </c>
       <c r="D155" t="n">
-        <v>2.46</v>
+        <v>1.45</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>260.5</v>
+        <v>46.37</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-0.57</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>DONEAR</t>
+          <t>INDSWFTLAB</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>102.44</v>
+        <v>99.56999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>104.95</v>
+        <v>101</v>
       </c>
       <c r="D156" t="n">
-        <v>2.45</v>
+        <v>1.44</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>102.92</v>
+        <v>99.92</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-1.93</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>PATINTLOG</t>
+          <t>VSTTILLERS</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>13.9</v>
+        <v>5570</v>
       </c>
       <c r="C157" t="n">
-        <v>14.24</v>
+        <v>5650</v>
       </c>
       <c r="D157" t="n">
-        <v>2.45</v>
+        <v>1.44</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>13.95</v>
+        <v>5620</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-2.04</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>RAMRAT</t>
+          <t>ANNAPURNA</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>634.55</v>
+        <v>240.55</v>
       </c>
       <c r="C158" t="n">
-        <v>650</v>
+        <v>244</v>
       </c>
       <c r="D158" t="n">
-        <v>2.43</v>
+        <v>1.43</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>635.2</v>
+        <v>244</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-2.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>GKENERGY</t>
+          <t>21STCENMGM</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>198.45</v>
+        <v>42.4</v>
       </c>
       <c r="C159" t="n">
-        <v>203.25</v>
+        <v>43</v>
       </c>
       <c r="D159" t="n">
-        <v>2.42</v>
+        <v>1.42</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>202.31</v>
+        <v>41.55</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-0.46</v>
+        <v>-3.37</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>RAMANEWS</t>
+          <t>HINDOILEXP</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>29.29</v>
+        <v>139.53</v>
       </c>
       <c r="C160" t="n">
-        <v>30</v>
+        <v>141.5</v>
       </c>
       <c r="D160" t="n">
-        <v>2.42</v>
+        <v>1.41</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>29.93</v>
+        <v>140.16</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-0.23</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ELECTHERM</t>
+          <t>EIMCOELECO</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>898.55</v>
+        <v>1712.9</v>
       </c>
       <c r="C161" t="n">
-        <v>920</v>
+        <v>1737</v>
       </c>
       <c r="D161" t="n">
-        <v>2.39</v>
+        <v>1.41</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>892.05</v>
+        <v>1704.5</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-3.04</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>VINDHYATEL</t>
+          <t>DHANBANK</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>1572.4</v>
+        <v>27.32</v>
       </c>
       <c r="C162" t="n">
-        <v>1610</v>
+        <v>27.7</v>
       </c>
       <c r="D162" t="n">
-        <v>2.39</v>
+        <v>1.39</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>1581.6</v>
+        <v>27.35</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-1.76</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>ADOR</t>
+          <t>NIITMTS</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1074.4</v>
+        <v>345.2</v>
       </c>
       <c r="C163" t="n">
-        <v>1100</v>
+        <v>350</v>
       </c>
       <c r="D163" t="n">
-        <v>2.38</v>
+        <v>1.39</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1079.9</v>
+        <v>343.55</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-1.83</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>MUFIN</t>
+          <t>IL&amp;FSTRANS</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>108.85</v>
+        <v>2.9</v>
       </c>
       <c r="C164" t="n">
-        <v>111.44</v>
+        <v>2.94</v>
       </c>
       <c r="D164" t="n">
-        <v>2.38</v>
+        <v>1.38</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
-      <c r="F164" t="n">
-        <v>110.37</v>
-      </c>
+      <c r="F164" t="inlineStr"/>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="n">
-        <v>-0.96</v>
-      </c>
+      <c r="H164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SITINET</t>
+          <t>INDOTECH</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>0.42</v>
+        <v>1812.5</v>
       </c>
       <c r="C165" t="n">
-        <v>0.43</v>
+        <v>1837.3</v>
       </c>
       <c r="D165" t="n">
-        <v>2.38</v>
+        <v>1.37</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>0.43</v>
+        <v>1800</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>MORARJEE</t>
+          <t>AMBUJACEM</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>7.99</v>
+        <v>560.3</v>
       </c>
       <c r="C166" t="n">
-        <v>8.18</v>
+        <v>568</v>
       </c>
       <c r="D166" t="n">
-        <v>2.38</v>
+        <v>1.37</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>8</v>
+        <v>560.6</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-2.2</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DNAMEDIA</t>
+          <t>AXISCADES</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>4.22</v>
+        <v>1560.6</v>
       </c>
       <c r="C167" t="n">
-        <v>4.32</v>
+        <v>1582</v>
       </c>
       <c r="D167" t="n">
-        <v>2.37</v>
+        <v>1.37</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>4.26</v>
+        <v>1543.4</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-1.39</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SAMBHAAV</t>
+          <t>WONDERLA</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>8.880000000000001</v>
+        <v>541.65</v>
       </c>
       <c r="C168" t="n">
-        <v>9.09</v>
+        <v>549</v>
       </c>
       <c r="D168" t="n">
-        <v>2.36</v>
+        <v>1.36</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>9.050000000000001</v>
+        <v>541.35</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-0.44</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>INDIANCARD</t>
+          <t>NSIL</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>256.8</v>
+        <v>6924</v>
       </c>
       <c r="C169" t="n">
-        <v>262.8</v>
+        <v>7017</v>
       </c>
       <c r="D169" t="n">
-        <v>2.34</v>
+        <v>1.34</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>261</v>
+        <v>6940</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-0.68</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SOLEX</t>
+          <t>CONTROLPR</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1710.1</v>
+        <v>729.9</v>
       </c>
       <c r="C170" t="n">
-        <v>1750</v>
+        <v>739.7</v>
       </c>
       <c r="D170" t="n">
-        <v>2.33</v>
+        <v>1.34</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1701.2</v>
+        <v>764.65</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-2.79</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BTML</t>
+          <t>GANDHAR</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>9.130000000000001</v>
+        <v>143.96</v>
       </c>
       <c r="C171" t="n">
-        <v>9.34</v>
+        <v>145.89</v>
       </c>
       <c r="D171" t="n">
-        <v>2.3</v>
+        <v>1.34</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>9.390000000000001</v>
+        <v>143.2</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>0.54</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>TBI</t>
+          <t>ASHAPURMIN</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>93.34999999999999</v>
+        <v>710.55</v>
       </c>
       <c r="C172" t="n">
-        <v>95.5</v>
+        <v>720</v>
       </c>
       <c r="D172" t="n">
-        <v>2.3</v>
+        <v>1.33</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>94.40000000000001</v>
+        <v>697.85</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-1.15</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MANAKSTEEL</t>
+          <t>ISFT</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>63.54</v>
+        <v>92.98</v>
       </c>
       <c r="C173" t="n">
-        <v>65</v>
+        <v>94.2</v>
       </c>
       <c r="D173" t="n">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>64.90000000000001</v>
+        <v>92.45999999999999</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-0.15</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>GMRP&amp;UI</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>123.95</v>
+        <v>127.87</v>
       </c>
       <c r="C174" t="n">
-        <v>126.8</v>
+        <v>129.54</v>
       </c>
       <c r="D174" t="n">
-        <v>2.3</v>
+        <v>1.31</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
-      <c r="F174" t="n">
-        <v>120.03</v>
-      </c>
+      <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="n">
-        <v>-5.34</v>
-      </c>
+      <c r="H174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ONELIFECAP</t>
+          <t>JPOLYINVST</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>13.53</v>
+        <v>962.4</v>
       </c>
       <c r="C175" t="n">
-        <v>13.84</v>
+        <v>975</v>
       </c>
       <c r="D175" t="n">
-        <v>2.29</v>
+        <v>1.31</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>13.56</v>
+        <v>957.05</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-2.02</v>
+        <v>-1.84</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GEEKAYWIRE</t>
+          <t>BANARISUG</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>32.21</v>
+        <v>3601.6</v>
       </c>
       <c r="C176" t="n">
-        <v>32.94</v>
+        <v>3648.9</v>
       </c>
       <c r="D176" t="n">
-        <v>2.27</v>
+        <v>1.31</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>32.81</v>
+        <v>3621</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-0.39</v>
+        <v>-0.76</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>FILATFASH</t>
+          <t>THYROCARE</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>0.44</v>
+        <v>1552.8</v>
       </c>
       <c r="C177" t="n">
-        <v>0.45</v>
+        <v>1573.2</v>
       </c>
       <c r="D177" t="n">
-        <v>2.27</v>
+        <v>1.31</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>0.45</v>
+        <v>1554.2</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MANCREDIT</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>177.98</v>
+        <v>54.88</v>
       </c>
       <c r="C178" t="n">
-        <v>181.99</v>
+        <v>55.6</v>
       </c>
       <c r="D178" t="n">
-        <v>2.25</v>
+        <v>1.31</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>177.48</v>
+        <v>54.29</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-2.48</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>ZOTA</t>
+          <t>PATINTLOG</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>1597.1</v>
+        <v>13.91</v>
       </c>
       <c r="C179" t="n">
-        <v>1633</v>
+        <v>14.09</v>
       </c>
       <c r="D179" t="n">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>1610.4</v>
+        <v>14.06</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-1.38</v>
+        <v>-0.21</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PARSVNATH</t>
+          <t>NINSYS</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>15.14</v>
+        <v>409.4</v>
       </c>
       <c r="C180" t="n">
-        <v>15.48</v>
+        <v>414.7</v>
       </c>
       <c r="D180" t="n">
-        <v>2.25</v>
+        <v>1.29</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>15.26</v>
+        <v>412.3</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-1.42</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>FABTECH</t>
+          <t>LAXMICOT</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>246.48</v>
+        <v>21.07</v>
       </c>
       <c r="C181" t="n">
-        <v>252</v>
+        <v>21.34</v>
       </c>
       <c r="D181" t="n">
-        <v>2.24</v>
+        <v>1.28</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>251.44</v>
+        <v>21.28</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-0.22</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>MODIRUBBER</t>
+          <t>NUVOCO</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>116.81</v>
+        <v>367.3</v>
       </c>
       <c r="C182" t="n">
-        <v>119.4</v>
+        <v>372</v>
       </c>
       <c r="D182" t="n">
-        <v>2.22</v>
+        <v>1.28</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>116.4</v>
+        <v>364.55</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-2.51</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>DALMIASUG</t>
+          <t>JSWINFRA</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>316.8</v>
+        <v>281.35</v>
       </c>
       <c r="C183" t="n">
-        <v>323.8</v>
+        <v>284.95</v>
       </c>
       <c r="D183" t="n">
-        <v>2.21</v>
+        <v>1.28</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>323.7</v>
+        <v>283.85</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-0.03</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>XTGLOBAL</t>
+          <t>MIDWESTLTD</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>39.02</v>
+        <v>1273.6</v>
       </c>
       <c r="C184" t="n">
-        <v>39.88</v>
+        <v>1289.9</v>
       </c>
       <c r="D184" t="n">
-        <v>2.2</v>
+        <v>1.28</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>39.73</v>
+        <v>1290.2</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-0.38</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SRM</t>
+          <t>MANGALAM</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>634.1</v>
+        <v>61.2</v>
       </c>
       <c r="C185" t="n">
-        <v>648.05</v>
+        <v>61.97</v>
       </c>
       <c r="D185" t="n">
-        <v>2.2</v>
+        <v>1.26</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>640.4</v>
+        <v>62</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-1.18</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>INDSWFTLAB</t>
+          <t>SFL</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>103.75</v>
+        <v>636.95</v>
       </c>
       <c r="C186" t="n">
-        <v>106</v>
+        <v>645</v>
       </c>
       <c r="D186" t="n">
-        <v>2.17</v>
+        <v>1.26</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>103.49</v>
+        <v>635.3</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-2.37</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SHEMAROO</t>
+          <t>KIRLOSIND</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>111.56</v>
+        <v>3733.5</v>
       </c>
       <c r="C187" t="n">
-        <v>113.98</v>
+        <v>3780</v>
       </c>
       <c r="D187" t="n">
-        <v>2.17</v>
+        <v>1.25</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>111.49</v>
+        <v>3731.4</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-2.18</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>MAHAPEXLTD</t>
+          <t>PICCADIL</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>92.95</v>
+        <v>628.8</v>
       </c>
       <c r="C188" t="n">
-        <v>94.95999999999999</v>
+        <v>636.65</v>
       </c>
       <c r="D188" t="n">
-        <v>2.16</v>
+        <v>1.25</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>91.5</v>
+        <v>634.75</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-3.64</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>INFOMEDIA</t>
+          <t>ENERGYDEV</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>7</v>
+        <v>22.18</v>
       </c>
       <c r="C189" t="n">
-        <v>7.15</v>
+        <v>22.45</v>
       </c>
       <c r="D189" t="n">
-        <v>2.14</v>
+        <v>1.22</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>7.34</v>
+        <v>25.1</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>2.66</v>
+        <v>11.8</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ARSSBL</t>
+          <t>EUREKAFORB</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>733.4</v>
+        <v>591.8</v>
       </c>
       <c r="C190" t="n">
-        <v>749</v>
+        <v>599</v>
       </c>
       <c r="D190" t="n">
-        <v>2.13</v>
+        <v>1.22</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>759.6</v>
+        <v>594.95</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>1.42</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>NAHARINDUS</t>
+          <t>PIGL</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>110.55</v>
+        <v>158.12</v>
       </c>
       <c r="C191" t="n">
-        <v>112.86</v>
+        <v>160.05</v>
       </c>
       <c r="D191" t="n">
-        <v>2.09</v>
+        <v>1.22</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>113</v>
+        <v>158.69</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>0.12</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>VSTL</t>
+          <t>PACEDIGITK</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>137.14</v>
+        <v>213.32</v>
       </c>
       <c r="C192" t="n">
-        <v>140</v>
+        <v>215.9</v>
       </c>
       <c r="D192" t="n">
-        <v>2.09</v>
+        <v>1.21</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>139.62</v>
+        <v>216.27</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-0.27</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>RAYMONDREL</t>
+          <t>SAKUMA</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>542.75</v>
+        <v>2.47</v>
       </c>
       <c r="C193" t="n">
-        <v>554</v>
+        <v>2.5</v>
       </c>
       <c r="D193" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>536.15</v>
+        <v>2.5</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-3.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BAJEL</t>
+          <t>GANGAFORGE</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>191.03</v>
+        <v>3.31</v>
       </c>
       <c r="C194" t="n">
-        <v>194.99</v>
+        <v>3.35</v>
       </c>
       <c r="D194" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>189</v>
+        <v>3.32</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-3.07</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>PROSTARM</t>
+          <t>CYIENTDLM</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>161.65</v>
+        <v>447.6</v>
       </c>
       <c r="C195" t="n">
-        <v>165</v>
+        <v>453</v>
       </c>
       <c r="D195" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>156.31</v>
+        <v>443.55</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-5.27</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>GMRP&amp;UI</t>
+          <t>ATUL</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>120.41</v>
+        <v>6016.5</v>
       </c>
       <c r="C196" t="n">
-        <v>122.9</v>
+        <v>6089</v>
       </c>
       <c r="D196" t="n">
-        <v>2.07</v>
+        <v>1.21</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
-      <c r="F196" t="inlineStr"/>
+      <c r="F196" t="n">
+        <v>6086</v>
+      </c>
       <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="H196" t="n">
+        <v>-0.05</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>ETHOSLTD</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>53.3</v>
+        <v>2885</v>
       </c>
       <c r="C197" t="n">
-        <v>54.4</v>
+        <v>2919.8</v>
       </c>
       <c r="D197" t="n">
-        <v>2.06</v>
+        <v>1.21</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>54.45</v>
+        <v>2864.1</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>0.09</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>RPPINFRA</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>219.49</v>
+        <v>112.79</v>
       </c>
       <c r="C198" t="n">
-        <v>224</v>
+        <v>114.15</v>
       </c>
       <c r="D198" t="n">
-        <v>2.05</v>
+        <v>1.21</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>216.99</v>
+        <v>114.32</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-3.13</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>ZEELEARN</t>
+          <t>UTKARSHBNK</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>7.84</v>
+        <v>16.85</v>
       </c>
       <c r="C199" t="n">
-        <v>8</v>
+        <v>17.05</v>
       </c>
       <c r="D199" t="n">
-        <v>2.04</v>
+        <v>1.19</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>7.9</v>
+        <v>16.67</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-1.25</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>ACCPL</t>
+          <t>GLOBECIVIL</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>68.5</v>
+        <v>66.2</v>
       </c>
       <c r="C200" t="n">
-        <v>69.90000000000001</v>
+        <v>66.98</v>
       </c>
       <c r="D200" t="n">
-        <v>2.04</v>
+        <v>1.18</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>70</v>
+        <v>65.34</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>0.14</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>GENUSPAPER</t>
+          <t>ESSENTIA</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>15.69</v>
+        <v>1.69</v>
       </c>
       <c r="C201" t="n">
-        <v>16.01</v>
+        <v>1.71</v>
       </c>
       <c r="D201" t="n">
-        <v>2.04</v>
+        <v>1.18</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>15.93</v>
+        <v>1.7</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-0.5</v>
+        <v>-0.58</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,53 +478,53 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>WELINV</t>
+          <t>ACCPL</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1144.1</v>
+        <v>77.7</v>
       </c>
       <c r="C2" t="n">
-        <v>1298.9</v>
+        <v>88.95</v>
       </c>
       <c r="D2" t="n">
-        <v>13.53</v>
+        <v>14.48</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>1248.7</v>
+        <v>88</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-3.86</v>
+        <v>-1.07</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FAIRCHEMOR</t>
+          <t>GOLDTECH</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>635.15</v>
+        <v>55.08</v>
       </c>
       <c r="C3" t="n">
-        <v>700</v>
+        <v>60.9</v>
       </c>
       <c r="D3" t="n">
-        <v>10.21</v>
+        <v>10.57</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>717</v>
+        <v>63.38</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>2.43</v>
+        <v>4.07</v>
       </c>
     </row>
     <row r="4">
@@ -534,253 +534,253 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>291.2</v>
+        <v>320.3</v>
       </c>
       <c r="C4" t="n">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="D4" t="n">
-        <v>8.17</v>
+        <v>8.65</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PREMIUM</t>
+          <t>TEAMGTY</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35.65</v>
+        <v>250.2</v>
       </c>
       <c r="C5" t="n">
-        <v>37.9</v>
+        <v>269.2</v>
       </c>
       <c r="D5" t="n">
-        <v>6.31</v>
+        <v>7.59</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>38.6</v>
+        <v>270</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>1.85</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ARENTERP</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.92</v>
+        <v>2.61</v>
       </c>
       <c r="C6" t="n">
-        <v>47.7</v>
+        <v>2.8</v>
       </c>
       <c r="D6" t="n">
-        <v>6.19</v>
+        <v>7.28</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>48.59</v>
+        <v>2.63</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>1.87</v>
+        <v>-6.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GROWW</t>
+          <t>CALSOFT</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>174.45</v>
+        <v>16.35</v>
       </c>
       <c r="C7" t="n">
-        <v>185</v>
+        <v>17.5</v>
       </c>
       <c r="D7" t="n">
-        <v>6.05</v>
+        <v>7.03</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>187.32</v>
+        <v>16.95</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>1.25</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WEWORK</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.8</v>
+        <v>19.63</v>
       </c>
       <c r="C8" t="n">
-        <v>650</v>
+        <v>21</v>
       </c>
       <c r="D8" t="n">
-        <v>5.73</v>
+        <v>6.98</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>645.05</v>
+        <v>22.94</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>-0.76</v>
+        <v>9.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INDOTHAI</t>
+          <t>SHREYANIND</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>423</v>
+        <v>188.72</v>
       </c>
       <c r="C9" t="n">
-        <v>444.15</v>
+        <v>201</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6.51</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>444.15</v>
+        <v>191</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-4.98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>IZMO</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>903.25</v>
+        <v>80.04000000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>948.4</v>
+        <v>85</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>948.4</v>
+        <v>79.2</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-6.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PIRAMALFIN</t>
+          <t>WOL3D</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1564.7</v>
+        <v>168</v>
       </c>
       <c r="C11" t="n">
-        <v>1642.9</v>
+        <v>177</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>5.36</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1564</v>
+        <v>166.5</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-4.8</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MAXVOLT</t>
+          <t>MEGAFLEX</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>428.9</v>
+        <v>87.05</v>
       </c>
       <c r="C12" t="n">
-        <v>450.3</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>448</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>-0.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BHARATGEAR</t>
+          <t>INDOTHAI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.15</v>
+        <v>444.15</v>
       </c>
       <c r="C13" t="n">
-        <v>119.85</v>
+        <v>466.35</v>
       </c>
       <c r="D13" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>119.85</v>
+        <v>466.35</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
@@ -790,49 +790,49 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MODTHREAD</t>
+          <t>GSTL</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>43.58</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
-        <v>45.75</v>
+        <v>7.35</v>
       </c>
       <c r="D14" t="n">
-        <v>4.98</v>
+        <v>5</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>45.7</v>
+        <v>7.35</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-0.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DIVINEHIRA</t>
+          <t>VLEGOV</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>153.9</v>
+        <v>23.46</v>
       </c>
       <c r="C15" t="n">
-        <v>161.55</v>
+        <v>24.63</v>
       </c>
       <c r="D15" t="n">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>161.55</v>
+        <v>24.63</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
@@ -842,49 +842,49 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>RISHABH</t>
+          <t>K2INFRA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>416.55</v>
+        <v>64.55</v>
       </c>
       <c r="C16" t="n">
-        <v>437.25</v>
+        <v>67.75</v>
       </c>
       <c r="D16" t="n">
-        <v>4.97</v>
+        <v>4.96</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>432</v>
+        <v>67.75</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-1.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>VLEGOV</t>
+          <t>LCCINFOTEC</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>22.35</v>
+        <v>4.71</v>
       </c>
       <c r="C17" t="n">
-        <v>23.46</v>
+        <v>4.94</v>
       </c>
       <c r="D17" t="n">
-        <v>4.97</v>
+        <v>4.88</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>23.46</v>
+        <v>4.94</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -894,23 +894,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>K2INFRA</t>
+          <t>SHUBHLAXMI</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>61.5</v>
+        <v>18.7</v>
       </c>
       <c r="C18" t="n">
-        <v>64.55</v>
+        <v>19.6</v>
       </c>
       <c r="D18" t="n">
-        <v>4.96</v>
+        <v>4.81</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>64.55</v>
+        <v>19.6</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
@@ -920,49 +920,49 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>ALLCARGO</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.21</v>
+        <v>14.42</v>
       </c>
       <c r="C19" t="n">
-        <v>1.27</v>
+        <v>15.11</v>
       </c>
       <c r="D19" t="n">
-        <v>4.96</v>
+        <v>4.79</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.27</v>
+        <v>15.14</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>KONTOR</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.49</v>
+        <v>63.1</v>
       </c>
       <c r="C20" t="n">
-        <v>4.71</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4.71</v>
+        <v>66.09999999999999</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
@@ -972,1245 +972,1245 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VLSFINANCE</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>252.31</v>
+        <v>1.27</v>
       </c>
       <c r="C21" t="n">
-        <v>264.6</v>
+        <v>1.33</v>
       </c>
       <c r="D21" t="n">
-        <v>4.87</v>
+        <v>4.72</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>262.45</v>
+        <v>1.33</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-0.8100000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INFLUX</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>207.95</v>
+        <v>54.95</v>
       </c>
       <c r="C22" t="n">
-        <v>218</v>
+        <v>57.5</v>
       </c>
       <c r="D22" t="n">
-        <v>4.83</v>
+        <v>4.64</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>218</v>
+        <v>57.35</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ALLCARGO</t>
+          <t>SUNLITE</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>13.74</v>
+        <v>272.8</v>
       </c>
       <c r="C23" t="n">
-        <v>14.4</v>
+        <v>285.4</v>
       </c>
       <c r="D23" t="n">
-        <v>4.8</v>
+        <v>4.62</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>14.42</v>
+        <v>275</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0.14</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SHUBHLAXMI</t>
+          <t>XELPMOC</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17.85</v>
+        <v>148.32</v>
       </c>
       <c r="C24" t="n">
-        <v>18.7</v>
+        <v>155</v>
       </c>
       <c r="D24" t="n">
-        <v>4.76</v>
+        <v>4.5</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>18.7</v>
+        <v>153.7</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ARTEMISMED</t>
+          <t>ENERGYDEV</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>271.73</v>
+        <v>26.61</v>
       </c>
       <c r="C25" t="n">
-        <v>284.59</v>
+        <v>27.74</v>
       </c>
       <c r="D25" t="n">
-        <v>4.73</v>
+        <v>4.25</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>294.97</v>
+        <v>28.6</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRECOT</t>
+          <t>UNIHEALTH</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>444.7</v>
+        <v>221.4</v>
       </c>
       <c r="C26" t="n">
-        <v>465</v>
+        <v>230.8</v>
       </c>
       <c r="D26" t="n">
-        <v>4.56</v>
+        <v>4.25</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>449.45</v>
+        <v>252</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-3.34</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AMEYA</t>
+          <t>FINKURVE</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>107.1</v>
+        <v>105.56</v>
       </c>
       <c r="C27" t="n">
-        <v>111.95</v>
+        <v>110</v>
       </c>
       <c r="D27" t="n">
-        <v>4.53</v>
+        <v>4.21</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>111.5</v>
+        <v>107.32</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-0.4</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IEML</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>107.2</v>
+        <v>1081.65</v>
       </c>
       <c r="C28" t="n">
-        <v>111.7</v>
+        <v>1127</v>
       </c>
       <c r="D28" t="n">
-        <v>4.2</v>
+        <v>4.19</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>121.05</v>
+        <v>1135.7</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>8.369999999999999</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ATLASCYCLE</t>
+          <t>NIRAJ</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>102.89</v>
+        <v>33.12</v>
       </c>
       <c r="C29" t="n">
-        <v>106.99</v>
+        <v>34.5</v>
       </c>
       <c r="D29" t="n">
-        <v>3.98</v>
+        <v>4.17</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>103.5</v>
+        <v>34.94</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-3.26</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>5PAISA</t>
+          <t>CTE</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>315.2</v>
+        <v>45.4</v>
       </c>
       <c r="C30" t="n">
-        <v>327.5</v>
+        <v>47.29</v>
       </c>
       <c r="D30" t="n">
-        <v>3.9</v>
+        <v>4.16</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>356.75</v>
+        <v>45.4</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>8.93</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>COMSYN</t>
+          <t>IEML</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>138.19</v>
+        <v>116.6</v>
       </c>
       <c r="C31" t="n">
-        <v>143.5</v>
+        <v>121.45</v>
       </c>
       <c r="D31" t="n">
-        <v>3.84</v>
+        <v>4.16</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>138</v>
+        <v>116.85</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-3.83</v>
+        <v>-3.79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>GRINFRA</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>16.36</v>
+        <v>1098.8</v>
       </c>
       <c r="C32" t="n">
-        <v>16.97</v>
+        <v>1144</v>
       </c>
       <c r="D32" t="n">
-        <v>3.73</v>
+        <v>4.11</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>17.35</v>
+        <v>1110.9</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>2.24</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SANWARIA</t>
+          <t>KPEL</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.27</v>
+        <v>393.65</v>
       </c>
       <c r="C33" t="n">
-        <v>0.28</v>
+        <v>409.65</v>
       </c>
       <c r="D33" t="n">
-        <v>3.7</v>
+        <v>4.06</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.28</v>
+        <v>416.8</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MADHAV</t>
+          <t>AIROLAM</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>41.37</v>
+        <v>103.81</v>
       </c>
       <c r="C34" t="n">
-        <v>42.84</v>
+        <v>108</v>
       </c>
       <c r="D34" t="n">
-        <v>3.55</v>
+        <v>4.04</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>42.9</v>
+        <v>106</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>0.14</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHAMUNDA</t>
+          <t>DIVINEHIRA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55.05</v>
+        <v>161.55</v>
       </c>
       <c r="C35" t="n">
-        <v>57</v>
+        <v>168</v>
       </c>
       <c r="D35" t="n">
-        <v>3.54</v>
+        <v>3.99</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>57</v>
+        <v>169.6</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WOL3D</t>
+          <t>WIPL</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>140</v>
+        <v>164.44</v>
       </c>
       <c r="C36" t="n">
-        <v>144.9</v>
+        <v>171</v>
       </c>
       <c r="D36" t="n">
-        <v>3.5</v>
+        <v>3.99</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.4</v>
+        <v>170.05</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>0.35</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JHS</t>
+          <t>SACHEEROME</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>11.79</v>
+        <v>322</v>
       </c>
       <c r="C37" t="n">
-        <v>12.2</v>
+        <v>334.75</v>
       </c>
       <c r="D37" t="n">
-        <v>3.48</v>
+        <v>3.96</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>11.79</v>
+        <v>338.1</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-3.36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>GVPTECH</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>54.15</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="C38" t="n">
-        <v>56</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>3.42</v>
+        <v>3.84</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>54.7</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-2.32</v>
+        <v>-7.82</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>WESTLIFE</t>
+          <t>GLOBALE</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>544.25</v>
+        <v>13.1</v>
       </c>
       <c r="C39" t="n">
-        <v>562.75</v>
+        <v>13.6</v>
       </c>
       <c r="D39" t="n">
-        <v>3.4</v>
+        <v>3.82</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>556.75</v>
+        <v>13.45</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-1.07</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ACL</t>
+          <t>ATLASCYCLE</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>76.41</v>
+        <v>100.19</v>
       </c>
       <c r="C40" t="n">
-        <v>78.98999999999999</v>
+        <v>104</v>
       </c>
       <c r="D40" t="n">
-        <v>3.38</v>
+        <v>3.8</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>76</v>
+        <v>103.96</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-3.79</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SMSLIFE</t>
+          <t>RICHA</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1301</v>
+        <v>86.75</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.9</v>
+        <v>90</v>
       </c>
       <c r="D41" t="n">
-        <v>3.37</v>
+        <v>3.75</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1320</v>
+        <v>91.05</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-1.85</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ISHANCH</t>
+          <t>PRITI</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>69.58</v>
+        <v>65.56999999999999</v>
       </c>
       <c r="C42" t="n">
-        <v>71.89</v>
+        <v>68</v>
       </c>
       <c r="D42" t="n">
-        <v>3.32</v>
+        <v>3.71</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>71.59999999999999</v>
+        <v>65.52</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-0.4</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>WORTHPERI</t>
+          <t>MAXVOLT</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>147.21</v>
+        <v>450.3</v>
       </c>
       <c r="C43" t="n">
-        <v>152</v>
+        <v>467</v>
       </c>
       <c r="D43" t="n">
-        <v>3.25</v>
+        <v>3.71</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>148.19</v>
+        <v>464.7</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-2.51</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NOIDATOLL</t>
+          <t>SANWARIA</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>4.35</v>
+        <v>0.27</v>
       </c>
       <c r="C44" t="n">
-        <v>4.49</v>
+        <v>0.28</v>
       </c>
       <c r="D44" t="n">
-        <v>3.22</v>
+        <v>3.7</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>4.36</v>
+        <v>0.28</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>APEXECO</t>
+          <t>MEGATHERM</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>132.6</v>
+        <v>233</v>
       </c>
       <c r="C45" t="n">
-        <v>136.8</v>
+        <v>241.55</v>
       </c>
       <c r="D45" t="n">
-        <v>3.17</v>
+        <v>3.67</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>135</v>
+        <v>231.25</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-1.32</v>
+        <v>-4.26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SHEKHAWATI</t>
+          <t>PEARLPOLY</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19</v>
+        <v>25.52</v>
       </c>
       <c r="C46" t="n">
-        <v>19.6</v>
+        <v>26.45</v>
       </c>
       <c r="D46" t="n">
-        <v>3.16</v>
+        <v>3.64</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>19.3</v>
+        <v>25.31</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-1.53</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SUNLITE</t>
+          <t>BILVYAPAR</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>259.85</v>
+        <v>10.99</v>
       </c>
       <c r="C47" t="n">
-        <v>268</v>
+        <v>11.39</v>
       </c>
       <c r="D47" t="n">
-        <v>3.14</v>
+        <v>3.64</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>272.8</v>
+        <v>11.34</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>1.79</v>
+        <v>-0.44</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KAUSHALYA</t>
+          <t>AZAD</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>969</v>
+        <v>1640.6</v>
       </c>
       <c r="C48" t="n">
-        <v>999</v>
+        <v>1700.1</v>
       </c>
       <c r="D48" t="n">
-        <v>3.1</v>
+        <v>3.63</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>999</v>
+        <v>1687.7</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>COUNCODOS</t>
+          <t>SEQUENT</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>6.49</v>
+        <v>247.56</v>
       </c>
       <c r="C49" t="n">
-        <v>6.69</v>
+        <v>256.44</v>
       </c>
       <c r="D49" t="n">
-        <v>3.08</v>
+        <v>3.59</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>6.49</v>
+        <v>247.44</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-2.99</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ONELIFECAP</t>
+          <t>GOLDIAM</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>12.89</v>
+        <v>369.55</v>
       </c>
       <c r="C50" t="n">
-        <v>13.28</v>
+        <v>382.7</v>
       </c>
       <c r="D50" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>13.26</v>
+        <v>383</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TECHLABS</t>
+          <t>TARMAT</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>433.25</v>
+        <v>51.68</v>
       </c>
       <c r="C51" t="n">
-        <v>446</v>
+        <v>53.49</v>
       </c>
       <c r="D51" t="n">
-        <v>2.94</v>
+        <v>3.5</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>442</v>
+        <v>53.15</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-0.9</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MITTAL</t>
+          <t>KDL</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>1.37</v>
+        <v>179.75</v>
       </c>
       <c r="C52" t="n">
-        <v>1.41</v>
+        <v>186</v>
       </c>
       <c r="D52" t="n">
-        <v>2.92</v>
+        <v>3.48</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>1.38</v>
+        <v>188.7</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-2.13</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ANUHPHR</t>
+          <t>AUSOMENT</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>80.11</v>
+        <v>103.28</v>
       </c>
       <c r="C53" t="n">
-        <v>82.44</v>
+        <v>106.8</v>
       </c>
       <c r="D53" t="n">
-        <v>2.91</v>
+        <v>3.41</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>81.01000000000001</v>
+        <v>101.3</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-1.73</v>
+        <v>-5.15</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CPCAP</t>
+          <t>MANALIPETC</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>114.62</v>
+        <v>67.86</v>
       </c>
       <c r="C54" t="n">
-        <v>117.9</v>
+        <v>70.17</v>
       </c>
       <c r="D54" t="n">
-        <v>2.86</v>
+        <v>3.4</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>116.53</v>
+        <v>68.66</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-1.16</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>XTGLOBAL</t>
+          <t>FLFL</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>38.78</v>
+        <v>1.49</v>
       </c>
       <c r="C55" t="n">
-        <v>39.89</v>
+        <v>1.54</v>
       </c>
       <c r="D55" t="n">
-        <v>2.86</v>
+        <v>3.36</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>39.64</v>
+        <v>1.49</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-0.63</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>KOHINOOR</t>
+          <t>SJS</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>29.53</v>
+        <v>1717.3</v>
       </c>
       <c r="C56" t="n">
-        <v>30.37</v>
+        <v>1775</v>
       </c>
       <c r="D56" t="n">
-        <v>2.84</v>
+        <v>3.36</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>29.74</v>
+        <v>1755.1</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-2.07</v>
+        <v>-1.12</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SUBAHOTELS</t>
+          <t>KRIDHANINF</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>160</v>
+        <v>3.71</v>
       </c>
       <c r="C57" t="n">
-        <v>164.45</v>
+        <v>3.83</v>
       </c>
       <c r="D57" t="n">
-        <v>2.78</v>
+        <v>3.23</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>160</v>
+        <v>3.71</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-2.71</v>
+        <v>-3.13</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FEL</t>
+          <t>PIRAMALFIN</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.36</v>
+        <v>1642.9</v>
       </c>
       <c r="C58" t="n">
-        <v>0.37</v>
+        <v>1695</v>
       </c>
       <c r="D58" t="n">
-        <v>2.78</v>
+        <v>3.17</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.37</v>
+        <v>1648</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SEJALLTD</t>
+          <t>SUMIT</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>893.6</v>
+        <v>80.37</v>
       </c>
       <c r="C59" t="n">
-        <v>918</v>
+        <v>82.89</v>
       </c>
       <c r="D59" t="n">
-        <v>2.73</v>
+        <v>3.14</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>890</v>
+        <v>81.13</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-3.05</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>ORTINGLOBE</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>121.55</v>
+        <v>11.74</v>
       </c>
       <c r="C60" t="n">
-        <v>124.8</v>
+        <v>12.1</v>
       </c>
       <c r="D60" t="n">
-        <v>2.67</v>
+        <v>3.07</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>123.89</v>
+        <v>11.8</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-0.73</v>
+        <v>-2.48</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>OSELDEVICE</t>
+          <t>BLBLIMITED</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>695.35</v>
+        <v>16.12</v>
       </c>
       <c r="C61" t="n">
-        <v>713.95</v>
+        <v>16.6</v>
       </c>
       <c r="D61" t="n">
-        <v>2.67</v>
+        <v>2.98</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>705</v>
+        <v>16.22</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-1.25</v>
+        <v>-2.29</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>RSSOFTWARE</t>
+          <t>MANORG</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>52.55</v>
+        <v>475.15</v>
       </c>
       <c r="C62" t="n">
-        <v>53.9</v>
+        <v>489</v>
       </c>
       <c r="D62" t="n">
-        <v>2.57</v>
+        <v>2.91</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>54.03</v>
+        <v>479.4</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>0.24</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>VISAKAIND</t>
+          <t>SASTASUNDR</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>74.34999999999999</v>
+        <v>308.15</v>
       </c>
       <c r="C63" t="n">
-        <v>76.2</v>
+        <v>316.95</v>
       </c>
       <c r="D63" t="n">
-        <v>2.49</v>
+        <v>2.86</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>75</v>
+        <v>311</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-1.57</v>
+        <v>-1.88</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HMT</t>
+          <t>MWL</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>54.66</v>
+        <v>232.72</v>
       </c>
       <c r="C64" t="n">
-        <v>56</v>
+        <v>239.35</v>
       </c>
       <c r="D64" t="n">
-        <v>2.45</v>
+        <v>2.85</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>55.5</v>
+        <v>235.21</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-0.89</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>OMFREIGHT</t>
+          <t>EVERESTIND</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>94.25</v>
+        <v>559.2</v>
       </c>
       <c r="C65" t="n">
-        <v>96.55</v>
+        <v>575</v>
       </c>
       <c r="D65" t="n">
-        <v>2.44</v>
+        <v>2.83</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>96.59</v>
+        <v>558.05</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>0.04</v>
+        <v>-2.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SUVIDHAA</t>
+          <t>HPAL</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.76</v>
+        <v>47.19</v>
       </c>
       <c r="C66" t="n">
-        <v>3.85</v>
+        <v>48.5</v>
       </c>
       <c r="D66" t="n">
-        <v>2.39</v>
+        <v>2.78</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>3.81</v>
+        <v>47.22</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-1.04</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SITINET</t>
+          <t>EXCEL</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.43</v>
+        <v>1.46</v>
       </c>
       <c r="C67" t="n">
-        <v>0.44</v>
+        <v>1.5</v>
       </c>
       <c r="D67" t="n">
-        <v>2.33</v>
+        <v>2.74</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>0.43</v>
+        <v>1.49</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-2.27</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FILATFASH</t>
+          <t>FEL</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.43</v>
+        <v>0.37</v>
       </c>
       <c r="C68" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="D68" t="n">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.44</v>
+        <v>0.38</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
@@ -2220,1869 +2220,1865 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RADIOCITY</t>
+          <t>MEDICO</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>6.9</v>
+        <v>51.48</v>
       </c>
       <c r="C69" t="n">
-        <v>7.06</v>
+        <v>52.85</v>
       </c>
       <c r="D69" t="n">
-        <v>2.32</v>
+        <v>2.66</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>6.98</v>
+        <v>51.05</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-1.13</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>PEARLPOLY</t>
+          <t>SHETHJI</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>25.42</v>
+        <v>107.2</v>
       </c>
       <c r="C70" t="n">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="D70" t="n">
-        <v>2.28</v>
+        <v>2.61</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>26</v>
+        <v>111.8</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MVGJL</t>
+          <t>MODTHREAD</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>199.34</v>
+        <v>43.85</v>
       </c>
       <c r="C71" t="n">
-        <v>203.85</v>
+        <v>44.99</v>
       </c>
       <c r="D71" t="n">
-        <v>2.26</v>
+        <v>2.6</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>197.79</v>
+        <v>43.71</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-2.97</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GEEKAYWIRE</t>
+          <t>RAMANEWS</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>32.18</v>
+        <v>29.73</v>
       </c>
       <c r="C72" t="n">
-        <v>32.9</v>
+        <v>30.5</v>
       </c>
       <c r="D72" t="n">
-        <v>2.24</v>
+        <v>2.59</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>32.32</v>
+        <v>29.99</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-1.76</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MEGASOFT</t>
+          <t>S&amp;SPOWER</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>199.11</v>
+        <v>267.9</v>
       </c>
       <c r="C73" t="n">
-        <v>203.58</v>
+        <v>274.8</v>
       </c>
       <c r="D73" t="n">
-        <v>2.24</v>
+        <v>2.58</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
-      <c r="F73" t="n">
-        <v>198</v>
-      </c>
+      <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="n">
-        <v>-2.74</v>
-      </c>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SALASAR</t>
+          <t>PRUDMOULI</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>10.32</v>
+        <v>24.84</v>
       </c>
       <c r="C74" t="n">
-        <v>10.55</v>
+        <v>25.48</v>
       </c>
       <c r="D74" t="n">
-        <v>2.23</v>
+        <v>2.58</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>10.49</v>
+        <v>25.48</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-0.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>ASHOKAMET</t>
+          <t>DEVIT</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>16.59</v>
+        <v>40.46</v>
       </c>
       <c r="C75" t="n">
-        <v>16.95</v>
+        <v>41.5</v>
       </c>
       <c r="D75" t="n">
-        <v>2.17</v>
+        <v>2.57</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>16.74</v>
+        <v>41.13</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-1.24</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GENUSPAPER</t>
+          <t>HMAAGRO</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>15.29</v>
+        <v>31.91</v>
       </c>
       <c r="C76" t="n">
-        <v>15.62</v>
+        <v>32.71</v>
       </c>
       <c r="D76" t="n">
-        <v>2.16</v>
+        <v>2.51</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>15.23</v>
+        <v>31.79</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-2.5</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ANANTAM</t>
+          <t>SONAMAC</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>102.09</v>
+        <v>56.1</v>
       </c>
       <c r="C77" t="n">
-        <v>104.3</v>
+        <v>57.5</v>
       </c>
       <c r="D77" t="n">
-        <v>2.16</v>
+        <v>2.5</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>103.81</v>
+        <v>57.5</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-0.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>FIBERWEB</t>
+          <t>EFFWA</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>39.45</v>
+        <v>248.3</v>
       </c>
       <c r="C78" t="n">
-        <v>40.3</v>
+        <v>254.5</v>
       </c>
       <c r="D78" t="n">
-        <v>2.15</v>
+        <v>2.5</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>39.61</v>
+        <v>246.95</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-1.71</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HMAAGRO</t>
+          <t>PAVNAIND</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>31.99</v>
+        <v>31.61</v>
       </c>
       <c r="C79" t="n">
-        <v>32.67</v>
+        <v>32.4</v>
       </c>
       <c r="D79" t="n">
-        <v>2.13</v>
+        <v>2.5</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>33.4</v>
+        <v>32.16</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>2.23</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ALMONDZ</t>
+          <t>WSI</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>17.46</v>
+        <v>79.5</v>
       </c>
       <c r="C80" t="n">
-        <v>17.83</v>
+        <v>81.48999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>17.39</v>
+        <v>79.97</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-2.47</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CHEMBONDCH</t>
+          <t>ABINFRA</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>149.84</v>
+        <v>18.75</v>
       </c>
       <c r="C81" t="n">
-        <v>153</v>
+        <v>19.21</v>
       </c>
       <c r="D81" t="n">
-        <v>2.11</v>
+        <v>2.45</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>152.98</v>
+        <v>18.91</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-0.01</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>KICL</t>
+          <t>ORIENTCER</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>5112</v>
+        <v>41.92</v>
       </c>
       <c r="C82" t="n">
-        <v>5220</v>
+        <v>42.94</v>
       </c>
       <c r="D82" t="n">
-        <v>2.11</v>
+        <v>2.43</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>5104</v>
+        <v>43.81</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-2.22</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>VGL</t>
+          <t>BHARATSE</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>156.64</v>
+        <v>179.55</v>
       </c>
       <c r="C83" t="n">
-        <v>159.95</v>
+        <v>183.9</v>
       </c>
       <c r="D83" t="n">
-        <v>2.11</v>
+        <v>2.42</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>161</v>
+        <v>180.3</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>0.66</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BLBLIMITED</t>
+          <t>IITL</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>16.64</v>
+        <v>175.69</v>
       </c>
       <c r="C84" t="n">
-        <v>16.99</v>
+        <v>179.95</v>
       </c>
       <c r="D84" t="n">
-        <v>2.1</v>
+        <v>2.42</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>16.35</v>
+        <v>179.94</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-3.77</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>INSPIRISYS</t>
+          <t>MITCON</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>101.88</v>
+        <v>66.3</v>
       </c>
       <c r="C85" t="n">
-        <v>104</v>
+        <v>67.89</v>
       </c>
       <c r="D85" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>103.8</v>
+        <v>67.8</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-0.19</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VAKRANGEE</t>
+          <t>ASHIMASYN</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>8.23</v>
+        <v>19.29</v>
       </c>
       <c r="C86" t="n">
-        <v>8.4</v>
+        <v>19.75</v>
       </c>
       <c r="D86" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>8.300000000000001</v>
+        <v>19.41</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-1.19</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BANSALWIRE</t>
+          <t>SITINET</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>311.75</v>
+        <v>0.42</v>
       </c>
       <c r="C87" t="n">
-        <v>318.2</v>
+        <v>0.43</v>
       </c>
       <c r="D87" t="n">
-        <v>2.07</v>
+        <v>2.38</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>318.2</v>
+        <v>0.42</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SEPC</t>
+          <t>VGL</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>10.68</v>
+        <v>156.28</v>
       </c>
       <c r="C88" t="n">
-        <v>10.9</v>
+        <v>159.98</v>
       </c>
       <c r="D88" t="n">
-        <v>2.06</v>
+        <v>2.37</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>10.73</v>
+        <v>157.9</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-1.56</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TIJARIA</t>
+          <t>TVVISION</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>6.38</v>
+        <v>5.93</v>
       </c>
       <c r="C89" t="n">
-        <v>6.51</v>
+        <v>6.07</v>
       </c>
       <c r="D89" t="n">
-        <v>2.04</v>
+        <v>2.36</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>6.48</v>
+        <v>5.77</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-0.46</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>INDOWIND</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>16.31</v>
+        <v>200.33</v>
       </c>
       <c r="C90" t="n">
-        <v>16.64</v>
+        <v>205</v>
       </c>
       <c r="D90" t="n">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>16.32</v>
+        <v>201.01</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-1.92</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HILINFRA</t>
+          <t>BIRLACABLE</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>68.81999999999999</v>
+        <v>147.6</v>
       </c>
       <c r="C91" t="n">
-        <v>70.2</v>
+        <v>151.01</v>
       </c>
       <c r="D91" t="n">
-        <v>2.01</v>
+        <v>2.31</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>69.23</v>
+        <v>148.38</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-1.38</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HPAL</t>
+          <t>RISHABH</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>46.82</v>
+        <v>437.35</v>
       </c>
       <c r="C92" t="n">
-        <v>47.76</v>
+        <v>447.35</v>
       </c>
       <c r="D92" t="n">
-        <v>2.01</v>
+        <v>2.29</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>47.19</v>
+        <v>446.1</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-1.19</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LANCORHOL</t>
+          <t>RUBYMILLS</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>28.55</v>
+        <v>237.58</v>
       </c>
       <c r="C93" t="n">
-        <v>29.12</v>
+        <v>243</v>
       </c>
       <c r="D93" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>29</v>
+        <v>240.45</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-0.41</v>
+        <v>-1.05</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INFOBEAN</t>
+          <t>INTELLECT</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>608.85</v>
+        <v>1088.3</v>
       </c>
       <c r="C94" t="n">
-        <v>621.05</v>
+        <v>1112.8</v>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>608.95</v>
+        <v>1128.1</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-1.95</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A2ZINFRA</t>
+          <t>SEJALLTD</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>17.11</v>
+        <v>878.75</v>
       </c>
       <c r="C95" t="n">
-        <v>17.45</v>
+        <v>898.5</v>
       </c>
       <c r="D95" t="n">
-        <v>1.99</v>
+        <v>2.25</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>17.56</v>
+        <v>882.25</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>0.63</v>
+        <v>-1.81</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CUBEXTUB</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>89.72</v>
+        <v>55.03</v>
       </c>
       <c r="C96" t="n">
-        <v>91.5</v>
+        <v>56.24</v>
       </c>
       <c r="D96" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>89.73999999999999</v>
+        <v>55.46</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-1.92</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>JOCIL</t>
+          <t>MUKTAARTS</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>149.05</v>
+        <v>65.56</v>
       </c>
       <c r="C97" t="n">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="D97" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>152</v>
+        <v>66</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DIACABS</t>
+          <t>VIPULLTD</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>151.02</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C98" t="n">
-        <v>153.99</v>
+        <v>9.84</v>
       </c>
       <c r="D98" t="n">
-        <v>1.97</v>
+        <v>2.18</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>150.54</v>
+        <v>9.68</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-2.24</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RADAAN</t>
+          <t>OMFREIGHT</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>3.06</v>
+        <v>101.9</v>
       </c>
       <c r="C99" t="n">
-        <v>3.12</v>
+        <v>104.12</v>
       </c>
       <c r="D99" t="n">
-        <v>1.96</v>
+        <v>2.18</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>3.17</v>
+        <v>101.62</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>1.6</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>AHCL</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.51</v>
+        <v>157.58</v>
       </c>
       <c r="C100" t="n">
-        <v>0.52</v>
+        <v>161</v>
       </c>
       <c r="D100" t="n">
-        <v>1.96</v>
+        <v>2.17</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>0.52</v>
+        <v>158</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AUSOMENT</t>
+          <t>TTL</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>101.57</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C101" t="n">
-        <v>103.55</v>
+        <v>9.5</v>
       </c>
       <c r="D101" t="n">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>102.8</v>
+        <v>9.5</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-0.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ZODIAC</t>
+          <t>INDTERRAIN</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>367.3</v>
+        <v>38.99</v>
       </c>
       <c r="C102" t="n">
-        <v>374.35</v>
+        <v>39.8</v>
       </c>
       <c r="D102" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>368.4</v>
+        <v>39.13</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-1.59</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>DGCONTENT</t>
+          <t>KRN</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>35.38</v>
+        <v>812.1</v>
       </c>
       <c r="C103" t="n">
-        <v>36.06</v>
+        <v>829</v>
       </c>
       <c r="D103" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>34.99</v>
+        <v>845.65</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-2.97</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>KEC</t>
+          <t>CIFL</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>785.1</v>
+        <v>33.02</v>
       </c>
       <c r="C104" t="n">
-        <v>800</v>
+        <v>33.7</v>
       </c>
       <c r="D104" t="n">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>782.15</v>
+        <v>33.18</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-2.23</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TPHQ</t>
+          <t>CHOICEIN</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.53</v>
+        <v>783.9</v>
       </c>
       <c r="C105" t="n">
-        <v>0.54</v>
+        <v>800</v>
       </c>
       <c r="D105" t="n">
-        <v>1.89</v>
+        <v>2.05</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.55</v>
+        <v>796.6</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>1.85</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>VARDMNPOLY</t>
+          <t>NINSYS</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>6.97</v>
+        <v>409.55</v>
       </c>
       <c r="C106" t="n">
-        <v>7.1</v>
+        <v>417.85</v>
       </c>
       <c r="D106" t="n">
-        <v>1.87</v>
+        <v>2.03</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>7.04</v>
+        <v>408.35</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-0.85</v>
+        <v>-2.27</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SURANASOL</t>
+          <t>STUDDS</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>30.63</v>
+        <v>571.45</v>
       </c>
       <c r="C107" t="n">
-        <v>31.2</v>
+        <v>583</v>
       </c>
       <c r="D107" t="n">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>30.58</v>
+        <v>591.45</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-1.99</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEX</t>
+          <t>JYOTISTRUC</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>1736.7</v>
+        <v>12.42</v>
       </c>
       <c r="C108" t="n">
-        <v>1769</v>
+        <v>12.67</v>
       </c>
       <c r="D108" t="n">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>1753</v>
+        <v>12.22</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-0.9</v>
+        <v>-3.55</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>TEMBO</t>
+          <t>KOHINOOR</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>780.55</v>
+        <v>29.8</v>
       </c>
       <c r="C109" t="n">
-        <v>795</v>
+        <v>30.4</v>
       </c>
       <c r="D109" t="n">
-        <v>1.85</v>
+        <v>2.01</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>771.75</v>
+        <v>29.65</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-2.92</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>PREMIERPOL</t>
+          <t>FROG</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>39.26</v>
+        <v>167</v>
       </c>
       <c r="C110" t="n">
-        <v>39.98</v>
+        <v>170.35</v>
       </c>
       <c r="D110" t="n">
-        <v>1.83</v>
+        <v>2.01</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>39.3</v>
+        <v>170.35</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-1.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SAMBHAAV</t>
+          <t>VALIANTLAB</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>9.31</v>
+        <v>79.41</v>
       </c>
       <c r="C111" t="n">
-        <v>9.48</v>
+        <v>81</v>
       </c>
       <c r="D111" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>9.199999999999999</v>
+        <v>79.01000000000001</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-2.95</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FLAIR</t>
+          <t>BALAXI</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>316.2</v>
+        <v>35.98</v>
       </c>
       <c r="C112" t="n">
-        <v>321.95</v>
+        <v>36.7</v>
       </c>
       <c r="D112" t="n">
-        <v>1.82</v>
+        <v>2</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>312.45</v>
+        <v>36.33</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-2.95</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SETCO</t>
+          <t>IMFA</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>17.17</v>
+        <v>1284.8</v>
       </c>
       <c r="C113" t="n">
-        <v>17.48</v>
+        <v>1310.5</v>
       </c>
       <c r="D113" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>17.05</v>
+        <v>1369.5</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-2.46</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>WEALTH</t>
+          <t>MANGALAM</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>1011.3</v>
+        <v>61.19</v>
       </c>
       <c r="C114" t="n">
-        <v>1029.5</v>
+        <v>62.4</v>
       </c>
       <c r="D114" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>1045</v>
+        <v>58.7</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>1.51</v>
+        <v>-5.93</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>AKSHAR</t>
+          <t>DBSTOCKBRO</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.5600000000000001</v>
+        <v>25.35</v>
       </c>
       <c r="C115" t="n">
-        <v>0.57</v>
+        <v>25.85</v>
       </c>
       <c r="D115" t="n">
-        <v>1.79</v>
+        <v>1.97</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.57</v>
+        <v>25.59</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>-1.01</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BANARBEADS</t>
+          <t>LOTUSEYE</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>136.06</v>
+        <v>103.75</v>
       </c>
       <c r="C116" t="n">
-        <v>138.5</v>
+        <v>105.78</v>
       </c>
       <c r="D116" t="n">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>135.8</v>
+        <v>106.4</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-1.95</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>RULKA</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>115.85</v>
+        <v>0.51</v>
       </c>
       <c r="C117" t="n">
-        <v>117.9</v>
+        <v>0.52</v>
       </c>
       <c r="D117" t="n">
-        <v>1.77</v>
+        <v>1.96</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>118.95</v>
+        <v>0.52</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>0.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>YASHO</t>
+          <t>JHS</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>1699</v>
+        <v>11.77</v>
       </c>
       <c r="C118" t="n">
-        <v>1729</v>
+        <v>12</v>
       </c>
       <c r="D118" t="n">
-        <v>1.77</v>
+        <v>1.95</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>1692</v>
+        <v>11.77</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-2.14</v>
+        <v>-1.92</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MAXHEALTH</t>
+          <t>STEL</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1121.6</v>
+        <v>470.5</v>
       </c>
       <c r="C119" t="n">
-        <v>1141.4</v>
+        <v>479.65</v>
       </c>
       <c r="D119" t="n">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>1140.1</v>
+        <v>475</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-0.11</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PRUDENT</t>
+          <t>AUTOIND</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>2495</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="C120" t="n">
-        <v>2539</v>
+        <v>68.3</v>
       </c>
       <c r="D120" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>2496.6</v>
+        <v>67.01000000000001</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-1.67</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>DEVIT</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>40.29</v>
+        <v>631.8</v>
       </c>
       <c r="C121" t="n">
-        <v>41</v>
+        <v>644</v>
       </c>
       <c r="D121" t="n">
-        <v>1.76</v>
+        <v>1.93</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>40.42</v>
+        <v>645.55</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-1.41</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SGIL</t>
+          <t>CEREBRAINT</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>548.2</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>557.8</v>
+        <v>8.44</v>
       </c>
       <c r="D122" t="n">
-        <v>1.75</v>
+        <v>1.93</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>547.9</v>
+        <v>8.4</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-1.77</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ADVANCE</t>
+          <t>AGSTRA</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>146.36</v>
+        <v>4.66</v>
       </c>
       <c r="C123" t="n">
-        <v>148.9</v>
+        <v>4.75</v>
       </c>
       <c r="D123" t="n">
-        <v>1.74</v>
+        <v>1.93</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>145.33</v>
+        <v>4.8</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-2.4</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ASTRAZEN</t>
+          <t>TGBHOTELS</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>9140</v>
+        <v>10.92</v>
       </c>
       <c r="C124" t="n">
-        <v>9298.5</v>
+        <v>11.13</v>
       </c>
       <c r="D124" t="n">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>9178.5</v>
+        <v>11.18</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-1.29</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>BAIDFIN</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>10.45</v>
+        <v>132.95</v>
       </c>
       <c r="C125" t="n">
-        <v>10.63</v>
+        <v>135.49</v>
       </c>
       <c r="D125" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>10.52</v>
+        <v>133.96</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-1.03</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>GUJAPOLLO</t>
+          <t>DUCON</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>481.8</v>
+        <v>4.71</v>
       </c>
       <c r="C126" t="n">
-        <v>489.95</v>
+        <v>4.8</v>
       </c>
       <c r="D126" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>484.95</v>
+        <v>4.72</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-1.02</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>TARMAT</t>
+          <t>SADHNANIQ</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>52.77</v>
+        <v>6.86</v>
       </c>
       <c r="C127" t="n">
-        <v>53.65</v>
+        <v>6.99</v>
       </c>
       <c r="D127" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>52.63</v>
+        <v>6.9</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-1.9</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SARTELE</t>
+          <t>BANSALWIRE</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>174.05</v>
+        <v>323.85</v>
       </c>
       <c r="C128" t="n">
-        <v>176.95</v>
+        <v>330</v>
       </c>
       <c r="D128" t="n">
-        <v>1.67</v>
+        <v>1.9</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>174.55</v>
+        <v>326</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-1.36</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>GSLSU</t>
+          <t>APCL</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>131.21</v>
+        <v>125.62</v>
       </c>
       <c r="C129" t="n">
-        <v>133.38</v>
+        <v>128</v>
       </c>
       <c r="D129" t="n">
-        <v>1.65</v>
+        <v>1.89</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>130.74</v>
+        <v>124.2</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-1.98</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>GEECEE</t>
+          <t>VAISHALI</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>362.5</v>
+        <v>9.52</v>
       </c>
       <c r="C130" t="n">
-        <v>368.45</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D130" t="n">
-        <v>1.64</v>
+        <v>1.89</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>360.6</v>
+        <v>9.56</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-2.13</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>BGRENERGY</t>
+          <t>GATECHDVR</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>411.8</v>
+        <v>0.53</v>
       </c>
       <c r="C131" t="n">
-        <v>418.5</v>
+        <v>0.54</v>
       </c>
       <c r="D131" t="n">
-        <v>1.63</v>
+        <v>1.89</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>408</v>
+        <v>0.53</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-2.51</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BASML</t>
+          <t>SJLOGISTIC</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>29.03</v>
+        <v>392.6</v>
       </c>
       <c r="C132" t="n">
-        <v>29.5</v>
+        <v>400</v>
       </c>
       <c r="D132" t="n">
-        <v>1.62</v>
+        <v>1.88</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>28.47</v>
+        <v>412.35</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-3.49</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>OSIAHYPER</t>
+          <t>20MICRONS</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>20.5</v>
+        <v>195.1</v>
       </c>
       <c r="C133" t="n">
-        <v>20.83</v>
+        <v>198.75</v>
       </c>
       <c r="D133" t="n">
-        <v>1.61</v>
+        <v>1.87</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>20.6</v>
+        <v>194.18</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-1.1</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GKENERGY</t>
+          <t>SUVEN</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>197.89</v>
+        <v>178.66</v>
       </c>
       <c r="C134" t="n">
-        <v>201.01</v>
+        <v>181.99</v>
       </c>
       <c r="D134" t="n">
-        <v>1.58</v>
+        <v>1.86</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>197.5</v>
+        <v>179.51</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-1.75</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>GEMAROMA</t>
+          <t>MCLOUD</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>184.11</v>
+        <v>64.31</v>
       </c>
       <c r="C135" t="n">
-        <v>187</v>
+        <v>65.5</v>
       </c>
       <c r="D135" t="n">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>184.34</v>
+        <v>64.28</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-1.42</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>LAXMIINDIA</t>
+          <t>ORIENTALTL</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>129.61</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="C136" t="n">
-        <v>131.65</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>1.57</v>
+        <v>1.84</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>134.54</v>
+        <v>9.23</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>2.2</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>JMA</t>
+          <t>SEPC</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>88.02</v>
+        <v>10.44</v>
       </c>
       <c r="C137" t="n">
-        <v>89.40000000000001</v>
+        <v>10.63</v>
       </c>
       <c r="D137" t="n">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>88</v>
+        <v>10.5</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-1.57</v>
+        <v>-1.22</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>RADIANTCMS</t>
+          <t>GLOBE</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>53.6</v>
+        <v>2.76</v>
       </c>
       <c r="C138" t="n">
-        <v>54.43</v>
+        <v>2.81</v>
       </c>
       <c r="D138" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>53.9</v>
+        <v>2.88</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-0.97</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>GANESHBE</t>
+          <t>VIKASECO</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>85.56999999999999</v>
+        <v>1.66</v>
       </c>
       <c r="C139" t="n">
-        <v>86.90000000000001</v>
+        <v>1.69</v>
       </c>
       <c r="D139" t="n">
-        <v>1.55</v>
+        <v>1.81</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>85.19</v>
+        <v>1.68</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-1.97</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>BOROSCI</t>
+          <t>SHYAMCENT</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>124.78</v>
+        <v>5.6</v>
       </c>
       <c r="C140" t="n">
-        <v>126.7</v>
+        <v>5.7</v>
       </c>
       <c r="D140" t="n">
-        <v>1.54</v>
+        <v>1.79</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>125.59</v>
+        <v>5.65</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
@@ -4092,1579 +4088,1587 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>AMDIND</t>
+          <t>ARVIND</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>55.74</v>
+        <v>346.35</v>
       </c>
       <c r="C141" t="n">
-        <v>56.6</v>
+        <v>352.5</v>
       </c>
       <c r="D141" t="n">
-        <v>1.54</v>
+        <v>1.78</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>56.58</v>
+        <v>348.4</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-0.04</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>AHCL</t>
+          <t>DUCOL</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>150.11</v>
+        <v>196.35</v>
       </c>
       <c r="C142" t="n">
-        <v>152.4</v>
+        <v>199.85</v>
       </c>
       <c r="D142" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>157.61</v>
+        <v>198</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>3.42</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TICL</t>
+          <t>RSSOFTWARE</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>31.97</v>
+        <v>51.78</v>
       </c>
       <c r="C143" t="n">
-        <v>32.46</v>
+        <v>52.7</v>
       </c>
       <c r="D143" t="n">
-        <v>1.53</v>
+        <v>1.78</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>32.2</v>
+        <v>51.94</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-0.8</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BROOKS</t>
+          <t>HINDCON</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>102.74</v>
+        <v>30.77</v>
       </c>
       <c r="C144" t="n">
-        <v>104.3</v>
+        <v>31.31</v>
       </c>
       <c r="D144" t="n">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>103.39</v>
+        <v>31.08</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-0.87</v>
+        <v>-0.73</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>EXCELINDUS</t>
+          <t>TPHQ</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>981.7</v>
+        <v>0.57</v>
       </c>
       <c r="C145" t="n">
-        <v>996.6</v>
+        <v>0.58</v>
       </c>
       <c r="D145" t="n">
-        <v>1.52</v>
+        <v>1.75</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>982.9</v>
+        <v>0.59</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-1.37</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ONWARDTEC</t>
+          <t>ISFT</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>288.05</v>
+        <v>93.41</v>
       </c>
       <c r="C146" t="n">
-        <v>292.4</v>
+        <v>95</v>
       </c>
       <c r="D146" t="n">
-        <v>1.51</v>
+        <v>1.7</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>286.2</v>
+        <v>93.06</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-2.12</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>UNIINFO</t>
+          <t>SIKKO</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>16.65</v>
+        <v>108.06</v>
       </c>
       <c r="C147" t="n">
-        <v>16.9</v>
+        <v>109.89</v>
       </c>
       <c r="D147" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>16.9</v>
+        <v>109.4</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AARTISURF</t>
+          <t>JETFREIGHT</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>452.65</v>
+        <v>14.23</v>
       </c>
       <c r="C148" t="n">
-        <v>459.45</v>
+        <v>14.47</v>
       </c>
       <c r="D148" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>459</v>
+        <v>14.4</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-0.1</v>
+        <v>-0.48</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>MCLOUD</t>
+          <t>NAHARINDUS</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>64.90000000000001</v>
+        <v>119.79</v>
       </c>
       <c r="C149" t="n">
-        <v>65.87</v>
+        <v>121.81</v>
       </c>
       <c r="D149" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>65.91</v>
+        <v>120.06</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>0.06</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>LINC</t>
+          <t>DBCORP</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>125.23</v>
+        <v>260.5</v>
       </c>
       <c r="C150" t="n">
-        <v>127.1</v>
+        <v>264.9</v>
       </c>
       <c r="D150" t="n">
-        <v>1.49</v>
+        <v>1.69</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>124.84</v>
+        <v>260.3</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-1.78</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>GOLDTECH</t>
+          <t>PIONEEREMB</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>55.56</v>
+        <v>30.44</v>
       </c>
       <c r="C151" t="n">
-        <v>56.39</v>
+        <v>30.95</v>
       </c>
       <c r="D151" t="n">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>55.79</v>
+        <v>29.8</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-1.06</v>
+        <v>-3.72</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>BPL</t>
+          <t>ROLLT</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>67.65000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="C152" t="n">
-        <v>68.65000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="D152" t="n">
-        <v>1.48</v>
+        <v>1.67</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>67.77</v>
+        <v>1.22</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>PARASPETRO</t>
+          <t>BAGFILMS</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.05</v>
+        <v>6.59</v>
       </c>
       <c r="C153" t="n">
-        <v>2.08</v>
+        <v>6.7</v>
       </c>
       <c r="D153" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>2.04</v>
+        <v>6.58</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-1.92</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EBGNG</t>
+          <t>SOLARINDS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>332.1</v>
+        <v>13770</v>
       </c>
       <c r="C154" t="n">
-        <v>336.95</v>
+        <v>14000</v>
       </c>
       <c r="D154" t="n">
-        <v>1.46</v>
+        <v>1.67</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>332.7</v>
+        <v>13888</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-1.26</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HILTON</t>
+          <t>ORCHPHARMA</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>46.86</v>
+        <v>842.15</v>
       </c>
       <c r="C155" t="n">
-        <v>47.54</v>
+        <v>855.9</v>
       </c>
       <c r="D155" t="n">
-        <v>1.45</v>
+        <v>1.63</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>46.37</v>
+        <v>843.05</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-2.46</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>INDSWFTLAB</t>
+          <t>SAGARDEEP</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>99.56999999999999</v>
+        <v>26.32</v>
       </c>
       <c r="C156" t="n">
-        <v>101</v>
+        <v>26.75</v>
       </c>
       <c r="D156" t="n">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>99.92</v>
+        <v>26.49</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-1.07</v>
+        <v>-0.97</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>VSTTILLERS</t>
+          <t>NRAIL</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>5570</v>
+        <v>480.3</v>
       </c>
       <c r="C157" t="n">
-        <v>5650</v>
+        <v>488</v>
       </c>
       <c r="D157" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>5620</v>
+        <v>483</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-0.53</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>ANNAPURNA</t>
+          <t>GABRIEL</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>240.55</v>
+        <v>982.2</v>
       </c>
       <c r="C158" t="n">
-        <v>244</v>
+        <v>997.8</v>
       </c>
       <c r="D158" t="n">
-        <v>1.43</v>
+        <v>1.59</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>244</v>
+        <v>1010.8</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>21STCENMGM</t>
+          <t>LGEINDIA</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>42.4</v>
+        <v>1624.1</v>
       </c>
       <c r="C159" t="n">
-        <v>43</v>
+        <v>1650</v>
       </c>
       <c r="D159" t="n">
-        <v>1.42</v>
+        <v>1.59</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>41.55</v>
+        <v>1646.1</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-3.37</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>HINDOILEXP</t>
+          <t>NSIL</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>139.53</v>
+        <v>6871.5</v>
       </c>
       <c r="C160" t="n">
-        <v>141.5</v>
+        <v>6979.5</v>
       </c>
       <c r="D160" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>140.16</v>
+        <v>6844.5</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-0.95</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EIMCOELECO</t>
+          <t>UDS</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1712.9</v>
+        <v>195.92</v>
       </c>
       <c r="C161" t="n">
-        <v>1737</v>
+        <v>198.99</v>
       </c>
       <c r="D161" t="n">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1704.5</v>
+        <v>197.99</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-1.87</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>DHANBANK</t>
+          <t>COMPUSOFT</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>27.32</v>
+        <v>17.92</v>
       </c>
       <c r="C162" t="n">
-        <v>27.7</v>
+        <v>18.2</v>
       </c>
       <c r="D162" t="n">
-        <v>1.39</v>
+        <v>1.56</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>27.35</v>
+        <v>17.7</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-1.26</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>NIITMTS</t>
+          <t>AXISCADES</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>345.2</v>
+        <v>1500.6</v>
       </c>
       <c r="C163" t="n">
-        <v>350</v>
+        <v>1523.9</v>
       </c>
       <c r="D163" t="n">
-        <v>1.39</v>
+        <v>1.55</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>343.55</v>
+        <v>1522</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-1.84</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>IL&amp;FSTRANS</t>
+          <t>LATTEYS</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>2.9</v>
+        <v>24.23</v>
       </c>
       <c r="C164" t="n">
-        <v>2.94</v>
+        <v>24.6</v>
       </c>
       <c r="D164" t="n">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
-      <c r="F164" t="inlineStr"/>
+      <c r="F164" t="n">
+        <v>24.76</v>
+      </c>
       <c r="G164" t="inlineStr"/>
-      <c r="H164" t="inlineStr"/>
+      <c r="H164" t="n">
+        <v>0.65</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>INDOTECH</t>
+          <t>NECCLTD</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>1812.5</v>
+        <v>21.03</v>
       </c>
       <c r="C165" t="n">
-        <v>1837.3</v>
+        <v>21.35</v>
       </c>
       <c r="D165" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>1800</v>
+        <v>21.2</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-2.03</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AMBUJACEM</t>
+          <t>SHREERAMA</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>560.3</v>
+        <v>56.73</v>
       </c>
       <c r="C166" t="n">
-        <v>568</v>
+        <v>57.59</v>
       </c>
       <c r="D166" t="n">
-        <v>1.37</v>
+        <v>1.52</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>560.6</v>
+        <v>57</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-1.3</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>AXISCADES</t>
+          <t>LAMBODHARA</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>1560.6</v>
+        <v>136.34</v>
       </c>
       <c r="C167" t="n">
-        <v>1582</v>
+        <v>138.4</v>
       </c>
       <c r="D167" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>1543.4</v>
+        <v>136.4</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-2.44</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>WONDERLA</t>
+          <t>MMP</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>541.65</v>
+        <v>261.75</v>
       </c>
       <c r="C168" t="n">
-        <v>549</v>
+        <v>265.7</v>
       </c>
       <c r="D168" t="n">
-        <v>1.36</v>
+        <v>1.51</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>541.35</v>
+        <v>262.15</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-1.39</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>NSIL</t>
+          <t>PROSTARM</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>6924</v>
+        <v>159.36</v>
       </c>
       <c r="C169" t="n">
-        <v>7017</v>
+        <v>161.75</v>
       </c>
       <c r="D169" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>6940</v>
+        <v>162.49</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-1.1</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>CONTROLPR</t>
+          <t>INVENTURE</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>729.9</v>
+        <v>1.33</v>
       </c>
       <c r="C170" t="n">
-        <v>739.7</v>
+        <v>1.35</v>
       </c>
       <c r="D170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="E170" t="b">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
         <v>1.34</v>
-      </c>
-      <c r="E170" t="b">
-        <v>0</v>
-      </c>
-      <c r="F170" t="n">
-        <v>764.65</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>3.37</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GANDHAR</t>
+          <t>SREEL</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>143.96</v>
+        <v>235.28</v>
       </c>
       <c r="C171" t="n">
-        <v>145.89</v>
+        <v>238.8</v>
       </c>
       <c r="D171" t="n">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>143.2</v>
+        <v>238</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-1.84</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ASHAPURMIN</t>
+          <t>RUBFILA</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>710.55</v>
+        <v>81.27</v>
       </c>
       <c r="C172" t="n">
-        <v>720</v>
+        <v>82.48</v>
       </c>
       <c r="D172" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>697.85</v>
+        <v>81</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-3.08</v>
+        <v>-1.79</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ISFT</t>
+          <t>KOTHARIPRO</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>92.98</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="C173" t="n">
-        <v>94.2</v>
+        <v>85.2</v>
       </c>
       <c r="D173" t="n">
-        <v>1.31</v>
+        <v>1.48</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>92.45999999999999</v>
+        <v>84.68000000000001</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-1.85</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GMRP&amp;UI</t>
+          <t>RAJTV</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>127.87</v>
+        <v>37.39</v>
       </c>
       <c r="C174" t="n">
-        <v>129.54</v>
+        <v>37.94</v>
       </c>
       <c r="D174" t="n">
-        <v>1.31</v>
+        <v>1.47</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
-      <c r="F174" t="inlineStr"/>
+      <c r="F174" t="n">
+        <v>36.75</v>
+      </c>
       <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
+      <c r="H174" t="n">
+        <v>-3.14</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>JPOLYINVST</t>
+          <t>RADIANTCMS</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>962.4</v>
+        <v>52.63</v>
       </c>
       <c r="C175" t="n">
-        <v>975</v>
+        <v>53.4</v>
       </c>
       <c r="D175" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>957.05</v>
+        <v>53.25</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-1.84</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BANARISUG</t>
+          <t>BSL</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>3601.6</v>
+        <v>192.19</v>
       </c>
       <c r="C176" t="n">
-        <v>3648.9</v>
+        <v>194.99</v>
       </c>
       <c r="D176" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>3621</v>
+        <v>192</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-0.76</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>THYROCARE</t>
+          <t>ESCORTS</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>1552.8</v>
+        <v>3618.8</v>
       </c>
       <c r="C177" t="n">
-        <v>1573.2</v>
+        <v>3671.1</v>
       </c>
       <c r="D177" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>1554.2</v>
+        <v>3591</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-1.21</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>KCPSUGIND</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>54.88</v>
+        <v>27.53</v>
       </c>
       <c r="C178" t="n">
-        <v>55.6</v>
+        <v>27.93</v>
       </c>
       <c r="D178" t="n">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>54.29</v>
+        <v>27.57</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-2.36</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>PATINTLOG</t>
+          <t>NEXTMEDIA</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>13.91</v>
+        <v>6.26</v>
       </c>
       <c r="C179" t="n">
-        <v>14.09</v>
+        <v>6.35</v>
       </c>
       <c r="D179" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>14.06</v>
+        <v>6.34</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-0.21</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>NINSYS</t>
+          <t>HTMEDIA</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>409.4</v>
+        <v>25.73</v>
       </c>
       <c r="C180" t="n">
-        <v>414.7</v>
+        <v>26.1</v>
       </c>
       <c r="D180" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>412.3</v>
+        <v>25.99</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-0.58</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LAXMICOT</t>
+          <t>AERONEU</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>21.07</v>
+        <v>77.98</v>
       </c>
       <c r="C181" t="n">
-        <v>21.34</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="D181" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>21.28</v>
+        <v>77.89</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-0.28</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>NUVOCO</t>
+          <t>CUBEXTUB</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>367.3</v>
+        <v>86.73</v>
       </c>
       <c r="C182" t="n">
-        <v>372</v>
+        <v>87.98</v>
       </c>
       <c r="D182" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>364.55</v>
+        <v>86</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-2</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>JSWINFRA</t>
+          <t>OMAXE</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>281.35</v>
+        <v>73.04000000000001</v>
       </c>
       <c r="C183" t="n">
-        <v>284.95</v>
+        <v>74.09</v>
       </c>
       <c r="D183" t="n">
-        <v>1.28</v>
+        <v>1.44</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>283.85</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-0.39</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>MIDWESTLTD</t>
+          <t>AKZOINDIA</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>1273.6</v>
+        <v>3381.7</v>
       </c>
       <c r="C184" t="n">
-        <v>1289.9</v>
+        <v>3430</v>
       </c>
       <c r="D184" t="n">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>1290.2</v>
+        <v>3347.9</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>0.02</v>
+        <v>-2.39</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MANGALAM</t>
+          <t>MUFIN</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>61.2</v>
+        <v>114.86</v>
       </c>
       <c r="C185" t="n">
-        <v>61.97</v>
+        <v>116.5</v>
       </c>
       <c r="D185" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>62</v>
+        <v>114.51</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>0.05</v>
+        <v>-1.71</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SFL</t>
+          <t>WONDERLA</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>636.95</v>
+        <v>558.65</v>
       </c>
       <c r="C186" t="n">
-        <v>645</v>
+        <v>566.65</v>
       </c>
       <c r="D186" t="n">
-        <v>1.26</v>
+        <v>1.43</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>635.3</v>
+        <v>567.05</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-1.5</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>KIRLOSIND</t>
+          <t>SMARTWORKS</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>3733.5</v>
+        <v>575.8</v>
       </c>
       <c r="C187" t="n">
-        <v>3780</v>
+        <v>584</v>
       </c>
       <c r="D187" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>3731.4</v>
+        <v>573.7</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-1.29</v>
+        <v>-1.76</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>PICCADIL</t>
+          <t>TCIFINANCE</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>628.8</v>
+        <v>11.31</v>
       </c>
       <c r="C188" t="n">
-        <v>636.65</v>
+        <v>11.47</v>
       </c>
       <c r="D188" t="n">
-        <v>1.25</v>
+        <v>1.41</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>634.75</v>
+        <v>11.1</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-0.3</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ENERGYDEV</t>
+          <t>ORICONENT</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>22.18</v>
+        <v>58.14</v>
       </c>
       <c r="C189" t="n">
-        <v>22.45</v>
+        <v>58.95</v>
       </c>
       <c r="D189" t="n">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>25.1</v>
+        <v>58.24</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>11.8</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>EUREKAFORB</t>
+          <t>PENINLAND</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>591.8</v>
+        <v>31.89</v>
       </c>
       <c r="C190" t="n">
-        <v>599</v>
+        <v>32.33</v>
       </c>
       <c r="D190" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>594.95</v>
+        <v>31.8</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-0.68</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PIGL</t>
+          <t>DHUNINV</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>158.12</v>
+        <v>1300.9</v>
       </c>
       <c r="C191" t="n">
-        <v>160.05</v>
+        <v>1318.9</v>
       </c>
       <c r="D191" t="n">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>158.69</v>
+        <v>1296.2</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-0.85</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>PACEDIGITK</t>
+          <t>INFOMEDIA</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>213.32</v>
+        <v>7.28</v>
       </c>
       <c r="C192" t="n">
-        <v>215.9</v>
+        <v>7.38</v>
       </c>
       <c r="D192" t="n">
-        <v>1.21</v>
+        <v>1.37</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>216.27</v>
+        <v>7.31</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>0.17</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SAKUMA</t>
+          <t>KCP</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>2.47</v>
+        <v>181.36</v>
       </c>
       <c r="C193" t="n">
-        <v>2.5</v>
+        <v>183.8</v>
       </c>
       <c r="D193" t="n">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>2.5</v>
+        <v>180.87</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>GANGAFORGE</t>
+          <t>AIMTRON</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>3.31</v>
+        <v>981.7</v>
       </c>
       <c r="C194" t="n">
-        <v>3.35</v>
+        <v>994.9</v>
       </c>
       <c r="D194" t="n">
-        <v>1.21</v>
+        <v>1.34</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>3.32</v>
+        <v>987.95</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CYIENTDLM</t>
+          <t>KAMOPAINTS</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>447.6</v>
+        <v>7.5</v>
       </c>
       <c r="C195" t="n">
-        <v>453</v>
+        <v>7.6</v>
       </c>
       <c r="D195" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>443.55</v>
+        <v>7.45</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-2.09</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ATUL</t>
+          <t>KROSS</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>6016.5</v>
+        <v>169.25</v>
       </c>
       <c r="C196" t="n">
-        <v>6089</v>
+        <v>171.5</v>
       </c>
       <c r="D196" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>6086</v>
+        <v>170.21</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-0.05</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ETHOSLTD</t>
+          <t>ASTEC</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>2885</v>
+        <v>649.35</v>
       </c>
       <c r="C197" t="n">
-        <v>2919.8</v>
+        <v>658</v>
       </c>
       <c r="D197" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>2864.1</v>
+        <v>644</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-1.91</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>RPPINFRA</t>
+          <t>BANARISUG</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>112.79</v>
+        <v>3603.5</v>
       </c>
       <c r="C198" t="n">
-        <v>114.15</v>
+        <v>3651</v>
       </c>
       <c r="D198" t="n">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>114.32</v>
+        <v>3651</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>UTKARSHBNK</t>
+          <t>DANGEE</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>16.85</v>
+        <v>3.88</v>
       </c>
       <c r="C199" t="n">
-        <v>17.05</v>
+        <v>3.93</v>
       </c>
       <c r="D199" t="n">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>16.67</v>
+        <v>3.87</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-2.23</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>GLOBECIVIL</t>
+          <t>MANUGRAPH</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>66.2</v>
+        <v>18.02</v>
       </c>
       <c r="C200" t="n">
-        <v>66.98</v>
+        <v>18.25</v>
       </c>
       <c r="D200" t="n">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>65.34</v>
+        <v>17.71</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.45</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>ESSENTIA</t>
+          <t>HARIOMPIPE</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>1.69</v>
+        <v>369.1</v>
       </c>
       <c r="C201" t="n">
-        <v>1.71</v>
+        <v>373.8</v>
       </c>
       <c r="D201" t="n">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>1.7</v>
+        <v>369.5</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-0.58</v>
+        <v>-1.15</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,274 +478,274 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ACCPL</t>
+          <t>BIKEWO</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.7</v>
+        <v>18.45</v>
       </c>
       <c r="C2" t="n">
-        <v>88.95</v>
+        <v>20.2</v>
       </c>
       <c r="D2" t="n">
-        <v>14.48</v>
+        <v>9.49</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>88</v>
+        <v>19.85</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-1.07</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>GOLDTECH</t>
+          <t>INCREDIBLE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.08</v>
+        <v>41.8</v>
       </c>
       <c r="C3" t="n">
-        <v>60.9</v>
+        <v>44.97</v>
       </c>
       <c r="D3" t="n">
-        <v>10.57</v>
+        <v>7.58</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>63.38</v>
+        <v>44.6</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>4.07</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PANSARI</t>
+          <t>MITCON</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320.3</v>
+        <v>71.34999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>348</v>
+        <v>75.84999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>8.65</v>
+        <v>6.31</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>348</v>
+        <v>73</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>TEAMGTY</t>
+          <t>HPIL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.2</v>
+        <v>137.06</v>
       </c>
       <c r="C5" t="n">
-        <v>269.2</v>
+        <v>145.69</v>
       </c>
       <c r="D5" t="n">
-        <v>7.59</v>
+        <v>6.3</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>270</v>
+        <v>137.62</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0.3</v>
+        <v>-5.54</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>TVVISION</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.61</v>
+        <v>5.78</v>
       </c>
       <c r="C6" t="n">
-        <v>2.8</v>
+        <v>6.13</v>
       </c>
       <c r="D6" t="n">
-        <v>7.28</v>
+        <v>6.06</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2.63</v>
+        <v>5.99</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-6.07</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CALSOFT</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.35</v>
+        <v>23.55</v>
       </c>
       <c r="C7" t="n">
-        <v>17.5</v>
+        <v>24.95</v>
       </c>
       <c r="D7" t="n">
-        <v>7.03</v>
+        <v>5.94</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>16.95</v>
+        <v>25.75</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-3.14</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>IPHL</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.63</v>
+        <v>71.75</v>
       </c>
       <c r="C8" t="n">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="D8" t="n">
-        <v>6.98</v>
+        <v>5.92</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>22.94</v>
+        <v>78</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>9.24</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SHREYANIND</t>
+          <t>UNIHEALTH</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>188.72</v>
+        <v>265.65</v>
       </c>
       <c r="C9" t="n">
-        <v>201</v>
+        <v>280</v>
       </c>
       <c r="D9" t="n">
-        <v>6.51</v>
+        <v>5.4</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>191</v>
+        <v>292.2</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-4.98</v>
+        <v>4.36</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>GLOBALE</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>80.04000000000001</v>
+        <v>12.61</v>
       </c>
       <c r="C10" t="n">
-        <v>85</v>
+        <v>13.25</v>
       </c>
       <c r="D10" t="n">
-        <v>6.2</v>
+        <v>5.08</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>79.2</v>
+        <v>13.25</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-6.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>WOL3D</t>
+          <t>SUMIT</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>168</v>
+        <v>80.59</v>
       </c>
       <c r="C11" t="n">
-        <v>177</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>5.36</v>
+        <v>5.04</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>166.5</v>
+        <v>80.89</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-5.93</v>
+        <v>-4.44</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>MEGAFLEX</t>
+          <t>INFLUX</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>87.05</v>
+        <v>229.2</v>
       </c>
       <c r="C12" t="n">
-        <v>91.40000000000001</v>
+        <v>240.65</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>91.40000000000001</v>
+        <v>240.65</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
@@ -764,75 +764,75 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INDOTHAI</t>
+          <t>GUJRAFFIA</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>444.15</v>
+        <v>45.2</v>
       </c>
       <c r="C13" t="n">
-        <v>466.35</v>
+        <v>47.45</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>4.98</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>466.35</v>
+        <v>47.46</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>GSTL</t>
+          <t>NAVKARURB</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>1.81</v>
       </c>
       <c r="C14" t="n">
-        <v>7.35</v>
+        <v>1.9</v>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>4.97</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>7.35</v>
+        <v>1.84</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.16</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VLEGOV</t>
+          <t>ALLCARGO</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>23.46</v>
+        <v>15.14</v>
       </c>
       <c r="C15" t="n">
-        <v>24.63</v>
+        <v>15.89</v>
       </c>
       <c r="D15" t="n">
-        <v>4.99</v>
+        <v>4.95</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>24.63</v>
+        <v>15.89</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
@@ -842,49 +842,49 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>K2INFRA</t>
+          <t>DIVINEHIRA</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>64.55</v>
+        <v>169.6</v>
       </c>
       <c r="C16" t="n">
-        <v>67.75</v>
+        <v>178</v>
       </c>
       <c r="D16" t="n">
-        <v>4.96</v>
+        <v>4.95</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>67.75</v>
+        <v>171</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>-3.93</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>K2INFRA</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.71</v>
+        <v>67.75</v>
       </c>
       <c r="C17" t="n">
+        <v>71.09999999999999</v>
+      </c>
+      <c r="D17" t="n">
         <v>4.94</v>
       </c>
-      <c r="D17" t="n">
-        <v>4.88</v>
-      </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>4.94</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -894,75 +894,75 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SHUBHLAXMI</t>
+          <t>LCCINFOTEC</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>18.7</v>
+        <v>4.94</v>
       </c>
       <c r="C18" t="n">
-        <v>19.6</v>
+        <v>5.18</v>
       </c>
       <c r="D18" t="n">
-        <v>4.81</v>
+        <v>4.86</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>19.6</v>
+        <v>4.69</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-9.460000000000001</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ALLCARGO</t>
+          <t>SICALLOG</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.42</v>
+        <v>89.64</v>
       </c>
       <c r="C19" t="n">
-        <v>15.11</v>
+        <v>94</v>
       </c>
       <c r="D19" t="n">
-        <v>4.79</v>
+        <v>4.86</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>15.14</v>
+        <v>94</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>KONTOR</t>
+          <t>SHUBHLAXMI</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>63.1</v>
+        <v>19.6</v>
       </c>
       <c r="C20" t="n">
-        <v>66.09999999999999</v>
+        <v>20.55</v>
       </c>
       <c r="D20" t="n">
-        <v>4.75</v>
+        <v>4.85</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>66.09999999999999</v>
+        <v>20.55</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
@@ -972,23 +972,23 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>TECILCHEM</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.27</v>
+        <v>19.55</v>
       </c>
       <c r="C21" t="n">
-        <v>1.33</v>
+        <v>20.49</v>
       </c>
       <c r="D21" t="n">
-        <v>4.72</v>
+        <v>4.81</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.33</v>
+        <v>20.49</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
@@ -998,326 +998,326 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>SHETHJI</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.95</v>
+        <v>112.55</v>
       </c>
       <c r="C22" t="n">
-        <v>57.5</v>
+        <v>117.9</v>
       </c>
       <c r="D22" t="n">
-        <v>4.64</v>
+        <v>4.75</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>57.35</v>
+        <v>118.15</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>-0.26</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SUNLITE</t>
+          <t>JPPOWER</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>272.8</v>
+        <v>20.27</v>
       </c>
       <c r="C23" t="n">
-        <v>285.4</v>
+        <v>21.22</v>
       </c>
       <c r="D23" t="n">
-        <v>4.62</v>
+        <v>4.69</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>275</v>
+        <v>22.58</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>-3.64</v>
+        <v>6.41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>XELPMOC</t>
+          <t>NIRMAN</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>148.32</v>
+        <v>56.9</v>
       </c>
       <c r="C24" t="n">
-        <v>155</v>
+        <v>59.5</v>
       </c>
       <c r="D24" t="n">
-        <v>4.5</v>
+        <v>4.57</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>153.7</v>
+        <v>59.7</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>-0.84</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ENERGYDEV</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>26.61</v>
+        <v>1.33</v>
       </c>
       <c r="C25" t="n">
-        <v>27.74</v>
+        <v>1.39</v>
       </c>
       <c r="D25" t="n">
-        <v>4.25</v>
+        <v>4.51</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>28.6</v>
+        <v>1.39</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>3.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>UNIHEALTH</t>
+          <t>ORTINGLOBE</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>221.4</v>
+        <v>12.32</v>
       </c>
       <c r="C26" t="n">
-        <v>230.8</v>
+        <v>12.85</v>
       </c>
       <c r="D26" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>252</v>
+        <v>12.03</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>9.19</v>
+        <v>-6.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>FINKURVE</t>
+          <t>TFL</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>105.56</v>
+        <v>13.14</v>
       </c>
       <c r="C27" t="n">
-        <v>110</v>
+        <v>13.7</v>
       </c>
       <c r="D27" t="n">
-        <v>4.21</v>
+        <v>4.26</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>107.32</v>
+        <v>13.2</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-2.44</v>
+        <v>-3.65</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>ASTRON</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1081.65</v>
+        <v>7.79</v>
       </c>
       <c r="C28" t="n">
-        <v>1127</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>4.19</v>
+        <v>4.24</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>1135.7</v>
+        <v>7.7</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>0.77</v>
+        <v>-5.17</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>NIRAJ</t>
+          <t>BAJAJINDEF</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33.12</v>
+        <v>347.25</v>
       </c>
       <c r="C29" t="n">
-        <v>34.5</v>
+        <v>361.9</v>
       </c>
       <c r="D29" t="n">
-        <v>4.17</v>
+        <v>4.22</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>34.94</v>
+        <v>350.1</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>1.28</v>
+        <v>-3.26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CTE</t>
+          <t>SANGINITA</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>45.4</v>
+        <v>10.51</v>
       </c>
       <c r="C30" t="n">
-        <v>47.29</v>
+        <v>10.95</v>
       </c>
       <c r="D30" t="n">
-        <v>4.16</v>
+        <v>4.19</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>45.4</v>
+        <v>10.36</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-4</v>
+        <v>-5.39</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IEML</t>
+          <t>NETWEB</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>116.6</v>
+        <v>3288</v>
       </c>
       <c r="C31" t="n">
-        <v>121.45</v>
+        <v>3425.1</v>
       </c>
       <c r="D31" t="n">
-        <v>4.16</v>
+        <v>4.17</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>116.85</v>
+        <v>3398.6</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-3.79</v>
+        <v>-0.77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>GRINFRA</t>
+          <t>UFO</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1098.8</v>
+        <v>77.48</v>
       </c>
       <c r="C32" t="n">
-        <v>1144</v>
+        <v>80.68000000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>4.11</v>
+        <v>4.13</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>1110.9</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-2.89</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KPEL</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>393.65</v>
+        <v>57.65</v>
       </c>
       <c r="C33" t="n">
-        <v>409.65</v>
+        <v>60</v>
       </c>
       <c r="D33" t="n">
-        <v>4.06</v>
+        <v>4.08</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>416.8</v>
+        <v>60.5</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>1.75</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AIROLAM</t>
+          <t>NIRAJ</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>103.81</v>
+        <v>36.43</v>
       </c>
       <c r="C34" t="n">
-        <v>108</v>
+        <v>37.9</v>
       </c>
       <c r="D34" t="n">
         <v>4.04</v>
@@ -1326,4349 +1326,4349 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>106</v>
+        <v>37.91</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-1.85</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>DIVINEHIRA</t>
+          <t>BANKA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>161.55</v>
+        <v>76</v>
       </c>
       <c r="C35" t="n">
-        <v>168</v>
+        <v>79</v>
       </c>
       <c r="D35" t="n">
-        <v>3.99</v>
+        <v>3.95</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>169.6</v>
+        <v>75.70999999999999</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>0.95</v>
+        <v>-4.16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WIPL</t>
+          <t>IL&amp;FSENGG</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>164.44</v>
+        <v>26.46</v>
       </c>
       <c r="C36" t="n">
-        <v>171</v>
+        <v>27.5</v>
       </c>
       <c r="D36" t="n">
-        <v>3.99</v>
+        <v>3.93</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="n">
-        <v>170.05</v>
-      </c>
+      <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SACHEEROME</t>
+          <t>JEYYAM</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>322</v>
+        <v>66.40000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>334.75</v>
+        <v>69</v>
       </c>
       <c r="D37" t="n">
-        <v>3.96</v>
+        <v>3.92</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>338.1</v>
+        <v>69.7</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GVPTECH</t>
+          <t>SETUINFRA</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>9.109999999999999</v>
+        <v>0.51</v>
       </c>
       <c r="C38" t="n">
-        <v>9.460000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="D38" t="n">
-        <v>3.84</v>
+        <v>3.92</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>8.720000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-7.82</v>
+        <v>-7.55</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GLOBALE</t>
+          <t>TEAMGTY</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>13.1</v>
+        <v>264.8</v>
       </c>
       <c r="C39" t="n">
-        <v>13.6</v>
+        <v>275</v>
       </c>
       <c r="D39" t="n">
-        <v>3.82</v>
+        <v>3.85</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>13.45</v>
+        <v>265</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-1.1</v>
+        <v>-3.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ATLASCYCLE</t>
+          <t>SILGO</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>100.19</v>
+        <v>63.47</v>
       </c>
       <c r="C40" t="n">
-        <v>104</v>
+        <v>65.90000000000001</v>
       </c>
       <c r="D40" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>103.96</v>
+        <v>65.75</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-0.04</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RICHA</t>
+          <t>RKEC</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>86.75</v>
+        <v>55.88</v>
       </c>
       <c r="C41" t="n">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D41" t="n">
-        <v>3.75</v>
+        <v>3.79</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>91.05</v>
+        <v>56.7</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>1.17</v>
+        <v>-2.24</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>PRITI</t>
+          <t>TREJHARA</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>65.56999999999999</v>
+        <v>240.06</v>
       </c>
       <c r="C42" t="n">
-        <v>68</v>
+        <v>249</v>
       </c>
       <c r="D42" t="n">
-        <v>3.71</v>
+        <v>3.72</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>65.52</v>
+        <v>244</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-3.65</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MAXVOLT</t>
+          <t>RAJMET</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>450.3</v>
+        <v>4.34</v>
       </c>
       <c r="C43" t="n">
-        <v>467</v>
+        <v>4.5</v>
       </c>
       <c r="D43" t="n">
-        <v>3.71</v>
+        <v>3.69</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>464.7</v>
+        <v>4.35</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-0.49</v>
+        <v>-3.33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SANWARIA</t>
+          <t>AHCL</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.27</v>
+        <v>158.95</v>
       </c>
       <c r="C44" t="n">
-        <v>0.28</v>
+        <v>164.7</v>
       </c>
       <c r="D44" t="n">
-        <v>3.7</v>
+        <v>3.62</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.28</v>
+        <v>160</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MEGATHERM</t>
+          <t>VENUSREM</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233</v>
+        <v>644.85</v>
       </c>
       <c r="C45" t="n">
-        <v>241.55</v>
+        <v>668</v>
       </c>
       <c r="D45" t="n">
-        <v>3.67</v>
+        <v>3.59</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>231.25</v>
+        <v>678.8</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-4.26</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PEARLPOLY</t>
+          <t>VLEGOV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25.52</v>
+        <v>24.63</v>
       </c>
       <c r="C46" t="n">
-        <v>26.45</v>
+        <v>25.49</v>
       </c>
       <c r="D46" t="n">
-        <v>3.64</v>
+        <v>3.49</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>25.31</v>
+        <v>25.86</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-4.31</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>BILVYAPAR</t>
+          <t>DRCSYSTEMS</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>10.99</v>
+        <v>18.19</v>
       </c>
       <c r="C47" t="n">
-        <v>11.39</v>
+        <v>18.82</v>
       </c>
       <c r="D47" t="n">
-        <v>3.64</v>
+        <v>3.46</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>11.34</v>
+        <v>18.68</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-0.44</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>AZAD</t>
+          <t>ARENTERP</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>1640.6</v>
+        <v>49.37</v>
       </c>
       <c r="C48" t="n">
-        <v>1700.1</v>
+        <v>51</v>
       </c>
       <c r="D48" t="n">
-        <v>3.63</v>
+        <v>3.3</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1687.7</v>
+        <v>47.61</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-0.73</v>
+        <v>-6.65</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SEQUENT</t>
+          <t>EUROBOND</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>247.56</v>
+        <v>201.82</v>
       </c>
       <c r="C49" t="n">
-        <v>256.44</v>
+        <v>208.4</v>
       </c>
       <c r="D49" t="n">
-        <v>3.59</v>
+        <v>3.26</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>247.44</v>
+        <v>206.95</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-3.51</v>
+        <v>-0.7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GOLDIAM</t>
+          <t>CEREBRAINT</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>369.55</v>
+        <v>8.02</v>
       </c>
       <c r="C50" t="n">
-        <v>382.7</v>
+        <v>8.279999999999999</v>
       </c>
       <c r="D50" t="n">
-        <v>3.56</v>
+        <v>3.24</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>383</v>
+        <v>8.18</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>0.08</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TARMAT</t>
+          <t>OMAXE</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>51.68</v>
+        <v>71.97</v>
       </c>
       <c r="C51" t="n">
-        <v>53.49</v>
+        <v>74.29000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>3.5</v>
+        <v>3.22</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>53.15</v>
+        <v>72.90000000000001</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-0.64</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>KDL</t>
+          <t>SAMMAANCAP</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>179.75</v>
+        <v>159.55</v>
       </c>
       <c r="C52" t="n">
-        <v>186</v>
+        <v>164.58</v>
       </c>
       <c r="D52" t="n">
-        <v>3.48</v>
+        <v>3.15</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>188.7</v>
+        <v>153.95</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>1.45</v>
+        <v>-6.46</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>AUSOMENT</t>
+          <t>KRISHIVAL</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>103.28</v>
+        <v>455.95</v>
       </c>
       <c r="C53" t="n">
-        <v>106.8</v>
+        <v>470</v>
       </c>
       <c r="D53" t="n">
-        <v>3.41</v>
+        <v>3.08</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>101.3</v>
+        <v>458.9</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-5.15</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MANALIPETC</t>
+          <t>VINNY</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>67.86</v>
+        <v>1.31</v>
       </c>
       <c r="C54" t="n">
-        <v>70.17</v>
+        <v>1.35</v>
       </c>
       <c r="D54" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>68.66</v>
+        <v>1.32</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-2.15</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>FLFL</t>
+          <t>DAMODARIND</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>1.49</v>
+        <v>32.5</v>
       </c>
       <c r="C55" t="n">
-        <v>1.54</v>
+        <v>33.49</v>
       </c>
       <c r="D55" t="n">
-        <v>3.36</v>
+        <v>3.05</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>1.49</v>
+        <v>32.99</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-3.25</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SJS</t>
+          <t>ELDEHSG</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>1717.3</v>
+        <v>800.7</v>
       </c>
       <c r="C56" t="n">
-        <v>1775</v>
+        <v>825</v>
       </c>
       <c r="D56" t="n">
-        <v>3.36</v>
+        <v>3.03</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>1755.1</v>
+        <v>803.1</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-1.12</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>KRIDHANINF</t>
+          <t>MAHEPC</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>3.71</v>
+        <v>130.85</v>
       </c>
       <c r="C57" t="n">
-        <v>3.83</v>
+        <v>134.79</v>
       </c>
       <c r="D57" t="n">
-        <v>3.23</v>
+        <v>3.01</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>3.71</v>
+        <v>132</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-3.13</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PIRAMALFIN</t>
+          <t>BRNL</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1642.9</v>
+        <v>25.06</v>
       </c>
       <c r="C58" t="n">
-        <v>1695</v>
+        <v>25.81</v>
       </c>
       <c r="D58" t="n">
-        <v>3.17</v>
+        <v>2.99</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>1648</v>
+        <v>25.09</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-2.77</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SUMIT</t>
+          <t>ANTGRAPHIC</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>80.37</v>
+        <v>1.01</v>
       </c>
       <c r="C59" t="n">
-        <v>82.89</v>
+        <v>1.04</v>
       </c>
       <c r="D59" t="n">
-        <v>3.14</v>
+        <v>2.97</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>81.13</v>
+        <v>1.03</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-2.12</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ORTINGLOBE</t>
+          <t>JHS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11.74</v>
+        <v>11.46</v>
       </c>
       <c r="C60" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D60" t="n">
-        <v>3.07</v>
+        <v>2.97</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>11.8</v>
+        <v>11.55</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-2.48</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BLBLIMITED</t>
+          <t>ORIENTLTD</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>16.12</v>
+        <v>81.47</v>
       </c>
       <c r="C61" t="n">
-        <v>16.6</v>
+        <v>83.84</v>
       </c>
       <c r="D61" t="n">
-        <v>2.98</v>
+        <v>2.91</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>16.22</v>
+        <v>81.15000000000001</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-2.29</v>
+        <v>-3.21</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MANORG</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>475.15</v>
+        <v>121.28</v>
       </c>
       <c r="C62" t="n">
-        <v>489</v>
+        <v>124.8</v>
       </c>
       <c r="D62" t="n">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>479.4</v>
+        <v>124.45</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-1.96</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SASTASUNDR</t>
+          <t>HARRMALAYA</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>308.15</v>
+        <v>181.54</v>
       </c>
       <c r="C63" t="n">
-        <v>316.95</v>
+        <v>186.8</v>
       </c>
       <c r="D63" t="n">
-        <v>2.86</v>
+        <v>2.9</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>311</v>
+        <v>182.7</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-1.88</v>
+        <v>-2.19</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>MWL</t>
+          <t>RAMRAT</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>232.72</v>
+        <v>610.85</v>
       </c>
       <c r="C64" t="n">
-        <v>239.35</v>
+        <v>628.5</v>
       </c>
       <c r="D64" t="n">
-        <v>2.85</v>
+        <v>2.89</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>235.21</v>
+        <v>614</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-1.73</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EVERESTIND</t>
+          <t>SUKHJITS</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>559.2</v>
+        <v>154.39</v>
       </c>
       <c r="C65" t="n">
-        <v>575</v>
+        <v>158.85</v>
       </c>
       <c r="D65" t="n">
-        <v>2.83</v>
+        <v>2.89</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>558.05</v>
+        <v>156.17</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-2.95</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HPAL</t>
+          <t>INDOUS</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>47.19</v>
+        <v>124.49</v>
       </c>
       <c r="C66" t="n">
-        <v>48.5</v>
+        <v>128</v>
       </c>
       <c r="D66" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>47.22</v>
+        <v>127.43</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-2.64</v>
+        <v>-0.45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EXCEL</t>
+          <t>BIRLACABLE</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>1.46</v>
+        <v>147.83</v>
       </c>
       <c r="C67" t="n">
-        <v>1.5</v>
+        <v>152</v>
       </c>
       <c r="D67" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>1.49</v>
+        <v>149.78</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-0.67</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>FEL</t>
+          <t>AJOONI</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.37</v>
+        <v>4.67</v>
       </c>
       <c r="C68" t="n">
-        <v>0.38</v>
+        <v>4.8</v>
       </c>
       <c r="D68" t="n">
-        <v>2.7</v>
+        <v>2.78</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>0.38</v>
+        <v>4.72</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MEDICO</t>
+          <t>E2E</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51.48</v>
+        <v>2603.6</v>
       </c>
       <c r="C69" t="n">
-        <v>52.85</v>
+        <v>2674.9</v>
       </c>
       <c r="D69" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>51.05</v>
+        <v>2605.7</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-3.41</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SHETHJI</t>
+          <t>LAKSHYA</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>107.2</v>
+        <v>124.6</v>
       </c>
       <c r="C70" t="n">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D70" t="n">
-        <v>2.61</v>
+        <v>2.73</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>111.8</v>
+        <v>128</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MODTHREAD</t>
+          <t>MWL</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>43.85</v>
+        <v>239.47</v>
       </c>
       <c r="C71" t="n">
-        <v>44.99</v>
+        <v>245.96</v>
       </c>
       <c r="D71" t="n">
-        <v>2.6</v>
+        <v>2.71</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>43.71</v>
+        <v>237.02</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-2.85</v>
+        <v>-3.63</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>RAMANEWS</t>
+          <t>INDSWFTLAB</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>29.73</v>
+        <v>95.44</v>
       </c>
       <c r="C72" t="n">
-        <v>30.5</v>
+        <v>98</v>
       </c>
       <c r="D72" t="n">
-        <v>2.59</v>
+        <v>2.68</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>29.99</v>
+        <v>96.84999999999999</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-1.67</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S&amp;SPOWER</t>
+          <t>MANAKALUCO</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>267.9</v>
+        <v>26.93</v>
       </c>
       <c r="C73" t="n">
-        <v>274.8</v>
+        <v>27.65</v>
       </c>
       <c r="D73" t="n">
-        <v>2.58</v>
+        <v>2.67</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
-      <c r="F73" t="inlineStr"/>
+      <c r="F73" t="n">
+        <v>27.39</v>
+      </c>
       <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+      <c r="H73" t="n">
+        <v>-0.9399999999999999</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PRUDMOULI</t>
+          <t>ZENTEC</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>24.84</v>
+        <v>1401.7</v>
       </c>
       <c r="C74" t="n">
-        <v>25.48</v>
+        <v>1439</v>
       </c>
       <c r="D74" t="n">
-        <v>2.58</v>
+        <v>2.66</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>25.48</v>
+        <v>1432.8</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DEVIT</t>
+          <t>DIAMINESQ</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>40.46</v>
+        <v>277.65</v>
       </c>
       <c r="C75" t="n">
-        <v>41.5</v>
+        <v>285</v>
       </c>
       <c r="D75" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>41.13</v>
+        <v>279</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-0.89</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HMAAGRO</t>
+          <t>FEL</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>31.91</v>
+        <v>0.38</v>
       </c>
       <c r="C76" t="n">
-        <v>32.71</v>
+        <v>0.39</v>
       </c>
       <c r="D76" t="n">
-        <v>2.51</v>
+        <v>2.63</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>31.79</v>
+        <v>0.39</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-2.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SONAMAC</t>
+          <t>NBCC</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>56.1</v>
+        <v>113.04</v>
       </c>
       <c r="C77" t="n">
-        <v>57.5</v>
+        <v>116</v>
       </c>
       <c r="D77" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>57.5</v>
+        <v>115.2</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>EFFWA</t>
+          <t>UMAEXPORTS</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>248.3</v>
+        <v>41.92</v>
       </c>
       <c r="C78" t="n">
-        <v>254.5</v>
+        <v>43</v>
       </c>
       <c r="D78" t="n">
-        <v>2.5</v>
+        <v>2.58</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>246.95</v>
+        <v>42.65</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-2.97</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>PAVNAIND</t>
+          <t>DANGEE</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>31.61</v>
+        <v>3.89</v>
       </c>
       <c r="C79" t="n">
-        <v>32.4</v>
+        <v>3.99</v>
       </c>
       <c r="D79" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>32.16</v>
+        <v>3.85</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-0.74</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>WSI</t>
+          <t>SHEKHAWATI</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>79.5</v>
+        <v>19</v>
       </c>
       <c r="C80" t="n">
-        <v>81.48999999999999</v>
+        <v>19.48</v>
       </c>
       <c r="D80" t="n">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>79.97</v>
+        <v>18.91</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-1.87</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ABINFRA</t>
+          <t>AGSTRA</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>18.75</v>
+        <v>4.86</v>
       </c>
       <c r="C81" t="n">
-        <v>19.21</v>
+        <v>4.98</v>
       </c>
       <c r="D81" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>18.91</v>
+        <v>5.05</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-1.56</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ORIENTCER</t>
+          <t>NOIDATOLL</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>41.92</v>
+        <v>4.48</v>
       </c>
       <c r="C82" t="n">
-        <v>42.94</v>
+        <v>4.59</v>
       </c>
       <c r="D82" t="n">
-        <v>2.43</v>
+        <v>2.46</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>43.81</v>
+        <v>4.46</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>2.03</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BHARATSE</t>
+          <t>TEXMOPIPES</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>179.55</v>
+        <v>51.24</v>
       </c>
       <c r="C83" t="n">
-        <v>183.9</v>
+        <v>52.5</v>
       </c>
       <c r="D83" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>180.3</v>
+        <v>51.64</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-1.96</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>IITL</t>
+          <t>FILATFASH</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>175.69</v>
+        <v>0.41</v>
       </c>
       <c r="C84" t="n">
-        <v>179.95</v>
+        <v>0.42</v>
       </c>
       <c r="D84" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>179.94</v>
+        <v>0.42</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>MITCON</t>
+          <t>SITINET</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>66.3</v>
+        <v>0.41</v>
       </c>
       <c r="C85" t="n">
-        <v>67.89</v>
+        <v>0.42</v>
       </c>
       <c r="D85" t="n">
-        <v>2.4</v>
+        <v>2.44</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>67.8</v>
+        <v>0.41</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-0.13</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>ASHIMASYN</t>
+          <t>VIJIFIN</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>19.29</v>
+        <v>2.87</v>
       </c>
       <c r="C86" t="n">
-        <v>19.75</v>
+        <v>2.94</v>
       </c>
       <c r="D86" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>19.41</v>
+        <v>2.95</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-1.72</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SITINET</t>
+          <t>CPCAP</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.42</v>
+        <v>115.97</v>
       </c>
       <c r="C87" t="n">
-        <v>0.43</v>
+        <v>118.8</v>
       </c>
       <c r="D87" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>0.42</v>
+        <v>118.21</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-2.33</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>VGL</t>
+          <t>RELIABLE</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>156.28</v>
+        <v>133.76</v>
       </c>
       <c r="C88" t="n">
-        <v>159.98</v>
+        <v>136.99</v>
       </c>
       <c r="D88" t="n">
-        <v>2.37</v>
+        <v>2.41</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>157.9</v>
+        <v>136</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-1.3</v>
+        <v>-0.72</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>TVVISION</t>
+          <t>NINSYS</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>5.93</v>
+        <v>406.25</v>
       </c>
       <c r="C89" t="n">
-        <v>6.07</v>
+        <v>416</v>
       </c>
       <c r="D89" t="n">
-        <v>2.36</v>
+        <v>2.4</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>5.77</v>
+        <v>406.3</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-4.94</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AVG</t>
+          <t>KOTARISUG</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>200.33</v>
+        <v>29.6</v>
       </c>
       <c r="C90" t="n">
-        <v>205</v>
+        <v>30.31</v>
       </c>
       <c r="D90" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>201.01</v>
+        <v>29.77</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-1.95</v>
+        <v>-1.78</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BIRLACABLE</t>
+          <t>APOLSINHOT</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>147.6</v>
+        <v>1290</v>
       </c>
       <c r="C91" t="n">
-        <v>151.01</v>
+        <v>1321</v>
       </c>
       <c r="D91" t="n">
-        <v>2.31</v>
+        <v>2.4</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>148.38</v>
+        <v>1290.1</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-1.74</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>RISHABH</t>
+          <t>VAISHALI</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>437.35</v>
+        <v>9.359999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>447.35</v>
+        <v>9.58</v>
       </c>
       <c r="D92" t="n">
-        <v>2.29</v>
+        <v>2.35</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>446.1</v>
+        <v>9.35</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-0.28</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>RUBYMILLS</t>
+          <t>ZODIAC</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>237.58</v>
+        <v>363.45</v>
       </c>
       <c r="C93" t="n">
-        <v>243</v>
+        <v>372</v>
       </c>
       <c r="D93" t="n">
-        <v>2.28</v>
+        <v>2.35</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>240.45</v>
+        <v>366.95</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-1.05</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>INTELLECT</t>
+          <t>KANPRPLA</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>1088.3</v>
+        <v>199.82</v>
       </c>
       <c r="C94" t="n">
-        <v>1112.8</v>
+        <v>204.5</v>
       </c>
       <c r="D94" t="n">
-        <v>2.25</v>
+        <v>2.34</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>1128.1</v>
+        <v>199.94</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>1.37</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SEJALLTD</t>
+          <t>VIJAYA</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>878.75</v>
+        <v>1004.6</v>
       </c>
       <c r="C95" t="n">
-        <v>898.5</v>
+        <v>1028</v>
       </c>
       <c r="D95" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>882.25</v>
+        <v>1015.85</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-1.81</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>RADIOCITY</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>55.03</v>
+        <v>6.89</v>
       </c>
       <c r="C96" t="n">
-        <v>56.24</v>
+        <v>7.05</v>
       </c>
       <c r="D96" t="n">
-        <v>2.2</v>
+        <v>2.32</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>55.46</v>
+        <v>7</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-1.39</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>MUKTAARTS</t>
+          <t>BCG</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>65.56</v>
+        <v>13</v>
       </c>
       <c r="C97" t="n">
-        <v>67</v>
+        <v>13.3</v>
       </c>
       <c r="D97" t="n">
-        <v>2.2</v>
+        <v>2.31</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>66</v>
+        <v>13.03</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-1.49</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>VIPULLTD</t>
+          <t>SAMBHAAV</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>9.630000000000001</v>
+        <v>10.83</v>
       </c>
       <c r="C98" t="n">
-        <v>9.84</v>
+        <v>11.08</v>
       </c>
       <c r="D98" t="n">
-        <v>2.18</v>
+        <v>2.31</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>9.68</v>
+        <v>11.07</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-1.63</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>OMFREIGHT</t>
+          <t>GCSL</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>101.9</v>
+        <v>375.32</v>
       </c>
       <c r="C99" t="n">
-        <v>104.12</v>
+        <v>383.99</v>
       </c>
       <c r="D99" t="n">
-        <v>2.18</v>
+        <v>2.31</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>101.62</v>
+        <v>388.5</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-2.4</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AHCL</t>
+          <t>AGRITECH</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>157.58</v>
+        <v>126.13</v>
       </c>
       <c r="C100" t="n">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="D100" t="n">
-        <v>2.17</v>
+        <v>2.28</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-1.86</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>TTL</t>
+          <t>SAGARDEEP</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>9.300000000000001</v>
+        <v>26.16</v>
       </c>
       <c r="C101" t="n">
-        <v>9.5</v>
+        <v>26.75</v>
       </c>
       <c r="D101" t="n">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>9.5</v>
+        <v>26.74</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>INDTERRAIN</t>
+          <t>FLEXITUFF</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>38.99</v>
+        <v>13.05</v>
       </c>
       <c r="C102" t="n">
-        <v>39.8</v>
+        <v>13.34</v>
       </c>
       <c r="D102" t="n">
-        <v>2.08</v>
+        <v>2.22</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>39.13</v>
+        <v>12.39</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-1.68</v>
+        <v>-7.12</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>KRN</t>
+          <t>LOVABLE</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>812.1</v>
+        <v>84.65000000000001</v>
       </c>
       <c r="C103" t="n">
-        <v>829</v>
+        <v>86.5</v>
       </c>
       <c r="D103" t="n">
-        <v>2.08</v>
+        <v>2.19</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>845.65</v>
+        <v>85.38</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>2.01</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CIFL</t>
+          <t>BEDMUTHA</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>33.02</v>
+        <v>106.65</v>
       </c>
       <c r="C104" t="n">
-        <v>33.7</v>
+        <v>108.99</v>
       </c>
       <c r="D104" t="n">
-        <v>2.06</v>
+        <v>2.19</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>33.18</v>
+        <v>108.9</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-1.54</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CHOICEIN</t>
+          <t>RAMASTEEL</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>783.9</v>
+        <v>10.07</v>
       </c>
       <c r="C105" t="n">
-        <v>800</v>
+        <v>10.29</v>
       </c>
       <c r="D105" t="n">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>796.6</v>
+        <v>10.14</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-0.42</v>
+        <v>-1.46</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NINSYS</t>
+          <t>INFOBEAN</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>409.55</v>
+        <v>567.7</v>
       </c>
       <c r="C106" t="n">
-        <v>417.85</v>
+        <v>580</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03</v>
+        <v>2.17</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>408.35</v>
+        <v>581.8</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-2.27</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>STUDDS</t>
+          <t>NAHARINDUS</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>571.45</v>
+        <v>117.46</v>
       </c>
       <c r="C107" t="n">
-        <v>583</v>
+        <v>120</v>
       </c>
       <c r="D107" t="n">
-        <v>2.02</v>
+        <v>2.16</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>591.45</v>
+        <v>118.31</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>1.45</v>
+        <v>-1.41</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>JYOTISTRUC</t>
+          <t>VGINFOTECH</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>12.42</v>
+        <v>176.05</v>
       </c>
       <c r="C108" t="n">
-        <v>12.67</v>
+        <v>179.85</v>
       </c>
       <c r="D108" t="n">
-        <v>2.01</v>
+        <v>2.16</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>12.22</v>
+        <v>179</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-3.55</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>KOHINOOR</t>
+          <t>PNGJL</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>29.8</v>
+        <v>640</v>
       </c>
       <c r="C109" t="n">
-        <v>30.4</v>
+        <v>653.7</v>
       </c>
       <c r="D109" t="n">
-        <v>2.01</v>
+        <v>2.14</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>29.65</v>
+        <v>641.05</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-2.47</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>FROG</t>
+          <t>3PLAND</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>167</v>
+        <v>39.66</v>
       </c>
       <c r="C110" t="n">
-        <v>170.35</v>
+        <v>40.5</v>
       </c>
       <c r="D110" t="n">
-        <v>2.01</v>
+        <v>2.12</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>170.35</v>
+        <v>40.3</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>VALIANTLAB</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>79.41</v>
+        <v>194.87</v>
       </c>
       <c r="C111" t="n">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="D111" t="n">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>79.01000000000001</v>
+        <v>190.14</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-2.46</v>
+        <v>-4.45</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BALAXI</t>
+          <t>RAMANEWS</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>35.98</v>
+        <v>29.87</v>
       </c>
       <c r="C112" t="n">
-        <v>36.7</v>
+        <v>30.5</v>
       </c>
       <c r="D112" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>36.33</v>
+        <v>29.61</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-1.01</v>
+        <v>-2.92</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>IMFA</t>
+          <t>SELMC</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>1284.8</v>
+        <v>29.84</v>
       </c>
       <c r="C113" t="n">
-        <v>1310.5</v>
+        <v>30.47</v>
       </c>
       <c r="D113" t="n">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>1369.5</v>
+        <v>29.4</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>4.5</v>
+        <v>-3.51</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MANGALAM</t>
+          <t>PIONEEREMB</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>61.19</v>
+        <v>30.07</v>
       </c>
       <c r="C114" t="n">
-        <v>62.4</v>
+        <v>30.7</v>
       </c>
       <c r="D114" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>58.7</v>
+        <v>30.49</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-5.93</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DBSTOCKBRO</t>
+          <t>TBOTEK</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>25.35</v>
+        <v>1610.2</v>
       </c>
       <c r="C115" t="n">
-        <v>25.85</v>
+        <v>1644</v>
       </c>
       <c r="D115" t="n">
-        <v>1.97</v>
+        <v>2.1</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>25.59</v>
+        <v>1622.9</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-1.01</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>LOTUSEYE</t>
+          <t>TREEHOUSE</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>103.75</v>
+        <v>8.08</v>
       </c>
       <c r="C116" t="n">
-        <v>105.78</v>
+        <v>8.25</v>
       </c>
       <c r="D116" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>106.4</v>
+        <v>7.91</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>0.59</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>PRICOLLTD</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>0.51</v>
+        <v>661.1</v>
       </c>
       <c r="C117" t="n">
-        <v>0.52</v>
+        <v>675</v>
       </c>
       <c r="D117" t="n">
-        <v>1.96</v>
+        <v>2.1</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>0.52</v>
+        <v>685.25</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>JHS</t>
+          <t>KEC</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>11.77</v>
+        <v>710.35</v>
       </c>
       <c r="C118" t="n">
-        <v>12</v>
+        <v>725</v>
       </c>
       <c r="D118" t="n">
-        <v>1.95</v>
+        <v>2.06</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>11.77</v>
+        <v>702.85</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-1.92</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>STEL</t>
+          <t>PATINTLOG</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>470.5</v>
+        <v>14.06</v>
       </c>
       <c r="C119" t="n">
-        <v>479.65</v>
+        <v>14.35</v>
       </c>
       <c r="D119" t="n">
-        <v>1.94</v>
+        <v>2.06</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>475</v>
+        <v>14.81</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-0.97</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AUTOIND</t>
+          <t>ZENITHSTL</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>67.01000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="C120" t="n">
-        <v>68.3</v>
+        <v>7.96</v>
       </c>
       <c r="D120" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>67.01000000000001</v>
+        <v>7.95</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-1.89</v>
+        <v>-0.13</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>HBSL</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>631.8</v>
+        <v>81.34</v>
       </c>
       <c r="C121" t="n">
-        <v>644</v>
+        <v>83</v>
       </c>
       <c r="D121" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>645.55</v>
+        <v>82</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>0.24</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CEREBRAINT</t>
+          <t>GSTL</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>8.279999999999999</v>
+        <v>7.35</v>
       </c>
       <c r="C122" t="n">
-        <v>8.44</v>
+        <v>7.5</v>
       </c>
       <c r="D122" t="n">
-        <v>1.93</v>
+        <v>2.04</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-0.47</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>AGSTRA</t>
+          <t>OMAXAUTO</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>4.66</v>
+        <v>94.09</v>
       </c>
       <c r="C123" t="n">
-        <v>4.75</v>
+        <v>96</v>
       </c>
       <c r="D123" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>4.8</v>
+        <v>98.45</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>1.05</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TGBHOTELS</t>
+          <t>EXCEL</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>10.92</v>
+        <v>1.48</v>
       </c>
       <c r="C124" t="n">
-        <v>11.13</v>
+        <v>1.51</v>
       </c>
       <c r="D124" t="n">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>11.18</v>
+        <v>1.52</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>0.45</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>WOL3D</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>132.95</v>
+        <v>178.4</v>
       </c>
       <c r="C125" t="n">
-        <v>135.49</v>
+        <v>182</v>
       </c>
       <c r="D125" t="n">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>133.96</v>
+        <v>207</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-1.13</v>
+        <v>13.74</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>DUCON</t>
+          <t>CUBEXTUB</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>4.71</v>
+        <v>83.40000000000001</v>
       </c>
       <c r="C126" t="n">
-        <v>4.8</v>
+        <v>85.06999999999999</v>
       </c>
       <c r="D126" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>4.72</v>
+        <v>84.61</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-1.67</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SADHNANIQ</t>
+          <t>SEMAC</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>6.86</v>
+        <v>330</v>
       </c>
       <c r="C127" t="n">
-        <v>6.99</v>
+        <v>336.6</v>
       </c>
       <c r="D127" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>6.9</v>
+        <v>343.9</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>-1.29</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>BANSALWIRE</t>
+          <t>ACCENTMIC</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>323.85</v>
+        <v>327</v>
       </c>
       <c r="C128" t="n">
-        <v>330</v>
+        <v>333.55</v>
       </c>
       <c r="D128" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>326</v>
+        <v>337.3</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-1.21</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>APCL</t>
+          <t>SONAMLTD</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>125.62</v>
+        <v>40.18</v>
       </c>
       <c r="C129" t="n">
-        <v>128</v>
+        <v>40.98</v>
       </c>
       <c r="D129" t="n">
-        <v>1.89</v>
+        <v>1.99</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>124.2</v>
+        <v>40.65</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-2.97</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>VAISHALI</t>
+          <t>OILCOUNTUB</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>9.52</v>
+        <v>62.54</v>
       </c>
       <c r="C130" t="n">
-        <v>9.699999999999999</v>
+        <v>63.78</v>
       </c>
       <c r="D130" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>9.56</v>
+        <v>62.63</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-1.44</v>
+        <v>-1.8</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>GATECHDVR</t>
+          <t>ORIENTCER</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>0.53</v>
+        <v>43.34</v>
       </c>
       <c r="C131" t="n">
-        <v>0.54</v>
+        <v>44.2</v>
       </c>
       <c r="D131" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.53</v>
+        <v>43.63</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-1.85</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SJLOGISTIC</t>
+          <t>NIBL</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>392.6</v>
+        <v>30.31</v>
       </c>
       <c r="C132" t="n">
-        <v>400</v>
+        <v>30.91</v>
       </c>
       <c r="D132" t="n">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>412.35</v>
+        <v>30.78</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>3.09</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>20MICRONS</t>
+          <t>GUJAPOLLO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>195.1</v>
+        <v>471.35</v>
       </c>
       <c r="C133" t="n">
-        <v>198.75</v>
+        <v>480.6</v>
       </c>
       <c r="D133" t="n">
-        <v>1.87</v>
+        <v>1.96</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>194.18</v>
+        <v>468.15</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-2.3</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SUVEN</t>
+          <t>SACHEEROME</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>178.66</v>
+        <v>324.65</v>
       </c>
       <c r="C134" t="n">
-        <v>181.99</v>
+        <v>331</v>
       </c>
       <c r="D134" t="n">
-        <v>1.86</v>
+        <v>1.96</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>179.51</v>
+        <v>338</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-1.36</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>MCLOUD</t>
+          <t>ESAFSFB</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>64.31</v>
+        <v>27.22</v>
       </c>
       <c r="C135" t="n">
-        <v>65.5</v>
+        <v>27.75</v>
       </c>
       <c r="D135" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>64.28</v>
+        <v>27.13</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-1.86</v>
+        <v>-2.23</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>ORIENTALTL</t>
+          <t>AVONMORE</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>9.220000000000001</v>
+        <v>18.53</v>
       </c>
       <c r="C136" t="n">
-        <v>9.390000000000001</v>
+        <v>18.89</v>
       </c>
       <c r="D136" t="n">
-        <v>1.84</v>
+        <v>1.94</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>9.23</v>
+        <v>18.73</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-1.7</v>
+        <v>-0.85</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SEPC</t>
+          <t>RADAAN</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>10.44</v>
+        <v>3.09</v>
       </c>
       <c r="C137" t="n">
-        <v>10.63</v>
+        <v>3.15</v>
       </c>
       <c r="D137" t="n">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>10.5</v>
+        <v>3.15</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-1.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>GLOBE</t>
+          <t>HINDCON</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>2.76</v>
+        <v>30.42</v>
       </c>
       <c r="C138" t="n">
-        <v>2.81</v>
+        <v>31</v>
       </c>
       <c r="D138" t="n">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>2.88</v>
+        <v>30.98</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>2.49</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>VIKASECO</t>
+          <t>LORDSCHLO</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1.66</v>
+        <v>181.55</v>
       </c>
       <c r="C139" t="n">
-        <v>1.69</v>
+        <v>184.99</v>
       </c>
       <c r="D139" t="n">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1.68</v>
+        <v>180.51</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-0.59</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SHYAMCENT</t>
+          <t>TICL</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>5.6</v>
+        <v>30.92</v>
       </c>
       <c r="C140" t="n">
-        <v>5.7</v>
+        <v>31.5</v>
       </c>
       <c r="D140" t="n">
-        <v>1.79</v>
+        <v>1.88</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>5.65</v>
+        <v>31</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-0.88</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ARVIND</t>
+          <t>ANUHPHR</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>346.35</v>
+        <v>80.23999999999999</v>
       </c>
       <c r="C141" t="n">
-        <v>352.5</v>
+        <v>81.75</v>
       </c>
       <c r="D141" t="n">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>348.4</v>
+        <v>80.38</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-1.16</v>
+        <v>-1.68</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>DUCOL</t>
+          <t>STEL</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>196.35</v>
+        <v>485.9</v>
       </c>
       <c r="C142" t="n">
-        <v>199.85</v>
+        <v>495</v>
       </c>
       <c r="D142" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>198</v>
+        <v>485.25</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-0.93</v>
+        <v>-1.97</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>RSSOFTWARE</t>
+          <t>VIKASECO</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>51.78</v>
+        <v>1.6</v>
       </c>
       <c r="C143" t="n">
-        <v>52.7</v>
+        <v>1.63</v>
       </c>
       <c r="D143" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>51.94</v>
+        <v>1.63</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-1.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HINDCON</t>
+          <t>SOLEX</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>30.77</v>
+        <v>1826.7</v>
       </c>
       <c r="C144" t="n">
-        <v>31.31</v>
+        <v>1860.7</v>
       </c>
       <c r="D144" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>31.08</v>
+        <v>1876.7</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-0.73</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>TPHQ</t>
+          <t>SANATHAN</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>0.57</v>
+        <v>490.85</v>
       </c>
       <c r="C145" t="n">
-        <v>0.58</v>
+        <v>500</v>
       </c>
       <c r="D145" t="n">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>0.59</v>
+        <v>498.05</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>1.72</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>ISFT</t>
+          <t>SOMICONVEY</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>93.41</v>
+        <v>139.4</v>
       </c>
       <c r="C146" t="n">
-        <v>95</v>
+        <v>141.99</v>
       </c>
       <c r="D146" t="n">
-        <v>1.7</v>
+        <v>1.86</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>93.06</v>
+        <v>143</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-2.04</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SIKKO</t>
+          <t>NURECA</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>108.06</v>
+        <v>263.9</v>
       </c>
       <c r="C147" t="n">
-        <v>109.89</v>
+        <v>268.75</v>
       </c>
       <c r="D147" t="n">
-        <v>1.69</v>
+        <v>1.84</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>109.4</v>
+        <v>265</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-0.45</v>
+        <v>-1.4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JETFREIGHT</t>
+          <t>JKIPL</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>14.23</v>
+        <v>122.67</v>
       </c>
       <c r="C148" t="n">
-        <v>14.47</v>
+        <v>124.9</v>
       </c>
       <c r="D148" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>14.4</v>
+        <v>120.93</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-0.48</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>NAHARINDUS</t>
+          <t>BALKRISHNA</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>119.79</v>
+        <v>21.98</v>
       </c>
       <c r="C149" t="n">
-        <v>121.81</v>
+        <v>22.38</v>
       </c>
       <c r="D149" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>120.06</v>
+        <v>21.55</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-1.44</v>
+        <v>-3.71</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>DBCORP</t>
+          <t>AKSHAR</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>260.5</v>
+        <v>0.55</v>
       </c>
       <c r="C150" t="n">
-        <v>264.9</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D150" t="n">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>260.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-1.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>PIONEEREMB</t>
+          <t>MANAKSTEEL</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>30.44</v>
+        <v>64.53</v>
       </c>
       <c r="C151" t="n">
-        <v>30.95</v>
+        <v>65.7</v>
       </c>
       <c r="D151" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>29.8</v>
+        <v>64.04000000000001</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-3.72</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ROLLT</t>
+          <t>ROSSELLIND</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>1.2</v>
+        <v>59.67</v>
       </c>
       <c r="C152" t="n">
-        <v>1.22</v>
+        <v>60.74</v>
       </c>
       <c r="D152" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>1.22</v>
+        <v>59.21</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>BAGFILMS</t>
+          <t>SAKSOFT</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>6.59</v>
+        <v>214.39</v>
       </c>
       <c r="C153" t="n">
-        <v>6.7</v>
+        <v>218.2</v>
       </c>
       <c r="D153" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>6.58</v>
+        <v>215.98</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-1.79</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLARINDS</t>
+          <t>VHL</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>13770</v>
+        <v>3777.9</v>
       </c>
       <c r="C154" t="n">
-        <v>14000</v>
+        <v>3845</v>
       </c>
       <c r="D154" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>13888</v>
+        <v>3752.1</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-0.8</v>
+        <v>-2.42</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ORCHPHARMA</t>
+          <t>TPHQ</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>842.15</v>
+        <v>0.57</v>
       </c>
       <c r="C155" t="n">
-        <v>855.9</v>
+        <v>0.58</v>
       </c>
       <c r="D155" t="n">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>843.05</v>
+        <v>0.58</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SAGARDEEP</t>
+          <t>BTML</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>26.32</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="C156" t="n">
-        <v>26.75</v>
+        <v>8.76</v>
       </c>
       <c r="D156" t="n">
-        <v>1.63</v>
+        <v>1.74</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>26.49</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-0.97</v>
+        <v>-2.51</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>NRAIL</t>
+          <t>GENCON</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>480.3</v>
+        <v>43.25</v>
       </c>
       <c r="C157" t="n">
-        <v>488</v>
+        <v>44</v>
       </c>
       <c r="D157" t="n">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>483</v>
+        <v>43.46</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-1.02</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GABRIEL</t>
+          <t>BALAXI</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>982.2</v>
+        <v>35.98</v>
       </c>
       <c r="C158" t="n">
-        <v>997.8</v>
+        <v>36.6</v>
       </c>
       <c r="D158" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>1010.8</v>
+        <v>36.48</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>1.3</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>LGEINDIA</t>
+          <t>SURANASOL</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>1624.1</v>
+        <v>30.16</v>
       </c>
       <c r="C159" t="n">
-        <v>1650</v>
+        <v>30.68</v>
       </c>
       <c r="D159" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>1646.1</v>
+        <v>30.59</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-0.24</v>
+        <v>-0.29</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>NSIL</t>
+          <t>DELPHIFX</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>6871.5</v>
+        <v>203.48</v>
       </c>
       <c r="C160" t="n">
-        <v>6979.5</v>
+        <v>206.95</v>
       </c>
       <c r="D160" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>6844.5</v>
+        <v>205.21</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-1.93</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>UDS</t>
+          <t>ROLLT</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>195.92</v>
+        <v>1.17</v>
       </c>
       <c r="C161" t="n">
-        <v>198.99</v>
+        <v>1.19</v>
       </c>
       <c r="D161" t="n">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>197.99</v>
+        <v>1.2</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-0.5</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>COMPUSOFT</t>
+          <t>RPPL</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>17.92</v>
+        <v>18.16</v>
       </c>
       <c r="C162" t="n">
-        <v>18.2</v>
+        <v>18.47</v>
       </c>
       <c r="D162" t="n">
-        <v>1.56</v>
+        <v>1.71</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>17.7</v>
+        <v>18.28</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-2.75</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>AXISCADES</t>
+          <t>TENNIND</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>1500.6</v>
+        <v>490.8</v>
       </c>
       <c r="C163" t="n">
-        <v>1523.9</v>
+        <v>499</v>
       </c>
       <c r="D163" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>1522</v>
+        <v>505.8</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-0.12</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LATTEYS</t>
+          <t>SHRADHA</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>24.23</v>
+        <v>43.75</v>
       </c>
       <c r="C164" t="n">
-        <v>24.6</v>
+        <v>44.48</v>
       </c>
       <c r="D164" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>24.76</v>
+        <v>44.7</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>NECCLTD</t>
+          <t>MONTECARLO</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>21.03</v>
+        <v>814.4</v>
       </c>
       <c r="C165" t="n">
-        <v>21.35</v>
+        <v>827.95</v>
       </c>
       <c r="D165" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>21.2</v>
+        <v>842.85</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-0.7</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SHREERAMA</t>
+          <t>V2RETAIL</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>56.73</v>
+        <v>2318.9</v>
       </c>
       <c r="C166" t="n">
-        <v>57.59</v>
+        <v>2357.4</v>
       </c>
       <c r="D166" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>57</v>
+        <v>2364.6</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-1.02</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>LAMBODHARA</t>
+          <t>EMKAY</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>136.34</v>
+        <v>300.05</v>
       </c>
       <c r="C167" t="n">
-        <v>138.4</v>
+        <v>305</v>
       </c>
       <c r="D167" t="n">
-        <v>1.51</v>
+        <v>1.65</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>136.4</v>
+        <v>298</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-1.45</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MMP</t>
+          <t>ORIENTALTL</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>261.75</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="C168" t="n">
-        <v>265.7</v>
+        <v>9.27</v>
       </c>
       <c r="D168" t="n">
-        <v>1.51</v>
+        <v>1.64</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>262.15</v>
+        <v>9.09</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-1.34</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>PROSTARM</t>
+          <t>ZENSARTECH</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>159.36</v>
+        <v>709.5</v>
       </c>
       <c r="C169" t="n">
-        <v>161.75</v>
+        <v>721</v>
       </c>
       <c r="D169" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>162.49</v>
+        <v>711</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>0.46</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>INVENTURE</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>1.33</v>
+        <v>54.03</v>
       </c>
       <c r="C170" t="n">
-        <v>1.35</v>
+        <v>54.9</v>
       </c>
       <c r="D170" t="n">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>1.34</v>
+        <v>54.21</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-0.74</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>SREEL</t>
+          <t>BANSALWIRE</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>235.28</v>
+        <v>322.6</v>
       </c>
       <c r="C171" t="n">
-        <v>238.8</v>
+        <v>327.75</v>
       </c>
       <c r="D171" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>238</v>
+        <v>319.5</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-0.34</v>
+        <v>-2.52</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>RUBFILA</t>
+          <t>ODIGMA</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>81.27</v>
+        <v>34.94</v>
       </c>
       <c r="C172" t="n">
-        <v>82.48</v>
+        <v>35.5</v>
       </c>
       <c r="D172" t="n">
-        <v>1.49</v>
+        <v>1.6</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>81</v>
+        <v>34.7</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-1.79</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>KOTHARIPRO</t>
+          <t>MIDWESTLTD</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>83.95999999999999</v>
+        <v>1209.7</v>
       </c>
       <c r="C173" t="n">
-        <v>85.2</v>
+        <v>1229</v>
       </c>
       <c r="D173" t="n">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>84.68000000000001</v>
+        <v>1209.1</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-0.61</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>RAJTV</t>
+          <t>UNICHEMLAB</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>37.39</v>
+        <v>482.2</v>
       </c>
       <c r="C174" t="n">
-        <v>37.94</v>
+        <v>489.9</v>
       </c>
       <c r="D174" t="n">
-        <v>1.47</v>
+        <v>1.6</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>36.75</v>
+        <v>482.55</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-3.14</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RADIANTCMS</t>
+          <t>AMDIND</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>52.63</v>
+        <v>56.01</v>
       </c>
       <c r="C175" t="n">
-        <v>53.4</v>
+        <v>56.9</v>
       </c>
       <c r="D175" t="n">
-        <v>1.46</v>
+        <v>1.59</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>53.25</v>
+        <v>55.71</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-0.28</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>BSL</t>
+          <t>SREEL</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>192.19</v>
+        <v>232.72</v>
       </c>
       <c r="C176" t="n">
-        <v>194.99</v>
+        <v>236.4</v>
       </c>
       <c r="D176" t="n">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-1.53</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ESCORTS</t>
+          <t>RANASUG</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>3618.8</v>
+        <v>13.48</v>
       </c>
       <c r="C177" t="n">
-        <v>3671.1</v>
+        <v>13.69</v>
       </c>
       <c r="D177" t="n">
-        <v>1.45</v>
+        <v>1.56</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>3591</v>
+        <v>13.6</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-2.18</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>KCPSUGIND</t>
+          <t>HLVLTD</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>27.53</v>
+        <v>9.69</v>
       </c>
       <c r="C178" t="n">
-        <v>27.93</v>
+        <v>9.84</v>
       </c>
       <c r="D178" t="n">
-        <v>1.45</v>
+        <v>1.55</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>27.57</v>
+        <v>9.75</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-1.29</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>NEXTMEDIA</t>
+          <t>MKPL</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6.26</v>
+        <v>6.48</v>
       </c>
       <c r="C179" t="n">
-        <v>6.35</v>
+        <v>6.58</v>
       </c>
       <c r="D179" t="n">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>6.34</v>
+        <v>6.47</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-0.16</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>HTMEDIA</t>
+          <t>BAJAJHIND</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>25.73</v>
+        <v>20.98</v>
       </c>
       <c r="C180" t="n">
-        <v>26.1</v>
+        <v>21.3</v>
       </c>
       <c r="D180" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>25.99</v>
+        <v>21.13</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-0.42</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>AERONEU</t>
+          <t>DJML</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>77.98</v>
+        <v>75.16</v>
       </c>
       <c r="C181" t="n">
-        <v>79.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="D181" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>77.89</v>
+        <v>76.8</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-1.53</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>CUBEXTUB</t>
+          <t>SUBROS</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>86.73</v>
+        <v>876.2</v>
       </c>
       <c r="C182" t="n">
-        <v>87.98</v>
+        <v>889.5</v>
       </c>
       <c r="D182" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>86</v>
+        <v>877.4</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-2.25</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>OMAXE</t>
+          <t>ASIANHOTNR</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>73.04000000000001</v>
+        <v>329.95</v>
       </c>
       <c r="C183" t="n">
-        <v>74.09</v>
+        <v>334.95</v>
       </c>
       <c r="D183" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>74.29000000000001</v>
+        <v>326.05</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>0.27</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>AKZOINDIA</t>
+          <t>PDMJEPAPER</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>3381.7</v>
+        <v>102.55</v>
       </c>
       <c r="C184" t="n">
-        <v>3430</v>
+        <v>104.1</v>
       </c>
       <c r="D184" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>3347.9</v>
+        <v>104.44</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-2.39</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MUFIN</t>
+          <t>TTKHLTCARE</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>114.86</v>
+        <v>1129.5</v>
       </c>
       <c r="C185" t="n">
-        <v>116.5</v>
+        <v>1146.5</v>
       </c>
       <c r="D185" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>114.51</v>
+        <v>1130.6</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-1.71</v>
+        <v>-1.39</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>WONDERLA</t>
+          <t>SBCL</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>558.65</v>
+        <v>457.25</v>
       </c>
       <c r="C186" t="n">
-        <v>566.65</v>
+        <v>464.1</v>
       </c>
       <c r="D186" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>567.05</v>
+        <v>461.25</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.61</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SMARTWORKS</t>
+          <t>QUESS</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>575.8</v>
+        <v>223</v>
       </c>
       <c r="C187" t="n">
-        <v>584</v>
+        <v>226.35</v>
       </c>
       <c r="D187" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>573.7</v>
+        <v>221.91</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-1.76</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>TCIFINANCE</t>
+          <t>RHL</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>11.31</v>
+        <v>214.48</v>
       </c>
       <c r="C188" t="n">
-        <v>11.47</v>
+        <v>217.7</v>
       </c>
       <c r="D188" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>11.1</v>
+        <v>217.7</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-3.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ORICONENT</t>
+          <t>IFBAGRO</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>58.14</v>
+        <v>1414.8</v>
       </c>
       <c r="C189" t="n">
-        <v>58.95</v>
+        <v>1436</v>
       </c>
       <c r="D189" t="n">
-        <v>1.39</v>
+        <v>1.5</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>58.24</v>
+        <v>1422.9</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-1.2</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>PENINLAND</t>
+          <t>HESTERBIO</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>31.89</v>
+        <v>1670.9</v>
       </c>
       <c r="C190" t="n">
-        <v>32.33</v>
+        <v>1696</v>
       </c>
       <c r="D190" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>31.8</v>
+        <v>1670.6</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-1.64</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>DHUNINV</t>
+          <t>PASHUPATI</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>1300.9</v>
+        <v>813.8</v>
       </c>
       <c r="C191" t="n">
-        <v>1318.9</v>
+        <v>826</v>
       </c>
       <c r="D191" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>1296.2</v>
+        <v>815</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-1.72</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>INFOMEDIA</t>
+          <t>SMARTWORKS</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>7.28</v>
+        <v>566.75</v>
       </c>
       <c r="C192" t="n">
-        <v>7.38</v>
+        <v>575.25</v>
       </c>
       <c r="D192" t="n">
-        <v>1.37</v>
+        <v>1.5</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>7.31</v>
+        <v>566.9</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-0.95</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>KCP</t>
+          <t>SASTASUNDR</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>181.36</v>
+        <v>319.25</v>
       </c>
       <c r="C193" t="n">
-        <v>183.8</v>
+        <v>324</v>
       </c>
       <c r="D193" t="n">
-        <v>1.35</v>
+        <v>1.49</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>180.87</v>
+        <v>314.65</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-1.59</v>
+        <v>-2.89</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>AIMTRON</t>
+          <t>SRPL</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>981.7</v>
+        <v>0.67</v>
       </c>
       <c r="C194" t="n">
-        <v>994.9</v>
+        <v>0.68</v>
       </c>
       <c r="D194" t="n">
-        <v>1.34</v>
+        <v>1.49</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>987.95</v>
+        <v>0.68</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>-0.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>KAMOPAINTS</t>
+          <t>NUVOCO</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>7.5</v>
+        <v>364.55</v>
       </c>
       <c r="C195" t="n">
-        <v>7.6</v>
+        <v>370</v>
       </c>
       <c r="D195" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>7.45</v>
+        <v>362.2</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-1.97</v>
+        <v>-2.11</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>KROSS</t>
+          <t>AMANTA</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>169.25</v>
+        <v>117.06</v>
       </c>
       <c r="C196" t="n">
-        <v>171.5</v>
+        <v>118.8</v>
       </c>
       <c r="D196" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>170.21</v>
+        <v>118.39</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-0.75</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>ASTEC</t>
+          <t>VETO</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>649.35</v>
+        <v>115.26</v>
       </c>
       <c r="C197" t="n">
-        <v>658</v>
+        <v>116.98</v>
       </c>
       <c r="D197" t="n">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>644</v>
+        <v>116.2</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-2.13</v>
+        <v>-0.67</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>BANARISUG</t>
+          <t>TAKE</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>3603.5</v>
+        <v>29.51</v>
       </c>
       <c r="C198" t="n">
-        <v>3651</v>
+        <v>29.95</v>
       </c>
       <c r="D198" t="n">
-        <v>1.32</v>
+        <v>1.49</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>3651</v>
+        <v>29.88</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>DANGEE</t>
+          <t>NECCLTD</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>3.88</v>
+        <v>20.99</v>
       </c>
       <c r="C199" t="n">
-        <v>3.93</v>
+        <v>21.3</v>
       </c>
       <c r="D199" t="n">
-        <v>1.29</v>
+        <v>1.48</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>3.87</v>
+        <v>21.02</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-1.53</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>MANUGRAPH</t>
+          <t>KROSS</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>18.02</v>
+        <v>164.48</v>
       </c>
       <c r="C200" t="n">
-        <v>18.25</v>
+        <v>166.9</v>
       </c>
       <c r="D200" t="n">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>17.71</v>
+        <v>167.45</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.96</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>HARIOMPIPE</t>
+          <t>VIPCLOTHNG</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>369.1</v>
+        <v>33.66</v>
       </c>
       <c r="C201" t="n">
-        <v>373.8</v>
+        <v>34.15</v>
       </c>
       <c r="D201" t="n">
-        <v>1.27</v>
+        <v>1.46</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>369.5</v>
+        <v>33.79</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-1.15</v>
+        <v>-1.05</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,283 +478,283 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BIKEWO</t>
+          <t>UNIHEALTH</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18.45</v>
+        <v>292.2</v>
       </c>
       <c r="C2" t="n">
-        <v>20.2</v>
+        <v>321.4</v>
       </c>
       <c r="D2" t="n">
-        <v>9.49</v>
+        <v>9.99</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>19.85</v>
+        <v>317</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-1.73</v>
+        <v>-1.37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>INCREDIBLE</t>
+          <t>KESORAMIND</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.8</v>
+        <v>5.15</v>
       </c>
       <c r="C3" t="n">
-        <v>44.97</v>
+        <v>5.49</v>
       </c>
       <c r="D3" t="n">
-        <v>7.58</v>
+        <v>6.6</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>44.6</v>
+        <v>5.66</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>-0.82</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MITCON</t>
+          <t>KALYANIFRG</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>71.34999999999999</v>
+        <v>671.4</v>
       </c>
       <c r="C4" t="n">
-        <v>75.84999999999999</v>
+        <v>709.95</v>
       </c>
       <c r="D4" t="n">
-        <v>6.31</v>
+        <v>5.74</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>73</v>
+        <v>699</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-3.76</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HPIL</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>137.06</v>
+        <v>1192.15</v>
       </c>
       <c r="C5" t="n">
-        <v>145.69</v>
+        <v>1251.75</v>
       </c>
       <c r="D5" t="n">
-        <v>6.3</v>
+        <v>5</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>137.62</v>
+        <v>1251.75</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-5.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TVVISION</t>
+          <t>NDLVENTURE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.78</v>
+        <v>85.59</v>
       </c>
       <c r="C6" t="n">
-        <v>6.13</v>
+        <v>89.86</v>
       </c>
       <c r="D6" t="n">
-        <v>6.06</v>
+        <v>4.99</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>5.99</v>
+        <v>89.86</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-2.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>SACHEEROME</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23.55</v>
+        <v>340.85</v>
       </c>
       <c r="C7" t="n">
-        <v>24.95</v>
+        <v>357.85</v>
       </c>
       <c r="D7" t="n">
-        <v>5.94</v>
+        <v>4.99</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>25.75</v>
+        <v>357.85</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>3.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IPHL</t>
+          <t>GUJRAFFIA</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>71.75</v>
+        <v>47.46</v>
       </c>
       <c r="C8" t="n">
-        <v>76</v>
+        <v>49.83</v>
       </c>
       <c r="D8" t="n">
-        <v>5.92</v>
+        <v>4.99</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>78</v>
+        <v>49.83</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>2.63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UNIHEALTH</t>
+          <t>K2INFRA</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>265.65</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>280</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="D9" t="n">
-        <v>5.4</v>
+        <v>4.99</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>292.2</v>
+        <v>74.65000000000001</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>4.36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GLOBALE</t>
+          <t>SEJALLTD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.61</v>
+        <v>928.95</v>
       </c>
       <c r="C10" t="n">
-        <v>13.25</v>
+        <v>975.35</v>
       </c>
       <c r="D10" t="n">
-        <v>5.08</v>
+        <v>4.99</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>13.25</v>
+        <v>936.1</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SUMIT</t>
+          <t>AMCL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>80.59</v>
+        <v>282.65</v>
       </c>
       <c r="C11" t="n">
-        <v>84.65000000000001</v>
+        <v>296.7</v>
       </c>
       <c r="D11" t="n">
-        <v>5.04</v>
+        <v>4.97</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>80.89</v>
+        <v>296.7</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>-4.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INFLUX</t>
+          <t>SUPREMEENG</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>229.2</v>
+        <v>1.01</v>
       </c>
       <c r="C12" t="n">
-        <v>240.65</v>
+        <v>1.06</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>4.95</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>240.65</v>
+        <v>1.06</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
@@ -764,127 +764,127 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>GUJRAFFIA</t>
+          <t>JEYYAM</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>45.2</v>
+        <v>69.7</v>
       </c>
       <c r="C13" t="n">
-        <v>47.45</v>
+        <v>73.15000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>4.98</v>
+        <v>4.95</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>47.46</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0.02</v>
+        <v>-0.68</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NAVKARURB</t>
+          <t>NIRMAN</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.81</v>
+        <v>59.7</v>
       </c>
       <c r="C14" t="n">
-        <v>1.9</v>
+        <v>62.65</v>
       </c>
       <c r="D14" t="n">
-        <v>4.97</v>
+        <v>4.94</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.84</v>
+        <v>62.65</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>-3.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ALLCARGO</t>
+          <t>IWARE</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.14</v>
+        <v>213.05</v>
       </c>
       <c r="C15" t="n">
-        <v>15.89</v>
+        <v>223.55</v>
       </c>
       <c r="D15" t="n">
-        <v>4.95</v>
+        <v>4.93</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>15.89</v>
+        <v>220</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DIVINEHIRA</t>
+          <t>SUPREMEINF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.6</v>
+        <v>83.41</v>
       </c>
       <c r="C16" t="n">
-        <v>178</v>
+        <v>87.5</v>
       </c>
       <c r="D16" t="n">
-        <v>4.95</v>
+        <v>4.9</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>171</v>
+        <v>87.45</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-3.93</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>K2INFRA</t>
+          <t>SHUBHLAXMI</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>67.75</v>
+        <v>20.55</v>
       </c>
       <c r="C17" t="n">
-        <v>71.09999999999999</v>
+        <v>21.55</v>
       </c>
       <c r="D17" t="n">
-        <v>4.94</v>
+        <v>4.87</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>71.09999999999999</v>
+        <v>21.55</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -894,49 +894,49 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.94</v>
+        <v>121.8</v>
       </c>
       <c r="C18" t="n">
-        <v>5.18</v>
+        <v>127.39</v>
       </c>
       <c r="D18" t="n">
-        <v>4.86</v>
+        <v>4.59</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>4.69</v>
+        <v>123.49</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>-9.460000000000001</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SICALLOG</t>
+          <t>TVVISION</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>89.64</v>
+        <v>5.93</v>
       </c>
       <c r="C19" t="n">
-        <v>94</v>
+        <v>6.19</v>
       </c>
       <c r="D19" t="n">
-        <v>4.86</v>
+        <v>4.38</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>94</v>
+        <v>6.19</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
@@ -946,1683 +946,1687 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SHUBHLAXMI</t>
+          <t>INCREDIBLE</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19.6</v>
+        <v>41.87</v>
       </c>
       <c r="C20" t="n">
-        <v>20.55</v>
+        <v>43.7</v>
       </c>
       <c r="D20" t="n">
-        <v>4.85</v>
+        <v>4.37</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>20.55</v>
+        <v>43.69</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>TECILCHEM</t>
+          <t>ROLLT</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19.55</v>
+        <v>1.15</v>
       </c>
       <c r="C21" t="n">
-        <v>20.49</v>
+        <v>1.2</v>
       </c>
       <c r="D21" t="n">
-        <v>4.81</v>
+        <v>4.35</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>20.49</v>
+        <v>1.18</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SHETHJI</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>112.55</v>
+        <v>1.39</v>
       </c>
       <c r="C22" t="n">
-        <v>117.9</v>
+        <v>1.45</v>
       </c>
       <c r="D22" t="n">
-        <v>4.75</v>
+        <v>4.32</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>118.15</v>
+        <v>1.45</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>JPPOWER</t>
+          <t>MDL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>20.27</v>
+        <v>94</v>
       </c>
       <c r="C23" t="n">
-        <v>21.22</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>4.69</v>
+        <v>4.1</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>22.58</v>
+        <v>97.84999999999999</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>6.41</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>NIRMAN</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>56.9</v>
+        <v>60.5</v>
       </c>
       <c r="C24" t="n">
-        <v>59.5</v>
+        <v>62.95</v>
       </c>
       <c r="D24" t="n">
-        <v>4.57</v>
+        <v>4.05</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>59.7</v>
+        <v>63.5</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.34</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>VLEGOV</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.33</v>
+        <v>25.86</v>
       </c>
       <c r="C25" t="n">
-        <v>1.39</v>
+        <v>26.9</v>
       </c>
       <c r="D25" t="n">
-        <v>4.51</v>
+        <v>4.02</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>1.39</v>
+        <v>26.33</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ORTINGLOBE</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>12.32</v>
+        <v>28.26</v>
       </c>
       <c r="C26" t="n">
-        <v>12.85</v>
+        <v>29.37</v>
       </c>
       <c r="D26" t="n">
-        <v>4.3</v>
+        <v>3.93</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>12.03</v>
+        <v>31.08</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-6.38</v>
+        <v>5.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TFL</t>
+          <t>C2C</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>13.14</v>
+        <v>653.5</v>
       </c>
       <c r="C27" t="n">
-        <v>13.7</v>
+        <v>679</v>
       </c>
       <c r="D27" t="n">
-        <v>4.26</v>
+        <v>3.9</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>13.2</v>
+        <v>670</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-3.65</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>ASTRON</t>
+          <t>RAJTV</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>7.79</v>
+        <v>38.54</v>
       </c>
       <c r="C28" t="n">
-        <v>8.119999999999999</v>
+        <v>40</v>
       </c>
       <c r="D28" t="n">
-        <v>4.24</v>
+        <v>3.79</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>7.7</v>
+        <v>40</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>-5.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BAJAJINDEF</t>
+          <t>SAGARDEEP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>347.25</v>
+        <v>26.62</v>
       </c>
       <c r="C29" t="n">
-        <v>361.9</v>
+        <v>27.61</v>
       </c>
       <c r="D29" t="n">
-        <v>4.22</v>
+        <v>3.72</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>350.1</v>
+        <v>26.5</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-3.26</v>
+        <v>-4.02</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SANGINITA</t>
+          <t>USK</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>10.51</v>
+        <v>25.13</v>
       </c>
       <c r="C30" t="n">
-        <v>10.95</v>
+        <v>26.03</v>
       </c>
       <c r="D30" t="n">
-        <v>4.19</v>
+        <v>3.58</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>10.36</v>
+        <v>25.25</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-5.39</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>NETWEB</t>
+          <t>XTGLOBAL</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3288</v>
+        <v>37.94</v>
       </c>
       <c r="C31" t="n">
-        <v>3425.1</v>
+        <v>39.3</v>
       </c>
       <c r="D31" t="n">
-        <v>4.17</v>
+        <v>3.58</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>3398.6</v>
+        <v>38.69</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-0.77</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>UFO</t>
+          <t>SANWARIA</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.48</v>
+        <v>0.28</v>
       </c>
       <c r="C32" t="n">
-        <v>80.68000000000001</v>
+        <v>0.29</v>
       </c>
       <c r="D32" t="n">
-        <v>4.13</v>
+        <v>3.57</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>86.40000000000001</v>
+        <v>0.28</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>7.09</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>SHIVAMILLS</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>57.65</v>
+        <v>65.61</v>
       </c>
       <c r="C33" t="n">
-        <v>60</v>
+        <v>67.94</v>
       </c>
       <c r="D33" t="n">
-        <v>4.08</v>
+        <v>3.55</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>60.5</v>
+        <v>66.90000000000001</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>0.83</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NIRAJ</t>
+          <t>RELIABLE</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.43</v>
+        <v>133.75</v>
       </c>
       <c r="C34" t="n">
-        <v>37.9</v>
+        <v>138.5</v>
       </c>
       <c r="D34" t="n">
-        <v>4.04</v>
+        <v>3.55</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>37.91</v>
+        <v>133</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>0.03</v>
+        <v>-3.97</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BANKA</t>
+          <t>AGSTRA</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>76</v>
+        <v>5.1</v>
       </c>
       <c r="C35" t="n">
-        <v>79</v>
+        <v>5.28</v>
       </c>
       <c r="D35" t="n">
-        <v>3.95</v>
+        <v>3.53</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>75.70999999999999</v>
+        <v>5.15</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-4.16</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>IL&amp;FSENGG</t>
+          <t>FLFL</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>26.46</v>
+        <v>1.45</v>
       </c>
       <c r="C36" t="n">
-        <v>27.5</v>
+        <v>1.5</v>
       </c>
       <c r="D36" t="n">
-        <v>3.93</v>
+        <v>3.45</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
-      <c r="F36" t="inlineStr"/>
+      <c r="F36" t="n">
+        <v>1.52</v>
+      </c>
       <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>JEYYAM</t>
+          <t>UYFINCORP</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>66.40000000000001</v>
+        <v>14.97</v>
       </c>
       <c r="C37" t="n">
-        <v>69</v>
+        <v>15.48</v>
       </c>
       <c r="D37" t="n">
-        <v>3.92</v>
+        <v>3.41</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>69.7</v>
+        <v>15.39</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>1.01</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SETUINFRA</t>
+          <t>AKI</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.51</v>
+        <v>7.74</v>
       </c>
       <c r="C38" t="n">
-        <v>0.53</v>
+        <v>8</v>
       </c>
       <c r="D38" t="n">
-        <v>3.92</v>
+        <v>3.36</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.49</v>
+        <v>7.75</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-7.55</v>
+        <v>-3.12</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>TEAMGTY</t>
+          <t>MAGNUM</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>264.8</v>
+        <v>21.96</v>
       </c>
       <c r="C39" t="n">
-        <v>275</v>
+        <v>22.69</v>
       </c>
       <c r="D39" t="n">
-        <v>3.85</v>
+        <v>3.32</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>265</v>
+        <v>22.18</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-3.64</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SILGO</t>
+          <t>DIGISPICE</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>63.47</v>
+        <v>23.49</v>
       </c>
       <c r="C40" t="n">
-        <v>65.90000000000001</v>
+        <v>24.27</v>
       </c>
       <c r="D40" t="n">
-        <v>3.83</v>
+        <v>3.32</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>65.75</v>
+        <v>23.11</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-0.23</v>
+        <v>-4.78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>RKEC</t>
+          <t>SILINV</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>55.88</v>
+        <v>569.2</v>
       </c>
       <c r="C41" t="n">
-        <v>58</v>
+        <v>588</v>
       </c>
       <c r="D41" t="n">
-        <v>3.79</v>
+        <v>3.3</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>56.7</v>
+        <v>572.45</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-2.24</v>
+        <v>-2.64</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>TREJHARA</t>
+          <t>ORIENTALTL</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>240.06</v>
+        <v>8.5</v>
       </c>
       <c r="C42" t="n">
-        <v>249</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>3.72</v>
+        <v>3.29</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>244</v>
+        <v>8.77</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-2.01</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>RAJMET</t>
+          <t>KRITI</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.34</v>
+        <v>95.83</v>
       </c>
       <c r="C43" t="n">
-        <v>4.5</v>
+        <v>98.98</v>
       </c>
       <c r="D43" t="n">
-        <v>3.69</v>
+        <v>3.29</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>4.35</v>
+        <v>96.45</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-3.33</v>
+        <v>-2.56</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>AHCL</t>
+          <t>NAVKARURB</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>158.95</v>
+        <v>1.83</v>
       </c>
       <c r="C44" t="n">
-        <v>164.7</v>
+        <v>1.89</v>
       </c>
       <c r="D44" t="n">
-        <v>3.62</v>
+        <v>3.28</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>160</v>
+        <v>1.83</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-2.85</v>
+        <v>-3.17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>VENUSREM</t>
+          <t>GATECH</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>644.85</v>
+        <v>0.61</v>
       </c>
       <c r="C45" t="n">
-        <v>668</v>
+        <v>0.63</v>
       </c>
       <c r="D45" t="n">
-        <v>3.59</v>
+        <v>3.28</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>678.8</v>
+        <v>0.62</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>1.62</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>VLEGOV</t>
+          <t>AERONEU</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.63</v>
+        <v>76.86</v>
       </c>
       <c r="C46" t="n">
-        <v>25.49</v>
+        <v>79.3</v>
       </c>
       <c r="D46" t="n">
-        <v>3.49</v>
+        <v>3.17</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>25.86</v>
+        <v>74.01000000000001</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>1.45</v>
+        <v>-6.67</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DRCSYSTEMS</t>
+          <t>PLAZACABLE</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>18.19</v>
+        <v>38.87</v>
       </c>
       <c r="C47" t="n">
-        <v>18.82</v>
+        <v>40.1</v>
       </c>
       <c r="D47" t="n">
-        <v>3.46</v>
+        <v>3.16</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>18.68</v>
+        <v>39.23</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-0.74</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ARENTERP</t>
+          <t>VIJIFIN</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>49.37</v>
+        <v>2.9</v>
       </c>
       <c r="C48" t="n">
-        <v>51</v>
+        <v>2.99</v>
       </c>
       <c r="D48" t="n">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>47.61</v>
+        <v>2.86</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-6.65</v>
+        <v>-4.35</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>EUROBOND</t>
+          <t>SJLOGISTIC</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>201.82</v>
+        <v>442.1</v>
       </c>
       <c r="C49" t="n">
-        <v>208.4</v>
+        <v>454.9</v>
       </c>
       <c r="D49" t="n">
-        <v>3.26</v>
+        <v>2.9</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>206.95</v>
+        <v>447</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-0.7</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CEREBRAINT</t>
+          <t>YUKEN</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>8.02</v>
+        <v>903.05</v>
       </c>
       <c r="C50" t="n">
-        <v>8.279999999999999</v>
+        <v>929</v>
       </c>
       <c r="D50" t="n">
-        <v>3.24</v>
+        <v>2.87</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>8.18</v>
+        <v>912</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-1.21</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>OMAXE</t>
+          <t>SINTERCOM</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>71.97</v>
+        <v>115.21</v>
       </c>
       <c r="C51" t="n">
-        <v>74.29000000000001</v>
+        <v>118.5</v>
       </c>
       <c r="D51" t="n">
-        <v>3.22</v>
+        <v>2.86</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>72.90000000000001</v>
+        <v>118.5</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-1.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SAMMAANCAP</t>
+          <t>INDTERRAIN</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>159.55</v>
+        <v>37.14</v>
       </c>
       <c r="C52" t="n">
-        <v>164.58</v>
+        <v>38.2</v>
       </c>
       <c r="D52" t="n">
-        <v>3.15</v>
+        <v>2.85</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>153.95</v>
+        <v>37.2</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-6.46</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KRISHIVAL</t>
+          <t>GOYALALUM</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>455.95</v>
+        <v>6.79</v>
       </c>
       <c r="C53" t="n">
-        <v>470</v>
+        <v>6.98</v>
       </c>
       <c r="D53" t="n">
-        <v>3.08</v>
+        <v>2.8</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>458.9</v>
+        <v>6.88</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-2.36</v>
+        <v>-1.43</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VINNY</t>
+          <t>VIPULLTD</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>1.31</v>
+        <v>9.08</v>
       </c>
       <c r="C54" t="n">
-        <v>1.35</v>
+        <v>9.33</v>
       </c>
       <c r="D54" t="n">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>1.32</v>
+        <v>9.24</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-2.22</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DAMODARIND</t>
+          <t>EVERESTIND</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>32.5</v>
+        <v>560.25</v>
       </c>
       <c r="C55" t="n">
-        <v>33.49</v>
+        <v>575</v>
       </c>
       <c r="D55" t="n">
-        <v>3.05</v>
+        <v>2.63</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>32.99</v>
+        <v>561.8</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-1.49</v>
+        <v>-2.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>ELDEHSG</t>
+          <t>FOCUS</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>800.7</v>
+        <v>76.45999999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>825</v>
+        <v>78.45999999999999</v>
       </c>
       <c r="D56" t="n">
-        <v>3.03</v>
+        <v>2.62</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>803.1</v>
+        <v>75.53</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-2.65</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MAHEPC</t>
+          <t>OMAXAUTO</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>130.85</v>
+        <v>93.55</v>
       </c>
       <c r="C57" t="n">
-        <v>134.79</v>
+        <v>95.98999999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>3.01</v>
+        <v>2.61</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>132</v>
+        <v>93.73</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-2.07</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>BRNL</t>
+          <t>TERASOFT</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>25.06</v>
+        <v>504.2</v>
       </c>
       <c r="C58" t="n">
-        <v>25.81</v>
+        <v>517.25</v>
       </c>
       <c r="D58" t="n">
-        <v>2.99</v>
+        <v>2.59</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>25.09</v>
+        <v>515</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-2.79</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ANTGRAPHIC</t>
+          <t>ALLCARGO</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.01</v>
+        <v>15.49</v>
       </c>
       <c r="C59" t="n">
-        <v>1.04</v>
+        <v>15.89</v>
       </c>
       <c r="D59" t="n">
-        <v>2.97</v>
+        <v>2.58</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>1.03</v>
+        <v>15.03</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-0.96</v>
+        <v>-5.41</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>JHS</t>
+          <t>CHEMBONDCH</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>11.46</v>
+        <v>160.86</v>
       </c>
       <c r="C60" t="n">
-        <v>11.8</v>
+        <v>164.99</v>
       </c>
       <c r="D60" t="n">
-        <v>2.97</v>
+        <v>2.57</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>11.55</v>
+        <v>161.47</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-2.12</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ORIENTLTD</t>
+          <t>FEL</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>81.47</v>
+        <v>0.39</v>
       </c>
       <c r="C61" t="n">
-        <v>83.84</v>
+        <v>0.4</v>
       </c>
       <c r="D61" t="n">
-        <v>2.91</v>
+        <v>2.56</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>81.15000000000001</v>
+        <v>0.4</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-3.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>MODTHREAD</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>121.28</v>
+        <v>44.85</v>
       </c>
       <c r="C62" t="n">
-        <v>124.8</v>
+        <v>46</v>
       </c>
       <c r="D62" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>124.45</v>
+        <v>46</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-0.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HARRMALAYA</t>
+          <t>HINDCON</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>181.54</v>
+        <v>30.13</v>
       </c>
       <c r="C63" t="n">
-        <v>186.8</v>
+        <v>30.9</v>
       </c>
       <c r="D63" t="n">
-        <v>2.9</v>
+        <v>2.56</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>182.7</v>
+        <v>30</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-2.19</v>
+        <v>-2.91</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>RAMRAT</t>
+          <t>PLASTIBLEN</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>610.85</v>
+        <v>169.27</v>
       </c>
       <c r="C64" t="n">
-        <v>628.5</v>
+        <v>173.49</v>
       </c>
       <c r="D64" t="n">
-        <v>2.89</v>
+        <v>2.49</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>614</v>
+        <v>170.98</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-2.31</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SUKHJITS</t>
+          <t>PAR</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>154.39</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="C65" t="n">
-        <v>158.85</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D65" t="n">
-        <v>2.89</v>
+        <v>2.43</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>156.17</v>
+        <v>94</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-1.69</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INDOUS</t>
+          <t>KALPATARU</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>124.49</v>
+        <v>359.55</v>
       </c>
       <c r="C66" t="n">
-        <v>128</v>
+        <v>368</v>
       </c>
       <c r="D66" t="n">
-        <v>2.82</v>
+        <v>2.35</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>127.43</v>
+        <v>362</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-0.45</v>
+        <v>-1.63</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BIRLACABLE</t>
+          <t>SRGHFL</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>147.83</v>
+        <v>261.85</v>
       </c>
       <c r="C67" t="n">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="D67" t="n">
-        <v>2.82</v>
+        <v>2.35</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>149.78</v>
+        <v>266.9</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-1.46</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>AJOONI</t>
+          <t>ELGIRUBCO</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>4.67</v>
+        <v>54.13</v>
       </c>
       <c r="C68" t="n">
-        <v>4.8</v>
+        <v>55.4</v>
       </c>
       <c r="D68" t="n">
-        <v>2.78</v>
+        <v>2.35</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>4.72</v>
+        <v>55.35</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-1.67</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>E2E</t>
+          <t>ZODIACLOTH</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2603.6</v>
+        <v>92.81</v>
       </c>
       <c r="C69" t="n">
-        <v>2674.9</v>
+        <v>94.94</v>
       </c>
       <c r="D69" t="n">
-        <v>2.74</v>
+        <v>2.3</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2605.7</v>
+        <v>93.31</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-2.59</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>LAKSHYA</t>
+          <t>NOVAAGRI</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>124.6</v>
+        <v>44.83</v>
       </c>
       <c r="C70" t="n">
-        <v>128</v>
+        <v>45.86</v>
       </c>
       <c r="D70" t="n">
-        <v>2.73</v>
+        <v>2.3</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>128</v>
+        <v>44.73</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>-2.46</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>MWL</t>
+          <t>ASHIMASYN</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>239.47</v>
+        <v>19.27</v>
       </c>
       <c r="C71" t="n">
-        <v>245.96</v>
+        <v>19.71</v>
       </c>
       <c r="D71" t="n">
-        <v>2.71</v>
+        <v>2.28</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>237.02</v>
+        <v>19.39</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-3.63</v>
+        <v>-1.62</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INDSWFTLAB</t>
+          <t>BVCL</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>95.44</v>
+        <v>43.24</v>
       </c>
       <c r="C72" t="n">
-        <v>98</v>
+        <v>44.22</v>
       </c>
       <c r="D72" t="n">
-        <v>2.68</v>
+        <v>2.27</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>96.84999999999999</v>
+        <v>44.22</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>-1.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MANAKALUCO</t>
+          <t>PRAKASHSTL</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>26.93</v>
+        <v>4.85</v>
       </c>
       <c r="C73" t="n">
-        <v>27.65</v>
+        <v>4.96</v>
       </c>
       <c r="D73" t="n">
-        <v>2.67</v>
+        <v>2.27</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>27.39</v>
+        <v>5</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ZENTEC</t>
+          <t>GOKUL</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>1401.7</v>
+        <v>36.95</v>
       </c>
       <c r="C74" t="n">
-        <v>1439</v>
+        <v>37.79</v>
       </c>
       <c r="D74" t="n">
-        <v>2.66</v>
+        <v>2.27</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>1432.8</v>
+        <v>37.4</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-0.43</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>DIAMINESQ</t>
+          <t>EMKAY</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>277.65</v>
+        <v>301.1</v>
       </c>
       <c r="C75" t="n">
-        <v>285</v>
+        <v>307.8</v>
       </c>
       <c r="D75" t="n">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>279</v>
+        <v>300</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-2.11</v>
+        <v>-2.53</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FEL</t>
+          <t>ACCURACY</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.38</v>
+        <v>6.31</v>
       </c>
       <c r="C76" t="n">
-        <v>0.39</v>
+        <v>6.45</v>
       </c>
       <c r="D76" t="n">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>0.39</v>
+        <v>6.43</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>-0.31</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>NBCC</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>113.04</v>
+        <v>197.62</v>
       </c>
       <c r="C77" t="n">
-        <v>116</v>
+        <v>202</v>
       </c>
       <c r="D77" t="n">
-        <v>2.62</v>
+        <v>2.22</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>115.2</v>
+        <v>203.6</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>UMAEXPORTS</t>
+          <t>XELPMOC</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>41.92</v>
+        <v>139.91</v>
       </c>
       <c r="C78" t="n">
-        <v>43</v>
+        <v>143</v>
       </c>
       <c r="D78" t="n">
-        <v>2.58</v>
+        <v>2.21</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>42.65</v>
+        <v>137</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-4.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DANGEE</t>
+          <t>BLUEPEBBLE</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>3.89</v>
+        <v>106.65</v>
       </c>
       <c r="C79" t="n">
-        <v>3.99</v>
+        <v>109</v>
       </c>
       <c r="D79" t="n">
-        <v>2.57</v>
+        <v>2.2</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>3.85</v>
+        <v>108.5</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-3.51</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SHEKHAWATI</t>
+          <t>OCCLLTD</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>19</v>
+        <v>104.67</v>
       </c>
       <c r="C80" t="n">
-        <v>19.48</v>
+        <v>106.96</v>
       </c>
       <c r="D80" t="n">
-        <v>2.53</v>
+        <v>2.19</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>18.91</v>
+        <v>104.12</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-2.93</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AGSTRA</t>
+          <t>PREMIERPOL</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>4.86</v>
+        <v>44.53</v>
       </c>
       <c r="C81" t="n">
-        <v>4.98</v>
+        <v>45.5</v>
       </c>
       <c r="D81" t="n">
-        <v>2.47</v>
+        <v>2.18</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>5.05</v>
+        <v>49.1</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>1.41</v>
+        <v>7.91</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>NOIDATOLL</t>
+          <t>ALPSINDUS</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>4.48</v>
+        <v>1.86</v>
       </c>
       <c r="C82" t="n">
-        <v>4.59</v>
+        <v>1.9</v>
       </c>
       <c r="D82" t="n">
-        <v>2.46</v>
+        <v>2.15</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>4.46</v>
+        <v>1.87</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-2.83</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>TEXMOPIPES</t>
+          <t>HAVISHA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>51.24</v>
+        <v>1.9</v>
       </c>
       <c r="C83" t="n">
-        <v>52.5</v>
+        <v>1.94</v>
       </c>
       <c r="D83" t="n">
-        <v>2.46</v>
+        <v>2.11</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>51.64</v>
+        <v>1.94</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-1.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>FILATFASH</t>
+          <t>PARAGON</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.41</v>
+        <v>50.25</v>
       </c>
       <c r="C84" t="n">
-        <v>0.42</v>
+        <v>51.3</v>
       </c>
       <c r="D84" t="n">
-        <v>2.44</v>
+        <v>2.09</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>0.42</v>
+        <v>51.3</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
@@ -2632,3043 +2636,3037 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SITINET</t>
+          <t>GPPL</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.41</v>
+        <v>177.31</v>
       </c>
       <c r="C85" t="n">
-        <v>0.42</v>
+        <v>181</v>
       </c>
       <c r="D85" t="n">
-        <v>2.44</v>
+        <v>2.08</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>0.41</v>
+        <v>177.8</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-2.38</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>VIJIFIN</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.87</v>
+        <v>2.42</v>
       </c>
       <c r="C86" t="n">
-        <v>2.94</v>
+        <v>2.47</v>
       </c>
       <c r="D86" t="n">
-        <v>2.44</v>
+        <v>2.07</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>0.34</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CPCAP</t>
+          <t>FROG</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>115.97</v>
+        <v>164.6</v>
       </c>
       <c r="C87" t="n">
-        <v>118.8</v>
+        <v>167.95</v>
       </c>
       <c r="D87" t="n">
-        <v>2.44</v>
+        <v>2.04</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>118.21</v>
+        <v>168</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RELIABLE</t>
+          <t>DRCSYSTEMS</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>133.76</v>
+        <v>18.11</v>
       </c>
       <c r="C88" t="n">
-        <v>136.99</v>
+        <v>18.48</v>
       </c>
       <c r="D88" t="n">
-        <v>2.41</v>
+        <v>2.04</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>136</v>
+        <v>18.37</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-0.72</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NINSYS</t>
+          <t>PRITI</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>406.25</v>
+        <v>65.67</v>
       </c>
       <c r="C89" t="n">
-        <v>416</v>
+        <v>67</v>
       </c>
       <c r="D89" t="n">
-        <v>2.4</v>
+        <v>2.03</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>406.3</v>
+        <v>65.11</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-2.33</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>KOTARISUG</t>
+          <t>UCAL</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>29.6</v>
+        <v>125.47</v>
       </c>
       <c r="C90" t="n">
-        <v>30.31</v>
+        <v>128</v>
       </c>
       <c r="D90" t="n">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>29.77</v>
+        <v>125.02</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-1.78</v>
+        <v>-2.33</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>APOLSINHOT</t>
+          <t>ODIGMA</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>1290</v>
+        <v>35.37</v>
       </c>
       <c r="C91" t="n">
-        <v>1321</v>
+        <v>36.08</v>
       </c>
       <c r="D91" t="n">
-        <v>2.4</v>
+        <v>2.01</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>1290.1</v>
+        <v>35.2</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-2.34</v>
+        <v>-2.44</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>VAISHALI</t>
+          <t>SPCENET</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>9.359999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C92" t="n">
-        <v>9.58</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="D92" t="n">
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>9.35</v>
+        <v>9</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-2.4</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ZODIAC</t>
+          <t>SAKHTISUG</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>363.45</v>
+        <v>19.58</v>
       </c>
       <c r="C93" t="n">
-        <v>372</v>
+        <v>19.97</v>
       </c>
       <c r="D93" t="n">
-        <v>2.35</v>
+        <v>1.99</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>366.95</v>
+        <v>19.54</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-1.36</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>KANPRPLA</t>
+          <t>GVPTECH</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>199.82</v>
+        <v>9.07</v>
       </c>
       <c r="C94" t="n">
-        <v>204.5</v>
+        <v>9.25</v>
       </c>
       <c r="D94" t="n">
-        <v>2.34</v>
+        <v>1.98</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>199.94</v>
+        <v>9</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-2.23</v>
+        <v>-2.7</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>VIJAYA</t>
+          <t>BALAXI</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>1004.6</v>
+        <v>35.98</v>
       </c>
       <c r="C95" t="n">
-        <v>1028</v>
+        <v>36.69</v>
       </c>
       <c r="D95" t="n">
-        <v>2.33</v>
+        <v>1.97</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>1015.85</v>
+        <v>36.78</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>-1.18</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>RADIOCITY</t>
+          <t>CEREBRAINT</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>6.89</v>
+        <v>8.16</v>
       </c>
       <c r="C96" t="n">
-        <v>7.05</v>
+        <v>8.32</v>
       </c>
       <c r="D96" t="n">
-        <v>2.32</v>
+        <v>1.96</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>7</v>
+        <v>8.31</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-0.71</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BCG</t>
+          <t>TFL</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>13</v>
+        <v>13.78</v>
       </c>
       <c r="C97" t="n">
-        <v>13.3</v>
+        <v>14.05</v>
       </c>
       <c r="D97" t="n">
-        <v>2.31</v>
+        <v>1.96</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>13.03</v>
+        <v>14.49</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-2.03</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SAMBHAAV</t>
+          <t>RUCHIRA</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>10.83</v>
+        <v>124.33</v>
       </c>
       <c r="C98" t="n">
-        <v>11.08</v>
+        <v>126.75</v>
       </c>
       <c r="D98" t="n">
-        <v>2.31</v>
+        <v>1.95</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>11.07</v>
+        <v>124.57</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-0.09</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>GCSL</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>375.32</v>
+        <v>0.53</v>
       </c>
       <c r="C99" t="n">
-        <v>383.99</v>
+        <v>0.54</v>
       </c>
       <c r="D99" t="n">
-        <v>2.31</v>
+        <v>1.89</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>388.5</v>
+        <v>0.53</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>1.17</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>AGRITECH</t>
+          <t>MKPL</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>126.13</v>
+        <v>6.41</v>
       </c>
       <c r="C100" t="n">
-        <v>129</v>
+        <v>6.53</v>
       </c>
       <c r="D100" t="n">
-        <v>2.28</v>
+        <v>1.87</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>125</v>
+        <v>6.47</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-3.1</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SAGARDEEP</t>
+          <t>KSHITIJPOL</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>26.16</v>
+        <v>2.69</v>
       </c>
       <c r="C101" t="n">
-        <v>26.75</v>
+        <v>2.74</v>
       </c>
       <c r="D101" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>26.74</v>
+        <v>2.74</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FLEXITUFF</t>
+          <t>SONAMAC</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>13.05</v>
+        <v>56.35</v>
       </c>
       <c r="C102" t="n">
-        <v>13.34</v>
+        <v>57.4</v>
       </c>
       <c r="D102" t="n">
-        <v>2.22</v>
+        <v>1.86</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>12.39</v>
+        <v>57.45</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-7.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>LOVABLE</t>
+          <t>HMT</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>84.65000000000001</v>
+        <v>51.05</v>
       </c>
       <c r="C103" t="n">
-        <v>86.5</v>
+        <v>52</v>
       </c>
       <c r="D103" t="n">
-        <v>2.19</v>
+        <v>1.86</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>85.38</v>
+        <v>52</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>-1.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BEDMUTHA</t>
+          <t>RNBDENIMS</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>106.65</v>
+        <v>130.53</v>
       </c>
       <c r="C104" t="n">
-        <v>108.99</v>
+        <v>132.9</v>
       </c>
       <c r="D104" t="n">
-        <v>2.19</v>
+        <v>1.82</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>108.9</v>
+        <v>132.35</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-0.08</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>RAMASTEEL</t>
+          <t>TECILCHEM</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>10.07</v>
+        <v>19.64</v>
       </c>
       <c r="C105" t="n">
-        <v>10.29</v>
+        <v>19.99</v>
       </c>
       <c r="D105" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>10.14</v>
+        <v>19.99</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>INFOBEAN</t>
+          <t>COASTCORP</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>567.7</v>
+        <v>43.04</v>
       </c>
       <c r="C106" t="n">
-        <v>580</v>
+        <v>43.8</v>
       </c>
       <c r="D106" t="n">
-        <v>2.17</v>
+        <v>1.77</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>581.8</v>
+        <v>42.8</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>0.31</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>NAHARINDUS</t>
+          <t>BIKEWO</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>117.46</v>
+        <v>20.25</v>
       </c>
       <c r="C107" t="n">
-        <v>120</v>
+        <v>20.6</v>
       </c>
       <c r="D107" t="n">
-        <v>2.16</v>
+        <v>1.73</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>118.31</v>
+        <v>21.25</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-1.41</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>VGINFOTECH</t>
+          <t>RPOWER</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>176.05</v>
+        <v>39.32</v>
       </c>
       <c r="C108" t="n">
-        <v>179.85</v>
+        <v>39.99</v>
       </c>
       <c r="D108" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>179</v>
+        <v>39.12</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-0.47</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PNGJL</t>
+          <t>SVPGLOB</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>640</v>
+        <v>3.53</v>
       </c>
       <c r="C109" t="n">
-        <v>653.7</v>
+        <v>3.59</v>
       </c>
       <c r="D109" t="n">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>641.05</v>
+        <v>3.58</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-1.94</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>3PLAND</t>
+          <t>MWL</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>39.66</v>
+        <v>240.93</v>
       </c>
       <c r="C110" t="n">
-        <v>40.5</v>
+        <v>245</v>
       </c>
       <c r="D110" t="n">
-        <v>2.12</v>
+        <v>1.69</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>40.3</v>
+        <v>239.18</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-0.49</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>MITCON</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>194.87</v>
+        <v>73.76000000000001</v>
       </c>
       <c r="C111" t="n">
-        <v>199</v>
+        <v>75</v>
       </c>
       <c r="D111" t="n">
-        <v>2.12</v>
+        <v>1.68</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>190.14</v>
+        <v>74.12</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-4.45</v>
+        <v>-1.17</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>RAMANEWS</t>
+          <t>JITFINFRA</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>29.87</v>
+        <v>295.95</v>
       </c>
       <c r="C112" t="n">
-        <v>30.5</v>
+        <v>300.9</v>
       </c>
       <c r="D112" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>29.61</v>
+        <v>299.5</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-2.92</v>
+        <v>-0.47</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SELMC</t>
+          <t>UMAEXPORTS</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>29.84</v>
+        <v>41.29</v>
       </c>
       <c r="C113" t="n">
-        <v>30.47</v>
+        <v>41.98</v>
       </c>
       <c r="D113" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>29.4</v>
+        <v>40.98</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-3.51</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>PIONEEREMB</t>
+          <t>BTML</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>30.07</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>30.7</v>
+        <v>9.18</v>
       </c>
       <c r="D114" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>30.49</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-0.68</v>
+        <v>-2.4</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TBOTEK</t>
+          <t>COMSYN</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>1610.2</v>
+        <v>139.58</v>
       </c>
       <c r="C115" t="n">
-        <v>1644</v>
+        <v>141.9</v>
       </c>
       <c r="D115" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>1622.9</v>
+        <v>141.8</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-1.28</v>
+        <v>-0.07000000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>TREEHOUSE</t>
+          <t>NAHARSPING</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>8.08</v>
+        <v>202.43</v>
       </c>
       <c r="C116" t="n">
-        <v>8.25</v>
+        <v>205.8</v>
       </c>
       <c r="D116" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>7.91</v>
+        <v>204.34</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-4.12</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>PRICOLLTD</t>
+          <t>MEGASOFT</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>661.1</v>
+        <v>187.85</v>
       </c>
       <c r="C117" t="n">
-        <v>675</v>
+        <v>190.97</v>
       </c>
       <c r="D117" t="n">
-        <v>2.1</v>
+        <v>1.66</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>685.25</v>
+        <v>186</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>1.52</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>KEC</t>
+          <t>TAKE</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>710.35</v>
+        <v>29.71</v>
       </c>
       <c r="C118" t="n">
-        <v>725</v>
+        <v>30.2</v>
       </c>
       <c r="D118" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>702.85</v>
+        <v>30.3</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-3.06</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>PATINTLOG</t>
+          <t>FEDFINA</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>14.06</v>
+        <v>140.66</v>
       </c>
       <c r="C119" t="n">
-        <v>14.35</v>
+        <v>142.96</v>
       </c>
       <c r="D119" t="n">
-        <v>2.06</v>
+        <v>1.64</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>14.81</v>
+        <v>142.36</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>3.21</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ZENITHSTL</t>
+          <t>TCIFINANCE</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>7.8</v>
+        <v>11.27</v>
       </c>
       <c r="C120" t="n">
-        <v>7.96</v>
+        <v>11.45</v>
       </c>
       <c r="D120" t="n">
-        <v>2.05</v>
+        <v>1.6</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>7.95</v>
+        <v>11.1</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-0.13</v>
+        <v>-3.06</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBSL</t>
+          <t>BSL</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>81.34</v>
+        <v>187.21</v>
       </c>
       <c r="C121" t="n">
-        <v>83</v>
+        <v>190.2</v>
       </c>
       <c r="D121" t="n">
-        <v>2.04</v>
+        <v>1.6</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>82</v>
+        <v>187.7</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-1.2</v>
+        <v>-1.31</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>GSTL</t>
+          <t>AMJLAND</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>7.35</v>
+        <v>53.93</v>
       </c>
       <c r="C122" t="n">
-        <v>7.5</v>
+        <v>54.79</v>
       </c>
       <c r="D122" t="n">
-        <v>2.04</v>
+        <v>1.59</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>7</v>
+        <v>54.47</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-6.67</v>
+        <v>-0.58</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>OMAXAUTO</t>
+          <t>RADAAN</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>94.09</v>
+        <v>3.15</v>
       </c>
       <c r="C123" t="n">
-        <v>96</v>
+        <v>3.2</v>
       </c>
       <c r="D123" t="n">
-        <v>2.03</v>
+        <v>1.59</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>98.45</v>
+        <v>3.18</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>2.55</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>EXCEL</t>
+          <t>IMPEXFERRO</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.48</v>
+        <v>1.91</v>
       </c>
       <c r="C124" t="n">
-        <v>1.51</v>
+        <v>1.94</v>
       </c>
       <c r="D124" t="n">
-        <v>2.03</v>
+        <v>1.57</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="n">
-        <v>0.66</v>
-      </c>
+      <c r="H124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>WOL3D</t>
+          <t>SIKKO</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>178.4</v>
+        <v>112</v>
       </c>
       <c r="C125" t="n">
-        <v>182</v>
+        <v>113.76</v>
       </c>
       <c r="D125" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>207</v>
+        <v>110.02</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>13.74</v>
+        <v>-3.29</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>CUBEXTUB</t>
+          <t>AAKASH</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>83.40000000000001</v>
+        <v>8.91</v>
       </c>
       <c r="C126" t="n">
-        <v>85.06999999999999</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="D126" t="n">
-        <v>2</v>
+        <v>1.57</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>84.61</v>
+        <v>8.9</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-0.54</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SEMAC</t>
+          <t>URJA</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>330</v>
+        <v>12.26</v>
       </c>
       <c r="C127" t="n">
-        <v>336.6</v>
+        <v>12.45</v>
       </c>
       <c r="D127" t="n">
-        <v>2</v>
+        <v>1.55</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>343.9</v>
+        <v>13.11</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>2.17</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>ACCENTMIC</t>
+          <t>MANCREDIT</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>327</v>
+        <v>173.58</v>
       </c>
       <c r="C128" t="n">
-        <v>333.55</v>
+        <v>176.25</v>
       </c>
       <c r="D128" t="n">
-        <v>2</v>
+        <v>1.54</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>337.3</v>
+        <v>173.95</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>1.12</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SONAMLTD</t>
+          <t>PRAXIS</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>40.18</v>
+        <v>10.53</v>
       </c>
       <c r="C129" t="n">
-        <v>40.98</v>
+        <v>10.69</v>
       </c>
       <c r="D129" t="n">
-        <v>1.99</v>
+        <v>1.52</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>40.65</v>
+        <v>10.67</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>OILCOUNTUB</t>
+          <t>BIGBLOC</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>62.54</v>
+        <v>51.13</v>
       </c>
       <c r="C130" t="n">
-        <v>63.78</v>
+        <v>51.9</v>
       </c>
       <c r="D130" t="n">
-        <v>1.98</v>
+        <v>1.51</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>62.63</v>
+        <v>51.49</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-1.8</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ORIENTCER</t>
+          <t>NRAIL</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>43.34</v>
+        <v>500.05</v>
       </c>
       <c r="C131" t="n">
-        <v>44.2</v>
+        <v>507.55</v>
       </c>
       <c r="D131" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>43.63</v>
+        <v>497.05</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-1.29</v>
+        <v>-2.07</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>NIBL</t>
+          <t>YASHO</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>30.31</v>
+        <v>1644.4</v>
       </c>
       <c r="C132" t="n">
-        <v>30.91</v>
+        <v>1669.1</v>
       </c>
       <c r="D132" t="n">
-        <v>1.98</v>
+        <v>1.5</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>30.78</v>
+        <v>1659.9</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-0.42</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>GUJAPOLLO</t>
+          <t>ELECTHERM</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>471.35</v>
+        <v>886.5</v>
       </c>
       <c r="C133" t="n">
-        <v>480.6</v>
+        <v>899.8</v>
       </c>
       <c r="D133" t="n">
-        <v>1.96</v>
+        <v>1.5</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>468.15</v>
+        <v>884.75</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-2.59</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SACHEEROME</t>
+          <t>VERTOZ</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>324.65</v>
+        <v>71.23</v>
       </c>
       <c r="C134" t="n">
-        <v>331</v>
+        <v>72.3</v>
       </c>
       <c r="D134" t="n">
-        <v>1.96</v>
+        <v>1.5</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>338</v>
+        <v>70.76000000000001</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>2.11</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ESAFSFB</t>
+          <t>ASTEC</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>27.22</v>
+        <v>734.05</v>
       </c>
       <c r="C135" t="n">
-        <v>27.75</v>
+        <v>745</v>
       </c>
       <c r="D135" t="n">
-        <v>1.95</v>
+        <v>1.49</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>27.13</v>
+        <v>778.65</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>-2.23</v>
+        <v>4.52</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AVONMORE</t>
+          <t>JPOLYINVST</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>18.53</v>
+        <v>954.75</v>
       </c>
       <c r="C136" t="n">
-        <v>18.89</v>
+        <v>969</v>
       </c>
       <c r="D136" t="n">
-        <v>1.94</v>
+        <v>1.49</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>18.73</v>
+        <v>966.9</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-0.85</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>RADAAN</t>
+          <t>NIPPOBATRY</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>3.09</v>
+        <v>416.25</v>
       </c>
       <c r="C137" t="n">
-        <v>3.15</v>
+        <v>422.4</v>
       </c>
       <c r="D137" t="n">
-        <v>1.94</v>
+        <v>1.48</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>3.15</v>
+        <v>422.2</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>-0.05</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HINDCON</t>
+          <t>TPLPLASTEH</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>30.42</v>
+        <v>69.97</v>
       </c>
       <c r="C138" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="D138" t="n">
-        <v>1.91</v>
+        <v>1.47</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>30.98</v>
+        <v>71.56999999999999</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-0.06</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>LORDSCHLO</t>
+          <t>SELMC</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>181.55</v>
+        <v>30.52</v>
       </c>
       <c r="C139" t="n">
-        <v>184.99</v>
+        <v>30.97</v>
       </c>
       <c r="D139" t="n">
-        <v>1.89</v>
+        <v>1.47</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>180.51</v>
+        <v>30.89</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-2.42</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>TICL</t>
+          <t>DENORA</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>30.92</v>
+        <v>705.2</v>
       </c>
       <c r="C140" t="n">
-        <v>31.5</v>
+        <v>715.55</v>
       </c>
       <c r="D140" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>31</v>
+        <v>702.05</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-1.59</v>
+        <v>-1.89</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>ANUHPHR</t>
+          <t>BASILIC</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>80.23999999999999</v>
+        <v>340</v>
       </c>
       <c r="C141" t="n">
-        <v>81.75</v>
+        <v>345</v>
       </c>
       <c r="D141" t="n">
-        <v>1.88</v>
+        <v>1.47</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>80.38</v>
+        <v>330.45</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-1.68</v>
+        <v>-4.22</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>STEL</t>
+          <t>SOMICONVEY</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>485.9</v>
+        <v>139.66</v>
       </c>
       <c r="C142" t="n">
-        <v>495</v>
+        <v>141.7</v>
       </c>
       <c r="D142" t="n">
-        <v>1.87</v>
+        <v>1.46</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>485.25</v>
+        <v>140.99</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-1.97</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>VIKASECO</t>
+          <t>ORCHASP</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1.6</v>
+        <v>2.76</v>
       </c>
       <c r="C143" t="n">
-        <v>1.63</v>
+        <v>2.8</v>
       </c>
       <c r="D143" t="n">
-        <v>1.87</v>
+        <v>1.45</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1.63</v>
+        <v>2.7</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>-3.57</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEX</t>
+          <t>HTMEDIA</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>1826.7</v>
+        <v>25.53</v>
       </c>
       <c r="C144" t="n">
-        <v>1860.7</v>
+        <v>25.9</v>
       </c>
       <c r="D144" t="n">
-        <v>1.86</v>
+        <v>1.45</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>1876.7</v>
+        <v>25.47</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>0.86</v>
+        <v>-1.66</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SANATHAN</t>
+          <t>SUNLITE</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>490.85</v>
+        <v>265.15</v>
       </c>
       <c r="C145" t="n">
-        <v>500</v>
+        <v>269</v>
       </c>
       <c r="D145" t="n">
-        <v>1.86</v>
+        <v>1.45</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>498.05</v>
+        <v>268</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-0.39</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOMICONVEY</t>
+          <t>BAJEL</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>139.4</v>
+        <v>181.36</v>
       </c>
       <c r="C146" t="n">
-        <v>141.99</v>
+        <v>183.98</v>
       </c>
       <c r="D146" t="n">
-        <v>1.86</v>
+        <v>1.44</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>143</v>
+        <v>180.85</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>0.71</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NURECA</t>
+          <t>TRANSWORLD</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>263.9</v>
+        <v>218.85</v>
       </c>
       <c r="C147" t="n">
-        <v>268.75</v>
+        <v>222</v>
       </c>
       <c r="D147" t="n">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>265</v>
+        <v>220.01</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-1.4</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>JKIPL</t>
+          <t>AWL</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>122.67</v>
+        <v>276.75</v>
       </c>
       <c r="C148" t="n">
-        <v>124.9</v>
+        <v>280.7</v>
       </c>
       <c r="D148" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>120.93</v>
+        <v>271.85</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-3.18</v>
+        <v>-3.15</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>BALKRISHNA</t>
+          <t>JISLDVREQS</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>21.98</v>
+        <v>29.47</v>
       </c>
       <c r="C149" t="n">
-        <v>22.38</v>
+        <v>29.89</v>
       </c>
       <c r="D149" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>21.55</v>
+        <v>29.18</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-3.71</v>
+        <v>-2.38</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>AKSHAR</t>
+          <t>SURANASOL</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>0.55</v>
+        <v>30.23</v>
       </c>
       <c r="C150" t="n">
-        <v>0.5600000000000001</v>
+        <v>30.66</v>
       </c>
       <c r="D150" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.5600000000000001</v>
+        <v>30.37</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MANAKSTEEL</t>
+          <t>STLTECH</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>64.53</v>
+        <v>112.23</v>
       </c>
       <c r="C151" t="n">
-        <v>65.7</v>
+        <v>113.79</v>
       </c>
       <c r="D151" t="n">
-        <v>1.81</v>
+        <v>1.39</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>64.04000000000001</v>
+        <v>111.36</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-2.53</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ROSSELLIND</t>
+          <t>HEUBACHIND</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>59.67</v>
+        <v>477.35</v>
       </c>
       <c r="C152" t="n">
-        <v>60.74</v>
+        <v>484</v>
       </c>
       <c r="D152" t="n">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>59.21</v>
+        <v>477.9</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-2.52</v>
+        <v>-1.26</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SAKSOFT</t>
+          <t>RELTD</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>214.39</v>
+        <v>164.69</v>
       </c>
       <c r="C153" t="n">
-        <v>218.2</v>
+        <v>166.96</v>
       </c>
       <c r="D153" t="n">
-        <v>1.78</v>
+        <v>1.38</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>215.98</v>
+        <v>165.5</v>
       </c>
       <c r="G153" t="inlineStr"/>
       <c r="H153" t="n">
-        <v>-1.02</v>
+        <v>-0.87</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>VHL</t>
+          <t>EXCEL</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>3777.9</v>
+        <v>1.5</v>
       </c>
       <c r="C154" t="n">
-        <v>3845</v>
+        <v>1.52</v>
       </c>
       <c r="D154" t="n">
-        <v>1.78</v>
+        <v>1.33</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>3752.1</v>
+        <v>1.51</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-2.42</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>TPHQ</t>
+          <t>S&amp;SPOWER</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>0.57</v>
+        <v>273.25</v>
       </c>
       <c r="C155" t="n">
-        <v>0.58</v>
+        <v>276.85</v>
       </c>
       <c r="D155" t="n">
-        <v>1.75</v>
+        <v>1.32</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
-      <c r="F155" t="n">
-        <v>0.58</v>
-      </c>
+      <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
+      <c r="H155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BTML</t>
+          <t>GVKPIL</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>8.609999999999999</v>
+        <v>3.02</v>
       </c>
       <c r="C156" t="n">
-        <v>8.76</v>
+        <v>3.06</v>
       </c>
       <c r="D156" t="n">
-        <v>1.74</v>
+        <v>1.32</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>8.539999999999999</v>
+        <v>3.08</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-2.51</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>GENCON</t>
+          <t>ANUHPHR</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>43.25</v>
+        <v>80.25</v>
       </c>
       <c r="C157" t="n">
-        <v>44</v>
+        <v>81.3</v>
       </c>
       <c r="D157" t="n">
-        <v>1.73</v>
+        <v>1.31</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>43.46</v>
+        <v>80.01000000000001</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-1.23</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BALAXI</t>
+          <t>SOLEX</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>35.98</v>
+        <v>1918</v>
       </c>
       <c r="C158" t="n">
-        <v>36.6</v>
+        <v>1943</v>
       </c>
       <c r="D158" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>36.48</v>
+        <v>1972</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>-0.33</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SURANASOL</t>
+          <t>SANATHAN</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>30.16</v>
+        <v>499.5</v>
       </c>
       <c r="C159" t="n">
-        <v>30.68</v>
+        <v>506</v>
       </c>
       <c r="D159" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>30.59</v>
+        <v>494.6</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-0.29</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DELPHIFX</t>
+          <t>VIVIDHA</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>203.48</v>
+        <v>0.77</v>
       </c>
       <c r="C160" t="n">
-        <v>206.95</v>
+        <v>0.78</v>
       </c>
       <c r="D160" t="n">
-        <v>1.71</v>
+        <v>1.3</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>205.21</v>
+        <v>0.77</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-0.84</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ROLLT</t>
+          <t>DANGEE</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>1.17</v>
+        <v>3.89</v>
       </c>
       <c r="C161" t="n">
-        <v>1.19</v>
+        <v>3.94</v>
       </c>
       <c r="D161" t="n">
-        <v>1.71</v>
+        <v>1.29</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>1.2</v>
+        <v>3.88</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>0.84</v>
+        <v>-1.52</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>RPPL</t>
+          <t>AKSHOPTFBR</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>18.16</v>
+        <v>7.01</v>
       </c>
       <c r="C162" t="n">
-        <v>18.47</v>
+        <v>7.1</v>
       </c>
       <c r="D162" t="n">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>18.28</v>
+        <v>6.99</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-1.03</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TENNIND</t>
+          <t>MANGLMCEM</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>490.8</v>
+        <v>713.75</v>
       </c>
       <c r="C163" t="n">
-        <v>499</v>
+        <v>722.8</v>
       </c>
       <c r="D163" t="n">
-        <v>1.67</v>
+        <v>1.27</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>505.8</v>
+        <v>715.75</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>1.36</v>
+        <v>-0.98</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SHRADHA</t>
+          <t>THOMASCOTT</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>43.75</v>
+        <v>395.65</v>
       </c>
       <c r="C164" t="n">
-        <v>44.48</v>
+        <v>400.65</v>
       </c>
       <c r="D164" t="n">
-        <v>1.67</v>
+        <v>1.26</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>44.7</v>
+        <v>389.05</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>0.49</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MONTECARLO</t>
+          <t>ALANKIT</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>814.4</v>
+        <v>11.23</v>
       </c>
       <c r="C165" t="n">
-        <v>827.95</v>
+        <v>11.37</v>
       </c>
       <c r="D165" t="n">
-        <v>1.66</v>
+        <v>1.25</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>842.85</v>
+        <v>11.15</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>1.8</v>
+        <v>-1.93</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>V2RETAIL</t>
+          <t>AJOONI</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>2318.9</v>
+        <v>4.83</v>
       </c>
       <c r="C166" t="n">
-        <v>2357.4</v>
+        <v>4.89</v>
       </c>
       <c r="D166" t="n">
-        <v>1.66</v>
+        <v>1.24</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>2364.6</v>
+        <v>4.77</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>0.31</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>EMKAY</t>
+          <t>DBSTOCKBRO</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>300.05</v>
+        <v>25.16</v>
       </c>
       <c r="C167" t="n">
-        <v>305</v>
+        <v>25.47</v>
       </c>
       <c r="D167" t="n">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>298</v>
+        <v>25.34</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-2.3</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>ORIENTALTL</t>
+          <t>PREMIER</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>9.119999999999999</v>
+        <v>3.28</v>
       </c>
       <c r="C168" t="n">
-        <v>9.27</v>
+        <v>3.32</v>
       </c>
       <c r="D168" t="n">
-        <v>1.64</v>
+        <v>1.22</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>9.09</v>
+        <v>3.12</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-1.94</v>
+        <v>-6.02</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ZENSARTECH</t>
+          <t>SAKUMA</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>709.5</v>
+        <v>2.45</v>
       </c>
       <c r="C169" t="n">
-        <v>721</v>
+        <v>2.48</v>
       </c>
       <c r="D169" t="n">
-        <v>1.62</v>
+        <v>1.22</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>711</v>
+        <v>2.46</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-1.39</v>
+        <v>-0.8100000000000001</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>VALIANTORG</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>54.03</v>
+        <v>270.7</v>
       </c>
       <c r="C170" t="n">
-        <v>54.9</v>
+        <v>274</v>
       </c>
       <c r="D170" t="n">
-        <v>1.61</v>
+        <v>1.22</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>54.21</v>
+        <v>273.1</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-1.26</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BANSALWIRE</t>
+          <t>AARON</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>322.6</v>
+        <v>193.44</v>
       </c>
       <c r="C171" t="n">
-        <v>327.75</v>
+        <v>195.8</v>
       </c>
       <c r="D171" t="n">
-        <v>1.6</v>
+        <v>1.22</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>319.5</v>
+        <v>189.13</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-2.52</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ODIGMA</t>
+          <t>LIBAS</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>34.94</v>
+        <v>11.66</v>
       </c>
       <c r="C172" t="n">
-        <v>35.5</v>
+        <v>11.8</v>
       </c>
       <c r="D172" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>34.7</v>
+        <v>11.62</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-2.25</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>MIDWESTLTD</t>
+          <t>SKYGOLD</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>1209.7</v>
+        <v>350.75</v>
       </c>
       <c r="C173" t="n">
-        <v>1229</v>
+        <v>354.95</v>
       </c>
       <c r="D173" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>1209.1</v>
+        <v>357.4</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-1.62</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>UNICHEMLAB</t>
+          <t>KILITCH</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>482.2</v>
+        <v>362.55</v>
       </c>
       <c r="C174" t="n">
-        <v>489.9</v>
+        <v>366.9</v>
       </c>
       <c r="D174" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>482.55</v>
+        <v>363.65</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-1.5</v>
+        <v>-0.89</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>AMDIND</t>
+          <t>DELPHIFX</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>56.01</v>
+        <v>212.47</v>
       </c>
       <c r="C175" t="n">
-        <v>56.9</v>
+        <v>215</v>
       </c>
       <c r="D175" t="n">
-        <v>1.59</v>
+        <v>1.19</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>55.71</v>
+        <v>215.52</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-2.09</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>SREEL</t>
+          <t>GTL</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>232.72</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="C176" t="n">
-        <v>236.4</v>
+        <v>8.57</v>
       </c>
       <c r="D176" t="n">
-        <v>1.58</v>
+        <v>1.18</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>234</v>
+        <v>8.49</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-1.02</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>RANASUG</t>
+          <t>ZEELEARN</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>13.48</v>
+        <v>7.71</v>
       </c>
       <c r="C177" t="n">
-        <v>13.69</v>
+        <v>7.8</v>
       </c>
       <c r="D177" t="n">
-        <v>1.56</v>
+        <v>1.17</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>13.6</v>
+        <v>7.73</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-0.66</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>HLVLTD</t>
+          <t>SBGLP</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>9.69</v>
+        <v>34.31</v>
       </c>
       <c r="C178" t="n">
-        <v>9.84</v>
+        <v>34.7</v>
       </c>
       <c r="D178" t="n">
-        <v>1.55</v>
+        <v>1.14</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>9.75</v>
+        <v>34</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-0.91</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MKPL</t>
+          <t>MAHAPEXLTD</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>6.48</v>
+        <v>93.25</v>
       </c>
       <c r="C179" t="n">
-        <v>6.58</v>
+        <v>94.3</v>
       </c>
       <c r="D179" t="n">
-        <v>1.54</v>
+        <v>1.13</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>6.47</v>
+        <v>94.27</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-1.67</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BAJAJHIND</t>
+          <t>WALCHANNAG</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>20.98</v>
+        <v>155.14</v>
       </c>
       <c r="C180" t="n">
-        <v>21.3</v>
+        <v>156.9</v>
       </c>
       <c r="D180" t="n">
-        <v>1.53</v>
+        <v>1.13</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>21.13</v>
+        <v>155</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-0.8</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>DJML</t>
+          <t>BIRLAMONEY</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>75.16</v>
+        <v>158.13</v>
       </c>
       <c r="C181" t="n">
-        <v>76.3</v>
+        <v>159.9</v>
       </c>
       <c r="D181" t="n">
-        <v>1.52</v>
+        <v>1.12</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>76.8</v>
+        <v>157.26</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>0.66</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SUBROS</t>
+          <t>SPECIALITY</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>876.2</v>
+        <v>133.02</v>
       </c>
       <c r="C182" t="n">
-        <v>889.5</v>
+        <v>134.5</v>
       </c>
       <c r="D182" t="n">
-        <v>1.52</v>
+        <v>1.11</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>877.4</v>
+        <v>132.23</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-1.36</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>ASIANHOTNR</t>
+          <t>VLSFINANCE</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>329.95</v>
+        <v>263.09</v>
       </c>
       <c r="C183" t="n">
-        <v>334.95</v>
+        <v>266</v>
       </c>
       <c r="D183" t="n">
-        <v>1.52</v>
+        <v>1.11</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>326.05</v>
+        <v>263</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-2.66</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>PDMJEPAPER</t>
+          <t>SERVOTECH</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>102.55</v>
+        <v>97.52</v>
       </c>
       <c r="C184" t="n">
-        <v>104.1</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="D184" t="n">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>104.44</v>
+        <v>96.2</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>0.33</v>
+        <v>-2.43</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>TTKHLTCARE</t>
+          <t>DIVINEHIRA</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>1129.5</v>
+        <v>178.05</v>
       </c>
       <c r="C185" t="n">
-        <v>1146.5</v>
+        <v>180</v>
       </c>
       <c r="D185" t="n">
-        <v>1.51</v>
+        <v>1.1</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>1130.6</v>
+        <v>184</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-1.39</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>SBCL</t>
+          <t>HDIL</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>457.25</v>
+        <v>2.74</v>
       </c>
       <c r="C186" t="n">
-        <v>464.1</v>
+        <v>2.77</v>
       </c>
       <c r="D186" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>461.25</v>
+        <v>2.74</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-0.61</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>QUESS</t>
+          <t>VISHWARAJ</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>223</v>
+        <v>7.32</v>
       </c>
       <c r="C187" t="n">
-        <v>226.35</v>
+        <v>7.4</v>
       </c>
       <c r="D187" t="n">
-        <v>1.5</v>
+        <v>1.09</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>221.91</v>
+        <v>7.29</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-1.96</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>RHL</t>
+          <t>SUNFLAG</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>214.48</v>
+        <v>244.5</v>
       </c>
       <c r="C188" t="n">
-        <v>217.7</v>
+        <v>247.15</v>
       </c>
       <c r="D188" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>217.7</v>
+        <v>250.2</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>IFBAGRO</t>
+          <t>SHREEJISPG</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>1414.8</v>
+        <v>300.75</v>
       </c>
       <c r="C189" t="n">
-        <v>1436</v>
+        <v>304</v>
       </c>
       <c r="D189" t="n">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>1422.9</v>
+        <v>299.25</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-0.91</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>HESTERBIO</t>
+          <t>RTNPOWER</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>1670.9</v>
+        <v>10.25</v>
       </c>
       <c r="C190" t="n">
-        <v>1696</v>
+        <v>10.36</v>
       </c>
       <c r="D190" t="n">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>1670.6</v>
+        <v>10.09</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-1.5</v>
+        <v>-2.61</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>PASHUPATI</t>
+          <t>STEELCITY</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>813.8</v>
+        <v>95.65000000000001</v>
       </c>
       <c r="C191" t="n">
-        <v>826</v>
+        <v>96.67</v>
       </c>
       <c r="D191" t="n">
-        <v>1.5</v>
+        <v>1.07</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>815</v>
+        <v>95.98</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-1.33</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>SMARTWORKS</t>
+          <t>HYBRIDFIN</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>566.75</v>
+        <v>21.76</v>
       </c>
       <c r="C192" t="n">
-        <v>575.25</v>
+        <v>21.99</v>
       </c>
       <c r="D192" t="n">
-        <v>1.5</v>
+        <v>1.06</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>566.9</v>
+        <v>20.88</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-1.45</v>
+        <v>-5.05</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>SASTASUNDR</t>
+          <t>PYRAMID</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>319.25</v>
+        <v>164.26</v>
       </c>
       <c r="C193" t="n">
-        <v>324</v>
+        <v>166</v>
       </c>
       <c r="D193" t="n">
-        <v>1.49</v>
+        <v>1.06</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>314.65</v>
+        <v>164.93</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-2.89</v>
+        <v>-0.64</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SRPL</t>
+          <t>VARDMNPOLY</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>0.67</v>
+        <v>6.67</v>
       </c>
       <c r="C194" t="n">
-        <v>0.68</v>
+        <v>6.74</v>
       </c>
       <c r="D194" t="n">
-        <v>1.49</v>
+        <v>1.05</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>0.68</v>
+        <v>6.75</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>NUVOCO</t>
+          <t>RAMCOIND</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>364.55</v>
+        <v>324.6</v>
       </c>
       <c r="C195" t="n">
-        <v>370</v>
+        <v>328</v>
       </c>
       <c r="D195" t="n">
-        <v>1.49</v>
+        <v>1.05</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>362.2</v>
+        <v>326.4</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-2.11</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AMANTA</t>
+          <t>ABINFRA</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>117.06</v>
+        <v>20.21</v>
       </c>
       <c r="C196" t="n">
-        <v>118.8</v>
+        <v>20.42</v>
       </c>
       <c r="D196" t="n">
-        <v>1.49</v>
+        <v>1.04</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>118.39</v>
+        <v>19.91</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-0.35</v>
+        <v>-2.5</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>VETO</t>
+          <t>SHANKARA</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>115.26</v>
+        <v>120.66</v>
       </c>
       <c r="C197" t="n">
-        <v>116.98</v>
+        <v>121.9</v>
       </c>
       <c r="D197" t="n">
-        <v>1.49</v>
+        <v>1.03</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>116.2</v>
+        <v>118.86</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-0.67</v>
+        <v>-2.49</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>TAKE</t>
+          <t>PILITA</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>29.51</v>
+        <v>11.61</v>
       </c>
       <c r="C198" t="n">
-        <v>29.95</v>
+        <v>11.73</v>
       </c>
       <c r="D198" t="n">
-        <v>1.49</v>
+        <v>1.03</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>29.88</v>
+        <v>11.76</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>-0.23</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>NECCLTD</t>
+          <t>TVTODAY</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>20.99</v>
+        <v>138.55</v>
       </c>
       <c r="C199" t="n">
-        <v>21.3</v>
+        <v>139.98</v>
       </c>
       <c r="D199" t="n">
-        <v>1.48</v>
+        <v>1.03</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>21.02</v>
+        <v>140.95</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>-1.31</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>KROSS</t>
+          <t>DEVIT</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>164.48</v>
+        <v>42.71</v>
       </c>
       <c r="C200" t="n">
-        <v>166.9</v>
+        <v>43.15</v>
       </c>
       <c r="D200" t="n">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>167.45</v>
+        <v>42.02</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>0.33</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>VIPCLOTHNG</t>
+          <t>PENINLAND</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>33.66</v>
+        <v>30.28</v>
       </c>
       <c r="C201" t="n">
-        <v>34.15</v>
+        <v>30.59</v>
       </c>
       <c r="D201" t="n">
-        <v>1.46</v>
+        <v>1.02</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>33.79</v>
+        <v>30.22</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-1.05</v>
+        <v>-1.21</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,257 +478,257 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UNIHEALTH</t>
+          <t>VLSFINANCE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>292.2</v>
+        <v>263.78</v>
       </c>
       <c r="C2" t="n">
-        <v>321.4</v>
+        <v>305</v>
       </c>
       <c r="D2" t="n">
-        <v>9.99</v>
+        <v>15.63</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>-1.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>KESORAMIND</t>
+          <t>VIJIFIN</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.15</v>
+        <v>2.95</v>
       </c>
       <c r="C3" t="n">
-        <v>5.49</v>
+        <v>3.19</v>
       </c>
       <c r="D3" t="n">
-        <v>6.6</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>5.66</v>
+        <v>3.14</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>3.1</v>
+        <v>-1.57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>KALYANIFRG</t>
+          <t>GTECJAINX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>671.4</v>
+        <v>24.33</v>
       </c>
       <c r="C4" t="n">
-        <v>709.95</v>
+        <v>26.2</v>
       </c>
       <c r="D4" t="n">
-        <v>5.74</v>
+        <v>7.69</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>699</v>
+        <v>23.46</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-1.54</v>
+        <v>-10.46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>DNAMEDIA</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1192.15</v>
+        <v>3.98</v>
       </c>
       <c r="C5" t="n">
-        <v>1251.75</v>
+        <v>4.25</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>6.78</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1251.75</v>
+        <v>4.15</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NDLVENTURE</t>
+          <t>TTL</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85.59</v>
+        <v>9.34</v>
       </c>
       <c r="C6" t="n">
-        <v>89.86</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>4.99</v>
+        <v>6.64</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>89.86</v>
+        <v>9.49</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-4.72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SACHEEROME</t>
+          <t>SUPERHOUSE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>340.85</v>
+        <v>158.89</v>
       </c>
       <c r="C7" t="n">
-        <v>357.85</v>
+        <v>167.84</v>
       </c>
       <c r="D7" t="n">
-        <v>4.99</v>
+        <v>5.63</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>357.85</v>
+        <v>162</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>-3.48</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>GUJRAFFIA</t>
+          <t>RKEC</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.46</v>
+        <v>52.15</v>
       </c>
       <c r="C8" t="n">
-        <v>49.83</v>
+        <v>55</v>
       </c>
       <c r="D8" t="n">
-        <v>4.99</v>
+        <v>5.47</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>49.83</v>
+        <v>58.65</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>K2INFRA</t>
+          <t>KOTARISUG</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>71.09999999999999</v>
+        <v>28.85</v>
       </c>
       <c r="C9" t="n">
-        <v>74.65000000000001</v>
+        <v>30.3</v>
       </c>
       <c r="D9" t="n">
-        <v>4.99</v>
+        <v>5.03</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>74.65000000000001</v>
+        <v>28.69</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-5.31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SEJALLTD</t>
+          <t>GUJRAFFIA</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>928.95</v>
+        <v>49.83</v>
       </c>
       <c r="C10" t="n">
-        <v>975.35</v>
+        <v>52.32</v>
       </c>
       <c r="D10" t="n">
-        <v>4.99</v>
+        <v>5</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>936.1</v>
+        <v>52.32</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>-4.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AMCL</t>
+          <t>NDLVENTURE</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>282.65</v>
+        <v>89.86</v>
       </c>
       <c r="C11" t="n">
-        <v>296.7</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>4.97</v>
+        <v>5</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>296.7</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
@@ -738,23 +738,23 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SUPREMEENG</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.01</v>
+        <v>1251.75</v>
       </c>
       <c r="C12" t="n">
-        <v>1.06</v>
+        <v>1314.3</v>
       </c>
       <c r="D12" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1.06</v>
+        <v>1314.3</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
@@ -764,49 +764,49 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>JEYYAM</t>
+          <t>SWANDEF</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>69.7</v>
+        <v>1036.05</v>
       </c>
       <c r="C13" t="n">
-        <v>73.15000000000001</v>
+        <v>1087.85</v>
       </c>
       <c r="D13" t="n">
-        <v>4.95</v>
+        <v>5</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>72.65000000000001</v>
+        <v>1087.85</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>-0.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NIRMAN</t>
+          <t>SICALLOG</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>59.7</v>
+        <v>88.63</v>
       </c>
       <c r="C14" t="n">
-        <v>62.65</v>
+        <v>93.06</v>
       </c>
       <c r="D14" t="n">
-        <v>4.94</v>
+        <v>5</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>62.65</v>
+        <v>93.06</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
@@ -816,75 +816,75 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IWARE</t>
+          <t>EASTSILK</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>213.05</v>
+        <v>77.20999999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>223.55</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>4.93</v>
+        <v>5</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>220</v>
+        <v>81.06999999999999</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>-1.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SUPREMEINF</t>
+          <t>FISCHER</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.41</v>
+        <v>40.97</v>
       </c>
       <c r="C16" t="n">
-        <v>87.5</v>
+        <v>43.01</v>
       </c>
       <c r="D16" t="n">
-        <v>4.9</v>
+        <v>4.98</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>87.45</v>
+        <v>43.01</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SHUBHLAXMI</t>
+          <t>FLEXITUFF</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.55</v>
+        <v>13.09</v>
       </c>
       <c r="C17" t="n">
-        <v>21.55</v>
+        <v>13.74</v>
       </c>
       <c r="D17" t="n">
-        <v>4.87</v>
+        <v>4.97</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>21.55</v>
+        <v>13.74</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -894,4779 +894,4781 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>DYNAMIC</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>121.8</v>
+        <v>113.95</v>
       </c>
       <c r="C18" t="n">
-        <v>127.39</v>
+        <v>119.6</v>
       </c>
       <c r="D18" t="n">
-        <v>4.59</v>
+        <v>4.96</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>123.49</v>
+        <v>119.6</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>-3.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TVVISION</t>
+          <t>PKTEA</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.93</v>
+        <v>774.75</v>
       </c>
       <c r="C19" t="n">
-        <v>6.19</v>
+        <v>813</v>
       </c>
       <c r="D19" t="n">
-        <v>4.38</v>
+        <v>4.94</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>6.19</v>
+        <v>790</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-2.83</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>INCREDIBLE</t>
+          <t>CMICABLES</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>41.87</v>
+        <v>4.29</v>
       </c>
       <c r="C20" t="n">
-        <v>43.7</v>
+        <v>4.5</v>
       </c>
       <c r="D20" t="n">
-        <v>4.37</v>
+        <v>4.9</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>43.69</v>
+        <v>4.5</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ROLLT</t>
+          <t>SHYAMMETL</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.15</v>
+        <v>826.2</v>
       </c>
       <c r="C21" t="n">
-        <v>1.2</v>
+        <v>866.7</v>
       </c>
       <c r="D21" t="n">
-        <v>4.35</v>
+        <v>4.9</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>1.18</v>
+        <v>850.7</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-1.67</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>SUPREMEINF</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.39</v>
+        <v>87.56</v>
       </c>
       <c r="C22" t="n">
-        <v>1.45</v>
+        <v>91.84999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>4.32</v>
+        <v>4.9</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.45</v>
+        <v>91.89</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>MDL</t>
+          <t>TECHD</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>94</v>
+        <v>728.35</v>
       </c>
       <c r="C23" t="n">
-        <v>97.84999999999999</v>
+        <v>764</v>
       </c>
       <c r="D23" t="n">
-        <v>4.1</v>
+        <v>4.89</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>97.84999999999999</v>
+        <v>757</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>SHUBHLAXMI</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60.5</v>
+        <v>21.55</v>
       </c>
       <c r="C24" t="n">
-        <v>62.95</v>
+        <v>22.6</v>
       </c>
       <c r="D24" t="n">
-        <v>4.05</v>
+        <v>4.87</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>63.5</v>
+        <v>22.6</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>VLEGOV</t>
+          <t>REXPRO</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>25.86</v>
+        <v>62</v>
       </c>
       <c r="C25" t="n">
-        <v>26.9</v>
+        <v>65</v>
       </c>
       <c r="D25" t="n">
-        <v>4.02</v>
+        <v>4.84</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>26.33</v>
+        <v>65</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
-        <v>-2.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>28.26</v>
+        <v>1.45</v>
       </c>
       <c r="C26" t="n">
-        <v>29.37</v>
+        <v>1.52</v>
       </c>
       <c r="D26" t="n">
-        <v>3.93</v>
+        <v>4.83</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>31.08</v>
+        <v>1.43</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>5.82</v>
+        <v>-5.92</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>C2C</t>
+          <t>TRU</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>653.5</v>
+        <v>8.4</v>
       </c>
       <c r="C27" t="n">
-        <v>679</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>3.9</v>
+        <v>4.76</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>670</v>
+        <v>8.75</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-1.33</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RAJTV</t>
+          <t>EFACTOR</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.54</v>
+        <v>328.85</v>
       </c>
       <c r="C28" t="n">
-        <v>40</v>
+        <v>344.4</v>
       </c>
       <c r="D28" t="n">
-        <v>3.79</v>
+        <v>4.73</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>40</v>
+        <v>340</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>-1.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SAGARDEEP</t>
+          <t>SHYAMCENT</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>26.62</v>
+        <v>4.87</v>
       </c>
       <c r="C29" t="n">
-        <v>27.61</v>
+        <v>5.1</v>
       </c>
       <c r="D29" t="n">
-        <v>3.72</v>
+        <v>4.72</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>26.5</v>
+        <v>5.84</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>-4.02</v>
+        <v>14.51</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>USK</t>
+          <t>SUPREMEENG</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>25.13</v>
+        <v>1.06</v>
       </c>
       <c r="C30" t="n">
-        <v>26.03</v>
+        <v>1.11</v>
       </c>
       <c r="D30" t="n">
-        <v>3.58</v>
+        <v>4.72</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>25.25</v>
+        <v>1.11</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>XTGLOBAL</t>
+          <t>BIKEWO</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>37.94</v>
+        <v>21.25</v>
       </c>
       <c r="C31" t="n">
-        <v>39.3</v>
+        <v>22.25</v>
       </c>
       <c r="D31" t="n">
-        <v>3.58</v>
+        <v>4.71</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>38.69</v>
+        <v>21</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-1.55</v>
+        <v>-5.62</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SANWARIA</t>
+          <t>HEADSUP</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.28</v>
+        <v>10.19</v>
       </c>
       <c r="C32" t="n">
-        <v>0.29</v>
+        <v>10.67</v>
       </c>
       <c r="D32" t="n">
-        <v>3.57</v>
+        <v>4.71</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.28</v>
+        <v>10.2</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-3.45</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SHIVAMILLS</t>
+          <t>BGRENERGY</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>65.61</v>
+        <v>424.05</v>
       </c>
       <c r="C33" t="n">
-        <v>67.94</v>
+        <v>443.65</v>
       </c>
       <c r="D33" t="n">
-        <v>3.55</v>
+        <v>4.62</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>66.90000000000001</v>
+        <v>430</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>-1.53</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>RELIABLE</t>
+          <t>TFL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>133.75</v>
+        <v>14.32</v>
       </c>
       <c r="C34" t="n">
-        <v>138.5</v>
+        <v>14.98</v>
       </c>
       <c r="D34" t="n">
-        <v>3.55</v>
+        <v>4.61</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>133</v>
+        <v>13.88</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-3.97</v>
+        <v>-7.34</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AGSTRA</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.1</v>
+        <v>31.08</v>
       </c>
       <c r="C35" t="n">
-        <v>5.28</v>
+        <v>32.5</v>
       </c>
       <c r="D35" t="n">
-        <v>3.53</v>
+        <v>4.57</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>5.15</v>
+        <v>30.35</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-2.46</v>
+        <v>-6.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>FLFL</t>
+          <t>SHRIAHIMSA</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1.45</v>
+        <v>261.1</v>
       </c>
       <c r="C36" t="n">
-        <v>1.5</v>
+        <v>273</v>
       </c>
       <c r="D36" t="n">
-        <v>3.45</v>
+        <v>4.56</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.52</v>
+        <v>258</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>1.33</v>
+        <v>-5.49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UYFINCORP</t>
+          <t>TGL</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>14.97</v>
+        <v>63.5</v>
       </c>
       <c r="C37" t="n">
-        <v>15.48</v>
+        <v>66.34999999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>3.41</v>
+        <v>4.49</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>15.39</v>
+        <v>60.35</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-0.58</v>
+        <v>-9.039999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AKI</t>
+          <t>SRPL</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>7.74</v>
+        <v>0.67</v>
       </c>
       <c r="C38" t="n">
-        <v>8</v>
+        <v>0.7</v>
       </c>
       <c r="D38" t="n">
-        <v>3.36</v>
+        <v>4.48</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>7.75</v>
+        <v>0.68</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-3.12</v>
+        <v>-2.86</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MAGNUM</t>
+          <t>AHCL</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>21.96</v>
+        <v>155.06</v>
       </c>
       <c r="C39" t="n">
-        <v>22.69</v>
+        <v>162</v>
       </c>
       <c r="D39" t="n">
-        <v>3.32</v>
+        <v>4.48</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>22.18</v>
+        <v>156.99</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-2.25</v>
+        <v>-3.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DIGISPICE</t>
+          <t>HYBRIDFIN</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>23.49</v>
+        <v>21.3</v>
       </c>
       <c r="C40" t="n">
-        <v>24.27</v>
+        <v>22.25</v>
       </c>
       <c r="D40" t="n">
-        <v>3.32</v>
+        <v>4.46</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>23.11</v>
+        <v>21.7</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-4.78</v>
+        <v>-2.47</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SILINV</t>
+          <t>LCCINFOTEC</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>569.2</v>
+        <v>4.52</v>
       </c>
       <c r="C41" t="n">
-        <v>588</v>
+        <v>4.72</v>
       </c>
       <c r="D41" t="n">
-        <v>3.3</v>
+        <v>4.42</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>572.45</v>
+        <v>4.74</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>-2.64</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>ORIENTALTL</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>8.5</v>
+        <v>198.26</v>
       </c>
       <c r="C42" t="n">
-        <v>8.779999999999999</v>
+        <v>207</v>
       </c>
       <c r="D42" t="n">
-        <v>3.29</v>
+        <v>4.41</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>8.77</v>
+        <v>194.08</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-0.11</v>
+        <v>-6.24</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>KRITI</t>
+          <t>DHARIWAL</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.83</v>
+        <v>305.6</v>
       </c>
       <c r="C43" t="n">
-        <v>98.98</v>
+        <v>319</v>
       </c>
       <c r="D43" t="n">
-        <v>3.29</v>
+        <v>4.38</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>96.45</v>
+        <v>319</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>-2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>NAVKARURB</t>
+          <t>IMPEXFERRO</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>1.83</v>
       </c>
       <c r="C44" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="D44" t="n">
-        <v>3.28</v>
+        <v>4.37</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>-3.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GATECH</t>
+          <t>DAMODARIND</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.61</v>
+        <v>32.04</v>
       </c>
       <c r="C45" t="n">
-        <v>0.63</v>
+        <v>33.44</v>
       </c>
       <c r="D45" t="n">
-        <v>3.28</v>
+        <v>4.37</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.62</v>
+        <v>33.44</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>-1.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AERONEU</t>
+          <t>TIJARIA</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.86</v>
+        <v>6.42</v>
       </c>
       <c r="C46" t="n">
-        <v>79.3</v>
+        <v>6.7</v>
       </c>
       <c r="D46" t="n">
-        <v>3.17</v>
+        <v>4.36</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>74.01000000000001</v>
+        <v>6.63</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-6.67</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>PLAZACABLE</t>
+          <t>AIROLAM</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>38.87</v>
+        <v>103.51</v>
       </c>
       <c r="C47" t="n">
-        <v>40.1</v>
+        <v>108</v>
       </c>
       <c r="D47" t="n">
-        <v>3.16</v>
+        <v>4.34</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>39.23</v>
+        <v>103.87</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-2.17</v>
+        <v>-3.82</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>VIJIFIN</t>
+          <t>SABAR</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.9</v>
+        <v>6.95</v>
       </c>
       <c r="C48" t="n">
-        <v>2.99</v>
+        <v>7.25</v>
       </c>
       <c r="D48" t="n">
-        <v>3.1</v>
+        <v>4.32</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.86</v>
+        <v>7.25</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>-4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SJLOGISTIC</t>
+          <t>FORCAS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>442.1</v>
+        <v>131.05</v>
       </c>
       <c r="C49" t="n">
-        <v>454.9</v>
+        <v>136.55</v>
       </c>
       <c r="D49" t="n">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>447</v>
+        <v>135.75</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-1.74</v>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>YUKEN</t>
+          <t>SHAILY</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>903.05</v>
+        <v>2477.4</v>
       </c>
       <c r="C50" t="n">
-        <v>929</v>
+        <v>2580.9</v>
       </c>
       <c r="D50" t="n">
-        <v>2.87</v>
+        <v>4.18</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>912</v>
+        <v>2524</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-1.83</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SINTERCOM</t>
+          <t>TREEHOUSE</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>115.21</v>
+        <v>7.89</v>
       </c>
       <c r="C51" t="n">
-        <v>118.5</v>
+        <v>8.220000000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>2.86</v>
+        <v>4.18</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>118.5</v>
+        <v>7.94</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>-3.41</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>INDTERRAIN</t>
+          <t>ASAHISONG</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>37.14</v>
+        <v>258.2</v>
       </c>
       <c r="C52" t="n">
-        <v>38.2</v>
+        <v>269</v>
       </c>
       <c r="D52" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>37.2</v>
+        <v>261.5</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-2.62</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GOYALALUM</t>
+          <t>DBSTOCKBRO</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>6.79</v>
+        <v>24.71</v>
       </c>
       <c r="C53" t="n">
-        <v>6.98</v>
+        <v>25.74</v>
       </c>
       <c r="D53" t="n">
-        <v>2.8</v>
+        <v>4.17</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>6.88</v>
+        <v>25.19</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-1.43</v>
+        <v>-2.14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>VIPULLTD</t>
+          <t>SWARAJ</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>9.08</v>
+        <v>233.35</v>
       </c>
       <c r="C54" t="n">
-        <v>9.33</v>
+        <v>243</v>
       </c>
       <c r="D54" t="n">
-        <v>2.75</v>
+        <v>4.14</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>9.24</v>
+        <v>248</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>-0.96</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>EVERESTIND</t>
+          <t>ARCHIDPLY</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>560.25</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>575</v>
+        <v>97</v>
       </c>
       <c r="D55" t="n">
-        <v>2.63</v>
+        <v>4.13</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>561.8</v>
+        <v>93.28</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-2.3</v>
+        <v>-3.84</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FOCUS</t>
+          <t>VDEAL</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>76.45999999999999</v>
+        <v>225.75</v>
       </c>
       <c r="C56" t="n">
-        <v>78.45999999999999</v>
+        <v>234.9</v>
       </c>
       <c r="D56" t="n">
-        <v>2.62</v>
+        <v>4.05</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>75.53</v>
+        <v>235.95</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>-3.73</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>OMAXAUTO</t>
+          <t>MORARJEE</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>93.55</v>
+        <v>7.69</v>
       </c>
       <c r="C57" t="n">
-        <v>95.98999999999999</v>
+        <v>8</v>
       </c>
       <c r="D57" t="n">
-        <v>2.61</v>
+        <v>4.03</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>93.73</v>
+        <v>8</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>-2.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>TERASOFT</t>
+          <t>SETUINFRA</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>504.2</v>
+        <v>0.5</v>
       </c>
       <c r="C58" t="n">
-        <v>517.25</v>
+        <v>0.52</v>
       </c>
       <c r="D58" t="n">
-        <v>2.59</v>
+        <v>4</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>515</v>
+        <v>0.5</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-0.43</v>
+        <v>-3.85</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ALLCARGO</t>
+          <t>FINKURVE</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>15.49</v>
+        <v>106.53</v>
       </c>
       <c r="C59" t="n">
-        <v>15.89</v>
+        <v>110.75</v>
       </c>
       <c r="D59" t="n">
-        <v>2.58</v>
+        <v>3.96</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>15.03</v>
+        <v>107.15</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-5.41</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CHEMBONDCH</t>
+          <t>NINSYS</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>160.86</v>
+        <v>432.85</v>
       </c>
       <c r="C60" t="n">
-        <v>164.99</v>
+        <v>449.95</v>
       </c>
       <c r="D60" t="n">
-        <v>2.57</v>
+        <v>3.95</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>161.47</v>
+        <v>419</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-2.13</v>
+        <v>-6.88</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>FEL</t>
+          <t>TGBHOTELS</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.39</v>
+        <v>10.48</v>
       </c>
       <c r="C61" t="n">
-        <v>0.4</v>
+        <v>10.89</v>
       </c>
       <c r="D61" t="n">
-        <v>2.56</v>
+        <v>3.91</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>0.4</v>
+        <v>10.79</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>MODTHREAD</t>
+          <t>ANKITMETAL</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>44.85</v>
+        <v>1.79</v>
       </c>
       <c r="C62" t="n">
-        <v>46</v>
+        <v>1.86</v>
       </c>
       <c r="D62" t="n">
-        <v>2.56</v>
+        <v>3.91</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>46</v>
+        <v>1.79</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>-3.76</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HINDCON</t>
+          <t>SHRENIK</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>30.13</v>
+        <v>0.52</v>
       </c>
       <c r="C63" t="n">
-        <v>30.9</v>
+        <v>0.54</v>
       </c>
       <c r="D63" t="n">
-        <v>2.56</v>
+        <v>3.85</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>30</v>
+        <v>0.53</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-2.91</v>
+        <v>-1.85</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PLASTIBLEN</t>
+          <t>VISHNU</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>169.27</v>
+        <v>480.85</v>
       </c>
       <c r="C64" t="n">
-        <v>173.49</v>
+        <v>499</v>
       </c>
       <c r="D64" t="n">
-        <v>2.49</v>
+        <v>3.77</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>170.98</v>
+        <v>494.7</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-1.45</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PAR</t>
+          <t>MFML</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>92.65000000000001</v>
+        <v>26.87</v>
       </c>
       <c r="C65" t="n">
-        <v>94.90000000000001</v>
+        <v>27.88</v>
       </c>
       <c r="D65" t="n">
-        <v>2.43</v>
+        <v>3.76</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>94</v>
+        <v>27.76</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-0.95</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>KALPATARU</t>
+          <t>NIRMAN</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>359.55</v>
+        <v>62.65</v>
       </c>
       <c r="C66" t="n">
-        <v>368</v>
+        <v>65</v>
       </c>
       <c r="D66" t="n">
-        <v>2.35</v>
+        <v>3.75</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>362</v>
+        <v>59.55</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-1.63</v>
+        <v>-8.380000000000001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SRGHFL</t>
+          <t>ASHIMASYN</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>261.85</v>
+        <v>19.52</v>
       </c>
       <c r="C67" t="n">
-        <v>268</v>
+        <v>20.25</v>
       </c>
       <c r="D67" t="n">
-        <v>2.35</v>
+        <v>3.74</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>266.9</v>
+        <v>19.22</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-0.41</v>
+        <v>-5.09</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ELGIRUBCO</t>
+          <t>BTML</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>54.13</v>
+        <v>8.58</v>
       </c>
       <c r="C68" t="n">
-        <v>55.4</v>
+        <v>8.9</v>
       </c>
       <c r="D68" t="n">
-        <v>2.35</v>
+        <v>3.73</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>55.35</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-0.09</v>
+        <v>-2.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>ZODIACLOTH</t>
+          <t>APEX</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>92.81</v>
+        <v>331.75</v>
       </c>
       <c r="C69" t="n">
-        <v>94.94</v>
+        <v>344.1</v>
       </c>
       <c r="D69" t="n">
-        <v>2.3</v>
+        <v>3.72</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>93.31</v>
+        <v>317.52</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-1.72</v>
+        <v>-7.72</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>NOVAAGRI</t>
+          <t>WANBURY</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>44.83</v>
+        <v>229.5</v>
       </c>
       <c r="C70" t="n">
-        <v>45.86</v>
+        <v>238</v>
       </c>
       <c r="D70" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>44.73</v>
+        <v>228.75</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-2.46</v>
+        <v>-3.89</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>ASHIMASYN</t>
+          <t>RVTH</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>19.27</v>
+        <v>790.25</v>
       </c>
       <c r="C71" t="n">
-        <v>19.71</v>
+        <v>819</v>
       </c>
       <c r="D71" t="n">
-        <v>2.28</v>
+        <v>3.64</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>19.39</v>
+        <v>795</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-1.62</v>
+        <v>-2.93</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>BVCL</t>
+          <t>REDINGTON</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>43.24</v>
+        <v>284.8</v>
       </c>
       <c r="C72" t="n">
-        <v>44.22</v>
+        <v>295</v>
       </c>
       <c r="D72" t="n">
-        <v>2.27</v>
+        <v>3.58</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>44.22</v>
+        <v>295.6</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PRAKASHSTL</t>
+          <t>HMAAGRO</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>4.85</v>
+        <v>31.77</v>
       </c>
       <c r="C73" t="n">
-        <v>4.96</v>
+        <v>32.9</v>
       </c>
       <c r="D73" t="n">
-        <v>2.27</v>
+        <v>3.56</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>5</v>
+        <v>31.9</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>0.8100000000000001</v>
+        <v>-3.04</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>GOKUL</t>
+          <t>MITCON</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>36.95</v>
+        <v>72.27</v>
       </c>
       <c r="C74" t="n">
-        <v>37.79</v>
+        <v>74.8</v>
       </c>
       <c r="D74" t="n">
-        <v>2.27</v>
+        <v>3.5</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>37.4</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-1.03</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EMKAY</t>
+          <t>SANWARIA</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>301.1</v>
+        <v>0.29</v>
       </c>
       <c r="C75" t="n">
-        <v>307.8</v>
+        <v>0.3</v>
       </c>
       <c r="D75" t="n">
-        <v>2.23</v>
+        <v>3.45</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>300</v>
+        <v>0.3</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>-2.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ACCURACY</t>
+          <t>THOMASCOTT</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>6.31</v>
+        <v>378.4</v>
       </c>
       <c r="C76" t="n">
-        <v>6.45</v>
+        <v>390.95</v>
       </c>
       <c r="D76" t="n">
-        <v>2.22</v>
+        <v>3.32</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>6.43</v>
+        <v>375</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-0.31</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>PANSARI</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>197.62</v>
+        <v>311.6</v>
       </c>
       <c r="C77" t="n">
-        <v>202</v>
+        <v>321.95</v>
       </c>
       <c r="D77" t="n">
-        <v>2.22</v>
+        <v>3.32</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>203.6</v>
+        <v>296.05</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>0.79</v>
+        <v>-8.039999999999999</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>XELPMOC</t>
+          <t>ANMOL</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>139.91</v>
+        <v>14.5</v>
       </c>
       <c r="C78" t="n">
-        <v>143</v>
+        <v>14.98</v>
       </c>
       <c r="D78" t="n">
-        <v>2.21</v>
+        <v>3.31</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>137</v>
+        <v>14.51</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-4.2</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>BLUEPEBBLE</t>
+          <t>SHANTI</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>106.65</v>
+        <v>9.390000000000001</v>
       </c>
       <c r="C79" t="n">
-        <v>109</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>108.5</v>
+        <v>9.43</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-0.46</v>
+        <v>-2.78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>OCCLLTD</t>
+          <t>DIGISPICE</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>104.67</v>
+        <v>23.06</v>
       </c>
       <c r="C80" t="n">
-        <v>106.96</v>
+        <v>23.79</v>
       </c>
       <c r="D80" t="n">
-        <v>2.19</v>
+        <v>3.17</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>104.12</v>
+        <v>23.59</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-2.66</v>
+        <v>-0.84</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PREMIERPOL</t>
+          <t>AKI</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>44.53</v>
+        <v>7.66</v>
       </c>
       <c r="C81" t="n">
-        <v>45.5</v>
+        <v>7.9</v>
       </c>
       <c r="D81" t="n">
-        <v>2.18</v>
+        <v>3.13</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>49.1</v>
+        <v>7.51</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>7.91</v>
+        <v>-4.94</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>ALPSINDUS</t>
+          <t>CURIS</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>1.86</v>
+        <v>137.5</v>
       </c>
       <c r="C82" t="n">
-        <v>1.9</v>
+        <v>141.8</v>
       </c>
       <c r="D82" t="n">
-        <v>2.15</v>
+        <v>3.13</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>1.87</v>
+        <v>134.1</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-1.58</v>
+        <v>-5.43</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HAVISHA</t>
+          <t>NARMADA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>1.9</v>
+        <v>24</v>
       </c>
       <c r="C83" t="n">
-        <v>1.94</v>
+        <v>24.75</v>
       </c>
       <c r="D83" t="n">
-        <v>2.11</v>
+        <v>3.12</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>1.94</v>
+        <v>23.95</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>-3.23</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PARAGON</t>
+          <t>MANCREDIT</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>50.25</v>
+        <v>176.49</v>
       </c>
       <c r="C84" t="n">
-        <v>51.3</v>
+        <v>182</v>
       </c>
       <c r="D84" t="n">
-        <v>2.09</v>
+        <v>3.12</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>51.3</v>
+        <v>176.08</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GPPL</t>
+          <t>RELCHEMQ</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>177.31</v>
+        <v>144.01</v>
       </c>
       <c r="C85" t="n">
-        <v>181</v>
+        <v>148.49</v>
       </c>
       <c r="D85" t="n">
-        <v>2.08</v>
+        <v>3.11</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>177.8</v>
+        <v>146.52</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-1.77</v>
+        <v>-1.33</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>DCMSRIND</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>2.42</v>
+        <v>165.32</v>
       </c>
       <c r="C86" t="n">
-        <v>2.47</v>
+        <v>170.4</v>
       </c>
       <c r="D86" t="n">
-        <v>2.07</v>
+        <v>3.07</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>2.5</v>
+        <v>169.06</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>1.21</v>
+        <v>-0.79</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>FROG</t>
+          <t>SANGINITA</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>164.6</v>
+        <v>10.13</v>
       </c>
       <c r="C87" t="n">
-        <v>167.95</v>
+        <v>10.44</v>
       </c>
       <c r="D87" t="n">
-        <v>2.04</v>
+        <v>3.06</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>168</v>
+        <v>10.3</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>0.03</v>
+        <v>-1.34</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DRCSYSTEMS</t>
+          <t>HGINFRA</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>18.11</v>
+        <v>863.6</v>
       </c>
       <c r="C88" t="n">
-        <v>18.48</v>
+        <v>890</v>
       </c>
       <c r="D88" t="n">
-        <v>2.04</v>
+        <v>3.06</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>18.37</v>
+        <v>894</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>-0.6</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PRITI</t>
+          <t>GKWLIMITED</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>65.67</v>
+        <v>1698</v>
       </c>
       <c r="C89" t="n">
-        <v>67</v>
+        <v>1750</v>
       </c>
       <c r="D89" t="n">
-        <v>2.03</v>
+        <v>3.06</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>65.11</v>
+        <v>1750</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>-2.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>UCAL</t>
+          <t>BVCL</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>125.47</v>
+        <v>42.5</v>
       </c>
       <c r="C90" t="n">
-        <v>128</v>
+        <v>43.8</v>
       </c>
       <c r="D90" t="n">
-        <v>2.02</v>
+        <v>3.06</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>125.02</v>
+        <v>43.35</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-2.33</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ODIGMA</t>
+          <t>RADIOCITY</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>35.37</v>
+        <v>6.88</v>
       </c>
       <c r="C91" t="n">
-        <v>36.08</v>
+        <v>7.09</v>
       </c>
       <c r="D91" t="n">
-        <v>2.01</v>
+        <v>3.05</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>35.2</v>
+        <v>6.97</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-2.44</v>
+        <v>-1.69</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SPCENET</t>
+          <t>OWAIS</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>9.029999999999999</v>
+        <v>328.55</v>
       </c>
       <c r="C92" t="n">
-        <v>9.210000000000001</v>
+        <v>338.55</v>
       </c>
       <c r="D92" t="n">
-        <v>1.99</v>
+        <v>3.04</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>9</v>
+        <v>341.05</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>-2.28</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SAKHTISUG</t>
+          <t>SABEVENTS</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>19.58</v>
+        <v>6.7</v>
       </c>
       <c r="C93" t="n">
-        <v>19.97</v>
+        <v>6.9</v>
       </c>
       <c r="D93" t="n">
-        <v>1.99</v>
+        <v>2.99</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>19.54</v>
+        <v>7.03</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>-2.15</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GVPTECH</t>
+          <t>MMP</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>9.07</v>
+        <v>254.45</v>
       </c>
       <c r="C94" t="n">
-        <v>9.25</v>
+        <v>262</v>
       </c>
       <c r="D94" t="n">
-        <v>1.98</v>
+        <v>2.97</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>9</v>
+        <v>259.9</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-2.7</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>BALAXI</t>
+          <t>UYFINCORP</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>35.98</v>
+        <v>14.79</v>
       </c>
       <c r="C95" t="n">
-        <v>36.69</v>
+        <v>15.23</v>
       </c>
       <c r="D95" t="n">
-        <v>1.97</v>
+        <v>2.97</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>36.78</v>
+        <v>15.05</v>
       </c>
       <c r="G95" t="inlineStr"/>
       <c r="H95" t="n">
-        <v>0.25</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CEREBRAINT</t>
+          <t>SVPGLOB</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>8.16</v>
+        <v>3.73</v>
       </c>
       <c r="C96" t="n">
-        <v>8.32</v>
+        <v>3.84</v>
       </c>
       <c r="D96" t="n">
-        <v>1.96</v>
+        <v>2.95</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>8.31</v>
+        <v>3.8</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-0.12</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>TFL</t>
+          <t>GOLDENTOBC</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>13.78</v>
+        <v>34.02</v>
       </c>
       <c r="C97" t="n">
-        <v>14.05</v>
+        <v>35</v>
       </c>
       <c r="D97" t="n">
-        <v>1.96</v>
+        <v>2.88</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>14.49</v>
+        <v>34.39</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>3.13</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RUCHIRA</t>
+          <t>KESORAMIND</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>124.33</v>
+        <v>5.3</v>
       </c>
       <c r="C98" t="n">
-        <v>126.75</v>
+        <v>5.45</v>
       </c>
       <c r="D98" t="n">
-        <v>1.95</v>
+        <v>2.83</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>124.57</v>
+        <v>5.21</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-1.72</v>
+        <v>-4.4</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>UNIHEALTH</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.53</v>
+        <v>321.4</v>
       </c>
       <c r="C99" t="n">
-        <v>0.54</v>
+        <v>330.5</v>
       </c>
       <c r="D99" t="n">
-        <v>1.89</v>
+        <v>2.83</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>0.53</v>
+        <v>337.45</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>-1.85</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>MKPL</t>
+          <t>ALPSINDUS</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>6.41</v>
+        <v>1.77</v>
       </c>
       <c r="C100" t="n">
-        <v>6.53</v>
+        <v>1.82</v>
       </c>
       <c r="D100" t="n">
-        <v>1.87</v>
+        <v>2.82</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>6.47</v>
+        <v>1.76</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-0.92</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>KSHITIJPOL</t>
+          <t>STYLAMIND</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>2.69</v>
+        <v>1994.4</v>
       </c>
       <c r="C101" t="n">
-        <v>2.74</v>
+        <v>2050</v>
       </c>
       <c r="D101" t="n">
-        <v>1.86</v>
+        <v>2.79</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2.74</v>
+        <v>2047</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SONAMAC</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>56.35</v>
+        <v>123.46</v>
       </c>
       <c r="C102" t="n">
-        <v>57.4</v>
+        <v>126.9</v>
       </c>
       <c r="D102" t="n">
-        <v>1.86</v>
+        <v>2.79</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>57.45</v>
+        <v>124.8</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>0.09</v>
+        <v>-1.65</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HMT</t>
+          <t>KTKBANK</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>51.05</v>
+        <v>188.76</v>
       </c>
       <c r="C103" t="n">
-        <v>52</v>
+        <v>194</v>
       </c>
       <c r="D103" t="n">
-        <v>1.86</v>
+        <v>2.78</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>52</v>
+        <v>201.28</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>RNBDENIMS</t>
+          <t>BLBLIMITED</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>130.53</v>
+        <v>16.25</v>
       </c>
       <c r="C104" t="n">
-        <v>132.9</v>
+        <v>16.69</v>
       </c>
       <c r="D104" t="n">
-        <v>1.82</v>
+        <v>2.71</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>132.35</v>
+        <v>16.79</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>-0.41</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>TECILCHEM</t>
+          <t>AHLADA</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>19.64</v>
+        <v>52.48</v>
       </c>
       <c r="C105" t="n">
-        <v>19.99</v>
+        <v>53.9</v>
       </c>
       <c r="D105" t="n">
-        <v>1.78</v>
+        <v>2.71</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>19.99</v>
+        <v>52.29</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>COASTCORP</t>
+          <t>GAYAHWS</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>43.04</v>
+        <v>3.7</v>
       </c>
       <c r="C106" t="n">
-        <v>43.8</v>
+        <v>3.8</v>
       </c>
       <c r="D106" t="n">
-        <v>1.77</v>
+        <v>2.7</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>42.8</v>
+        <v>3.56</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-2.28</v>
+        <v>-6.32</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>BIKEWO</t>
+          <t>OSWALGREEN</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>20.25</v>
+        <v>35.06</v>
       </c>
       <c r="C107" t="n">
-        <v>20.6</v>
+        <v>35.99</v>
       </c>
       <c r="D107" t="n">
-        <v>1.73</v>
+        <v>2.65</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>21.25</v>
+        <v>34.84</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>3.16</v>
+        <v>-3.2</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>RPOWER</t>
+          <t>PATINTLOG</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>39.32</v>
+        <v>13.95</v>
       </c>
       <c r="C108" t="n">
-        <v>39.99</v>
+        <v>14.32</v>
       </c>
       <c r="D108" t="n">
-        <v>1.7</v>
+        <v>2.65</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>39.12</v>
+        <v>14.23</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-2.18</v>
+        <v>-0.63</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SVPGLOB</t>
+          <t>PASUPTAC</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>3.53</v>
+        <v>52.52</v>
       </c>
       <c r="C109" t="n">
-        <v>3.59</v>
+        <v>53.9</v>
       </c>
       <c r="D109" t="n">
-        <v>1.7</v>
+        <v>2.63</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>3.58</v>
+        <v>53.61</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-0.28</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>MWL</t>
+          <t>SPUNWEB</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>240.93</v>
+        <v>160.05</v>
       </c>
       <c r="C110" t="n">
-        <v>245</v>
+        <v>164.25</v>
       </c>
       <c r="D110" t="n">
-        <v>1.69</v>
+        <v>2.62</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>239.18</v>
+        <v>161.55</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-2.38</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>MITCON</t>
+          <t>ROML</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>73.76000000000001</v>
+        <v>50.68</v>
       </c>
       <c r="C111" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="D111" t="n">
-        <v>1.68</v>
+        <v>2.6</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>74.12</v>
+        <v>50.94</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-1.17</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>JITFINFRA</t>
+          <t>MEGASOFT</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>295.95</v>
+        <v>180.32</v>
       </c>
       <c r="C112" t="n">
-        <v>300.9</v>
+        <v>185</v>
       </c>
       <c r="D112" t="n">
-        <v>1.67</v>
+        <v>2.6</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>299.5</v>
+        <v>180.99</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-0.47</v>
+        <v>-2.17</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>UMAEXPORTS</t>
+          <t>PRIZOR</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>41.29</v>
+        <v>315.85</v>
       </c>
       <c r="C113" t="n">
-        <v>41.98</v>
+        <v>324</v>
       </c>
       <c r="D113" t="n">
-        <v>1.67</v>
+        <v>2.58</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>40.98</v>
+        <v>317.5</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-2.38</v>
+        <v>-2.01</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BTML</t>
+          <t>TIGERLOGS</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>9.029999999999999</v>
+        <v>38.9</v>
       </c>
       <c r="C114" t="n">
-        <v>9.18</v>
+        <v>39.9</v>
       </c>
       <c r="D114" t="n">
-        <v>1.66</v>
+        <v>2.57</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>8.960000000000001</v>
+        <v>39.04</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-2.4</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>COMSYN</t>
+          <t>DHARAN</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>139.58</v>
+        <v>0.39</v>
       </c>
       <c r="C115" t="n">
-        <v>141.9</v>
+        <v>0.4</v>
       </c>
       <c r="D115" t="n">
-        <v>1.66</v>
+        <v>2.56</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>141.8</v>
+        <v>0.4</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>NAHARSPING</t>
+          <t>CELEBRITY</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>202.43</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="C116" t="n">
-        <v>205.8</v>
+        <v>10.14</v>
       </c>
       <c r="D116" t="n">
-        <v>1.66</v>
+        <v>2.53</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>204.34</v>
+        <v>10.36</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>-0.71</v>
+        <v>2.17</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>MEGASOFT</t>
+          <t>3PLAND</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>187.85</v>
+        <v>39.51</v>
       </c>
       <c r="C117" t="n">
-        <v>190.97</v>
+        <v>40.5</v>
       </c>
       <c r="D117" t="n">
-        <v>1.66</v>
+        <v>2.51</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-2.6</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TAKE</t>
+          <t>SCPL</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>29.71</v>
+        <v>220.43</v>
       </c>
       <c r="C118" t="n">
-        <v>30.2</v>
+        <v>225.92</v>
       </c>
       <c r="D118" t="n">
-        <v>1.65</v>
+        <v>2.49</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>30.3</v>
+        <v>219.91</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>0.33</v>
+        <v>-2.66</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FEDFINA</t>
+          <t>SILLYMONKS</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>140.66</v>
+        <v>24.18</v>
       </c>
       <c r="C119" t="n">
-        <v>142.96</v>
+        <v>24.78</v>
       </c>
       <c r="D119" t="n">
-        <v>1.64</v>
+        <v>2.48</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>142.36</v>
+        <v>23.8</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-0.42</v>
+        <v>-3.95</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TCIFINANCE</t>
+          <t>HINDOILEXP</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>11.27</v>
+        <v>144.17</v>
       </c>
       <c r="C120" t="n">
-        <v>11.45</v>
+        <v>147.7</v>
       </c>
       <c r="D120" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>11.1</v>
+        <v>144.2</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-3.06</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BSL</t>
+          <t>CALSOFT</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>187.21</v>
+        <v>17.14</v>
       </c>
       <c r="C121" t="n">
-        <v>190.2</v>
+        <v>17.56</v>
       </c>
       <c r="D121" t="n">
-        <v>1.6</v>
+        <v>2.45</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>187.7</v>
+        <v>17.31</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-1.31</v>
+        <v>-1.42</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>AMJLAND</t>
+          <t>BELLACASA</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>53.93</v>
+        <v>424.65</v>
       </c>
       <c r="C122" t="n">
-        <v>54.79</v>
+        <v>435</v>
       </c>
       <c r="D122" t="n">
-        <v>1.59</v>
+        <v>2.44</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>54.47</v>
+        <v>420</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-0.58</v>
+        <v>-3.45</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>RADAAN</t>
+          <t>SILINV</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>3.15</v>
+        <v>566.05</v>
       </c>
       <c r="C123" t="n">
-        <v>3.2</v>
+        <v>579.8</v>
       </c>
       <c r="D123" t="n">
-        <v>1.59</v>
+        <v>2.43</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>3.18</v>
+        <v>562.45</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-0.63</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>IMPEXFERRO</t>
+          <t>PRIMECAB</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>1.91</v>
+        <v>112.25</v>
       </c>
       <c r="C124" t="n">
-        <v>1.94</v>
+        <v>114.95</v>
       </c>
       <c r="D124" t="n">
-        <v>1.57</v>
+        <v>2.41</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="G124" t="inlineStr"/>
-      <c r="H124" t="inlineStr"/>
+      <c r="H124" t="n">
+        <v>-2.57</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SIKKO</t>
+          <t>GTL</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>112</v>
+        <v>8.4</v>
       </c>
       <c r="C125" t="n">
-        <v>113.76</v>
+        <v>8.6</v>
       </c>
       <c r="D125" t="n">
-        <v>1.57</v>
+        <v>2.38</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>110.02</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-3.29</v>
+        <v>-2.67</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>AAKASH</t>
+          <t>RAJOOENG</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>8.91</v>
+        <v>74.25</v>
       </c>
       <c r="C126" t="n">
-        <v>9.050000000000001</v>
+        <v>76</v>
       </c>
       <c r="D126" t="n">
-        <v>1.57</v>
+        <v>2.36</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>8.9</v>
+        <v>72.19</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-1.66</v>
+        <v>-5.01</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>URJA</t>
+          <t>IKS</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>12.26</v>
+        <v>1568</v>
       </c>
       <c r="C127" t="n">
-        <v>12.45</v>
+        <v>1604.9</v>
       </c>
       <c r="D127" t="n">
-        <v>1.55</v>
+        <v>2.35</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>13.11</v>
+        <v>1625.1</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>5.3</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MANCREDIT</t>
+          <t>GLOSTERLTD</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>173.58</v>
+        <v>598.05</v>
       </c>
       <c r="C128" t="n">
-        <v>176.25</v>
+        <v>611.9</v>
       </c>
       <c r="D128" t="n">
-        <v>1.54</v>
+        <v>2.32</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>173.95</v>
+        <v>602.45</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-1.3</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>PRAXIS</t>
+          <t>LIBERTSHOE</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>10.53</v>
+        <v>299.95</v>
       </c>
       <c r="C129" t="n">
-        <v>10.69</v>
+        <v>306.85</v>
       </c>
       <c r="D129" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>10.67</v>
+        <v>298.1</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-0.19</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>BIGBLOC</t>
+          <t>ROLTA</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>51.13</v>
+        <v>1.74</v>
       </c>
       <c r="C130" t="n">
-        <v>51.9</v>
+        <v>1.78</v>
       </c>
       <c r="D130" t="n">
-        <v>1.51</v>
+        <v>2.3</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>51.49</v>
+        <v>1.73</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-0.79</v>
+        <v>-2.81</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NRAIL</t>
+          <t>TUNWAL</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>500.05</v>
+        <v>32.75</v>
       </c>
       <c r="C131" t="n">
-        <v>507.55</v>
+        <v>33.5</v>
       </c>
       <c r="D131" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>497.05</v>
+        <v>32.5</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-2.07</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>YASHO</t>
+          <t>KRISHIVAL</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>1644.4</v>
+        <v>464.25</v>
       </c>
       <c r="C132" t="n">
-        <v>1669.1</v>
+        <v>474.9</v>
       </c>
       <c r="D132" t="n">
-        <v>1.5</v>
+        <v>2.29</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>1659.9</v>
+        <v>465.5</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-0.55</v>
+        <v>-1.98</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ELECTHERM</t>
+          <t>VILINBIO</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>886.5</v>
+        <v>22.65</v>
       </c>
       <c r="C133" t="n">
-        <v>899.8</v>
+        <v>23.15</v>
       </c>
       <c r="D133" t="n">
-        <v>1.5</v>
+        <v>2.21</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>884.75</v>
+        <v>23.1</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-1.67</v>
+        <v>-0.22</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>VERTOZ</t>
+          <t>RHFL</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>71.23</v>
+        <v>3.17</v>
       </c>
       <c r="C134" t="n">
-        <v>72.3</v>
+        <v>3.24</v>
       </c>
       <c r="D134" t="n">
-        <v>1.5</v>
+        <v>2.21</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>70.76000000000001</v>
+        <v>3.2</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-2.13</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ASTEC</t>
+          <t>WIPL</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>734.05</v>
+        <v>165.33</v>
       </c>
       <c r="C135" t="n">
-        <v>745</v>
+        <v>168.97</v>
       </c>
       <c r="D135" t="n">
-        <v>1.49</v>
+        <v>2.2</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>778.65</v>
+        <v>169.95</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>4.52</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>JPOLYINVST</t>
+          <t>CIFL</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>954.75</v>
+        <v>30.82</v>
       </c>
       <c r="C136" t="n">
-        <v>969</v>
+        <v>31.49</v>
       </c>
       <c r="D136" t="n">
-        <v>1.49</v>
+        <v>2.17</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>966.9</v>
+        <v>31.2</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-0.22</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>NIPPOBATRY</t>
+          <t>EVERESTIND</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>416.25</v>
+        <v>557.9</v>
       </c>
       <c r="C137" t="n">
-        <v>422.4</v>
+        <v>570</v>
       </c>
       <c r="D137" t="n">
-        <v>1.48</v>
+        <v>2.17</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>422.2</v>
+        <v>548.7</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-0.05</v>
+        <v>-3.74</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>TPLPLASTEH</t>
+          <t>AGIIL</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>69.97</v>
+        <v>279</v>
       </c>
       <c r="C138" t="n">
-        <v>71</v>
+        <v>285</v>
       </c>
       <c r="D138" t="n">
-        <v>1.47</v>
+        <v>2.15</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>71.56999999999999</v>
+        <v>273.3</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>0.8</v>
+        <v>-4.11</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SELMC</t>
+          <t>KANANIIND</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>30.52</v>
+        <v>1.86</v>
       </c>
       <c r="C139" t="n">
-        <v>30.97</v>
+        <v>1.9</v>
       </c>
       <c r="D139" t="n">
-        <v>1.47</v>
+        <v>2.15</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>30.89</v>
+        <v>1.9</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>-0.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DENORA</t>
+          <t>GLOBE</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>705.2</v>
+        <v>2.84</v>
       </c>
       <c r="C140" t="n">
-        <v>715.55</v>
+        <v>2.9</v>
       </c>
       <c r="D140" t="n">
-        <v>1.47</v>
+        <v>2.11</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>702.05</v>
+        <v>2.96</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>-1.89</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>BASILIC</t>
+          <t>KALPATARU</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>340</v>
+        <v>357.5</v>
       </c>
       <c r="C141" t="n">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="D141" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>330.45</v>
+        <v>378.55</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>-4.22</v>
+        <v>3.71</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOMICONVEY</t>
+          <t>ADVANCE</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>139.66</v>
+        <v>132.22</v>
       </c>
       <c r="C142" t="n">
-        <v>141.7</v>
+        <v>135</v>
       </c>
       <c r="D142" t="n">
-        <v>1.46</v>
+        <v>2.1</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>140.99</v>
+        <v>128.49</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-0.5</v>
+        <v>-4.82</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>ORCHASP</t>
+          <t>HAVISHA</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>2.76</v>
+        <v>1.91</v>
       </c>
       <c r="C143" t="n">
-        <v>2.8</v>
+        <v>1.95</v>
       </c>
       <c r="D143" t="n">
-        <v>1.45</v>
+        <v>2.09</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-3.57</v>
+        <v>-1.03</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HTMEDIA</t>
+          <t>ADROITINFO</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>25.53</v>
+        <v>10.07</v>
       </c>
       <c r="C144" t="n">
-        <v>25.9</v>
+        <v>10.28</v>
       </c>
       <c r="D144" t="n">
-        <v>1.45</v>
+        <v>2.09</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
       <c r="F144" t="n">
-        <v>25.47</v>
+        <v>10.1</v>
       </c>
       <c r="G144" t="inlineStr"/>
       <c r="H144" t="n">
-        <v>-1.66</v>
+        <v>-1.75</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SUNLITE</t>
+          <t>MADHUCON</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>265.15</v>
+        <v>6.25</v>
       </c>
       <c r="C145" t="n">
-        <v>269</v>
+        <v>6.38</v>
       </c>
       <c r="D145" t="n">
-        <v>1.45</v>
+        <v>2.08</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>268</v>
+        <v>6.49</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>-0.37</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>BAJEL</t>
+          <t>SJLOGISTIC</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>181.36</v>
+        <v>449.65</v>
       </c>
       <c r="C146" t="n">
-        <v>183.98</v>
+        <v>459</v>
       </c>
       <c r="D146" t="n">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>180.85</v>
+        <v>432</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-1.7</v>
+        <v>-5.88</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>TRANSWORLD</t>
+          <t>OMKARCHEM</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>218.85</v>
+        <v>5.28</v>
       </c>
       <c r="C147" t="n">
-        <v>222</v>
+        <v>5.39</v>
       </c>
       <c r="D147" t="n">
-        <v>1.44</v>
+        <v>2.08</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>220.01</v>
+        <v>5.25</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-0.9</v>
+        <v>-2.6</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>AWL</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>276.75</v>
+        <v>136.18</v>
       </c>
       <c r="C148" t="n">
-        <v>280.7</v>
+        <v>139</v>
       </c>
       <c r="D148" t="n">
-        <v>1.43</v>
+        <v>2.07</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>271.85</v>
+        <v>134</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-3.15</v>
+        <v>-3.6</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>JISLDVREQS</t>
+          <t>PATELRMART</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>29.47</v>
+        <v>234.17</v>
       </c>
       <c r="C149" t="n">
-        <v>29.89</v>
+        <v>238.99</v>
       </c>
       <c r="D149" t="n">
-        <v>1.43</v>
+        <v>2.06</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>29.18</v>
+        <v>235.01</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-2.38</v>
+        <v>-1.67</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SURANASOL</t>
+          <t>VIPCLOTHNG</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>30.23</v>
+        <v>32.58</v>
       </c>
       <c r="C150" t="n">
-        <v>30.66</v>
+        <v>33.24</v>
       </c>
       <c r="D150" t="n">
-        <v>1.42</v>
+        <v>2.03</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>30.37</v>
+        <v>33.21</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-0.95</v>
+        <v>-0.09</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>STLTECH</t>
+          <t>KEEPLEARN</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>112.23</v>
+        <v>2.49</v>
       </c>
       <c r="C151" t="n">
-        <v>113.79</v>
+        <v>2.54</v>
       </c>
       <c r="D151" t="n">
-        <v>1.39</v>
+        <v>2.01</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>111.36</v>
+        <v>2.53</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-2.14</v>
+        <v>-0.39</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HEUBACHIND</t>
+          <t>INCREDIBLE</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>477.35</v>
+        <v>41.88</v>
       </c>
       <c r="C152" t="n">
-        <v>484</v>
+        <v>42.72</v>
       </c>
       <c r="D152" t="n">
-        <v>1.39</v>
+        <v>2.01</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>477.9</v>
+        <v>42.58</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-1.26</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RELTD</t>
+          <t>IL&amp;FSTRANS</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>164.69</v>
+        <v>2.98</v>
       </c>
       <c r="C153" t="n">
-        <v>166.96</v>
+        <v>3.04</v>
       </c>
       <c r="D153" t="n">
-        <v>1.38</v>
+        <v>2.01</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
-      <c r="F153" t="n">
-        <v>165.5</v>
-      </c>
+      <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="n">
-        <v>-0.87</v>
-      </c>
+      <c r="H153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>EXCEL</t>
+          <t>SACHEEROME</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>1.5</v>
+        <v>356.55</v>
       </c>
       <c r="C154" t="n">
-        <v>1.52</v>
+        <v>363.7</v>
       </c>
       <c r="D154" t="n">
-        <v>1.33</v>
+        <v>2.01</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>1.51</v>
+        <v>349</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-0.66</v>
+        <v>-4.04</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>S&amp;SPOWER</t>
+          <t>MOHITIND</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>273.25</v>
+        <v>30.37</v>
       </c>
       <c r="C155" t="n">
-        <v>276.85</v>
+        <v>30.98</v>
       </c>
       <c r="D155" t="n">
-        <v>1.32</v>
+        <v>2.01</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
-      <c r="F155" t="inlineStr"/>
+      <c r="F155" t="n">
+        <v>30</v>
+      </c>
       <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
+      <c r="H155" t="n">
+        <v>-3.16</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>GVKPIL</t>
+          <t>TOKYOPLAST</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>3.02</v>
+        <v>121.02</v>
       </c>
       <c r="C156" t="n">
-        <v>3.06</v>
+        <v>123.44</v>
       </c>
       <c r="D156" t="n">
-        <v>1.32</v>
+        <v>2</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>3.08</v>
+        <v>123.41</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>0.65</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>ANUHPHR</t>
+          <t>DCM</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>80.25</v>
+        <v>97.48999999999999</v>
       </c>
       <c r="C157" t="n">
-        <v>81.3</v>
+        <v>99.44</v>
       </c>
       <c r="D157" t="n">
-        <v>1.31</v>
+        <v>2</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>80.01000000000001</v>
+        <v>97.91</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-1.59</v>
+        <v>-1.54</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEX</t>
+          <t>GFLLIMITED</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>1918</v>
+        <v>61.13</v>
       </c>
       <c r="C158" t="n">
-        <v>1943</v>
+        <v>62.35</v>
       </c>
       <c r="D158" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
       <c r="F158" t="n">
-        <v>1972</v>
+        <v>61.35</v>
       </c>
       <c r="G158" t="inlineStr"/>
       <c r="H158" t="n">
-        <v>1.49</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SANATHAN</t>
+          <t>XTGLOBAL</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>499.5</v>
+        <v>37.48</v>
       </c>
       <c r="C159" t="n">
-        <v>506</v>
+        <v>38.23</v>
       </c>
       <c r="D159" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>494.6</v>
+        <v>37.76</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-2.25</v>
+        <v>-1.23</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VIVIDHA</t>
+          <t>DCMFINSERV</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>0.77</v>
+        <v>5.49</v>
       </c>
       <c r="C160" t="n">
-        <v>0.78</v>
+        <v>5.6</v>
       </c>
       <c r="D160" t="n">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>0.77</v>
+        <v>5.57</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-1.28</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DANGEE</t>
+          <t>DUCON</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>3.89</v>
+        <v>4.54</v>
       </c>
       <c r="C161" t="n">
-        <v>3.94</v>
+        <v>4.63</v>
       </c>
       <c r="D161" t="n">
-        <v>1.29</v>
+        <v>1.98</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>3.88</v>
+        <v>4.6</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-1.52</v>
+        <v>-0.65</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>AKSHOPTFBR</t>
+          <t>SUTLEJTEX</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>7.01</v>
+        <v>34.42</v>
       </c>
       <c r="C162" t="n">
-        <v>7.1</v>
+        <v>35.1</v>
       </c>
       <c r="D162" t="n">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>6.99</v>
+        <v>34.98</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-1.55</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>MANGLMCEM</t>
+          <t>BANG</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>713.75</v>
+        <v>53.94</v>
       </c>
       <c r="C163" t="n">
-        <v>722.8</v>
+        <v>55</v>
       </c>
       <c r="D163" t="n">
-        <v>1.27</v>
+        <v>1.97</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>715.75</v>
+        <v>55</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>-0.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>THOMASCOTT</t>
+          <t>GVKPIL</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>395.65</v>
+        <v>3.08</v>
       </c>
       <c r="C164" t="n">
-        <v>400.65</v>
+        <v>3.14</v>
       </c>
       <c r="D164" t="n">
-        <v>1.26</v>
+        <v>1.95</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>389.05</v>
+        <v>3.14</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>-2.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>ALANKIT</t>
+          <t>MODTHREAD</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>11.23</v>
+        <v>46.1</v>
       </c>
       <c r="C165" t="n">
-        <v>11.37</v>
+        <v>47</v>
       </c>
       <c r="D165" t="n">
-        <v>1.25</v>
+        <v>1.95</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>11.15</v>
+        <v>47</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>-1.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>AJOONI</t>
+          <t>TEAMLEASE</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>4.83</v>
+        <v>1657.9</v>
       </c>
       <c r="C166" t="n">
-        <v>4.89</v>
+        <v>1690</v>
       </c>
       <c r="D166" t="n">
-        <v>1.24</v>
+        <v>1.94</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>4.77</v>
+        <v>1815</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>-2.45</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DBSTOCKBRO</t>
+          <t>EMAMIPAP</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>25.16</v>
+        <v>93.09</v>
       </c>
       <c r="C167" t="n">
-        <v>25.47</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="D167" t="n">
-        <v>1.23</v>
+        <v>1.94</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>25.34</v>
+        <v>94.14</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-0.51</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>PREMIER</t>
+          <t>AURIGROW</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>3.28</v>
+        <v>0.52</v>
       </c>
       <c r="C168" t="n">
-        <v>3.32</v>
+        <v>0.53</v>
       </c>
       <c r="D168" t="n">
-        <v>1.22</v>
+        <v>1.92</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>3.12</v>
+        <v>0.53</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>-6.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>SAKUMA</t>
+          <t>LYKALABS</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>2.45</v>
+        <v>84.38</v>
       </c>
       <c r="C169" t="n">
-        <v>2.48</v>
+        <v>86</v>
       </c>
       <c r="D169" t="n">
-        <v>1.22</v>
+        <v>1.92</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>2.46</v>
+        <v>83.3</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-3.14</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>VALIANTORG</t>
+          <t>SHEKHAWATI</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>270.7</v>
+        <v>17.94</v>
       </c>
       <c r="C170" t="n">
-        <v>274</v>
+        <v>18.28</v>
       </c>
       <c r="D170" t="n">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>273.1</v>
+        <v>19.73</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>-0.33</v>
+        <v>7.93</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>AARON</t>
+          <t>GREENPOWER</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>193.44</v>
+        <v>13.15</v>
       </c>
       <c r="C171" t="n">
-        <v>195.8</v>
+        <v>13.4</v>
       </c>
       <c r="D171" t="n">
-        <v>1.22</v>
+        <v>1.9</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>189.13</v>
+        <v>13</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-3.41</v>
+        <v>-2.99</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LIBAS</t>
+          <t>ABINFRA</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>11.66</v>
+        <v>19.43</v>
       </c>
       <c r="C172" t="n">
-        <v>11.8</v>
+        <v>19.8</v>
       </c>
       <c r="D172" t="n">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>11.62</v>
+        <v>19.07</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-1.53</v>
+        <v>-3.69</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>SKYGOLD</t>
+          <t>GOYALALUM</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>350.75</v>
+        <v>6.92</v>
       </c>
       <c r="C173" t="n">
-        <v>354.95</v>
+        <v>7.05</v>
       </c>
       <c r="D173" t="n">
-        <v>1.2</v>
+        <v>1.88</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>357.4</v>
+        <v>6.98</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>KILITCH</t>
+          <t>PREMIERPOL</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>362.55</v>
+        <v>48.98</v>
       </c>
       <c r="C174" t="n">
-        <v>366.9</v>
+        <v>49.9</v>
       </c>
       <c r="D174" t="n">
-        <v>1.2</v>
+        <v>1.88</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>363.65</v>
+        <v>45.5</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-0.89</v>
+        <v>-8.82</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>DELPHIFX</t>
+          <t>VIESL</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>212.47</v>
+        <v>295.75</v>
       </c>
       <c r="C175" t="n">
-        <v>215</v>
+        <v>301.3</v>
       </c>
       <c r="D175" t="n">
-        <v>1.19</v>
+        <v>1.88</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>215.52</v>
+        <v>295</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>0.24</v>
+        <v>-2.09</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>GTL</t>
+          <t>APOLSINHOT</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>8.470000000000001</v>
+        <v>1293.3</v>
       </c>
       <c r="C176" t="n">
-        <v>8.57</v>
+        <v>1317.5</v>
       </c>
       <c r="D176" t="n">
-        <v>1.18</v>
+        <v>1.87</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>8.49</v>
+        <v>1286.3</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-0.93</v>
+        <v>-2.37</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ZEELEARN</t>
+          <t>INDIGO</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>7.71</v>
+        <v>5843.5</v>
       </c>
       <c r="C177" t="n">
-        <v>7.8</v>
+        <v>5953</v>
       </c>
       <c r="D177" t="n">
-        <v>1.17</v>
+        <v>1.87</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>7.73</v>
+        <v>5888</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-0.9</v>
+        <v>-1.09</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SBGLP</t>
+          <t>MASTERTR</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>34.31</v>
+        <v>107.79</v>
       </c>
       <c r="C178" t="n">
-        <v>34.7</v>
+        <v>109.8</v>
       </c>
       <c r="D178" t="n">
-        <v>1.14</v>
+        <v>1.86</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>34</v>
+        <v>106.55</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-2.02</v>
+        <v>-2.96</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MAHAPEXLTD</t>
+          <t>APCL</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>93.25</v>
+        <v>127.63</v>
       </c>
       <c r="C179" t="n">
-        <v>94.3</v>
+        <v>130</v>
       </c>
       <c r="D179" t="n">
-        <v>1.13</v>
+        <v>1.86</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>94.27</v>
+        <v>129.99</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-0.03</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>WALCHANNAG</t>
+          <t>LOKESHMACH</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>155.14</v>
+        <v>170.82</v>
       </c>
       <c r="C180" t="n">
-        <v>156.9</v>
+        <v>174</v>
       </c>
       <c r="D180" t="n">
-        <v>1.13</v>
+        <v>1.86</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-1.21</v>
+        <v>-1.15</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>BIRLAMONEY</t>
+          <t>COMPUSOFT</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>158.13</v>
+        <v>17.3</v>
       </c>
       <c r="C181" t="n">
-        <v>159.9</v>
+        <v>17.62</v>
       </c>
       <c r="D181" t="n">
-        <v>1.12</v>
+        <v>1.85</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>157.26</v>
+        <v>17.51</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-1.65</v>
+        <v>-0.62</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SPECIALITY</t>
+          <t>LORDSCHLO</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>133.02</v>
+        <v>181.54</v>
       </c>
       <c r="C182" t="n">
-        <v>134.5</v>
+        <v>184.9</v>
       </c>
       <c r="D182" t="n">
-        <v>1.11</v>
+        <v>1.85</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>132.23</v>
+        <v>175.91</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-1.69</v>
+        <v>-4.86</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>VLSFINANCE</t>
+          <t>TPHQ</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>263.09</v>
+        <v>0.54</v>
       </c>
       <c r="C183" t="n">
-        <v>266</v>
+        <v>0.55</v>
       </c>
       <c r="D183" t="n">
-        <v>1.11</v>
+        <v>1.85</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>263</v>
+        <v>0.55</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>-1.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SERVOTECH</t>
+          <t>TREL</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>97.52</v>
+        <v>26.7</v>
       </c>
       <c r="C184" t="n">
-        <v>98.59999999999999</v>
+        <v>27.19</v>
       </c>
       <c r="D184" t="n">
-        <v>1.11</v>
+        <v>1.84</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>96.2</v>
+        <v>26.82</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-2.43</v>
+        <v>-1.36</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>DIVINEHIRA</t>
+          <t>SMLT</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>178.05</v>
+        <v>98</v>
       </c>
       <c r="C185" t="n">
-        <v>180</v>
+        <v>99.8</v>
       </c>
       <c r="D185" t="n">
-        <v>1.1</v>
+        <v>1.84</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>184</v>
+        <v>99.27</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>2.22</v>
+        <v>-0.53</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>HDIL</t>
+          <t>STLTECH</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>2.74</v>
+        <v>106.06</v>
       </c>
       <c r="C186" t="n">
-        <v>2.77</v>
+        <v>107.99</v>
       </c>
       <c r="D186" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>2.74</v>
+        <v>106.71</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-1.08</v>
+        <v>-1.19</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>VISHWARAJ</t>
+          <t>TASTYBITE</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>7.32</v>
+        <v>8318.5</v>
       </c>
       <c r="C187" t="n">
-        <v>7.4</v>
+        <v>8470</v>
       </c>
       <c r="D187" t="n">
-        <v>1.09</v>
+        <v>1.82</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>7.29</v>
+        <v>8383.5</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-1.49</v>
+        <v>-1.02</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SUNFLAG</t>
+          <t>ATAM</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>244.5</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="C188" t="n">
-        <v>247.15</v>
+        <v>88.48</v>
       </c>
       <c r="D188" t="n">
-        <v>1.08</v>
+        <v>1.82</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>250.2</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>1.23</v>
+        <v>-2.35</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>SHREEJISPG</t>
+          <t>HINDCON</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>300.75</v>
+        <v>30.14</v>
       </c>
       <c r="C189" t="n">
-        <v>304</v>
+        <v>30.69</v>
       </c>
       <c r="D189" t="n">
-        <v>1.08</v>
+        <v>1.82</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>299.25</v>
+        <v>29.81</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-1.56</v>
+        <v>-2.87</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>RTNPOWER</t>
+          <t>MWL</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>10.25</v>
+        <v>250.43</v>
       </c>
       <c r="C190" t="n">
-        <v>10.36</v>
+        <v>255</v>
       </c>
       <c r="D190" t="n">
-        <v>1.07</v>
+        <v>1.82</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>10.09</v>
+        <v>247.89</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-2.61</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>STEELCITY</t>
+          <t>RELTD</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>95.65000000000001</v>
+        <v>163.04</v>
       </c>
       <c r="C191" t="n">
-        <v>96.67</v>
+        <v>165.99</v>
       </c>
       <c r="D191" t="n">
-        <v>1.07</v>
+        <v>1.81</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>95.98</v>
+        <v>161.93</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-0.71</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>HYBRIDFIN</t>
+          <t>ZODIAC</t>
         </is>
       </c>
       <c r="B192" t="n">
-        <v>21.76</v>
+        <v>353.55</v>
       </c>
       <c r="C192" t="n">
-        <v>21.99</v>
+        <v>359.9</v>
       </c>
       <c r="D192" t="n">
-        <v>1.06</v>
+        <v>1.8</v>
       </c>
       <c r="E192" t="b">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>20.88</v>
+        <v>354.7</v>
       </c>
       <c r="G192" t="inlineStr"/>
       <c r="H192" t="n">
-        <v>-5.05</v>
+        <v>-1.44</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PYRAMID</t>
+          <t>VMARCIND</t>
         </is>
       </c>
       <c r="B193" t="n">
-        <v>164.26</v>
+        <v>742.75</v>
       </c>
       <c r="C193" t="n">
-        <v>166</v>
+        <v>756</v>
       </c>
       <c r="D193" t="n">
-        <v>1.06</v>
+        <v>1.78</v>
       </c>
       <c r="E193" t="b">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>164.93</v>
+        <v>739.95</v>
       </c>
       <c r="G193" t="inlineStr"/>
       <c r="H193" t="n">
-        <v>-0.64</v>
+        <v>-2.12</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>VARDMNPOLY</t>
+          <t>PPAP</t>
         </is>
       </c>
       <c r="B194" t="n">
-        <v>6.67</v>
+        <v>235.3</v>
       </c>
       <c r="C194" t="n">
-        <v>6.74</v>
+        <v>239.5</v>
       </c>
       <c r="D194" t="n">
-        <v>1.05</v>
+        <v>1.78</v>
       </c>
       <c r="E194" t="b">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>6.75</v>
+        <v>229.2</v>
       </c>
       <c r="G194" t="inlineStr"/>
       <c r="H194" t="n">
-        <v>0.15</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>RAMCOIND</t>
+          <t>BASML</t>
         </is>
       </c>
       <c r="B195" t="n">
-        <v>324.6</v>
+        <v>28.84</v>
       </c>
       <c r="C195" t="n">
-        <v>328</v>
+        <v>29.35</v>
       </c>
       <c r="D195" t="n">
-        <v>1.05</v>
+        <v>1.77</v>
       </c>
       <c r="E195" t="b">
         <v>0</v>
       </c>
       <c r="F195" t="n">
-        <v>326.4</v>
+        <v>27.91</v>
       </c>
       <c r="G195" t="inlineStr"/>
       <c r="H195" t="n">
-        <v>-0.49</v>
+        <v>-4.91</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>ABINFRA</t>
+          <t>BANSALWIRE</t>
         </is>
       </c>
       <c r="B196" t="n">
-        <v>20.21</v>
+        <v>319.4</v>
       </c>
       <c r="C196" t="n">
-        <v>20.42</v>
+        <v>325</v>
       </c>
       <c r="D196" t="n">
-        <v>1.04</v>
+        <v>1.75</v>
       </c>
       <c r="E196" t="b">
         <v>0</v>
       </c>
       <c r="F196" t="n">
-        <v>19.91</v>
+        <v>316</v>
       </c>
       <c r="G196" t="inlineStr"/>
       <c r="H196" t="n">
-        <v>-2.5</v>
+        <v>-2.77</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>SHANKARA</t>
+          <t>SELMC</t>
         </is>
       </c>
       <c r="B197" t="n">
-        <v>120.66</v>
+        <v>29.68</v>
       </c>
       <c r="C197" t="n">
-        <v>121.9</v>
+        <v>30.2</v>
       </c>
       <c r="D197" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="E197" t="b">
         <v>0</v>
       </c>
       <c r="F197" t="n">
-        <v>118.86</v>
+        <v>30.19</v>
       </c>
       <c r="G197" t="inlineStr"/>
       <c r="H197" t="n">
-        <v>-2.49</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>PILITA</t>
+          <t>AVG</t>
         </is>
       </c>
       <c r="B198" t="n">
-        <v>11.61</v>
+        <v>198.52</v>
       </c>
       <c r="C198" t="n">
-        <v>11.73</v>
+        <v>202</v>
       </c>
       <c r="D198" t="n">
-        <v>1.03</v>
+        <v>1.75</v>
       </c>
       <c r="E198" t="b">
         <v>0</v>
       </c>
       <c r="F198" t="n">
-        <v>11.76</v>
+        <v>199</v>
       </c>
       <c r="G198" t="inlineStr"/>
       <c r="H198" t="n">
-        <v>0.26</v>
+        <v>-1.49</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>TVTODAY</t>
+          <t>NURECA</t>
         </is>
       </c>
       <c r="B199" t="n">
-        <v>138.55</v>
+        <v>254.9</v>
       </c>
       <c r="C199" t="n">
-        <v>139.98</v>
+        <v>259.3</v>
       </c>
       <c r="D199" t="n">
-        <v>1.03</v>
+        <v>1.73</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>140.95</v>
+        <v>256.95</v>
       </c>
       <c r="G199" t="inlineStr"/>
       <c r="H199" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.91</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>DEVIT</t>
+          <t>SIGMA</t>
         </is>
       </c>
       <c r="B200" t="n">
-        <v>42.71</v>
+        <v>50.63</v>
       </c>
       <c r="C200" t="n">
-        <v>43.15</v>
+        <v>51.5</v>
       </c>
       <c r="D200" t="n">
-        <v>1.03</v>
+        <v>1.72</v>
       </c>
       <c r="E200" t="b">
         <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>42.02</v>
+        <v>50.5</v>
       </c>
       <c r="G200" t="inlineStr"/>
       <c r="H200" t="n">
-        <v>-2.62</v>
+        <v>-1.94</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>PENINLAND</t>
+          <t>LINC</t>
         </is>
       </c>
       <c r="B201" t="n">
-        <v>30.28</v>
+        <v>121.52</v>
       </c>
       <c r="C201" t="n">
-        <v>30.59</v>
+        <v>123.6</v>
       </c>
       <c r="D201" t="n">
-        <v>1.02</v>
+        <v>1.71</v>
       </c>
       <c r="E201" t="b">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>30.22</v>
+        <v>121.67</v>
       </c>
       <c r="G201" t="inlineStr"/>
       <c r="H201" t="n">
-        <v>-1.21</v>
+        <v>-1.56</v>
       </c>
     </row>
   </sheetData>

--- a/data/trending_momentum_stocks.xlsx
+++ b/data/trending_momentum_stocks.xlsx
@@ -478,326 +478,326 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>VLSFINANCE</t>
+          <t>ATL-RE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>263.78</v>
+        <v>6.2</v>
       </c>
       <c r="C2" t="n">
-        <v>305</v>
+        <v>6.99</v>
       </c>
       <c r="D2" t="n">
-        <v>15.63</v>
+        <v>12.74</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>306</v>
+        <v>5.51</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>0.33</v>
+        <v>-21.17</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>VIJIFIN</t>
+          <t>JETFREIGHT</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.95</v>
+        <v>17.42</v>
       </c>
       <c r="C3" t="n">
-        <v>3.19</v>
+        <v>19.5</v>
       </c>
       <c r="D3" t="n">
-        <v>8.140000000000001</v>
+        <v>11.94</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>3.14</v>
+        <v>18.82</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="n">
-        <v>-1.57</v>
+        <v>-3.49</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GTECJAINX</t>
+          <t>NIRAJ</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.33</v>
+        <v>35.57</v>
       </c>
       <c r="C4" t="n">
-        <v>26.2</v>
+        <v>39.12</v>
       </c>
       <c r="D4" t="n">
-        <v>7.69</v>
+        <v>9.98</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.46</v>
+        <v>37.97</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>-10.46</v>
+        <v>-2.94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DNAMEDIA</t>
+          <t>MAXPOSURE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.98</v>
+        <v>48.25</v>
       </c>
       <c r="C5" t="n">
-        <v>4.25</v>
+        <v>51.95</v>
       </c>
       <c r="D5" t="n">
-        <v>6.78</v>
+        <v>7.67</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>4.15</v>
+        <v>50.5</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>-2.35</v>
+        <v>-2.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TTL</t>
+          <t>CROWN</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.34</v>
+        <v>133.1</v>
       </c>
       <c r="C6" t="n">
-        <v>9.960000000000001</v>
+        <v>143</v>
       </c>
       <c r="D6" t="n">
-        <v>6.64</v>
+        <v>7.44</v>
       </c>
       <c r="E6" t="b">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>9.49</v>
+        <v>149</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>-4.72</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SUPERHOUSE</t>
+          <t>RACE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.89</v>
+        <v>153.71</v>
       </c>
       <c r="C7" t="n">
-        <v>167.84</v>
+        <v>165</v>
       </c>
       <c r="D7" t="n">
-        <v>5.63</v>
+        <v>7.35</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162</v>
+        <v>156.97</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="n">
-        <v>-3.48</v>
+        <v>-4.87</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RKEC</t>
+          <t>SUMIT</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52.15</v>
+        <v>71.88</v>
       </c>
       <c r="C8" t="n">
-        <v>55</v>
+        <v>76.2</v>
       </c>
       <c r="D8" t="n">
-        <v>5.47</v>
+        <v>6.01</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>58.65</v>
+        <v>72.58</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>6.64</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>KOTARISUG</t>
+          <t>RAJSREESUG</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28.85</v>
+        <v>36.79</v>
       </c>
       <c r="C9" t="n">
-        <v>30.3</v>
+        <v>38.99</v>
       </c>
       <c r="D9" t="n">
-        <v>5.03</v>
+        <v>5.98</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>28.69</v>
+        <v>37</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>-5.31</v>
+        <v>-5.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GUJRAFFIA</t>
+          <t>SVPGLOB</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>49.83</v>
+        <v>3.96</v>
       </c>
       <c r="C10" t="n">
-        <v>52.32</v>
+        <v>4.19</v>
       </c>
       <c r="D10" t="n">
-        <v>5</v>
+        <v>5.81</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>52.32</v>
+        <v>4.11</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>NDLVENTURE</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>89.86</v>
+        <v>9.25</v>
       </c>
       <c r="C11" t="n">
-        <v>94.34999999999999</v>
+        <v>9.75</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>5.41</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>94.34999999999999</v>
+        <v>9.17</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-5.95</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SABTNL</t>
+          <t>DCMFINSERV</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1251.75</v>
+        <v>5.32</v>
       </c>
       <c r="C12" t="n">
-        <v>1314.3</v>
+        <v>5.6</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>5.26</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>1314.3</v>
+        <v>5.58</v>
       </c>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SWANDEF</t>
+          <t>ANIKINDS</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1036.05</v>
+        <v>66.16</v>
       </c>
       <c r="C13" t="n">
-        <v>1087.85</v>
+        <v>69.48999999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>5.03</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>1087.85</v>
+        <v>68.01000000000001</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SICALLOG</t>
+          <t>FISCHER</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.63</v>
+        <v>43.01</v>
       </c>
       <c r="C14" t="n">
-        <v>93.06</v>
+        <v>45.16</v>
       </c>
       <c r="D14" t="n">
         <v>5</v>
@@ -806,24 +806,24 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>93.06</v>
+        <v>44.6</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>EASTSILK</t>
+          <t>SABTNL</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>77.20999999999999</v>
+        <v>1314.3</v>
       </c>
       <c r="C15" t="n">
-        <v>81.06999999999999</v>
+        <v>1380</v>
       </c>
       <c r="D15" t="n">
         <v>5</v>
@@ -832,33 +832,33 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>81.06999999999999</v>
+        <v>1323.1</v>
       </c>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-4.12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>FISCHER</t>
+          <t>UNIHEALTH</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>40.97</v>
+        <v>337.45</v>
       </c>
       <c r="C16" t="n">
-        <v>43.01</v>
+        <v>354.3</v>
       </c>
       <c r="D16" t="n">
-        <v>4.98</v>
+        <v>4.99</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>43.01</v>
+        <v>354.3</v>
       </c>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="n">
@@ -868,23 +868,23 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FLEXITUFF</t>
+          <t>NDLVENTURE</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>13.09</v>
+        <v>94.34999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>13.74</v>
+        <v>99.06</v>
       </c>
       <c r="D17" t="n">
-        <v>4.97</v>
+        <v>4.99</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>13.74</v>
+        <v>99.06</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
@@ -894,40 +894,40 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DYNAMIC</t>
+          <t>SECURKLOUD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>113.95</v>
+        <v>28.77</v>
       </c>
       <c r="C18" t="n">
-        <v>119.6</v>
+        <v>30.2</v>
       </c>
       <c r="D18" t="n">
-        <v>4.96</v>
+        <v>4.97</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>119.6</v>
+        <v>28</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-7.28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PKTEA</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>774.75</v>
+        <v>74.66</v>
       </c>
       <c r="C19" t="n">
-        <v>813</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="D19" t="n">
         <v>4.94</v>
@@ -936,163 +936,163 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>790</v>
+        <v>77</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>-2.83</v>
+        <v>-1.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CMICABLES</t>
+          <t>AUSOMENT</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.29</v>
+        <v>107.6</v>
       </c>
       <c r="C20" t="n">
-        <v>4.5</v>
+        <v>112.9</v>
       </c>
       <c r="D20" t="n">
-        <v>4.9</v>
+        <v>4.93</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>4.5</v>
+        <v>107.01</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-5.22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SHYAMMETL</t>
+          <t>KOTHARIPRO</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>826.2</v>
+        <v>79.15000000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>866.7</v>
+        <v>83</v>
       </c>
       <c r="D21" t="n">
-        <v>4.9</v>
+        <v>4.86</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>850.7</v>
+        <v>82.2</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>-1.85</v>
+        <v>-0.96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SUPREMEINF</t>
+          <t>SILINV</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>87.56</v>
+        <v>536.05</v>
       </c>
       <c r="C22" t="n">
-        <v>91.84999999999999</v>
+        <v>562</v>
       </c>
       <c r="D22" t="n">
-        <v>4.9</v>
+        <v>4.84</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>91.89</v>
+        <v>550.05</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>0.04</v>
+        <v>-2.13</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TECHD</t>
+          <t>DHARIWAL</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>728.35</v>
+        <v>320.85</v>
       </c>
       <c r="C23" t="n">
-        <v>764</v>
+        <v>336</v>
       </c>
       <c r="D23" t="n">
-        <v>4.89</v>
+        <v>4.72</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>757</v>
+        <v>336.85</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>-0.92</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SHUBHLAXMI</t>
+          <t>WELINV</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>21.55</v>
+        <v>1256.2</v>
       </c>
       <c r="C24" t="n">
-        <v>22.6</v>
+        <v>1315</v>
       </c>
       <c r="D24" t="n">
-        <v>4.87</v>
+        <v>4.68</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>22.6</v>
+        <v>1276.9</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>-2.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>REXPRO</t>
+          <t>VCL</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>62</v>
+        <v>1.52</v>
       </c>
       <c r="C25" t="n">
-        <v>65</v>
+        <v>1.59</v>
       </c>
       <c r="D25" t="n">
-        <v>4.84</v>
+        <v>4.61</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>65</v>
+        <v>1.59</v>
       </c>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
@@ -1102,517 +1102,517 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VCL</t>
+          <t>TTL</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.45</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>1.52</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>4.83</v>
+        <v>4.45</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.43</v>
+        <v>9.49</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>-5.92</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TRU</t>
+          <t>FLEXITUFF</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>8.4</v>
+        <v>13.74</v>
       </c>
       <c r="C27" t="n">
-        <v>8.800000000000001</v>
+        <v>14.35</v>
       </c>
       <c r="D27" t="n">
-        <v>4.76</v>
+        <v>4.44</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>8.75</v>
+        <v>14.35</v>
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>-0.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>EFACTOR</t>
+          <t>TRU</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>328.85</v>
+        <v>8.81</v>
       </c>
       <c r="C28" t="n">
-        <v>344.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>4.73</v>
+        <v>4.43</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>340</v>
+        <v>8.99</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>-1.28</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SHYAMCENT</t>
+          <t>GUJRAFFIA</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.87</v>
+        <v>52.32</v>
       </c>
       <c r="C29" t="n">
-        <v>5.1</v>
+        <v>54.6</v>
       </c>
       <c r="D29" t="n">
-        <v>4.72</v>
+        <v>4.36</v>
       </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.84</v>
+        <v>54.93</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>14.51</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SUPREMEENG</t>
+          <t>GREENLEAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>1.06</v>
+        <v>161.1</v>
       </c>
       <c r="C30" t="n">
-        <v>1.11</v>
+        <v>168</v>
       </c>
       <c r="D30" t="n">
-        <v>4.72</v>
+        <v>4.28</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>1.11</v>
+        <v>169</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BIKEWO</t>
+          <t>COMPINFO</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>21.25</v>
+        <v>1.87</v>
       </c>
       <c r="C31" t="n">
-        <v>22.25</v>
+        <v>1.95</v>
       </c>
       <c r="D31" t="n">
-        <v>4.71</v>
+        <v>4.28</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>21</v>
+        <v>1.95</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>-5.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HEADSUP</t>
+          <t>SABEVENTS</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>10.19</v>
+        <v>7.03</v>
       </c>
       <c r="C32" t="n">
-        <v>10.67</v>
+        <v>7.33</v>
       </c>
       <c r="D32" t="n">
-        <v>4.71</v>
+        <v>4.27</v>
       </c>
       <c r="E32" t="b">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>10.2</v>
+        <v>7.38</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="n">
-        <v>-4.4</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BGRENERGY</t>
+          <t>SELMC</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>424.05</v>
+        <v>29.71</v>
       </c>
       <c r="C33" t="n">
-        <v>443.65</v>
+        <v>30.98</v>
       </c>
       <c r="D33" t="n">
-        <v>4.62</v>
+        <v>4.27</v>
       </c>
       <c r="E33" t="b">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>430</v>
+        <v>30.95</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>-3.08</v>
+        <v>-0.1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>TFL</t>
+          <t>LANCORHOL</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>14.32</v>
+        <v>27.72</v>
       </c>
       <c r="C34" t="n">
-        <v>14.98</v>
+        <v>28.9</v>
       </c>
       <c r="D34" t="n">
-        <v>4.61</v>
+        <v>4.26</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>13.88</v>
+        <v>28.4</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="n">
-        <v>-7.34</v>
+        <v>-1.73</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SECURKLOUD</t>
+          <t>NKIND</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>31.08</v>
+        <v>67.16</v>
       </c>
       <c r="C35" t="n">
-        <v>32.5</v>
+        <v>70</v>
       </c>
       <c r="D35" t="n">
-        <v>4.57</v>
+        <v>4.23</v>
       </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>30.35</v>
+        <v>70</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>-6.62</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SHRIAHIMSA</t>
+          <t>AFFORDABLE</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>261.1</v>
+        <v>211</v>
       </c>
       <c r="C36" t="n">
-        <v>273</v>
+        <v>219.7</v>
       </c>
       <c r="D36" t="n">
-        <v>4.56</v>
+        <v>4.12</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>258</v>
+        <v>212.35</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>-5.49</v>
+        <v>-3.35</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TGL</t>
+          <t>BANKA</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>63.5</v>
+        <v>73.03</v>
       </c>
       <c r="C37" t="n">
-        <v>66.34999999999999</v>
+        <v>76</v>
       </c>
       <c r="D37" t="n">
-        <v>4.49</v>
+        <v>4.07</v>
       </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>60.35</v>
+        <v>74.86</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>-9.039999999999999</v>
+        <v>-1.5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SRPL</t>
+          <t>PRUDMOULI</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.67</v>
+        <v>24.51</v>
       </c>
       <c r="C38" t="n">
-        <v>0.7</v>
+        <v>25.48</v>
       </c>
       <c r="D38" t="n">
-        <v>4.48</v>
+        <v>3.96</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.68</v>
+        <v>24.67</v>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>-2.86</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AHCL</t>
+          <t>LYKALABS</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>155.06</v>
+        <v>80.61</v>
       </c>
       <c r="C39" t="n">
-        <v>162</v>
+        <v>83.8</v>
       </c>
       <c r="D39" t="n">
-        <v>4.48</v>
+        <v>3.96</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>156.99</v>
+        <v>81.89</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>-3.09</v>
+        <v>-2.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HYBRIDFIN</t>
+          <t>ADROITINFO</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>21.3</v>
+        <v>10.36</v>
       </c>
       <c r="C40" t="n">
-        <v>22.25</v>
+        <v>10.77</v>
       </c>
       <c r="D40" t="n">
-        <v>4.46</v>
+        <v>3.96</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>21.7</v>
+        <v>10.64</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>-2.47</v>
+        <v>-1.21</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>LCCINFOTEC</t>
+          <t>CHEMBONDCH</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>4.52</v>
+        <v>153</v>
       </c>
       <c r="C41" t="n">
-        <v>4.72</v>
+        <v>159</v>
       </c>
       <c r="D41" t="n">
-        <v>4.42</v>
+        <v>3.92</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>4.74</v>
+        <v>148.99</v>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>0.42</v>
+        <v>-6.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>URAVIDEF</t>
+          <t>PAVNAIND</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>198.26</v>
+        <v>30.8</v>
       </c>
       <c r="C42" t="n">
-        <v>207</v>
+        <v>32</v>
       </c>
       <c r="D42" t="n">
-        <v>4.41</v>
+        <v>3.9</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>194.08</v>
+        <v>32.55</v>
       </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>-6.24</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>DHARIWAL</t>
+          <t>ZEELEARN</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>305.6</v>
+        <v>7.61</v>
       </c>
       <c r="C43" t="n">
-        <v>319</v>
+        <v>7.9</v>
       </c>
       <c r="D43" t="n">
-        <v>4.38</v>
+        <v>3.81</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>319</v>
+        <v>7.63</v>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-3.42</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>IMPEXFERRO</t>
+          <t>OSWALAGRO</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1.83</v>
+        <v>61.6</v>
       </c>
       <c r="C44" t="n">
-        <v>1.91</v>
+        <v>63.95</v>
       </c>
       <c r="D44" t="n">
-        <v>4.37</v>
+        <v>3.81</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>1.91</v>
+        <v>62.13</v>
       </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-2.85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DAMODARIND</t>
+          <t>ZENITHEXPO</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>32.04</v>
+        <v>242.92</v>
       </c>
       <c r="C45" t="n">
-        <v>33.44</v>
+        <v>252</v>
       </c>
       <c r="D45" t="n">
-        <v>4.37</v>
+        <v>3.74</v>
       </c>
       <c r="E45" t="b">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>33.44</v>
+        <v>252</v>
       </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
@@ -1622,4053 +1622,4045 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>TIJARIA</t>
+          <t>ARVEE</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>6.42</v>
+        <v>162</v>
       </c>
       <c r="C46" t="n">
-        <v>6.7</v>
+        <v>168</v>
       </c>
       <c r="D46" t="n">
-        <v>4.36</v>
+        <v>3.7</v>
       </c>
       <c r="E46" t="b">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>6.63</v>
+        <v>168</v>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>-1.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>AIROLAM</t>
+          <t>FLFL</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>103.51</v>
+        <v>1.37</v>
       </c>
       <c r="C47" t="n">
-        <v>108</v>
+        <v>1.42</v>
       </c>
       <c r="D47" t="n">
-        <v>4.34</v>
+        <v>3.65</v>
       </c>
       <c r="E47" t="b">
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>103.87</v>
+        <v>1.42</v>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>-3.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SABAR</t>
+          <t>GSS</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>6.95</v>
+        <v>19.83</v>
       </c>
       <c r="C48" t="n">
-        <v>7.25</v>
+        <v>20.55</v>
       </c>
       <c r="D48" t="n">
-        <v>4.32</v>
+        <v>3.63</v>
       </c>
       <c r="E48" t="b">
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>7.25</v>
+        <v>20.14</v>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FORCAS</t>
+          <t>OWAIS</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>131.05</v>
+        <v>303.95</v>
       </c>
       <c r="C49" t="n">
-        <v>136.55</v>
+        <v>314.95</v>
       </c>
       <c r="D49" t="n">
-        <v>4.2</v>
+        <v>3.62</v>
       </c>
       <c r="E49" t="b">
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>135.75</v>
+        <v>304.95</v>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>-0.59</v>
+        <v>-3.18</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SHAILY</t>
+          <t>SANWARIA</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2477.4</v>
+        <v>0.29</v>
       </c>
       <c r="C50" t="n">
-        <v>2580.9</v>
+        <v>0.3</v>
       </c>
       <c r="D50" t="n">
-        <v>4.18</v>
+        <v>3.45</v>
       </c>
       <c r="E50" t="b">
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>2524</v>
+        <v>0.3</v>
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="n">
-        <v>-2.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TREEHOUSE</t>
+          <t>RICOAUTO</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>7.89</v>
+        <v>105.38</v>
       </c>
       <c r="C51" t="n">
-        <v>8.220000000000001</v>
+        <v>109</v>
       </c>
       <c r="D51" t="n">
-        <v>4.18</v>
+        <v>3.44</v>
       </c>
       <c r="E51" t="b">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>7.94</v>
+        <v>104.75</v>
       </c>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>-3.41</v>
+        <v>-3.9</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ASAHISONG</t>
+          <t>ISFT</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>258.2</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="C52" t="n">
-        <v>269</v>
+        <v>89</v>
       </c>
       <c r="D52" t="n">
-        <v>4.18</v>
+        <v>3.37</v>
       </c>
       <c r="E52" t="b">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>261.5</v>
+        <v>86.09</v>
       </c>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="n">
-        <v>-2.79</v>
+        <v>-3.27</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>DBSTOCKBRO</t>
+          <t>TREEHOUSE</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>24.71</v>
+        <v>7.74</v>
       </c>
       <c r="C53" t="n">
-        <v>25.74</v>
+        <v>8</v>
       </c>
       <c r="D53" t="n">
-        <v>4.17</v>
+        <v>3.36</v>
       </c>
       <c r="E53" t="b">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>25.19</v>
+        <v>7.62</v>
       </c>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>-2.14</v>
+        <v>-4.75</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SWARAJ</t>
+          <t>RULKA</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>233.35</v>
+        <v>107.35</v>
       </c>
       <c r="C54" t="n">
-        <v>243</v>
+        <v>110.95</v>
       </c>
       <c r="D54" t="n">
-        <v>4.14</v>
+        <v>3.35</v>
       </c>
       <c r="E54" t="b">
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>248</v>
+        <v>108.5</v>
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>2.06</v>
+        <v>-2.21</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ARCHIDPLY</t>
+          <t>DCI</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>93.15000000000001</v>
+        <v>241.85</v>
       </c>
       <c r="C55" t="n">
-        <v>97</v>
+        <v>249.95</v>
       </c>
       <c r="D55" t="n">
-        <v>4.13</v>
+        <v>3.35</v>
       </c>
       <c r="E55" t="b">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>93.28</v>
+        <v>244.75</v>
       </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
-        <v>-3.84</v>
+        <v>-2.08</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>VDEAL</t>
+          <t>BVCL</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>225.75</v>
+        <v>42.48</v>
       </c>
       <c r="C56" t="n">
-        <v>234.9</v>
+        <v>43.9</v>
       </c>
       <c r="D56" t="n">
-        <v>4.05</v>
+        <v>3.34</v>
       </c>
       <c r="E56" t="b">
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>235.95</v>
+        <v>43.83</v>
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>0.45</v>
+        <v>-0.16</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MORARJEE</t>
+          <t>SBC</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>7.69</v>
+        <v>26.1</v>
       </c>
       <c r="C57" t="n">
-        <v>8</v>
+        <v>26.97</v>
       </c>
       <c r="D57" t="n">
-        <v>4.03</v>
+        <v>3.33</v>
       </c>
       <c r="E57" t="b">
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>8</v>
+        <v>25.87</v>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>-4.08</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SETUINFRA</t>
+          <t>KRISHIVAL</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.5</v>
+        <v>460.65</v>
       </c>
       <c r="C58" t="n">
-        <v>0.52</v>
+        <v>476</v>
       </c>
       <c r="D58" t="n">
-        <v>4</v>
+        <v>3.33</v>
       </c>
       <c r="E58" t="b">
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5</v>
+        <v>466.95</v>
       </c>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>-3.85</v>
+        <v>-1.9</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>FINKURVE</t>
+          <t>PYRAMID</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>106.53</v>
+        <v>166.24</v>
       </c>
       <c r="C59" t="n">
-        <v>110.75</v>
+        <v>171.7</v>
       </c>
       <c r="D59" t="n">
-        <v>3.96</v>
+        <v>3.28</v>
       </c>
       <c r="E59" t="b">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>107.15</v>
+        <v>168.5</v>
       </c>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
-        <v>-3.25</v>
+        <v>-1.86</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>NINSYS</t>
+          <t>ORCHASP</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>432.85</v>
+        <v>2.75</v>
       </c>
       <c r="C60" t="n">
-        <v>449.95</v>
+        <v>2.84</v>
       </c>
       <c r="D60" t="n">
-        <v>3.95</v>
+        <v>3.27</v>
       </c>
       <c r="E60" t="b">
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>419</v>
+        <v>2.84</v>
       </c>
       <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>-6.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>TGBHOTELS</t>
+          <t>MARALOVER</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>10.48</v>
+        <v>45.92</v>
       </c>
       <c r="C61" t="n">
-        <v>10.89</v>
+        <v>47.4</v>
       </c>
       <c r="D61" t="n">
-        <v>3.91</v>
+        <v>3.22</v>
       </c>
       <c r="E61" t="b">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>10.79</v>
+        <v>47.28</v>
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="n">
-        <v>-0.92</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>ANKITMETAL</t>
+          <t>ANTGRAPHIC</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>1.79</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C62" t="n">
-        <v>1.86</v>
+        <v>0.97</v>
       </c>
       <c r="D62" t="n">
-        <v>3.91</v>
+        <v>3.19</v>
       </c>
       <c r="E62" t="b">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>1.79</v>
+        <v>0.99</v>
       </c>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="n">
-        <v>-3.76</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SHRENIK</t>
+          <t>GANGAFORGE</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.52</v>
+        <v>3.2</v>
       </c>
       <c r="C63" t="n">
-        <v>0.54</v>
+        <v>3.3</v>
       </c>
       <c r="D63" t="n">
-        <v>3.85</v>
+        <v>3.12</v>
       </c>
       <c r="E63" t="b">
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>0.53</v>
+        <v>3.2</v>
       </c>
       <c r="G63" t="inlineStr"/>
       <c r="H63" t="n">
-        <v>-1.85</v>
+        <v>-3.03</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VISHNU</t>
+          <t>AMDIND</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>480.85</v>
+        <v>53.34</v>
       </c>
       <c r="C64" t="n">
-        <v>499</v>
+        <v>55</v>
       </c>
       <c r="D64" t="n">
-        <v>3.77</v>
+        <v>3.11</v>
       </c>
       <c r="E64" t="b">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>494.7</v>
+        <v>54.36</v>
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="n">
-        <v>-0.86</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>MFML</t>
+          <t>NRL</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>26.87</v>
+        <v>61.62</v>
       </c>
       <c r="C65" t="n">
-        <v>27.88</v>
+        <v>63.5</v>
       </c>
       <c r="D65" t="n">
-        <v>3.76</v>
+        <v>3.05</v>
       </c>
       <c r="E65" t="b">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>27.76</v>
+        <v>62.49</v>
       </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="n">
-        <v>-0.43</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>NIRMAN</t>
+          <t>SETCO</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>62.65</v>
+        <v>15.47</v>
       </c>
       <c r="C66" t="n">
-        <v>65</v>
+        <v>15.94</v>
       </c>
       <c r="D66" t="n">
-        <v>3.75</v>
+        <v>3.04</v>
       </c>
       <c r="E66" t="b">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>59.55</v>
+        <v>15.28</v>
       </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="n">
-        <v>-8.380000000000001</v>
+        <v>-4.14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ASHIMASYN</t>
+          <t>DIACABS</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>19.52</v>
+        <v>140.75</v>
       </c>
       <c r="C67" t="n">
-        <v>20.25</v>
+        <v>145</v>
       </c>
       <c r="D67" t="n">
-        <v>3.74</v>
+        <v>3.02</v>
       </c>
       <c r="E67" t="b">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>19.22</v>
+        <v>141.6</v>
       </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="n">
-        <v>-5.09</v>
+        <v>-2.34</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BTML</t>
+          <t>NEXTMEDIA</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>8.58</v>
+        <v>6.07</v>
       </c>
       <c r="C68" t="n">
-        <v>8.9</v>
+        <v>6.25</v>
       </c>
       <c r="D68" t="n">
-        <v>3.73</v>
+        <v>2.97</v>
       </c>
       <c r="E68" t="b">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>8.699999999999999</v>
+        <v>5.87</v>
       </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="n">
-        <v>-2.25</v>
+        <v>-6.08</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>APEX</t>
+          <t>UNIVPHOTO</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>331.75</v>
+        <v>251.75</v>
       </c>
       <c r="C69" t="n">
-        <v>344.1</v>
+        <v>259.2</v>
       </c>
       <c r="D69" t="n">
-        <v>3.72</v>
+        <v>2.96</v>
       </c>
       <c r="E69" t="b">
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>317.52</v>
+        <v>251.95</v>
       </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="n">
-        <v>-7.72</v>
+        <v>-2.8</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>WANBURY</t>
+          <t>WEIZMANIND</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>229.5</v>
+        <v>105.83</v>
       </c>
       <c r="C70" t="n">
-        <v>238</v>
+        <v>108.95</v>
       </c>
       <c r="D70" t="n">
-        <v>3.7</v>
+        <v>2.95</v>
       </c>
       <c r="E70" t="b">
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>228.75</v>
+        <v>108.95</v>
       </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="n">
-        <v>-3.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>RVTH</t>
+          <t>MCLOUD</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>790.25</v>
+        <v>51.64</v>
       </c>
       <c r="C71" t="n">
-        <v>819</v>
+        <v>53.16</v>
       </c>
       <c r="D71" t="n">
-        <v>3.64</v>
+        <v>2.94</v>
       </c>
       <c r="E71" t="b">
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>795</v>
+        <v>50.11</v>
       </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="n">
-        <v>-2.93</v>
+        <v>-5.74</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>REDINGTON</t>
+          <t>ATLASCYCLE</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>284.8</v>
+        <v>93.25</v>
       </c>
       <c r="C72" t="n">
-        <v>295</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>3.58</v>
+        <v>2.84</v>
       </c>
       <c r="E72" t="b">
         <v>0</v>
       </c>
       <c r="F72" t="n">
-        <v>295.6</v>
+        <v>92</v>
       </c>
       <c r="G72" t="inlineStr"/>
       <c r="H72" t="n">
-        <v>0.2</v>
+        <v>-4.07</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HMAAGRO</t>
+          <t>BANARBEADS</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>31.77</v>
+        <v>132.27</v>
       </c>
       <c r="C73" t="n">
-        <v>32.9</v>
+        <v>136</v>
       </c>
       <c r="D73" t="n">
-        <v>3.56</v>
+        <v>2.82</v>
       </c>
       <c r="E73" t="b">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>31.9</v>
+        <v>133.46</v>
       </c>
       <c r="G73" t="inlineStr"/>
       <c r="H73" t="n">
-        <v>-3.04</v>
+        <v>-1.87</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MITCON</t>
+          <t>TINNARUBR</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>72.27</v>
+        <v>816.25</v>
       </c>
       <c r="C74" t="n">
-        <v>74.8</v>
+        <v>839</v>
       </c>
       <c r="D74" t="n">
-        <v>3.5</v>
+        <v>2.79</v>
       </c>
       <c r="E74" t="b">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>74.40000000000001</v>
+        <v>826.15</v>
       </c>
       <c r="G74" t="inlineStr"/>
       <c r="H74" t="n">
-        <v>-0.53</v>
+        <v>-1.53</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SANWARIA</t>
+          <t>PREMEXPLN</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.29</v>
+        <v>525</v>
       </c>
       <c r="C75" t="n">
-        <v>0.3</v>
+        <v>539.6</v>
       </c>
       <c r="D75" t="n">
-        <v>3.45</v>
+        <v>2.78</v>
       </c>
       <c r="E75" t="b">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.3</v>
+        <v>530.05</v>
       </c>
       <c r="G75" t="inlineStr"/>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>-1.77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>THOMASCOTT</t>
+          <t>RPPINFRA</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>378.4</v>
+        <v>104.7</v>
       </c>
       <c r="C76" t="n">
-        <v>390.95</v>
+        <v>107.6</v>
       </c>
       <c r="D76" t="n">
-        <v>3.32</v>
+        <v>2.77</v>
       </c>
       <c r="E76" t="b">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>375</v>
+        <v>103.99</v>
       </c>
       <c r="G76" t="inlineStr"/>
       <c r="H76" t="n">
-        <v>-4.08</v>
+        <v>-3.36</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PANSARI</t>
+          <t>SIGMA</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>311.6</v>
+        <v>51.9</v>
       </c>
       <c r="C77" t="n">
-        <v>321.95</v>
+        <v>53.33</v>
       </c>
       <c r="D77" t="n">
-        <v>3.32</v>
+        <v>2.76</v>
       </c>
       <c r="E77" t="b">
         <v>0</v>
       </c>
       <c r="F77" t="n">
-        <v>296.05</v>
+        <v>52.8</v>
       </c>
       <c r="G77" t="inlineStr"/>
       <c r="H77" t="n">
-        <v>-8.039999999999999</v>
+        <v>-0.99</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ANMOL</t>
+          <t>ENRIN</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>14.5</v>
+        <v>3162.9</v>
       </c>
       <c r="C78" t="n">
-        <v>14.98</v>
+        <v>3250</v>
       </c>
       <c r="D78" t="n">
-        <v>3.31</v>
+        <v>2.75</v>
       </c>
       <c r="E78" t="b">
         <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>14.51</v>
+        <v>3188</v>
       </c>
       <c r="G78" t="inlineStr"/>
       <c r="H78" t="n">
-        <v>-3.14</v>
+        <v>-1.91</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SHANTI</t>
+          <t>ORICONENT</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>9.390000000000001</v>
+        <v>56.65</v>
       </c>
       <c r="C79" t="n">
-        <v>9.699999999999999</v>
+        <v>58.2</v>
       </c>
       <c r="D79" t="n">
-        <v>3.3</v>
+        <v>2.74</v>
       </c>
       <c r="E79" t="b">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>9.43</v>
+        <v>56</v>
       </c>
       <c r="G79" t="inlineStr"/>
       <c r="H79" t="n">
-        <v>-2.78</v>
+        <v>-3.78</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DIGISPICE</t>
+          <t>SURYAROSNI</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>23.06</v>
+        <v>259.9</v>
       </c>
       <c r="C80" t="n">
-        <v>23.79</v>
+        <v>267</v>
       </c>
       <c r="D80" t="n">
-        <v>3.17</v>
+        <v>2.73</v>
       </c>
       <c r="E80" t="b">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>23.59</v>
+        <v>268.1</v>
       </c>
       <c r="G80" t="inlineStr"/>
       <c r="H80" t="n">
-        <v>-0.84</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>AKI</t>
+          <t>PRIMECAB</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>7.66</v>
+        <v>107.05</v>
       </c>
       <c r="C81" t="n">
-        <v>7.9</v>
+        <v>109.95</v>
       </c>
       <c r="D81" t="n">
-        <v>3.13</v>
+        <v>2.71</v>
       </c>
       <c r="E81" t="b">
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>7.51</v>
+        <v>109</v>
       </c>
       <c r="G81" t="inlineStr"/>
       <c r="H81" t="n">
-        <v>-4.94</v>
+        <v>-0.86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CURIS</t>
+          <t>AMCL</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>137.5</v>
+        <v>311.55</v>
       </c>
       <c r="C82" t="n">
-        <v>141.8</v>
+        <v>320</v>
       </c>
       <c r="D82" t="n">
-        <v>3.13</v>
+        <v>2.71</v>
       </c>
       <c r="E82" t="b">
         <v>0</v>
       </c>
       <c r="F82" t="n">
-        <v>134.1</v>
+        <v>320</v>
       </c>
       <c r="G82" t="inlineStr"/>
       <c r="H82" t="n">
-        <v>-5.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>NARMADA</t>
+          <t>HAVISHA</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>24</v>
+        <v>1.88</v>
       </c>
       <c r="C83" t="n">
-        <v>24.75</v>
+        <v>1.93</v>
       </c>
       <c r="D83" t="n">
-        <v>3.12</v>
+        <v>2.66</v>
       </c>
       <c r="E83" t="b">
         <v>0</v>
       </c>
       <c r="F83" t="n">
-        <v>23.95</v>
+        <v>1.88</v>
       </c>
       <c r="G83" t="inlineStr"/>
       <c r="H83" t="n">
-        <v>-3.23</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MANCREDIT</t>
+          <t>TCIFINANCE</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>176.49</v>
+        <v>11.01</v>
       </c>
       <c r="C84" t="n">
-        <v>182</v>
+        <v>11.3</v>
       </c>
       <c r="D84" t="n">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="E84" t="b">
         <v>0</v>
       </c>
       <c r="F84" t="n">
-        <v>176.08</v>
+        <v>11.16</v>
       </c>
       <c r="G84" t="inlineStr"/>
       <c r="H84" t="n">
-        <v>-3.25</v>
+        <v>-1.24</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>RELCHEMQ</t>
+          <t>BALAXI</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>144.01</v>
+        <v>36.77</v>
       </c>
       <c r="C85" t="n">
-        <v>148.49</v>
+        <v>37.72</v>
       </c>
       <c r="D85" t="n">
-        <v>3.11</v>
+        <v>2.58</v>
       </c>
       <c r="E85" t="b">
         <v>0</v>
       </c>
       <c r="F85" t="n">
-        <v>146.52</v>
+        <v>36.91</v>
       </c>
       <c r="G85" t="inlineStr"/>
       <c r="H85" t="n">
-        <v>-1.33</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>DCMSRIND</t>
+          <t>URAVIDEF</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>165.32</v>
+        <v>194.01</v>
       </c>
       <c r="C86" t="n">
-        <v>170.4</v>
+        <v>199</v>
       </c>
       <c r="D86" t="n">
-        <v>3.07</v>
+        <v>2.57</v>
       </c>
       <c r="E86" t="b">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>169.06</v>
+        <v>193.85</v>
       </c>
       <c r="G86" t="inlineStr"/>
       <c r="H86" t="n">
-        <v>-0.79</v>
+        <v>-2.59</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SANGINITA</t>
+          <t>BHARATSE</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>10.13</v>
+        <v>180.45</v>
       </c>
       <c r="C87" t="n">
-        <v>10.44</v>
+        <v>184.96</v>
       </c>
       <c r="D87" t="n">
-        <v>3.06</v>
+        <v>2.5</v>
       </c>
       <c r="E87" t="b">
         <v>0</v>
       </c>
       <c r="F87" t="n">
-        <v>10.3</v>
+        <v>178.94</v>
       </c>
       <c r="G87" t="inlineStr"/>
       <c r="H87" t="n">
-        <v>-1.34</v>
+        <v>-3.25</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HGINFRA</t>
+          <t>RBA</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>863.6</v>
+        <v>61.22</v>
       </c>
       <c r="C88" t="n">
-        <v>890</v>
+        <v>62.75</v>
       </c>
       <c r="D88" t="n">
-        <v>3.06</v>
+        <v>2.5</v>
       </c>
       <c r="E88" t="b">
         <v>0</v>
       </c>
       <c r="F88" t="n">
-        <v>894</v>
+        <v>64.56</v>
       </c>
       <c r="G88" t="inlineStr"/>
       <c r="H88" t="n">
-        <v>0.45</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>GKWLIMITED</t>
+          <t>SHANTI</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1698</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="C89" t="n">
-        <v>1750</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="D89" t="n">
-        <v>3.06</v>
+        <v>2.45</v>
       </c>
       <c r="E89" t="b">
         <v>0</v>
       </c>
       <c r="F89" t="n">
-        <v>1750</v>
+        <v>9.56</v>
       </c>
       <c r="G89" t="inlineStr"/>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BVCL</t>
+          <t>PDMJEPAPER</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>42.5</v>
+        <v>99.95</v>
       </c>
       <c r="C90" t="n">
-        <v>43.8</v>
+        <v>102.4</v>
       </c>
       <c r="D90" t="n">
-        <v>3.06</v>
+        <v>2.45</v>
       </c>
       <c r="E90" t="b">
         <v>0</v>
       </c>
       <c r="F90" t="n">
-        <v>43.35</v>
+        <v>100.53</v>
       </c>
       <c r="G90" t="inlineStr"/>
       <c r="H90" t="n">
-        <v>-1.03</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>RADIOCITY</t>
+          <t>FEL</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>6.88</v>
+        <v>0.41</v>
       </c>
       <c r="C91" t="n">
-        <v>7.09</v>
+        <v>0.42</v>
       </c>
       <c r="D91" t="n">
-        <v>3.05</v>
+        <v>2.44</v>
       </c>
       <c r="E91" t="b">
         <v>0</v>
       </c>
       <c r="F91" t="n">
-        <v>6.97</v>
+        <v>0.42</v>
       </c>
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="n">
-        <v>-1.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>OWAIS</t>
+          <t>VINDHYATEL</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>328.55</v>
+        <v>1527.9</v>
       </c>
       <c r="C92" t="n">
-        <v>338.55</v>
+        <v>1565</v>
       </c>
       <c r="D92" t="n">
-        <v>3.04</v>
+        <v>2.43</v>
       </c>
       <c r="E92" t="b">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>341.05</v>
+        <v>1524</v>
       </c>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="n">
-        <v>0.74</v>
+        <v>-2.62</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SABEVENTS</t>
+          <t>A2ZINFRA</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>6.7</v>
+        <v>15.62</v>
       </c>
       <c r="C93" t="n">
-        <v>6.9</v>
+        <v>16</v>
       </c>
       <c r="D93" t="n">
-        <v>2.99</v>
+        <v>2.43</v>
       </c>
       <c r="E93" t="b">
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>7.03</v>
+        <v>15.75</v>
       </c>
       <c r="G93" t="inlineStr"/>
       <c r="H93" t="n">
-        <v>1.88</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MMP</t>
+          <t>DELTAMAGNT</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>254.45</v>
+        <v>64.16</v>
       </c>
       <c r="C94" t="n">
-        <v>262</v>
+        <v>65.7</v>
       </c>
       <c r="D94" t="n">
-        <v>2.97</v>
+        <v>2.4</v>
       </c>
       <c r="E94" t="b">
         <v>0</v>
       </c>
       <c r="F94" t="n">
-        <v>259.9</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="G94" t="inlineStr"/>
       <c r="H94" t="n">
-        <v>-0.8</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>UYFINCORP</t>
+          <t>IL&amp;FSTRANS</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>14.79</v>
+        <v>2.95</v>
       </c>
       <c r="C95" t="n">
-        <v>15.23</v>
+        <v>3.02</v>
       </c>
       <c r="D95" t="n">
-        <v>2.97</v>
+        <v>2.37</v>
       </c>
       <c r="E95" t="b">
         <v>0</v>
       </c>
-      <c r="F95" t="n">
-        <v>15.05</v>
-      </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="n">
-        <v>-1.18</v>
-      </c>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SVPGLOB</t>
+          <t>VHLTD</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>3.73</v>
+        <v>129.49</v>
       </c>
       <c r="C96" t="n">
-        <v>3.84</v>
+        <v>132.5</v>
       </c>
       <c r="D96" t="n">
-        <v>2.95</v>
+        <v>2.32</v>
       </c>
       <c r="E96" t="b">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>3.8</v>
+        <v>129.8</v>
       </c>
       <c r="G96" t="inlineStr"/>
       <c r="H96" t="n">
-        <v>-1.04</v>
+        <v>-2.04</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>GOLDENTOBC</t>
+          <t>TAKE</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>34.02</v>
+        <v>30.29</v>
       </c>
       <c r="C97" t="n">
-        <v>35</v>
+        <v>30.99</v>
       </c>
       <c r="D97" t="n">
-        <v>2.88</v>
+        <v>2.31</v>
       </c>
       <c r="E97" t="b">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>34.39</v>
+        <v>30.5</v>
       </c>
       <c r="G97" t="inlineStr"/>
       <c r="H97" t="n">
-        <v>-1.74</v>
+        <v>-1.58</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>KESORAMIND</t>
+          <t>DPEL</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>5.3</v>
+        <v>284</v>
       </c>
       <c r="C98" t="n">
-        <v>5.45</v>
+        <v>290.5</v>
       </c>
       <c r="D98" t="n">
-        <v>2.83</v>
+        <v>2.29</v>
       </c>
       <c r="E98" t="b">
         <v>0</v>
       </c>
       <c r="F98" t="n">
-        <v>5.21</v>
+        <v>292</v>
       </c>
       <c r="G98" t="inlineStr"/>
       <c r="H98" t="n">
-        <v>-4.4</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>UNIHEALTH</t>
+          <t>ROLTA</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>321.4</v>
+        <v>1.76</v>
       </c>
       <c r="C99" t="n">
-        <v>330.5</v>
+        <v>1.8</v>
       </c>
       <c r="D99" t="n">
-        <v>2.83</v>
+        <v>2.27</v>
       </c>
       <c r="E99" t="b">
         <v>0</v>
       </c>
       <c r="F99" t="n">
-        <v>337.45</v>
+        <v>1.76</v>
       </c>
       <c r="G99" t="inlineStr"/>
       <c r="H99" t="n">
-        <v>2.1</v>
+        <v>-2.22</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ALPSINDUS</t>
+          <t>FINKURVE</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>1.77</v>
+        <v>106.4</v>
       </c>
       <c r="C100" t="n">
-        <v>1.82</v>
+        <v>108.8</v>
       </c>
       <c r="D100" t="n">
-        <v>2.82</v>
+        <v>2.26</v>
       </c>
       <c r="E100" t="b">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>1.76</v>
+        <v>106</v>
       </c>
       <c r="G100" t="inlineStr"/>
       <c r="H100" t="n">
-        <v>-3.3</v>
+        <v>-2.57</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>STYLAMIND</t>
+          <t>SMSLIFE</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>1994.4</v>
+        <v>1353.5</v>
       </c>
       <c r="C101" t="n">
-        <v>2050</v>
+        <v>1384</v>
       </c>
       <c r="D101" t="n">
-        <v>2.79</v>
+        <v>2.25</v>
       </c>
       <c r="E101" t="b">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>2047</v>
+        <v>1351.3</v>
       </c>
       <c r="G101" t="inlineStr"/>
       <c r="H101" t="n">
-        <v>-0.15</v>
+        <v>-2.36</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>VHLTD</t>
+          <t>STYL</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>123.46</v>
+        <v>303.25</v>
       </c>
       <c r="C102" t="n">
-        <v>126.9</v>
+        <v>310</v>
       </c>
       <c r="D102" t="n">
-        <v>2.79</v>
+        <v>2.23</v>
       </c>
       <c r="E102" t="b">
         <v>0</v>
       </c>
       <c r="F102" t="n">
-        <v>124.8</v>
+        <v>298.45</v>
       </c>
       <c r="G102" t="inlineStr"/>
       <c r="H102" t="n">
-        <v>-1.65</v>
+        <v>-3.73</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>KTKBANK</t>
+          <t>RHFL</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>188.76</v>
+        <v>3.15</v>
       </c>
       <c r="C103" t="n">
-        <v>194</v>
+        <v>3.22</v>
       </c>
       <c r="D103" t="n">
-        <v>2.78</v>
+        <v>2.22</v>
       </c>
       <c r="E103" t="b">
         <v>0</v>
       </c>
       <c r="F103" t="n">
-        <v>201.28</v>
+        <v>3.19</v>
       </c>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="n">
-        <v>3.75</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BLBLIMITED</t>
+          <t>LINC</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>16.25</v>
+        <v>116.02</v>
       </c>
       <c r="C104" t="n">
-        <v>16.69</v>
+        <v>118.6</v>
       </c>
       <c r="D104" t="n">
-        <v>2.71</v>
+        <v>2.22</v>
       </c>
       <c r="E104" t="b">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>16.79</v>
+        <v>117.26</v>
       </c>
       <c r="G104" t="inlineStr"/>
       <c r="H104" t="n">
-        <v>0.6</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AHLADA</t>
+          <t>SYSTMTXC</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>52.48</v>
+        <v>166.2</v>
       </c>
       <c r="C105" t="n">
-        <v>53.9</v>
+        <v>169.85</v>
       </c>
       <c r="D105" t="n">
-        <v>2.71</v>
+        <v>2.2</v>
       </c>
       <c r="E105" t="b">
         <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>52.29</v>
+        <v>162.54</v>
       </c>
       <c r="G105" t="inlineStr"/>
       <c r="H105" t="n">
-        <v>-2.99</v>
+        <v>-4.3</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>GAYAHWS</t>
+          <t>INFOBEAN</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>3.7</v>
+        <v>531.45</v>
       </c>
       <c r="C106" t="n">
-        <v>3.8</v>
+        <v>542.95</v>
       </c>
       <c r="D106" t="n">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="E106" t="b">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>3.56</v>
+        <v>542</v>
       </c>
       <c r="G106" t="inlineStr"/>
       <c r="H106" t="n">
-        <v>-6.32</v>
+        <v>-0.17</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>OSWALGREEN</t>
+          <t>CEIGALL</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>35.06</v>
+        <v>239.9</v>
       </c>
       <c r="C107" t="n">
-        <v>35.99</v>
+        <v>245.05</v>
       </c>
       <c r="D107" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="E107" t="b">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>34.84</v>
+        <v>242.8</v>
       </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="n">
-        <v>-3.2</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>PATINTLOG</t>
+          <t>HECPROJECT</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>13.95</v>
+        <v>134.12</v>
       </c>
       <c r="C108" t="n">
-        <v>14.32</v>
+        <v>137</v>
       </c>
       <c r="D108" t="n">
-        <v>2.65</v>
+        <v>2.15</v>
       </c>
       <c r="E108" t="b">
         <v>0</v>
       </c>
       <c r="F108" t="n">
-        <v>14.23</v>
+        <v>136.74</v>
       </c>
       <c r="G108" t="inlineStr"/>
       <c r="H108" t="n">
-        <v>-0.63</v>
+        <v>-0.19</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PASUPTAC</t>
+          <t>RADAAN</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>52.52</v>
+        <v>3.28</v>
       </c>
       <c r="C109" t="n">
-        <v>53.9</v>
+        <v>3.35</v>
       </c>
       <c r="D109" t="n">
-        <v>2.63</v>
+        <v>2.13</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
       </c>
       <c r="F109" t="n">
-        <v>53.61</v>
+        <v>3.44</v>
       </c>
       <c r="G109" t="inlineStr"/>
       <c r="H109" t="n">
-        <v>-0.54</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SPUNWEB</t>
+          <t>ROSSELLIND</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>160.05</v>
+        <v>56.7</v>
       </c>
       <c r="C110" t="n">
-        <v>164.25</v>
+        <v>57.9</v>
       </c>
       <c r="D110" t="n">
-        <v>2.62</v>
+        <v>2.12</v>
       </c>
       <c r="E110" t="b">
         <v>0</v>
       </c>
       <c r="F110" t="n">
-        <v>161.55</v>
+        <v>57.55</v>
       </c>
       <c r="G110" t="inlineStr"/>
       <c r="H110" t="n">
-        <v>-1.64</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ROML</t>
+          <t>AVPINFRA</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>50.68</v>
+        <v>129.95</v>
       </c>
       <c r="C111" t="n">
-        <v>52</v>
+        <v>132.7</v>
       </c>
       <c r="D111" t="n">
-        <v>2.6</v>
+        <v>2.12</v>
       </c>
       <c r="E111" t="b">
         <v>0</v>
       </c>
       <c r="F111" t="n">
-        <v>50.94</v>
+        <v>134</v>
       </c>
       <c r="G111" t="inlineStr"/>
       <c r="H111" t="n">
-        <v>-2.04</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MEGASOFT</t>
+          <t>PENINLAND</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>180.32</v>
+        <v>27.43</v>
       </c>
       <c r="C112" t="n">
-        <v>185</v>
+        <v>28</v>
       </c>
       <c r="D112" t="n">
-        <v>2.6</v>
+        <v>2.08</v>
       </c>
       <c r="E112" t="b">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>180.99</v>
+        <v>28.06</v>
       </c>
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="n">
-        <v>-2.17</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>PRIZOR</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>315.85</v>
+        <v>27.97</v>
       </c>
       <c r="C113" t="n">
-        <v>324</v>
+        <v>28.55</v>
       </c>
       <c r="D113" t="n">
-        <v>2.58</v>
+        <v>2.07</v>
       </c>
       <c r="E113" t="b">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>317.5</v>
+        <v>27.32</v>
       </c>
       <c r="G113" t="inlineStr"/>
       <c r="H113" t="n">
-        <v>-2.01</v>
+        <v>-4.31</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>TIGERLOGS</t>
+          <t>SHYAMCENT</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>38.9</v>
+        <v>5.82</v>
       </c>
       <c r="C114" t="n">
-        <v>39.9</v>
+        <v>5.94</v>
       </c>
       <c r="D114" t="n">
-        <v>2.57</v>
+        <v>2.06</v>
       </c>
       <c r="E114" t="b">
         <v>0</v>
       </c>
       <c r="F114" t="n">
-        <v>39.04</v>
+        <v>6.68</v>
       </c>
       <c r="G114" t="inlineStr"/>
       <c r="H114" t="n">
-        <v>-2.16</v>
+        <v>12.46</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>DHARAN</t>
+          <t>EXXARO</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>0.39</v>
+        <v>8.27</v>
       </c>
       <c r="C115" t="n">
-        <v>0.4</v>
+        <v>8.44</v>
       </c>
       <c r="D115" t="n">
-        <v>2.56</v>
+        <v>2.06</v>
       </c>
       <c r="E115" t="b">
         <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.4</v>
+        <v>8.18</v>
       </c>
       <c r="G115" t="inlineStr"/>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>-3.08</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CELEBRITY</t>
+          <t>SBGLP</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>9.890000000000001</v>
+        <v>31.55</v>
       </c>
       <c r="C116" t="n">
-        <v>10.14</v>
+        <v>32.2</v>
       </c>
       <c r="D116" t="n">
-        <v>2.53</v>
+        <v>2.06</v>
       </c>
       <c r="E116" t="b">
         <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>10.36</v>
+        <v>31.41</v>
       </c>
       <c r="G116" t="inlineStr"/>
       <c r="H116" t="n">
-        <v>2.17</v>
+        <v>-2.45</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>3PLAND</t>
+          <t>BILVYAPAR</t>
         </is>
       </c>
       <c r="B117" t="n">
-        <v>39.51</v>
+        <v>10.79</v>
       </c>
       <c r="C117" t="n">
-        <v>40.5</v>
+        <v>11.01</v>
       </c>
       <c r="D117" t="n">
-        <v>2.51</v>
+        <v>2.04</v>
       </c>
       <c r="E117" t="b">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>40</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="G117" t="inlineStr"/>
       <c r="H117" t="n">
-        <v>-1.23</v>
+        <v>-11.81</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SCPL</t>
+          <t>ZODIAC</t>
         </is>
       </c>
       <c r="B118" t="n">
-        <v>220.43</v>
+        <v>341</v>
       </c>
       <c r="C118" t="n">
-        <v>225.92</v>
+        <v>347.9</v>
       </c>
       <c r="D118" t="n">
-        <v>2.49</v>
+        <v>2.02</v>
       </c>
       <c r="E118" t="b">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>219.91</v>
+        <v>338.35</v>
       </c>
       <c r="G118" t="inlineStr"/>
       <c r="H118" t="n">
-        <v>-2.66</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SILLYMONKS</t>
+          <t>GATECHDVR</t>
         </is>
       </c>
       <c r="B119" t="n">
-        <v>24.18</v>
+        <v>0.5</v>
       </c>
       <c r="C119" t="n">
-        <v>24.78</v>
+        <v>0.51</v>
       </c>
       <c r="D119" t="n">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="E119" t="b">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>23.8</v>
+        <v>0.5</v>
       </c>
       <c r="G119" t="inlineStr"/>
       <c r="H119" t="n">
-        <v>-3.95</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HINDOILEXP</t>
+          <t>CCCL</t>
         </is>
       </c>
       <c r="B120" t="n">
-        <v>144.17</v>
+        <v>18.98</v>
       </c>
       <c r="C120" t="n">
-        <v>147.7</v>
+        <v>19.36</v>
       </c>
       <c r="D120" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="E120" t="b">
         <v>0</v>
       </c>
       <c r="F120" t="n">
-        <v>144.2</v>
+        <v>18.98</v>
       </c>
       <c r="G120" t="inlineStr"/>
       <c r="H120" t="n">
-        <v>-2.37</v>
+        <v>-1.96</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CALSOFT</t>
+          <t>SANATHAN</t>
         </is>
       </c>
       <c r="B121" t="n">
-        <v>17.14</v>
+        <v>481.35</v>
       </c>
       <c r="C121" t="n">
-        <v>17.56</v>
+        <v>491</v>
       </c>
       <c r="D121" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="E121" t="b">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>17.31</v>
+        <v>477.5</v>
       </c>
       <c r="G121" t="inlineStr"/>
       <c r="H121" t="n">
-        <v>-1.42</v>
+        <v>-2.75</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BELLACASA</t>
+          <t>EVERESTIND</t>
         </is>
       </c>
       <c r="B122" t="n">
-        <v>424.65</v>
+        <v>544.1</v>
       </c>
       <c r="C122" t="n">
-        <v>435</v>
+        <v>555</v>
       </c>
       <c r="D122" t="n">
-        <v>2.44</v>
+        <v>2</v>
       </c>
       <c r="E122" t="b">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>420</v>
+        <v>552</v>
       </c>
       <c r="G122" t="inlineStr"/>
       <c r="H122" t="n">
-        <v>-3.45</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SILINV</t>
+          <t>AKI</t>
         </is>
       </c>
       <c r="B123" t="n">
-        <v>566.05</v>
+        <v>7.53</v>
       </c>
       <c r="C123" t="n">
-        <v>579.8</v>
+        <v>7.68</v>
       </c>
       <c r="D123" t="n">
-        <v>2.43</v>
+        <v>1.99</v>
       </c>
       <c r="E123" t="b">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>562.45</v>
+        <v>7.64</v>
       </c>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="n">
-        <v>-2.99</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>PRIMECAB</t>
+          <t>PANSARI</t>
         </is>
       </c>
       <c r="B124" t="n">
-        <v>112.25</v>
+        <v>296.05</v>
       </c>
       <c r="C124" t="n">
-        <v>114.95</v>
+        <v>301.95</v>
       </c>
       <c r="D124" t="n">
-        <v>2.41</v>
+        <v>1.99</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>112</v>
+        <v>282</v>
       </c>
       <c r="G124" t="inlineStr"/>
       <c r="H124" t="n">
-        <v>-2.57</v>
+        <v>-6.61</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>GTL</t>
+          <t>ITTL</t>
         </is>
       </c>
       <c r="B125" t="n">
-        <v>8.4</v>
+        <v>119.9</v>
       </c>
       <c r="C125" t="n">
-        <v>8.6</v>
+        <v>122.25</v>
       </c>
       <c r="D125" t="n">
-        <v>2.38</v>
+        <v>1.96</v>
       </c>
       <c r="E125" t="b">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>8.369999999999999</v>
+        <v>122.25</v>
       </c>
       <c r="G125" t="inlineStr"/>
       <c r="H125" t="n">
-        <v>-2.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>RAJOOENG</t>
+          <t>AERONEU</t>
         </is>
       </c>
       <c r="B126" t="n">
-        <v>74.25</v>
+        <v>72.38</v>
       </c>
       <c r="C126" t="n">
-        <v>76</v>
+        <v>73.8</v>
       </c>
       <c r="D126" t="n">
-        <v>2.36</v>
+        <v>1.96</v>
       </c>
       <c r="E126" t="b">
         <v>0</v>
       </c>
       <c r="F126" t="n">
-        <v>72.19</v>
+        <v>73.03</v>
       </c>
       <c r="G126" t="inlineStr"/>
       <c r="H126" t="n">
-        <v>-5.01</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IKS</t>
+          <t>PASUPTAC</t>
         </is>
       </c>
       <c r="B127" t="n">
-        <v>1568</v>
+        <v>50.74</v>
       </c>
       <c r="C127" t="n">
-        <v>1604.9</v>
+        <v>51.71</v>
       </c>
       <c r="D127" t="n">
-        <v>2.35</v>
+        <v>1.91</v>
       </c>
       <c r="E127" t="b">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>1625.1</v>
+        <v>52.08</v>
       </c>
       <c r="G127" t="inlineStr"/>
       <c r="H127" t="n">
-        <v>1.26</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>GLOSTERLTD</t>
+          <t>ODIGMA</t>
         </is>
       </c>
       <c r="B128" t="n">
-        <v>598.05</v>
+        <v>33.17</v>
       </c>
       <c r="C128" t="n">
-        <v>611.9</v>
+        <v>33.8</v>
       </c>
       <c r="D128" t="n">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="E128" t="b">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>602.45</v>
+        <v>34.33</v>
       </c>
       <c r="G128" t="inlineStr"/>
       <c r="H128" t="n">
-        <v>-1.54</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>LIBERTSHOE</t>
+          <t>BRNL</t>
         </is>
       </c>
       <c r="B129" t="n">
-        <v>299.95</v>
+        <v>25.02</v>
       </c>
       <c r="C129" t="n">
-        <v>306.85</v>
+        <v>25.49</v>
       </c>
       <c r="D129" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="E129" t="b">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>298.1</v>
+        <v>24.77</v>
       </c>
       <c r="G129" t="inlineStr"/>
       <c r="H129" t="n">
-        <v>-2.85</v>
+        <v>-2.82</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ROLTA</t>
+          <t>NIBL</t>
         </is>
       </c>
       <c r="B130" t="n">
-        <v>1.74</v>
+        <v>31.9</v>
       </c>
       <c r="C130" t="n">
-        <v>1.78</v>
+        <v>32.5</v>
       </c>
       <c r="D130" t="n">
-        <v>2.3</v>
+        <v>1.88</v>
       </c>
       <c r="E130" t="b">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>1.73</v>
+        <v>31.75</v>
       </c>
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="n">
-        <v>-2.81</v>
+        <v>-2.31</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>TUNWAL</t>
+          <t>GENUSPAPER</t>
         </is>
       </c>
       <c r="B131" t="n">
-        <v>32.75</v>
+        <v>13.8</v>
       </c>
       <c r="C131" t="n">
-        <v>33.5</v>
+        <v>14.06</v>
       </c>
       <c r="D131" t="n">
-        <v>2.29</v>
+        <v>1.88</v>
       </c>
       <c r="E131" t="b">
         <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>32.5</v>
+        <v>13.98</v>
       </c>
       <c r="G131" t="inlineStr"/>
       <c r="H131" t="n">
-        <v>-2.99</v>
+        <v>-0.57</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>KRISHIVAL</t>
+          <t>JISLDVREQS</t>
         </is>
       </c>
       <c r="B132" t="n">
-        <v>464.25</v>
+        <v>28.85</v>
       </c>
       <c r="C132" t="n">
-        <v>474.9</v>
+        <v>29.39</v>
       </c>
       <c r="D132" t="n">
-        <v>2.29</v>
+        <v>1.87</v>
       </c>
       <c r="E132" t="b">
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>465.5</v>
+        <v>29.24</v>
       </c>
       <c r="G132" t="inlineStr"/>
       <c r="H132" t="n">
-        <v>-1.98</v>
+        <v>-0.51</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>VILINBIO</t>
+          <t>MAGNUM</t>
         </is>
       </c>
       <c r="B133" t="n">
-        <v>22.65</v>
+        <v>22.58</v>
       </c>
       <c r="C133" t="n">
-        <v>23.15</v>
+        <v>23</v>
       </c>
       <c r="D133" t="n">
-        <v>2.21</v>
+        <v>1.86</v>
       </c>
       <c r="E133" t="b">
         <v>0</v>
       </c>
       <c r="F133" t="n">
-        <v>23.1</v>
+        <v>22.88</v>
       </c>
       <c r="G133" t="inlineStr"/>
       <c r="H133" t="n">
-        <v>-0.22</v>
+        <v>-0.52</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>RHFL</t>
+          <t>MOLDTECH</t>
         </is>
       </c>
       <c r="B134" t="n">
-        <v>3.17</v>
+        <v>162.98</v>
       </c>
       <c r="C134" t="n">
-        <v>3.24</v>
+        <v>166</v>
       </c>
       <c r="D134" t="n">
-        <v>2.21</v>
+        <v>1.85</v>
       </c>
       <c r="E134" t="b">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>3.2</v>
+        <v>161.6</v>
       </c>
       <c r="G134" t="inlineStr"/>
       <c r="H134" t="n">
-        <v>-1.23</v>
+        <v>-2.65</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WIPL</t>
+          <t>GUJAPOLLO</t>
         </is>
       </c>
       <c r="B135" t="n">
-        <v>165.33</v>
+        <v>446.75</v>
       </c>
       <c r="C135" t="n">
-        <v>168.97</v>
+        <v>455</v>
       </c>
       <c r="D135" t="n">
-        <v>2.2</v>
+        <v>1.85</v>
       </c>
       <c r="E135" t="b">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>169.95</v>
+        <v>445</v>
       </c>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="n">
-        <v>0.58</v>
+        <v>-2.2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CIFL</t>
+          <t>TRIGYN</t>
         </is>
       </c>
       <c r="B136" t="n">
-        <v>30.82</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="C136" t="n">
-        <v>31.49</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>2.17</v>
+        <v>1.85</v>
       </c>
       <c r="E136" t="b">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>31.2</v>
+        <v>70.89</v>
       </c>
       <c r="G136" t="inlineStr"/>
       <c r="H136" t="n">
-        <v>-0.92</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>EVERESTIND</t>
+          <t>RUCHINFRA</t>
         </is>
       </c>
       <c r="B137" t="n">
-        <v>557.9</v>
+        <v>6.53</v>
       </c>
       <c r="C137" t="n">
-        <v>570</v>
+        <v>6.65</v>
       </c>
       <c r="D137" t="n">
-        <v>2.17</v>
+        <v>1.84</v>
       </c>
       <c r="E137" t="b">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>548.7</v>
+        <v>6.64</v>
       </c>
       <c r="G137" t="inlineStr"/>
       <c r="H137" t="n">
-        <v>-3.74</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>AGIIL</t>
+          <t>AKSHAR</t>
         </is>
       </c>
       <c r="B138" t="n">
-        <v>279</v>
+        <v>0.55</v>
       </c>
       <c r="C138" t="n">
-        <v>285</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D138" t="n">
-        <v>2.15</v>
+        <v>1.82</v>
       </c>
       <c r="E138" t="b">
         <v>0</v>
       </c>
       <c r="F138" t="n">
-        <v>273.3</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G138" t="inlineStr"/>
       <c r="H138" t="n">
-        <v>-4.11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>KANANIIND</t>
+          <t>INDTERRAIN</t>
         </is>
       </c>
       <c r="B139" t="n">
-        <v>1.86</v>
+        <v>35.36</v>
       </c>
       <c r="C139" t="n">
-        <v>1.9</v>
+        <v>36</v>
       </c>
       <c r="D139" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="E139" t="b">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>1.9</v>
+        <v>35.44</v>
       </c>
       <c r="G139" t="inlineStr"/>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>-1.56</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>GLOBE</t>
+          <t>HCL-INSYS</t>
         </is>
       </c>
       <c r="B140" t="n">
-        <v>2.84</v>
+        <v>14.07</v>
       </c>
       <c r="C140" t="n">
-        <v>2.9</v>
+        <v>14.32</v>
       </c>
       <c r="D140" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="E140" t="b">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>2.96</v>
+        <v>14.27</v>
       </c>
       <c r="G140" t="inlineStr"/>
       <c r="H140" t="n">
-        <v>2.07</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>KALPATARU</t>
+          <t>STYRENIX</t>
         </is>
       </c>
       <c r="B141" t="n">
-        <v>357.5</v>
+        <v>2008.3</v>
       </c>
       <c r="C141" t="n">
-        <v>365</v>
+        <v>2044</v>
       </c>
       <c r="D141" t="n">
-        <v>2.1</v>
+        <v>1.78</v>
       </c>
       <c r="E141" t="b">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>378.55</v>
+        <v>2017</v>
       </c>
       <c r="G141" t="inlineStr"/>
       <c r="H141" t="n">
-        <v>3.71</v>
+        <v>-1.32</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ADVANCE</t>
+          <t>MAHEPC</t>
         </is>
       </c>
       <c r="B142" t="n">
-        <v>132.22</v>
+        <v>128.73</v>
       </c>
       <c r="C142" t="n">
-        <v>135</v>
+        <v>130.99</v>
       </c>
       <c r="D142" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="E142" t="b">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>128.49</v>
+        <v>129.3</v>
       </c>
       <c r="G142" t="inlineStr"/>
       <c r="H142" t="n">
-        <v>-4.82</v>
+        <v>-1.29</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HAVISHA</t>
+          <t>GOPAL</t>
         </is>
       </c>
       <c r="B143" t="n">
-        <v>1.91</v>
+        <v>328.7</v>
       </c>
       <c r="C143" t="n">
-        <v>1.95</v>
+        <v>334.5</v>
       </c>
       <c r="D143" t="n">
-        <v>2.09</v>
+        <v>1.76</v>
       </c>
       <c r="E143" t="b">
         <v>0</v>
       </c>
       <c r="F143" t="n">
-        <v>1.93</v>
+        <v>329.9</v>
       </c>
       <c r="G143" t="inlineStr"/>
       <c r="H143" t="n">
-        <v>-1.03</v>
+        <v>-1.38</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>ADROITINFO</t>
+          <t>GVT&amp;D</t>
         </is>
       </c>
       <c r="B144" t="n">
-        <v>10.07</v>
+        <v>2863.9</v>
       </c>
       <c r="C144" t="n">
-        <v>10.28</v>
+        <v>2914</v>
       </c>
       <c r="D144" t="n">
-        <v>2.09</v>
+        <v>1.75</v>
       </c>
       <c r="E144" t="b">
         <v>0</v>
       </c>
-      <c r="F144" t="n">
-        <v>10.1</v>
-      </c>
+      <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr"/>
-      <c r="H144" t="n">
-        <v>-1.75</v>
-      </c>
+      <c r="H144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MADHUCON</t>
+          <t>IWARE</t>
         </is>
       </c>
       <c r="B145" t="n">
-        <v>6.25</v>
+        <v>217.2</v>
       </c>
       <c r="C145" t="n">
-        <v>6.38</v>
+        <v>221</v>
       </c>
       <c r="D145" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="E145" t="b">
         <v>0</v>
       </c>
       <c r="F145" t="n">
-        <v>6.49</v>
+        <v>219.9</v>
       </c>
       <c r="G145" t="inlineStr"/>
       <c r="H145" t="n">
-        <v>1.72</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SJLOGISTIC</t>
+          <t>LGHL</t>
         </is>
       </c>
       <c r="B146" t="n">
-        <v>449.65</v>
+        <v>269.3</v>
       </c>
       <c r="C146" t="n">
-        <v>459</v>
+        <v>274</v>
       </c>
       <c r="D146" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="E146" t="b">
         <v>0</v>
       </c>
       <c r="F146" t="n">
-        <v>432</v>
+        <v>272.75</v>
       </c>
       <c r="G146" t="inlineStr"/>
       <c r="H146" t="n">
-        <v>-5.88</v>
+        <v>-0.46</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>OMKARCHEM</t>
+          <t>ROLLT</t>
         </is>
       </c>
       <c r="B147" t="n">
-        <v>5.28</v>
+        <v>1.16</v>
       </c>
       <c r="C147" t="n">
-        <v>5.39</v>
+        <v>1.18</v>
       </c>
       <c r="D147" t="n">
-        <v>2.08</v>
+        <v>1.72</v>
       </c>
       <c r="E147" t="b">
         <v>0</v>
       </c>
       <c r="F147" t="n">
-        <v>5.25</v>
+        <v>1.2</v>
       </c>
       <c r="G147" t="inlineStr"/>
       <c r="H147" t="n">
-        <v>-2.6</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>CROWN</t>
+          <t>V2RETAIL</t>
         </is>
       </c>
       <c r="B148" t="n">
-        <v>136.18</v>
+        <v>2349.8</v>
       </c>
       <c r="C148" t="n">
-        <v>139</v>
+        <v>2390</v>
       </c>
       <c r="D148" t="n">
-        <v>2.07</v>
+        <v>1.71</v>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>134</v>
+        <v>2370.5</v>
       </c>
       <c r="G148" t="inlineStr"/>
       <c r="H148" t="n">
-        <v>-3.6</v>
+        <v>-0.82</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>PATELRMART</t>
+          <t>KANANIIND</t>
         </is>
       </c>
       <c r="B149" t="n">
-        <v>234.17</v>
+        <v>1.76</v>
       </c>
       <c r="C149" t="n">
-        <v>238.99</v>
+        <v>1.79</v>
       </c>
       <c r="D149" t="n">
-        <v>2.06</v>
+        <v>1.7</v>
       </c>
       <c r="E149" t="b">
         <v>0</v>
       </c>
       <c r="F149" t="n">
-        <v>235.01</v>
+        <v>1.78</v>
       </c>
       <c r="G149" t="inlineStr"/>
       <c r="H149" t="n">
-        <v>-1.67</v>
+        <v>-0.5600000000000001</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>VIPCLOTHNG</t>
+          <t>CELEBRITY</t>
         </is>
       </c>
       <c r="B150" t="n">
-        <v>32.58</v>
+        <v>10.08</v>
       </c>
       <c r="C150" t="n">
-        <v>33.24</v>
+        <v>10.25</v>
       </c>
       <c r="D150" t="n">
-        <v>2.03</v>
+        <v>1.69</v>
       </c>
       <c r="E150" t="b">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>33.21</v>
+        <v>10.03</v>
       </c>
       <c r="G150" t="inlineStr"/>
       <c r="H150" t="n">
-        <v>-0.09</v>
+        <v>-2.15</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>KEEPLEARN</t>
+          <t>GATECH</t>
         </is>
       </c>
       <c r="B151" t="n">
-        <v>2.49</v>
+        <v>0.6</v>
       </c>
       <c r="C151" t="n">
-        <v>2.54</v>
+        <v>0.61</v>
       </c>
       <c r="D151" t="n">
-        <v>2.01</v>
+        <v>1.67</v>
       </c>
       <c r="E151" t="b">
         <v>0</v>
       </c>
       <c r="F151" t="n">
-        <v>2.53</v>
+        <v>0.6</v>
       </c>
       <c r="G151" t="inlineStr"/>
       <c r="H151" t="n">
-        <v>-0.39</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>INCREDIBLE</t>
+          <t>GKENERGY</t>
         </is>
       </c>
       <c r="B152" t="n">
-        <v>41.88</v>
+        <v>167.12</v>
       </c>
       <c r="C152" t="n">
-        <v>42.72</v>
+        <v>169.9</v>
       </c>
       <c r="D152" t="n">
-        <v>2.01</v>
+        <v>1.66</v>
       </c>
       <c r="E152" t="b">
         <v>0</v>
       </c>
       <c r="F152" t="n">
-        <v>42.58</v>
+        <v>170.49</v>
       </c>
       <c r="G152" t="inlineStr"/>
       <c r="H152" t="n">
-        <v>-0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>IL&amp;FSTRANS</t>
+          <t>AVTNPL</t>
         </is>
       </c>
       <c r="B153" t="n">
-        <v>2.98</v>
+        <v>69.26000000000001</v>
       </c>
       <c r="C153" t="n">
-        <v>3.04</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="D153" t="n">
-        <v>2.01</v>
+        <v>1.65</v>
       </c>
       <c r="E153" t="b">
         <v>0</v>
       </c>
-      <c r="F153" t="inlineStr"/>
+      <c r="F153" t="n">
+        <v>69.06</v>
+      </c>
       <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
+      <c r="H153" t="n">
+        <v>-1.9</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SACHEEROME</t>
+          <t>AKUMS</t>
         </is>
       </c>
       <c r="B154" t="n">
-        <v>356.55</v>
+        <v>414.05</v>
       </c>
       <c r="C154" t="n">
-        <v>363.7</v>
+        <v>420.9</v>
       </c>
       <c r="D154" t="n">
-        <v>2.01</v>
+        <v>1.65</v>
       </c>
       <c r="E154" t="b">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>349</v>
+        <v>421.7</v>
       </c>
       <c r="G154" t="inlineStr"/>
       <c r="H154" t="n">
-        <v>-4.04</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>MOHITIND</t>
+          <t>GIRIRAJ</t>
         </is>
       </c>
       <c r="B155" t="n">
-        <v>30.37</v>
+        <v>103.8</v>
       </c>
       <c r="C155" t="n">
-        <v>30.98</v>
+        <v>105.5</v>
       </c>
       <c r="D155" t="n">
-        <v>2.01</v>
+        <v>1.64</v>
       </c>
       <c r="E155" t="b">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>30</v>
+        <v>105.95</v>
       </c>
       <c r="G155" t="inlineStr"/>
       <c r="H155" t="n">
-        <v>-3.16</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>TOKYOPLAST</t>
+          <t>MOHITIND</t>
         </is>
       </c>
       <c r="B156" t="n">
-        <v>121.02</v>
+        <v>30.01</v>
       </c>
       <c r="C156" t="n">
-        <v>123.44</v>
+        <v>30.5</v>
       </c>
       <c r="D156" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="E156" t="b">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>123.41</v>
+        <v>30.5</v>
       </c>
       <c r="G156" t="inlineStr"/>
       <c r="H156" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DCM</t>
+          <t>SGL</t>
         </is>
       </c>
       <c r="B157" t="n">
-        <v>97.48999999999999</v>
+        <v>12.99</v>
       </c>
       <c r="C157" t="n">
-        <v>99.44</v>
+        <v>13.2</v>
       </c>
       <c r="D157" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="E157" t="b">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>97.91</v>
+        <v>14.9</v>
       </c>
       <c r="G157" t="inlineStr"/>
       <c r="H157" t="n">
-        <v>-1.54</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>GFLLIMITED</t>
+          <t>S&amp;SPOWER</t>
         </is>
       </c>
       <c r="B158" t="n">
-        <v>61.13</v>
+        <v>252.5</v>
       </c>
       <c r="C158" t="n">
-        <v>62.35</v>
+        <v>256.6</v>
       </c>
       <c r="D158" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="E158" t="b">
         <v>0</v>
       </c>
-      <c r="F158" t="n">
-        <v>61.35</v>
-      </c>
+      <c r="F158" t="inlineStr"/>
       <c r="G158" t="inlineStr"/>
-      <c r="H158" t="n">
-        <v>-1.6</v>
-      </c>
+      <c r="H158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>XTGLOBAL</t>
+          <t>IKIO</t>
         </is>
       </c>
       <c r="B159" t="n">
-        <v>37.48</v>
+        <v>186.07</v>
       </c>
       <c r="C159" t="n">
-        <v>38.23</v>
+        <v>189.07</v>
       </c>
       <c r="D159" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="E159" t="b">
         <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>37.76</v>
+        <v>186.07</v>
       </c>
       <c r="G159" t="inlineStr"/>
       <c r="H159" t="n">
-        <v>-1.23</v>
+        <v>-1.59</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>DCMFINSERV</t>
+          <t>REPL</t>
         </is>
       </c>
       <c r="B160" t="n">
-        <v>5.49</v>
+        <v>124.99</v>
       </c>
       <c r="C160" t="n">
-        <v>5.6</v>
+        <v>127</v>
       </c>
       <c r="D160" t="n">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="E160" t="b">
         <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>5.57</v>
+        <v>127</v>
       </c>
       <c r="G160" t="inlineStr"/>
       <c r="H160" t="n">
-        <v>-0.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>DUCON</t>
+          <t>ENERGYDEV</t>
         </is>
       </c>
       <c r="B161" t="n">
-        <v>4.54</v>
+        <v>24.6</v>
       </c>
       <c r="C161" t="n">
-        <v>4.63</v>
+        <v>24.99</v>
       </c>
       <c r="D161" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="E161" t="b">
         <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>4.6</v>
+        <v>24.7</v>
       </c>
       <c r="G161" t="inlineStr"/>
       <c r="H161" t="n">
-        <v>-0.65</v>
+        <v>-1.16</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SUTLEJTEX</t>
+          <t>SURYODAY</t>
         </is>
       </c>
       <c r="B162" t="n">
-        <v>34.42</v>
+        <v>140.75</v>
       </c>
       <c r="C162" t="n">
-        <v>35.1</v>
+        <v>142.99</v>
       </c>
       <c r="D162" t="n">
-        <v>1.98</v>
+        <v>1.59</v>
       </c>
       <c r="E162" t="b">
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>34.98</v>
+        <v>141.63</v>
       </c>
       <c r="G162" t="inlineStr"/>
       <c r="H162" t="n">
-        <v>-0.34</v>
+        <v>-0.95</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BANG</t>
+          <t>GVKPIL</t>
         </is>
       </c>
       <c r="B163" t="n">
-        <v>53.94</v>
+        <v>3.14</v>
       </c>
       <c r="C163" t="n">
-        <v>55</v>
+        <v>3.19</v>
       </c>
       <c r="D163" t="n">
-        <v>1.97</v>
+        <v>1.59</v>
       </c>
       <c r="E163" t="b">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>55</v>
+        <v>3.2</v>
       </c>
       <c r="G163" t="inlineStr"/>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>GVKPIL</t>
+          <t>EFCIL</t>
         </is>
       </c>
       <c r="B164" t="n">
-        <v>3.08</v>
+        <v>264.95</v>
       </c>
       <c r="C164" t="n">
-        <v>3.14</v>
+        <v>269.15</v>
       </c>
       <c r="D164" t="n">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="E164" t="b">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>3.14</v>
+        <v>270.4</v>
       </c>
       <c r="G164" t="inlineStr"/>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>MODTHREAD</t>
+          <t>PPAP</t>
         </is>
       </c>
       <c r="B165" t="n">
-        <v>46.1</v>
+        <v>228.4</v>
       </c>
       <c r="C165" t="n">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="D165" t="n">
-        <v>1.95</v>
+        <v>1.58</v>
       </c>
       <c r="E165" t="b">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>47</v>
+        <v>227.75</v>
       </c>
       <c r="G165" t="inlineStr"/>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>-1.83</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>TEAMLEASE</t>
+          <t>DIL</t>
         </is>
       </c>
       <c r="B166" t="n">
-        <v>1657.9</v>
+        <v>1.9</v>
       </c>
       <c r="C166" t="n">
-        <v>1690</v>
+        <v>1.93</v>
       </c>
       <c r="D166" t="n">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="E166" t="b">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>1815</v>
+        <v>1.91</v>
       </c>
       <c r="G166" t="inlineStr"/>
       <c r="H166" t="n">
-        <v>7.4</v>
+        <v>-1.04</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>EMAMIPAP</t>
+          <t>HESTERBIO</t>
         </is>
       </c>
       <c r="B167" t="n">
-        <v>93.09</v>
+        <v>1643</v>
       </c>
       <c r="C167" t="n">
-        <v>94.90000000000001</v>
+        <v>1669</v>
       </c>
       <c r="D167" t="n">
-        <v>1.94</v>
+        <v>1.58</v>
       </c>
       <c r="E167" t="b">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>94.14</v>
+        <v>1634.6</v>
       </c>
       <c r="G167" t="inlineStr"/>
       <c r="H167" t="n">
-        <v>-0.8</v>
+        <v>-2.06</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>AURIGROW</t>
+          <t>SALASAR</t>
         </is>
       </c>
       <c r="B168" t="n">
-        <v>0.52</v>
+        <v>10.18</v>
       </c>
       <c r="C168" t="n">
-        <v>0.53</v>
+        <v>10.34</v>
       </c>
       <c r="D168" t="n">
-        <v>1.92</v>
+        <v>1.57</v>
       </c>
       <c r="E168" t="b">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.53</v>
+        <v>10.18</v>
       </c>
       <c r="G168" t="inlineStr"/>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>-1.55</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>LYKALABS</t>
+          <t>SWARAJ</t>
         </is>
       </c>
       <c r="B169" t="n">
-        <v>84.38</v>
+        <v>248.6</v>
       </c>
       <c r="C169" t="n">
-        <v>86</v>
+        <v>252.45</v>
       </c>
       <c r="D169" t="n">
-        <v>1.92</v>
+        <v>1.55</v>
       </c>
       <c r="E169" t="b">
         <v>0</v>
       </c>
       <c r="F169" t="n">
-        <v>83.3</v>
+        <v>253</v>
       </c>
       <c r="G169" t="inlineStr"/>
       <c r="H169" t="n">
-        <v>-3.14</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>SHEKHAWATI</t>
+          <t>BALPHARMA</t>
         </is>
       </c>
       <c r="B170" t="n">
-        <v>17.94</v>
+        <v>75.44</v>
       </c>
       <c r="C170" t="n">
-        <v>18.28</v>
+        <v>76.59999999999999</v>
       </c>
       <c r="D170" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="E170" t="b">
         <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>19.73</v>
+        <v>75.89</v>
       </c>
       <c r="G170" t="inlineStr"/>
       <c r="H170" t="n">
-        <v>7.93</v>
+        <v>-0.93</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>GREENPOWER</t>
+          <t>SHAH</t>
         </is>
       </c>
       <c r="B171" t="n">
-        <v>13.15</v>
+        <v>3.89</v>
       </c>
       <c r="C171" t="n">
-        <v>13.4</v>
+        <v>3.95</v>
       </c>
       <c r="D171" t="n">
-        <v>1.9</v>
+        <v>1.54</v>
       </c>
       <c r="E171" t="b">
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>13</v>
+        <v>3.87</v>
       </c>
       <c r="G171" t="inlineStr"/>
       <c r="H171" t="n">
-        <v>-2.99</v>
+        <v>-2.03</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ABINFRA</t>
+          <t>SRPL</t>
         </is>
       </c>
       <c r="B172" t="n">
-        <v>19.43</v>
+        <v>0.66</v>
       </c>
       <c r="C172" t="n">
-        <v>19.8</v>
+        <v>0.67</v>
       </c>
       <c r="D172" t="n">
-        <v>1.9</v>
+        <v>1.52</v>
       </c>
       <c r="E172" t="b">
         <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>19.07</v>
+        <v>0.67</v>
       </c>
       <c r="G172" t="inlineStr"/>
       <c r="H172" t="n">
-        <v>-3.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GOYALALUM</t>
+          <t>NACLIND</t>
         </is>
       </c>
       <c r="B173" t="n">
-        <v>6.92</v>
+        <v>180.23</v>
       </c>
       <c r="C173" t="n">
-        <v>7.05</v>
+        <v>182.95</v>
       </c>
       <c r="D173" t="n">
-        <v>1.88</v>
+        <v>1.51</v>
       </c>
       <c r="E173" t="b">
         <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>6.98</v>
+        <v>179.95</v>
       </c>
       <c r="G173" t="inlineStr"/>
       <c r="H173" t="n">
-        <v>-0.99</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PREMIERPOL</t>
+          <t>INDOSTAR</t>
         </is>
       </c>
       <c r="B174" t="n">
-        <v>48.98</v>
+        <v>219.75</v>
       </c>
       <c r="C174" t="n">
-        <v>49.9</v>
+        <v>223.05</v>
       </c>
       <c r="D174" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="E174" t="b">
         <v>0</v>
       </c>
       <c r="F174" t="n">
-        <v>45.5</v>
+        <v>221</v>
       </c>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="n">
-        <v>-8.82</v>
+        <v>-0.92</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>VIESL</t>
+          <t>OLIL</t>
         </is>
       </c>
       <c r="B175" t="n">
-        <v>295.75</v>
+        <v>320</v>
       </c>
       <c r="C175" t="n">
-        <v>301.3</v>
+        <v>324.8</v>
       </c>
       <c r="D175" t="n">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="E175" t="b">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>295</v>
+        <v>324.8</v>
       </c>
       <c r="G175" t="inlineStr"/>
       <c r="H175" t="n">
-        <v>-2.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>APOLSINHOT</t>
+          <t>BIL</t>
         </is>
       </c>
       <c r="B176" t="n">
-        <v>1293.3</v>
+        <v>826.25</v>
       </c>
       <c r="C176" t="n">
-        <v>1317.5</v>
+        <v>838.65</v>
       </c>
       <c r="D176" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="E176" t="b">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>1286.3</v>
+        <v>821.7</v>
       </c>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="n">
-        <v>-2.37</v>
+        <v>-2.02</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>INDIGO</t>
+          <t>AXITA</t>
         </is>
       </c>
       <c r="B177" t="n">
-        <v>5843.5</v>
+        <v>8</v>
       </c>
       <c r="C177" t="n">
-        <v>5953</v>
+        <v>8.119999999999999</v>
       </c>
       <c r="D177" t="n">
-        <v>1.87</v>
+        <v>1.5</v>
       </c>
       <c r="E177" t="b">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>5888</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="G177" t="inlineStr"/>
       <c r="H177" t="n">
-        <v>-1.09</v>
+        <v>-0.12</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MASTERTR</t>
+          <t>SMCGLOBAL</t>
         </is>
       </c>
       <c r="B178" t="n">
-        <v>107.79</v>
+        <v>57.88</v>
       </c>
       <c r="C178" t="n">
-        <v>109.8</v>
+        <v>58.75</v>
       </c>
       <c r="D178" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="E178" t="b">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>106.55</v>
+        <v>58.1</v>
       </c>
       <c r="G178" t="inlineStr"/>
       <c r="H178" t="n">
-        <v>-2.96</v>
+        <v>-1.11</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>APCL</t>
+          <t>DBOL</t>
         </is>
       </c>
       <c r="B179" t="n">
-        <v>127.63</v>
+        <v>71.14</v>
       </c>
       <c r="C179" t="n">
-        <v>130</v>
+        <v>72.2</v>
       </c>
       <c r="D179" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
       <c r="E179" t="b">
         <v>0</v>
       </c>
       <c r="F179" t="n">
-        <v>129.99</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="G179" t="inlineStr"/>
       <c r="H179" t="n">
-        <v>-0.01</v>
+        <v>-1.45</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>LOKESHMACH</t>
+          <t>IVC</t>
         </is>
       </c>
       <c r="B180" t="n">
-        <v>170.82</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="C180" t="n">
-        <v>174</v>
+        <v>8.15</v>
       </c>
       <c r="D180" t="n">
-        <v>1.86</v>
+        <v>1.49</v>
       </c>
       <c r="E180" t="b">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>172</v>
+        <v>8.09</v>
       </c>
       <c r="G180" t="inlineStr"/>
       <c r="H180" t="n">
-        <v>-1.15</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>COMPUSOFT</t>
+          <t>REMSONSIND</t>
         </is>
       </c>
       <c r="B181" t="n">
-        <v>17.3</v>
+        <v>120.43</v>
       </c>
       <c r="C181" t="n">
-        <v>17.62</v>
+        <v>122.23</v>
       </c>
       <c r="D181" t="n">
-        <v>1.85</v>
+        <v>1.49</v>
       </c>
       <c r="E181" t="b">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>17.51</v>
+        <v>121.36</v>
       </c>
       <c r="G181" t="inlineStr"/>
       <c r="H181" t="n">
-        <v>-0.62</v>
+        <v>-0.71</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>LORDSCHLO</t>
+          <t>NAHARINDUS</t>
         </is>
       </c>
       <c r="B182" t="n">
-        <v>181.54</v>
+        <v>112.83</v>
       </c>
       <c r="C182" t="n">
-        <v>184.9</v>
+        <v>114.5</v>
       </c>
       <c r="D182" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="E182" t="b">
         <v>0</v>
       </c>
       <c r="F182" t="n">
-        <v>175.91</v>
+        <v>112.55</v>
       </c>
       <c r="G182" t="inlineStr"/>
       <c r="H182" t="n">
-        <v>-4.86</v>
+        <v>-1.7</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>TPHQ</t>
+          <t>YATHARTH</t>
         </is>
       </c>
       <c r="B183" t="n">
-        <v>0.54</v>
+        <v>783.4</v>
       </c>
       <c r="C183" t="n">
-        <v>0.55</v>
+        <v>795</v>
       </c>
       <c r="D183" t="n">
-        <v>1.85</v>
+        <v>1.48</v>
       </c>
       <c r="E183" t="b">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>0.55</v>
+        <v>767.5</v>
       </c>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>-3.46</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>TREL</t>
+          <t>LGEINDIA</t>
         </is>
       </c>
       <c r="B184" t="n">
-        <v>26.7</v>
+        <v>1616.4</v>
       </c>
       <c r="C184" t="n">
-        <v>27.19</v>
+        <v>1640</v>
       </c>
       <c r="D184" t="n">
-        <v>1.84</v>
+        <v>1.46</v>
       </c>
       <c r="E184" t="b">
         <v>0</v>
       </c>
       <c r="F184" t="n">
-        <v>26.82</v>
+        <v>1634.3</v>
       </c>
       <c r="G184" t="inlineStr"/>
       <c r="H184" t="n">
-        <v>-1.36</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SMLT</t>
+          <t>INDBANK</t>
         </is>
       </c>
       <c r="B185" t="n">
-        <v>98</v>
+        <v>36.26</v>
       </c>
       <c r="C185" t="n">
-        <v>99.8</v>
+        <v>36.78</v>
       </c>
       <c r="D185" t="n">
-        <v>1.84</v>
+        <v>1.43</v>
       </c>
       <c r="E185" t="b">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>99.27</v>
+        <v>36.67</v>
       </c>
       <c r="G185" t="inlineStr"/>
       <c r="H185" t="n">
-        <v>-0.53</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>STLTECH</t>
+          <t>SPLPETRO</t>
         </is>
       </c>
       <c r="B186" t="n">
-        <v>106.06</v>
+        <v>670.6</v>
       </c>
       <c r="C186" t="n">
-        <v>107.99</v>
+        <v>680.2</v>
       </c>
       <c r="D186" t="n">
-        <v>1.82</v>
+        <v>1.43</v>
       </c>
       <c r="E186" t="b">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>106.71</v>
+        <v>665.5</v>
       </c>
       <c r="G186" t="inlineStr"/>
       <c r="H186" t="n">
-        <v>-1.19</v>
+        <v>-2.16</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>TASTYBITE</t>
+          <t>DAVANGERE</t>
         </is>
       </c>
       <c r="B187" t="n">
-        <v>8318.5</v>
+        <v>3.53</v>
       </c>
       <c r="C187" t="n">
-        <v>8470</v>
+        <v>3.58</v>
       </c>
       <c r="D187" t="n">
-        <v>1.82</v>
+        <v>1.42</v>
       </c>
       <c r="E187" t="b">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>8383.5</v>
+        <v>3.57</v>
       </c>
       <c r="G187" t="inlineStr"/>
       <c r="H187" t="n">
-        <v>-1.02</v>
+        <v>-0.28</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ATAM</t>
+          <t>POLYPLEX</t>
         </is>
       </c>
       <c r="B188" t="n">
-        <v>86.90000000000001</v>
+        <v>838.2</v>
       </c>
       <c r="C188" t="n">
-        <v>88.48</v>
+        <v>850</v>
       </c>
       <c r="D188" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="E188" t="b">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>86.40000000000001</v>
+        <v>835.25</v>
       </c>
       <c r="G188" t="inlineStr"/>
       <c r="H188" t="n">
-        <v>-2.35</v>
+        <v>-1.74</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>HINDCON</t>
+          <t>AHLUCONT</t>
         </is>
       </c>
       <c r="B189" t="n">
-        <v>30.14</v>
+        <v>993.25</v>
       </c>
       <c r="C189" t="n">
-        <v>30.69</v>
+        <v>1007.25</v>
       </c>
       <c r="D189" t="n">
-        <v>1.82</v>
+        <v>1.41</v>
       </c>
       <c r="E189" t="b">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>29.81</v>
+        <v>985.3</v>
       </c>
       <c r="G189" t="inlineStr"/>
       <c r="H189" t="n">
-        <v>-2.87</v>
+        <v>-2.18</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MWL</t>
+          <t>ZODIACLOTH</t>
         </is>
       </c>
       <c r="B190" t="n">
-        <v>250.43</v>
+        <v>89.73999999999999</v>
       </c>
       <c r="C190" t="n">
-        <v>255</v>
+        <v>90.98999999999999</v>
       </c>
       <c r="D190" t="n">
-        <v>1.82</v>
+        <v>1.39</v>
       </c>
       <c r="E190" t="b">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>247.89</v>
+        <v>89.5</v>
       </c>
       <c r="G190" t="inlineStr"/>
       <c r="H190" t="n">
-        <v>-2.79</v>
+        <v>-1.64</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>RELTD</t>
+          <t>DAMODARIND</t>
         </is>
       </c>
       <c r="B191" t="n">
-        <v>163.04</v>
+        <v>30.52</v>
       </c>
       <c r="C191" t="n">
-        <v>165.99</v>
+        <v>30.94</v>
       </c>
       <c r="D191" t="n">
-        <v>1.81</v>
+        <v>1.38</v>
       </c>
       <c r="E191" t="b">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>161.93</v>
+        <v>30.02</v>
       </c>
       <c r="G191" t="inlineStr"/>
       <c r="H191" t="n">
-        <v>-2.45</v>
+        <v>-2.97</v>
       </c>
     </row>
     <row r="192">
       <c r=